--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1331" uniqueCount="516">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="519">
   <si>
     <t>ID</t>
   </si>
@@ -690,12 +690,6 @@
     <t>NICE Guidance</t>
   </si>
   <si>
-    <t>Nicotine dose delivered</t>
-  </si>
-  <si>
-    <t>The amount of nicotine that enters the bodily tissues of a person or other species of animal from from a specified episode of nicotine ingestion by means of a nicotine delivery device</t>
-  </si>
-  <si>
     <t>Nicotine harm reduction</t>
   </si>
   <si>
@@ -1576,6 +1570,21 @@
   </si>
   <si>
     <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
+  </si>
+  <si>
+    <t>OBI:0000984</t>
+  </si>
+  <si>
+    <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
+  </si>
+  <si>
+    <t>Measurement datum</t>
+  </si>
+  <si>
+    <t>Nicotine dose</t>
+  </si>
+  <si>
+    <t>Dose in which the thing administered is nicotine.</t>
   </si>
 </sst>
 </file>
@@ -1682,7 +1691,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1738,6 +1747,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2075,11 +2087,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S336"/>
+  <dimension ref="A1:S338"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D308" sqref="D308"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2158,7 +2170,7 @@
         <v>156</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -2915,8 +2927,12 @@
       <c r="C30" s="13" t="s">
         <v>188</v>
       </c>
-      <c r="D30" s="13"/>
-      <c r="E30" s="13"/>
+      <c r="D30" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F30" s="13" t="s">
         <v>5</v>
       </c>
@@ -3303,14 +3319,22 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="12"/>
+    <row r="44" spans="1:18" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="13" t="s">
+        <v>150</v>
+      </c>
       <c r="B44" s="13" t="s">
-        <v>210</v>
-      </c>
-      <c r="C44" s="13"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="13"/>
+        <v>67</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="F44" s="13" t="s">
         <v>5</v>
       </c>
@@ -3321,20 +3345,16 @@
       <c r="K44" s="13"/>
       <c r="L44" s="13"/>
       <c r="M44" s="13"/>
-      <c r="N44" s="13">
-        <v>1</v>
-      </c>
+      <c r="N44" s="13"/>
       <c r="O44" s="13"/>
-      <c r="P44" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q44" s="12"/>
-      <c r="R44" s="12"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+      <c r="R44" s="14"/>
     </row>
     <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="13"/>
+      <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3357,14 +3377,12 @@
         <v>157</v>
       </c>
       <c r="Q45" s="12"/>
-      <c r="R45" s="14"/>
+      <c r="R45" s="12"/>
     </row>
     <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>150</v>
-      </c>
+      <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -3387,11 +3405,12 @@
         <v>157</v>
       </c>
       <c r="Q46" s="12"/>
-      <c r="R46" s="12"/>
+      <c r="R46" s="14"/>
     </row>
     <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -3413,11 +3432,12 @@
       <c r="P47" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q47" s="13"/>
+      <c r="Q47" s="12"/>
+      <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -3443,7 +3463,7 @@
     </row>
     <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -3465,10 +3485,11 @@
       <c r="P49" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -3492,9 +3513,8 @@
       </c>
     </row>
     <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="13"/>
       <c r="B51" s="13" t="s">
-        <v>141</v>
+        <v>216</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -3516,13 +3536,11 @@
       <c r="P51" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q51" s="13"/>
-      <c r="R51" s="14"/>
     </row>
     <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="12"/>
+      <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
-        <v>217</v>
+        <v>141</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -3544,11 +3562,13 @@
       <c r="P52" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R52" s="12"/>
-    </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q52" s="13"/>
+      <c r="R52" s="14"/>
+    </row>
+    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="12"/>
       <c r="B53" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -3570,10 +3590,11 @@
       <c r="P53" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R53" s="12"/>
+    </row>
+    <row r="54" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -3595,15 +3616,12 @@
       <c r="P54" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q54" s="12"/>
-    </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="C55" s="13" t="s">
-        <v>221</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="C55" s="13"/>
       <c r="D55" s="13"/>
       <c r="E55" s="13"/>
       <c r="F55" s="13" t="s">
@@ -3623,15 +3641,24 @@
       <c r="P55" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q55" s="13"/>
-    </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q55" s="12"/>
+    </row>
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+      <c r="A56" s="11" t="s">
+        <v>514</v>
+      </c>
       <c r="B56" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="C56" s="13"/>
-      <c r="D56" s="13"/>
-      <c r="E56" s="13"/>
+        <v>360</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>515</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F56" s="13" t="s">
         <v>5</v>
       </c>
@@ -3642,23 +3669,24 @@
       <c r="K56" s="13"/>
       <c r="L56" s="13"/>
       <c r="M56" s="13"/>
-      <c r="N56" s="13">
-        <v>1</v>
-      </c>
+      <c r="N56" s="13"/>
       <c r="O56" s="13"/>
-      <c r="P56" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q56" s="13"/>
-    </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="12"/>
+    </row>
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C57" s="13"/>
-      <c r="D57" s="13"/>
-      <c r="E57" s="13"/>
+        <v>517</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>360</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F57" s="13" t="s">
         <v>5</v>
       </c>
@@ -3676,12 +3704,11 @@
       <c r="P57" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R57" s="14"/>
+      <c r="Q57" s="13"/>
     </row>
     <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12"/>
       <c r="B58" s="13" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -3703,12 +3730,12 @@
       <c r="P58" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R58" s="12"/>
-    </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="12"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -3730,11 +3757,12 @@
       <c r="P59" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R59" s="12"/>
+      <c r="R59" s="14"/>
     </row>
     <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -3756,10 +3784,12 @@
       <c r="P60" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R60" s="12"/>
+    </row>
+    <row r="61" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -3781,10 +3811,11 @@
       <c r="P61" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -3806,11 +3837,10 @@
       <c r="P62" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q62" s="12"/>
     </row>
     <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -3835,7 +3865,7 @@
     </row>
     <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3857,12 +3887,11 @@
       <c r="P64" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q64" s="13"/>
+      <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="12"/>
       <c r="B65" s="13" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3884,13 +3913,10 @@
       <c r="P65" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q65" s="13"/>
-      <c r="R65" s="12"/>
-    </row>
-    <row r="66" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="11"/>
+    </row>
+    <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3913,13 +3939,11 @@
         <v>157</v>
       </c>
       <c r="Q66" s="13"/>
-      <c r="R66" s="11"/>
-      <c r="S66" s="11"/>
     </row>
     <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="13"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3942,12 +3966,12 @@
         <v>157</v>
       </c>
       <c r="Q67" s="13"/>
-      <c r="R67" s="14"/>
-    </row>
-    <row r="68" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="13"/>
+      <c r="R67" s="12"/>
+    </row>
+    <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="11"/>
       <c r="B68" s="13" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -3970,12 +3994,13 @@
         <v>157</v>
       </c>
       <c r="Q68" s="13"/>
-      <c r="R68" s="14"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
     </row>
     <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -4003,7 +4028,7 @@
     <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -4031,7 +4056,7 @@
     <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -4053,12 +4078,13 @@
       <c r="P71" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="C72" s="13"/>
       <c r="D72" s="13"/>
@@ -4080,11 +4106,13 @@
       <c r="P72" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
     </row>
     <row r="73" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="C73" s="13"/>
       <c r="D73" s="13"/>
@@ -4106,10 +4134,12 @@
       <c r="P73" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R73" s="14"/>
+    </row>
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="C74" s="13"/>
       <c r="D74" s="13"/>
@@ -4131,11 +4161,11 @@
       <c r="P74" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q74" s="13"/>
+      <c r="R74" s="14"/>
     </row>
     <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B75" s="13" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -4157,12 +4187,10 @@
       <c r="P75" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q75" s="13"/>
-    </row>
-    <row r="76" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="13"/>
+    </row>
+    <row r="76" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="13" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -4184,11 +4212,11 @@
       <c r="P76" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R76" s="14"/>
+      <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -4198,9 +4226,7 @@
       </c>
       <c r="G77" s="13"/>
       <c r="H77" s="13"/>
-      <c r="I77" s="13" t="s">
-        <v>244</v>
-      </c>
+      <c r="I77" s="13"/>
       <c r="J77" s="14"/>
       <c r="K77" s="13"/>
       <c r="L77" s="13"/>
@@ -4212,11 +4238,12 @@
       <c r="P77" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="13"/>
       <c r="B78" s="13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -4238,13 +4265,11 @@
       <c r="P78" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q78" s="13"/>
       <c r="R78" s="14"/>
     </row>
     <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="13"/>
       <c r="B79" s="13" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -4254,7 +4279,9 @@
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
-      <c r="I79" s="13"/>
+      <c r="I79" s="13" t="s">
+        <v>242</v>
+      </c>
       <c r="J79" s="14"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -4266,12 +4293,11 @@
       <c r="P79" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q79" s="13"/>
-      <c r="R79" s="14"/>
     </row>
     <row r="80" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -4281,9 +4307,7 @@
       </c>
       <c r="G80" s="13"/>
       <c r="H80" s="13"/>
-      <c r="I80" s="13" t="s">
-        <v>248</v>
-      </c>
+      <c r="I80" s="13"/>
       <c r="J80" s="14"/>
       <c r="K80" s="13"/>
       <c r="L80" s="13"/>
@@ -4296,20 +4320,16 @@
         <v>157</v>
       </c>
       <c r="Q80" s="13"/>
-    </row>
-    <row r="81" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R80" s="14"/>
+    </row>
+    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>250</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="13" t="s">
-        <v>251</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="C81" s="13"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="13" t="s">
         <v>5</v>
       </c>
@@ -4327,11 +4347,12 @@
       <c r="P81" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q81" s="13"/>
+      <c r="R81" s="14"/>
     </row>
     <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="11" t="s">
-        <v>433</v>
+      <c r="B82" s="13" t="s">
+        <v>245</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -4341,7 +4362,9 @@
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
-      <c r="I82" s="13"/>
+      <c r="I82" s="13" t="s">
+        <v>246</v>
+      </c>
       <c r="J82" s="14"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -4353,15 +4376,21 @@
       <c r="P82" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R82" s="14"/>
-    </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q82" s="13"/>
+    </row>
+    <row r="83" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B83" s="13" t="s">
-        <v>253</v>
-      </c>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+        <v>247</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>249</v>
+      </c>
       <c r="F83" s="13" t="s">
         <v>5</v>
       </c>
@@ -4380,9 +4409,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B84" s="13" t="s">
-        <v>254</v>
+    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="13"/>
+      <c r="B84" s="11" t="s">
+        <v>431</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -4392,9 +4422,7 @@
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
-      <c r="I84" s="13" t="s">
-        <v>255</v>
-      </c>
+      <c r="I84" s="13"/>
       <c r="J84" s="14"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
@@ -4406,11 +4434,11 @@
       <c r="P84" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
+      <c r="R84" s="14"/>
+    </row>
+    <row r="85" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C85" s="13"/>
       <c r="D85" s="13"/>
@@ -4420,9 +4448,7 @@
       </c>
       <c r="G85" s="13"/>
       <c r="H85" s="13"/>
-      <c r="I85" s="13" t="s">
-        <v>257</v>
-      </c>
+      <c r="I85" s="13"/>
       <c r="J85" s="14"/>
       <c r="K85" s="13"/>
       <c r="L85" s="13"/>
@@ -4434,11 +4460,10 @@
       <c r="P85" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R85" s="14"/>
-    </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B86" s="13" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -4448,7 +4473,9 @@
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="13"/>
+      <c r="I86" s="13" t="s">
+        <v>253</v>
+      </c>
       <c r="J86" s="14"/>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
@@ -4461,9 +4488,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A87" s="13"/>
       <c r="B87" s="13" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -4473,7 +4501,9 @@
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="13"/>
+      <c r="I87" s="13" t="s">
+        <v>255</v>
+      </c>
       <c r="J87" s="14"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -4485,11 +4515,11 @@
       <c r="P87" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q87" s="13"/>
+      <c r="R87" s="14"/>
     </row>
     <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -4511,11 +4541,10 @@
       <c r="P88" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q88" s="13"/>
-    </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B89" s="13" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -4540,9 +4569,8 @@
       <c r="Q89" s="13"/>
     </row>
     <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
       <c r="B90" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -4552,9 +4580,7 @@
       </c>
       <c r="G90" s="13"/>
       <c r="H90" s="13"/>
-      <c r="I90" s="13" t="s">
-        <v>263</v>
-      </c>
+      <c r="I90" s="13"/>
       <c r="J90" s="14"/>
       <c r="K90" s="13"/>
       <c r="L90" s="13"/>
@@ -4566,11 +4592,11 @@
       <c r="P90" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R90" s="14"/>
+      <c r="Q90" s="13"/>
     </row>
     <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -4592,10 +4618,12 @@
       <c r="P91" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q91" s="13"/>
     </row>
     <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="13"/>
       <c r="B92" s="13" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -4605,7 +4633,9 @@
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
-      <c r="I92" s="13"/>
+      <c r="I92" s="13" t="s">
+        <v>261</v>
+      </c>
       <c r="J92" s="14"/>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
@@ -4617,10 +4647,11 @@
       <c r="P92" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R92" s="14"/>
     </row>
     <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -4645,7 +4676,7 @@
     </row>
     <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B94" s="13" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -4668,9 +4699,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="95" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -4694,9 +4725,8 @@
       </c>
     </row>
     <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="13"/>
       <c r="B96" s="13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -4718,12 +4748,10 @@
       <c r="P96" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q96" s="13"/>
-      <c r="R96" s="14"/>
-    </row>
-    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -4745,12 +4773,11 @@
       <c r="P97" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q97" s="13"/>
     </row>
     <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A98" s="13"/>
       <c r="B98" s="13" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -4772,12 +4799,12 @@
       <c r="P98" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q98" s="13"/>
       <c r="R98" s="14"/>
     </row>
     <row r="99" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="13"/>
       <c r="B99" s="13" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -4799,12 +4826,12 @@
       <c r="P99" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R99" s="14"/>
+      <c r="Q99" s="13"/>
     </row>
     <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -4829,8 +4856,9 @@
       <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
       <c r="B101" s="13" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -4852,10 +4880,12 @@
       <c r="P101" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R101" s="14"/>
     </row>
     <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>474</v>
+      <c r="A102" s="13"/>
+      <c r="B102" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -4877,10 +4907,11 @@
       <c r="P102" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R102" s="14"/>
     </row>
     <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="13" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -4905,7 +4936,7 @@
     </row>
     <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -4928,9 +4959,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="105" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B105" s="11" t="s">
-        <v>476</v>
+    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B105" s="13" t="s">
+        <v>275</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -4953,69 +4984,69 @@
         <v>157</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="12"/>
+    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="F106" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P106" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q106" s="12"/>
-      <c r="R106" s="12"/>
-      <c r="S106" s="12"/>
-    </row>
-    <row r="107" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="C106" s="13"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="13"/>
+      <c r="F106" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" s="13"/>
+      <c r="H106" s="13"/>
+      <c r="I106" s="13"/>
+      <c r="J106" s="14"/>
+      <c r="K106" s="13"/>
+      <c r="L106" s="13"/>
+      <c r="M106" s="13"/>
+      <c r="N106" s="13">
+        <v>1</v>
+      </c>
+      <c r="O106" s="13"/>
+      <c r="P106" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B107" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>506</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="E107" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F107" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O107" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P107" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q107" s="12"/>
-      <c r="R107" s="12"/>
-      <c r="S107" s="12"/>
-    </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>474</v>
+      </c>
+      <c r="C107" s="13"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="13"/>
+      <c r="F107" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" s="13"/>
+      <c r="H107" s="13"/>
+      <c r="I107" s="13"/>
+      <c r="J107" s="14"/>
+      <c r="K107" s="13"/>
+      <c r="L107" s="13"/>
+      <c r="M107" s="13"/>
+      <c r="N107" s="13">
+        <v>1</v>
+      </c>
+      <c r="O107" s="13"/>
+      <c r="P107" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="12"/>
       <c r="B108" s="11" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>507</v>
+        <v>300</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>70</v>
+        <v>301</v>
       </c>
       <c r="E108" s="11" t="s">
-        <v>58</v>
+        <v>302</v>
       </c>
       <c r="F108" s="11" t="s">
         <v>5</v>
@@ -5027,16 +5058,24 @@
       <c r="R108" s="12"/>
       <c r="S108" s="12"/>
     </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A109" s="12"/>
+    <row r="109" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>305</v>
+        <v>502</v>
+      </c>
+      <c r="C109" s="11" t="s">
+        <v>504</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>306</v>
+        <v>503</v>
+      </c>
+      <c r="E109" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F109" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="O109" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="P109" s="11" t="s">
         <v>157</v>
@@ -5045,72 +5084,72 @@
       <c r="R109" s="12"/>
       <c r="S109" s="12"/>
     </row>
-    <row r="110" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B110" s="12" t="s">
+    <row r="110" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="12"/>
+      <c r="B110" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E110" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F110" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P110" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q110" s="12"/>
+      <c r="R110" s="12"/>
+      <c r="S110" s="12"/>
+    </row>
+    <row r="111" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A111" s="12"/>
+      <c r="B111" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="D111" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F111" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P111" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q111" s="12"/>
+      <c r="R111" s="12"/>
+      <c r="S111" s="12"/>
+    </row>
+    <row r="112" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B112" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D110" s="12" t="s">
+      <c r="D112" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E110" s="12" t="s">
+      <c r="E112" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F110" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G110" s="12"/>
-      <c r="H110" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I110" s="12"/>
-      <c r="J110" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="12"/>
-      <c r="N110" s="12"/>
-      <c r="O110" s="12"/>
-      <c r="P110" s="12"/>
-      <c r="S110" s="13"/>
-    </row>
-    <row r="111" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B111" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="F111" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P111" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S111" s="13"/>
-    </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B112" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D112" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E112" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="F112" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G112" s="12"/>
       <c r="H112" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I112" s="12"/>
-      <c r="J112" s="12"/>
+      <c r="J112" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="K112" s="12"/>
       <c r="L112" s="12"/>
       <c r="M112" s="12"/>
@@ -5119,61 +5158,55 @@
       <c r="P112" s="12"/>
       <c r="S112" s="13"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="13"/>
-      <c r="B113" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D113" s="12" t="s">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B113" s="11" t="s">
+        <v>305</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P113" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S113" s="13"/>
+    </row>
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B114" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E113" s="12" t="s">
+      <c r="C114" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E114" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F113" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G113" s="12"/>
-      <c r="H113" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I113" s="12"/>
-      <c r="J113" s="12"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="12"/>
-      <c r="N113" s="12"/>
-      <c r="O113" s="12"/>
-      <c r="P113" s="12"/>
-      <c r="Q113" s="13"/>
-      <c r="R113" s="14"/>
-      <c r="S113" s="13"/>
-    </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="12"/>
-      <c r="B114" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F114" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P114" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q114" s="12"/>
-      <c r="R114" s="12"/>
+      <c r="F114" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" s="12"/>
+      <c r="H114" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I114" s="12"/>
+      <c r="J114" s="12"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="12"/>
+      <c r="N114" s="12"/>
+      <c r="O114" s="12"/>
+      <c r="P114" s="12"/>
       <c r="S114" s="13"/>
     </row>
     <row r="115" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A115" s="13"/>
       <c r="B115" s="12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D115" s="12" t="s">
         <v>77</v>
@@ -5200,9 +5233,10 @@
       <c r="R115" s="14"/>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="12"/>
       <c r="B116" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F116" s="11" t="s">
         <v>5</v>
@@ -5210,26 +5244,46 @@
       <c r="P116" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q116" s="12"/>
+      <c r="R116" s="12"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="12"/>
-      <c r="B117" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="F117" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P117" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q117" s="12"/>
-      <c r="R117" s="12"/>
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E117" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F117" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G117" s="12"/>
+      <c r="H117" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I117" s="12"/>
+      <c r="J117" s="12"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="12"/>
+      <c r="N117" s="12"/>
+      <c r="O117" s="12"/>
+      <c r="P117" s="12"/>
+      <c r="Q117" s="13"/>
+      <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>5</v>
@@ -5242,7 +5296,7 @@
     <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A119" s="12"/>
       <c r="B119" s="11" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F119" s="11" t="s">
         <v>5</v>
@@ -5256,7 +5310,7 @@
     </row>
     <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>5</v>
@@ -5269,7 +5323,7 @@
     <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="11" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>5</v>
@@ -5283,7 +5337,7 @@
     </row>
     <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>5</v>
@@ -5294,8 +5348,9 @@
       <c r="S122" s="13"/>
     </row>
     <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="12"/>
       <c r="B123" s="11" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>5</v>
@@ -5303,11 +5358,13 @@
       <c r="P123" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q123" s="12"/>
+      <c r="R123" s="12"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="11" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>5</v>
@@ -5319,7 +5376,7 @@
     </row>
     <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B125" s="11" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>5</v>
@@ -5329,9 +5386,9 @@
       </c>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>5</v>
@@ -5342,9 +5399,8 @@
       <c r="S126" s="13"/>
     </row>
     <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="13"/>
       <c r="B127" s="11" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>5</v>
@@ -5352,13 +5408,11 @@
       <c r="P127" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q127" s="13"/>
-      <c r="R127" s="14"/>
       <c r="S127" s="13"/>
     </row>
     <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>5</v>
@@ -5369,8 +5423,9 @@
       <c r="S128" s="13"/>
     </row>
     <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="13"/>
       <c r="B129" s="11" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>5</v>
@@ -5378,11 +5433,13 @@
       <c r="P129" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q129" s="13"/>
+      <c r="R129" s="14"/>
       <c r="S129" s="13"/>
     </row>
     <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>5</v>
@@ -5394,7 +5451,7 @@
     </row>
     <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B131" s="11" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>5</v>
@@ -5406,7 +5463,7 @@
     </row>
     <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="11" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>5</v>
@@ -5418,7 +5475,7 @@
     </row>
     <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>5</v>
@@ -5429,9 +5486,8 @@
       <c r="S133" s="13"/>
     </row>
     <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="13"/>
       <c r="B134" s="11" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>5</v>
@@ -5439,13 +5495,11 @@
       <c r="P134" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q134" s="13"/>
-      <c r="R134" s="14"/>
       <c r="S134" s="13"/>
     </row>
     <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>5</v>
@@ -5456,8 +5510,9 @@
       <c r="S135" s="13"/>
     </row>
     <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="13"/>
       <c r="B136" s="11" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>5</v>
@@ -5465,11 +5520,13 @@
       <c r="P136" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q136" s="13"/>
+      <c r="R136" s="14"/>
       <c r="S136" s="13"/>
     </row>
     <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>5</v>
@@ -5481,7 +5538,7 @@
     </row>
     <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B138" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>5</v>
@@ -5493,7 +5550,7 @@
     </row>
     <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>5</v>
@@ -5505,7 +5562,7 @@
     </row>
     <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>5</v>
@@ -5517,7 +5574,7 @@
     </row>
     <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>5</v>
@@ -5529,7 +5586,7 @@
     </row>
     <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>5</v>
@@ -5541,7 +5598,7 @@
     </row>
     <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>5</v>
@@ -5552,235 +5609,226 @@
       <c r="S143" s="13"/>
     </row>
     <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="12" t="s">
+      <c r="B144" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F144" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P144" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S144" s="13"/>
+    </row>
+    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B145" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S145" s="13"/>
+    </row>
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C146" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D144" s="12" t="s">
+      <c r="D146" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E144" s="12" t="s">
+      <c r="E146" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="F144" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G144" s="12"/>
-      <c r="H144" s="12"/>
-      <c r="I144" s="12"/>
-      <c r="J144" s="12"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="12"/>
-      <c r="N144" s="12"/>
-      <c r="O144" s="12"/>
-      <c r="P144" s="12"/>
-      <c r="S144" s="13"/>
-    </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="13"/>
-      <c r="B145" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="F145" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q145" s="13"/>
-      <c r="R145" s="14"/>
-      <c r="S145" s="13"/>
-    </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P146" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="F146" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G146" s="12"/>
+      <c r="H146" s="12"/>
+      <c r="I146" s="12"/>
+      <c r="J146" s="12"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="12"/>
+      <c r="N146" s="12"/>
+      <c r="O146" s="12"/>
+      <c r="P146" s="12"/>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B147" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D147" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E147" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F147" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G147" s="12"/>
-      <c r="H147" s="12"/>
-      <c r="I147" s="12"/>
-      <c r="J147" s="12"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="12"/>
-      <c r="N147" s="12"/>
-      <c r="O147" s="12"/>
-      <c r="P147" s="12"/>
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q147" s="13"/>
+      <c r="R147" s="14"/>
       <c r="S147" s="13"/>
     </row>
     <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B148" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F148" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P148" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S148" s="13"/>
+    </row>
+    <row r="149" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B149" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D149" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E149" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F149" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="S149" s="13"/>
+    </row>
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B150" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P150" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S150" s="13"/>
+    </row>
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B151" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C151" s="16" t="s">
+        <v>280</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F151" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O151" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P151" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S151" s="13"/>
+    </row>
+    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A152" s="12"/>
+      <c r="B152" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I152" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F148" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P148" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S148" s="13"/>
-    </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B149" s="16" t="s">
+      <c r="P152" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q152" s="12"/>
+      <c r="R152" s="12"/>
+      <c r="S152" s="13"/>
+    </row>
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B153" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P153" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S153" s="13"/>
+    </row>
+    <row r="154" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B154" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="C154" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="D154" s="11" t="s">
         <v>281</v>
       </c>
-      <c r="C149" s="16" t="s">
-        <v>282</v>
-      </c>
-      <c r="D149" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E149" s="11" t="s">
+      <c r="E154" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O149" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P149" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S149" s="13"/>
-    </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="12"/>
-      <c r="B150" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="F150" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I150" s="11" t="s">
+      <c r="F154" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O154" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P154" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S154" s="13"/>
+    </row>
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="12"/>
+      <c r="B155" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="P150" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q150" s="12"/>
-      <c r="R150" s="12"/>
-      <c r="S150" s="13"/>
-    </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B151" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F151" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P151" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S151" s="13"/>
-    </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B152" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="C152" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="D152" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E152" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G152" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="O152" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P152" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S152" s="13"/>
-    </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="12"/>
-      <c r="B153" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="F153" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P153" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q153" s="12"/>
-      <c r="R153" s="12"/>
-      <c r="S153" s="13"/>
-    </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B154" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P154" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S154" s="13"/>
-    </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B155" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="C155" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="D155" s="11" t="s">
-        <v>347</v>
-      </c>
-      <c r="E155" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F155" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P155" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
       <c r="S155" s="13"/>
     </row>
     <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B156" s="11" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F156" s="11" t="s">
         <v>5</v>
@@ -5790,9 +5838,18 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B157" s="11" t="s">
-        <v>349</v>
+        <v>343</v>
+      </c>
+      <c r="C157" s="17" t="s">
+        <v>344</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F157" s="11" t="s">
         <v>5</v>
@@ -5802,9 +5859,9 @@
       </c>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="F158" s="11" t="s">
         <v>5</v>
@@ -5816,7 +5873,7 @@
     </row>
     <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B159" s="11" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>5</v>
@@ -5826,346 +5883,333 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B160" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D160" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E160" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F160" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G160" s="12"/>
-      <c r="H160" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I160" s="12"/>
-      <c r="J160" s="12"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="12"/>
-      <c r="N160" s="12"/>
-      <c r="O160" s="12"/>
-      <c r="P160" s="12"/>
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B160" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P160" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="S160" s="13"/>
     </row>
     <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F161" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P161" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S161" s="13"/>
+    </row>
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B162" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D162" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E162" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F162" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G162" s="12"/>
+      <c r="H162" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I162" s="12"/>
+      <c r="J162" s="12"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="12"/>
+      <c r="N162" s="12"/>
+      <c r="O162" s="12"/>
+      <c r="P162" s="12"/>
+      <c r="S162" s="13"/>
+    </row>
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B163" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P163" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S163" s="13"/>
+    </row>
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B164" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F164" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P164" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S164" s="13"/>
+    </row>
+    <row r="165" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B165" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F161" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P161" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S161" s="13"/>
-    </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B162" s="11" t="s">
+      <c r="F165" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P165" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S165" s="13"/>
+    </row>
+    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B166" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F162" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P162" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S162" s="13"/>
-    </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B163" s="11" t="s">
+      <c r="F166" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P166" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S166" s="13"/>
+    </row>
+    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A167" s="12"/>
+      <c r="B167" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F163" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P163" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S163" s="13"/>
-    </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B164" s="11" t="s">
+      <c r="F167" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q167" s="12"/>
+      <c r="R167" s="12"/>
+      <c r="S167" s="13"/>
+    </row>
+    <row r="168" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B168" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F164" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P164" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S164" s="13"/>
-    </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A165" s="12"/>
-      <c r="B165" s="11" t="s">
+      <c r="F168" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P168" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S168" s="13"/>
+    </row>
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B169" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F165" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P165" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q165" s="12"/>
-      <c r="R165" s="12"/>
-      <c r="S165" s="13"/>
-    </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B166" s="11" t="s">
+      <c r="F169" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P169" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S169" s="13"/>
+    </row>
+    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F166" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P166" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S166" s="13"/>
-    </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B167" s="11" t="s">
+      <c r="F170" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P170" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S170" s="13"/>
+    </row>
+    <row r="171" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B171" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F167" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P167" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S167" s="13"/>
-    </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="11" t="s">
+      <c r="C171" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="D171" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P168" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S168" s="13"/>
-    </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B169" s="11" t="s">
+      <c r="E171" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F171" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P171" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S171" s="13"/>
+    </row>
+    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="F172" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P172" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q172" s="13"/>
+      <c r="S172" s="13"/>
+    </row>
+    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A173" s="13"/>
+      <c r="B173" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="C169" s="11" t="s">
-        <v>515</v>
-      </c>
-      <c r="D169" s="11" t="s">
+      <c r="F173" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P173" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q173" s="13"/>
+      <c r="R173" s="14"/>
+      <c r="S173" s="13"/>
+    </row>
+    <row r="174" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B174" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D174" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E174" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F174" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+      <c r="O174" s="12"/>
+      <c r="P174" s="12"/>
+      <c r="S174" s="13"/>
+    </row>
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B175" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="E169" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F169" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P169" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S169" s="13"/>
-    </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="F170" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P170" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q170" s="13"/>
-      <c r="S170" s="13"/>
-    </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A171" s="13"/>
-      <c r="B171" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P171" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q171" s="13"/>
-      <c r="R171" s="14"/>
-      <c r="S171" s="13"/>
-    </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B172" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C172" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D172" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E172" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F172" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G172" s="12"/>
-      <c r="H172" s="12"/>
-      <c r="I172" s="12"/>
-      <c r="J172" s="12"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="12"/>
-      <c r="N172" s="12"/>
-      <c r="O172" s="12"/>
-      <c r="P172" s="12"/>
-      <c r="S172" s="13"/>
-    </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B173" s="11" t="s">
-        <v>363</v>
-      </c>
-      <c r="F173" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P173" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S173" s="13"/>
-    </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B174" s="11" t="s">
-        <v>364</v>
-      </c>
-      <c r="F174" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P174" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B175" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C175" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D175" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E175" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F175" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G175" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H175" s="12"/>
-      <c r="I175" s="12"/>
-      <c r="J175" s="12"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="12"/>
-      <c r="N175" s="12"/>
-      <c r="O175" s="12"/>
-      <c r="P175" s="12"/>
+      <c r="F175" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P175" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S175" s="13"/>
     </row>
     <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B176" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F176" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P176" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="177" spans="1:18" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B177" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C177" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D177" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E177" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F177" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+    </row>
+    <row r="178" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P178" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B179" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P179" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="180" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="12"/>
+      <c r="B180" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="F176" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P176" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B177" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="F177" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P177" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="178" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="12"/>
-      <c r="B178" s="11" t="s">
-        <v>367</v>
-      </c>
-      <c r="F178" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P178" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q178" s="12"/>
-      <c r="R178" s="12"/>
-    </row>
-    <row r="179" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B179" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C179" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D179" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E179" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F179" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O179" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P179" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B180" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="F180" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P180" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q180" s="12"/>
+      <c r="R180" s="12"/>
     </row>
     <row r="181" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B181" s="16" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="C181" s="16" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="D181" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E181" s="11" t="s">
         <v>58</v>
@@ -6174,238 +6218,241 @@
         <v>5</v>
       </c>
       <c r="G181" s="15" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="O181" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P181" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="182" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="13"/>
       <c r="B182" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F182" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P182" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B183" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C183" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D183" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E183" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F183" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G183" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O183" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P183" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="184" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="13"/>
+      <c r="B184" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P184" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q184" s="13"/>
+      <c r="R184" s="14"/>
+    </row>
+    <row r="185" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A185" s="13"/>
+      <c r="B185" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P185" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q185" s="13"/>
+      <c r="R185" s="14"/>
+    </row>
+    <row r="186" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B186" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C186" s="16" t="s">
+        <v>496</v>
+      </c>
+      <c r="D186" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E186" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G186" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O186" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P186" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="187" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B187" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O187" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P187" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="188" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="13"/>
+      <c r="B188" s="11" t="s">
         <v>369</v>
       </c>
-      <c r="F182" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P182" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q182" s="13"/>
-      <c r="R182" s="14"/>
-    </row>
-    <row r="183" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="13"/>
-      <c r="B183" s="11" t="s">
+      <c r="F188" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P188" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q188" s="13"/>
+      <c r="R188" s="14"/>
+    </row>
+    <row r="189" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B189" s="11" t="s">
         <v>370</v>
       </c>
-      <c r="F183" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P183" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q183" s="13"/>
-      <c r="R183" s="14"/>
-    </row>
-    <row r="184" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B184" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C184" s="16" t="s">
+      <c r="F189" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P189" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B190" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="F190" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P190" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="191" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A191" s="13"/>
+      <c r="B191" s="16" t="s">
+        <v>485</v>
+      </c>
+      <c r="C191" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="D191" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E191" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O191" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P191" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q191" s="13"/>
+      <c r="R191" s="14"/>
+    </row>
+    <row r="192" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B192" s="16" t="s">
+        <v>499</v>
+      </c>
+      <c r="C192" s="16" t="s">
         <v>498</v>
       </c>
-      <c r="D184" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E184" s="11" t="s">
+      <c r="D192" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E192" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F184" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G184" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="O184" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P184" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="185" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B185" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D185" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E185" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F185" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G185" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O185" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P185" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="186" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="13"/>
-      <c r="B186" s="11" t="s">
-        <v>371</v>
-      </c>
-      <c r="F186" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P186" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q186" s="13"/>
-      <c r="R186" s="14"/>
-    </row>
-    <row r="187" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="11" t="s">
+      <c r="F192" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G192" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O192" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P192" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B193" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="F187" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P187" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B188" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P188" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="189" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A189" s="13"/>
-      <c r="B189" s="16" t="s">
-        <v>487</v>
-      </c>
-      <c r="C189" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="D189" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E189" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G189" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="O189" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P189" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q189" s="13"/>
-      <c r="R189" s="14"/>
-    </row>
-    <row r="190" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B190" s="16" t="s">
-        <v>501</v>
-      </c>
-      <c r="C190" s="16" t="s">
-        <v>500</v>
-      </c>
-      <c r="D190" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E190" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F190" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G190" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="O190" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P190" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="11" t="s">
-        <v>374</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P191" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="192" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="13"/>
-      <c r="B192" s="11" t="s">
-        <v>375</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P192" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q192" s="13"/>
-      <c r="R192" s="14"/>
-    </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="13"/>
-      <c r="B193" s="11" t="s">
-        <v>376</v>
-      </c>
       <c r="F193" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I193" s="11" t="s">
-        <v>377</v>
-      </c>
       <c r="P193" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q193" s="13"/>
-      <c r="R193" s="14"/>
-    </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A194" s="13"/>
       <c r="B194" s="11" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F194" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="I194" s="11" t="s">
-        <v>379</v>
       </c>
       <c r="P194" s="11" t="s">
         <v>157</v>
@@ -6413,28 +6460,16 @@
       <c r="Q194" s="13"/>
       <c r="R194" s="14"/>
     </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A195" s="13"/>
-      <c r="B195" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="C195" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D195" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E195" s="11" t="s">
-        <v>58</v>
+      <c r="B195" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G195" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O195" s="11" t="s">
-        <v>280</v>
+      <c r="I195" s="11" t="s">
+        <v>375</v>
       </c>
       <c r="P195" s="11" t="s">
         <v>157</v>
@@ -6442,160 +6477,162 @@
       <c r="Q195" s="13"/>
       <c r="R195" s="14"/>
     </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A196" s="13"/>
       <c r="B196" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="F196" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I196" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="P196" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q196" s="13"/>
+      <c r="R196" s="14"/>
+    </row>
+    <row r="197" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A197" s="13"/>
+      <c r="B197" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C197" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="D197" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E197" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G197" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O197" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P197" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q197" s="13"/>
+      <c r="R197" s="14"/>
+    </row>
+    <row r="198" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B198" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P198" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="199" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B199" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P199" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A200" s="13"/>
+      <c r="B200" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="F196" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P196" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B197" s="11" t="s">
+      <c r="F200" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P200" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q200" s="13"/>
+      <c r="R200" s="14"/>
+    </row>
+    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="13"/>
+      <c r="B201" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="F197" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P197" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A198" s="13"/>
-      <c r="B198" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="F198" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P198" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q198" s="13"/>
-      <c r="R198" s="14"/>
-    </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="13"/>
-      <c r="B199" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F199" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P199" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q199" s="13"/>
-      <c r="R199" s="14"/>
-    </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="12"/>
-      <c r="B200" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E200" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F200" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P200" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q200" s="12"/>
-      <c r="R200" s="12"/>
-    </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C201" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="D201" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E201" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F201" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G201" s="12"/>
-      <c r="H201" s="12"/>
-      <c r="I201" s="12"/>
-      <c r="J201" s="12"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
-      <c r="M201" s="12"/>
-      <c r="N201" s="12"/>
-      <c r="O201" s="12"/>
-      <c r="P201" s="12"/>
+      <c r="F201" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="Q201" s="13"/>
       <c r="R201" s="14"/>
     </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="13"/>
-      <c r="B202" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C202" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D202" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E202" s="12" t="s">
+    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="12"/>
+      <c r="B202" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E202" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F202" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G202" s="12"/>
-      <c r="H202" s="12"/>
-      <c r="I202" s="12"/>
-      <c r="J202" s="12"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="12"/>
-      <c r="N202" s="12"/>
-      <c r="O202" s="12"/>
-      <c r="P202" s="12"/>
-      <c r="Q202" s="13"/>
-      <c r="R202" s="14"/>
-    </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F202" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P202" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q202" s="12"/>
+      <c r="R202" s="12"/>
+    </row>
+    <row r="203" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
-      <c r="B203" s="11" t="s">
-        <v>384</v>
-      </c>
-      <c r="F203" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P203" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="B203" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C203" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="D203" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E203" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F203" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G203" s="12"/>
+      <c r="H203" s="12"/>
+      <c r="I203" s="12"/>
+      <c r="J203" s="12"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="12"/>
+      <c r="N203" s="12"/>
+      <c r="O203" s="12"/>
+      <c r="P203" s="12"/>
       <c r="Q203" s="13"/>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="13"/>
       <c r="B204" s="12" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C204" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D204" s="12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E204" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F204" s="12" t="s">
         <v>5</v>
@@ -6616,86 +6653,104 @@
     <row r="205" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
       <c r="B205" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F205" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P205" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q205" s="13"/>
+      <c r="R205" s="14"/>
+    </row>
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A206" s="13"/>
+      <c r="B206" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C206" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D206" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E206" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F206" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G206" s="12"/>
+      <c r="H206" s="12"/>
+      <c r="I206" s="12"/>
+      <c r="J206" s="12"/>
+      <c r="K206" s="12"/>
+      <c r="L206" s="12"/>
+      <c r="M206" s="12"/>
+      <c r="N206" s="12"/>
+      <c r="O206" s="12"/>
+      <c r="P206" s="12"/>
+      <c r="Q206" s="13"/>
+      <c r="R206" s="14"/>
+    </row>
+    <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="13"/>
+      <c r="B207" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P207" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R207" s="14"/>
+    </row>
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="12"/>
+      <c r="B208" s="11" t="s">
+        <v>384</v>
+      </c>
+      <c r="F208" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P208" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R208" s="12"/>
+    </row>
+    <row r="209" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="12"/>
+      <c r="B209" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F205" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P205" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R205" s="14"/>
-    </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="12"/>
-      <c r="B206" s="11" t="s">
+      <c r="F209" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q209" s="13"/>
+      <c r="R209" s="12"/>
+    </row>
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="13"/>
+      <c r="B210" s="11" t="s">
         <v>386</v>
       </c>
-      <c r="F206" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P206" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R206" s="12"/>
-    </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="12"/>
-      <c r="B207" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F207" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P207" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q207" s="13"/>
-      <c r="R207" s="12"/>
-    </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="13"/>
-      <c r="B208" s="11" t="s">
-        <v>388</v>
-      </c>
-      <c r="F208" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P208" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R208" s="14"/>
-    </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="13"/>
-      <c r="B209" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="F209" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P209" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q209" s="13"/>
-      <c r="R209" s="14"/>
-    </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B210" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="F210" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P210" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q210" s="13"/>
+      <c r="R210" s="14"/>
     </row>
     <row r="211" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="13"/>
       <c r="B211" s="11" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>5</v>
@@ -6703,12 +6758,12 @@
       <c r="P211" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q211" s="13"/>
       <c r="R211" s="14"/>
     </row>
     <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="13"/>
       <c r="B212" s="11" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>5</v>
@@ -6716,110 +6771,114 @@
       <c r="P212" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R212" s="14"/>
-    </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q212" s="13"/>
+    </row>
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F213" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P213" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R213" s="14"/>
+    </row>
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="13"/>
+      <c r="B214" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F214" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P214" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R214" s="14"/>
+    </row>
+    <row r="215" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="13"/>
+      <c r="B215" s="11" t="s">
+        <v>391</v>
+      </c>
+      <c r="F215" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P215" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R215" s="14"/>
+    </row>
+    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B216" s="11" t="s">
+        <v>392</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P216" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q216" s="13"/>
+    </row>
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B217" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="F213" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P213" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R213" s="14"/>
-    </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B214" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="F214" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P214" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q214" s="13"/>
-    </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B215" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="F215" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P215" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="13"/>
-      <c r="B216" s="12" t="s">
+      <c r="F217" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="218" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="13"/>
+      <c r="B218" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C216" s="12"/>
-      <c r="D216" s="12"/>
-      <c r="E216" s="12"/>
-      <c r="F216" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G216" s="12"/>
-      <c r="H216" s="12"/>
-      <c r="I216" s="12"/>
-      <c r="J216" s="12"/>
-      <c r="K216" s="12"/>
-      <c r="L216" s="12"/>
-      <c r="M216" s="12"/>
-      <c r="N216" s="12"/>
-      <c r="O216" s="12"/>
-      <c r="P216" s="12"/>
-      <c r="R216" s="14"/>
-    </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="C217" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D217" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E217" s="11" t="s">
+      <c r="C218" s="12"/>
+      <c r="D218" s="12"/>
+      <c r="E218" s="12"/>
+      <c r="F218" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G218" s="12"/>
+      <c r="H218" s="12"/>
+      <c r="I218" s="12"/>
+      <c r="J218" s="12"/>
+      <c r="K218" s="12"/>
+      <c r="L218" s="12"/>
+      <c r="M218" s="12"/>
+      <c r="N218" s="12"/>
+      <c r="O218" s="12"/>
+      <c r="P218" s="12"/>
+      <c r="R218" s="14"/>
+    </row>
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B219" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C219" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D219" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E219" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F217" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G217" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O217" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P217" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="11" t="s">
-        <v>396</v>
-      </c>
-      <c r="F218" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P218" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B219" s="11" t="s">
-        <v>397</v>
-      </c>
       <c r="F219" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="G219" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O219" s="11" t="s">
+        <v>278</v>
       </c>
       <c r="P219" s="11" t="s">
         <v>157</v>
@@ -6827,245 +6886,223 @@
     </row>
     <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B220" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F220" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P220" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="221" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B221" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F221" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P221" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B222" s="11" t="s">
+        <v>396</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P222" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q222" s="13"/>
+    </row>
+    <row r="223" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B223" s="11" t="s">
+        <v>397</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P223" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q223" s="12"/>
+    </row>
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B224" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C224" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D224" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E224" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F224" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G224" s="18"/>
+      <c r="H224" s="12"/>
+      <c r="I224" s="12"/>
+      <c r="J224" s="12"/>
+      <c r="K224" s="12"/>
+      <c r="L224" s="12"/>
+      <c r="M224" s="12"/>
+      <c r="N224" s="12"/>
+      <c r="O224" s="12"/>
+      <c r="P224" s="12"/>
+    </row>
+    <row r="225" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="13"/>
+      <c r="B225" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F220" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P220" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q220" s="13"/>
-    </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B221" s="11" t="s">
+      <c r="F225" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I225" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="F221" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P221" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q221" s="12"/>
-    </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B222" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C222" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D222" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E222" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F222" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G222" s="18"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="12"/>
-      <c r="J222" s="12"/>
-      <c r="K222" s="12"/>
-      <c r="L222" s="12"/>
-      <c r="M222" s="12"/>
-      <c r="N222" s="12"/>
-      <c r="O222" s="12"/>
-      <c r="P222" s="12"/>
-    </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="13"/>
-      <c r="B223" s="11" t="s">
+      <c r="P225" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R225" s="14"/>
+    </row>
+    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B226" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I223" s="11" t="s">
+      <c r="F226" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P226" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="12"/>
+      <c r="B227" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="P223" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R223" s="14"/>
-    </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="11" t="s">
+      <c r="F227" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P227" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q227" s="13"/>
+      <c r="R227" s="12"/>
+    </row>
+    <row r="228" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="13"/>
+      <c r="B228" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P224" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="12"/>
-      <c r="B225" s="11" t="s">
+      <c r="F228" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P228" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R228" s="14"/>
+    </row>
+    <row r="229" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A229" s="13"/>
+      <c r="B229" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="F225" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P225" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q225" s="13"/>
-      <c r="R225" s="12"/>
-    </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="13"/>
-      <c r="B226" s="11" t="s">
+      <c r="F229" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P229" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q229" s="13"/>
+      <c r="R229" s="14"/>
+    </row>
+    <row r="230" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B230" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F226" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P226" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R226" s="14"/>
-    </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="13"/>
-      <c r="B227" s="11" t="s">
+      <c r="F230" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P230" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q230" s="13"/>
+    </row>
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B231" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F227" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P227" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q227" s="13"/>
-      <c r="R227" s="14"/>
-    </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="11" t="s">
+      <c r="F231" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P231" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q231" s="13"/>
+    </row>
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="13"/>
+      <c r="B232" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F228" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P228" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q228" s="13"/>
-    </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B229" s="11" t="s">
+      <c r="F232" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P232" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R232" s="14"/>
+    </row>
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A233" s="13"/>
+      <c r="B233" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F229" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P229" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q229" s="13"/>
-    </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A230" s="13"/>
-      <c r="B230" s="11" t="s">
+      <c r="F233" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I233" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="F230" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P230" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R230" s="14"/>
-    </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="13"/>
-      <c r="B231" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F231" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I231" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="P231" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q231" s="13"/>
-      <c r="R231" s="14"/>
-    </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C232" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D232" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E232" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F232" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G232" s="12"/>
-      <c r="H232" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I232" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J232" s="12"/>
-      <c r="K232" s="12"/>
-      <c r="L232" s="12"/>
-      <c r="M232" s="12"/>
-      <c r="N232" s="12"/>
-      <c r="O232" s="12"/>
-      <c r="P232" s="12"/>
-      <c r="R232" s="14"/>
-    </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B233" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C233" s="12"/>
-      <c r="D233" s="12"/>
-      <c r="E233" s="12"/>
-      <c r="F233" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G233" s="12"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="12"/>
-      <c r="J233" s="12"/>
-      <c r="K233" s="12"/>
-      <c r="L233" s="12"/>
-      <c r="M233" s="12"/>
-      <c r="N233" s="12"/>
-      <c r="O233" s="12"/>
-      <c r="P233" s="12"/>
-    </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P233" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q233" s="13"/>
+      <c r="R233" s="14"/>
+    </row>
+    <row r="234" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C234" s="12"/>
-      <c r="D234" s="12"/>
-      <c r="E234" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="C234" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D234" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E234" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F234" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G234" s="12"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="12"/>
+      <c r="H234" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I234" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="J234" s="12"/>
       <c r="K234" s="12"/>
       <c r="L234" s="12"/>
@@ -7075,19 +7112,13 @@
       <c r="P234" s="12"/>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B235" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E235" s="12" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C235" s="12"/>
+      <c r="D235" s="12"/>
+      <c r="E235" s="12"/>
       <c r="F235" s="12" t="s">
         <v>5</v>
       </c>
@@ -7102,34 +7133,59 @@
       <c r="O235" s="12"/>
       <c r="P235" s="12"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B236" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="F236" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P236" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B237" s="11" t="s">
-        <v>412</v>
-      </c>
-      <c r="F237" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I237" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="P237" s="11" t="s">
-        <v>157</v>
-      </c>
+    <row r="236" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="13"/>
+      <c r="B236" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
+      <c r="F236" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G236" s="12"/>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
+      <c r="J236" s="12"/>
+      <c r="K236" s="12"/>
+      <c r="L236" s="12"/>
+      <c r="M236" s="12"/>
+      <c r="N236" s="12"/>
+      <c r="O236" s="12"/>
+      <c r="P236" s="12"/>
+      <c r="R236" s="14"/>
+    </row>
+    <row r="237" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B237" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F237" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G237" s="12"/>
+      <c r="H237" s="12"/>
+      <c r="I237" s="12"/>
+      <c r="J237" s="12"/>
+      <c r="K237" s="12"/>
+      <c r="L237" s="12"/>
+      <c r="M237" s="12"/>
+      <c r="N237" s="12"/>
+      <c r="O237" s="12"/>
+      <c r="P237" s="12"/>
     </row>
     <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B238" s="11" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="F238" s="11" t="s">
         <v>5</v>
@@ -7137,23 +7193,24 @@
       <c r="P238" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q238" s="12"/>
     </row>
     <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B239" s="11" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="I239" s="11" t="s">
+        <v>411</v>
+      </c>
       <c r="P239" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q239" s="12"/>
     </row>
     <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>5</v>
@@ -7163,90 +7220,86 @@
       </c>
       <c r="Q240" s="12"/>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A241" s="12"/>
-      <c r="B241" s="12" t="s">
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B241" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F241" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P241" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q241" s="12"/>
+    </row>
+    <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B242" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="F242" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P242" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q242" s="12"/>
+    </row>
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="12"/>
+      <c r="B243" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C241" s="12"/>
-      <c r="D241" s="12"/>
-      <c r="E241" s="12"/>
-      <c r="F241" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G241" s="12"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="12"/>
-      <c r="J241" s="12"/>
-      <c r="K241" s="12"/>
-      <c r="L241" s="12"/>
-      <c r="M241" s="12"/>
-      <c r="N241" s="12"/>
-      <c r="O241" s="12"/>
-      <c r="P241" s="12"/>
-      <c r="Q241" s="12"/>
-      <c r="R241" s="12"/>
-    </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A242" s="12"/>
-      <c r="B242" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="C242" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="D242" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E242" s="11" t="s">
+      <c r="C243" s="12"/>
+      <c r="D243" s="12"/>
+      <c r="E243" s="12"/>
+      <c r="F243" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G243" s="12"/>
+      <c r="H243" s="12"/>
+      <c r="I243" s="12"/>
+      <c r="J243" s="12"/>
+      <c r="K243" s="12"/>
+      <c r="L243" s="12"/>
+      <c r="M243" s="12"/>
+      <c r="N243" s="12"/>
+      <c r="O243" s="12"/>
+      <c r="P243" s="12"/>
+      <c r="Q243" s="12"/>
+      <c r="R243" s="12"/>
+    </row>
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+      <c r="B244" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C244" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="D244" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E244" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F242" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G242" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O242" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P242" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R242" s="12"/>
-    </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="13"/>
-      <c r="B243" s="11" t="s">
-        <v>417</v>
-      </c>
-      <c r="F243" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P243" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q243" s="13"/>
-      <c r="R243" s="14"/>
-    </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="13"/>
-      <c r="B244" s="11" t="s">
-        <v>418</v>
-      </c>
       <c r="F244" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G244" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O244" s="11" t="s">
+        <v>278</v>
+      </c>
       <c r="P244" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q244" s="13"/>
-      <c r="R244" s="14"/>
-    </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R244" s="12"/>
+    </row>
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="13"/>
       <c r="B245" s="11" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="F245" s="11" t="s">
         <v>5</v>
@@ -7260,7 +7313,7 @@
     <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A246" s="13"/>
       <c r="B246" s="11" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>5</v>
@@ -7271,16 +7324,10 @@
       <c r="Q246" s="13"/>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="11" t="s">
-        <v>421</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>422</v>
-      </c>
-      <c r="D247" s="11" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>5</v>
@@ -7291,42 +7338,30 @@
       <c r="Q247" s="13"/>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
-      <c r="B248" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C248" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D248" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E248" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F248" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G248" s="12"/>
-      <c r="H248" s="12"/>
-      <c r="I248" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J248" s="12"/>
-      <c r="K248" s="12"/>
-      <c r="L248" s="12"/>
-      <c r="M248" s="12"/>
-      <c r="N248" s="12"/>
-      <c r="O248" s="12"/>
-      <c r="P248" s="12"/>
+      <c r="B248" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F248" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P248" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
     </row>
     <row r="249" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
-        <v>424</v>
+        <v>419</v>
+      </c>
+      <c r="C249" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="D249" s="11" t="s">
+        <v>421</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>5</v>
@@ -7339,37 +7374,40 @@
     </row>
     <row r="250" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
-      <c r="B250" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="C250" s="16" t="s">
-        <v>486</v>
-      </c>
-      <c r="D250" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E250" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F250" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G250" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="O250" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P250" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="B250" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C250" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D250" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E250" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F250" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G250" s="12"/>
+      <c r="H250" s="12"/>
+      <c r="I250" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J250" s="12"/>
+      <c r="K250" s="12"/>
+      <c r="L250" s="12"/>
+      <c r="M250" s="12"/>
+      <c r="N250" s="12"/>
+      <c r="O250" s="12"/>
+      <c r="P250" s="12"/>
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
     <row r="251" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>5</v>
@@ -7377,18 +7415,19 @@
       <c r="P251" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q251" s="12"/>
+      <c r="Q251" s="13"/>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A252" s="13"/>
       <c r="B252" s="16" t="s">
-        <v>297</v>
+        <v>242</v>
       </c>
       <c r="C252" s="16" t="s">
-        <v>298</v>
+        <v>484</v>
       </c>
       <c r="D252" s="11" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E252" s="11" t="s">
         <v>58</v>
@@ -7396,229 +7435,248 @@
       <c r="F252" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G252" s="15" t="s">
-        <v>284</v>
+      <c r="G252" s="11" t="s">
+        <v>478</v>
       </c>
       <c r="O252" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="P252" s="11" t="s">
         <v>157</v>
       </c>
       <c r="Q252" s="13"/>
+      <c r="R252" s="14"/>
     </row>
     <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
-      <c r="B253" s="12" t="s">
+      <c r="B253" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F253" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P253" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q253" s="12"/>
+      <c r="R253" s="14"/>
+    </row>
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B254" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="C254" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="D254" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E254" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G254" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O254" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P254" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q254" s="13"/>
+    </row>
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="13"/>
+      <c r="B255" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C253" s="12"/>
-      <c r="D253" s="12"/>
-      <c r="E253" s="12"/>
-      <c r="F253" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G253" s="12"/>
-      <c r="H253" s="12"/>
-      <c r="I253" s="12"/>
-      <c r="J253" s="12"/>
-      <c r="K253" s="12"/>
-      <c r="L253" s="12"/>
-      <c r="M253" s="12"/>
-      <c r="N253" s="12"/>
-      <c r="O253" s="12"/>
-      <c r="P253" s="12"/>
-      <c r="R253" s="14"/>
-    </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A254" s="12"/>
-      <c r="B254" s="11" t="s">
+      <c r="C255" s="12"/>
+      <c r="D255" s="12"/>
+      <c r="E255" s="12"/>
+      <c r="F255" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G255" s="12"/>
+      <c r="H255" s="12"/>
+      <c r="I255" s="12"/>
+      <c r="J255" s="12"/>
+      <c r="K255" s="12"/>
+      <c r="L255" s="12"/>
+      <c r="M255" s="12"/>
+      <c r="N255" s="12"/>
+      <c r="O255" s="12"/>
+      <c r="P255" s="12"/>
+      <c r="R255" s="14"/>
+    </row>
+    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="12"/>
+      <c r="B256" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P256" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R256" s="12"/>
+    </row>
+    <row r="257" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B257" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P257" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="13"/>
+      <c r="B258" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="F254" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P254" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R254" s="12"/>
-    </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B255" s="11" t="s">
+      <c r="F258" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P258" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R258" s="14"/>
+    </row>
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
+      <c r="B259" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="F255" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P255" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="13"/>
-      <c r="B256" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P256" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R256" s="14"/>
-    </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="11" t="s">
-        <v>429</v>
-      </c>
-      <c r="F257" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P257" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q257" s="12"/>
-      <c r="R257" s="14"/>
-    </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B258" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="F258" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P258" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q258" s="13"/>
-    </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="12"/>
-      <c r="B259" s="11" t="s">
-        <v>431</v>
-      </c>
       <c r="F259" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P259" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q259" s="13"/>
-      <c r="R259" s="12"/>
+      <c r="Q259" s="12"/>
+      <c r="R259" s="14"/>
     </row>
     <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B260" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q260" s="13"/>
+    </row>
+    <row r="261" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="12"/>
+      <c r="B261" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P261" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q261" s="13"/>
+      <c r="R261" s="12"/>
+    </row>
+    <row r="262" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B262" s="11" t="s">
+        <v>430</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P262" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="13"/>
+      <c r="B263" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F263" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P263" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R263" s="14"/>
+    </row>
+    <row r="264" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B264" s="16" t="s">
+        <v>482</v>
+      </c>
+      <c r="C264" s="16" t="s">
+        <v>483</v>
+      </c>
+      <c r="D264" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E264" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G264" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="O264" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P264" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q264" s="13"/>
+    </row>
+    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B265" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="F260" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P260" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
-      <c r="B261" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P261" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R261" s="14"/>
-    </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B262" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="D262" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E262" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F262" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G262" s="11" t="s">
-        <v>480</v>
-      </c>
-      <c r="O262" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P262" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q262" s="13"/>
-    </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B263" s="11" t="s">
+      <c r="F265" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P265" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B266" s="11" t="s">
+        <v>433</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P266" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="13"/>
+      <c r="B267" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="F263" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P263" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B264" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F264" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P264" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
-      <c r="B265" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P265" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R265" s="14"/>
-    </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B266" s="11" t="s">
-        <v>437</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P266" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="11" t="s">
-        <v>438</v>
-      </c>
       <c r="F267" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P267" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q267" s="13"/>
+      <c r="R267" s="14"/>
     </row>
     <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B268" s="11" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="F268" s="11" t="s">
         <v>5</v>
@@ -7629,7 +7687,7 @@
     </row>
     <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="F269" s="11" t="s">
         <v>5</v>
@@ -7637,10 +7695,11 @@
       <c r="P269" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q269" s="13"/>
     </row>
     <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="11" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>5</v>
@@ -7650,9 +7709,8 @@
       </c>
     </row>
     <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="13"/>
       <c r="B271" s="11" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>5</v>
@@ -7660,13 +7718,10 @@
       <c r="P271" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q271" s="13"/>
-      <c r="R271" s="14"/>
-    </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="13"/>
+    </row>
+    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="11" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>5</v>
@@ -7674,12 +7729,11 @@
       <c r="P272" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R272" s="14"/>
-    </row>
-    <row r="273" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A273" s="13"/>
       <c r="B273" s="11" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="F273" s="11" t="s">
         <v>5</v>
@@ -7687,11 +7741,13 @@
       <c r="P273" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q273" s="13"/>
       <c r="R273" s="14"/>
     </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
       <c r="B274" s="11" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="F274" s="11" t="s">
         <v>5</v>
@@ -7699,11 +7755,12 @@
       <c r="P274" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q274" s="13"/>
+      <c r="R274" s="14"/>
     </row>
     <row r="275" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="13"/>
       <c r="B275" s="11" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="F275" s="11" t="s">
         <v>5</v>
@@ -7711,11 +7768,11 @@
       <c r="P275" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q275" s="13"/>
+      <c r="R275" s="14"/>
     </row>
     <row r="276" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B276" s="11" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F276" s="11" t="s">
         <v>5</v>
@@ -7726,9 +7783,8 @@
       <c r="Q276" s="13"/>
     </row>
     <row r="277" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="F277" s="11" t="s">
         <v>5</v>
@@ -7736,12 +7792,11 @@
       <c r="P277" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R277" s="14"/>
-    </row>
-    <row r="278" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A278" s="13"/>
+      <c r="Q277" s="13"/>
+    </row>
+    <row r="278" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="F278" s="11" t="s">
         <v>5</v>
@@ -7749,86 +7804,88 @@
       <c r="P278" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R278" s="14"/>
-    </row>
-    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q278" s="13"/>
+    </row>
+    <row r="279" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F279" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P279" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R279" s="14"/>
+    </row>
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+      <c r="B280" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F280" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P280" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R280" s="14"/>
+    </row>
+    <row r="281" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="13"/>
+      <c r="B281" s="11" t="s">
+        <v>448</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P281" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R281" s="14"/>
+    </row>
+    <row r="282" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="11"/>
+      <c r="B282" s="11" t="s">
+        <v>449</v>
+      </c>
+      <c r="C282" s="11"/>
+      <c r="D282" s="11"/>
+      <c r="E282" s="11"/>
+      <c r="F282" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G282" s="11"/>
+      <c r="H282" s="11"/>
+      <c r="I282" s="11"/>
+      <c r="J282" s="11"/>
+      <c r="K282" s="11"/>
+      <c r="L282" s="11"/>
+      <c r="M282" s="11"/>
+      <c r="N282" s="11"/>
+      <c r="O282" s="11"/>
+      <c r="P282" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q282" s="13"/>
+      <c r="R282" s="11"/>
+      <c r="S282" s="11"/>
+    </row>
+    <row r="283" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B283" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="F279" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P279" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R279" s="14"/>
-    </row>
-    <row r="280" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="11"/>
-      <c r="B280" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="C280" s="11"/>
-      <c r="D280" s="11"/>
-      <c r="E280" s="11"/>
-      <c r="F280" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G280" s="11"/>
-      <c r="H280" s="11"/>
-      <c r="I280" s="11"/>
-      <c r="J280" s="11"/>
-      <c r="K280" s="11"/>
-      <c r="L280" s="11"/>
-      <c r="M280" s="11"/>
-      <c r="N280" s="11"/>
-      <c r="O280" s="11"/>
-      <c r="P280" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q280" s="13"/>
-      <c r="R280" s="11"/>
-      <c r="S280" s="11"/>
-    </row>
-    <row r="281" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B281" s="11" t="s">
-        <v>452</v>
-      </c>
-      <c r="F281" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P281" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B282" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="F282" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P282" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="283" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
-      <c r="B283" s="11" t="s">
-        <v>454</v>
-      </c>
       <c r="F283" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P283" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R283" s="14"/>
     </row>
     <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="F284" s="11" t="s">
         <v>5</v>
@@ -7838,8 +7895,9 @@
       </c>
     </row>
     <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="13"/>
       <c r="B285" s="11" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="F285" s="11" t="s">
         <v>5</v>
@@ -7847,10 +7905,11 @@
       <c r="P285" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="R285" s="14"/>
     </row>
     <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>5</v>
@@ -7859,9 +7918,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="287" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B287" s="11" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>5</v>
@@ -7869,11 +7928,10 @@
       <c r="P287" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q287" s="13"/>
     </row>
     <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F288" s="11" t="s">
         <v>5</v>
@@ -7881,139 +7939,134 @@
       <c r="P288" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q288" s="13"/>
     </row>
     <row r="289" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
-        <v>514</v>
+        <v>456</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P289" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q289" s="13"/>
+    </row>
+    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F290" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P290" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q290" s="13"/>
+    </row>
+    <row r="291" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B291" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="F291" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B292" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P292" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="13"/>
+      <c r="B293" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F293" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P293" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q293" s="13"/>
+      <c r="R293" s="14"/>
+    </row>
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B294" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="C294" s="16" t="s">
+        <v>298</v>
+      </c>
+      <c r="D294" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E294" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F294" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G294" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="O294" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="P294" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B295" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F290" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P290" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="13"/>
-      <c r="B291" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F291" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P291" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q291" s="13"/>
-      <c r="R291" s="14"/>
-    </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B292" s="16" t="s">
-        <v>299</v>
-      </c>
-      <c r="C292" s="16" t="s">
-        <v>300</v>
-      </c>
-      <c r="D292" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="E292" s="11" t="s">
+      <c r="F295" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P295" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q295" s="13"/>
+    </row>
+    <row r="296" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B296" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C296" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D296" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E296" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F292" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G292" s="15" t="s">
-        <v>284</v>
-      </c>
-      <c r="O292" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="P292" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B293" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F293" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P293" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q293" s="13"/>
-    </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B294" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C294" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D294" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E294" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F294" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G294" s="12"/>
-      <c r="H294" s="12"/>
-      <c r="I294" s="12"/>
-      <c r="J294" s="12"/>
-      <c r="K294" s="12"/>
-      <c r="L294" s="12"/>
-      <c r="M294" s="12"/>
-      <c r="N294" s="12"/>
-      <c r="O294" s="12"/>
-      <c r="P294" s="12"/>
-      <c r="Q294" s="13"/>
-    </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
-      <c r="B295" s="11" t="s">
-        <v>463</v>
-      </c>
-      <c r="F295" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P295" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q295" s="13"/>
-      <c r="R295" s="14"/>
-    </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="13"/>
-      <c r="B296" s="11" t="s">
-        <v>464</v>
-      </c>
-      <c r="F296" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P296" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="F296" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G296" s="12"/>
+      <c r="H296" s="12"/>
+      <c r="I296" s="12"/>
+      <c r="J296" s="12"/>
+      <c r="K296" s="12"/>
+      <c r="L296" s="12"/>
+      <c r="M296" s="12"/>
+      <c r="N296" s="12"/>
+      <c r="O296" s="12"/>
+      <c r="P296" s="12"/>
       <c r="Q296" s="13"/>
-      <c r="R296" s="14"/>
     </row>
     <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A297" s="13"/>
       <c r="B297" s="11" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="F297" s="11" t="s">
         <v>5</v>
@@ -8027,7 +8080,7 @@
     <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A298" s="13"/>
       <c r="B298" s="11" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>5</v>
@@ -8035,12 +8088,13 @@
       <c r="P298" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q298" s="13"/>
       <c r="R298" s="14"/>
     </row>
     <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>5</v>
@@ -8048,216 +8102,220 @@
       <c r="P299" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q299" s="13"/>
       <c r="R299" s="14"/>
     </row>
     <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F300" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P300" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R300" s="14"/>
+    </row>
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="13"/>
+      <c r="B301" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F301" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P301" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R301" s="14"/>
+    </row>
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="13"/>
+      <c r="B302" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P302" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R302" s="14"/>
+    </row>
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B303" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P303" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q303" s="12"/>
+    </row>
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B304" s="11" t="s">
         <v>468</v>
       </c>
-      <c r="F300" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P300" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R300" s="14"/>
-    </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B301" s="11" t="s">
+      <c r="F304" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P304" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B305" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="F301" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P301" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q301" s="12"/>
-    </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B302" s="11" t="s">
+      <c r="F305" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P305" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B306" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F302" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P302" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B303" s="11" t="s">
+      <c r="F306" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P306" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R306" s="12"/>
+    </row>
+    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B307" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F303" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P303" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B304" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P304" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R304" s="12"/>
-    </row>
-    <row r="305" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="11" t="s">
-        <v>473</v>
-      </c>
-      <c r="F305" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P305" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="306" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B306" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="F306" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P306" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="307" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B307" s="13" t="s">
+      <c r="F307" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P307" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="308" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B308" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P308" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P309" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B310" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="F307" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P307" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="308" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B308" s="13" t="s">
-        <v>278</v>
-      </c>
-      <c r="F308" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I308" s="11" t="s">
-        <v>389</v>
-      </c>
-      <c r="P308" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="309" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="11" t="s">
+      <c r="F310" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I310" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="P310" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="F311" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P311" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B312" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P312" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B313" s="11" t="s">
         <v>477</v>
       </c>
-      <c r="F309" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P309" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="310" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B310" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="F310" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P310" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="311" spans="2:17" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B311" s="11" t="s">
-        <v>479</v>
-      </c>
-      <c r="F311" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P311" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q311" s="13"/>
-    </row>
-    <row r="312" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="14"/>
-      <c r="P312" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="313" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B313" s="14"/>
-      <c r="F313" s="12"/>
-      <c r="G313" s="12"/>
-      <c r="H313" s="14"/>
-      <c r="I313" s="12"/>
-      <c r="J313" s="12"/>
-      <c r="K313" s="12"/>
-      <c r="L313" s="12">
-        <v>1</v>
-      </c>
-      <c r="M313" s="12"/>
-      <c r="N313" s="12"/>
-      <c r="O313" s="12"/>
-      <c r="P313" s="12"/>
-    </row>
-    <row r="314" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P313" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q313" s="13"/>
+    </row>
+    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B314" s="14"/>
       <c r="P314" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="315" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B315" s="14"/>
-      <c r="P315" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="316" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F315" s="12"/>
+      <c r="G315" s="12"/>
+      <c r="H315" s="14"/>
+      <c r="I315" s="12"/>
+      <c r="J315" s="12"/>
+      <c r="K315" s="12"/>
+      <c r="L315" s="12">
+        <v>1</v>
+      </c>
+      <c r="M315" s="12"/>
+      <c r="N315" s="12"/>
+      <c r="O315" s="12"/>
+      <c r="P315" s="12"/>
+    </row>
+    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="14"/>
       <c r="P316" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="317" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="14"/>
-      <c r="D317" s="12"/>
-      <c r="E317" s="12"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="12"/>
-      <c r="I317" s="12"/>
-      <c r="J317" s="12"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="12"/>
-      <c r="M317" s="12"/>
-      <c r="N317" s="12"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="12"/>
-    </row>
-    <row r="318" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="P317" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="14"/>
       <c r="P318" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="319" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="14"/>
-      <c r="C319" s="12"/>
       <c r="D319" s="12"/>
       <c r="E319" s="12"/>
       <c r="F319" s="12"/>
@@ -8272,32 +8330,49 @@
       <c r="O319" s="12"/>
       <c r="P319" s="12"/>
     </row>
-    <row r="320" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="14"/>
-      <c r="C320" s="12"/>
-      <c r="D320" s="12"/>
-      <c r="E320" s="12"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="12"/>
-      <c r="I320" s="12"/>
-      <c r="J320" s="12"/>
-      <c r="K320" s="12"/>
-      <c r="L320" s="12"/>
-      <c r="M320" s="12"/>
-      <c r="N320" s="12"/>
-      <c r="O320" s="12"/>
-      <c r="P320" s="12"/>
+      <c r="P320" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="14"/>
-      <c r="Q321" s="12"/>
+      <c r="C321" s="12"/>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+      <c r="F321" s="12"/>
+      <c r="G321" s="12"/>
+      <c r="H321" s="12"/>
+      <c r="I321" s="12"/>
+      <c r="J321" s="12"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12"/>
+      <c r="M321" s="12"/>
+      <c r="N321" s="12"/>
+      <c r="O321" s="12"/>
+      <c r="P321" s="12"/>
     </row>
     <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="14"/>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
+      <c r="J322" s="12"/>
+      <c r="K322" s="12"/>
+      <c r="L322" s="12"/>
+      <c r="M322" s="12"/>
+      <c r="N322" s="12"/>
+      <c r="O322" s="12"/>
+      <c r="P322" s="12"/>
     </row>
     <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="14"/>
+      <c r="Q323" s="12"/>
     </row>
     <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="14"/>
@@ -8318,51 +8393,21 @@
       <c r="B329" s="14"/>
     </row>
     <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A330" s="14"/>
       <c r="B330" s="14"/>
-      <c r="R330" s="12"/>
     </row>
     <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B331" s="14"/>
-      <c r="Q331" s="12"/>
     </row>
     <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A332" s="14"/>
       <c r="B332" s="14"/>
-      <c r="C332" s="12"/>
-      <c r="D332" s="12"/>
-      <c r="E332" s="12"/>
-      <c r="F332" s="12"/>
-      <c r="G332" s="12"/>
-      <c r="H332" s="12"/>
-      <c r="I332" s="12"/>
-      <c r="J332" s="12"/>
-      <c r="K332" s="12"/>
-      <c r="L332" s="12"/>
-      <c r="M332" s="12"/>
-      <c r="N332" s="12"/>
-      <c r="O332" s="12"/>
-      <c r="P332" s="12"/>
+      <c r="R332" s="12"/>
     </row>
     <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="14"/>
-      <c r="C333" s="12"/>
-      <c r="D333" s="12"/>
-      <c r="E333" s="12"/>
-      <c r="F333" s="12"/>
-      <c r="G333" s="12"/>
-      <c r="H333" s="12"/>
-      <c r="I333" s="12"/>
-      <c r="J333" s="12"/>
-      <c r="K333" s="12"/>
-      <c r="L333" s="12"/>
-      <c r="M333" s="12"/>
-      <c r="N333" s="12"/>
-      <c r="O333" s="12"/>
-      <c r="P333" s="12"/>
       <c r="Q333" s="12"/>
     </row>
     <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="12"/>
       <c r="B334" s="14"/>
       <c r="C334" s="12"/>
       <c r="D334" s="12"/>
@@ -8378,8 +8423,6 @@
       <c r="N334" s="12"/>
       <c r="O334" s="12"/>
       <c r="P334" s="12"/>
-      <c r="Q334" s="12"/>
-      <c r="R334" s="12"/>
     </row>
     <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="14"/>
@@ -8399,8 +8442,46 @@
       <c r="P335" s="12"/>
       <c r="Q335" s="12"/>
     </row>
-    <row r="336" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="12"/>
       <c r="B336" s="14"/>
+      <c r="C336" s="12"/>
+      <c r="D336" s="12"/>
+      <c r="E336" s="12"/>
+      <c r="F336" s="12"/>
+      <c r="G336" s="12"/>
+      <c r="H336" s="12"/>
+      <c r="I336" s="12"/>
+      <c r="J336" s="12"/>
+      <c r="K336" s="12"/>
+      <c r="L336" s="12"/>
+      <c r="M336" s="12"/>
+      <c r="N336" s="12"/>
+      <c r="O336" s="12"/>
+      <c r="P336" s="12"/>
+      <c r="Q336" s="12"/>
+      <c r="R336" s="12"/>
+    </row>
+    <row r="337" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B337" s="14"/>
+      <c r="C337" s="12"/>
+      <c r="D337" s="12"/>
+      <c r="E337" s="12"/>
+      <c r="F337" s="12"/>
+      <c r="G337" s="12"/>
+      <c r="H337" s="12"/>
+      <c r="I337" s="12"/>
+      <c r="J337" s="12"/>
+      <c r="K337" s="12"/>
+      <c r="L337" s="12"/>
+      <c r="M337" s="12"/>
+      <c r="N337" s="12"/>
+      <c r="O337" s="12"/>
+      <c r="P337" s="12"/>
+      <c r="Q337" s="12"/>
+    </row>
+    <row r="338" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B338" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:S2822">
@@ -8409,7 +8490,7 @@
     <sortCondition ref="B2:B2822"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G175" r:id="rId1"/>
+    <hyperlink ref="G177" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8455,7 +8536,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8477,7 +8558,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>111</v>
@@ -8527,7 +8608,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8560,7 +8641,7 @@
         <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8571,7 +8652,7 @@
         <v>127</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8601,10 +8682,10 @@
         <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8612,10 +8693,10 @@
         <v>154</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8623,10 +8704,10 @@
         <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8634,21 +8715,21 @@
         <v>156</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -8726,7 +8807,7 @@
         <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1346" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="525">
   <si>
     <t>ID</t>
   </si>
@@ -732,9 +732,6 @@
     <t>Prevention</t>
   </si>
   <si>
-    <t>Prior authorisation policy</t>
-  </si>
-  <si>
     <t>Private restrictions on smoking</t>
   </si>
   <si>
@@ -1585,6 +1582,27 @@
   </si>
   <si>
     <t>Dose in which the thing administered is nicotine.</t>
+  </si>
+  <si>
+    <t>Naloxone pharmacy access law</t>
+  </si>
+  <si>
+    <t>Pharmacy access law</t>
+  </si>
+  <si>
+    <t>A law that aims to facilitate distribution of a product through retail pharmacy channels.</t>
+  </si>
+  <si>
+    <t>A pharmacy access law in which the product being distributed is naloxone.</t>
+  </si>
+  <si>
+    <t>Law</t>
+  </si>
+  <si>
+    <t>Prior product authorisation law</t>
+  </si>
+  <si>
+    <t>A law that creates a requirement on product manufacturers to pre-notify a relevant authority of the product characteristics and receive approval before marketing a product.</t>
   </si>
 </sst>
 </file>
@@ -2087,11 +2105,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S338"/>
+  <dimension ref="A1:S340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D60" sqref="D60"/>
+      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2170,7 +2188,7 @@
         <v>156</v>
       </c>
       <c r="R1" s="9" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -3645,16 +3663,16 @@
     </row>
     <row r="56" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>514</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>360</v>
-      </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="13" t="s">
         <v>515</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>516</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>61</v>
@@ -3676,13 +3694,13 @@
     </row>
     <row r="57" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>517</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>518</v>
-      </c>
       <c r="D57" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>61</v>
@@ -4081,14 +4099,20 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+        <v>523</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>524</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F72" s="13" t="s">
         <v>5</v>
       </c>
@@ -4109,14 +4133,20 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+        <v>518</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>521</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>519</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F73" s="13" t="s">
         <v>5</v>
       </c>
@@ -4127,23 +4157,26 @@
       <c r="K73" s="13"/>
       <c r="L73" s="13"/>
       <c r="M73" s="13"/>
-      <c r="N73" s="13">
-        <v>1</v>
-      </c>
+      <c r="N73" s="13"/>
       <c r="O73" s="13"/>
-      <c r="P73" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>236</v>
-      </c>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+        <v>519</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>520</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="F74" s="13" t="s">
         <v>5</v>
       </c>
@@ -4154,18 +4187,16 @@
       <c r="K74" s="13"/>
       <c r="L74" s="13"/>
       <c r="M74" s="13"/>
-      <c r="N74" s="13">
-        <v>1</v>
-      </c>
+      <c r="N74" s="13"/>
       <c r="O74" s="13"/>
-      <c r="P74" s="13" t="s">
-        <v>157</v>
-      </c>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
       <c r="R74" s="14"/>
     </row>
     <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -4187,10 +4218,12 @@
       <c r="P75" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="76" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R75" s="14"/>
+    </row>
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -4212,11 +4245,11 @@
       <c r="P76" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q76" s="13"/>
+      <c r="R76" s="14"/>
     </row>
     <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -4238,12 +4271,10 @@
       <c r="P77" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q77" s="13"/>
-    </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A78" s="13"/>
+    </row>
+    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -4265,11 +4296,11 @@
       <c r="P78" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R78" s="14"/>
+      <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -4279,9 +4310,7 @@
       </c>
       <c r="G79" s="13"/>
       <c r="H79" s="13"/>
-      <c r="I79" s="13" t="s">
-        <v>242</v>
-      </c>
+      <c r="I79" s="13"/>
       <c r="J79" s="14"/>
       <c r="K79" s="13"/>
       <c r="L79" s="13"/>
@@ -4293,11 +4322,12 @@
       <c r="P79" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="80" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q79" s="13"/>
+    </row>
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -4319,13 +4349,11 @@
       <c r="P80" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q80" s="13"/>
       <c r="R80" s="14"/>
     </row>
     <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="13"/>
       <c r="B81" s="13" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -4335,7 +4363,9 @@
       </c>
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
-      <c r="I81" s="13"/>
+      <c r="I81" s="13" t="s">
+        <v>241</v>
+      </c>
       <c r="J81" s="14"/>
       <c r="K81" s="13"/>
       <c r="L81" s="13"/>
@@ -4347,12 +4377,11 @@
       <c r="P81" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q81" s="13"/>
-      <c r="R81" s="14"/>
     </row>
     <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -4362,9 +4391,7 @@
       </c>
       <c r="G82" s="13"/>
       <c r="H82" s="13"/>
-      <c r="I82" s="13" t="s">
-        <v>246</v>
-      </c>
+      <c r="I82" s="13"/>
       <c r="J82" s="14"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13"/>
@@ -4377,20 +4404,16 @@
         <v>157</v>
       </c>
       <c r="Q82" s="13"/>
-    </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R82" s="14"/>
+    </row>
+    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="D83" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E83" s="13" t="s">
-        <v>249</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C83" s="13"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="13"/>
       <c r="F83" s="13" t="s">
         <v>5</v>
       </c>
@@ -4408,11 +4431,12 @@
       <c r="P83" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q83" s="13"/>
+      <c r="R83" s="14"/>
     </row>
     <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="11" t="s">
-        <v>431</v>
+      <c r="B84" s="13" t="s">
+        <v>244</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -4422,7 +4446,9 @@
       </c>
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
-      <c r="I84" s="13"/>
+      <c r="I84" s="13" t="s">
+        <v>245</v>
+      </c>
       <c r="J84" s="14"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13"/>
@@ -4434,15 +4460,21 @@
       <c r="P84" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R84" s="14"/>
-    </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q84" s="13"/>
+    </row>
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+        <v>246</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>248</v>
+      </c>
       <c r="F85" s="13" t="s">
         <v>5</v>
       </c>
@@ -4461,9 +4493,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B86" s="13" t="s">
-        <v>252</v>
+    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="13"/>
+      <c r="B86" s="11" t="s">
+        <v>430</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -4473,9 +4506,7 @@
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13"/>
-      <c r="I86" s="13" t="s">
-        <v>253</v>
-      </c>
+      <c r="I86" s="13"/>
       <c r="J86" s="14"/>
       <c r="K86" s="13"/>
       <c r="L86" s="13"/>
@@ -4487,11 +4518,11 @@
       <c r="P86" s="13" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A87" s="13"/>
+      <c r="R86" s="14"/>
+    </row>
+    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -4501,9 +4532,7 @@
       </c>
       <c r="G87" s="13"/>
       <c r="H87" s="13"/>
-      <c r="I87" s="13" t="s">
-        <v>255</v>
-      </c>
+      <c r="I87" s="13"/>
       <c r="J87" s="14"/>
       <c r="K87" s="13"/>
       <c r="L87" s="13"/>
@@ -4515,11 +4544,10 @@
       <c r="P87" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R87" s="14"/>
-    </row>
-    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -4529,7 +4557,9 @@
       </c>
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
-      <c r="I88" s="13"/>
+      <c r="I88" s="13" t="s">
+        <v>252</v>
+      </c>
       <c r="J88" s="14"/>
       <c r="K88" s="13"/>
       <c r="L88" s="13"/>
@@ -4542,9 +4572,10 @@
         <v>157</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -4554,7 +4585,9 @@
       </c>
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
-      <c r="I89" s="13"/>
+      <c r="I89" s="13" t="s">
+        <v>254</v>
+      </c>
       <c r="J89" s="14"/>
       <c r="K89" s="13"/>
       <c r="L89" s="13"/>
@@ -4566,11 +4599,11 @@
       <c r="P89" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q89" s="13"/>
+      <c r="R89" s="14"/>
     </row>
     <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -4592,11 +4625,10 @@
       <c r="P90" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q90" s="13"/>
-    </row>
-    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -4621,9 +4653,8 @@
       <c r="Q91" s="13"/>
     </row>
     <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
       <c r="B92" s="13" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -4633,9 +4664,7 @@
       </c>
       <c r="G92" s="13"/>
       <c r="H92" s="13"/>
-      <c r="I92" s="13" t="s">
-        <v>261</v>
-      </c>
+      <c r="I92" s="13"/>
       <c r="J92" s="14"/>
       <c r="K92" s="13"/>
       <c r="L92" s="13"/>
@@ -4647,11 +4676,11 @@
       <c r="P92" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R92" s="14"/>
+      <c r="Q92" s="13"/>
     </row>
     <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -4673,10 +4702,12 @@
       <c r="P93" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q93" s="13"/>
     </row>
     <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="13"/>
       <c r="B94" s="13" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -4686,7 +4717,9 @@
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
-      <c r="I94" s="13"/>
+      <c r="I94" s="13" t="s">
+        <v>260</v>
+      </c>
       <c r="J94" s="14"/>
       <c r="K94" s="13"/>
       <c r="L94" s="13"/>
@@ -4698,10 +4731,11 @@
       <c r="P94" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R94" s="14"/>
     </row>
     <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -4726,7 +4760,7 @@
     </row>
     <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -4749,9 +4783,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -4775,9 +4809,8 @@
       </c>
     </row>
     <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
       <c r="B98" s="13" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -4799,12 +4832,10 @@
       <c r="P98" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q98" s="13"/>
-      <c r="R98" s="14"/>
-    </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -4826,12 +4857,11 @@
       <c r="P99" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="Q99" s="13"/>
     </row>
     <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -4853,12 +4883,12 @@
       <c r="P100" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="Q100" s="13"/>
       <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="13"/>
       <c r="B101" s="13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -4880,12 +4910,12 @@
       <c r="P101" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="R101" s="14"/>
+      <c r="Q101" s="13"/>
     </row>
     <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -4910,8 +4940,9 @@
       <c r="R102" s="14"/>
     </row>
     <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -4933,10 +4964,12 @@
       <c r="P103" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R103" s="14"/>
     </row>
     <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B104" s="11" t="s">
-        <v>472</v>
+      <c r="A104" s="13"/>
+      <c r="B104" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -4958,10 +4991,11 @@
       <c r="P104" s="13" t="s">
         <v>157</v>
       </c>
+      <c r="R104" s="14"/>
     </row>
     <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -4986,7 +5020,7 @@
     </row>
     <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -5009,9 +5043,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B107" s="11" t="s">
-        <v>474</v>
+    <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="13" t="s">
+        <v>274</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -5034,69 +5068,69 @@
         <v>157</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A108" s="12"/>
+    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="C108" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="D108" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="E108" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="F108" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P108" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q108" s="12"/>
-      <c r="R108" s="12"/>
-      <c r="S108" s="12"/>
-    </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>472</v>
+      </c>
+      <c r="C108" s="13"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="13"/>
+      <c r="F108" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" s="13"/>
+      <c r="H108" s="13"/>
+      <c r="I108" s="13"/>
+      <c r="J108" s="14"/>
+      <c r="K108" s="13"/>
+      <c r="L108" s="13"/>
+      <c r="M108" s="13"/>
+      <c r="N108" s="13">
+        <v>1</v>
+      </c>
+      <c r="O108" s="13"/>
+      <c r="P108" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>502</v>
-      </c>
-      <c r="C109" s="11" t="s">
-        <v>504</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="E109" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F109" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O109" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P109" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q109" s="12"/>
-      <c r="R109" s="12"/>
-      <c r="S109" s="12"/>
-    </row>
-    <row r="110" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>473</v>
+      </c>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
+      <c r="F109" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" s="13"/>
+      <c r="H109" s="13"/>
+      <c r="I109" s="13"/>
+      <c r="J109" s="14"/>
+      <c r="K109" s="13"/>
+      <c r="L109" s="13"/>
+      <c r="M109" s="13"/>
+      <c r="N109" s="13">
+        <v>1</v>
+      </c>
+      <c r="O109" s="13"/>
+      <c r="P109" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="11" t="s">
-        <v>345</v>
+        <v>298</v>
       </c>
       <c r="C110" s="11" t="s">
-        <v>505</v>
+        <v>299</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>70</v>
+        <v>300</v>
       </c>
       <c r="E110" s="11" t="s">
-        <v>58</v>
+        <v>301</v>
       </c>
       <c r="F110" s="11" t="s">
         <v>5</v>
@@ -5108,16 +5142,24 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="12"/>
+    <row r="111" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>303</v>
+        <v>501</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>503</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>304</v>
+        <v>502</v>
+      </c>
+      <c r="E111" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F111" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="O111" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="P111" s="11" t="s">
         <v>157</v>
@@ -5126,72 +5168,72 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="B112" s="12" t="s">
+    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="12"/>
+      <c r="B112" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F112" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P112" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q112" s="12"/>
+      <c r="R112" s="12"/>
+      <c r="S112" s="12"/>
+    </row>
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A113" s="12"/>
+      <c r="B113" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="F113" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P113" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q113" s="12"/>
+      <c r="R113" s="12"/>
+      <c r="S113" s="12"/>
+    </row>
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+      <c r="B114" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="C112" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D112" s="12" t="s">
+      <c r="D114" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="E112" s="12" t="s">
+      <c r="E114" s="12" t="s">
         <v>58</v>
-      </c>
-      <c r="F112" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G112" s="12"/>
-      <c r="H112" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I112" s="12"/>
-      <c r="J112" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="12"/>
-      <c r="N112" s="12"/>
-      <c r="O112" s="12"/>
-      <c r="P112" s="12"/>
-      <c r="S112" s="13"/>
-    </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B113" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="F113" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P113" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S113" s="13"/>
-    </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B114" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D114" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="E114" s="12" t="s">
-        <v>61</v>
       </c>
       <c r="F114" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I114" s="12"/>
-      <c r="J114" s="12"/>
+      <c r="J114" s="12" t="s">
+        <v>96</v>
+      </c>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
       <c r="M114" s="12"/>
@@ -5200,61 +5242,55 @@
       <c r="P114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A115" s="13"/>
-      <c r="B115" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D115" s="12" t="s">
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B115" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F115" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P115" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S115" s="13"/>
+    </row>
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B116" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="E115" s="12" t="s">
+      <c r="C116" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="E116" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F115" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G115" s="12"/>
-      <c r="H115" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="I115" s="12"/>
-      <c r="J115" s="12"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="12"/>
-      <c r="N115" s="12"/>
-      <c r="O115" s="12"/>
-      <c r="P115" s="12"/>
-      <c r="Q115" s="13"/>
-      <c r="R115" s="14"/>
-      <c r="S115" s="13"/>
-    </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="12"/>
-      <c r="B116" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="F116" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P116" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q116" s="12"/>
-      <c r="R116" s="12"/>
+      <c r="F116" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G116" s="12"/>
+      <c r="H116" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I116" s="12"/>
+      <c r="J116" s="12"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="12"/>
+      <c r="N116" s="12"/>
+      <c r="O116" s="12"/>
+      <c r="P116" s="12"/>
       <c r="S116" s="13"/>
     </row>
     <row r="117" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D117" s="12" t="s">
         <v>77</v>
@@ -5281,9 +5317,10 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>5</v>
@@ -5291,26 +5328,46 @@
       <c r="P118" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q118" s="12"/>
+      <c r="R118" s="12"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="12"/>
-      <c r="B119" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F119" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P119" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q119" s="12"/>
-      <c r="R119" s="12"/>
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A119" s="13"/>
+      <c r="B119" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="E119" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F119" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G119" s="12"/>
+      <c r="H119" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="I119" s="12"/>
+      <c r="J119" s="12"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="12"/>
+      <c r="N119" s="12"/>
+      <c r="O119" s="12"/>
+      <c r="P119" s="12"/>
+      <c r="Q119" s="13"/>
+      <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>5</v>
@@ -5323,7 +5380,7 @@
     <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="11" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>5</v>
@@ -5337,7 +5394,7 @@
     </row>
     <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>5</v>
@@ -5350,7 +5407,7 @@
     <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="11" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>5</v>
@@ -5364,7 +5421,7 @@
     </row>
     <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="11" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>5</v>
@@ -5375,8 +5432,9 @@
       <c r="S124" s="13"/>
     </row>
     <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="12"/>
       <c r="B125" s="11" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>5</v>
@@ -5384,11 +5442,13 @@
       <c r="P125" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q125" s="12"/>
+      <c r="R125" s="12"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>5</v>
@@ -5400,7 +5460,7 @@
     </row>
     <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>5</v>
@@ -5410,9 +5470,9 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>5</v>
@@ -5423,9 +5483,8 @@
       <c r="S128" s="13"/>
     </row>
     <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="13"/>
       <c r="B129" s="11" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>5</v>
@@ -5433,13 +5492,11 @@
       <c r="P129" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q129" s="13"/>
-      <c r="R129" s="14"/>
       <c r="S129" s="13"/>
     </row>
     <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>5</v>
@@ -5450,8 +5507,9 @@
       <c r="S130" s="13"/>
     </row>
     <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="13"/>
       <c r="B131" s="11" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>5</v>
@@ -5459,11 +5517,13 @@
       <c r="P131" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q131" s="13"/>
+      <c r="R131" s="14"/>
       <c r="S131" s="13"/>
     </row>
     <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="11" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>5</v>
@@ -5475,7 +5535,7 @@
     </row>
     <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>5</v>
@@ -5487,7 +5547,7 @@
     </row>
     <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>5</v>
@@ -5499,7 +5559,7 @@
     </row>
     <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>5</v>
@@ -5510,9 +5570,8 @@
       <c r="S135" s="13"/>
     </row>
     <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="13"/>
       <c r="B136" s="11" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>5</v>
@@ -5520,13 +5579,11 @@
       <c r="P136" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q136" s="13"/>
-      <c r="R136" s="14"/>
       <c r="S136" s="13"/>
     </row>
     <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="11" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>5</v>
@@ -5537,8 +5594,9 @@
       <c r="S137" s="13"/>
     </row>
     <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="13"/>
       <c r="B138" s="11" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>5</v>
@@ -5546,11 +5604,13 @@
       <c r="P138" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q138" s="13"/>
+      <c r="R138" s="14"/>
       <c r="S138" s="13"/>
     </row>
     <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>5</v>
@@ -5562,7 +5622,7 @@
     </row>
     <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>5</v>
@@ -5574,7 +5634,7 @@
     </row>
     <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>5</v>
@@ -5586,7 +5646,7 @@
     </row>
     <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>5</v>
@@ -5598,7 +5658,7 @@
     </row>
     <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>5</v>
@@ -5610,7 +5670,7 @@
     </row>
     <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="11" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>5</v>
@@ -5622,246 +5682,237 @@
     </row>
     <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="F145" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S145" s="13"/>
+    </row>
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B146" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P146" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S146" s="13"/>
+    </row>
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B147" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="F147" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S147" s="13"/>
+    </row>
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B148" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D148" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E148" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F148" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G148" s="12"/>
+      <c r="H148" s="12"/>
+      <c r="I148" s="12"/>
+      <c r="J148" s="12"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="12"/>
+      <c r="N148" s="12"/>
+      <c r="O148" s="12"/>
+      <c r="P148" s="12"/>
+      <c r="S148" s="13"/>
+    </row>
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S145" s="13"/>
-    </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="C146" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D146" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E146" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="F146" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G146" s="12"/>
-      <c r="H146" s="12"/>
-      <c r="I146" s="12"/>
-      <c r="J146" s="12"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="12"/>
-      <c r="N146" s="12"/>
-      <c r="O146" s="12"/>
-      <c r="P146" s="12"/>
-      <c r="S146" s="13"/>
-    </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="13"/>
-      <c r="B147" s="11" t="s">
-        <v>335</v>
-      </c>
-      <c r="F147" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P147" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q147" s="13"/>
-      <c r="R147" s="14"/>
-      <c r="S147" s="13"/>
-    </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B148" s="11" t="s">
-        <v>336</v>
-      </c>
-      <c r="F148" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P148" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S148" s="13"/>
-    </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B149" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="C149" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="D149" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="E149" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F149" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G149" s="12"/>
-      <c r="H149" s="12"/>
-      <c r="I149" s="12"/>
-      <c r="J149" s="12"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="12"/>
-      <c r="N149" s="12"/>
-      <c r="O149" s="12"/>
-      <c r="P149" s="12"/>
+      <c r="F149" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P149" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q149" s="13"/>
+      <c r="R149" s="14"/>
       <c r="S149" s="13"/>
     </row>
     <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="F150" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P150" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S150" s="13"/>
+    </row>
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B151" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D151" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E151" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F151" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G151" s="12"/>
+      <c r="H151" s="12"/>
+      <c r="I151" s="12"/>
+      <c r="J151" s="12"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="12"/>
+      <c r="N151" s="12"/>
+      <c r="O151" s="12"/>
+      <c r="P151" s="12"/>
+      <c r="S151" s="13"/>
+    </row>
+    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B152" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="F152" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P152" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S152" s="13"/>
+    </row>
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B153" s="16" t="s">
+        <v>278</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F153" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G153" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O153" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P153" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S153" s="13"/>
+    </row>
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="12"/>
+      <c r="B154" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F150" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P150" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S150" s="13"/>
-    </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B151" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="C151" s="16" t="s">
+      <c r="F154" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I154" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="P154" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q154" s="12"/>
+      <c r="R154" s="12"/>
+      <c r="S154" s="13"/>
+    </row>
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B155" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F155" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P155" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S155" s="13"/>
+    </row>
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B156" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="C156" s="16" t="s">
+        <v>480</v>
+      </c>
+      <c r="D156" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D151" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E151" s="11" t="s">
+      <c r="E156" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F151" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O151" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P151" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S151" s="13"/>
-    </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="12"/>
-      <c r="B152" s="11" t="s">
-        <v>338</v>
-      </c>
-      <c r="F152" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I152" s="11" t="s">
-        <v>339</v>
-      </c>
-      <c r="P152" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q152" s="12"/>
-      <c r="R152" s="12"/>
-      <c r="S152" s="13"/>
-    </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B153" s="11" t="s">
+      <c r="F156" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G156" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="O156" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P156" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S156" s="13"/>
+    </row>
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A157" s="12"/>
+      <c r="B157" s="11" t="s">
         <v>340</v>
       </c>
-      <c r="F153" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P153" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S153" s="13"/>
-    </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B154" s="16" t="s">
-        <v>480</v>
-      </c>
-      <c r="C154" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="D154" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E154" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F154" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G154" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="O154" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P154" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S154" s="13"/>
-    </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="12"/>
-      <c r="B155" s="11" t="s">
-        <v>341</v>
-      </c>
-      <c r="F155" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P155" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q155" s="12"/>
-      <c r="R155" s="12"/>
-      <c r="S155" s="13"/>
-    </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B156" s="11" t="s">
-        <v>342</v>
-      </c>
-      <c r="F156" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P156" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S156" s="13"/>
-    </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B157" s="11" t="s">
-        <v>343</v>
-      </c>
-      <c r="C157" s="17" t="s">
-        <v>344</v>
-      </c>
-      <c r="D157" s="11" t="s">
-        <v>345</v>
-      </c>
-      <c r="E157" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F157" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P157" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q157" s="12"/>
+      <c r="R157" s="12"/>
       <c r="S157" s="13"/>
     </row>
     <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="F158" s="11" t="s">
         <v>5</v>
@@ -5871,9 +5922,18 @@
       </c>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B159" s="11" t="s">
-        <v>347</v>
+        <v>342</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>343</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F159" s="11" t="s">
         <v>5</v>
@@ -5883,9 +5943,9 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="11" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F160" s="11" t="s">
         <v>5</v>
@@ -5897,7 +5957,7 @@
     </row>
     <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="11" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>5</v>
@@ -5907,346 +5967,333 @@
       </c>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B162" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="D162" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="E162" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F162" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G162" s="12"/>
-      <c r="H162" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="I162" s="12"/>
-      <c r="J162" s="12"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="12"/>
-      <c r="N162" s="12"/>
-      <c r="O162" s="12"/>
-      <c r="P162" s="12"/>
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B162" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="F162" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P162" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="S162" s="13"/>
     </row>
     <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="F163" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P163" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S163" s="13"/>
+    </row>
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B164" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C164" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="D164" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E164" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F164" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G164" s="12"/>
+      <c r="H164" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="I164" s="12"/>
+      <c r="J164" s="12"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="12"/>
+      <c r="N164" s="12"/>
+      <c r="O164" s="12"/>
+      <c r="P164" s="12"/>
+      <c r="S164" s="13"/>
+    </row>
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B165" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P165" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S165" s="13"/>
+    </row>
+    <row r="166" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B166" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F163" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P163" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S163" s="13"/>
-    </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B164" s="11" t="s">
+      <c r="F166" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P166" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S166" s="13"/>
+    </row>
+    <row r="167" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B167" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F164" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P164" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S164" s="13"/>
-    </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B165" s="11" t="s">
+      <c r="F167" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S167" s="13"/>
+    </row>
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B168" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F165" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P165" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S165" s="13"/>
-    </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B166" s="11" t="s">
+      <c r="F168" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P168" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S168" s="13"/>
+    </row>
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="12"/>
+      <c r="B169" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F166" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P166" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S166" s="13"/>
-    </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="12"/>
-      <c r="B167" s="11" t="s">
+      <c r="F169" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P169" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q169" s="12"/>
+      <c r="R169" s="12"/>
+      <c r="S169" s="13"/>
+    </row>
+    <row r="170" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B170" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F167" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P167" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q167" s="12"/>
-      <c r="R167" s="12"/>
-      <c r="S167" s="13"/>
-    </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B168" s="11" t="s">
+      <c r="F170" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P170" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S170" s="13"/>
+    </row>
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B171" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P168" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S168" s="13"/>
-    </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B169" s="11" t="s">
+      <c r="F171" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P171" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S171" s="13"/>
+    </row>
+    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B172" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F169" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P169" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S169" s="13"/>
-    </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B170" s="11" t="s">
+      <c r="F172" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P172" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S172" s="13"/>
+    </row>
+    <row r="173" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="B173" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F170" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P170" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S170" s="13"/>
-    </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B171" s="11" t="s">
+      <c r="C173" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="C171" s="11" t="s">
-        <v>513</v>
-      </c>
-      <c r="D171" s="11" t="s">
+      <c r="E173" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F173" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P173" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S173" s="13"/>
+    </row>
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B174" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F174" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P174" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q174" s="13"/>
+      <c r="S174" s="13"/>
+    </row>
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="13"/>
+      <c r="B175" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="E171" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F171" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P171" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S171" s="13"/>
-    </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="13" t="s">
-        <v>277</v>
-      </c>
-      <c r="F172" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P172" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q172" s="13"/>
-      <c r="S172" s="13"/>
-    </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A173" s="13"/>
-      <c r="B173" s="11" t="s">
+      <c r="F175" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P175" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q175" s="13"/>
+      <c r="R175" s="14"/>
+      <c r="S175" s="13"/>
+    </row>
+    <row r="176" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B176" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C176" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D176" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="E176" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F176" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G176" s="12"/>
+      <c r="H176" s="12"/>
+      <c r="I176" s="12"/>
+      <c r="J176" s="12"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="12"/>
+      <c r="N176" s="12"/>
+      <c r="O176" s="12"/>
+      <c r="P176" s="12"/>
+      <c r="S176" s="13"/>
+    </row>
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B177" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F173" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P173" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q173" s="13"/>
-      <c r="R173" s="14"/>
-      <c r="S173" s="13"/>
-    </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B174" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="C174" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="D174" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="E174" s="12" t="s">
+      <c r="F177" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P177" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="S177" s="13"/>
+    </row>
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B178" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="F178" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P178" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+      <c r="B179" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C179" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D179" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E179" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F174" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G174" s="12"/>
-      <c r="H174" s="12"/>
-      <c r="I174" s="12"/>
-      <c r="J174" s="12"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="12"/>
-      <c r="N174" s="12"/>
-      <c r="O174" s="12"/>
-      <c r="P174" s="12"/>
-      <c r="S174" s="13"/>
-    </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B175" s="11" t="s">
-        <v>361</v>
-      </c>
-      <c r="F175" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P175" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="S175" s="13"/>
-    </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B176" s="11" t="s">
+      <c r="F179" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G179" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="H179" s="12"/>
+      <c r="I179" s="12"/>
+      <c r="J179" s="12"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="12"/>
+      <c r="N179" s="12"/>
+      <c r="O179" s="12"/>
+      <c r="P179" s="12"/>
+    </row>
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B180" s="11" t="s">
         <v>362</v>
       </c>
-      <c r="F176" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P176" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="177" spans="1:18" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
-      <c r="B177" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C177" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="D177" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E177" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F177" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G177" s="18" t="s">
-        <v>135</v>
-      </c>
-      <c r="H177" s="12"/>
-      <c r="I177" s="12"/>
-      <c r="J177" s="12"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="12"/>
-      <c r="N177" s="12"/>
-      <c r="O177" s="12"/>
-      <c r="P177" s="12"/>
-    </row>
-    <row r="178" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="11" t="s">
+      <c r="F180" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P180" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B181" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P178" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="179" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B179" s="11" t="s">
+      <c r="F181" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P181" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A182" s="12"/>
+      <c r="B182" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F179" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P179" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="180" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="12"/>
-      <c r="B180" s="11" t="s">
-        <v>365</v>
-      </c>
-      <c r="F180" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P180" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q180" s="12"/>
-      <c r="R180" s="12"/>
-    </row>
-    <row r="181" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B181" s="16" t="s">
+      <c r="F182" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P182" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q182" s="12"/>
+      <c r="R182" s="12"/>
+    </row>
+    <row r="183" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B183" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="C183" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C181" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="D181" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E181" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F181" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G181" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O181" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P181" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="182" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B182" s="11" t="s">
-        <v>366</v>
-      </c>
-      <c r="F182" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P182" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="183" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B183" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C183" s="16" t="s">
-        <v>286</v>
-      </c>
       <c r="D183" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>58</v>
@@ -6255,238 +6302,241 @@
         <v>5</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O183" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P183" s="11" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="184" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="13"/>
+    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="F184" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P184" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B185" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C185" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="D185" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E185" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F185" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G185" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O185" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P185" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="13"/>
+      <c r="B186" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P186" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q186" s="13"/>
+      <c r="R186" s="14"/>
+    </row>
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="13"/>
+      <c r="B187" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F184" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P184" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q184" s="13"/>
-      <c r="R184" s="14"/>
-    </row>
-    <row r="185" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="13"/>
-      <c r="B185" s="11" t="s">
+      <c r="F187" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P187" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q187" s="13"/>
+      <c r="R187" s="14"/>
+    </row>
+    <row r="188" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B188" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>495</v>
+      </c>
+      <c r="D188" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E188" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F188" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G188" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="O188" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P188" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B189" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="C189" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D189" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E189" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F189" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G189" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O189" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P189" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="13"/>
+      <c r="B190" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F185" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P185" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q185" s="13"/>
-      <c r="R185" s="14"/>
-    </row>
-    <row r="186" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B186" s="16" t="s">
-        <v>479</v>
-      </c>
-      <c r="C186" s="16" t="s">
+      <c r="F190" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P190" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q190" s="13"/>
+      <c r="R190" s="14"/>
+    </row>
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B191" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P191" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B192" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F192" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P192" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A193" s="13"/>
+      <c r="B193" s="16" t="s">
+        <v>484</v>
+      </c>
+      <c r="C193" s="16" t="s">
         <v>496</v>
       </c>
-      <c r="D186" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E186" s="11" t="s">
+      <c r="D193" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E193" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F186" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G186" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="O186" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P186" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="187" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B187" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="C187" s="16" t="s">
-        <v>288</v>
-      </c>
-      <c r="D187" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E187" s="11" t="s">
+      <c r="F193" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G193" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="O193" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P193" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q193" s="13"/>
+      <c r="R193" s="14"/>
+    </row>
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B194" s="16" t="s">
+        <v>498</v>
+      </c>
+      <c r="C194" s="16" t="s">
+        <v>497</v>
+      </c>
+      <c r="D194" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E194" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F187" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G187" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O187" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P187" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="188" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="13"/>
-      <c r="B188" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="F188" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P188" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q188" s="13"/>
-      <c r="R188" s="14"/>
-    </row>
-    <row r="189" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="11" t="s">
-        <v>370</v>
-      </c>
-      <c r="F189" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P189" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="190" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="11" t="s">
+      <c r="F194" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G194" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="O194" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P194" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B195" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="F190" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P190" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="191" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A191" s="13"/>
-      <c r="B191" s="16" t="s">
-        <v>485</v>
-      </c>
-      <c r="C191" s="16" t="s">
-        <v>497</v>
-      </c>
-      <c r="D191" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E191" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F191" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G191" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="O191" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P191" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q191" s="13"/>
-      <c r="R191" s="14"/>
-    </row>
-    <row r="192" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B192" s="16" t="s">
-        <v>499</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>498</v>
-      </c>
-      <c r="D192" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E192" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F192" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G192" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="O192" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P192" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B193" s="11" t="s">
-        <v>372</v>
-      </c>
-      <c r="F193" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P193" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="13"/>
-      <c r="B194" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="F194" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P194" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q194" s="13"/>
-      <c r="R194" s="14"/>
-    </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="13"/>
-      <c r="B195" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="F195" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I195" s="11" t="s">
-        <v>375</v>
-      </c>
       <c r="P195" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q195" s="13"/>
-      <c r="R195" s="14"/>
-    </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="11" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="I196" s="11" t="s">
-        <v>377</v>
       </c>
       <c r="P196" s="11" t="s">
         <v>157</v>
@@ -6494,28 +6544,16 @@
       <c r="Q196" s="13"/>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
-      <c r="B197" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="C197" s="16" t="s">
-        <v>290</v>
-      </c>
-      <c r="D197" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E197" s="11" t="s">
-        <v>58</v>
+      <c r="B197" s="11" t="s">
+        <v>373</v>
       </c>
       <c r="F197" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G197" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O197" s="11" t="s">
-        <v>278</v>
+      <c r="I197" s="11" t="s">
+        <v>374</v>
       </c>
       <c r="P197" s="11" t="s">
         <v>157</v>
@@ -6523,160 +6561,162 @@
       <c r="Q197" s="13"/>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A198" s="13"/>
       <c r="B198" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I198" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="P198" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q198" s="13"/>
+      <c r="R198" s="14"/>
+    </row>
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A199" s="13"/>
+      <c r="B199" s="16" t="s">
+        <v>288</v>
+      </c>
+      <c r="C199" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="D199" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E199" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F199" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G199" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O199" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P199" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q199" s="13"/>
+      <c r="R199" s="14"/>
+    </row>
+    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B200" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P200" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B201" s="11" t="s">
         <v>378</v>
       </c>
-      <c r="F198" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P198" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B199" s="11" t="s">
+      <c r="F201" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="13"/>
+      <c r="B202" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="F199" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P199" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="13"/>
-      <c r="B200" s="11" t="s">
+      <c r="F202" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P202" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q202" s="13"/>
+      <c r="R202" s="14"/>
+    </row>
+    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A203" s="13"/>
+      <c r="B203" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="F200" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P200" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q200" s="13"/>
-      <c r="R200" s="14"/>
-    </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="13"/>
-      <c r="B201" s="11" t="s">
-        <v>381</v>
-      </c>
-      <c r="F201" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P201" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q201" s="13"/>
-      <c r="R201" s="14"/>
-    </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="12"/>
-      <c r="B202" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="E202" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F202" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P202" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q202" s="12"/>
-      <c r="R202" s="12"/>
-    </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A203" s="13"/>
-      <c r="B203" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C203" s="12" t="s">
-        <v>500</v>
-      </c>
-      <c r="D203" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="E203" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F203" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G203" s="12"/>
-      <c r="H203" s="12"/>
-      <c r="I203" s="12"/>
-      <c r="J203" s="12"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
-      <c r="M203" s="12"/>
-      <c r="N203" s="12"/>
-      <c r="O203" s="12"/>
-      <c r="P203" s="12"/>
+      <c r="F203" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P203" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="Q203" s="13"/>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="13"/>
-      <c r="B204" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C204" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D204" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="E204" s="12" t="s">
+    <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="12"/>
+      <c r="B204" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E204" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F204" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G204" s="12"/>
-      <c r="H204" s="12"/>
-      <c r="I204" s="12"/>
-      <c r="J204" s="12"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
-      <c r="M204" s="12"/>
-      <c r="N204" s="12"/>
-      <c r="O204" s="12"/>
-      <c r="P204" s="12"/>
-      <c r="Q204" s="13"/>
-      <c r="R204" s="14"/>
-    </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F204" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P204" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q204" s="12"/>
+      <c r="R204" s="12"/>
+    </row>
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A205" s="13"/>
-      <c r="B205" s="11" t="s">
-        <v>382</v>
-      </c>
-      <c r="F205" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P205" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="B205" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C205" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="D205" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="E205" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F205" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G205" s="12"/>
+      <c r="H205" s="12"/>
+      <c r="I205" s="12"/>
+      <c r="J205" s="12"/>
+      <c r="K205" s="12"/>
+      <c r="L205" s="12"/>
+      <c r="M205" s="12"/>
+      <c r="N205" s="12"/>
+      <c r="O205" s="12"/>
+      <c r="P205" s="12"/>
       <c r="Q205" s="13"/>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="13"/>
       <c r="B206" s="12" t="s">
-        <v>145</v>
+        <v>67</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E206" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F206" s="12" t="s">
         <v>5</v>
@@ -6697,86 +6737,104 @@
     <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="F207" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P207" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q207" s="13"/>
+      <c r="R207" s="14"/>
+    </row>
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="13"/>
+      <c r="B208" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="C208" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D208" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="E208" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F208" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G208" s="12"/>
+      <c r="H208" s="12"/>
+      <c r="I208" s="12"/>
+      <c r="J208" s="12"/>
+      <c r="K208" s="12"/>
+      <c r="L208" s="12"/>
+      <c r="M208" s="12"/>
+      <c r="N208" s="12"/>
+      <c r="O208" s="12"/>
+      <c r="P208" s="12"/>
+      <c r="Q208" s="13"/>
+      <c r="R208" s="14"/>
+    </row>
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A209" s="13"/>
+      <c r="B209" s="11" t="s">
+        <v>382</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R209" s="14"/>
+    </row>
+    <row r="210" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A210" s="12"/>
+      <c r="B210" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="F207" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P207" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R207" s="14"/>
-    </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A208" s="12"/>
-      <c r="B208" s="11" t="s">
+      <c r="F210" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P210" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R210" s="12"/>
+    </row>
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="12"/>
+      <c r="B211" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="F208" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P208" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R208" s="12"/>
-    </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="12"/>
-      <c r="B209" s="11" t="s">
+      <c r="F211" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P211" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q211" s="13"/>
+      <c r="R211" s="12"/>
+    </row>
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A212" s="13"/>
+      <c r="B212" s="11" t="s">
         <v>385</v>
       </c>
-      <c r="F209" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P209" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q209" s="13"/>
-      <c r="R209" s="12"/>
-    </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="13"/>
-      <c r="B210" s="11" t="s">
-        <v>386</v>
-      </c>
-      <c r="F210" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P210" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R210" s="14"/>
-    </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="13"/>
-      <c r="B211" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="F211" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P211" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q211" s="13"/>
-      <c r="R211" s="14"/>
-    </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B212" s="11" t="s">
-        <v>388</v>
-      </c>
       <c r="F212" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P212" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q212" s="13"/>
+      <c r="R212" s="14"/>
     </row>
     <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>5</v>
@@ -6784,12 +6842,12 @@
       <c r="P213" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q213" s="13"/>
       <c r="R213" s="14"/>
     </row>
     <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A214" s="13"/>
       <c r="B214" s="11" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>5</v>
@@ -6797,110 +6855,114 @@
       <c r="P214" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R214" s="14"/>
-    </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Q214" s="13"/>
+    </row>
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
+        <v>388</v>
+      </c>
+      <c r="F215" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P215" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R215" s="14"/>
+    </row>
+    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="13"/>
+      <c r="B216" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="F216" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P216" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R216" s="14"/>
+    </row>
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="13"/>
+      <c r="B217" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F217" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R217" s="14"/>
+    </row>
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B218" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F215" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P215" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R215" s="14"/>
-    </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B216" s="11" t="s">
+      <c r="F218" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P218" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q218" s="13"/>
+    </row>
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B219" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="F216" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P216" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q216" s="13"/>
-    </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B217" s="11" t="s">
-        <v>393</v>
-      </c>
-      <c r="F217" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P217" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="13"/>
-      <c r="B218" s="12" t="s">
+      <c r="F219" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P219" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A220" s="13"/>
+      <c r="B220" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C218" s="12"/>
-      <c r="D218" s="12"/>
-      <c r="E218" s="12"/>
-      <c r="F218" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G218" s="12"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="12"/>
-      <c r="J218" s="12"/>
-      <c r="K218" s="12"/>
-      <c r="L218" s="12"/>
-      <c r="M218" s="12"/>
-      <c r="N218" s="12"/>
-      <c r="O218" s="12"/>
-      <c r="P218" s="12"/>
-      <c r="R218" s="14"/>
-    </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B219" s="16" t="s">
+      <c r="C220" s="12"/>
+      <c r="D220" s="12"/>
+      <c r="E220" s="12"/>
+      <c r="F220" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G220" s="12"/>
+      <c r="H220" s="12"/>
+      <c r="I220" s="12"/>
+      <c r="J220" s="12"/>
+      <c r="K220" s="12"/>
+      <c r="L220" s="12"/>
+      <c r="M220" s="12"/>
+      <c r="N220" s="12"/>
+      <c r="O220" s="12"/>
+      <c r="P220" s="12"/>
+      <c r="R220" s="14"/>
+    </row>
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B221" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C221" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="C219" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="D219" s="11" t="s">
+      <c r="D221" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E221" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F221" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G221" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E219" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F219" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G219" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O219" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P219" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B220" s="11" t="s">
-        <v>394</v>
-      </c>
-      <c r="F220" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P220" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B221" s="11" t="s">
-        <v>395</v>
-      </c>
-      <c r="F221" s="11" t="s">
-        <v>5</v>
+      <c r="O221" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="P221" s="11" t="s">
         <v>157</v>
@@ -6908,245 +6970,223 @@
     </row>
     <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11" t="s">
+        <v>393</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P222" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B223" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F223" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P223" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B224" s="11" t="s">
+        <v>395</v>
+      </c>
+      <c r="F224" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P224" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q224" s="13"/>
+    </row>
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B225" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="F222" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P222" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q222" s="13"/>
-    </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B223" s="11" t="s">
+      <c r="F225" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P225" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q225" s="12"/>
+    </row>
+    <row r="226" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B226" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C226" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D226" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="E226" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F226" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G226" s="18"/>
+      <c r="H226" s="12"/>
+      <c r="I226" s="12"/>
+      <c r="J226" s="12"/>
+      <c r="K226" s="12"/>
+      <c r="L226" s="12"/>
+      <c r="M226" s="12"/>
+      <c r="N226" s="12"/>
+      <c r="O226" s="12"/>
+      <c r="P226" s="12"/>
+    </row>
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A227" s="13"/>
+      <c r="B227" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P223" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q223" s="12"/>
-    </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B224" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C224" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D224" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="E224" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F224" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G224" s="18"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="12"/>
-      <c r="J224" s="12"/>
-      <c r="K224" s="12"/>
-      <c r="L224" s="12"/>
-      <c r="M224" s="12"/>
-      <c r="N224" s="12"/>
-      <c r="O224" s="12"/>
-      <c r="P224" s="12"/>
-    </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="13"/>
-      <c r="B225" s="11" t="s">
+      <c r="F227" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I227" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F225" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I225" s="11" t="s">
+      <c r="P227" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R227" s="14"/>
+    </row>
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B228" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="P225" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R225" s="14"/>
-    </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B226" s="11" t="s">
+      <c r="F228" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P228" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="12"/>
+      <c r="B229" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="F226" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P226" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="12"/>
-      <c r="B227" s="11" t="s">
+      <c r="F229" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P229" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q229" s="13"/>
+      <c r="R229" s="12"/>
+    </row>
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="13"/>
+      <c r="B230" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="F227" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P227" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q227" s="13"/>
-      <c r="R227" s="12"/>
-    </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A228" s="13"/>
-      <c r="B228" s="11" t="s">
+      <c r="F230" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P230" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R230" s="14"/>
+    </row>
+    <row r="231" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="13"/>
+      <c r="B231" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="F228" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P228" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R228" s="14"/>
-    </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="13"/>
-      <c r="B229" s="11" t="s">
+      <c r="F231" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P231" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q231" s="13"/>
+      <c r="R231" s="14"/>
+    </row>
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B232" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="F229" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P229" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q229" s="13"/>
-      <c r="R229" s="14"/>
-    </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B230" s="11" t="s">
+      <c r="F232" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P232" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q232" s="13"/>
+    </row>
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B233" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F230" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P230" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q230" s="13"/>
-    </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B231" s="11" t="s">
+      <c r="F233" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P233" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q233" s="13"/>
+    </row>
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="13"/>
+      <c r="B234" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F231" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P231" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q231" s="13"/>
-    </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="13"/>
-      <c r="B232" s="11" t="s">
+      <c r="F234" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P234" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R234" s="14"/>
+    </row>
+    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="13"/>
+      <c r="B235" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F232" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P232" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R232" s="14"/>
-    </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="13"/>
-      <c r="B233" s="11" t="s">
+      <c r="F235" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I235" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F233" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I233" s="11" t="s">
-        <v>408</v>
-      </c>
-      <c r="P233" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q233" s="13"/>
-      <c r="R233" s="14"/>
-    </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="13"/>
-      <c r="B234" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C234" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D234" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E234" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F234" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G234" s="12"/>
-      <c r="H234" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I234" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J234" s="12"/>
-      <c r="K234" s="12"/>
-      <c r="L234" s="12"/>
-      <c r="M234" s="12"/>
-      <c r="N234" s="12"/>
-      <c r="O234" s="12"/>
-      <c r="P234" s="12"/>
-      <c r="R234" s="14"/>
-    </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B235" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C235" s="12"/>
-      <c r="D235" s="12"/>
-      <c r="E235" s="12"/>
-      <c r="F235" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="12"/>
-      <c r="J235" s="12"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
-      <c r="P235" s="12"/>
-    </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P235" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q235" s="13"/>
+      <c r="R235" s="14"/>
+    </row>
+    <row r="236" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A236" s="13"/>
       <c r="B236" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="C236" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="D236" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E236" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F236" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
+      <c r="H236" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="I236" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="J236" s="12"/>
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
@@ -7156,19 +7196,13 @@
       <c r="P236" s="12"/>
       <c r="R236" s="14"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B237" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C237" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D237" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E237" s="12" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C237" s="12"/>
+      <c r="D237" s="12"/>
+      <c r="E237" s="12"/>
       <c r="F237" s="12" t="s">
         <v>5</v>
       </c>
@@ -7183,34 +7217,59 @@
       <c r="O237" s="12"/>
       <c r="P237" s="12"/>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B238" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F238" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P238" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B239" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F239" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I239" s="11" t="s">
-        <v>411</v>
-      </c>
-      <c r="P239" s="11" t="s">
-        <v>157</v>
-      </c>
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A238" s="13"/>
+      <c r="B238" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
+      <c r="F238" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G238" s="12"/>
+      <c r="H238" s="12"/>
+      <c r="I238" s="12"/>
+      <c r="J238" s="12"/>
+      <c r="K238" s="12"/>
+      <c r="L238" s="12"/>
+      <c r="M238" s="12"/>
+      <c r="N238" s="12"/>
+      <c r="O238" s="12"/>
+      <c r="P238" s="12"/>
+      <c r="R238" s="14"/>
+    </row>
+    <row r="239" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B239" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C239" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D239" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E239" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F239" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="12"/>
+      <c r="O239" s="12"/>
+      <c r="P239" s="12"/>
     </row>
     <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>5</v>
@@ -7218,23 +7277,24 @@
       <c r="P240" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q240" s="12"/>
     </row>
     <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="I241" s="11" t="s">
+        <v>410</v>
+      </c>
       <c r="P241" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q241" s="12"/>
     </row>
     <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F242" s="11" t="s">
         <v>5</v>
@@ -7244,90 +7304,86 @@
       </c>
       <c r="Q242" s="12"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="12"/>
-      <c r="B243" s="12" t="s">
+    <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B243" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F243" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P243" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q243" s="12"/>
+    </row>
+    <row r="244" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B244" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="F244" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P244" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q244" s="12"/>
+    </row>
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A245" s="12"/>
+      <c r="B245" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C243" s="12"/>
-      <c r="D243" s="12"/>
-      <c r="E243" s="12"/>
-      <c r="F243" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G243" s="12"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="12"/>
-      <c r="J243" s="12"/>
-      <c r="K243" s="12"/>
-      <c r="L243" s="12"/>
-      <c r="M243" s="12"/>
-      <c r="N243" s="12"/>
-      <c r="O243" s="12"/>
-      <c r="P243" s="12"/>
-      <c r="Q243" s="12"/>
-      <c r="R243" s="12"/>
-    </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A244" s="12"/>
-      <c r="B244" s="16" t="s">
+      <c r="C245" s="12"/>
+      <c r="D245" s="12"/>
+      <c r="E245" s="12"/>
+      <c r="F245" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" s="12"/>
+      <c r="H245" s="12"/>
+      <c r="I245" s="12"/>
+      <c r="J245" s="12"/>
+      <c r="K245" s="12"/>
+      <c r="L245" s="12"/>
+      <c r="M245" s="12"/>
+      <c r="N245" s="12"/>
+      <c r="O245" s="12"/>
+      <c r="P245" s="12"/>
+      <c r="Q245" s="12"/>
+      <c r="R245" s="12"/>
+    </row>
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A246" s="12"/>
+      <c r="B246" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C246" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C244" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="D244" s="11" t="s">
+      <c r="D246" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E246" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F246" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="E244" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G244" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O244" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P244" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R244" s="12"/>
-    </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="13"/>
-      <c r="B245" s="11" t="s">
-        <v>415</v>
-      </c>
-      <c r="F245" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P245" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q245" s="13"/>
-      <c r="R245" s="14"/>
-    </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="13"/>
-      <c r="B246" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>5</v>
+      <c r="O246" s="11" t="s">
+        <v>277</v>
       </c>
       <c r="P246" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q246" s="13"/>
-      <c r="R246" s="14"/>
-    </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="R246" s="12"/>
+    </row>
+    <row r="247" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>5</v>
@@ -7341,7 +7397,7 @@
     <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="11" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>5</v>
@@ -7352,16 +7408,10 @@
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="D249" s="11" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>5</v>
@@ -7372,42 +7422,30 @@
       <c r="Q249" s="13"/>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
-      <c r="B250" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C250" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D250" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E250" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F250" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G250" s="12"/>
-      <c r="H250" s="12"/>
-      <c r="I250" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J250" s="12"/>
-      <c r="K250" s="12"/>
-      <c r="L250" s="12"/>
-      <c r="M250" s="12"/>
-      <c r="N250" s="12"/>
-      <c r="O250" s="12"/>
-      <c r="P250" s="12"/>
+      <c r="B250" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F250" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P250" s="11" t="s">
+        <v>157</v>
+      </c>
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
     <row r="251" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
       <c r="B251" s="11" t="s">
-        <v>422</v>
+        <v>418</v>
+      </c>
+      <c r="C251" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="D251" s="11" t="s">
+        <v>420</v>
       </c>
       <c r="F251" s="11" t="s">
         <v>5</v>
@@ -7420,37 +7458,40 @@
     </row>
     <row r="252" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
-      <c r="B252" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="C252" s="16" t="s">
-        <v>484</v>
-      </c>
-      <c r="D252" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E252" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F252" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G252" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="O252" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P252" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="B252" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C252" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D252" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E252" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F252" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G252" s="12"/>
+      <c r="H252" s="12"/>
+      <c r="I252" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="J252" s="12"/>
+      <c r="K252" s="12"/>
+      <c r="L252" s="12"/>
+      <c r="M252" s="12"/>
+      <c r="N252" s="12"/>
+      <c r="O252" s="12"/>
+      <c r="P252" s="12"/>
       <c r="Q252" s="13"/>
       <c r="R252" s="14"/>
     </row>
     <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
       <c r="B253" s="11" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="F253" s="11" t="s">
         <v>5</v>
@@ -7458,18 +7499,19 @@
       <c r="P253" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q253" s="12"/>
+      <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A254" s="13"/>
       <c r="B254" s="16" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="C254" s="16" t="s">
-        <v>296</v>
+        <v>483</v>
       </c>
       <c r="D254" s="11" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E254" s="11" t="s">
         <v>58</v>
@@ -7477,120 +7519,136 @@
       <c r="F254" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G254" s="15" t="s">
-        <v>282</v>
+      <c r="G254" s="11" t="s">
+        <v>477</v>
       </c>
       <c r="O254" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="P254" s="11" t="s">
         <v>157</v>
       </c>
       <c r="Q254" s="13"/>
+      <c r="R254" s="14"/>
     </row>
     <row r="255" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A255" s="13"/>
-      <c r="B255" s="12" t="s">
+      <c r="B255" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F255" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P255" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q255" s="12"/>
+      <c r="R255" s="14"/>
+    </row>
+    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B256" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C256" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D256" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E256" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G256" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O256" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P256" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q256" s="13"/>
+    </row>
+    <row r="257" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="13"/>
+      <c r="B257" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C255" s="12"/>
-      <c r="D255" s="12"/>
-      <c r="E255" s="12"/>
-      <c r="F255" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G255" s="12"/>
-      <c r="H255" s="12"/>
-      <c r="I255" s="12"/>
-      <c r="J255" s="12"/>
-      <c r="K255" s="12"/>
-      <c r="L255" s="12"/>
-      <c r="M255" s="12"/>
-      <c r="N255" s="12"/>
-      <c r="O255" s="12"/>
-      <c r="P255" s="12"/>
-      <c r="R255" s="14"/>
-    </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A256" s="12"/>
-      <c r="B256" s="11" t="s">
+      <c r="C257" s="12"/>
+      <c r="D257" s="12"/>
+      <c r="E257" s="12"/>
+      <c r="F257" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="12"/>
+      <c r="H257" s="12"/>
+      <c r="I257" s="12"/>
+      <c r="J257" s="12"/>
+      <c r="K257" s="12"/>
+      <c r="L257" s="12"/>
+      <c r="M257" s="12"/>
+      <c r="N257" s="12"/>
+      <c r="O257" s="12"/>
+      <c r="P257" s="12"/>
+      <c r="R257" s="14"/>
+    </row>
+    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="12"/>
+      <c r="B258" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F258" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P258" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R258" s="12"/>
+    </row>
+    <row r="259" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B259" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="F256" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P256" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R256" s="12"/>
-    </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B257" s="11" t="s">
+      <c r="F259" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P259" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="13"/>
+      <c r="B260" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F257" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P257" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="13"/>
-      <c r="B258" s="11" t="s">
+      <c r="F260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R260" s="14"/>
+    </row>
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="13"/>
+      <c r="B261" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="F258" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P258" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R258" s="14"/>
-    </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A259" s="13"/>
-      <c r="B259" s="11" t="s">
-        <v>427</v>
-      </c>
-      <c r="F259" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P259" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q259" s="12"/>
-      <c r="R259" s="14"/>
-    </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B260" s="11" t="s">
-        <v>428</v>
-      </c>
-      <c r="F260" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P260" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q260" s="13"/>
-    </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="12"/>
-      <c r="B261" s="11" t="s">
-        <v>429</v>
-      </c>
       <c r="F261" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P261" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q261" s="13"/>
-      <c r="R261" s="12"/>
+      <c r="Q261" s="12"/>
+      <c r="R261" s="14"/>
     </row>
     <row r="262" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B262" s="11" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="F262" s="11" t="s">
         <v>5</v>
@@ -7598,11 +7656,12 @@
       <c r="P262" s="11" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A263" s="13"/>
-      <c r="B263" s="13" t="s">
-        <v>250</v>
+      <c r="Q262" s="13"/>
+    </row>
+    <row r="263" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A263" s="12"/>
+      <c r="B263" s="11" t="s">
+        <v>428</v>
       </c>
       <c r="F263" s="11" t="s">
         <v>5</v>
@@ -7610,96 +7669,98 @@
       <c r="P263" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R263" s="14"/>
-    </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B264" s="16" t="s">
+      <c r="Q263" s="13"/>
+      <c r="R263" s="12"/>
+    </row>
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B264" s="11" t="s">
+        <v>429</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P264" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="13"/>
+      <c r="B265" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P265" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R265" s="14"/>
+    </row>
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B266" s="16" t="s">
+        <v>481</v>
+      </c>
+      <c r="C266" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="C264" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="D264" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E264" s="11" t="s">
+      <c r="D266" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E266" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F264" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G264" s="11" t="s">
-        <v>478</v>
-      </c>
-      <c r="O264" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P264" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q264" s="13"/>
-    </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B265" s="11" t="s">
+      <c r="F266" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G266" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="O266" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P266" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q266" s="13"/>
+    </row>
+    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B267" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="F267" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P267" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B268" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="F265" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P265" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B266" s="11" t="s">
+      <c r="F268" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P268" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="13"/>
+      <c r="B269" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="F266" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P266" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="13"/>
-      <c r="B267" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P267" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R267" s="14"/>
-    </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B268" s="11" t="s">
-        <v>435</v>
-      </c>
-      <c r="F268" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P268" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="11" t="s">
-        <v>436</v>
-      </c>
       <c r="F269" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P269" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q269" s="13"/>
+      <c r="R269" s="14"/>
     </row>
     <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>5</v>
@@ -7710,7 +7771,7 @@
     </row>
     <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>5</v>
@@ -7718,10 +7779,11 @@
       <c r="P271" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q271" s="13"/>
     </row>
     <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>5</v>
@@ -7731,9 +7793,8 @@
       </c>
     </row>
     <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="13"/>
       <c r="B273" s="11" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="F273" s="11" t="s">
         <v>5</v>
@@ -7741,13 +7802,10 @@
       <c r="P273" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q273" s="13"/>
-      <c r="R273" s="14"/>
-    </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A274" s="13"/>
+    </row>
+    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B274" s="11" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F274" s="11" t="s">
         <v>5</v>
@@ -7755,12 +7813,11 @@
       <c r="P274" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R274" s="14"/>
-    </row>
-    <row r="275" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="275" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="11" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="F275" s="11" t="s">
         <v>5</v>
@@ -7768,11 +7825,13 @@
       <c r="P275" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q275" s="13"/>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A276" s="13"/>
       <c r="B276" s="11" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F276" s="11" t="s">
         <v>5</v>
@@ -7780,11 +7839,12 @@
       <c r="P276" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q276" s="13"/>
+      <c r="R276" s="14"/>
     </row>
     <row r="277" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="13"/>
       <c r="B277" s="11" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F277" s="11" t="s">
         <v>5</v>
@@ -7792,11 +7852,11 @@
       <c r="P277" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q277" s="13"/>
+      <c r="R277" s="14"/>
     </row>
     <row r="278" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B278" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F278" s="11" t="s">
         <v>5</v>
@@ -7807,9 +7867,8 @@
       <c r="Q278" s="13"/>
     </row>
     <row r="279" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A279" s="13"/>
       <c r="B279" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F279" s="11" t="s">
         <v>5</v>
@@ -7817,12 +7876,11 @@
       <c r="P279" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R279" s="14"/>
-    </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A280" s="13"/>
+      <c r="Q279" s="13"/>
+    </row>
+    <row r="280" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B280" s="11" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>5</v>
@@ -7830,86 +7888,88 @@
       <c r="P280" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R280" s="14"/>
-    </row>
-    <row r="281" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="Q280" s="13"/>
+    </row>
+    <row r="281" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F281" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P281" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R281" s="14"/>
+    </row>
+    <row r="282" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A282" s="13"/>
+      <c r="B282" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F282" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P282" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R282" s="14"/>
+    </row>
+    <row r="283" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="13"/>
+      <c r="B283" s="11" t="s">
+        <v>447</v>
+      </c>
+      <c r="F283" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P283" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R283" s="14"/>
+    </row>
+    <row r="284" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="11"/>
+      <c r="B284" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="F281" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P281" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R281" s="14"/>
-    </row>
-    <row r="282" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A282" s="11"/>
-      <c r="B282" s="11" t="s">
+      <c r="C284" s="11"/>
+      <c r="D284" s="11"/>
+      <c r="E284" s="11"/>
+      <c r="F284" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G284" s="11"/>
+      <c r="H284" s="11"/>
+      <c r="I284" s="11"/>
+      <c r="J284" s="11"/>
+      <c r="K284" s="11"/>
+      <c r="L284" s="11"/>
+      <c r="M284" s="11"/>
+      <c r="N284" s="11"/>
+      <c r="O284" s="11"/>
+      <c r="P284" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q284" s="13"/>
+      <c r="R284" s="11"/>
+      <c r="S284" s="11"/>
+    </row>
+    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B285" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="C282" s="11"/>
-      <c r="D282" s="11"/>
-      <c r="E282" s="11"/>
-      <c r="F282" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G282" s="11"/>
-      <c r="H282" s="11"/>
-      <c r="I282" s="11"/>
-      <c r="J282" s="11"/>
-      <c r="K282" s="11"/>
-      <c r="L282" s="11"/>
-      <c r="M282" s="11"/>
-      <c r="N282" s="11"/>
-      <c r="O282" s="11"/>
-      <c r="P282" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q282" s="13"/>
-      <c r="R282" s="11"/>
-      <c r="S282" s="11"/>
-    </row>
-    <row r="283" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B283" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="F283" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P283" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B284" s="11" t="s">
-        <v>451</v>
-      </c>
-      <c r="F284" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P284" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="13"/>
-      <c r="B285" s="11" t="s">
-        <v>452</v>
-      </c>
       <c r="F285" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P285" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R285" s="14"/>
     </row>
     <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B286" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>5</v>
@@ -7919,8 +7979,9 @@
       </c>
     </row>
     <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="13"/>
       <c r="B287" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>5</v>
@@ -7928,10 +7989,11 @@
       <c r="P287" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="R287" s="14"/>
     </row>
     <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F288" s="11" t="s">
         <v>5</v>
@@ -7940,9 +8002,9 @@
         <v>157</v>
       </c>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>5</v>
@@ -7950,11 +8012,10 @@
       <c r="P289" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q289" s="13"/>
     </row>
     <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B290" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>5</v>
@@ -7962,139 +8023,134 @@
       <c r="P290" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="Q290" s="13"/>
     </row>
     <row r="291" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B291" s="11" t="s">
-        <v>512</v>
+        <v>455</v>
       </c>
       <c r="F291" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P291" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q291" s="13"/>
+    </row>
+    <row r="292" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B292" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P292" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q292" s="13"/>
+    </row>
+    <row r="293" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B293" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="F293" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B294" s="11" t="s">
+        <v>457</v>
+      </c>
+      <c r="F294" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P294" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="13"/>
+      <c r="B295" s="11" t="s">
         <v>458</v>
       </c>
-      <c r="F292" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P292" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="13"/>
-      <c r="B293" s="11" t="s">
+      <c r="F295" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P295" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q295" s="13"/>
+      <c r="R295" s="14"/>
+    </row>
+    <row r="296" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B296" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="C296" s="16" t="s">
+        <v>297</v>
+      </c>
+      <c r="D296" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="E296" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G296" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="O296" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="P296" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B297" s="11" t="s">
         <v>459</v>
       </c>
-      <c r="F293" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P293" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q293" s="13"/>
-      <c r="R293" s="14"/>
-    </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B294" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="C294" s="16" t="s">
-        <v>298</v>
-      </c>
-      <c r="D294" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="E294" s="11" t="s">
+      <c r="F297" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P297" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q297" s="13"/>
+    </row>
+    <row r="298" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B298" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="D298" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E298" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F294" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G294" s="15" t="s">
-        <v>282</v>
-      </c>
-      <c r="O294" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="P294" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B295" s="11" t="s">
-        <v>460</v>
-      </c>
-      <c r="F295" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P295" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q295" s="13"/>
-    </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B296" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C296" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D296" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E296" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F296" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G296" s="12"/>
-      <c r="H296" s="12"/>
-      <c r="I296" s="12"/>
-      <c r="J296" s="12"/>
-      <c r="K296" s="12"/>
-      <c r="L296" s="12"/>
-      <c r="M296" s="12"/>
-      <c r="N296" s="12"/>
-      <c r="O296" s="12"/>
-      <c r="P296" s="12"/>
-      <c r="Q296" s="13"/>
-    </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="13"/>
-      <c r="B297" s="11" t="s">
-        <v>461</v>
-      </c>
-      <c r="F297" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P297" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q297" s="13"/>
-      <c r="R297" s="14"/>
-    </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="13"/>
-      <c r="B298" s="11" t="s">
-        <v>462</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P298" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="F298" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G298" s="12"/>
+      <c r="H298" s="12"/>
+      <c r="I298" s="12"/>
+      <c r="J298" s="12"/>
+      <c r="K298" s="12"/>
+      <c r="L298" s="12"/>
+      <c r="M298" s="12"/>
+      <c r="N298" s="12"/>
+      <c r="O298" s="12"/>
+      <c r="P298" s="12"/>
       <c r="Q298" s="13"/>
-      <c r="R298" s="14"/>
     </row>
     <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>5</v>
@@ -8108,7 +8164,7 @@
     <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>5</v>
@@ -8116,12 +8172,13 @@
       <c r="P300" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q300" s="13"/>
       <c r="R300" s="14"/>
     </row>
     <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>5</v>
@@ -8129,73 +8186,74 @@
       <c r="P301" s="11" t="s">
         <v>157</v>
       </c>
+      <c r="Q301" s="13"/>
       <c r="R301" s="14"/>
     </row>
     <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="F302" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P302" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R302" s="14"/>
+    </row>
+    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="13"/>
+      <c r="B303" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P303" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R303" s="14"/>
+    </row>
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="13"/>
+      <c r="B304" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P304" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R304" s="14"/>
+    </row>
+    <row r="305" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B305" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="F302" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P302" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R302" s="14"/>
-    </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B303" s="11" t="s">
+      <c r="F305" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P305" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q305" s="12"/>
+    </row>
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B306" s="11" t="s">
         <v>467</v>
       </c>
-      <c r="F303" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P303" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q303" s="12"/>
-    </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B304" s="11" t="s">
-        <v>468</v>
-      </c>
-      <c r="F304" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P304" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="11" t="s">
-        <v>469</v>
-      </c>
-      <c r="F305" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P305" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B306" s="11" t="s">
-        <v>470</v>
-      </c>
       <c r="F306" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P306" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="R306" s="12"/>
     </row>
     <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B307" s="11" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="F307" s="11" t="s">
         <v>5</v>
@@ -8204,97 +8262,101 @@
         <v>157</v>
       </c>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B308" s="13" t="s">
+    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B308" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P308" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="R308" s="12"/>
+    </row>
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="F309" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P309" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B310" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P310" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B311" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F308" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P308" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P309" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="13" t="s">
-        <v>276</v>
-      </c>
-      <c r="F310" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I310" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="P310" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="11" t="s">
+      <c r="F311" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P311" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="F312" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I312" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="P312" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="F313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P313" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B314" s="11" t="s">
         <v>475</v>
       </c>
-      <c r="F311" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P311" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B312" s="11" t="s">
+      <c r="F314" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P314" s="11" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B315" s="11" t="s">
         <v>476</v>
       </c>
-      <c r="F312" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P312" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B313" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="F313" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P313" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q313" s="13"/>
-    </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B314" s="14"/>
-      <c r="P314" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="14"/>
-      <c r="F315" s="12"/>
-      <c r="G315" s="12"/>
-      <c r="H315" s="14"/>
-      <c r="I315" s="12"/>
-      <c r="J315" s="12"/>
-      <c r="K315" s="12"/>
-      <c r="L315" s="12">
-        <v>1</v>
-      </c>
-      <c r="M315" s="12"/>
-      <c r="N315" s="12"/>
-      <c r="O315" s="12"/>
-      <c r="P315" s="12"/>
+      <c r="F315" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P315" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q315" s="13"/>
     </row>
     <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="14"/>
@@ -8304,9 +8366,19 @@
     </row>
     <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="14"/>
-      <c r="P317" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="12"/>
+      <c r="J317" s="12"/>
+      <c r="K317" s="12"/>
+      <c r="L317" s="12">
+        <v>1</v>
+      </c>
+      <c r="M317" s="12"/>
+      <c r="N317" s="12"/>
+      <c r="O317" s="12"/>
+      <c r="P317" s="12"/>
     </row>
     <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="14"/>
@@ -8316,19 +8388,9 @@
     </row>
     <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="14"/>
-      <c r="D319" s="12"/>
-      <c r="E319" s="12"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="12"/>
-      <c r="I319" s="12"/>
-      <c r="J319" s="12"/>
-      <c r="K319" s="12"/>
-      <c r="L319" s="12"/>
-      <c r="M319" s="12"/>
-      <c r="N319" s="12"/>
-      <c r="O319" s="12"/>
-      <c r="P319" s="12"/>
+      <c r="P319" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="14"/>
@@ -8338,7 +8400,6 @@
     </row>
     <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="14"/>
-      <c r="C321" s="12"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
       <c r="F321" s="12"/>
@@ -8355,30 +8416,47 @@
     </row>
     <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="14"/>
-      <c r="C322" s="12"/>
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
-      <c r="J322" s="12"/>
-      <c r="K322" s="12"/>
-      <c r="L322" s="12"/>
-      <c r="M322" s="12"/>
-      <c r="N322" s="12"/>
-      <c r="O322" s="12"/>
-      <c r="P322" s="12"/>
+      <c r="P322" s="11" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="14"/>
-      <c r="Q323" s="12"/>
+      <c r="C323" s="12"/>
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+      <c r="F323" s="12"/>
+      <c r="G323" s="12"/>
+      <c r="H323" s="12"/>
+      <c r="I323" s="12"/>
+      <c r="J323" s="12"/>
+      <c r="K323" s="12"/>
+      <c r="L323" s="12"/>
+      <c r="M323" s="12"/>
+      <c r="N323" s="12"/>
+      <c r="O323" s="12"/>
+      <c r="P323" s="12"/>
     </row>
     <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="14"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12"/>
+      <c r="J324" s="12"/>
+      <c r="K324" s="12"/>
+      <c r="L324" s="12"/>
+      <c r="M324" s="12"/>
+      <c r="N324" s="12"/>
+      <c r="O324" s="12"/>
+      <c r="P324" s="12"/>
     </row>
     <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="14"/>
+      <c r="Q325" s="12"/>
     </row>
     <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="14"/>
@@ -8399,51 +8477,21 @@
       <c r="B331" s="14"/>
     </row>
     <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
       <c r="B332" s="14"/>
-      <c r="R332" s="12"/>
     </row>
     <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B333" s="14"/>
-      <c r="Q333" s="12"/>
     </row>
     <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14"/>
       <c r="B334" s="14"/>
-      <c r="C334" s="12"/>
-      <c r="D334" s="12"/>
-      <c r="E334" s="12"/>
-      <c r="F334" s="12"/>
-      <c r="G334" s="12"/>
-      <c r="H334" s="12"/>
-      <c r="I334" s="12"/>
-      <c r="J334" s="12"/>
-      <c r="K334" s="12"/>
-      <c r="L334" s="12"/>
-      <c r="M334" s="12"/>
-      <c r="N334" s="12"/>
-      <c r="O334" s="12"/>
-      <c r="P334" s="12"/>
+      <c r="R334" s="12"/>
     </row>
     <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="14"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
-      <c r="E335" s="12"/>
-      <c r="F335" s="12"/>
-      <c r="G335" s="12"/>
-      <c r="H335" s="12"/>
-      <c r="I335" s="12"/>
-      <c r="J335" s="12"/>
-      <c r="K335" s="12"/>
-      <c r="L335" s="12"/>
-      <c r="M335" s="12"/>
-      <c r="N335" s="12"/>
-      <c r="O335" s="12"/>
-      <c r="P335" s="12"/>
       <c r="Q335" s="12"/>
     </row>
     <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="12"/>
       <c r="B336" s="14"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
@@ -8459,10 +8507,8 @@
       <c r="N336" s="12"/>
       <c r="O336" s="12"/>
       <c r="P336" s="12"/>
-      <c r="Q336" s="12"/>
-      <c r="R336" s="12"/>
-    </row>
-    <row r="337" spans="2:17" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B337" s="14"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -8480,8 +8526,46 @@
       <c r="P337" s="12"/>
       <c r="Q337" s="12"/>
     </row>
-    <row r="338" spans="2:17" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="12"/>
       <c r="B338" s="14"/>
+      <c r="C338" s="12"/>
+      <c r="D338" s="12"/>
+      <c r="E338" s="12"/>
+      <c r="F338" s="12"/>
+      <c r="G338" s="12"/>
+      <c r="H338" s="12"/>
+      <c r="I338" s="12"/>
+      <c r="J338" s="12"/>
+      <c r="K338" s="12"/>
+      <c r="L338" s="12"/>
+      <c r="M338" s="12"/>
+      <c r="N338" s="12"/>
+      <c r="O338" s="12"/>
+      <c r="P338" s="12"/>
+      <c r="Q338" s="12"/>
+      <c r="R338" s="12"/>
+    </row>
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B339" s="14"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+      <c r="G339" s="12"/>
+      <c r="H339" s="12"/>
+      <c r="I339" s="12"/>
+      <c r="J339" s="12"/>
+      <c r="K339" s="12"/>
+      <c r="L339" s="12"/>
+      <c r="M339" s="12"/>
+      <c r="N339" s="12"/>
+      <c r="O339" s="12"/>
+      <c r="P339" s="12"/>
+      <c r="Q339" s="12"/>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B340" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:S2822">
@@ -8490,7 +8574,7 @@
     <sortCondition ref="B2:B2822"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G177" r:id="rId1"/>
+    <hyperlink ref="G179" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8536,7 +8620,7 @@
         <v>109</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8558,7 +8642,7 @@
         <v>113</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>111</v>
@@ -8608,7 +8692,7 @@
         <v>121</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8641,7 +8725,7 @@
         <v>126</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
@@ -8652,7 +8736,7 @@
         <v>127</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8682,10 +8766,10 @@
         <v>153</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -8693,10 +8777,10 @@
         <v>154</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>491</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
@@ -8704,10 +8788,10 @@
         <v>155</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8715,21 +8799,21 @@
         <v>156</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>493</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>494</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>508</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>509</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -8807,7 +8891,7 @@
         <v>102</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\User3\Work\Github\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1359" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="523">
   <si>
     <t>ID</t>
   </si>
@@ -252,12 +252,6 @@
     <t>Opioid agonist therapy</t>
   </si>
   <si>
-    <t>No ontological definition found. Developed definition from one developed by CAMH https://www.camh.ca/-/media/files/oat-info-for-clients.pdf</t>
-  </si>
-  <si>
-    <t>A treatment that involves providing an opioid agonist to people with opioid dependence.</t>
-  </si>
-  <si>
     <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate the signs and symptoms of a disorder or pathological process.</t>
   </si>
   <si>
@@ -1248,12 +1242,6 @@
     <t>On-line program</t>
   </si>
   <si>
-    <t>Opioid agnostic treatment</t>
-  </si>
-  <si>
-    <t>OAT</t>
-  </si>
-  <si>
     <t>Opioid maintenance programme</t>
   </si>
   <si>
@@ -1603,12 +1591,18 @@
   </si>
   <si>
     <t>A law that creates a requirement on product manufacturers to pre-notify a relevant authority of the product characteristics and receive approval before marketing a product.</t>
+  </si>
+  <si>
+    <t>A treatment that involves providing a safer opioid agonist to a person with opioid addiction in order to reduce their psychological need for  the opioid to which they are addicted.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No ontological definition found. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1807,7 +1801,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2105,11 +2099,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S340"/>
+  <dimension ref="A1:S339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C73" sqref="C73"/>
+      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C235" sqref="C235"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2152,48 +2146,48 @@
         <v>57</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>72</v>
       </c>
       <c r="J1" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K1" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L1" s="9" t="s">
         <v>41</v>
       </c>
       <c r="M1" s="9" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="O1" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="P1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="P1" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q1" s="10" t="s">
-        <v>156</v>
-      </c>
       <c r="R1" s="9" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
     </row>
     <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B2" s="13" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2213,13 +2207,13 @@
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S2" s="12"/>
     </row>
     <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B3" s="13" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2239,16 +2233,16 @@
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S3" s="13"/>
     </row>
     <row r="4" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="13" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2267,13 +2261,13 @@
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S4" s="13"/>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="13" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2293,13 +2287,13 @@
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S5" s="13"/>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2319,16 +2313,16 @@
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S6" s="13"/>
     </row>
     <row r="7" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B7" s="13" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2347,14 +2341,14 @@
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S7" s="13"/>
     </row>
     <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2374,7 +2368,7 @@
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
@@ -2382,7 +2376,7 @@
     </row>
     <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B9" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2402,13 +2396,13 @@
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2428,14 +2422,14 @@
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
     <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B11" s="13" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2455,12 +2449,12 @@
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="13" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2480,13 +2474,13 @@
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2506,7 +2500,7 @@
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
@@ -2514,7 +2508,7 @@
     <row r="14" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2534,14 +2528,14 @@
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
     <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="13" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2561,13 +2555,13 @@
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2587,14 +2581,14 @@
       </c>
       <c r="O16" s="13"/>
       <c r="P16" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
     <row r="17" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="13" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2614,13 +2608,13 @@
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2640,14 +2634,14 @@
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
     <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2667,13 +2661,13 @@
       </c>
       <c r="O19" s="13"/>
       <c r="P19" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2693,14 +2687,14 @@
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
     </row>
     <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="13" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2720,12 +2714,12 @@
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="13" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2745,13 +2739,13 @@
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -2771,7 +2765,7 @@
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="14"/>
@@ -2779,7 +2773,7 @@
     <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2799,7 +2793,7 @@
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="14"/>
@@ -2807,7 +2801,7 @@
     <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -2827,7 +2821,7 @@
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="14"/>
@@ -2835,7 +2829,7 @@
     <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2855,14 +2849,14 @@
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
     <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="13" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2882,12 +2876,12 @@
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B28" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2907,13 +2901,13 @@
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2933,7 +2927,7 @@
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="14"/>
@@ -2943,7 +2937,7 @@
         <v>5</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>58</v>
@@ -2955,10 +2949,10 @@
         <v>5</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="H30" s="13" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -2970,12 +2964,12 @@
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="13" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2995,12 +2989,12 @@
       </c>
       <c r="O31" s="13"/>
       <c r="P31" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="32" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B32" s="13" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3009,10 +3003,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="14"/>
@@ -3024,12 +3018,12 @@
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="1:18" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
       <c r="B33" s="13" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3038,10 +3032,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H33" s="13" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="14"/>
@@ -3053,15 +3047,15 @@
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="13" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -3070,7 +3064,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="14"/>
@@ -3082,13 +3076,13 @@
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -3108,7 +3102,7 @@
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="14"/>
@@ -3116,7 +3110,7 @@
     <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3136,7 +3130,7 @@
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
@@ -3144,7 +3138,7 @@
     <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -3164,7 +3158,7 @@
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
@@ -3172,7 +3166,7 @@
     <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -3192,7 +3186,7 @@
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
@@ -3200,7 +3194,7 @@
     <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -3220,7 +3214,7 @@
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q39" s="13"/>
       <c r="R39" s="14"/>
@@ -3228,7 +3222,7 @@
     <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -3248,7 +3242,7 @@
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q40" s="13"/>
       <c r="R40" s="14"/>
@@ -3256,7 +3250,7 @@
     <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -3276,7 +3270,7 @@
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q41" s="13"/>
       <c r="R41" s="14"/>
@@ -3284,7 +3278,7 @@
     <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -3304,7 +3298,7 @@
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="14"/>
@@ -3312,7 +3306,7 @@
     <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -3332,23 +3326,23 @@
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
     <row r="44" spans="1:18" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A44" s="13" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="20" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>58</v>
@@ -3372,7 +3366,7 @@
     <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3392,7 +3386,7 @@
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
@@ -3400,7 +3394,7 @@
     <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -3420,7 +3414,7 @@
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="14"/>
@@ -3428,7 +3422,7 @@
     <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -3448,14 +3442,14 @@
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
     <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="13" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -3475,13 +3469,13 @@
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
     <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B49" s="13" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -3501,13 +3495,13 @@
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
     <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B50" s="13" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -3527,12 +3521,12 @@
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B51" s="13" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -3552,13 +3546,13 @@
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -3578,7 +3572,7 @@
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q52" s="13"/>
       <c r="R52" s="14"/>
@@ -3586,7 +3580,7 @@
     <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A53" s="12"/>
       <c r="B53" s="13" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -3606,13 +3600,13 @@
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R53" s="12"/>
     </row>
     <row r="54" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B54" s="13" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -3632,12 +3626,12 @@
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B55" s="13" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -3657,22 +3651,22 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q55" s="12"/>
     </row>
     <row r="56" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
       <c r="A56" s="11" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C56" s="20" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>61</v>
@@ -3694,13 +3688,13 @@
     </row>
     <row r="57" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B57" s="13" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>61</v>
@@ -3720,13 +3714,13 @@
       </c>
       <c r="O57" s="13"/>
       <c r="P57" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q57" s="13"/>
     </row>
     <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B58" s="13" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -3746,14 +3740,14 @@
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
     <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -3773,14 +3767,14 @@
       </c>
       <c r="O59" s="13"/>
       <c r="P59" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R59" s="14"/>
     </row>
     <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -3800,14 +3794,14 @@
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R60" s="12"/>
     </row>
     <row r="61" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -3827,13 +3821,13 @@
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R61" s="12"/>
     </row>
     <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="13" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -3853,12 +3847,12 @@
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B63" s="13" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -3878,12 +3872,12 @@
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B64" s="13" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3903,13 +3897,13 @@
       </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q64" s="12"/>
     </row>
     <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B65" s="13" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3929,12 +3923,12 @@
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B66" s="13" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3954,14 +3948,14 @@
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
     <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3981,7 +3975,7 @@
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q67" s="13"/>
       <c r="R67" s="12"/>
@@ -3989,7 +3983,7 @@
     <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="11"/>
       <c r="B68" s="13" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -4009,7 +4003,7 @@
       </c>
       <c r="O68" s="13"/>
       <c r="P68" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q68" s="13"/>
       <c r="R68" s="11"/>
@@ -4018,7 +4012,7 @@
     <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -4038,7 +4032,7 @@
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="14"/>
@@ -4046,7 +4040,7 @@
     <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -4066,7 +4060,7 @@
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q70" s="13"/>
       <c r="R70" s="14"/>
@@ -4074,7 +4068,7 @@
     <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -4094,7 +4088,7 @@
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
@@ -4102,13 +4096,13 @@
     <row r="72" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="C72" s="13" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>61</v>
@@ -4128,7 +4122,7 @@
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
@@ -4136,13 +4130,13 @@
     <row r="73" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>61</v>
@@ -4166,13 +4160,13 @@
     <row r="74" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>61</v>
@@ -4196,7 +4190,7 @@
     <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -4216,14 +4210,14 @@
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R75" s="14"/>
     </row>
     <row r="76" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -4243,13 +4237,13 @@
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R76" s="14"/>
     </row>
     <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B77" s="13" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -4269,12 +4263,12 @@
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B78" s="13" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -4294,13 +4288,13 @@
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
     <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B79" s="13" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -4320,14 +4314,14 @@
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
     <row r="80" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -4347,13 +4341,13 @@
       </c>
       <c r="O80" s="13"/>
       <c r="P80" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R80" s="14"/>
     </row>
     <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B81" s="13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -4364,7 +4358,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="13"/>
@@ -4375,13 +4369,13 @@
       </c>
       <c r="O81" s="13"/>
       <c r="P81" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -4401,7 +4395,7 @@
       </c>
       <c r="O82" s="13"/>
       <c r="P82" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q82" s="13"/>
       <c r="R82" s="14"/>
@@ -4409,7 +4403,7 @@
     <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -4429,14 +4423,14 @@
       </c>
       <c r="O83" s="13"/>
       <c r="P83" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q83" s="13"/>
       <c r="R83" s="14"/>
     </row>
     <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B84" s="13" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -4447,7 +4441,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="13"/>
@@ -4458,22 +4452,22 @@
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
     <row r="85" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>246</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>248</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>5</v>
@@ -4490,13 +4484,13 @@
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -4516,13 +4510,13 @@
       </c>
       <c r="O86" s="13"/>
       <c r="P86" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R86" s="14"/>
     </row>
     <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B87" s="13" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -4542,12 +4536,12 @@
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="88" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B88" s="13" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -4558,7 +4552,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="13"/>
@@ -4569,13 +4563,13 @@
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -4586,7 +4580,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="13"/>
@@ -4597,13 +4591,13 @@
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R89" s="14"/>
     </row>
     <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B90" s="13" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -4623,12 +4617,12 @@
       </c>
       <c r="O90" s="13"/>
       <c r="P90" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B91" s="13" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -4648,13 +4642,13 @@
       </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
     <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B92" s="13" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -4674,13 +4668,13 @@
       </c>
       <c r="O92" s="13"/>
       <c r="P92" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
     <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B93" s="13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -4700,14 +4694,14 @@
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q93" s="13"/>
     </row>
     <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A94" s="13"/>
       <c r="B94" s="13" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -4718,7 +4712,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="J94" s="14"/>
       <c r="K94" s="13"/>
@@ -4729,13 +4723,13 @@
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R94" s="14"/>
     </row>
     <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B95" s="13" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -4755,12 +4749,12 @@
       </c>
       <c r="O95" s="13"/>
       <c r="P95" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B96" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -4780,12 +4774,12 @@
       </c>
       <c r="O96" s="13"/>
       <c r="P96" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B97" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -4805,12 +4799,12 @@
       </c>
       <c r="O97" s="13"/>
       <c r="P97" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B98" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -4830,12 +4824,12 @@
       </c>
       <c r="O98" s="13"/>
       <c r="P98" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B99" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -4855,13 +4849,13 @@
       </c>
       <c r="O99" s="13"/>
       <c r="P99" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -4881,14 +4875,14 @@
       </c>
       <c r="O100" s="13"/>
       <c r="P100" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q100" s="13"/>
       <c r="R100" s="14"/>
     </row>
     <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="13" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -4908,14 +4902,14 @@
       </c>
       <c r="O101" s="13"/>
       <c r="P101" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
     <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A102" s="13"/>
       <c r="B102" s="13" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -4935,14 +4929,14 @@
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R102" s="14"/>
     </row>
     <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -4962,14 +4956,14 @@
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R103" s="14"/>
     </row>
     <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="13"/>
       <c r="B104" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -4989,13 +4983,13 @@
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R104" s="14"/>
     </row>
     <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="13" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -5015,12 +5009,12 @@
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B106" s="11" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -5040,12 +5034,12 @@
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -5065,12 +5059,12 @@
       </c>
       <c r="O107" s="13"/>
       <c r="P107" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="11" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -5090,12 +5084,12 @@
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B109" s="11" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -5115,28 +5109,28 @@
       </c>
       <c r="O109" s="13"/>
       <c r="P109" s="13" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A110" s="12"/>
       <c r="B110" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="C110" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="D110" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="E110" s="11" t="s">
         <v>299</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>301</v>
-      </c>
       <c r="F110" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
@@ -5144,13 +5138,13 @@
     </row>
     <row r="111" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="C111" s="11" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>58</v>
@@ -5159,10 +5153,10 @@
         <v>5</v>
       </c>
       <c r="O111" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P111" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
@@ -5171,10 +5165,10 @@
     <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A112" s="12"/>
       <c r="B112" s="11" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>70</v>
@@ -5186,7 +5180,7 @@
         <v>5</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
@@ -5195,16 +5189,16 @@
     <row r="113" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A113" s="12"/>
       <c r="B113" s="11" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
@@ -5212,13 +5206,13 @@
     </row>
     <row r="114" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D114" s="12" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E114" s="12" t="s">
         <v>58</v>
@@ -5228,11 +5222,11 @@
       </c>
       <c r="G114" s="12"/>
       <c r="H114" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I114" s="12"/>
       <c r="J114" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="K114" s="12"/>
       <c r="L114" s="12"/>
@@ -5244,25 +5238,25 @@
     </row>
     <row r="115" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B115" s="11" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S115" s="13"/>
     </row>
     <row r="116" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D116" s="12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E116" s="12" t="s">
         <v>61</v>
@@ -5272,7 +5266,7 @@
       </c>
       <c r="G116" s="12"/>
       <c r="H116" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I116" s="12"/>
       <c r="J116" s="12"/>
@@ -5287,13 +5281,13 @@
     <row r="117" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="13"/>
       <c r="B117" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D117" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>61</v>
@@ -5303,7 +5297,7 @@
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -5320,13 +5314,13 @@
     <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
@@ -5335,13 +5329,13 @@
     <row r="119" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="13"/>
       <c r="B119" s="12" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D119" s="12" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E119" s="12" t="s">
         <v>61</v>
@@ -5351,7 +5345,7 @@
       </c>
       <c r="G119" s="12"/>
       <c r="H119" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I119" s="12"/>
       <c r="J119" s="12"/>
@@ -5367,26 +5361,26 @@
     </row>
     <row r="120" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S120" s="13"/>
     </row>
     <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A121" s="12"/>
       <c r="B121" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
@@ -5394,26 +5388,26 @@
     </row>
     <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S122" s="13"/>
     </row>
     <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A123" s="12"/>
       <c r="B123" s="11" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q123" s="12"/>
       <c r="R123" s="12"/>
@@ -5421,26 +5415,26 @@
     </row>
     <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B124" s="11" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S124" s="13"/>
     </row>
     <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A125" s="12"/>
       <c r="B125" s="11" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q125" s="12"/>
       <c r="R125" s="12"/>
@@ -5448,74 +5442,74 @@
     </row>
     <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B126" s="11" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="F126" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P126" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S126" s="13"/>
     </row>
     <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B127" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F127" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P127" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S127" s="13"/>
     </row>
     <row r="128" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B128" s="11" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="F128" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P128" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S128" s="13"/>
     </row>
     <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B129" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F129" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P129" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S129" s="13"/>
     </row>
     <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B130" s="11" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="F130" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S130" s="13"/>
     </row>
     <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A131" s="13"/>
       <c r="B131" s="11" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q131" s="13"/>
       <c r="R131" s="14"/>
@@ -5523,86 +5517,86 @@
     </row>
     <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B132" s="11" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="F132" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P132" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S132" s="13"/>
     </row>
     <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B133" s="11" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F133" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P133" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S133" s="13"/>
     </row>
     <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B134" s="11" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F134" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P134" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S134" s="13"/>
     </row>
     <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B135" s="11" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F135" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P135" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S135" s="13"/>
     </row>
     <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B136" s="11" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F136" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P136" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S136" s="13"/>
     </row>
     <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B137" s="11" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F137" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S137" s="13"/>
     </row>
     <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A138" s="13"/>
       <c r="B138" s="11" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q138" s="13"/>
       <c r="R138" s="14"/>
@@ -5610,109 +5604,109 @@
     </row>
     <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B139" s="11" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F139" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P139" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S139" s="13"/>
     </row>
     <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B140" s="11" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F140" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P140" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S140" s="13"/>
     </row>
     <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B141" s="11" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F141" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P141" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S141" s="13"/>
     </row>
     <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B142" s="11" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="F142" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P142" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S142" s="13"/>
     </row>
     <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B143" s="11" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F143" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P143" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S143" s="13"/>
     </row>
     <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B144" s="11" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="F144" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P144" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S144" s="13"/>
     </row>
     <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B145" s="11" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F145" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P145" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S145" s="13"/>
     </row>
     <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B146" s="11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="F146" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P146" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S146" s="13"/>
     </row>
     <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B147" s="11" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F147" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P147" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S147" s="13"/>
     </row>
@@ -5721,13 +5715,13 @@
         <v>66</v>
       </c>
       <c r="C148" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D148" s="12" t="s">
         <v>4</v>
       </c>
       <c r="E148" s="12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F148" s="12" t="s">
         <v>5</v>
@@ -5747,13 +5741,13 @@
     <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A149" s="13"/>
       <c r="B149" s="11" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P149" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q149" s="13"/>
       <c r="R149" s="14"/>
@@ -5761,25 +5755,25 @@
     </row>
     <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B150" s="11" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P150" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S150" s="13"/>
     </row>
     <row r="151" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B151" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C151" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="C151" s="12" t="s">
-        <v>134</v>
-      </c>
       <c r="D151" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E151" s="12" t="s">
         <v>61</v>
@@ -5801,25 +5795,25 @@
     </row>
     <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B152" s="11" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P152" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S152" s="13"/>
     </row>
     <row r="153" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B153" s="16" t="s">
+        <v>276</v>
+      </c>
+      <c r="C153" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="D153" s="11" t="s">
         <v>278</v>
-      </c>
-      <c r="C153" s="16" t="s">
-        <v>279</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>280</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>58</v>
@@ -5828,29 +5822,29 @@
         <v>5</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P153" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S153" s="13"/>
     </row>
     <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A154" s="12"/>
       <c r="B154" s="11" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F154" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I154" s="11" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P154" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q154" s="12"/>
       <c r="R154" s="12"/>
@@ -5858,25 +5852,25 @@
     </row>
     <row r="155" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B155" s="11" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F155" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P155" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S155" s="13"/>
     </row>
     <row r="156" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B156" s="16" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C156" s="16" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="D156" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>58</v>
@@ -5885,26 +5879,26 @@
         <v>5</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P156" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S156" s="13"/>
     </row>
     <row r="157" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A157" s="12"/>
       <c r="B157" s="11" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F157" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P157" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q157" s="12"/>
       <c r="R157" s="12"/>
@@ -5912,25 +5906,25 @@
     </row>
     <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B158" s="11" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F158" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P158" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S158" s="13"/>
     </row>
     <row r="159" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B159" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="C159" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="D159" s="11" t="s">
         <v>342</v>
-      </c>
-      <c r="C159" s="17" t="s">
-        <v>343</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>344</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>58</v>
@@ -5939,55 +5933,55 @@
         <v>5</v>
       </c>
       <c r="P159" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S159" s="13"/>
     </row>
     <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B160" s="11" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="F160" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P160" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S160" s="13"/>
     </row>
     <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B161" s="11" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F161" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P161" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S161" s="13"/>
     </row>
     <row r="162" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B162" s="11" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F162" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P162" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S162" s="13"/>
     </row>
     <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B163" s="11" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="F163" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P163" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S163" s="13"/>
     </row>
@@ -5996,10 +5990,10 @@
         <v>62</v>
       </c>
       <c r="C164" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D164" s="12" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E164" s="12" t="s">
         <v>61</v>
@@ -6009,7 +6003,7 @@
       </c>
       <c r="G164" s="12"/>
       <c r="H164" s="12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I164" s="12"/>
       <c r="J164" s="12"/>
@@ -6023,62 +6017,62 @@
     </row>
     <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B165" s="11" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F165" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P165" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S165" s="13"/>
     </row>
     <row r="166" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B166" s="11" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F166" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P166" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S166" s="13"/>
     </row>
     <row r="167" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B167" s="11" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="F167" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P167" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S167" s="13"/>
     </row>
     <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B168" s="11" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="F168" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P168" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S168" s="13"/>
     </row>
     <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A169" s="12"/>
       <c r="B169" s="11" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P169" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q169" s="12"/>
       <c r="R169" s="12"/>
@@ -6086,49 +6080,49 @@
     </row>
     <row r="170" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B170" s="11" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F170" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P170" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S170" s="13"/>
     </row>
     <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B171" s="11" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="F171" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P171" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S171" s="13"/>
     </row>
     <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B172" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="F172" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P172" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S172" s="13"/>
     </row>
     <row r="173" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B173" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C173" s="11" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>58</v>
@@ -6137,19 +6131,19 @@
         <v>5</v>
       </c>
       <c r="P173" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S173" s="13"/>
     </row>
     <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B174" s="13" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P174" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q174" s="13"/>
       <c r="S174" s="13"/>
@@ -6157,13 +6151,13 @@
     <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A175" s="13"/>
       <c r="B175" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="F175" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P175" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q175" s="13"/>
       <c r="R175" s="14"/>
@@ -6171,13 +6165,13 @@
     </row>
     <row r="176" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B176" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C176" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D176" s="12" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E176" s="12" t="s">
         <v>61</v>
@@ -6199,36 +6193,36 @@
     </row>
     <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B177" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="F177" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P177" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="S177" s="13"/>
     </row>
     <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B178" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="F178" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P178" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="179" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="B179" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C179" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D179" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E179" s="12" t="s">
         <v>61</v>
@@ -6237,7 +6231,7 @@
         <v>5</v>
       </c>
       <c r="G179" s="18" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
@@ -6251,49 +6245,49 @@
     </row>
     <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B180" s="11" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F180" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P180" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B181" s="11" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F181" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P181" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A182" s="12"/>
       <c r="B182" s="11" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="F182" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P182" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q182" s="12"/>
       <c r="R182" s="12"/>
     </row>
     <row r="183" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B183" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="C183" s="16" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D183" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>58</v>
@@ -6302,35 +6296,35 @@
         <v>5</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O183" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P183" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B184" s="11" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P184" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="185" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B185" s="16" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="C185" s="16" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D185" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>58</v>
@@ -6339,25 +6333,25 @@
         <v>5</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O185" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P185" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="F186" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P186" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q186" s="13"/>
       <c r="R186" s="14"/>
@@ -6365,26 +6359,26 @@
     <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A187" s="13"/>
       <c r="B187" s="11" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P187" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q187" s="13"/>
       <c r="R187" s="14"/>
     </row>
     <row r="188" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B188" s="16" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>58</v>
@@ -6393,24 +6387,24 @@
         <v>5</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O188" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P188" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="189" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B189" s="16" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D189" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>58</v>
@@ -6419,61 +6413,61 @@
         <v>5</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O189" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P189" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="13"/>
       <c r="B190" s="11" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P190" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q190" s="13"/>
       <c r="R190" s="14"/>
     </row>
     <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B191" s="11" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="F191" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P191" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B192" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="F192" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P192" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="193" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="13"/>
       <c r="B193" s="16" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>58</v>
@@ -6482,26 +6476,26 @@
         <v>5</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O193" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P193" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q193" s="13"/>
       <c r="R193" s="14"/>
     </row>
     <row r="194" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B194" s="16" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E194" s="11" t="s">
         <v>58</v>
@@ -6510,36 +6504,36 @@
         <v>5</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="O194" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P194" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B195" s="11" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P195" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A196" s="13"/>
       <c r="B196" s="11" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P196" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q196" s="13"/>
       <c r="R196" s="14"/>
@@ -6547,16 +6541,16 @@
     <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A197" s="13"/>
       <c r="B197" s="11" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F197" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I197" s="11" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="P197" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q197" s="13"/>
       <c r="R197" s="14"/>
@@ -6564,16 +6558,16 @@
     <row r="198" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="13"/>
       <c r="B198" s="11" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="F198" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I198" s="11" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="P198" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q198" s="13"/>
       <c r="R198" s="14"/>
@@ -6581,13 +6575,13 @@
     <row r="199" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A199" s="13"/>
       <c r="B199" s="16" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="C199" s="16" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D199" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>58</v>
@@ -6596,49 +6590,49 @@
         <v>5</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O199" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P199" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q199" s="13"/>
       <c r="R199" s="14"/>
     </row>
     <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B200" s="11" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F200" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P200" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B201" s="11" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F201" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P201" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A202" s="13"/>
       <c r="B202" s="11" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F202" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P202" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q202" s="13"/>
       <c r="R202" s="14"/>
@@ -6646,13 +6640,13 @@
     <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A203" s="13"/>
       <c r="B203" s="11" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F203" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P203" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q203" s="13"/>
       <c r="R203" s="14"/>
@@ -6660,7 +6654,7 @@
     <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A204" s="12"/>
       <c r="B204" s="11" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E204" s="11" t="s">
         <v>58</v>
@@ -6669,7 +6663,7 @@
         <v>5</v>
       </c>
       <c r="P204" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q204" s="12"/>
       <c r="R204" s="12"/>
@@ -6680,10 +6674,10 @@
         <v>60</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="D205" s="12" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E205" s="12" t="s">
         <v>61</v>
@@ -6710,10 +6704,10 @@
         <v>67</v>
       </c>
       <c r="C206" s="12" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D206" s="12" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E206" s="12" t="s">
         <v>58</v>
@@ -6737,13 +6731,13 @@
     <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A207" s="13"/>
       <c r="B207" s="11" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P207" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q207" s="13"/>
       <c r="R207" s="14"/>
@@ -6751,13 +6745,13 @@
     <row r="208" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A208" s="13"/>
       <c r="B208" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E208" s="12" t="s">
         <v>61</v>
@@ -6781,39 +6775,39 @@
     <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A209" s="13"/>
       <c r="B209" s="11" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P209" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R209" s="14"/>
     </row>
     <row r="210" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="12"/>
       <c r="B210" s="11" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P210" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R210" s="12"/>
     </row>
     <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="12"/>
       <c r="B211" s="11" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P211" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q211" s="13"/>
       <c r="R211" s="12"/>
@@ -6821,108 +6815,108 @@
     <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="13"/>
       <c r="B212" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P212" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R212" s="14"/>
     </row>
     <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P213" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q213" s="13"/>
       <c r="R213" s="14"/>
     </row>
     <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B214" s="11" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P214" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q214" s="13"/>
     </row>
     <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P215" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R215" s="14"/>
     </row>
     <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P216" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R216" s="14"/>
     </row>
     <row r="217" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="F217" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P217" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R217" s="14"/>
     </row>
     <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B218" s="11" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="F218" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P218" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q218" s="13"/>
     </row>
     <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B219" s="11" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="F219" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P219" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="220" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="13"/>
       <c r="B220" s="12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C220" s="12"/>
       <c r="D220" s="12"/>
@@ -6944,13 +6938,13 @@
     </row>
     <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B221" s="16" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C221" s="16" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D221" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>58</v>
@@ -6959,70 +6953,70 @@
         <v>5</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="O221" s="11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="P221" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B222" s="11" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="F222" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P222" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B223" s="11" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="F223" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P223" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B224" s="11" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="F224" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P224" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q224" s="13"/>
     </row>
     <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B225" s="11" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="F225" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P225" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q225" s="12"/>
     </row>
     <row r="226" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B226" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C226" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D226" s="12" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E226" s="12" t="s">
         <v>61</v>
@@ -7044,40 +7038,40 @@
     <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A227" s="13"/>
       <c r="B227" s="11" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="F227" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I227" s="11" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="P227" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R227" s="14"/>
     </row>
     <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B228" s="11" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F228" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P228" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A229" s="12"/>
       <c r="B229" s="11" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P229" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q229" s="13"/>
       <c r="R229" s="12"/>
@@ -7085,108 +7079,113 @@
     <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P230" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R230" s="14"/>
     </row>
     <row r="231" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P231" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q231" s="13"/>
       <c r="R231" s="14"/>
     </row>
     <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B232" s="11" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="F232" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P232" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q232" s="13"/>
     </row>
     <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B233" s="11" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="F233" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P233" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q233" s="13"/>
     </row>
     <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P234" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A235" s="13"/>
-      <c r="B235" s="11" t="s">
-        <v>406</v>
-      </c>
-      <c r="F235" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I235" s="11" t="s">
-        <v>407</v>
-      </c>
-      <c r="P235" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q235" s="13"/>
+      <c r="B235" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="C235" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="D235" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E235" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="F235" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G235" s="12"/>
+      <c r="H235" s="12" t="s">
+        <v>522</v>
+      </c>
+      <c r="I235" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="J235" s="12"/>
+      <c r="K235" s="12"/>
+      <c r="L235" s="12"/>
+      <c r="M235" s="12"/>
+      <c r="N235" s="12"/>
+      <c r="O235" s="12"/>
+      <c r="P235" s="12"/>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A236" s="13"/>
+    <row r="236" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B236" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C236" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="D236" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E236" s="12" t="s">
-        <v>58</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C236" s="12"/>
+      <c r="D236" s="12"/>
+      <c r="E236" s="12"/>
       <c r="F236" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G236" s="12"/>
-      <c r="H236" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="I236" s="12" t="s">
-        <v>73</v>
-      </c>
+      <c r="H236" s="12"/>
+      <c r="I236" s="12"/>
       <c r="J236" s="12"/>
       <c r="K236" s="12"/>
       <c r="L236" s="12"/>
@@ -7194,11 +7193,11 @@
       <c r="N236" s="12"/>
       <c r="O236" s="12"/>
       <c r="P236" s="12"/>
-      <c r="R236" s="14"/>
     </row>
     <row r="237" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A237" s="13"/>
       <c r="B237" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C237" s="12"/>
       <c r="D237" s="12"/>
@@ -7216,15 +7215,21 @@
       <c r="N237" s="12"/>
       <c r="O237" s="12"/>
       <c r="P237" s="12"/>
-    </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A238" s="13"/>
+      <c r="R237" s="14"/>
+    </row>
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B238" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C238" s="12"/>
-      <c r="D238" s="12"/>
-      <c r="E238" s="12"/>
+        <v>59</v>
+      </c>
+      <c r="C238" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D238" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E238" s="12" t="s">
+        <v>61</v>
+      </c>
       <c r="F238" s="12" t="s">
         <v>5</v>
       </c>
@@ -7238,158 +7243,144 @@
       <c r="N238" s="12"/>
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
-      <c r="R238" s="14"/>
-    </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B239" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C239" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D239" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E239" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F239" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G239" s="12"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="12"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="12"/>
-      <c r="L239" s="12"/>
-      <c r="M239" s="12"/>
-      <c r="N239" s="12"/>
-      <c r="O239" s="12"/>
-      <c r="P239" s="12"/>
+    </row>
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B239" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P239" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B240" s="11" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F240" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="I240" s="11" t="s">
+        <v>406</v>
+      </c>
       <c r="P240" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B241" s="11" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="F241" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I241" s="11" t="s">
-        <v>410</v>
-      </c>
       <c r="P241" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Q241" s="12"/>
     </row>
     <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B242" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F242" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P242" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q242" s="12"/>
     </row>
     <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B243" s="11" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F243" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P243" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q243" s="12"/>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B244" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="F244" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P244" s="11" t="s">
-        <v>157</v>
-      </c>
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="12"/>
+      <c r="B244" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C244" s="12"/>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+      <c r="J244" s="12"/>
+      <c r="K244" s="12"/>
+      <c r="L244" s="12"/>
+      <c r="M244" s="12"/>
+      <c r="N244" s="12"/>
+      <c r="O244" s="12"/>
+      <c r="P244" s="12"/>
       <c r="Q244" s="12"/>
-    </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="R244" s="12"/>
+    </row>
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A245" s="12"/>
-      <c r="B245" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="C245" s="12"/>
-      <c r="D245" s="12"/>
-      <c r="E245" s="12"/>
-      <c r="F245" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G245" s="12"/>
-      <c r="H245" s="12"/>
-      <c r="I245" s="12"/>
-      <c r="J245" s="12"/>
-      <c r="K245" s="12"/>
-      <c r="L245" s="12"/>
-      <c r="M245" s="12"/>
-      <c r="N245" s="12"/>
-      <c r="O245" s="12"/>
-      <c r="P245" s="12"/>
-      <c r="Q245" s="12"/>
+      <c r="B245" s="16" t="s">
+        <v>290</v>
+      </c>
+      <c r="C245" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E245" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F245" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G245" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O245" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="P245" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="R245" s="12"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A246" s="12"/>
-      <c r="B246" s="16" t="s">
-        <v>292</v>
-      </c>
-      <c r="C246" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="D246" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E246" s="11" t="s">
-        <v>58</v>
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A246" s="13"/>
+      <c r="B246" s="11" t="s">
+        <v>410</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G246" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="O246" s="11" t="s">
-        <v>277</v>
-      </c>
       <c r="P246" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R246" s="12"/>
-    </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="Q246" s="13"/>
+      <c r="R246" s="14"/>
+    </row>
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A247" s="13"/>
       <c r="B247" s="11" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P247" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q247" s="13"/>
       <c r="R247" s="14"/>
@@ -7397,13 +7388,13 @@
     <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A248" s="13"/>
       <c r="B248" s="11" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P248" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
@@ -7411,752 +7402,752 @@
     <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P249" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q249" s="13"/>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="13"/>
       <c r="B250" s="11" t="s">
-        <v>417</v>
+        <v>414</v>
+      </c>
+      <c r="C250" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="D250" s="11" t="s">
+        <v>416</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P250" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A251" s="13"/>
-      <c r="B251" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>419</v>
-      </c>
-      <c r="D251" s="11" t="s">
-        <v>420</v>
-      </c>
-      <c r="F251" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P251" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="B251" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D251" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E251" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F251" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G251" s="12"/>
+      <c r="H251" s="12"/>
+      <c r="I251" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="J251" s="12"/>
+      <c r="K251" s="12"/>
+      <c r="L251" s="12"/>
+      <c r="M251" s="12"/>
+      <c r="N251" s="12"/>
+      <c r="O251" s="12"/>
+      <c r="P251" s="12"/>
       <c r="Q251" s="13"/>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="13"/>
-      <c r="B252" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C252" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="D252" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E252" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F252" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G252" s="12"/>
-      <c r="H252" s="12"/>
-      <c r="I252" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="J252" s="12"/>
-      <c r="K252" s="12"/>
-      <c r="L252" s="12"/>
-      <c r="M252" s="12"/>
-      <c r="N252" s="12"/>
-      <c r="O252" s="12"/>
-      <c r="P252" s="12"/>
+      <c r="B252" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F252" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P252" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="Q252" s="13"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="13"/>
-      <c r="B253" s="11" t="s">
-        <v>421</v>
+      <c r="B253" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C253" s="16" t="s">
+        <v>479</v>
+      </c>
+      <c r="D253" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E253" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F253" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G253" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="O253" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="P253" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="13"/>
-      <c r="B254" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="C254" s="16" t="s">
-        <v>483</v>
-      </c>
-      <c r="D254" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E254" s="11" t="s">
+      <c r="B254" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F254" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P254" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q254" s="12"/>
+      <c r="R254" s="14"/>
+    </row>
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B255" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="C255" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="D255" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E255" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F254" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G254" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="O254" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="P254" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q254" s="13"/>
-      <c r="R254" s="14"/>
-    </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A255" s="13"/>
-      <c r="B255" s="11" t="s">
-        <v>422</v>
-      </c>
       <c r="F255" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G255" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O255" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="P255" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q255" s="12"/>
-      <c r="R255" s="14"/>
+        <v>155</v>
+      </c>
+      <c r="Q255" s="13"/>
     </row>
     <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B256" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="C256" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="D256" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E256" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F256" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G256" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="O256" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="P256" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q256" s="13"/>
-    </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="13"/>
-      <c r="B257" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="C257" s="12"/>
-      <c r="D257" s="12"/>
-      <c r="E257" s="12"/>
-      <c r="F257" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G257" s="12"/>
-      <c r="H257" s="12"/>
-      <c r="I257" s="12"/>
-      <c r="J257" s="12"/>
-      <c r="K257" s="12"/>
-      <c r="L257" s="12"/>
-      <c r="M257" s="12"/>
-      <c r="N257" s="12"/>
-      <c r="O257" s="12"/>
-      <c r="P257" s="12"/>
-      <c r="R257" s="14"/>
-    </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A258" s="12"/>
+      <c r="A256" s="13"/>
+      <c r="B256" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="C256" s="12"/>
+      <c r="D256" s="12"/>
+      <c r="E256" s="12"/>
+      <c r="F256" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G256" s="12"/>
+      <c r="H256" s="12"/>
+      <c r="I256" s="12"/>
+      <c r="J256" s="12"/>
+      <c r="K256" s="12"/>
+      <c r="L256" s="12"/>
+      <c r="M256" s="12"/>
+      <c r="N256" s="12"/>
+      <c r="O256" s="12"/>
+      <c r="P256" s="12"/>
+      <c r="R256" s="14"/>
+    </row>
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="12"/>
+      <c r="B257" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P257" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R257" s="12"/>
+    </row>
+    <row r="258" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B258" s="11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F258" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P258" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R258" s="12"/>
-    </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="13"/>
       <c r="B259" s="11" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="F259" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P259" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="R259" s="14"/>
     </row>
     <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A260" s="13"/>
       <c r="B260" s="11" t="s">
+        <v>422</v>
+      </c>
+      <c r="F260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q260" s="12"/>
+      <c r="R260" s="14"/>
+    </row>
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B261" s="11" t="s">
+        <v>423</v>
+      </c>
+      <c r="F261" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P261" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q261" s="13"/>
+    </row>
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A262" s="12"/>
+      <c r="B262" s="11" t="s">
+        <v>424</v>
+      </c>
+      <c r="F262" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P262" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q262" s="13"/>
+      <c r="R262" s="12"/>
+    </row>
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B263" s="11" t="s">
         <v>425</v>
       </c>
-      <c r="F260" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P260" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R260" s="14"/>
-    </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A261" s="13"/>
-      <c r="B261" s="11" t="s">
-        <v>426</v>
-      </c>
-      <c r="F261" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P261" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q261" s="12"/>
-      <c r="R261" s="14"/>
-    </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B262" s="11" t="s">
+      <c r="F263" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P263" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="13"/>
+      <c r="B264" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="F264" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P264" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R264" s="14"/>
+    </row>
+    <row r="265" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B265" s="16" t="s">
+        <v>477</v>
+      </c>
+      <c r="C265" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="D265" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E265" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F265" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G265" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="O265" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="P265" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q265" s="13"/>
+    </row>
+    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B266" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="F262" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P262" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q262" s="13"/>
-    </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A263" s="12"/>
-      <c r="B263" s="11" t="s">
+      <c r="F266" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P266" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B267" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="F263" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P263" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q263" s="13"/>
-      <c r="R263" s="12"/>
-    </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B264" s="11" t="s">
+      <c r="F267" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P267" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="13"/>
+      <c r="B268" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="F264" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P264" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="13"/>
-      <c r="B265" s="13" t="s">
-        <v>249</v>
-      </c>
-      <c r="F265" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P265" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R265" s="14"/>
-    </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B266" s="16" t="s">
-        <v>481</v>
-      </c>
-      <c r="C266" s="16" t="s">
-        <v>482</v>
-      </c>
-      <c r="D266" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E266" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F266" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G266" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="O266" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="P266" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q266" s="13"/>
-    </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B267" s="11" t="s">
-        <v>431</v>
-      </c>
-      <c r="F267" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P267" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B268" s="11" t="s">
-        <v>432</v>
-      </c>
       <c r="F268" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P268" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="R268" s="14"/>
+    </row>
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B269" s="11" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="F269" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P269" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R269" s="14"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B270" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F270" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P270" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Q270" s="13"/>
     </row>
     <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B271" s="11" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P271" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q271" s="13"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B272" s="11" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="F272" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P272" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B273" s="11" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="F273" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P273" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="13"/>
       <c r="B274" s="11" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F274" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P274" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="Q274" s="13"/>
+      <c r="R274" s="14"/>
+    </row>
+    <row r="275" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="13"/>
       <c r="B275" s="11" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="F275" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P275" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q275" s="13"/>
+        <v>155</v>
+      </c>
       <c r="R275" s="14"/>
     </row>
     <row r="276" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="13"/>
       <c r="B276" s="11" t="s">
+        <v>437</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P276" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="R276" s="14"/>
+    </row>
+    <row r="277" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B277" s="11" t="s">
+        <v>438</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P277" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q277" s="13"/>
+    </row>
+    <row r="278" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B278" s="11" t="s">
+        <v>439</v>
+      </c>
+      <c r="F278" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P278" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q278" s="13"/>
+    </row>
+    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B279" s="11" t="s">
         <v>440</v>
       </c>
-      <c r="F276" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P276" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R276" s="14"/>
-    </row>
-    <row r="277" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A277" s="13"/>
-      <c r="B277" s="11" t="s">
+      <c r="F279" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P279" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q279" s="13"/>
+    </row>
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A280" s="13"/>
+      <c r="B280" s="11" t="s">
         <v>441</v>
       </c>
-      <c r="F277" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P277" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R277" s="14"/>
-    </row>
-    <row r="278" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B278" s="11" t="s">
-        <v>442</v>
-      </c>
-      <c r="F278" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P278" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q278" s="13"/>
-    </row>
-    <row r="279" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B279" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="F279" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P279" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q279" s="13"/>
-    </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B280" s="11" t="s">
-        <v>444</v>
-      </c>
       <c r="F280" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P280" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q280" s="13"/>
+        <v>155</v>
+      </c>
+      <c r="R280" s="14"/>
     </row>
     <row r="281" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="13"/>
       <c r="B281" s="11" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="F281" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P281" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A282" s="13"/>
       <c r="B282" s="11" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P282" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="13"/>
+    <row r="283" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="11"/>
       <c r="B283" s="11" t="s">
-        <v>447</v>
-      </c>
+        <v>444</v>
+      </c>
+      <c r="C283" s="11"/>
+      <c r="D283" s="11"/>
+      <c r="E283" s="11"/>
       <c r="F283" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G283" s="11"/>
+      <c r="H283" s="11"/>
+      <c r="I283" s="11"/>
+      <c r="J283" s="11"/>
+      <c r="K283" s="11"/>
+      <c r="L283" s="11"/>
+      <c r="M283" s="11"/>
+      <c r="N283" s="11"/>
+      <c r="O283" s="11"/>
       <c r="P283" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R283" s="14"/>
-    </row>
-    <row r="284" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="11"/>
+        <v>155</v>
+      </c>
+      <c r="Q283" s="13"/>
+      <c r="R283" s="11"/>
+      <c r="S283" s="11"/>
+    </row>
+    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B284" s="11" t="s">
-        <v>448</v>
-      </c>
-      <c r="C284" s="11"/>
-      <c r="D284" s="11"/>
-      <c r="E284" s="11"/>
+        <v>445</v>
+      </c>
       <c r="F284" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G284" s="11"/>
-      <c r="H284" s="11"/>
-      <c r="I284" s="11"/>
-      <c r="J284" s="11"/>
-      <c r="K284" s="11"/>
-      <c r="L284" s="11"/>
-      <c r="M284" s="11"/>
-      <c r="N284" s="11"/>
-      <c r="O284" s="11"/>
       <c r="P284" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q284" s="13"/>
-      <c r="R284" s="11"/>
-      <c r="S284" s="11"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B285" s="11" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="F285" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P285" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="13"/>
       <c r="B286" s="11" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F286" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P286" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="R286" s="14"/>
     </row>
     <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="13"/>
       <c r="B287" s="11" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="F287" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P287" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R287" s="14"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B288" s="11" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="F288" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P288" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B289" s="11" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F289" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P289" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B290" s="11" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="F290" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P290" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="Q290" s="13"/>
+    </row>
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B291" s="11" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="F291" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P291" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B292" s="11" t="s">
-        <v>456</v>
+        <v>507</v>
       </c>
       <c r="F292" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="P292" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q292" s="13"/>
     </row>
     <row r="293" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B293" s="11" t="s">
-        <v>511</v>
+        <v>453</v>
       </c>
       <c r="F293" s="11" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="P293" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="13"/>
       <c r="B294" s="11" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P294" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="13"/>
-      <c r="B295" s="11" t="s">
-        <v>458</v>
+        <v>155</v>
+      </c>
+      <c r="Q294" s="13"/>
+      <c r="R294" s="14"/>
+    </row>
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B295" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="C295" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="D295" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E295" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F295" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="G295" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="O295" s="11" t="s">
+        <v>275</v>
+      </c>
       <c r="P295" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q295" s="13"/>
-      <c r="R295" s="14"/>
-    </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B296" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="C296" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="D296" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="E296" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B296" s="11" t="s">
+        <v>455</v>
+      </c>
+      <c r="F296" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P296" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q296" s="13"/>
+    </row>
+    <row r="297" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="B297" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="D297" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="E297" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F296" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G296" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="O296" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="P296" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B297" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="F297" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P297" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="F297" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G297" s="12"/>
+      <c r="H297" s="12"/>
+      <c r="I297" s="12"/>
+      <c r="J297" s="12"/>
+      <c r="K297" s="12"/>
+      <c r="L297" s="12"/>
+      <c r="M297" s="12"/>
+      <c r="N297" s="12"/>
+      <c r="O297" s="12"/>
+      <c r="P297" s="12"/>
       <c r="Q297" s="13"/>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B298" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C298" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="D298" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E298" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F298" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G298" s="12"/>
-      <c r="H298" s="12"/>
-      <c r="I298" s="12"/>
-      <c r="J298" s="12"/>
-      <c r="K298" s="12"/>
-      <c r="L298" s="12"/>
-      <c r="M298" s="12"/>
-      <c r="N298" s="12"/>
-      <c r="O298" s="12"/>
-      <c r="P298" s="12"/>
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="13"/>
+      <c r="B298" s="11" t="s">
+        <v>456</v>
+      </c>
+      <c r="F298" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P298" s="11" t="s">
+        <v>155</v>
+      </c>
       <c r="Q298" s="13"/>
+      <c r="R298" s="14"/>
     </row>
     <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P299" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q299" s="13"/>
       <c r="R299" s="14"/>
@@ -8164,13 +8155,13 @@
     <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P300" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q300" s="13"/>
       <c r="R300" s="14"/>
@@ -8178,125 +8169,122 @@
     <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A301" s="13"/>
       <c r="B301" s="11" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P301" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q301" s="13"/>
+        <v>155</v>
+      </c>
       <c r="R301" s="14"/>
     </row>
     <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A302" s="13"/>
       <c r="B302" s="11" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P302" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R302" s="14"/>
     </row>
     <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A303" s="13"/>
       <c r="B303" s="11" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="F303" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P303" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="R303" s="14"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="13"/>
+    <row r="304" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B304" s="11" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F304" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P304" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R304" s="14"/>
-    </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+      <c r="Q304" s="12"/>
+    </row>
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B305" s="11" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="F305" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P305" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q305" s="12"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B306" s="11" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="F306" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P306" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="12" t="s">
+        <v>71</v>
+      </c>
       <c r="B307" s="11" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F307" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P307" s="11" t="s">
-        <v>157</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="R307" s="12"/>
     </row>
     <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="12" t="s">
-        <v>71</v>
-      </c>
       <c r="B308" s="11" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="F308" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P308" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="R308" s="12"/>
-    </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B309" s="11" t="s">
-        <v>470</v>
+        <v>155</v>
+      </c>
+    </row>
+    <row r="309" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B309" s="13" t="s">
+        <v>270</v>
       </c>
       <c r="F309" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P309" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B310" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F310" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P310" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
@@ -8306,119 +8294,125 @@
       <c r="F311" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="I311" s="11" t="s">
+        <v>384</v>
+      </c>
       <c r="P311" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="13" t="s">
-        <v>275</v>
+      <c r="B312" s="11" t="s">
+        <v>470</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I312" s="11" t="s">
-        <v>386</v>
-      </c>
       <c r="P312" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B313" s="11" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F313" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P313" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="314" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="11" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="F314" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P314" s="11" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B315" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="F315" s="11" t="s">
-        <v>5</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="Q314" s="13"/>
+    </row>
+    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B315" s="14"/>
       <c r="P315" s="11" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q315" s="13"/>
+        <v>155</v>
+      </c>
     </row>
     <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="14"/>
-      <c r="P316" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="F316" s="12"/>
+      <c r="G316" s="12"/>
+      <c r="H316" s="14"/>
+      <c r="I316" s="12"/>
+      <c r="J316" s="12"/>
+      <c r="K316" s="12"/>
+      <c r="L316" s="12">
+        <v>1</v>
+      </c>
+      <c r="M316" s="12"/>
+      <c r="N316" s="12"/>
+      <c r="O316" s="12"/>
+      <c r="P316" s="12"/>
     </row>
     <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="14"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="14"/>
-      <c r="I317" s="12"/>
-      <c r="J317" s="12"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="12">
-        <v>1</v>
-      </c>
-      <c r="M317" s="12"/>
-      <c r="N317" s="12"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="12"/>
+      <c r="P317" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="14"/>
       <c r="P318" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B319" s="14"/>
       <c r="P319" s="11" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="14"/>
-      <c r="P320" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="D320" s="12"/>
+      <c r="E320" s="12"/>
+      <c r="F320" s="12"/>
+      <c r="G320" s="12"/>
+      <c r="H320" s="12"/>
+      <c r="I320" s="12"/>
+      <c r="J320" s="12"/>
+      <c r="K320" s="12"/>
+      <c r="L320" s="12"/>
+      <c r="M320" s="12"/>
+      <c r="N320" s="12"/>
+      <c r="O320" s="12"/>
+      <c r="P320" s="12"/>
     </row>
     <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="14"/>
-      <c r="D321" s="12"/>
-      <c r="E321" s="12"/>
-      <c r="F321" s="12"/>
-      <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
-      <c r="I321" s="12"/>
-      <c r="J321" s="12"/>
-      <c r="K321" s="12"/>
-      <c r="L321" s="12"/>
-      <c r="M321" s="12"/>
-      <c r="N321" s="12"/>
-      <c r="O321" s="12"/>
-      <c r="P321" s="12"/>
+      <c r="P321" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="14"/>
-      <c r="P322" s="11" t="s">
-        <v>157</v>
-      </c>
+      <c r="C322" s="12"/>
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
+      <c r="J322" s="12"/>
+      <c r="K322" s="12"/>
+      <c r="L322" s="12"/>
+      <c r="M322" s="12"/>
+      <c r="N322" s="12"/>
+      <c r="O322" s="12"/>
+      <c r="P322" s="12"/>
     </row>
     <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="14"/>
@@ -8439,24 +8433,10 @@
     </row>
     <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="14"/>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
-      <c r="E324" s="12"/>
-      <c r="F324" s="12"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
-      <c r="M324" s="12"/>
-      <c r="N324" s="12"/>
-      <c r="O324" s="12"/>
-      <c r="P324" s="12"/>
+      <c r="Q324" s="12"/>
     </row>
     <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="14"/>
-      <c r="Q325" s="12"/>
     </row>
     <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="14"/>
@@ -8480,16 +8460,30 @@
       <c r="B332" s="14"/>
     </row>
     <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="14"/>
       <c r="B333" s="14"/>
+      <c r="R333" s="12"/>
     </row>
     <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="14"/>
       <c r="B334" s="14"/>
-      <c r="R334" s="12"/>
+      <c r="Q334" s="12"/>
     </row>
     <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="14"/>
-      <c r="Q335" s="12"/>
+      <c r="C335" s="12"/>
+      <c r="D335" s="12"/>
+      <c r="E335" s="12"/>
+      <c r="F335" s="12"/>
+      <c r="G335" s="12"/>
+      <c r="H335" s="12"/>
+      <c r="I335" s="12"/>
+      <c r="J335" s="12"/>
+      <c r="K335" s="12"/>
+      <c r="L335" s="12"/>
+      <c r="M335" s="12"/>
+      <c r="N335" s="12"/>
+      <c r="O335" s="12"/>
+      <c r="P335" s="12"/>
     </row>
     <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="14"/>
@@ -8507,8 +8501,10 @@
       <c r="N336" s="12"/>
       <c r="O336" s="12"/>
       <c r="P336" s="12"/>
+      <c r="Q336" s="12"/>
     </row>
     <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="12"/>
       <c r="B337" s="14"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -8525,9 +8521,9 @@
       <c r="O337" s="12"/>
       <c r="P337" s="12"/>
       <c r="Q337" s="12"/>
+      <c r="R337" s="12"/>
     </row>
     <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="12"/>
       <c r="B338" s="14"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
@@ -8544,28 +8540,9 @@
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
       <c r="Q338" s="12"/>
-      <c r="R338" s="12"/>
-    </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
       <c r="B339" s="14"/>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="12"/>
-      <c r="G339" s="12"/>
-      <c r="H339" s="12"/>
-      <c r="I339" s="12"/>
-      <c r="J339" s="12"/>
-      <c r="K339" s="12"/>
-      <c r="L339" s="12"/>
-      <c r="M339" s="12"/>
-      <c r="N339" s="12"/>
-      <c r="O339" s="12"/>
-      <c r="P339" s="12"/>
-      <c r="Q339" s="12"/>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="B340" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:S2822">
@@ -8600,16 +8577,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B1" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8617,10 +8594,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8628,10 +8605,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
@@ -8639,13 +8616,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8653,10 +8630,10 @@
         <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
@@ -8664,46 +8641,46 @@
         <v>57</v>
       </c>
       <c r="B6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8711,32 +8688,32 @@
         <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -8744,76 +8721,76 @@
         <v>41</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8859,7 +8836,7 @@
         <v>7</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F1" s="6" t="s">
         <v>8</v>
@@ -8868,19 +8845,19 @@
         <v>9</v>
       </c>
       <c r="H1" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>72</v>
       </c>
       <c r="J1" s="6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K1" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="L1" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
@@ -8888,10 +8865,10 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -8933,7 +8910,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19425" windowHeight="10425"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="6555"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="523">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="526">
   <si>
     <t>ID</t>
   </si>
@@ -1597,6 +1597,15 @@
   </si>
   <si>
     <t xml:space="preserve">No ontological definition found. </t>
+  </si>
+  <si>
+    <t>Treatment success</t>
+  </si>
+  <si>
+    <t>A treatment outcome in which the aims of the treatment have been achieved.</t>
+  </si>
+  <si>
+    <t>Treatment outcome</t>
   </si>
 </sst>
 </file>
@@ -1801,7 +1810,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,11 +2108,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S339"/>
+  <dimension ref="A1:S340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A238" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C235" sqref="C235"/>
+      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8254,31 +8263,39 @@
       </c>
       <c r="R307" s="12"/>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="12"/>
       <c r="B308" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="C308" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="D308" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="E308" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F308" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R308" s="12"/>
+    </row>
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B309" s="11" t="s">
         <v>466</v>
       </c>
-      <c r="F308" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P308" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B309" s="13" t="s">
+      <c r="F309" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P309" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B310" s="13" t="s">
         <v>270</v>
-      </c>
-      <c r="F309" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P309" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B310" s="13" t="s">
-        <v>271</v>
       </c>
       <c r="F310" s="11" t="s">
         <v>5</v>
@@ -8289,32 +8306,32 @@
     </row>
     <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B311" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="F311" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P311" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B312" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F311" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I311" s="11" t="s">
+      <c r="F312" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I312" s="11" t="s">
         <v>384</v>
       </c>
-      <c r="P311" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B312" s="11" t="s">
+      <c r="P312" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B313" s="11" t="s">
         <v>470</v>
-      </c>
-      <c r="F312" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P312" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B313" s="11" t="s">
-        <v>471</v>
       </c>
       <c r="F313" s="11" t="s">
         <v>5</v>
@@ -8325,43 +8342,48 @@
     </row>
     <row r="314" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B314" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="F314" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P314" s="11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B315" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="F314" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P314" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q314" s="13"/>
-    </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B315" s="14"/>
+      <c r="F315" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="P315" s="11" t="s">
         <v>155</v>
       </c>
+      <c r="Q315" s="13"/>
     </row>
     <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B316" s="14"/>
-      <c r="F316" s="12"/>
-      <c r="G316" s="12"/>
-      <c r="H316" s="14"/>
-      <c r="I316" s="12"/>
-      <c r="J316" s="12"/>
-      <c r="K316" s="12"/>
-      <c r="L316" s="12">
-        <v>1</v>
-      </c>
-      <c r="M316" s="12"/>
-      <c r="N316" s="12"/>
-      <c r="O316" s="12"/>
-      <c r="P316" s="12"/>
+      <c r="P316" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B317" s="14"/>
-      <c r="P317" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="F317" s="12"/>
+      <c r="G317" s="12"/>
+      <c r="H317" s="14"/>
+      <c r="I317" s="12"/>
+      <c r="J317" s="12"/>
+      <c r="K317" s="12"/>
+      <c r="L317" s="12">
+        <v>1</v>
+      </c>
+      <c r="M317" s="12"/>
+      <c r="N317" s="12"/>
+      <c r="O317" s="12"/>
+      <c r="P317" s="12"/>
     </row>
     <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B318" s="14"/>
@@ -8377,42 +8399,31 @@
     </row>
     <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B320" s="14"/>
-      <c r="D320" s="12"/>
-      <c r="E320" s="12"/>
-      <c r="F320" s="12"/>
-      <c r="G320" s="12"/>
-      <c r="H320" s="12"/>
-      <c r="I320" s="12"/>
-      <c r="J320" s="12"/>
-      <c r="K320" s="12"/>
-      <c r="L320" s="12"/>
-      <c r="M320" s="12"/>
-      <c r="N320" s="12"/>
-      <c r="O320" s="12"/>
-      <c r="P320" s="12"/>
+      <c r="P320" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B321" s="14"/>
-      <c r="P321" s="11" t="s">
-        <v>155</v>
-      </c>
+      <c r="D321" s="12"/>
+      <c r="E321" s="12"/>
+      <c r="F321" s="12"/>
+      <c r="G321" s="12"/>
+      <c r="H321" s="12"/>
+      <c r="I321" s="12"/>
+      <c r="J321" s="12"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12"/>
+      <c r="M321" s="12"/>
+      <c r="N321" s="12"/>
+      <c r="O321" s="12"/>
+      <c r="P321" s="12"/>
     </row>
     <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B322" s="14"/>
-      <c r="C322" s="12"/>
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
-      <c r="J322" s="12"/>
-      <c r="K322" s="12"/>
-      <c r="L322" s="12"/>
-      <c r="M322" s="12"/>
-      <c r="N322" s="12"/>
-      <c r="O322" s="12"/>
-      <c r="P322" s="12"/>
+      <c r="P322" s="11" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B323" s="14"/>
@@ -8433,10 +8444,24 @@
     </row>
     <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B324" s="14"/>
-      <c r="Q324" s="12"/>
+      <c r="C324" s="12"/>
+      <c r="D324" s="12"/>
+      <c r="E324" s="12"/>
+      <c r="F324" s="12"/>
+      <c r="G324" s="12"/>
+      <c r="H324" s="12"/>
+      <c r="I324" s="12"/>
+      <c r="J324" s="12"/>
+      <c r="K324" s="12"/>
+      <c r="L324" s="12"/>
+      <c r="M324" s="12"/>
+      <c r="N324" s="12"/>
+      <c r="O324" s="12"/>
+      <c r="P324" s="12"/>
     </row>
     <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B325" s="14"/>
+      <c r="Q325" s="12"/>
     </row>
     <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B326" s="14"/>
@@ -8460,30 +8485,16 @@
       <c r="B332" s="14"/>
     </row>
     <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="14"/>
       <c r="B333" s="14"/>
-      <c r="R333" s="12"/>
     </row>
     <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="14"/>
       <c r="B334" s="14"/>
-      <c r="Q334" s="12"/>
+      <c r="R334" s="12"/>
     </row>
     <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B335" s="14"/>
-      <c r="C335" s="12"/>
-      <c r="D335" s="12"/>
-      <c r="E335" s="12"/>
-      <c r="F335" s="12"/>
-      <c r="G335" s="12"/>
-      <c r="H335" s="12"/>
-      <c r="I335" s="12"/>
-      <c r="J335" s="12"/>
-      <c r="K335" s="12"/>
-      <c r="L335" s="12"/>
-      <c r="M335" s="12"/>
-      <c r="N335" s="12"/>
-      <c r="O335" s="12"/>
-      <c r="P335" s="12"/>
+      <c r="Q335" s="12"/>
     </row>
     <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B336" s="14"/>
@@ -8501,10 +8512,8 @@
       <c r="N336" s="12"/>
       <c r="O336" s="12"/>
       <c r="P336" s="12"/>
-      <c r="Q336" s="12"/>
     </row>
     <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="12"/>
       <c r="B337" s="14"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -8521,9 +8530,9 @@
       <c r="O337" s="12"/>
       <c r="P337" s="12"/>
       <c r="Q337" s="12"/>
-      <c r="R337" s="12"/>
     </row>
     <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A338" s="12"/>
       <c r="B338" s="14"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
@@ -8540,9 +8549,28 @@
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
       <c r="Q338" s="12"/>
-    </row>
-    <row r="339" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R338" s="12"/>
+    </row>
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B339" s="14"/>
+      <c r="C339" s="12"/>
+      <c r="D339" s="12"/>
+      <c r="E339" s="12"/>
+      <c r="F339" s="12"/>
+      <c r="G339" s="12"/>
+      <c r="H339" s="12"/>
+      <c r="I339" s="12"/>
+      <c r="J339" s="12"/>
+      <c r="K339" s="12"/>
+      <c r="L339" s="12"/>
+      <c r="M339" s="12"/>
+      <c r="N339" s="12"/>
+      <c r="O339" s="12"/>
+      <c r="P339" s="12"/>
+      <c r="Q339" s="12"/>
+    </row>
+    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="B340" s="14"/>
     </row>
   </sheetData>
   <sortState ref="A2:S2822">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Saeed\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC7F88-FF83-4AA5-990B-136BB871C5D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="19200" windowHeight="6555"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -471,9 +472,6 @@
     <t>A directive information entity that is produced by government and enables, prohibits or bans activities, or establishes rights or responsibilities.</t>
   </si>
   <si>
-    <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the governments jurisdiction.</t>
-  </si>
-  <si>
     <t>ERO:0001108</t>
   </si>
   <si>
@@ -1606,12 +1604,15 @@
   </si>
   <si>
     <t>Treatment outcome</t>
+  </si>
+  <si>
+    <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the government's jurisdiction.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1810,7 +1811,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2107,38 +2108,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A295" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C309" sqref="C309"/>
+      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C251" sqref="C251"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.42578125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.42578125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.85546875" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.42578125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.28515625" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="29.7109375" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.140625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.140625" style="12"/>
-    <col min="13" max="13" width="18.42578125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.140625" style="12"/>
-    <col min="16" max="16" width="13.42578125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.140625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7109375" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7109375" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="12"/>
+    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.26953125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="29.7265625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="12"/>
+    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.7265625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.7265625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2179,24 +2180,24 @@
         <v>99</v>
       </c>
       <c r="N1" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="O1" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="Q1" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="Q1" s="10" t="s">
-        <v>154</v>
-      </c>
       <c r="R1" s="9" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13"/>
@@ -2216,13 +2217,13 @@
       </c>
       <c r="O2" s="13"/>
       <c r="P2" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C3" s="13"/>
       <c r="D3" s="13"/>
@@ -2242,16 +2243,16 @@
       </c>
       <c r="O3" s="13"/>
       <c r="P3" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>159</v>
       </c>
       <c r="D4" s="13"/>
       <c r="E4" s="13"/>
@@ -2270,13 +2271,13 @@
       </c>
       <c r="O4" s="13"/>
       <c r="P4" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" s="13"/>
       <c r="D5" s="13"/>
@@ -2296,13 +2297,13 @@
       </c>
       <c r="O5" s="13"/>
       <c r="P5" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C6" s="13"/>
       <c r="D6" s="13"/>
@@ -2322,16 +2323,16 @@
       </c>
       <c r="O6" s="13"/>
       <c r="P6" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C7" s="13" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>163</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
@@ -2350,14 +2351,14 @@
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C8" s="13"/>
       <c r="D8" s="13"/>
@@ -2377,15 +2378,15 @@
       </c>
       <c r="O8" s="13"/>
       <c r="P8" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="13"/>
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -2405,13 +2406,13 @@
       </c>
       <c r="O9" s="13"/>
       <c r="P9" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
@@ -2431,14 +2432,14 @@
       </c>
       <c r="O10" s="13"/>
       <c r="P10" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13"/>
@@ -2458,12 +2459,12 @@
       </c>
       <c r="O11" s="13"/>
       <c r="P11" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
@@ -2483,13 +2484,13 @@
       </c>
       <c r="O12" s="13"/>
       <c r="P12" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
@@ -2509,15 +2510,15 @@
       </c>
       <c r="O13" s="13"/>
       <c r="P13" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C14" s="13"/>
       <c r="D14" s="13"/>
@@ -2537,14 +2538,14 @@
       </c>
       <c r="O14" s="13"/>
       <c r="P14" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
@@ -2564,13 +2565,13 @@
       </c>
       <c r="O15" s="13"/>
       <c r="P15" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C16" s="13"/>
       <c r="D16" s="13"/>
@@ -2590,14 +2591,14 @@
       </c>
       <c r="O16" s="13"/>
       <c r="P16" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -2617,13 +2618,13 @@
       </c>
       <c r="O17" s="13"/>
       <c r="P17" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -2643,14 +2644,14 @@
       </c>
       <c r="O18" s="13"/>
       <c r="P18" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13"/>
@@ -2670,13 +2671,13 @@
       </c>
       <c r="O19" s="13"/>
       <c r="P19" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C20" s="13"/>
       <c r="D20" s="13"/>
@@ -2696,14 +2697,14 @@
       </c>
       <c r="O20" s="13"/>
       <c r="P20" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
@@ -2723,12 +2724,12 @@
       </c>
       <c r="O21" s="13"/>
       <c r="P21" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
@@ -2748,13 +2749,13 @@
       </c>
       <c r="O22" s="13"/>
       <c r="P22" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
@@ -2774,15 +2775,15 @@
       </c>
       <c r="O23" s="13"/>
       <c r="P23" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q23" s="13"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -2802,15 +2803,15 @@
       </c>
       <c r="O24" s="13"/>
       <c r="P24" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q24" s="13"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13"/>
@@ -2830,15 +2831,15 @@
       </c>
       <c r="O25" s="13"/>
       <c r="P25" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q25" s="13"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C26" s="13"/>
       <c r="D26" s="13"/>
@@ -2858,14 +2859,14 @@
       </c>
       <c r="O26" s="13"/>
       <c r="P26" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13"/>
@@ -2885,12 +2886,12 @@
       </c>
       <c r="O27" s="13"/>
       <c r="P27" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C28" s="13"/>
       <c r="D28" s="13"/>
@@ -2910,13 +2911,13 @@
       </c>
       <c r="O28" s="13"/>
       <c r="P28" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C29" s="13"/>
       <c r="D29" s="13"/>
@@ -2936,17 +2937,17 @@
       </c>
       <c r="O29" s="13"/>
       <c r="P29" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q29" s="13"/>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="240" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="203" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D30" s="13" t="s">
         <v>58</v>
@@ -2958,10 +2959,10 @@
         <v>5</v>
       </c>
       <c r="G30" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="H30" s="13" t="s">
         <v>187</v>
-      </c>
-      <c r="H30" s="13" t="s">
-        <v>188</v>
       </c>
       <c r="I30" s="13"/>
       <c r="J30" s="14"/>
@@ -2973,12 +2974,12 @@
       </c>
       <c r="O30" s="13"/>
       <c r="P30" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C31" s="13"/>
       <c r="D31" s="13"/>
@@ -2998,12 +2999,12 @@
       </c>
       <c r="O31" s="13"/>
       <c r="P31" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C32" s="13"/>
       <c r="D32" s="13"/>
@@ -3012,10 +3013,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="H32" s="13" t="s">
         <v>191</v>
-      </c>
-      <c r="H32" s="13" t="s">
-        <v>192</v>
       </c>
       <c r="I32" s="13"/>
       <c r="J32" s="14"/>
@@ -3027,12 +3028,12 @@
       </c>
       <c r="O32" s="13"/>
       <c r="P32" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -3041,10 +3042,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="H33" s="13" t="s">
         <v>194</v>
-      </c>
-      <c r="H33" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="I33" s="13"/>
       <c r="J33" s="14"/>
@@ -3056,15 +3057,15 @@
       </c>
       <c r="O33" s="13"/>
       <c r="P33" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="C34" s="13" t="s">
         <v>196</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>197</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13"/>
@@ -3073,7 +3074,7 @@
       </c>
       <c r="G34" s="13"/>
       <c r="H34" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="I34" s="13"/>
       <c r="J34" s="14"/>
@@ -3085,13 +3086,13 @@
       </c>
       <c r="O34" s="13"/>
       <c r="P34" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -3111,15 +3112,15 @@
       </c>
       <c r="O35" s="13"/>
       <c r="P35" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q35" s="13"/>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -3139,15 +3140,15 @@
       </c>
       <c r="O36" s="13"/>
       <c r="P36" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C37" s="13"/>
       <c r="D37" s="13"/>
@@ -3167,15 +3168,15 @@
       </c>
       <c r="O37" s="13"/>
       <c r="P37" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C38" s="13"/>
       <c r="D38" s="13"/>
@@ -3195,15 +3196,15 @@
       </c>
       <c r="O38" s="13"/>
       <c r="P38" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C39" s="13"/>
       <c r="D39" s="13"/>
@@ -3223,15 +3224,15 @@
       </c>
       <c r="O39" s="13"/>
       <c r="P39" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q39" s="13"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
@@ -3251,15 +3252,15 @@
       </c>
       <c r="O40" s="13"/>
       <c r="P40" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q40" s="13"/>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -3279,15 +3280,15 @@
       </c>
       <c r="O41" s="13"/>
       <c r="P41" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q41" s="13"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C42" s="13"/>
       <c r="D42" s="13"/>
@@ -3307,15 +3308,15 @@
       </c>
       <c r="O42" s="13"/>
       <c r="P42" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q42" s="13"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
@@ -3335,23 +3336,23 @@
       </c>
       <c r="O43" s="13"/>
       <c r="P43" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>67</v>
       </c>
       <c r="C44" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="13" t="s">
         <v>149</v>
-      </c>
-      <c r="D44" s="13" t="s">
-        <v>150</v>
       </c>
       <c r="E44" s="13" t="s">
         <v>58</v>
@@ -3372,10 +3373,10 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C45" s="13"/>
       <c r="D45" s="13"/>
@@ -3395,15 +3396,15 @@
       </c>
       <c r="O45" s="13"/>
       <c r="P45" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -3423,15 +3424,15 @@
       </c>
       <c r="O46" s="13"/>
       <c r="P46" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q46" s="12"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C47" s="13"/>
       <c r="D47" s="13"/>
@@ -3451,14 +3452,14 @@
       </c>
       <c r="O47" s="13"/>
       <c r="P47" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C48" s="13"/>
       <c r="D48" s="13"/>
@@ -3478,13 +3479,13 @@
       </c>
       <c r="O48" s="13"/>
       <c r="P48" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -3504,13 +3505,13 @@
       </c>
       <c r="O49" s="13"/>
       <c r="P49" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -3530,12 +3531,12 @@
       </c>
       <c r="O50" s="13"/>
       <c r="P50" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C51" s="13"/>
       <c r="D51" s="13"/>
@@ -3555,10 +3556,10 @@
       </c>
       <c r="O51" s="13"/>
       <c r="P51" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
         <v>139</v>
@@ -3581,15 +3582,15 @@
       </c>
       <c r="O52" s="13"/>
       <c r="P52" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q52" s="13"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C53" s="13"/>
       <c r="D53" s="13"/>
@@ -3609,13 +3610,13 @@
       </c>
       <c r="O53" s="13"/>
       <c r="P53" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C54" s="13"/>
       <c r="D54" s="13"/>
@@ -3635,12 +3636,12 @@
       </c>
       <c r="O54" s="13"/>
       <c r="P54" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -3660,22 +3661,22 @@
       </c>
       <c r="O55" s="13"/>
       <c r="P55" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q55" s="12"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="51" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>356</v>
+      </c>
+      <c r="C56" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="B56" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="C56" s="20" t="s">
+      <c r="D56" s="13" t="s">
         <v>510</v>
-      </c>
-      <c r="D56" s="13" t="s">
-        <v>511</v>
       </c>
       <c r="E56" s="13" t="s">
         <v>61</v>
@@ -3695,15 +3696,15 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>512</v>
       </c>
-      <c r="C57" s="13" t="s">
-        <v>513</v>
-      </c>
       <c r="D57" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E57" s="13" t="s">
         <v>61</v>
@@ -3723,13 +3724,13 @@
       </c>
       <c r="O57" s="13"/>
       <c r="P57" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C58" s="13"/>
       <c r="D58" s="13"/>
@@ -3749,14 +3750,14 @@
       </c>
       <c r="O58" s="13"/>
       <c r="P58" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -3776,14 +3777,14 @@
       </c>
       <c r="O59" s="13"/>
       <c r="P59" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C60" s="13"/>
       <c r="D60" s="13"/>
@@ -3803,14 +3804,14 @@
       </c>
       <c r="O60" s="13"/>
       <c r="P60" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -3830,13 +3831,13 @@
       </c>
       <c r="O61" s="13"/>
       <c r="P61" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -3856,12 +3857,12 @@
       </c>
       <c r="O62" s="13"/>
       <c r="P62" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C63" s="13"/>
       <c r="D63" s="13"/>
@@ -3881,12 +3882,12 @@
       </c>
       <c r="O63" s="13"/>
       <c r="P63" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B64" s="13" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C64" s="13"/>
       <c r="D64" s="13"/>
@@ -3906,13 +3907,13 @@
       </c>
       <c r="O64" s="13"/>
       <c r="P64" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -3932,12 +3933,12 @@
       </c>
       <c r="O65" s="13"/>
       <c r="P65" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -3957,14 +3958,14 @@
       </c>
       <c r="O66" s="13"/>
       <c r="P66" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3984,15 +3985,15 @@
       </c>
       <c r="O67" s="13"/>
       <c r="P67" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q67" s="13"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C68" s="13"/>
       <c r="D68" s="13"/>
@@ -4012,16 +4013,16 @@
       </c>
       <c r="O68" s="13"/>
       <c r="P68" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q68" s="13"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
@@ -4041,15 +4042,15 @@
       </c>
       <c r="O69" s="13"/>
       <c r="P69" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q69" s="13"/>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C70" s="13"/>
       <c r="D70" s="13"/>
@@ -4069,15 +4070,15 @@
       </c>
       <c r="O70" s="13"/>
       <c r="P70" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q70" s="13"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C71" s="13"/>
       <c r="D71" s="13"/>
@@ -4097,21 +4098,21 @@
       </c>
       <c r="O71" s="13"/>
       <c r="P71" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
+        <v>518</v>
+      </c>
+      <c r="C72" s="13" t="s">
         <v>519</v>
       </c>
-      <c r="C72" s="13" t="s">
-        <v>520</v>
-      </c>
       <c r="D72" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E72" s="13" t="s">
         <v>61</v>
@@ -4131,21 +4132,21 @@
       </c>
       <c r="O72" s="13"/>
       <c r="P72" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
+        <v>513</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D73" s="13" t="s">
         <v>514</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>515</v>
       </c>
       <c r="E73" s="13" t="s">
         <v>61</v>
@@ -4166,16 +4167,16 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
+        <v>514</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>515</v>
       </c>
-      <c r="C74" s="13" t="s">
-        <v>516</v>
-      </c>
       <c r="D74" s="13" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E74" s="13" t="s">
         <v>61</v>
@@ -4196,10 +4197,10 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C75" s="13"/>
       <c r="D75" s="13"/>
@@ -4219,14 +4220,14 @@
       </c>
       <c r="O75" s="13"/>
       <c r="P75" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C76" s="13"/>
       <c r="D76" s="13"/>
@@ -4246,13 +4247,13 @@
       </c>
       <c r="O76" s="13"/>
       <c r="P76" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -4272,12 +4273,12 @@
       </c>
       <c r="O77" s="13"/>
       <c r="P77" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -4297,13 +4298,13 @@
       </c>
       <c r="O78" s="13"/>
       <c r="P78" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C79" s="13"/>
       <c r="D79" s="13"/>
@@ -4323,14 +4324,14 @@
       </c>
       <c r="O79" s="13"/>
       <c r="P79" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
@@ -4350,13 +4351,13 @@
       </c>
       <c r="O80" s="13"/>
       <c r="P80" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C81" s="13"/>
       <c r="D81" s="13"/>
@@ -4367,7 +4368,7 @@
       <c r="G81" s="13"/>
       <c r="H81" s="13"/>
       <c r="I81" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="J81" s="14"/>
       <c r="K81" s="13"/>
@@ -4378,13 +4379,13 @@
       </c>
       <c r="O81" s="13"/>
       <c r="P81" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C82" s="13"/>
       <c r="D82" s="13"/>
@@ -4404,15 +4405,15 @@
       </c>
       <c r="O82" s="13"/>
       <c r="P82" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q82" s="13"/>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -4432,14 +4433,14 @@
       </c>
       <c r="O83" s="13"/>
       <c r="P83" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q83" s="13"/>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C84" s="13"/>
       <c r="D84" s="13"/>
@@ -4450,7 +4451,7 @@
       <c r="G84" s="13"/>
       <c r="H84" s="13"/>
       <c r="I84" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="J84" s="14"/>
       <c r="K84" s="13"/>
@@ -4461,22 +4462,22 @@
       </c>
       <c r="O84" s="13"/>
       <c r="P84" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="C85" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="D85" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="13" t="s">
         <v>245</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="13" t="s">
-        <v>246</v>
       </c>
       <c r="F85" s="13" t="s">
         <v>5</v>
@@ -4493,13 +4494,13 @@
       </c>
       <c r="O85" s="13"/>
       <c r="P85" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C86" s="13"/>
       <c r="D86" s="13"/>
@@ -4519,13 +4520,13 @@
       </c>
       <c r="O86" s="13"/>
       <c r="P86" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -4545,12 +4546,12 @@
       </c>
       <c r="O87" s="13"/>
       <c r="P87" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -4561,7 +4562,7 @@
       <c r="G88" s="13"/>
       <c r="H88" s="13"/>
       <c r="I88" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="J88" s="14"/>
       <c r="K88" s="13"/>
@@ -4572,13 +4573,13 @@
       </c>
       <c r="O88" s="13"/>
       <c r="P88" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C89" s="13"/>
       <c r="D89" s="13"/>
@@ -4589,7 +4590,7 @@
       <c r="G89" s="13"/>
       <c r="H89" s="13"/>
       <c r="I89" s="13" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="J89" s="14"/>
       <c r="K89" s="13"/>
@@ -4600,13 +4601,13 @@
       </c>
       <c r="O89" s="13"/>
       <c r="P89" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="13" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C90" s="13"/>
       <c r="D90" s="13"/>
@@ -4626,12 +4627,12 @@
       </c>
       <c r="O90" s="13"/>
       <c r="P90" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="13" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C91" s="13"/>
       <c r="D91" s="13"/>
@@ -4651,13 +4652,13 @@
       </c>
       <c r="O91" s="13"/>
       <c r="P91" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="13" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C92" s="13"/>
       <c r="D92" s="13"/>
@@ -4677,13 +4678,13 @@
       </c>
       <c r="O92" s="13"/>
       <c r="P92" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q92" s="13"/>
     </row>
-    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -4703,14 +4704,14 @@
       </c>
       <c r="O93" s="13"/>
       <c r="P93" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q93" s="13"/>
     </row>
-    <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C94" s="13"/>
       <c r="D94" s="13"/>
@@ -4721,7 +4722,7 @@
       <c r="G94" s="13"/>
       <c r="H94" s="13"/>
       <c r="I94" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="J94" s="14"/>
       <c r="K94" s="13"/>
@@ -4732,13 +4733,13 @@
       </c>
       <c r="O94" s="13"/>
       <c r="P94" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C95" s="13"/>
       <c r="D95" s="13"/>
@@ -4758,12 +4759,12 @@
       </c>
       <c r="O95" s="13"/>
       <c r="P95" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C96" s="13"/>
       <c r="D96" s="13"/>
@@ -4783,12 +4784,12 @@
       </c>
       <c r="O96" s="13"/>
       <c r="P96" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -4808,12 +4809,12 @@
       </c>
       <c r="O97" s="13"/>
       <c r="P97" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="13" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C98" s="13"/>
       <c r="D98" s="13"/>
@@ -4833,12 +4834,12 @@
       </c>
       <c r="O98" s="13"/>
       <c r="P98" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" s="13" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C99" s="13"/>
       <c r="D99" s="13"/>
@@ -4858,13 +4859,13 @@
       </c>
       <c r="O99" s="13"/>
       <c r="P99" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C100" s="13"/>
       <c r="D100" s="13"/>
@@ -4884,14 +4885,14 @@
       </c>
       <c r="O100" s="13"/>
       <c r="P100" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q100" s="13"/>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="13" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C101" s="13"/>
       <c r="D101" s="13"/>
@@ -4911,14 +4912,14 @@
       </c>
       <c r="O101" s="13"/>
       <c r="P101" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q101" s="13"/>
     </row>
-    <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13"/>
       <c r="B102" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C102" s="13"/>
       <c r="D102" s="13"/>
@@ -4938,14 +4939,14 @@
       </c>
       <c r="O102" s="13"/>
       <c r="P102" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -4965,14 +4966,14 @@
       </c>
       <c r="O103" s="13"/>
       <c r="P103" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13"/>
       <c r="B104" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -4992,13 +4993,13 @@
       </c>
       <c r="O104" s="13"/>
       <c r="P104" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="13" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -5018,12 +5019,12 @@
       </c>
       <c r="O105" s="13"/>
       <c r="P105" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="11" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -5043,12 +5044,12 @@
       </c>
       <c r="O106" s="13"/>
       <c r="P106" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="13" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -5068,12 +5069,12 @@
       </c>
       <c r="O107" s="13"/>
       <c r="P107" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -5093,12 +5094,12 @@
       </c>
       <c r="O108" s="13"/>
       <c r="P108" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -5118,42 +5119,42 @@
       </c>
       <c r="O109" s="13"/>
       <c r="P109" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="12"/>
       <c r="B110" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="D110" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="E110" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="E110" s="11" t="s">
-        <v>299</v>
-      </c>
       <c r="F110" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P110" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B111" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="C111" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="D111" s="11" t="s">
         <v>497</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>499</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>498</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>58</v>
@@ -5162,22 +5163,22 @@
         <v>5</v>
       </c>
       <c r="O111" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P111" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q111" s="12"/>
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12"/>
       <c r="B112" s="11" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>70</v>
@@ -5189,31 +5190,31 @@
         <v>5</v>
       </c>
       <c r="P112" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q112" s="12"/>
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="12"/>
       <c r="B113" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D113" s="11" t="s">
         <v>300</v>
       </c>
-      <c r="D113" s="11" t="s">
-        <v>301</v>
-      </c>
       <c r="F113" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P113" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q113" s="12"/>
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B114" s="12" t="s">
         <v>79</v>
       </c>
@@ -5245,19 +5246,19 @@
       <c r="P114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F115" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P115" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B116" s="12" t="s">
         <v>75</v>
       </c>
@@ -5287,7 +5288,7 @@
       <c r="P116" s="12"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="12" t="s">
         <v>91</v>
@@ -5320,22 +5321,22 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F118" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P118" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q118" s="12"/>
       <c r="R118" s="12"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="12" t="s">
         <v>80</v>
@@ -5368,358 +5369,358 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B120" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F120" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P120" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12"/>
       <c r="B121" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F121" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P121" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q121" s="12"/>
       <c r="R121" s="12"/>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="11" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F122" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P122" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="12"/>
       <c r="B123" s="11" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F123" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P123" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q123" s="12"/>
       <c r="R123" s="12"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="11" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F124" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P124" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="12"/>
       <c r="B125" s="11" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F125" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P125" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q125" s="12"/>
       <c r="R125" s="12"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="F126" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P126" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S126" s="13"/>
+    </row>
+    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B127" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F126" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P126" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S126" s="13"/>
-    </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B127" s="11" t="s">
+      <c r="F127" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P127" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S127" s="13"/>
+    </row>
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B128" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P127" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S127" s="13"/>
-    </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B128" s="11" t="s">
+      <c r="F128" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P128" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S128" s="13"/>
+    </row>
+    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B129" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P128" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S128" s="13"/>
-    </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B129" s="11" t="s">
+      <c r="F129" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S129" s="13"/>
+    </row>
+    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B130" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P129" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S129" s="13"/>
-    </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B130" s="11" t="s">
-        <v>314</v>
-      </c>
       <c r="F130" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P130" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13"/>
       <c r="B131" s="11" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F131" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P131" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q131" s="13"/>
       <c r="R131" s="14"/>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="11" t="s">
+        <v>315</v>
+      </c>
+      <c r="F132" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P132" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S132" s="13"/>
+    </row>
+    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B133" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P132" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S132" s="13"/>
-    </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B133" s="11" t="s">
+      <c r="F133" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S133" s="13"/>
+    </row>
+    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B134" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P133" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S133" s="13"/>
-    </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B134" s="11" t="s">
+      <c r="F134" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P134" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S134" s="13"/>
+    </row>
+    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B135" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P134" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S134" s="13"/>
-    </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B135" s="11" t="s">
+      <c r="F135" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P135" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S135" s="13"/>
+    </row>
+    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B136" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P135" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S135" s="13"/>
-    </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B136" s="11" t="s">
+      <c r="F136" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P136" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S136" s="13"/>
+    </row>
+    <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B137" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F136" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P136" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S136" s="13"/>
-    </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B137" s="11" t="s">
-        <v>321</v>
-      </c>
       <c r="F137" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P137" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="11" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F138" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P138" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q138" s="13"/>
       <c r="R138" s="14"/>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="F139" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P139" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S139" s="13"/>
+    </row>
+    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B140" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P139" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S139" s="13"/>
-    </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B140" s="11" t="s">
+      <c r="F140" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P140" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S140" s="13"/>
+    </row>
+    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B141" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P140" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S140" s="13"/>
-    </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B141" s="11" t="s">
+      <c r="F141" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P141" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S141" s="13"/>
+    </row>
+    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B142" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P141" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S141" s="13"/>
-    </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B142" s="11" t="s">
+      <c r="F142" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P142" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S142" s="13"/>
+    </row>
+    <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B143" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F142" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P142" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S142" s="13"/>
-    </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B143" s="11" t="s">
+      <c r="F143" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P143" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S143" s="13"/>
+    </row>
+    <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B144" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F143" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P143" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S143" s="13"/>
-    </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B144" s="11" t="s">
+      <c r="F144" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P144" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S144" s="13"/>
+    </row>
+    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B145" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P144" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S144" s="13"/>
-    </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B145" s="11" t="s">
+      <c r="F145" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S145" s="13"/>
+    </row>
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B146" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S145" s="13"/>
-    </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B146" s="11" t="s">
+      <c r="F146" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P146" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S146" s="13"/>
+    </row>
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B147" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P146" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S146" s="13"/>
-    </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B147" s="11" t="s">
-        <v>331</v>
-      </c>
       <c r="F147" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P147" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B148" s="12" t="s">
         <v>66</v>
       </c>
@@ -5747,34 +5748,34 @@
       <c r="P148" s="12"/>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13"/>
       <c r="B149" s="11" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F149" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P149" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q149" s="13"/>
       <c r="R149" s="14"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B150" s="11" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F150" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P150" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B151" s="12" t="s">
         <v>130</v>
       </c>
@@ -5802,27 +5803,27 @@
       <c r="P151" s="12"/>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B152" s="11" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F152" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P152" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B153" s="16" t="s">
+        <v>275</v>
+      </c>
+      <c r="C153" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="C153" s="16" t="s">
+      <c r="D153" s="11" t="s">
         <v>277</v>
-      </c>
-      <c r="D153" s="11" t="s">
-        <v>278</v>
       </c>
       <c r="E153" s="11" t="s">
         <v>58</v>
@@ -5831,55 +5832,55 @@
         <v>5</v>
       </c>
       <c r="G153" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O153" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P153" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12"/>
       <c r="B154" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I154" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="F154" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I154" s="11" t="s">
-        <v>336</v>
-      </c>
       <c r="P154" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q154" s="12"/>
       <c r="R154" s="12"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B155" s="11" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F155" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P155" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B156" s="16" t="s">
+        <v>474</v>
+      </c>
+      <c r="C156" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="C156" s="16" t="s">
-        <v>476</v>
-      </c>
       <c r="D156" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E156" s="11" t="s">
         <v>58</v>
@@ -5888,52 +5889,52 @@
         <v>5</v>
       </c>
       <c r="G156" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O156" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P156" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="12"/>
       <c r="B157" s="11" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F157" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P157" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q157" s="12"/>
       <c r="R157" s="12"/>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B158" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="F158" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P158" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S158" s="13"/>
+    </row>
+    <row r="159" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B159" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="F158" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P158" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S158" s="13"/>
-    </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="B159" s="11" t="s">
+      <c r="C159" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="D159" s="11" t="s">
         <v>341</v>
-      </c>
-      <c r="D159" s="11" t="s">
-        <v>342</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>58</v>
@@ -5942,59 +5943,59 @@
         <v>5</v>
       </c>
       <c r="P159" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B160" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F160" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P160" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S160" s="13"/>
+    </row>
+    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B161" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="F160" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P160" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S160" s="13"/>
-    </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B161" s="11" t="s">
+      <c r="F161" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P161" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S161" s="13"/>
+    </row>
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B162" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F161" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P161" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S161" s="13"/>
-    </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B162" s="11" t="s">
+      <c r="F162" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P162" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S162" s="13"/>
+    </row>
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B163" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="F162" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P162" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S162" s="13"/>
-    </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B163" s="11" t="s">
-        <v>346</v>
-      </c>
       <c r="F163" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P163" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B164" s="12" t="s">
         <v>62</v>
       </c>
@@ -6024,114 +6025,114 @@
       <c r="P164" s="12"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B165" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F165" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P165" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S165" s="13"/>
+    </row>
+    <row r="166" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B166" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="F165" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P165" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S165" s="13"/>
-    </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B166" s="11" t="s">
+      <c r="F166" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P166" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S166" s="13"/>
+    </row>
+    <row r="167" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B167" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F166" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P166" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S166" s="13"/>
-    </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B167" s="11" t="s">
+      <c r="F167" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S167" s="13"/>
+    </row>
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B168" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F167" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P167" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S167" s="13"/>
-    </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B168" s="11" t="s">
-        <v>350</v>
-      </c>
       <c r="F168" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P168" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="12"/>
       <c r="B169" s="11" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F169" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P169" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q169" s="12"/>
       <c r="R169" s="12"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B170" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="F170" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P170" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S170" s="13"/>
+    </row>
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B171" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F170" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P170" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S170" s="13"/>
-    </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B171" s="11" t="s">
+      <c r="F171" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P171" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S171" s="13"/>
+    </row>
+    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B172" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F171" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P171" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S171" s="13"/>
-    </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B172" s="11" t="s">
+      <c r="F172" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P172" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S172" s="13"/>
+    </row>
+    <row r="173" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+      <c r="B173" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="F172" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P172" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S172" s="13"/>
-    </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="B173" s="11" t="s">
+      <c r="C173" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="D173" s="11" t="s">
         <v>355</v>
-      </c>
-      <c r="C173" s="11" t="s">
-        <v>508</v>
-      </c>
-      <c r="D173" s="11" t="s">
-        <v>356</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>58</v>
@@ -6140,39 +6141,39 @@
         <v>5</v>
       </c>
       <c r="P173" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="13" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F174" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P174" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q174" s="13"/>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="11" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F175" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P175" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q175" s="13"/>
       <c r="R175" s="14"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B176" s="12" t="s">
         <v>78</v>
       </c>
@@ -6200,30 +6201,30 @@
       <c r="P176" s="12"/>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B177" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P177" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S177" s="13"/>
+    </row>
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B178" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P177" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="S177" s="13"/>
-    </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B178" s="11" t="s">
-        <v>359</v>
-      </c>
       <c r="F178" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P178" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="179" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B179" s="12" t="s">
         <v>131</v>
       </c>
@@ -6252,51 +6253,51 @@
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="F180" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P180" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B181" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P180" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B181" s="11" t="s">
-        <v>361</v>
-      </c>
       <c r="F181" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P181" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="12"/>
       <c r="B182" s="11" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F182" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P182" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q182" s="12"/>
       <c r="R182" s="12"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B183" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="C183" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="C183" s="16" t="s">
-        <v>281</v>
-      </c>
       <c r="D183" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E183" s="11" t="s">
         <v>58</v>
@@ -6305,35 +6306,35 @@
         <v>5</v>
       </c>
       <c r="G183" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O183" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P183" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B184" s="11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F184" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P184" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="185" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B185" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C185" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="C185" s="16" t="s">
-        <v>283</v>
-      </c>
       <c r="D185" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E185" s="11" t="s">
         <v>58</v>
@@ -6342,52 +6343,52 @@
         <v>5</v>
       </c>
       <c r="G185" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O185" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P185" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F186" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P186" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q186" s="13"/>
       <c r="R186" s="14"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13"/>
       <c r="B187" s="11" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F187" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P187" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q187" s="13"/>
       <c r="R187" s="14"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B188" s="16" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C188" s="16" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D188" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E188" s="11" t="s">
         <v>58</v>
@@ -6396,24 +6397,24 @@
         <v>5</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O188" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P188" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="189" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B189" s="16" t="s">
+        <v>283</v>
+      </c>
+      <c r="C189" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="C189" s="16" t="s">
-        <v>285</v>
-      </c>
       <c r="D189" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E189" s="11" t="s">
         <v>58</v>
@@ -6422,61 +6423,61 @@
         <v>5</v>
       </c>
       <c r="G189" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O189" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P189" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="190" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="13"/>
       <c r="B190" s="11" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F190" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P190" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q190" s="13"/>
       <c r="R190" s="14"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B191" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="F191" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P191" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B192" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F191" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P191" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="11" t="s">
-        <v>368</v>
-      </c>
       <c r="F192" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P192" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="13"/>
       <c r="B193" s="16" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C193" s="16" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D193" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E193" s="11" t="s">
         <v>58</v>
@@ -6485,26 +6486,26 @@
         <v>5</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O193" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P193" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q193" s="13"/>
       <c r="R193" s="14"/>
     </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B194" s="16" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C194" s="16" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D194" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E194" s="11" t="s">
         <v>58</v>
@@ -6513,84 +6514,84 @@
         <v>5</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O194" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P194" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="11" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F195" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P195" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="13"/>
       <c r="B196" s="11" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F196" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P196" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q196" s="13"/>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="13"/>
       <c r="B197" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="F197" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I197" s="11" t="s">
         <v>371</v>
       </c>
-      <c r="F197" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I197" s="11" t="s">
-        <v>372</v>
-      </c>
       <c r="P197" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q197" s="13"/>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="13"/>
       <c r="B198" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F198" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I198" s="11" t="s">
         <v>373</v>
       </c>
-      <c r="F198" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I198" s="11" t="s">
-        <v>374</v>
-      </c>
       <c r="P198" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q198" s="13"/>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="13"/>
       <c r="B199" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C199" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="C199" s="16" t="s">
-        <v>287</v>
-      </c>
       <c r="D199" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E199" s="11" t="s">
         <v>58</v>
@@ -6599,71 +6600,71 @@
         <v>5</v>
       </c>
       <c r="G199" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O199" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P199" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q199" s="13"/>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P200" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B201" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="F200" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P200" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B201" s="11" t="s">
-        <v>376</v>
-      </c>
       <c r="F201" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P201" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="13"/>
       <c r="B202" s="11" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F202" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P202" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q202" s="13"/>
       <c r="R202" s="14"/>
     </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="13"/>
       <c r="B203" s="11" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F203" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P203" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q203" s="13"/>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="12"/>
       <c r="B204" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E204" s="11" t="s">
         <v>58</v>
@@ -6672,18 +6673,18 @@
         <v>5</v>
       </c>
       <c r="P204" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q204" s="12"/>
       <c r="R204" s="12"/>
     </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A205" s="13"/>
       <c r="B205" s="12" t="s">
         <v>60</v>
       </c>
       <c r="C205" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D205" s="12" t="s">
         <v>137</v>
@@ -6707,16 +6708,16 @@
       <c r="Q205" s="13"/>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="13"/>
       <c r="B206" s="12" t="s">
         <v>67</v>
       </c>
       <c r="C206" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D206" s="12" t="s">
         <v>149</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>150</v>
       </c>
       <c r="E206" s="12" t="s">
         <v>58</v>
@@ -6737,21 +6738,21 @@
       <c r="Q206" s="13"/>
       <c r="R206" s="14"/>
     </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="13"/>
       <c r="B207" s="11" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F207" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P207" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q207" s="13"/>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="13"/>
       <c r="B208" s="12" t="s">
         <v>143</v>
@@ -6781,148 +6782,148 @@
       <c r="Q208" s="13"/>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="13"/>
       <c r="B209" s="11" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F209" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P209" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R209" s="14"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12"/>
       <c r="B210" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F210" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P210" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R210" s="12"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="12"/>
       <c r="B211" s="11" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F211" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P211" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q211" s="13"/>
       <c r="R211" s="12"/>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="13"/>
       <c r="B212" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F212" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P212" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R212" s="14"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F213" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P213" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q213" s="13"/>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B214" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F214" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P214" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q214" s="13"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P215" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P216" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="F217" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R217" s="14"/>
+    </row>
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B218" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="F217" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P217" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R217" s="14"/>
-    </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B218" s="11" t="s">
+      <c r="F218" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P218" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q218" s="13"/>
+    </row>
+    <row r="219" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B219" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="F218" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P218" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q218" s="13"/>
-    </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B219" s="11" t="s">
-        <v>390</v>
-      </c>
       <c r="F219" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P219" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="13"/>
       <c r="B220" s="12" t="s">
         <v>77</v>
@@ -6945,15 +6946,15 @@
       <c r="P220" s="12"/>
       <c r="R220" s="14"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B221" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="C221" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="C221" s="16" t="s">
-        <v>289</v>
-      </c>
       <c r="D221" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E221" s="11" t="s">
         <v>58</v>
@@ -6962,62 +6963,62 @@
         <v>5</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O221" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P221" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B222" s="11" t="s">
+        <v>390</v>
+      </c>
+      <c r="F222" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P222" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B223" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F222" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P222" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B223" s="11" t="s">
+      <c r="F223" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P223" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B224" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P223" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B224" s="11" t="s">
+      <c r="F224" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P224" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q224" s="13"/>
+    </row>
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B225" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P224" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q224" s="13"/>
-    </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B225" s="11" t="s">
-        <v>394</v>
-      </c>
       <c r="F225" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P225" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q225" s="12"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B226" s="12" t="s">
         <v>138</v>
       </c>
@@ -7044,118 +7045,118 @@
       <c r="O226" s="12"/>
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="13"/>
       <c r="B227" s="11" t="s">
+        <v>394</v>
+      </c>
+      <c r="F227" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I227" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="F227" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I227" s="11" t="s">
+      <c r="P227" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R227" s="14"/>
+    </row>
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B228" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="P227" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R227" s="14"/>
-    </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B228" s="11" t="s">
-        <v>397</v>
-      </c>
       <c r="F228" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P228" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12"/>
       <c r="B229" s="11" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F229" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P229" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q229" s="13"/>
       <c r="R229" s="12"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F230" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P230" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="F231" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P231" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q231" s="13"/>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B232" s="11" t="s">
+        <v>400</v>
+      </c>
+      <c r="F232" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P232" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q232" s="13"/>
+    </row>
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B233" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="F232" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P232" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q232" s="13"/>
-    </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B233" s="11" t="s">
-        <v>402</v>
-      </c>
       <c r="F233" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P233" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q233" s="13"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F234" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P234" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="13"/>
       <c r="B235" s="12" t="s">
         <v>69</v>
       </c>
       <c r="C235" s="12" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D235" s="12" t="s">
         <v>70</v>
@@ -7168,7 +7169,7 @@
       </c>
       <c r="G235" s="12"/>
       <c r="H235" s="12" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I235" s="12" t="s">
         <v>73</v>
@@ -7182,7 +7183,7 @@
       <c r="P235" s="12"/>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B236" s="12" t="s">
         <v>63</v>
       </c>
@@ -7203,7 +7204,7 @@
       <c r="O236" s="12"/>
       <c r="P236" s="12"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="13"/>
       <c r="B237" s="12" t="s">
         <v>64</v>
@@ -7226,7 +7227,7 @@
       <c r="P237" s="12"/>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B238" s="12" t="s">
         <v>59</v>
       </c>
@@ -7253,68 +7254,68 @@
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B239" s="11" t="s">
+        <v>403</v>
+      </c>
+      <c r="F239" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P239" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B240" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F239" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P239" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B240" s="11" t="s">
+      <c r="F240" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I240" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="F240" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I240" s="11" t="s">
+      <c r="P240" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B241" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="P240" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B241" s="11" t="s">
+      <c r="F241" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P241" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q241" s="12"/>
+    </row>
+    <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B242" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F241" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P241" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q241" s="12"/>
-    </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B242" s="11" t="s">
+      <c r="F242" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P242" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q242" s="12"/>
+    </row>
+    <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B243" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="F242" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P242" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q242" s="12"/>
-    </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B243" s="11" t="s">
-        <v>409</v>
-      </c>
       <c r="F243" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P243" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q243" s="12"/>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="12"/>
       <c r="B244" s="12" t="s">
         <v>65</v>
@@ -7338,16 +7339,16 @@
       <c r="Q244" s="12"/>
       <c r="R244" s="12"/>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="12"/>
       <c r="B245" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="C245" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C245" s="16" t="s">
-        <v>291</v>
-      </c>
       <c r="D245" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E245" s="11" t="s">
         <v>58</v>
@@ -7356,99 +7357,99 @@
         <v>5</v>
       </c>
       <c r="G245" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O245" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P245" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R245" s="12"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="13"/>
       <c r="B246" s="11" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F246" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P246" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q246" s="13"/>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="13"/>
       <c r="B247" s="11" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F247" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P247" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q247" s="13"/>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="13"/>
       <c r="B248" s="11" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P248" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P249" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q249" s="13"/>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="13"/>
       <c r="B250" s="11" t="s">
+        <v>413</v>
+      </c>
+      <c r="C250" s="11" t="s">
         <v>414</v>
       </c>
-      <c r="C250" s="11" t="s">
+      <c r="D250" s="11" t="s">
         <v>415</v>
       </c>
-      <c r="D250" s="11" t="s">
-        <v>416</v>
-      </c>
       <c r="F250" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P250" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A251" s="13"/>
       <c r="B251" s="12" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="C251" s="12" t="s">
-        <v>147</v>
+        <v>525</v>
       </c>
       <c r="D251" s="12" t="s">
         <v>140</v>
@@ -7462,7 +7463,7 @@
       <c r="G251" s="12"/>
       <c r="H251" s="12"/>
       <c r="I251" s="12" t="s">
-        <v>83</v>
+        <v>134</v>
       </c>
       <c r="J251" s="12"/>
       <c r="K251" s="12"/>
@@ -7474,30 +7475,30 @@
       <c r="Q251" s="13"/>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
       <c r="B252" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F252" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P252" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q252" s="13"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="13"/>
       <c r="B253" s="16" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C253" s="16" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D253" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E253" s="11" t="s">
         <v>58</v>
@@ -7506,40 +7507,40 @@
         <v>5</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O253" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P253" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="13"/>
       <c r="B254" s="11" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F254" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P254" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q254" s="12"/>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B255" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C255" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="C255" s="16" t="s">
-        <v>293</v>
-      </c>
       <c r="D255" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E255" s="11" t="s">
         <v>58</v>
@@ -7548,17 +7549,17 @@
         <v>5</v>
       </c>
       <c r="G255" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O255" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P255" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="13"/>
       <c r="B256" s="12" t="s">
         <v>76</v>
@@ -7581,116 +7582,116 @@
       <c r="P256" s="12"/>
       <c r="R256" s="14"/>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="12"/>
       <c r="B257" s="11" t="s">
+        <v>418</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P257" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R257" s="12"/>
+    </row>
+    <row r="258" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B258" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F257" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P257" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R257" s="12"/>
-    </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B258" s="11" t="s">
-        <v>420</v>
-      </c>
       <c r="F258" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P258" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="13"/>
       <c r="B259" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F259" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P259" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R259" s="14"/>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="13"/>
       <c r="B260" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F260" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P260" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q260" s="12"/>
       <c r="R260" s="14"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B261" s="11" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F261" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P261" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q261" s="13"/>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="12"/>
       <c r="B262" s="11" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F262" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P262" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q262" s="13"/>
       <c r="R262" s="12"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B263" s="11" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F263" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P263" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F264" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P264" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R264" s="14"/>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B265" s="16" t="s">
+        <v>476</v>
+      </c>
+      <c r="C265" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="C265" s="16" t="s">
-        <v>478</v>
-      </c>
       <c r="D265" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E265" s="11" t="s">
         <v>58</v>
@@ -7699,226 +7700,226 @@
         <v>5</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="O265" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P265" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q265" s="13"/>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B266" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="F266" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P266" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B267" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="F266" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P266" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B267" s="11" t="s">
-        <v>428</v>
-      </c>
       <c r="F267" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P267" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="13"/>
       <c r="B268" s="11" t="s">
+        <v>428</v>
+      </c>
+      <c r="F268" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P268" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R268" s="14"/>
+    </row>
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B269" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="F268" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P268" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R268" s="14"/>
-    </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B269" s="11" t="s">
+      <c r="F269" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P269" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B270" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="F269" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P269" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B270" s="11" t="s">
+      <c r="F270" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P270" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q270" s="13"/>
+    </row>
+    <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B271" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="F270" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P270" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q270" s="13"/>
-    </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B271" s="11" t="s">
+      <c r="F271" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P271" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B272" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="F271" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P271" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B272" s="11" t="s">
+      <c r="F272" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P272" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B273" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="F272" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P272" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B273" s="11" t="s">
-        <v>434</v>
-      </c>
       <c r="F273" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P273" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="13"/>
       <c r="B274" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F274" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P274" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q274" s="13"/>
       <c r="R274" s="14"/>
     </row>
-    <row r="275" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="13"/>
       <c r="B275" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F275" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P275" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="13"/>
       <c r="B276" s="11" t="s">
+        <v>436</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P276" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R276" s="14"/>
+    </row>
+    <row r="277" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B277" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="F276" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P276" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R276" s="14"/>
-    </row>
-    <row r="277" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B277" s="11" t="s">
+      <c r="F277" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P277" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q277" s="13"/>
+    </row>
+    <row r="278" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B278" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="F277" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P277" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q277" s="13"/>
-    </row>
-    <row r="278" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B278" s="11" t="s">
+      <c r="F278" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P278" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q278" s="13"/>
+    </row>
+    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B279" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="F278" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P278" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q278" s="13"/>
-    </row>
-    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B279" s="11" t="s">
-        <v>440</v>
-      </c>
       <c r="F279" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P279" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q279" s="13"/>
     </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="13"/>
       <c r="B280" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F280" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P280" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R280" s="14"/>
     </row>
-    <row r="281" spans="1:19" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="13"/>
       <c r="B281" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F281" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P281" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="13"/>
       <c r="B282" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F282" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P282" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:19" s="19" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="11"/>
       <c r="B283" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C283" s="11"/>
       <c r="D283" s="11"/>
@@ -7936,146 +7937,146 @@
       <c r="N283" s="11"/>
       <c r="O283" s="11"/>
       <c r="P283" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q283" s="13"/>
       <c r="R283" s="11"/>
       <c r="S283" s="11"/>
     </row>
-    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="11" t="s">
+        <v>444</v>
+      </c>
+      <c r="F284" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P284" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B285" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="F284" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P284" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B285" s="11" t="s">
-        <v>446</v>
-      </c>
       <c r="F285" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P285" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="13"/>
       <c r="B286" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="F286" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P286" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R286" s="14"/>
+    </row>
+    <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B287" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="F286" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P286" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R286" s="14"/>
-    </row>
-    <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B287" s="11" t="s">
+      <c r="F287" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P287" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B288" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="F287" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P287" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B288" s="11" t="s">
+      <c r="F288" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P288" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B289" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F288" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P288" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B289" s="11" t="s">
+      <c r="F289" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P289" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B290" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="F289" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P289" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B290" s="11" t="s">
+      <c r="F290" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P290" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q290" s="13"/>
+    </row>
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B291" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="F290" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P290" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q290" s="13"/>
-    </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B291" s="11" t="s">
+      <c r="F291" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P291" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q291" s="13"/>
+    </row>
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B292" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="F292" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="293" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B293" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="F291" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P291" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q291" s="13"/>
-    </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B292" s="11" t="s">
-        <v>507</v>
-      </c>
-      <c r="F292" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B293" s="11" t="s">
-        <v>453</v>
-      </c>
       <c r="F293" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P293" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="294" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="13"/>
       <c r="B294" s="11" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F294" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P294" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q294" s="13"/>
       <c r="R294" s="14"/>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B295" s="16" t="s">
+        <v>293</v>
+      </c>
+      <c r="C295" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="C295" s="16" t="s">
-        <v>295</v>
-      </c>
       <c r="D295" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E295" s="11" t="s">
         <v>58</v>
@@ -8084,28 +8085,28 @@
         <v>5</v>
       </c>
       <c r="G295" s="15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O295" s="11" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="P295" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B296" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F296" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P296" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q296" s="13"/>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B297" s="12" t="s">
         <v>70</v>
       </c>
@@ -8133,146 +8134,146 @@
       <c r="P297" s="12"/>
       <c r="Q297" s="13"/>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="13"/>
       <c r="B298" s="11" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F298" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P298" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q298" s="13"/>
       <c r="R298" s="14"/>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F299" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P299" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q299" s="13"/>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P300" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q300" s="13"/>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="13"/>
       <c r="B301" s="11" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P301" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="13"/>
       <c r="B302" s="11" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P302" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="13"/>
       <c r="B303" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P303" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R303" s="14"/>
+    </row>
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B304" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="F303" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P303" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="R303" s="14"/>
-    </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B304" s="11" t="s">
+      <c r="F304" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P304" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q304" s="12"/>
+    </row>
+    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B305" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="F304" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P304" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q304" s="12"/>
-    </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B305" s="11" t="s">
+      <c r="F305" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P305" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B306" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="F305" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P305" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B306" s="11" t="s">
-        <v>464</v>
-      </c>
       <c r="F306" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P306" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B307" s="11" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F307" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P307" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="R307" s="12"/>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="12"/>
       <c r="B308" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="C308" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="C308" s="11" t="s">
+      <c r="D308" s="11" t="s">
         <v>524</v>
-      </c>
-      <c r="D308" s="11" t="s">
-        <v>525</v>
       </c>
       <c r="E308" s="11" t="s">
         <v>58</v>
@@ -8282,94 +8283,94 @@
       </c>
       <c r="R308" s="12"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B309" s="11" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="F309" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P309" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B310" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="F310" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P310" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="B311" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F310" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P310" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B311" s="13" t="s">
-        <v>271</v>
-      </c>
       <c r="F311" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P311" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="13" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>5</v>
       </c>
       <c r="I312" s="11" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="P312" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="F313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P313" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B314" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F313" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P313" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B314" s="11" t="s">
+      <c r="F314" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P314" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="B315" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F314" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P314" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="B315" s="11" t="s">
-        <v>472</v>
-      </c>
       <c r="F315" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P315" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Q315" s="13"/>
     </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B316" s="14"/>
       <c r="P316" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B317" s="14"/>
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
@@ -8385,25 +8386,25 @@
       <c r="O317" s="12"/>
       <c r="P317" s="12"/>
     </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B318" s="14"/>
       <c r="P318" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B319" s="14"/>
       <c r="P319" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B320" s="14"/>
       <c r="P320" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B321" s="14"/>
       <c r="D321" s="12"/>
       <c r="E321" s="12"/>
@@ -8419,13 +8420,13 @@
       <c r="O321" s="12"/>
       <c r="P321" s="12"/>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B322" s="14"/>
       <c r="P322" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B323" s="14"/>
       <c r="C323" s="12"/>
       <c r="D323" s="12"/>
@@ -8442,7 +8443,7 @@
       <c r="O323" s="12"/>
       <c r="P323" s="12"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="14"/>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
@@ -8459,44 +8460,44 @@
       <c r="O324" s="12"/>
       <c r="P324" s="12"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="14"/>
       <c r="Q325" s="12"/>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="14"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B327" s="14"/>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B328" s="14"/>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="14"/>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A334" s="14"/>
       <c r="B334" s="14"/>
       <c r="R334" s="12"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="14"/>
       <c r="Q335" s="12"/>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B336" s="14"/>
       <c r="C336" s="12"/>
       <c r="D336" s="12"/>
@@ -8513,7 +8514,7 @@
       <c r="O336" s="12"/>
       <c r="P336" s="12"/>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B337" s="14"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -8531,7 +8532,7 @@
       <c r="P337" s="12"/>
       <c r="Q337" s="12"/>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A338" s="12"/>
       <c r="B338" s="14"/>
       <c r="C338" s="12"/>
@@ -8551,7 +8552,7 @@
       <c r="Q338" s="12"/>
       <c r="R338" s="12"/>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B339" s="14"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
@@ -8569,17 +8570,17 @@
       <c r="P339" s="12"/>
       <c r="Q339" s="12"/>
     </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B340" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2822">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2822">
     <sortCondition ref="F2:F2822"/>
     <sortCondition descending="1" ref="N2:N2822"/>
     <sortCondition ref="B2:B2822"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G179" r:id="rId1"/>
+    <hyperlink ref="G179" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8587,23 +8588,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -8617,7 +8618,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8625,10 +8626,10 @@
         <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8639,7 +8640,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8647,13 +8648,13 @@
         <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -8664,7 +8665,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -8678,7 +8679,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -8689,7 +8690,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -8697,10 +8698,10 @@
         <v>119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -8711,7 +8712,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -8722,7 +8723,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -8730,10 +8731,10 @@
         <v>124</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.25">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -8741,10 +8742,10 @@
         <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -8755,7 +8756,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -8766,59 +8767,59 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B16" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="C16" s="4" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="C16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
+      <c r="C17" s="4" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B18" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C17" s="4" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="C18" s="4" t="s">
         <v>489</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>503</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -8828,29 +8829,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8888,7 +8889,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8896,13 +8897,13 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -8916,7 +8917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -8933,7 +8934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -8944,7 +8945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -8958,7 +8959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8975,7 +8976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -8989,7 +8990,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9006,7 +9007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="51" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -9026,14 +9027,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9041,19 +9042,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="43.28515625" customWidth="1"/>
+    <col min="11" max="11" width="43.26953125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -9088,7 +9089,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9099,7 +9100,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9116,7 +9117,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9133,7 +9134,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9150,7 +9151,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9167,7 +9168,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9184,7 +9185,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9218,7 +9219,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9235,7 +9236,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9252,7 +9253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9278,7 +9279,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9304,7 +9305,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9330,7 +9331,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9356,7 +9357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9382,7 +9383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9408,7 +9409,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9434,7 +9435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9460,7 +9461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9486,7 +9487,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9538,7 +9539,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9564,7 +9565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9590,7 +9591,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9616,7 +9617,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9642,7 +9643,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9668,7 +9669,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9694,7 +9695,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9720,7 +9721,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FC7F88-FF83-4AA5-990B-136BB871C5D9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC81E4-7F36-8D4B-A6B7-E1CDE62E1835}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="526">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="527">
   <si>
     <t>ID</t>
   </si>
@@ -1607,6 +1607,9 @@
   </si>
   <si>
     <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the government's jurisdiction.</t>
+  </si>
+  <si>
+    <t>TV advertising</t>
   </si>
 </sst>
 </file>
@@ -2109,37 +2112,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S340"/>
+  <dimension ref="A1:T341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C251" sqref="C251"/>
+      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A309" sqref="A309:XFD309"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.26953125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="29.7265625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="12"/>
-    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="12"/>
-    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.7265625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.7265625" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="12"/>
+    <col min="7" max="7" width="35.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="12"/>
+    <col min="13" max="13" width="18.5" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="12"/>
+    <col min="16" max="16" width="13.5" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2195,7 +2198,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B2" s="13" t="s">
         <v>155</v>
       </c>
@@ -2221,7 +2224,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="13" t="s">
         <v>156</v>
       </c>
@@ -2247,7 +2250,7 @@
       </c>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B4" s="13" t="s">
         <v>157</v>
       </c>
@@ -2275,7 +2278,7 @@
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B5" s="13" t="s">
         <v>159</v>
       </c>
@@ -2301,7 +2304,7 @@
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B6" s="13" t="s">
         <v>160</v>
       </c>
@@ -2327,7 +2330,7 @@
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="13" t="s">
         <v>161</v>
       </c>
@@ -2355,7 +2358,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>163</v>
@@ -2384,7 +2387,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
@@ -2409,7 +2412,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>165</v>
@@ -2437,7 +2440,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="13" t="s">
         <v>166</v>
       </c>
@@ -2462,7 +2465,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="13" t="s">
         <v>167</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
         <v>168</v>
@@ -2515,7 +2518,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
         <v>169</v>
@@ -2543,7 +2546,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="13" t="s">
         <v>170</v>
       </c>
@@ -2568,7 +2571,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>171</v>
@@ -2596,7 +2599,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="13" t="s">
         <v>172</v>
       </c>
@@ -2621,7 +2624,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>173</v>
@@ -2649,7 +2652,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="13" t="s">
         <v>174</v>
       </c>
@@ -2674,7 +2677,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
         <v>175</v>
@@ -2702,7 +2705,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="13" t="s">
         <v>176</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="13" t="s">
         <v>177</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>178</v>
@@ -2780,7 +2783,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
         <v>179</v>
@@ -2808,7 +2811,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>180</v>
@@ -2836,7 +2839,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>181</v>
@@ -2864,7 +2867,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B27" s="13" t="s">
         <v>182</v>
       </c>
@@ -2889,7 +2892,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B28" s="13" t="s">
         <v>183</v>
       </c>
@@ -2914,7 +2917,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>184</v>
@@ -2942,7 +2945,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="203" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
       <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
@@ -2977,7 +2980,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="13" t="s">
         <v>188</v>
       </c>
@@ -3002,7 +3005,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B32" s="13" t="s">
         <v>189</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="B33" s="13" t="s">
         <v>192</v>
       </c>
@@ -3060,7 +3063,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="13" t="s">
         <v>195</v>
       </c>
@@ -3089,7 +3092,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>198</v>
@@ -3117,7 +3120,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>199</v>
@@ -3145,7 +3148,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>200</v>
@@ -3173,7 +3176,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>201</v>
@@ -3201,7 +3204,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
         <v>202</v>
@@ -3229,7 +3232,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>203</v>
@@ -3257,7 +3260,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>204</v>
@@ -3285,7 +3288,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>205</v>
@@ -3313,7 +3316,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
         <v>206</v>
@@ -3341,7 +3344,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.15">
       <c r="A44" s="13" t="s">
         <v>147</v>
       </c>
@@ -3373,7 +3376,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
         <v>207</v>
@@ -3401,7 +3404,7 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
         <v>208</v>
@@ -3429,7 +3432,7 @@
       <c r="Q46" s="12"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
         <v>209</v>
@@ -3457,7 +3460,7 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="13" t="s">
         <v>210</v>
       </c>
@@ -3483,7 +3486,7 @@
       </c>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B49" s="13" t="s">
         <v>211</v>
       </c>
@@ -3509,7 +3512,7 @@
       </c>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="13" t="s">
         <v>212</v>
       </c>
@@ -3534,7 +3537,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="13" t="s">
         <v>213</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
         <v>139</v>
@@ -3587,7 +3590,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="13" t="s">
         <v>214</v>
@@ -3614,7 +3617,7 @@
       </c>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B54" s="13" t="s">
         <v>215</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="13" t="s">
         <v>216</v>
       </c>
@@ -3665,7 +3668,7 @@
       </c>
       <c r="Q55" s="12"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="56" x14ac:dyDescent="0.15">
       <c r="A56" s="11" t="s">
         <v>508</v>
       </c>
@@ -3696,7 +3699,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B57" s="13" t="s">
         <v>511</v>
       </c>
@@ -3728,7 +3731,7 @@
       </c>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B58" s="13" t="s">
         <v>217</v>
       </c>
@@ -3754,7 +3757,7 @@
       </c>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
         <v>218</v>
@@ -3781,7 +3784,7 @@
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
         <v>219</v>
@@ -3808,7 +3811,7 @@
       </c>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
         <v>220</v>
@@ -3835,7 +3838,7 @@
       </c>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B62" s="13" t="s">
         <v>221</v>
       </c>
@@ -3860,7 +3863,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B63" s="13" t="s">
         <v>222</v>
       </c>
@@ -3885,7 +3888,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B64" s="13" t="s">
         <v>223</v>
       </c>
@@ -3911,7 +3914,7 @@
       </c>
       <c r="Q64" s="12"/>
     </row>
-    <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="13" t="s">
         <v>224</v>
       </c>
@@ -3936,7 +3939,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B66" s="13" t="s">
         <v>225</v>
       </c>
@@ -3962,7 +3965,7 @@
       </c>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
         <v>226</v>
@@ -3990,7 +3993,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="11"/>
       <c r="B68" s="13" t="s">
         <v>227</v>
@@ -4019,7 +4022,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
         <v>228</v>
@@ -4047,7 +4050,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>229</v>
@@ -4075,7 +4078,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
         <v>230</v>
@@ -4103,7 +4106,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
         <v>518</v>
@@ -4137,7 +4140,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>513</v>
@@ -4167,7 +4170,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
         <v>514</v>
@@ -4197,7 +4200,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
         <v>231</v>
@@ -4224,7 +4227,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
         <v>232</v>
@@ -4251,7 +4254,7 @@
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B77" s="13" t="s">
         <v>233</v>
       </c>
@@ -4276,7 +4279,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B78" s="13" t="s">
         <v>234</v>
       </c>
@@ -4302,7 +4305,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B79" s="13" t="s">
         <v>235</v>
       </c>
@@ -4328,7 +4331,7 @@
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
         <v>236</v>
@@ -4355,7 +4358,7 @@
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B81" s="13" t="s">
         <v>237</v>
       </c>
@@ -4382,7 +4385,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
         <v>239</v>
@@ -4410,7 +4413,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
         <v>240</v>
@@ -4438,7 +4441,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" s="13" t="s">
         <v>241</v>
       </c>
@@ -4466,7 +4469,7 @@
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B85" s="13" t="s">
         <v>243</v>
       </c>
@@ -4497,7 +4500,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>425</v>
@@ -4524,7 +4527,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" s="13" t="s">
         <v>247</v>
       </c>
@@ -4549,7 +4552,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B88" s="13" t="s">
         <v>248</v>
       </c>
@@ -4576,7 +4579,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
         <v>250</v>
@@ -4605,7 +4608,7 @@
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B90" s="13" t="s">
         <v>252</v>
       </c>
@@ -4630,7 +4633,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="13" t="s">
         <v>253</v>
       </c>
@@ -4656,7 +4659,7 @@
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B92" s="13" t="s">
         <v>254</v>
       </c>
@@ -4682,7 +4685,7 @@
       </c>
       <c r="Q92" s="13"/>
     </row>
-    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" s="13" t="s">
         <v>255</v>
       </c>
@@ -4708,7 +4711,7 @@
       </c>
       <c r="Q93" s="13"/>
     </row>
-    <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="13"/>
       <c r="B94" s="13" t="s">
         <v>256</v>
@@ -4737,7 +4740,7 @@
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="13" t="s">
         <v>258</v>
       </c>
@@ -4762,7 +4765,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="13" t="s">
         <v>259</v>
       </c>
@@ -4787,7 +4790,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="13" t="s">
         <v>260</v>
       </c>
@@ -4812,7 +4815,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="13" t="s">
         <v>261</v>
       </c>
@@ -4837,7 +4840,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B99" s="13" t="s">
         <v>262</v>
       </c>
@@ -4862,7 +4865,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
         <v>263</v>
@@ -4890,7 +4893,7 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="13" t="s">
         <v>264</v>
       </c>
@@ -4916,7 +4919,7 @@
       </c>
       <c r="Q101" s="13"/>
     </row>
-    <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="13"/>
       <c r="B102" s="13" t="s">
         <v>265</v>
@@ -4943,7 +4946,7 @@
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
         <v>266</v>
@@ -4970,7 +4973,7 @@
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="13"/>
       <c r="B104" s="13" t="s">
         <v>267</v>
@@ -4997,7 +5000,7 @@
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="13" t="s">
         <v>268</v>
       </c>
@@ -5022,7 +5025,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B106" s="11" t="s">
         <v>466</v>
       </c>
@@ -5047,7 +5050,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="13" t="s">
         <v>271</v>
       </c>
@@ -5072,7 +5075,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="11" t="s">
         <v>467</v>
       </c>
@@ -5097,7 +5100,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="11" t="s">
         <v>468</v>
       </c>
@@ -5122,7 +5125,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A110" s="12"/>
       <c r="B110" s="11" t="s">
         <v>295</v>
@@ -5146,7 +5149,7 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B111" s="11" t="s">
         <v>496</v>
       </c>
@@ -5172,7 +5175,7 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="12"/>
       <c r="B112" s="11" t="s">
         <v>341</v>
@@ -5196,7 +5199,7 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A113" s="12"/>
       <c r="B113" s="11" t="s">
         <v>299</v>
@@ -5214,7 +5217,7 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B114" s="12" t="s">
         <v>79</v>
       </c>
@@ -5246,7 +5249,7 @@
       <c r="P114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B115" s="11" t="s">
         <v>301</v>
       </c>
@@ -5258,7 +5261,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B116" s="12" t="s">
         <v>75</v>
       </c>
@@ -5288,7 +5291,7 @@
       <c r="P116" s="12"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A117" s="13"/>
       <c r="B117" s="12" t="s">
         <v>91</v>
@@ -5321,7 +5324,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
         <v>302</v>
@@ -5336,7 +5339,7 @@
       <c r="R118" s="12"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A119" s="13"/>
       <c r="B119" s="12" t="s">
         <v>80</v>
@@ -5369,7 +5372,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B120" s="11" t="s">
         <v>303</v>
       </c>
@@ -5381,7 +5384,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="12"/>
       <c r="B121" s="11" t="s">
         <v>304</v>
@@ -5396,7 +5399,7 @@
       <c r="R121" s="12"/>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
         <v>305</v>
       </c>
@@ -5408,7 +5411,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="12"/>
       <c r="B123" s="11" t="s">
         <v>306</v>
@@ -5423,7 +5426,7 @@
       <c r="R123" s="12"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
         <v>307</v>
       </c>
@@ -5435,7 +5438,7 @@
       </c>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="12"/>
       <c r="B125" s="11" t="s">
         <v>308</v>
@@ -5450,7 +5453,7 @@
       <c r="R125" s="12"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B126" s="11" t="s">
         <v>309</v>
       </c>
@@ -5462,7 +5465,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B127" s="11" t="s">
         <v>310</v>
       </c>
@@ -5474,7 +5477,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B128" s="11" t="s">
         <v>311</v>
       </c>
@@ -5486,7 +5489,7 @@
       </c>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B129" s="11" t="s">
         <v>312</v>
       </c>
@@ -5498,7 +5501,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B130" s="11" t="s">
         <v>313</v>
       </c>
@@ -5510,7 +5513,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="13"/>
       <c r="B131" s="11" t="s">
         <v>314</v>
@@ -5525,7 +5528,7 @@
       <c r="R131" s="14"/>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B132" s="11" t="s">
         <v>315</v>
       </c>
@@ -5537,7 +5540,7 @@
       </c>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B133" s="11" t="s">
         <v>316</v>
       </c>
@@ -5549,7 +5552,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B134" s="11" t="s">
         <v>317</v>
       </c>
@@ -5561,7 +5564,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B135" s="11" t="s">
         <v>318</v>
       </c>
@@ -5573,7 +5576,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B136" s="11" t="s">
         <v>319</v>
       </c>
@@ -5585,7 +5588,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B137" s="11" t="s">
         <v>320</v>
       </c>
@@ -5597,7 +5600,7 @@
       </c>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="13"/>
       <c r="B138" s="11" t="s">
         <v>321</v>
@@ -5612,7 +5615,7 @@
       <c r="R138" s="14"/>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B139" s="11" t="s">
         <v>322</v>
       </c>
@@ -5624,7 +5627,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B140" s="11" t="s">
         <v>323</v>
       </c>
@@ -5636,7 +5639,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B141" s="11" t="s">
         <v>324</v>
       </c>
@@ -5648,7 +5651,7 @@
       </c>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B142" s="11" t="s">
         <v>325</v>
       </c>
@@ -5660,7 +5663,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B143" s="11" t="s">
         <v>326</v>
       </c>
@@ -5672,7 +5675,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B144" s="11" t="s">
         <v>327</v>
       </c>
@@ -5684,7 +5687,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B145" s="11" t="s">
         <v>328</v>
       </c>
@@ -5696,7 +5699,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B146" s="11" t="s">
         <v>329</v>
       </c>
@@ -5708,7 +5711,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B147" s="11" t="s">
         <v>330</v>
       </c>
@@ -5720,7 +5723,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B148" s="12" t="s">
         <v>66</v>
       </c>
@@ -5748,7 +5751,7 @@
       <c r="P148" s="12"/>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="13"/>
       <c r="B149" s="11" t="s">
         <v>331</v>
@@ -5763,7 +5766,7 @@
       <c r="R149" s="14"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B150" s="11" t="s">
         <v>332</v>
       </c>
@@ -5775,7 +5778,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B151" s="12" t="s">
         <v>130</v>
       </c>
@@ -5803,7 +5806,7 @@
       <c r="P151" s="12"/>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B152" s="11" t="s">
         <v>333</v>
       </c>
@@ -5815,7 +5818,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B153" s="16" t="s">
         <v>275</v>
       </c>
@@ -5842,7 +5845,7 @@
       </c>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="12"/>
       <c r="B154" s="11" t="s">
         <v>334</v>
@@ -5860,7 +5863,7 @@
       <c r="R154" s="12"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B155" s="11" t="s">
         <v>336</v>
       </c>
@@ -5872,7 +5875,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B156" s="16" t="s">
         <v>474</v>
       </c>
@@ -5899,7 +5902,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A157" s="12"/>
       <c r="B157" s="11" t="s">
         <v>337</v>
@@ -5914,7 +5917,7 @@
       <c r="R157" s="12"/>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B158" s="11" t="s">
         <v>338</v>
       </c>
@@ -5926,7 +5929,7 @@
       </c>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B159" s="11" t="s">
         <v>339</v>
       </c>
@@ -5947,7 +5950,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B160" s="11" t="s">
         <v>342</v>
       </c>
@@ -5959,7 +5962,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B161" s="11" t="s">
         <v>343</v>
       </c>
@@ -5971,7 +5974,7 @@
       </c>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B162" s="11" t="s">
         <v>344</v>
       </c>
@@ -5983,7 +5986,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B163" s="11" t="s">
         <v>345</v>
       </c>
@@ -5995,7 +5998,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B164" s="12" t="s">
         <v>62</v>
       </c>
@@ -6025,7 +6028,7 @@
       <c r="P164" s="12"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B165" s="11" t="s">
         <v>346</v>
       </c>
@@ -6037,7 +6040,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B166" s="11" t="s">
         <v>347</v>
       </c>
@@ -6049,7 +6052,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B167" s="11" t="s">
         <v>348</v>
       </c>
@@ -6061,7 +6064,7 @@
       </c>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B168" s="11" t="s">
         <v>349</v>
       </c>
@@ -6073,7 +6076,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="12"/>
       <c r="B169" s="11" t="s">
         <v>350</v>
@@ -6088,7 +6091,7 @@
       <c r="R169" s="12"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B170" s="11" t="s">
         <v>351</v>
       </c>
@@ -6100,7 +6103,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B171" s="11" t="s">
         <v>352</v>
       </c>
@@ -6112,7 +6115,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B172" s="11" t="s">
         <v>353</v>
       </c>
@@ -6124,7 +6127,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B173" s="11" t="s">
         <v>354</v>
       </c>
@@ -6145,7 +6148,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B174" s="13" t="s">
         <v>273</v>
       </c>
@@ -6158,7 +6161,7 @@
       <c r="Q174" s="13"/>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="13"/>
       <c r="B175" s="11" t="s">
         <v>356</v>
@@ -6173,7 +6176,7 @@
       <c r="R175" s="14"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B176" s="12" t="s">
         <v>78</v>
       </c>
@@ -6201,7 +6204,7 @@
       <c r="P176" s="12"/>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B177" s="11" t="s">
         <v>357</v>
       </c>
@@ -6213,7 +6216,7 @@
       </c>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B178" s="11" t="s">
         <v>358</v>
       </c>
@@ -6224,7 +6227,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:19" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B179" s="12" t="s">
         <v>131</v>
       </c>
@@ -6253,7 +6256,7 @@
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B180" s="11" t="s">
         <v>359</v>
       </c>
@@ -6264,7 +6267,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B181" s="11" t="s">
         <v>360</v>
       </c>
@@ -6275,7 +6278,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="12"/>
       <c r="B182" s="11" t="s">
         <v>361</v>
@@ -6289,7 +6292,7 @@
       <c r="Q182" s="12"/>
       <c r="R182" s="12"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B183" s="16" t="s">
         <v>279</v>
       </c>
@@ -6315,7 +6318,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B184" s="11" t="s">
         <v>362</v>
       </c>
@@ -6326,7 +6329,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B185" s="16" t="s">
         <v>281</v>
       </c>
@@ -6352,7 +6355,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>363</v>
@@ -6366,7 +6369,7 @@
       <c r="Q186" s="13"/>
       <c r="R186" s="14"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A187" s="13"/>
       <c r="B187" s="11" t="s">
         <v>364</v>
@@ -6380,7 +6383,7 @@
       <c r="Q187" s="13"/>
       <c r="R187" s="14"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B188" s="16" t="s">
         <v>473</v>
       </c>
@@ -6406,7 +6409,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B189" s="16" t="s">
         <v>283</v>
       </c>
@@ -6432,7 +6435,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A190" s="13"/>
       <c r="B190" s="11" t="s">
         <v>365</v>
@@ -6446,7 +6449,7 @@
       <c r="Q190" s="13"/>
       <c r="R190" s="14"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B191" s="11" t="s">
         <v>366</v>
       </c>
@@ -6457,7 +6460,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B192" s="11" t="s">
         <v>367</v>
       </c>
@@ -6468,7 +6471,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A193" s="13"/>
       <c r="B193" s="16" t="s">
         <v>479</v>
@@ -6497,7 +6500,7 @@
       <c r="Q193" s="13"/>
       <c r="R193" s="14"/>
     </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B194" s="16" t="s">
         <v>493</v>
       </c>
@@ -6523,7 +6526,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B195" s="11" t="s">
         <v>368</v>
       </c>
@@ -6534,7 +6537,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A196" s="13"/>
       <c r="B196" s="11" t="s">
         <v>369</v>
@@ -6548,7 +6551,7 @@
       <c r="Q196" s="13"/>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A197" s="13"/>
       <c r="B197" s="11" t="s">
         <v>370</v>
@@ -6565,7 +6568,7 @@
       <c r="Q197" s="13"/>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A198" s="13"/>
       <c r="B198" s="11" t="s">
         <v>372</v>
@@ -6582,7 +6585,7 @@
       <c r="Q198" s="13"/>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A199" s="13"/>
       <c r="B199" s="16" t="s">
         <v>285</v>
@@ -6611,7 +6614,7 @@
       <c r="Q199" s="13"/>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B200" s="11" t="s">
         <v>374</v>
       </c>
@@ -6622,7 +6625,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B201" s="11" t="s">
         <v>375</v>
       </c>
@@ -6633,7 +6636,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A202" s="13"/>
       <c r="B202" s="11" t="s">
         <v>376</v>
@@ -6647,7 +6650,7 @@
       <c r="Q202" s="13"/>
       <c r="R202" s="14"/>
     </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A203" s="13"/>
       <c r="B203" s="11" t="s">
         <v>377</v>
@@ -6661,7 +6664,7 @@
       <c r="Q203" s="13"/>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A204" s="12"/>
       <c r="B204" s="11" t="s">
         <v>189</v>
@@ -6678,7 +6681,7 @@
       <c r="Q204" s="12"/>
       <c r="R204" s="12"/>
     </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A205" s="13"/>
       <c r="B205" s="12" t="s">
         <v>60</v>
@@ -6708,7 +6711,7 @@
       <c r="Q205" s="13"/>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A206" s="13"/>
       <c r="B206" s="12" t="s">
         <v>67</v>
@@ -6738,7 +6741,7 @@
       <c r="Q206" s="13"/>
       <c r="R206" s="14"/>
     </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A207" s="13"/>
       <c r="B207" s="11" t="s">
         <v>378</v>
@@ -6752,7 +6755,7 @@
       <c r="Q207" s="13"/>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A208" s="13"/>
       <c r="B208" s="12" t="s">
         <v>143</v>
@@ -6782,7 +6785,7 @@
       <c r="Q208" s="13"/>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A209" s="13"/>
       <c r="B209" s="11" t="s">
         <v>379</v>
@@ -6795,7 +6798,7 @@
       </c>
       <c r="R209" s="14"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A210" s="12"/>
       <c r="B210" s="11" t="s">
         <v>380</v>
@@ -6808,7 +6811,7 @@
       </c>
       <c r="R210" s="12"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A211" s="12"/>
       <c r="B211" s="11" t="s">
         <v>381</v>
@@ -6822,7 +6825,7 @@
       <c r="Q211" s="13"/>
       <c r="R211" s="12"/>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A212" s="13"/>
       <c r="B212" s="11" t="s">
         <v>382</v>
@@ -6835,7 +6838,7 @@
       </c>
       <c r="R212" s="14"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>383</v>
@@ -6849,7 +6852,7 @@
       <c r="Q213" s="13"/>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B214" s="11" t="s">
         <v>384</v>
       </c>
@@ -6861,7 +6864,7 @@
       </c>
       <c r="Q214" s="13"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>385</v>
@@ -6874,7 +6877,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>386</v>
@@ -6887,7 +6890,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>387</v>
@@ -6900,7 +6903,7 @@
       </c>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B218" s="11" t="s">
         <v>388</v>
       </c>
@@ -6912,7 +6915,7 @@
       </c>
       <c r="Q218" s="13"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B219" s="11" t="s">
         <v>389</v>
       </c>
@@ -6923,7 +6926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A220" s="13"/>
       <c r="B220" s="12" t="s">
         <v>77</v>
@@ -6946,7 +6949,7 @@
       <c r="P220" s="12"/>
       <c r="R220" s="14"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B221" s="16" t="s">
         <v>287</v>
       </c>
@@ -6972,7 +6975,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B222" s="11" t="s">
         <v>390</v>
       </c>
@@ -6983,7 +6986,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B223" s="11" t="s">
         <v>391</v>
       </c>
@@ -6994,7 +6997,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B224" s="11" t="s">
         <v>392</v>
       </c>
@@ -7006,7 +7009,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B225" s="11" t="s">
         <v>393</v>
       </c>
@@ -7018,7 +7021,7 @@
       </c>
       <c r="Q225" s="12"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B226" s="12" t="s">
         <v>138</v>
       </c>
@@ -7045,7 +7048,7 @@
       <c r="O226" s="12"/>
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A227" s="13"/>
       <c r="B227" s="11" t="s">
         <v>394</v>
@@ -7061,7 +7064,7 @@
       </c>
       <c r="R227" s="14"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B228" s="11" t="s">
         <v>396</v>
       </c>
@@ -7072,7 +7075,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A229" s="12"/>
       <c r="B229" s="11" t="s">
         <v>397</v>
@@ -7086,7 +7089,7 @@
       <c r="Q229" s="13"/>
       <c r="R229" s="12"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>398</v>
@@ -7099,7 +7102,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>399</v>
@@ -7113,7 +7116,7 @@
       <c r="Q231" s="13"/>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B232" s="11" t="s">
         <v>400</v>
       </c>
@@ -7125,7 +7128,7 @@
       </c>
       <c r="Q232" s="13"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B233" s="11" t="s">
         <v>401</v>
       </c>
@@ -7137,7 +7140,7 @@
       </c>
       <c r="Q233" s="13"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>402</v>
@@ -7150,7 +7153,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A235" s="13"/>
       <c r="B235" s="12" t="s">
         <v>69</v>
@@ -7183,7 +7186,7 @@
       <c r="P235" s="12"/>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B236" s="12" t="s">
         <v>63</v>
       </c>
@@ -7204,7 +7207,7 @@
       <c r="O236" s="12"/>
       <c r="P236" s="12"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A237" s="13"/>
       <c r="B237" s="12" t="s">
         <v>64</v>
@@ -7227,7 +7230,7 @@
       <c r="P237" s="12"/>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B238" s="12" t="s">
         <v>59</v>
       </c>
@@ -7254,7 +7257,7 @@
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B239" s="11" t="s">
         <v>403</v>
       </c>
@@ -7265,7 +7268,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B240" s="11" t="s">
         <v>404</v>
       </c>
@@ -7279,7 +7282,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B241" s="11" t="s">
         <v>406</v>
       </c>
@@ -7291,7 +7294,7 @@
       </c>
       <c r="Q241" s="12"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B242" s="11" t="s">
         <v>407</v>
       </c>
@@ -7303,7 +7306,7 @@
       </c>
       <c r="Q242" s="12"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B243" s="11" t="s">
         <v>408</v>
       </c>
@@ -7315,7 +7318,7 @@
       </c>
       <c r="Q243" s="12"/>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A244" s="12"/>
       <c r="B244" s="12" t="s">
         <v>65</v>
@@ -7339,7 +7342,7 @@
       <c r="Q244" s="12"/>
       <c r="R244" s="12"/>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A245" s="12"/>
       <c r="B245" s="16" t="s">
         <v>289</v>
@@ -7367,7 +7370,7 @@
       </c>
       <c r="R245" s="12"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A246" s="13"/>
       <c r="B246" s="11" t="s">
         <v>409</v>
@@ -7381,7 +7384,7 @@
       <c r="Q246" s="13"/>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A247" s="13"/>
       <c r="B247" s="11" t="s">
         <v>410</v>
@@ -7395,7 +7398,7 @@
       <c r="Q247" s="13"/>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A248" s="13"/>
       <c r="B248" s="11" t="s">
         <v>411</v>
@@ -7409,7 +7412,7 @@
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
         <v>412</v>
@@ -7423,7 +7426,7 @@
       <c r="Q249" s="13"/>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A250" s="13"/>
       <c r="B250" s="11" t="s">
         <v>413</v>
@@ -7443,7 +7446,7 @@
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A251" s="13"/>
       <c r="B251" s="12" t="s">
         <v>83</v>
@@ -7475,7 +7478,7 @@
       <c r="Q251" s="13"/>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A252" s="13"/>
       <c r="B252" s="11" t="s">
         <v>416</v>
@@ -7489,7 +7492,7 @@
       <c r="Q252" s="13"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A253" s="13"/>
       <c r="B253" s="16" t="s">
         <v>238</v>
@@ -7518,7 +7521,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A254" s="13"/>
       <c r="B254" s="11" t="s">
         <v>417</v>
@@ -7532,7 +7535,7 @@
       <c r="Q254" s="12"/>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B255" s="16" t="s">
         <v>291</v>
       </c>
@@ -7559,7 +7562,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A256" s="13"/>
       <c r="B256" s="12" t="s">
         <v>76</v>
@@ -7582,7 +7585,7 @@
       <c r="P256" s="12"/>
       <c r="R256" s="14"/>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A257" s="12"/>
       <c r="B257" s="11" t="s">
         <v>418</v>
@@ -7595,7 +7598,7 @@
       </c>
       <c r="R257" s="12"/>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B258" s="11" t="s">
         <v>419</v>
       </c>
@@ -7606,7 +7609,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A259" s="13"/>
       <c r="B259" s="11" t="s">
         <v>420</v>
@@ -7619,7 +7622,7 @@
       </c>
       <c r="R259" s="14"/>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A260" s="13"/>
       <c r="B260" s="11" t="s">
         <v>421</v>
@@ -7633,7 +7636,7 @@
       <c r="Q260" s="12"/>
       <c r="R260" s="14"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B261" s="11" t="s">
         <v>422</v>
       </c>
@@ -7645,7 +7648,7 @@
       </c>
       <c r="Q261" s="13"/>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A262" s="12"/>
       <c r="B262" s="11" t="s">
         <v>423</v>
@@ -7659,7 +7662,7 @@
       <c r="Q262" s="13"/>
       <c r="R262" s="12"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B263" s="11" t="s">
         <v>424</v>
       </c>
@@ -7670,7 +7673,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
         <v>246</v>
@@ -7683,7 +7686,7 @@
       </c>
       <c r="R264" s="14"/>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B265" s="16" t="s">
         <v>476</v>
       </c>
@@ -7710,7 +7713,7 @@
       </c>
       <c r="Q265" s="13"/>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B266" s="11" t="s">
         <v>426</v>
       </c>
@@ -7721,7 +7724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B267" s="11" t="s">
         <v>427</v>
       </c>
@@ -7732,7 +7735,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A268" s="13"/>
       <c r="B268" s="11" t="s">
         <v>428</v>
@@ -7745,7 +7748,7 @@
       </c>
       <c r="R268" s="14"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B269" s="11" t="s">
         <v>429</v>
       </c>
@@ -7756,7 +7759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B270" s="11" t="s">
         <v>430</v>
       </c>
@@ -7768,7 +7771,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B271" s="11" t="s">
         <v>431</v>
       </c>
@@ -7779,7 +7782,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B272" s="11" t="s">
         <v>432</v>
       </c>
@@ -7790,7 +7793,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B273" s="11" t="s">
         <v>433</v>
       </c>
@@ -7801,7 +7804,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A274" s="13"/>
       <c r="B274" s="11" t="s">
         <v>434</v>
@@ -7815,7 +7818,7 @@
       <c r="Q274" s="13"/>
       <c r="R274" s="14"/>
     </row>
-    <row r="275" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A275" s="13"/>
       <c r="B275" s="11" t="s">
         <v>435</v>
@@ -7828,7 +7831,7 @@
       </c>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A276" s="13"/>
       <c r="B276" s="11" t="s">
         <v>436</v>
@@ -7841,7 +7844,7 @@
       </c>
       <c r="R276" s="14"/>
     </row>
-    <row r="277" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B277" s="11" t="s">
         <v>437</v>
       </c>
@@ -7853,7 +7856,7 @@
       </c>
       <c r="Q277" s="13"/>
     </row>
-    <row r="278" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B278" s="11" t="s">
         <v>438</v>
       </c>
@@ -7865,7 +7868,7 @@
       </c>
       <c r="Q278" s="13"/>
     </row>
-    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B279" s="11" t="s">
         <v>439</v>
       </c>
@@ -7877,7 +7880,7 @@
       </c>
       <c r="Q279" s="13"/>
     </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A280" s="13"/>
       <c r="B280" s="11" t="s">
         <v>440</v>
@@ -7890,7 +7893,7 @@
       </c>
       <c r="R280" s="14"/>
     </row>
-    <row r="281" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A281" s="13"/>
       <c r="B281" s="11" t="s">
         <v>441</v>
@@ -7903,7 +7906,7 @@
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A282" s="13"/>
       <c r="B282" s="11" t="s">
         <v>442</v>
@@ -7916,7 +7919,7 @@
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:19" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A283" s="11"/>
       <c r="B283" s="11" t="s">
         <v>443</v>
@@ -7943,7 +7946,7 @@
       <c r="R283" s="11"/>
       <c r="S283" s="11"/>
     </row>
-    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B284" s="11" t="s">
         <v>444</v>
       </c>
@@ -7954,7 +7957,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B285" s="11" t="s">
         <v>445</v>
       </c>
@@ -7965,7 +7968,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A286" s="13"/>
       <c r="B286" s="11" t="s">
         <v>446</v>
@@ -7978,7 +7981,7 @@
       </c>
       <c r="R286" s="14"/>
     </row>
-    <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B287" s="11" t="s">
         <v>447</v>
       </c>
@@ -7989,7 +7992,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B288" s="11" t="s">
         <v>448</v>
       </c>
@@ -8000,7 +8003,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B289" s="11" t="s">
         <v>449</v>
       </c>
@@ -8011,7 +8014,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B290" s="11" t="s">
         <v>450</v>
       </c>
@@ -8023,7 +8026,7 @@
       </c>
       <c r="Q290" s="13"/>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B291" s="11" t="s">
         <v>451</v>
       </c>
@@ -8035,7 +8038,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B292" s="11" t="s">
         <v>506</v>
       </c>
@@ -8043,7 +8046,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B293" s="11" t="s">
         <v>452</v>
       </c>
@@ -8054,7 +8057,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A294" s="13"/>
       <c r="B294" s="11" t="s">
         <v>453</v>
@@ -8068,7 +8071,7 @@
       <c r="Q294" s="13"/>
       <c r="R294" s="14"/>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B295" s="16" t="s">
         <v>293</v>
       </c>
@@ -8094,7 +8097,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B296" s="11" t="s">
         <v>454</v>
       </c>
@@ -8106,7 +8109,7 @@
       </c>
       <c r="Q296" s="13"/>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B297" s="12" t="s">
         <v>70</v>
       </c>
@@ -8134,7 +8137,7 @@
       <c r="P297" s="12"/>
       <c r="Q297" s="13"/>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A298" s="13"/>
       <c r="B298" s="11" t="s">
         <v>455</v>
@@ -8148,7 +8151,7 @@
       <c r="Q298" s="13"/>
       <c r="R298" s="14"/>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>456</v>
@@ -8162,7 +8165,7 @@
       <c r="Q299" s="13"/>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
         <v>457</v>
@@ -8176,7 +8179,7 @@
       <c r="Q300" s="13"/>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A301" s="13"/>
       <c r="B301" s="11" t="s">
         <v>458</v>
@@ -8189,7 +8192,7 @@
       </c>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A302" s="13"/>
       <c r="B302" s="11" t="s">
         <v>459</v>
@@ -8202,7 +8205,7 @@
       </c>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A303" s="13"/>
       <c r="B303" s="11" t="s">
         <v>460</v>
@@ -8215,7 +8218,7 @@
       </c>
       <c r="R303" s="14"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B304" s="11" t="s">
         <v>461</v>
       </c>
@@ -8227,7 +8230,7 @@
       </c>
       <c r="Q304" s="12"/>
     </row>
-    <row r="305" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B305" s="11" t="s">
         <v>462</v>
       </c>
@@ -8238,7 +8241,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="306" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B306" s="11" t="s">
         <v>463</v>
       </c>
@@ -8249,7 +8252,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="307" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A307" s="12" t="s">
         <v>71</v>
       </c>
@@ -8264,7 +8267,7 @@
       </c>
       <c r="R307" s="12"/>
     </row>
-    <row r="308" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A308" s="12"/>
       <c r="B308" s="11" t="s">
         <v>522</v>
@@ -8283,167 +8286,169 @@
       </c>
       <c r="R308" s="12"/>
     </row>
-    <row r="309" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="11" t="s">
+    <row r="309" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B309" s="17" t="s">
+        <v>526</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H309" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L309" s="15"/>
+      <c r="P309" s="17">
+        <v>1</v>
+      </c>
+      <c r="R309" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T309" s="15"/>
+    </row>
+    <row r="310" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B310" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="F309" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P309" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="310" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="13" t="s">
+      <c r="F310" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P310" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="311" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B311" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F310" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P310" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="311" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="13" t="s">
+      <c r="F311" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P311" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="312" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B312" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F311" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P311" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="312" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="13" t="s">
+      <c r="F312" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P312" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="313" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B313" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F312" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I312" s="11" t="s">
+      <c r="F313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I313" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="P312" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="313" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="11" t="s">
+      <c r="P313" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B314" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="F313" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P313" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="314" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B314" s="11" t="s">
+      <c r="F314" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P314" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B315" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F314" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P314" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="315" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B315" s="11" t="s">
+      <c r="F315" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P315" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B316" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F315" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P315" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q315" s="13"/>
-    </row>
-    <row r="316" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B316" s="14"/>
+      <c r="F316" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="P316" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="317" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q316" s="13"/>
+    </row>
+    <row r="317" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B317" s="14"/>
-      <c r="F317" s="12"/>
-      <c r="G317" s="12"/>
-      <c r="H317" s="14"/>
-      <c r="I317" s="12"/>
-      <c r="J317" s="12"/>
-      <c r="K317" s="12"/>
-      <c r="L317" s="12">
-        <v>1</v>
-      </c>
-      <c r="M317" s="12"/>
-      <c r="N317" s="12"/>
-      <c r="O317" s="12"/>
-      <c r="P317" s="12"/>
-    </row>
-    <row r="318" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P317" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B318" s="14"/>
-      <c r="P318" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="319" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F318" s="12"/>
+      <c r="G318" s="12"/>
+      <c r="H318" s="14"/>
+      <c r="I318" s="12"/>
+      <c r="J318" s="12"/>
+      <c r="K318" s="12"/>
+      <c r="L318" s="12">
+        <v>1</v>
+      </c>
+      <c r="M318" s="12"/>
+      <c r="N318" s="12"/>
+      <c r="O318" s="12"/>
+      <c r="P318" s="12"/>
+    </row>
+    <row r="319" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B319" s="14"/>
       <c r="P319" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="320" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B320" s="14"/>
       <c r="P320" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B321" s="14"/>
-      <c r="D321" s="12"/>
-      <c r="E321" s="12"/>
-      <c r="F321" s="12"/>
-      <c r="G321" s="12"/>
-      <c r="H321" s="12"/>
-      <c r="I321" s="12"/>
-      <c r="J321" s="12"/>
-      <c r="K321" s="12"/>
-      <c r="L321" s="12"/>
-      <c r="M321" s="12"/>
-      <c r="N321" s="12"/>
-      <c r="O321" s="12"/>
-      <c r="P321" s="12"/>
-    </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P321" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B322" s="14"/>
-      <c r="P322" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="D322" s="12"/>
+      <c r="E322" s="12"/>
+      <c r="F322" s="12"/>
+      <c r="G322" s="12"/>
+      <c r="H322" s="12"/>
+      <c r="I322" s="12"/>
+      <c r="J322" s="12"/>
+      <c r="K322" s="12"/>
+      <c r="L322" s="12"/>
+      <c r="M322" s="12"/>
+      <c r="N322" s="12"/>
+      <c r="O322" s="12"/>
+      <c r="P322" s="12"/>
+    </row>
+    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B323" s="14"/>
-      <c r="C323" s="12"/>
-      <c r="D323" s="12"/>
-      <c r="E323" s="12"/>
-      <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
-      <c r="M323" s="12"/>
-      <c r="N323" s="12"/>
-      <c r="O323" s="12"/>
-      <c r="P323" s="12"/>
-    </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P323" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B324" s="14"/>
       <c r="C324" s="12"/>
       <c r="D324" s="12"/>
@@ -8460,61 +8465,61 @@
       <c r="O324" s="12"/>
       <c r="P324" s="12"/>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="14"/>
-      <c r="Q325" s="12"/>
-    </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C325" s="12"/>
+      <c r="D325" s="12"/>
+      <c r="E325" s="12"/>
+      <c r="F325" s="12"/>
+      <c r="G325" s="12"/>
+      <c r="H325" s="12"/>
+      <c r="I325" s="12"/>
+      <c r="J325" s="12"/>
+      <c r="K325" s="12"/>
+      <c r="L325" s="12"/>
+      <c r="M325" s="12"/>
+      <c r="N325" s="12"/>
+      <c r="O325" s="12"/>
+      <c r="P325" s="12"/>
+    </row>
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="14"/>
-    </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q326" s="12"/>
+    </row>
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="14"/>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="14"/>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B329" s="14"/>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A334" s="14"/>
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B334" s="14"/>
-      <c r="R334" s="12"/>
-    </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A335" s="14"/>
       <c r="B335" s="14"/>
-      <c r="Q335" s="12"/>
-    </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R335" s="12"/>
+    </row>
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B336" s="14"/>
-      <c r="C336" s="12"/>
-      <c r="D336" s="12"/>
-      <c r="E336" s="12"/>
-      <c r="F336" s="12"/>
-      <c r="G336" s="12"/>
-      <c r="H336" s="12"/>
-      <c r="I336" s="12"/>
-      <c r="J336" s="12"/>
-      <c r="K336" s="12"/>
-      <c r="L336" s="12"/>
-      <c r="M336" s="12"/>
-      <c r="N336" s="12"/>
-      <c r="O336" s="12"/>
-      <c r="P336" s="12"/>
-    </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q336" s="12"/>
+    </row>
+    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="14"/>
       <c r="C337" s="12"/>
       <c r="D337" s="12"/>
@@ -8530,10 +8535,8 @@
       <c r="N337" s="12"/>
       <c r="O337" s="12"/>
       <c r="P337" s="12"/>
-      <c r="Q337" s="12"/>
-    </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A338" s="12"/>
+    </row>
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="14"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
@@ -8550,9 +8553,9 @@
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
       <c r="Q338" s="12"/>
-      <c r="R338" s="12"/>
-    </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A339" s="12"/>
       <c r="B339" s="14"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
@@ -8569,15 +8572,34 @@
       <c r="O339" s="12"/>
       <c r="P339" s="12"/>
       <c r="Q339" s="12"/>
-    </row>
-    <row r="340" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="R339" s="12"/>
+    </row>
+    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B340" s="14"/>
+      <c r="C340" s="12"/>
+      <c r="D340" s="12"/>
+      <c r="E340" s="12"/>
+      <c r="F340" s="12"/>
+      <c r="G340" s="12"/>
+      <c r="H340" s="12"/>
+      <c r="I340" s="12"/>
+      <c r="J340" s="12"/>
+      <c r="K340" s="12"/>
+      <c r="L340" s="12"/>
+      <c r="M340" s="12"/>
+      <c r="N340" s="12"/>
+      <c r="O340" s="12"/>
+      <c r="P340" s="12"/>
+      <c r="Q340" s="12"/>
+    </row>
+    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B341" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2822">
-    <sortCondition ref="F2:F2822"/>
-    <sortCondition descending="1" ref="N2:N2822"/>
-    <sortCondition ref="B2:B2822"/>
+  <sortState ref="A2:S2823">
+    <sortCondition ref="F2:F2823"/>
+    <sortCondition descending="1" ref="N2:N2823"/>
+    <sortCondition ref="B2:B2823"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="G179" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -8595,16 +8617,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -8618,7 +8640,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8629,7 +8651,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8640,7 +8662,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8654,7 +8676,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -8665,7 +8687,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -8679,7 +8701,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -8690,7 +8712,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -8701,7 +8723,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -8712,7 +8734,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -8723,7 +8745,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -8734,7 +8756,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -8745,7 +8767,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -8756,7 +8778,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -8767,7 +8789,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>150</v>
       </c>
@@ -8778,7 +8800,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
@@ -8789,7 +8811,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
@@ -8800,7 +8822,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="5" t="s">
         <v>153</v>
       </c>
@@ -8811,7 +8833,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>495</v>
       </c>
@@ -8836,22 +8858,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.26953125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.26953125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.26953125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.26953125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.26953125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8889,7 +8911,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8903,7 +8925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -8917,7 +8939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -8934,7 +8956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -8945,7 +8967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -8959,7 +8981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -8976,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -8990,7 +9012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9007,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -9034,7 +9056,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9049,12 +9071,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="43.26953125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -9089,7 +9111,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9100,7 +9122,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9117,7 +9139,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9134,7 +9156,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9151,7 +9173,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9168,7 +9190,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9185,7 +9207,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9202,7 +9224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9219,7 +9241,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9236,7 +9258,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9253,7 +9275,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9279,7 +9301,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9305,7 +9327,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9331,7 +9353,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9357,7 +9379,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9383,7 +9405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9409,7 +9431,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9435,7 +9457,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9461,7 +9483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9487,7 +9509,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9513,7 +9535,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9539,7 +9561,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9565,7 +9587,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9591,7 +9613,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9617,7 +9639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9643,7 +9665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9669,7 +9691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9695,7 +9717,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9721,7 +9743,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEFC81E4-7F36-8D4B-A6B7-E1CDE62E1835}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FC22D-5241-2F43-AEF6-B3A38FC1AF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10740" yWindow="5080" windowWidth="14260" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="529">
   <si>
     <t>ID</t>
   </si>
@@ -1610,6 +1610,12 @@
   </si>
   <si>
     <t>TV advertising</t>
+  </si>
+  <si>
+    <t>Advertising</t>
+  </si>
+  <si>
+    <t>Radio advertising</t>
   </si>
 </sst>
 </file>
@@ -2112,11 +2118,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T341"/>
+  <dimension ref="A1:T342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A298" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A309" sqref="A309:XFD309"/>
+      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B310" sqref="B310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8305,20 +8311,28 @@
       </c>
       <c r="T309" s="15"/>
     </row>
-    <row r="310" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B310" s="11" t="s">
+    <row r="310" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B310" s="17" t="s">
+        <v>528</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>527</v>
+      </c>
+      <c r="H310" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="L310" s="15"/>
+      <c r="P310" s="17">
+        <v>1</v>
+      </c>
+      <c r="R310" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T310" s="15"/>
+    </row>
+    <row r="311" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B311" s="11" t="s">
         <v>465</v>
-      </c>
-      <c r="F310" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P310" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="311" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B311" s="13" t="s">
-        <v>269</v>
       </c>
       <c r="F311" s="11" t="s">
         <v>5</v>
@@ -8329,7 +8343,7 @@
     </row>
     <row r="312" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B312" s="13" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="F312" s="11" t="s">
         <v>5</v>
@@ -8340,79 +8354,84 @@
     </row>
     <row r="313" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B313" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P313" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B314" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F313" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I313" s="11" t="s">
+      <c r="F314" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I314" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="P313" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="314" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B314" s="11" t="s">
+      <c r="P314" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B315" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="F314" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P314" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="315" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="B315" s="11" t="s">
+      <c r="F315" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P315" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="B316" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F315" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P315" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="316" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B316" s="11" t="s">
+      <c r="F316" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P316" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="B317" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F316" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P316" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q316" s="13"/>
-    </row>
-    <row r="317" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B317" s="14"/>
+      <c r="F317" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="P317" s="11" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="318" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Q317" s="13"/>
+    </row>
+    <row r="318" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B318" s="14"/>
-      <c r="F318" s="12"/>
-      <c r="G318" s="12"/>
-      <c r="H318" s="14"/>
-      <c r="I318" s="12"/>
-      <c r="J318" s="12"/>
-      <c r="K318" s="12"/>
-      <c r="L318" s="12">
-        <v>1</v>
-      </c>
-      <c r="M318" s="12"/>
-      <c r="N318" s="12"/>
-      <c r="O318" s="12"/>
-      <c r="P318" s="12"/>
-    </row>
-    <row r="319" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="P318" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B319" s="14"/>
-      <c r="P319" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="F319" s="12"/>
+      <c r="G319" s="12"/>
+      <c r="H319" s="14"/>
+      <c r="I319" s="12"/>
+      <c r="J319" s="12"/>
+      <c r="K319" s="12"/>
+      <c r="L319" s="12">
+        <v>1</v>
+      </c>
+      <c r="M319" s="12"/>
+      <c r="N319" s="12"/>
+      <c r="O319" s="12"/>
+      <c r="P319" s="12"/>
     </row>
     <row r="320" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B320" s="14"/>
@@ -8426,44 +8445,33 @@
         <v>154</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B322" s="14"/>
-      <c r="D322" s="12"/>
-      <c r="E322" s="12"/>
-      <c r="F322" s="12"/>
-      <c r="G322" s="12"/>
-      <c r="H322" s="12"/>
-      <c r="I322" s="12"/>
-      <c r="J322" s="12"/>
-      <c r="K322" s="12"/>
-      <c r="L322" s="12"/>
-      <c r="M322" s="12"/>
-      <c r="N322" s="12"/>
-      <c r="O322" s="12"/>
-      <c r="P322" s="12"/>
-    </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="P322" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B323" s="14"/>
-      <c r="P323" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D323" s="12"/>
+      <c r="E323" s="12"/>
+      <c r="F323" s="12"/>
+      <c r="G323" s="12"/>
+      <c r="H323" s="12"/>
+      <c r="I323" s="12"/>
+      <c r="J323" s="12"/>
+      <c r="K323" s="12"/>
+      <c r="L323" s="12"/>
+      <c r="M323" s="12"/>
+      <c r="N323" s="12"/>
+      <c r="O323" s="12"/>
+      <c r="P323" s="12"/>
+    </row>
+    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B324" s="14"/>
-      <c r="C324" s="12"/>
-      <c r="D324" s="12"/>
-      <c r="E324" s="12"/>
-      <c r="F324" s="12"/>
-      <c r="G324" s="12"/>
-      <c r="H324" s="12"/>
-      <c r="I324" s="12"/>
-      <c r="J324" s="12"/>
-      <c r="K324" s="12"/>
-      <c r="L324" s="12"/>
-      <c r="M324" s="12"/>
-      <c r="N324" s="12"/>
-      <c r="O324" s="12"/>
-      <c r="P324" s="12"/>
+      <c r="P324" s="11" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B325" s="14"/>
@@ -8484,10 +8492,24 @@
     </row>
     <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B326" s="14"/>
-      <c r="Q326" s="12"/>
+      <c r="C326" s="12"/>
+      <c r="D326" s="12"/>
+      <c r="E326" s="12"/>
+      <c r="F326" s="12"/>
+      <c r="G326" s="12"/>
+      <c r="H326" s="12"/>
+      <c r="I326" s="12"/>
+      <c r="J326" s="12"/>
+      <c r="K326" s="12"/>
+      <c r="L326" s="12"/>
+      <c r="M326" s="12"/>
+      <c r="N326" s="12"/>
+      <c r="O326" s="12"/>
+      <c r="P326" s="12"/>
     </row>
     <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B327" s="14"/>
+      <c r="Q327" s="12"/>
     </row>
     <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B328" s="14"/>
@@ -8511,30 +8533,16 @@
       <c r="B334" s="14"/>
     </row>
     <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A335" s="14"/>
       <c r="B335" s="14"/>
-      <c r="R335" s="12"/>
     </row>
     <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A336" s="14"/>
       <c r="B336" s="14"/>
-      <c r="Q336" s="12"/>
+      <c r="R336" s="12"/>
     </row>
     <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B337" s="14"/>
-      <c r="C337" s="12"/>
-      <c r="D337" s="12"/>
-      <c r="E337" s="12"/>
-      <c r="F337" s="12"/>
-      <c r="G337" s="12"/>
-      <c r="H337" s="12"/>
-      <c r="I337" s="12"/>
-      <c r="J337" s="12"/>
-      <c r="K337" s="12"/>
-      <c r="L337" s="12"/>
-      <c r="M337" s="12"/>
-      <c r="N337" s="12"/>
-      <c r="O337" s="12"/>
-      <c r="P337" s="12"/>
+      <c r="Q337" s="12"/>
     </row>
     <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B338" s="14"/>
@@ -8552,10 +8560,8 @@
       <c r="N338" s="12"/>
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
-      <c r="Q338" s="12"/>
     </row>
     <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A339" s="12"/>
       <c r="B339" s="14"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
@@ -8572,9 +8578,9 @@
       <c r="O339" s="12"/>
       <c r="P339" s="12"/>
       <c r="Q339" s="12"/>
-      <c r="R339" s="12"/>
     </row>
     <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A340" s="12"/>
       <c r="B340" s="14"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
@@ -8591,15 +8597,34 @@
       <c r="O340" s="12"/>
       <c r="P340" s="12"/>
       <c r="Q340" s="12"/>
-    </row>
-    <row r="341" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="R340" s="12"/>
+    </row>
+    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B341" s="14"/>
+      <c r="C341" s="12"/>
+      <c r="D341" s="12"/>
+      <c r="E341" s="12"/>
+      <c r="F341" s="12"/>
+      <c r="G341" s="12"/>
+      <c r="H341" s="12"/>
+      <c r="I341" s="12"/>
+      <c r="J341" s="12"/>
+      <c r="K341" s="12"/>
+      <c r="L341" s="12"/>
+      <c r="M341" s="12"/>
+      <c r="N341" s="12"/>
+      <c r="O341" s="12"/>
+      <c r="P341" s="12"/>
+      <c r="Q341" s="12"/>
+    </row>
+    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="B342" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2823">
-    <sortCondition ref="F2:F2823"/>
-    <sortCondition descending="1" ref="N2:N2823"/>
-    <sortCondition ref="B2:B2823"/>
+  <sortState ref="A2:S2824">
+    <sortCondition ref="F2:F2824"/>
+    <sortCondition descending="1" ref="N2:N2824"/>
+    <sortCondition ref="B2:B2824"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="G179" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68FC22D-5241-2F43-AEF6-B3A38FC1AF5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0DA97-C9F1-4195-8CED-12625B1F8E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10740" yWindow="5080" windowWidth="14260" windowHeight="9940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1368" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="530">
   <si>
     <t>ID</t>
   </si>
@@ -1616,13 +1616,16 @@
   </si>
   <si>
     <t>Radio advertising</t>
+  </si>
+  <si>
+    <t>An action specification that an organisation produces that includes rules and regulations concerning activities of agents under the organisation's jurisdiction.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1700,6 +1703,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1722,7 +1732,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1781,6 +1791,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2121,34 +2140,34 @@
   <dimension ref="A1:T342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A308" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B310" sqref="B310"/>
+      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="12" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="12"/>
-    <col min="13" max="13" width="18.5" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" style="12"/>
-    <col min="16" max="16" width="13.5" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.1640625" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.6640625" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="12"/>
+    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.36328125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
+    <col min="10" max="10" width="29.6328125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1796875" style="12"/>
+    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1796875" style="12"/>
+    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.6328125" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.6328125" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2204,7 +2223,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B2" s="13" t="s">
         <v>155</v>
       </c>
@@ -2230,7 +2249,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B3" s="13" t="s">
         <v>156</v>
       </c>
@@ -2256,7 +2275,7 @@
       </c>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B4" s="13" t="s">
         <v>157</v>
       </c>
@@ -2284,7 +2303,7 @@
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B5" s="13" t="s">
         <v>159</v>
       </c>
@@ -2310,7 +2329,7 @@
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B6" s="13" t="s">
         <v>160</v>
       </c>
@@ -2336,7 +2355,7 @@
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="13" t="s">
         <v>161</v>
       </c>
@@ -2364,7 +2383,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>163</v>
@@ -2393,7 +2412,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
@@ -2418,7 +2437,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>165</v>
@@ -2446,7 +2465,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B11" s="13" t="s">
         <v>166</v>
       </c>
@@ -2471,7 +2490,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B12" s="13" t="s">
         <v>167</v>
       </c>
@@ -2496,7 +2515,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
         <v>168</v>
@@ -2524,7 +2543,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
         <v>169</v>
@@ -2552,7 +2571,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B15" s="13" t="s">
         <v>170</v>
       </c>
@@ -2577,7 +2596,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>171</v>
@@ -2605,7 +2624,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="13" t="s">
         <v>172</v>
       </c>
@@ -2630,7 +2649,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>173</v>
@@ -2658,7 +2677,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B19" s="13" t="s">
         <v>174</v>
       </c>
@@ -2683,7 +2702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
         <v>175</v>
@@ -2711,7 +2730,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B21" s="13" t="s">
         <v>176</v>
       </c>
@@ -2736,7 +2755,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B22" s="13" t="s">
         <v>177</v>
       </c>
@@ -2761,7 +2780,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>178</v>
@@ -2789,7 +2808,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
         <v>179</v>
@@ -2817,7 +2836,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>180</v>
@@ -2845,7 +2864,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>181</v>
@@ -2873,7 +2892,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B27" s="13" t="s">
         <v>182</v>
       </c>
@@ -2898,7 +2917,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B28" s="13" t="s">
         <v>183</v>
       </c>
@@ -2923,7 +2942,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>184</v>
@@ -2951,7 +2970,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="208" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="203" x14ac:dyDescent="0.35">
       <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
@@ -2986,7 +3005,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B31" s="13" t="s">
         <v>188</v>
       </c>
@@ -3011,7 +3030,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B32" s="13" t="s">
         <v>189</v>
       </c>
@@ -3040,7 +3059,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" ht="96" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
       <c r="B33" s="13" t="s">
         <v>192</v>
       </c>
@@ -3069,7 +3088,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B34" s="13" t="s">
         <v>195</v>
       </c>
@@ -3098,7 +3117,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>198</v>
@@ -3126,7 +3145,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>199</v>
@@ -3154,7 +3173,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>200</v>
@@ -3182,7 +3201,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>201</v>
@@ -3210,7 +3229,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
         <v>202</v>
@@ -3238,7 +3257,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>203</v>
@@ -3266,7 +3285,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>204</v>
@@ -3294,7 +3313,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>205</v>
@@ -3322,7 +3341,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
         <v>206</v>
@@ -3350,7 +3369,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" ht="28" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:18" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
         <v>147</v>
       </c>
@@ -3382,7 +3401,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
         <v>207</v>
@@ -3410,7 +3429,7 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
         <v>208</v>
@@ -3438,7 +3457,7 @@
       <c r="Q46" s="12"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
         <v>209</v>
@@ -3466,7 +3485,7 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B48" s="13" t="s">
         <v>210</v>
       </c>
@@ -3492,7 +3511,7 @@
       </c>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B49" s="13" t="s">
         <v>211</v>
       </c>
@@ -3518,7 +3537,7 @@
       </c>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B50" s="13" t="s">
         <v>212</v>
       </c>
@@ -3543,7 +3562,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B51" s="13" t="s">
         <v>213</v>
       </c>
@@ -3568,7 +3587,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
         <v>139</v>
@@ -3596,7 +3615,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A53" s="12"/>
       <c r="B53" s="13" t="s">
         <v>214</v>
@@ -3623,7 +3642,7 @@
       </c>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B54" s="13" t="s">
         <v>215</v>
       </c>
@@ -3648,7 +3667,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B55" s="13" t="s">
         <v>216</v>
       </c>
@@ -3674,7 +3693,7 @@
       </c>
       <c r="Q55" s="12"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="56" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>508</v>
       </c>
@@ -3705,7 +3724,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B57" s="13" t="s">
         <v>511</v>
       </c>
@@ -3737,7 +3756,7 @@
       </c>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B58" s="13" t="s">
         <v>217</v>
       </c>
@@ -3763,7 +3782,7 @@
       </c>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
         <v>218</v>
@@ -3790,7 +3809,7 @@
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
         <v>219</v>
@@ -3817,7 +3836,7 @@
       </c>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
         <v>220</v>
@@ -3844,7 +3863,7 @@
       </c>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B62" s="13" t="s">
         <v>221</v>
       </c>
@@ -3869,7 +3888,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B63" s="13" t="s">
         <v>222</v>
       </c>
@@ -3894,33 +3913,37 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
-      <c r="B64" s="13" t="s">
+    <row r="64" spans="1:18" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B64" s="21" t="s">
         <v>223</v>
       </c>
-      <c r="C64" s="13"/>
-      <c r="D64" s="13"/>
-      <c r="E64" s="13"/>
-      <c r="F64" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G64" s="13"/>
-      <c r="H64" s="13"/>
-      <c r="I64" s="13"/>
-      <c r="J64" s="14"/>
-      <c r="K64" s="13"/>
-      <c r="L64" s="13"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13">
-        <v>1</v>
-      </c>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q64" s="12"/>
-    </row>
-    <row r="65" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+      <c r="C64" s="21" t="s">
+        <v>529</v>
+      </c>
+      <c r="D64" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="21"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21">
+        <v>1</v>
+      </c>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q64" s="23"/>
+    </row>
+    <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B65" s="13" t="s">
         <v>224</v>
       </c>
@@ -3945,7 +3968,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B66" s="13" t="s">
         <v>225</v>
       </c>
@@ -3971,7 +3994,7 @@
       </c>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
         <v>226</v>
@@ -3999,7 +4022,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:19" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="13" t="s">
         <v>227</v>
@@ -4028,7 +4051,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
         <v>228</v>
@@ -4056,7 +4079,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>229</v>
@@ -4084,7 +4107,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
         <v>230</v>
@@ -4112,7 +4135,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
         <v>518</v>
@@ -4146,7 +4169,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>513</v>
@@ -4176,7 +4199,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
         <v>514</v>
@@ -4206,7 +4229,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
         <v>231</v>
@@ -4233,7 +4256,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
         <v>232</v>
@@ -4260,7 +4283,7 @@
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B77" s="13" t="s">
         <v>233</v>
       </c>
@@ -4285,7 +4308,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B78" s="13" t="s">
         <v>234</v>
       </c>
@@ -4311,7 +4334,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B79" s="13" t="s">
         <v>235</v>
       </c>
@@ -4337,7 +4360,7 @@
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
         <v>236</v>
@@ -4364,7 +4387,7 @@
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B81" s="13" t="s">
         <v>237</v>
       </c>
@@ -4391,7 +4414,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
         <v>239</v>
@@ -4419,7 +4442,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
         <v>240</v>
@@ -4447,7 +4470,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B84" s="13" t="s">
         <v>241</v>
       </c>
@@ -4475,7 +4498,7 @@
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B85" s="13" t="s">
         <v>243</v>
       </c>
@@ -4506,7 +4529,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>425</v>
@@ -4533,7 +4556,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B87" s="13" t="s">
         <v>247</v>
       </c>
@@ -4558,7 +4581,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B88" s="13" t="s">
         <v>248</v>
       </c>
@@ -4585,7 +4608,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
         <v>250</v>
@@ -4614,7 +4637,7 @@
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B90" s="13" t="s">
         <v>252</v>
       </c>
@@ -4639,7 +4662,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B91" s="13" t="s">
         <v>253</v>
       </c>
@@ -4665,7 +4688,7 @@
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B92" s="13" t="s">
         <v>254</v>
       </c>
@@ -4691,7 +4714,7 @@
       </c>
       <c r="Q92" s="13"/>
     </row>
-    <row r="93" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B93" s="13" t="s">
         <v>255</v>
       </c>
@@ -4717,7 +4740,7 @@
       </c>
       <c r="Q93" s="13"/>
     </row>
-    <row r="94" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A94" s="13"/>
       <c r="B94" s="13" t="s">
         <v>256</v>
@@ -4746,7 +4769,7 @@
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B95" s="13" t="s">
         <v>258</v>
       </c>
@@ -4771,7 +4794,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B96" s="13" t="s">
         <v>259</v>
       </c>
@@ -4796,7 +4819,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B97" s="13" t="s">
         <v>260</v>
       </c>
@@ -4821,7 +4844,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B98" s="13" t="s">
         <v>261</v>
       </c>
@@ -4846,7 +4869,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B99" s="13" t="s">
         <v>262</v>
       </c>
@@ -4871,7 +4894,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
         <v>263</v>
@@ -4899,7 +4922,7 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B101" s="13" t="s">
         <v>264</v>
       </c>
@@ -4925,7 +4948,7 @@
       </c>
       <c r="Q101" s="13"/>
     </row>
-    <row r="102" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A102" s="13"/>
       <c r="B102" s="13" t="s">
         <v>265</v>
@@ -4952,7 +4975,7 @@
       </c>
       <c r="R102" s="14"/>
     </row>
-    <row r="103" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
         <v>266</v>
@@ -4979,7 +5002,7 @@
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A104" s="13"/>
       <c r="B104" s="13" t="s">
         <v>267</v>
@@ -5006,7 +5029,7 @@
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B105" s="13" t="s">
         <v>268</v>
       </c>
@@ -5031,7 +5054,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="106" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B106" s="11" t="s">
         <v>466</v>
       </c>
@@ -5056,7 +5079,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B107" s="13" t="s">
         <v>271</v>
       </c>
@@ -5081,7 +5104,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B108" s="11" t="s">
         <v>467</v>
       </c>
@@ -5106,7 +5129,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B109" s="11" t="s">
         <v>468</v>
       </c>
@@ -5131,7 +5154,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A110" s="12"/>
       <c r="B110" s="11" t="s">
         <v>295</v>
@@ -5155,7 +5178,7 @@
       <c r="R110" s="12"/>
       <c r="S110" s="12"/>
     </row>
-    <row r="111" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B111" s="11" t="s">
         <v>496</v>
       </c>
@@ -5181,7 +5204,7 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A112" s="12"/>
       <c r="B112" s="11" t="s">
         <v>341</v>
@@ -5205,7 +5228,7 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A113" s="12"/>
       <c r="B113" s="11" t="s">
         <v>299</v>
@@ -5223,7 +5246,7 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
       <c r="B114" s="12" t="s">
         <v>79</v>
       </c>
@@ -5255,7 +5278,7 @@
       <c r="P114" s="12"/>
       <c r="S114" s="13"/>
     </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B115" s="11" t="s">
         <v>301</v>
       </c>
@@ -5267,7 +5290,7 @@
       </c>
       <c r="S115" s="13"/>
     </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B116" s="12" t="s">
         <v>75</v>
       </c>
@@ -5297,7 +5320,7 @@
       <c r="P116" s="12"/>
       <c r="S116" s="13"/>
     </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A117" s="13"/>
       <c r="B117" s="12" t="s">
         <v>91</v>
@@ -5330,7 +5353,7 @@
       <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
         <v>302</v>
@@ -5345,7 +5368,7 @@
       <c r="R118" s="12"/>
       <c r="S118" s="13"/>
     </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A119" s="13"/>
       <c r="B119" s="12" t="s">
         <v>80</v>
@@ -5378,7 +5401,7 @@
       <c r="R119" s="14"/>
       <c r="S119" s="13"/>
     </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B120" s="11" t="s">
         <v>303</v>
       </c>
@@ -5390,7 +5413,7 @@
       </c>
       <c r="S120" s="13"/>
     </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A121" s="12"/>
       <c r="B121" s="11" t="s">
         <v>304</v>
@@ -5405,7 +5428,7 @@
       <c r="R121" s="12"/>
       <c r="S121" s="13"/>
     </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B122" s="11" t="s">
         <v>305</v>
       </c>
@@ -5417,7 +5440,7 @@
       </c>
       <c r="S122" s="13"/>
     </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A123" s="12"/>
       <c r="B123" s="11" t="s">
         <v>306</v>
@@ -5432,7 +5455,7 @@
       <c r="R123" s="12"/>
       <c r="S123" s="13"/>
     </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B124" s="11" t="s">
         <v>307</v>
       </c>
@@ -5444,7 +5467,7 @@
       </c>
       <c r="S124" s="13"/>
     </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A125" s="12"/>
       <c r="B125" s="11" t="s">
         <v>308</v>
@@ -5459,7 +5482,7 @@
       <c r="R125" s="12"/>
       <c r="S125" s="13"/>
     </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B126" s="11" t="s">
         <v>309</v>
       </c>
@@ -5471,7 +5494,7 @@
       </c>
       <c r="S126" s="13"/>
     </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B127" s="11" t="s">
         <v>310</v>
       </c>
@@ -5483,7 +5506,7 @@
       </c>
       <c r="S127" s="13"/>
     </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B128" s="11" t="s">
         <v>311</v>
       </c>
@@ -5495,7 +5518,7 @@
       </c>
       <c r="S128" s="13"/>
     </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B129" s="11" t="s">
         <v>312</v>
       </c>
@@ -5507,7 +5530,7 @@
       </c>
       <c r="S129" s="13"/>
     </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B130" s="11" t="s">
         <v>313</v>
       </c>
@@ -5519,7 +5542,7 @@
       </c>
       <c r="S130" s="13"/>
     </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A131" s="13"/>
       <c r="B131" s="11" t="s">
         <v>314</v>
@@ -5534,7 +5557,7 @@
       <c r="R131" s="14"/>
       <c r="S131" s="13"/>
     </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B132" s="11" t="s">
         <v>315</v>
       </c>
@@ -5546,7 +5569,7 @@
       </c>
       <c r="S132" s="13"/>
     </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B133" s="11" t="s">
         <v>316</v>
       </c>
@@ -5558,7 +5581,7 @@
       </c>
       <c r="S133" s="13"/>
     </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B134" s="11" t="s">
         <v>317</v>
       </c>
@@ -5570,7 +5593,7 @@
       </c>
       <c r="S134" s="13"/>
     </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B135" s="11" t="s">
         <v>318</v>
       </c>
@@ -5582,7 +5605,7 @@
       </c>
       <c r="S135" s="13"/>
     </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B136" s="11" t="s">
         <v>319</v>
       </c>
@@ -5594,7 +5617,7 @@
       </c>
       <c r="S136" s="13"/>
     </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B137" s="11" t="s">
         <v>320</v>
       </c>
@@ -5606,7 +5629,7 @@
       </c>
       <c r="S137" s="13"/>
     </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A138" s="13"/>
       <c r="B138" s="11" t="s">
         <v>321</v>
@@ -5621,7 +5644,7 @@
       <c r="R138" s="14"/>
       <c r="S138" s="13"/>
     </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B139" s="11" t="s">
         <v>322</v>
       </c>
@@ -5633,7 +5656,7 @@
       </c>
       <c r="S139" s="13"/>
     </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B140" s="11" t="s">
         <v>323</v>
       </c>
@@ -5645,7 +5668,7 @@
       </c>
       <c r="S140" s="13"/>
     </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B141" s="11" t="s">
         <v>324</v>
       </c>
@@ -5657,7 +5680,7 @@
       </c>
       <c r="S141" s="13"/>
     </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B142" s="11" t="s">
         <v>325</v>
       </c>
@@ -5669,7 +5692,7 @@
       </c>
       <c r="S142" s="13"/>
     </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B143" s="11" t="s">
         <v>326</v>
       </c>
@@ -5681,7 +5704,7 @@
       </c>
       <c r="S143" s="13"/>
     </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B144" s="11" t="s">
         <v>327</v>
       </c>
@@ -5693,7 +5716,7 @@
       </c>
       <c r="S144" s="13"/>
     </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B145" s="11" t="s">
         <v>328</v>
       </c>
@@ -5705,7 +5728,7 @@
       </c>
       <c r="S145" s="13"/>
     </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B146" s="11" t="s">
         <v>329</v>
       </c>
@@ -5717,7 +5740,7 @@
       </c>
       <c r="S146" s="13"/>
     </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B147" s="11" t="s">
         <v>330</v>
       </c>
@@ -5729,7 +5752,7 @@
       </c>
       <c r="S147" s="13"/>
     </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B148" s="12" t="s">
         <v>66</v>
       </c>
@@ -5757,7 +5780,7 @@
       <c r="P148" s="12"/>
       <c r="S148" s="13"/>
     </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A149" s="13"/>
       <c r="B149" s="11" t="s">
         <v>331</v>
@@ -5772,7 +5795,7 @@
       <c r="R149" s="14"/>
       <c r="S149" s="13"/>
     </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B150" s="11" t="s">
         <v>332</v>
       </c>
@@ -5784,7 +5807,7 @@
       </c>
       <c r="S150" s="13"/>
     </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B151" s="12" t="s">
         <v>130</v>
       </c>
@@ -5812,7 +5835,7 @@
       <c r="P151" s="12"/>
       <c r="S151" s="13"/>
     </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B152" s="11" t="s">
         <v>333</v>
       </c>
@@ -5824,7 +5847,7 @@
       </c>
       <c r="S152" s="13"/>
     </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B153" s="16" t="s">
         <v>275</v>
       </c>
@@ -5851,7 +5874,7 @@
       </c>
       <c r="S153" s="13"/>
     </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A154" s="12"/>
       <c r="B154" s="11" t="s">
         <v>334</v>
@@ -5869,7 +5892,7 @@
       <c r="R154" s="12"/>
       <c r="S154" s="13"/>
     </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B155" s="11" t="s">
         <v>336</v>
       </c>
@@ -5881,7 +5904,7 @@
       </c>
       <c r="S155" s="13"/>
     </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B156" s="16" t="s">
         <v>474</v>
       </c>
@@ -5908,7 +5931,7 @@
       </c>
       <c r="S156" s="13"/>
     </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A157" s="12"/>
       <c r="B157" s="11" t="s">
         <v>337</v>
@@ -5923,7 +5946,7 @@
       <c r="R157" s="12"/>
       <c r="S157" s="13"/>
     </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B158" s="11" t="s">
         <v>338</v>
       </c>
@@ -5935,7 +5958,7 @@
       </c>
       <c r="S158" s="13"/>
     </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B159" s="11" t="s">
         <v>339</v>
       </c>
@@ -5956,7 +5979,7 @@
       </c>
       <c r="S159" s="13"/>
     </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B160" s="11" t="s">
         <v>342</v>
       </c>
@@ -5968,7 +5991,7 @@
       </c>
       <c r="S160" s="13"/>
     </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B161" s="11" t="s">
         <v>343</v>
       </c>
@@ -5980,7 +6003,7 @@
       </c>
       <c r="S161" s="13"/>
     </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B162" s="11" t="s">
         <v>344</v>
       </c>
@@ -5992,7 +6015,7 @@
       </c>
       <c r="S162" s="13"/>
     </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B163" s="11" t="s">
         <v>345</v>
       </c>
@@ -6004,7 +6027,7 @@
       </c>
       <c r="S163" s="13"/>
     </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B164" s="12" t="s">
         <v>62</v>
       </c>
@@ -6034,7 +6057,7 @@
       <c r="P164" s="12"/>
       <c r="S164" s="13"/>
     </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B165" s="11" t="s">
         <v>346</v>
       </c>
@@ -6046,7 +6069,7 @@
       </c>
       <c r="S165" s="13"/>
     </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B166" s="11" t="s">
         <v>347</v>
       </c>
@@ -6058,7 +6081,7 @@
       </c>
       <c r="S166" s="13"/>
     </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B167" s="11" t="s">
         <v>348</v>
       </c>
@@ -6070,7 +6093,7 @@
       </c>
       <c r="S167" s="13"/>
     </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B168" s="11" t="s">
         <v>349</v>
       </c>
@@ -6082,7 +6105,7 @@
       </c>
       <c r="S168" s="13"/>
     </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A169" s="12"/>
       <c r="B169" s="11" t="s">
         <v>350</v>
@@ -6097,7 +6120,7 @@
       <c r="R169" s="12"/>
       <c r="S169" s="13"/>
     </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B170" s="11" t="s">
         <v>351</v>
       </c>
@@ -6109,7 +6132,7 @@
       </c>
       <c r="S170" s="13"/>
     </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B171" s="11" t="s">
         <v>352</v>
       </c>
@@ -6121,7 +6144,7 @@
       </c>
       <c r="S171" s="13"/>
     </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B172" s="11" t="s">
         <v>353</v>
       </c>
@@ -6133,7 +6156,7 @@
       </c>
       <c r="S172" s="13"/>
     </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B173" s="11" t="s">
         <v>354</v>
       </c>
@@ -6154,7 +6177,7 @@
       </c>
       <c r="S173" s="13"/>
     </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B174" s="13" t="s">
         <v>273</v>
       </c>
@@ -6167,7 +6190,7 @@
       <c r="Q174" s="13"/>
       <c r="S174" s="13"/>
     </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A175" s="13"/>
       <c r="B175" s="11" t="s">
         <v>356</v>
@@ -6182,7 +6205,7 @@
       <c r="R175" s="14"/>
       <c r="S175" s="13"/>
     </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B176" s="12" t="s">
         <v>78</v>
       </c>
@@ -6210,7 +6233,7 @@
       <c r="P176" s="12"/>
       <c r="S176" s="13"/>
     </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B177" s="11" t="s">
         <v>357</v>
       </c>
@@ -6222,7 +6245,7 @@
       </c>
       <c r="S177" s="13"/>
     </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B178" s="11" t="s">
         <v>358</v>
       </c>
@@ -6233,7 +6256,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="B179" s="12" t="s">
         <v>131</v>
       </c>
@@ -6262,7 +6285,7 @@
       <c r="O179" s="12"/>
       <c r="P179" s="12"/>
     </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B180" s="11" t="s">
         <v>359</v>
       </c>
@@ -6273,7 +6296,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B181" s="11" t="s">
         <v>360</v>
       </c>
@@ -6284,7 +6307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A182" s="12"/>
       <c r="B182" s="11" t="s">
         <v>361</v>
@@ -6298,7 +6321,7 @@
       <c r="Q182" s="12"/>
       <c r="R182" s="12"/>
     </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B183" s="16" t="s">
         <v>279</v>
       </c>
@@ -6324,7 +6347,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B184" s="11" t="s">
         <v>362</v>
       </c>
@@ -6335,7 +6358,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B185" s="16" t="s">
         <v>281</v>
       </c>
@@ -6361,7 +6384,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A186" s="13"/>
       <c r="B186" s="11" t="s">
         <v>363</v>
@@ -6375,7 +6398,7 @@
       <c r="Q186" s="13"/>
       <c r="R186" s="14"/>
     </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A187" s="13"/>
       <c r="B187" s="11" t="s">
         <v>364</v>
@@ -6389,7 +6412,7 @@
       <c r="Q187" s="13"/>
       <c r="R187" s="14"/>
     </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B188" s="16" t="s">
         <v>473</v>
       </c>
@@ -6415,7 +6438,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B189" s="16" t="s">
         <v>283</v>
       </c>
@@ -6441,7 +6464,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A190" s="13"/>
       <c r="B190" s="11" t="s">
         <v>365</v>
@@ -6455,7 +6478,7 @@
       <c r="Q190" s="13"/>
       <c r="R190" s="14"/>
     </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B191" s="11" t="s">
         <v>366</v>
       </c>
@@ -6466,7 +6489,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B192" s="11" t="s">
         <v>367</v>
       </c>
@@ -6477,7 +6500,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A193" s="13"/>
       <c r="B193" s="16" t="s">
         <v>479</v>
@@ -6506,7 +6529,7 @@
       <c r="Q193" s="13"/>
       <c r="R193" s="14"/>
     </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B194" s="16" t="s">
         <v>493</v>
       </c>
@@ -6532,7 +6555,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B195" s="11" t="s">
         <v>368</v>
       </c>
@@ -6543,7 +6566,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A196" s="13"/>
       <c r="B196" s="11" t="s">
         <v>369</v>
@@ -6557,7 +6580,7 @@
       <c r="Q196" s="13"/>
       <c r="R196" s="14"/>
     </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A197" s="13"/>
       <c r="B197" s="11" t="s">
         <v>370</v>
@@ -6574,7 +6597,7 @@
       <c r="Q197" s="13"/>
       <c r="R197" s="14"/>
     </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A198" s="13"/>
       <c r="B198" s="11" t="s">
         <v>372</v>
@@ -6591,7 +6614,7 @@
       <c r="Q198" s="13"/>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A199" s="13"/>
       <c r="B199" s="16" t="s">
         <v>285</v>
@@ -6620,7 +6643,7 @@
       <c r="Q199" s="13"/>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B200" s="11" t="s">
         <v>374</v>
       </c>
@@ -6631,7 +6654,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B201" s="11" t="s">
         <v>375</v>
       </c>
@@ -6642,7 +6665,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A202" s="13"/>
       <c r="B202" s="11" t="s">
         <v>376</v>
@@ -6656,7 +6679,7 @@
       <c r="Q202" s="13"/>
       <c r="R202" s="14"/>
     </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A203" s="13"/>
       <c r="B203" s="11" t="s">
         <v>377</v>
@@ -6670,7 +6693,7 @@
       <c r="Q203" s="13"/>
       <c r="R203" s="14"/>
     </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A204" s="12"/>
       <c r="B204" s="11" t="s">
         <v>189</v>
@@ -6687,7 +6710,7 @@
       <c r="Q204" s="12"/>
       <c r="R204" s="12"/>
     </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A205" s="13"/>
       <c r="B205" s="12" t="s">
         <v>60</v>
@@ -6717,7 +6740,7 @@
       <c r="Q205" s="13"/>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A206" s="13"/>
       <c r="B206" s="12" t="s">
         <v>67</v>
@@ -6747,7 +6770,7 @@
       <c r="Q206" s="13"/>
       <c r="R206" s="14"/>
     </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A207" s="13"/>
       <c r="B207" s="11" t="s">
         <v>378</v>
@@ -6761,7 +6784,7 @@
       <c r="Q207" s="13"/>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A208" s="13"/>
       <c r="B208" s="12" t="s">
         <v>143</v>
@@ -6791,7 +6814,7 @@
       <c r="Q208" s="13"/>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A209" s="13"/>
       <c r="B209" s="11" t="s">
         <v>379</v>
@@ -6804,7 +6827,7 @@
       </c>
       <c r="R209" s="14"/>
     </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A210" s="12"/>
       <c r="B210" s="11" t="s">
         <v>380</v>
@@ -6817,7 +6840,7 @@
       </c>
       <c r="R210" s="12"/>
     </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A211" s="12"/>
       <c r="B211" s="11" t="s">
         <v>381</v>
@@ -6831,7 +6854,7 @@
       <c r="Q211" s="13"/>
       <c r="R211" s="12"/>
     </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A212" s="13"/>
       <c r="B212" s="11" t="s">
         <v>382</v>
@@ -6844,7 +6867,7 @@
       </c>
       <c r="R212" s="14"/>
     </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A213" s="13"/>
       <c r="B213" s="11" t="s">
         <v>383</v>
@@ -6858,7 +6881,7 @@
       <c r="Q213" s="13"/>
       <c r="R213" s="14"/>
     </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B214" s="11" t="s">
         <v>384</v>
       </c>
@@ -6870,7 +6893,7 @@
       </c>
       <c r="Q214" s="13"/>
     </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
         <v>385</v>
@@ -6883,7 +6906,7 @@
       </c>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A216" s="13"/>
       <c r="B216" s="11" t="s">
         <v>386</v>
@@ -6896,7 +6919,7 @@
       </c>
       <c r="R216" s="14"/>
     </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
         <v>387</v>
@@ -6909,7 +6932,7 @@
       </c>
       <c r="R217" s="14"/>
     </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B218" s="11" t="s">
         <v>388</v>
       </c>
@@ -6921,7 +6944,7 @@
       </c>
       <c r="Q218" s="13"/>
     </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B219" s="11" t="s">
         <v>389</v>
       </c>
@@ -6932,7 +6955,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A220" s="13"/>
       <c r="B220" s="12" t="s">
         <v>77</v>
@@ -6955,7 +6978,7 @@
       <c r="P220" s="12"/>
       <c r="R220" s="14"/>
     </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B221" s="16" t="s">
         <v>287</v>
       </c>
@@ -6981,7 +7004,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B222" s="11" t="s">
         <v>390</v>
       </c>
@@ -6992,7 +7015,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B223" s="11" t="s">
         <v>391</v>
       </c>
@@ -7003,7 +7026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B224" s="11" t="s">
         <v>392</v>
       </c>
@@ -7015,7 +7038,7 @@
       </c>
       <c r="Q224" s="13"/>
     </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B225" s="11" t="s">
         <v>393</v>
       </c>
@@ -7027,7 +7050,7 @@
       </c>
       <c r="Q225" s="12"/>
     </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B226" s="12" t="s">
         <v>138</v>
       </c>
@@ -7054,7 +7077,7 @@
       <c r="O226" s="12"/>
       <c r="P226" s="12"/>
     </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A227" s="13"/>
       <c r="B227" s="11" t="s">
         <v>394</v>
@@ -7070,7 +7093,7 @@
       </c>
       <c r="R227" s="14"/>
     </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B228" s="11" t="s">
         <v>396</v>
       </c>
@@ -7081,7 +7104,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A229" s="12"/>
       <c r="B229" s="11" t="s">
         <v>397</v>
@@ -7095,7 +7118,7 @@
       <c r="Q229" s="13"/>
       <c r="R229" s="12"/>
     </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A230" s="13"/>
       <c r="B230" s="11" t="s">
         <v>398</v>
@@ -7108,7 +7131,7 @@
       </c>
       <c r="R230" s="14"/>
     </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A231" s="13"/>
       <c r="B231" s="11" t="s">
         <v>399</v>
@@ -7122,7 +7145,7 @@
       <c r="Q231" s="13"/>
       <c r="R231" s="14"/>
     </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B232" s="11" t="s">
         <v>400</v>
       </c>
@@ -7134,7 +7157,7 @@
       </c>
       <c r="Q232" s="13"/>
     </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B233" s="11" t="s">
         <v>401</v>
       </c>
@@ -7146,7 +7169,7 @@
       </c>
       <c r="Q233" s="13"/>
     </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A234" s="13"/>
       <c r="B234" s="11" t="s">
         <v>402</v>
@@ -7159,7 +7182,7 @@
       </c>
       <c r="R234" s="14"/>
     </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A235" s="13"/>
       <c r="B235" s="12" t="s">
         <v>69</v>
@@ -7192,7 +7215,7 @@
       <c r="P235" s="12"/>
       <c r="R235" s="14"/>
     </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B236" s="12" t="s">
         <v>63</v>
       </c>
@@ -7213,7 +7236,7 @@
       <c r="O236" s="12"/>
       <c r="P236" s="12"/>
     </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A237" s="13"/>
       <c r="B237" s="12" t="s">
         <v>64</v>
@@ -7236,7 +7259,7 @@
       <c r="P237" s="12"/>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B238" s="12" t="s">
         <v>59</v>
       </c>
@@ -7263,7 +7286,7 @@
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B239" s="11" t="s">
         <v>403</v>
       </c>
@@ -7274,7 +7297,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B240" s="11" t="s">
         <v>404</v>
       </c>
@@ -7288,7 +7311,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B241" s="11" t="s">
         <v>406</v>
       </c>
@@ -7300,7 +7323,7 @@
       </c>
       <c r="Q241" s="12"/>
     </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B242" s="11" t="s">
         <v>407</v>
       </c>
@@ -7312,7 +7335,7 @@
       </c>
       <c r="Q242" s="12"/>
     </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B243" s="11" t="s">
         <v>408</v>
       </c>
@@ -7324,7 +7347,7 @@
       </c>
       <c r="Q243" s="12"/>
     </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A244" s="12"/>
       <c r="B244" s="12" t="s">
         <v>65</v>
@@ -7348,7 +7371,7 @@
       <c r="Q244" s="12"/>
       <c r="R244" s="12"/>
     </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A245" s="12"/>
       <c r="B245" s="16" t="s">
         <v>289</v>
@@ -7376,7 +7399,7 @@
       </c>
       <c r="R245" s="12"/>
     </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A246" s="13"/>
       <c r="B246" s="11" t="s">
         <v>409</v>
@@ -7390,7 +7413,7 @@
       <c r="Q246" s="13"/>
       <c r="R246" s="14"/>
     </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A247" s="13"/>
       <c r="B247" s="11" t="s">
         <v>410</v>
@@ -7404,7 +7427,7 @@
       <c r="Q247" s="13"/>
       <c r="R247" s="14"/>
     </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A248" s="13"/>
       <c r="B248" s="11" t="s">
         <v>411</v>
@@ -7418,7 +7441,7 @@
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
         <v>412</v>
@@ -7432,7 +7455,7 @@
       <c r="Q249" s="13"/>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A250" s="13"/>
       <c r="B250" s="11" t="s">
         <v>413</v>
@@ -7452,7 +7475,7 @@
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A251" s="13"/>
       <c r="B251" s="12" t="s">
         <v>83</v>
@@ -7484,7 +7507,7 @@
       <c r="Q251" s="13"/>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A252" s="13"/>
       <c r="B252" s="11" t="s">
         <v>416</v>
@@ -7498,7 +7521,7 @@
       <c r="Q252" s="13"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A253" s="13"/>
       <c r="B253" s="16" t="s">
         <v>238</v>
@@ -7527,7 +7550,7 @@
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A254" s="13"/>
       <c r="B254" s="11" t="s">
         <v>417</v>
@@ -7541,7 +7564,7 @@
       <c r="Q254" s="12"/>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B255" s="16" t="s">
         <v>291</v>
       </c>
@@ -7568,7 +7591,7 @@
       </c>
       <c r="Q255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A256" s="13"/>
       <c r="B256" s="12" t="s">
         <v>76</v>
@@ -7591,7 +7614,7 @@
       <c r="P256" s="12"/>
       <c r="R256" s="14"/>
     </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A257" s="12"/>
       <c r="B257" s="11" t="s">
         <v>418</v>
@@ -7604,7 +7627,7 @@
       </c>
       <c r="R257" s="12"/>
     </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B258" s="11" t="s">
         <v>419</v>
       </c>
@@ -7615,7 +7638,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A259" s="13"/>
       <c r="B259" s="11" t="s">
         <v>420</v>
@@ -7628,7 +7651,7 @@
       </c>
       <c r="R259" s="14"/>
     </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A260" s="13"/>
       <c r="B260" s="11" t="s">
         <v>421</v>
@@ -7642,7 +7665,7 @@
       <c r="Q260" s="12"/>
       <c r="R260" s="14"/>
     </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B261" s="11" t="s">
         <v>422</v>
       </c>
@@ -7654,7 +7677,7 @@
       </c>
       <c r="Q261" s="13"/>
     </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A262" s="12"/>
       <c r="B262" s="11" t="s">
         <v>423</v>
@@ -7668,7 +7691,7 @@
       <c r="Q262" s="13"/>
       <c r="R262" s="12"/>
     </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B263" s="11" t="s">
         <v>424</v>
       </c>
@@ -7679,7 +7702,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A264" s="13"/>
       <c r="B264" s="13" t="s">
         <v>246</v>
@@ -7692,7 +7715,7 @@
       </c>
       <c r="R264" s="14"/>
     </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B265" s="16" t="s">
         <v>476</v>
       </c>
@@ -7719,7 +7742,7 @@
       </c>
       <c r="Q265" s="13"/>
     </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B266" s="11" t="s">
         <v>426</v>
       </c>
@@ -7730,7 +7753,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B267" s="11" t="s">
         <v>427</v>
       </c>
@@ -7741,7 +7764,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A268" s="13"/>
       <c r="B268" s="11" t="s">
         <v>428</v>
@@ -7754,7 +7777,7 @@
       </c>
       <c r="R268" s="14"/>
     </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B269" s="11" t="s">
         <v>429</v>
       </c>
@@ -7765,7 +7788,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B270" s="11" t="s">
         <v>430</v>
       </c>
@@ -7777,7 +7800,7 @@
       </c>
       <c r="Q270" s="13"/>
     </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B271" s="11" t="s">
         <v>431</v>
       </c>
@@ -7788,7 +7811,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B272" s="11" t="s">
         <v>432</v>
       </c>
@@ -7799,7 +7822,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="273" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B273" s="11" t="s">
         <v>433</v>
       </c>
@@ -7810,7 +7833,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A274" s="13"/>
       <c r="B274" s="11" t="s">
         <v>434</v>
@@ -7824,7 +7847,7 @@
       <c r="Q274" s="13"/>
       <c r="R274" s="14"/>
     </row>
-    <row r="275" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A275" s="13"/>
       <c r="B275" s="11" t="s">
         <v>435</v>
@@ -7837,7 +7860,7 @@
       </c>
       <c r="R275" s="14"/>
     </row>
-    <row r="276" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A276" s="13"/>
       <c r="B276" s="11" t="s">
         <v>436</v>
@@ -7850,7 +7873,7 @@
       </c>
       <c r="R276" s="14"/>
     </row>
-    <row r="277" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B277" s="11" t="s">
         <v>437</v>
       </c>
@@ -7862,7 +7885,7 @@
       </c>
       <c r="Q277" s="13"/>
     </row>
-    <row r="278" spans="1:19" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B278" s="11" t="s">
         <v>438</v>
       </c>
@@ -7874,7 +7897,7 @@
       </c>
       <c r="Q278" s="13"/>
     </row>
-    <row r="279" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B279" s="11" t="s">
         <v>439</v>
       </c>
@@ -7886,7 +7909,7 @@
       </c>
       <c r="Q279" s="13"/>
     </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A280" s="13"/>
       <c r="B280" s="11" t="s">
         <v>440</v>
@@ -7899,7 +7922,7 @@
       </c>
       <c r="R280" s="14"/>
     </row>
-    <row r="281" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A281" s="13"/>
       <c r="B281" s="11" t="s">
         <v>441</v>
@@ -7912,7 +7935,7 @@
       </c>
       <c r="R281" s="14"/>
     </row>
-    <row r="282" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A282" s="13"/>
       <c r="B282" s="11" t="s">
         <v>442</v>
@@ -7925,7 +7948,7 @@
       </c>
       <c r="R282" s="14"/>
     </row>
-    <row r="283" spans="1:19" s="19" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A283" s="11"/>
       <c r="B283" s="11" t="s">
         <v>443</v>
@@ -7952,7 +7975,7 @@
       <c r="R283" s="11"/>
       <c r="S283" s="11"/>
     </row>
-    <row r="284" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B284" s="11" t="s">
         <v>444</v>
       </c>
@@ -7963,7 +7986,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="285" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B285" s="11" t="s">
         <v>445</v>
       </c>
@@ -7974,7 +7997,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="286" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A286" s="13"/>
       <c r="B286" s="11" t="s">
         <v>446</v>
@@ -7987,7 +8010,7 @@
       </c>
       <c r="R286" s="14"/>
     </row>
-    <row r="287" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B287" s="11" t="s">
         <v>447</v>
       </c>
@@ -7998,7 +8021,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="288" spans="1:19" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B288" s="11" t="s">
         <v>448</v>
       </c>
@@ -8009,7 +8032,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B289" s="11" t="s">
         <v>449</v>
       </c>
@@ -8020,7 +8043,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B290" s="11" t="s">
         <v>450</v>
       </c>
@@ -8032,7 +8055,7 @@
       </c>
       <c r="Q290" s="13"/>
     </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B291" s="11" t="s">
         <v>451</v>
       </c>
@@ -8044,7 +8067,7 @@
       </c>
       <c r="Q291" s="13"/>
     </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B292" s="11" t="s">
         <v>506</v>
       </c>
@@ -8052,7 +8075,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B293" s="11" t="s">
         <v>452</v>
       </c>
@@ -8063,7 +8086,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A294" s="13"/>
       <c r="B294" s="11" t="s">
         <v>453</v>
@@ -8077,7 +8100,7 @@
       <c r="Q294" s="13"/>
       <c r="R294" s="14"/>
     </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B295" s="16" t="s">
         <v>293</v>
       </c>
@@ -8103,7 +8126,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B296" s="11" t="s">
         <v>454</v>
       </c>
@@ -8115,7 +8138,7 @@
       </c>
       <c r="Q296" s="13"/>
     </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B297" s="12" t="s">
         <v>70</v>
       </c>
@@ -8143,7 +8166,7 @@
       <c r="P297" s="12"/>
       <c r="Q297" s="13"/>
     </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A298" s="13"/>
       <c r="B298" s="11" t="s">
         <v>455</v>
@@ -8157,7 +8180,7 @@
       <c r="Q298" s="13"/>
       <c r="R298" s="14"/>
     </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A299" s="13"/>
       <c r="B299" s="11" t="s">
         <v>456</v>
@@ -8171,7 +8194,7 @@
       <c r="Q299" s="13"/>
       <c r="R299" s="14"/>
     </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
         <v>457</v>
@@ -8185,7 +8208,7 @@
       <c r="Q300" s="13"/>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A301" s="13"/>
       <c r="B301" s="11" t="s">
         <v>458</v>
@@ -8198,7 +8221,7 @@
       </c>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A302" s="13"/>
       <c r="B302" s="11" t="s">
         <v>459</v>
@@ -8211,7 +8234,7 @@
       </c>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A303" s="13"/>
       <c r="B303" s="11" t="s">
         <v>460</v>
@@ -8224,7 +8247,7 @@
       </c>
       <c r="R303" s="14"/>
     </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B304" s="11" t="s">
         <v>461</v>
       </c>
@@ -8236,7 +8259,7 @@
       </c>
       <c r="Q304" s="12"/>
     </row>
-    <row r="305" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B305" s="11" t="s">
         <v>462</v>
       </c>
@@ -8247,7 +8270,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="306" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B306" s="11" t="s">
         <v>463</v>
       </c>
@@ -8258,7 +8281,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="307" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A307" s="12" t="s">
         <v>71</v>
       </c>
@@ -8273,7 +8296,7 @@
       </c>
       <c r="R307" s="12"/>
     </row>
-    <row r="308" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:20" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A308" s="12"/>
       <c r="B308" s="11" t="s">
         <v>522</v>
@@ -8292,7 +8315,7 @@
       </c>
       <c r="R308" s="12"/>
     </row>
-    <row r="309" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B309" s="17" t="s">
         <v>526</v>
       </c>
@@ -8311,7 +8334,7 @@
       </c>
       <c r="T309" s="15"/>
     </row>
-    <row r="310" spans="1:20" s="17" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B310" s="17" t="s">
         <v>528</v>
       </c>
@@ -8330,7 +8353,7 @@
       </c>
       <c r="T310" s="15"/>
     </row>
-    <row r="311" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B311" s="11" t="s">
         <v>465</v>
       </c>
@@ -8341,7 +8364,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="312" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B312" s="13" t="s">
         <v>269</v>
       </c>
@@ -8352,7 +8375,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="313" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B313" s="13" t="s">
         <v>270</v>
       </c>
@@ -8363,7 +8386,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="314" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B314" s="13" t="s">
         <v>272</v>
       </c>
@@ -8377,7 +8400,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="315" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B315" s="11" t="s">
         <v>469</v>
       </c>
@@ -8388,7 +8411,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="316" spans="1:20" s="11" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:20" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B316" s="11" t="s">
         <v>470</v>
       </c>
@@ -8399,7 +8422,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="317" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:20" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="B317" s="11" t="s">
         <v>471</v>
       </c>
@@ -8411,13 +8434,13 @@
       </c>
       <c r="Q317" s="13"/>
     </row>
-    <row r="318" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B318" s="14"/>
       <c r="P318" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="319" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B319" s="14"/>
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
@@ -8433,25 +8456,25 @@
       <c r="O319" s="12"/>
       <c r="P319" s="12"/>
     </row>
-    <row r="320" spans="1:20" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B320" s="14"/>
       <c r="P320" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B321" s="14"/>
       <c r="P321" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B322" s="14"/>
       <c r="P322" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B323" s="14"/>
       <c r="D323" s="12"/>
       <c r="E323" s="12"/>
@@ -8467,13 +8490,13 @@
       <c r="O323" s="12"/>
       <c r="P323" s="12"/>
     </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B324" s="14"/>
       <c r="P324" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B325" s="14"/>
       <c r="C325" s="12"/>
       <c r="D325" s="12"/>
@@ -8490,7 +8513,7 @@
       <c r="O325" s="12"/>
       <c r="P325" s="12"/>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B326" s="14"/>
       <c r="C326" s="12"/>
       <c r="D326" s="12"/>
@@ -8507,44 +8530,44 @@
       <c r="O326" s="12"/>
       <c r="P326" s="12"/>
     </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B327" s="14"/>
       <c r="Q327" s="12"/>
     </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B328" s="14"/>
     </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B329" s="14"/>
     </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B334" s="14"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B335" s="14"/>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A336" s="14"/>
       <c r="B336" s="14"/>
       <c r="R336" s="12"/>
     </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B337" s="14"/>
       <c r="Q337" s="12"/>
     </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B338" s="14"/>
       <c r="C338" s="12"/>
       <c r="D338" s="12"/>
@@ -8561,7 +8584,7 @@
       <c r="O338" s="12"/>
       <c r="P338" s="12"/>
     </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B339" s="14"/>
       <c r="C339" s="12"/>
       <c r="D339" s="12"/>
@@ -8579,7 +8602,7 @@
       <c r="P339" s="12"/>
       <c r="Q339" s="12"/>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A340" s="12"/>
       <c r="B340" s="14"/>
       <c r="C340" s="12"/>
@@ -8599,7 +8622,7 @@
       <c r="Q340" s="12"/>
       <c r="R340" s="12"/>
     </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
       <c r="B341" s="14"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
@@ -8617,11 +8640,11 @@
       <c r="P341" s="12"/>
       <c r="Q341" s="12"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
       <c r="B342" s="14"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2824">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2824">
     <sortCondition ref="F2:F2824"/>
     <sortCondition descending="1" ref="N2:N2824"/>
     <sortCondition ref="B2:B2824"/>
@@ -8642,16 +8665,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -8665,7 +8688,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8676,7 +8699,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8687,7 +8710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8701,7 +8724,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -8712,7 +8735,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -8726,7 +8749,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -8737,7 +8760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -8748,7 +8771,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -8759,7 +8782,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -8770,7 +8793,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -8781,7 +8804,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -8792,7 +8815,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -8803,7 +8826,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -8814,7 +8837,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>150</v>
       </c>
@@ -8825,7 +8848,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
@@ -8836,7 +8859,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
@@ -8847,7 +8870,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>153</v>
       </c>
@@ -8858,7 +8881,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A19" s="5" t="s">
         <v>495</v>
       </c>
@@ -8883,22 +8906,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.36328125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.36328125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8936,7 +8959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8950,7 +8973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -8964,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -8981,7 +9004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -8992,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9006,7 +9029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -9023,7 +9046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -9037,7 +9060,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9054,7 +9077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -9081,7 +9104,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9096,12 +9119,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -9136,7 +9159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9147,7 +9170,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9164,7 +9187,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9181,7 +9204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9198,7 +9221,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9215,7 +9238,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9232,7 +9255,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9249,7 +9272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9266,7 +9289,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9283,7 +9306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9300,7 +9323,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9326,7 +9349,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9352,7 +9375,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9378,7 +9401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9404,7 +9427,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9430,7 +9453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9456,7 +9479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9482,7 +9505,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9508,7 +9531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9534,7 +9557,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9560,7 +9583,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9586,7 +9609,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9612,7 +9635,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9638,7 +9661,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9664,7 +9687,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9690,7 +9713,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9716,7 +9739,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9742,7 +9765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9768,7 +9791,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CB0DA97-C9F1-4195-8CED-12625B1F8E4B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D2925C-B192-4D41-8E70-D3544763F8FD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2600" yWindow="640" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1370" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="541">
   <si>
     <t>ID</t>
   </si>
@@ -1619,13 +1619,46 @@
   </si>
   <si>
     <t>An action specification that an organisation produces that includes rules and regulations concerning activities of agents under the organisation's jurisdiction.</t>
+  </si>
+  <si>
+    <t>A government policy aimed at reducing harm from tobacco use.</t>
+  </si>
+  <si>
+    <t>Generically dependent continuant aggregate</t>
+  </si>
+  <si>
+    <t>Tobacco control</t>
+  </si>
+  <si>
+    <t>An aggregate of tobacco control policies.</t>
+  </si>
+  <si>
+    <t>Policy aggregate</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Discussed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-cigarette policy </t>
+  </si>
+  <si>
+    <t>A policy that regulates e-cigarettes or their use.</t>
+  </si>
+  <si>
+    <t>Includes manufacture, marketing, and sales. Includes public policy and policy of other organisations.</t>
+  </si>
+  <si>
+    <t>1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1710,6 +1743,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)_x0000_"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1732,7 +1777,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1800,6 +1845,18 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2137,37 +2194,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T342"/>
+  <dimension ref="A1:T344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A58" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A184" sqref="A184"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="12" customWidth="1"/>
-    <col min="2" max="2" width="30.453125" style="12" customWidth="1"/>
-    <col min="3" max="3" width="64.453125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="23.81640625" style="12" customWidth="1"/>
-    <col min="5" max="5" width="17.81640625" style="12" customWidth="1"/>
+    <col min="2" max="2" width="30.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="64.5" style="12" customWidth="1"/>
+    <col min="4" max="4" width="23.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="16" style="12" customWidth="1"/>
-    <col min="7" max="7" width="35.453125" style="12" customWidth="1"/>
-    <col min="8" max="8" width="48.36328125" style="12" customWidth="1"/>
-    <col min="9" max="9" width="23.453125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="29.6328125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="44.1796875" style="12" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" style="12"/>
-    <col min="13" max="13" width="18.453125" style="12" customWidth="1"/>
-    <col min="14" max="15" width="9.1796875" style="12"/>
-    <col min="16" max="16" width="13.453125" style="12" customWidth="1"/>
-    <col min="17" max="17" width="37.1796875" style="12" customWidth="1"/>
-    <col min="18" max="18" width="48.6328125" style="12" customWidth="1"/>
-    <col min="19" max="19" width="24.6328125" style="12" customWidth="1"/>
-    <col min="20" max="16384" width="9.1796875" style="12"/>
+    <col min="7" max="7" width="35.5" style="12" customWidth="1"/>
+    <col min="8" max="8" width="48.33203125" style="12" customWidth="1"/>
+    <col min="9" max="9" width="23.5" style="12" customWidth="1"/>
+    <col min="10" max="10" width="29.6640625" style="12" customWidth="1"/>
+    <col min="11" max="11" width="44.1640625" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.1640625" style="12"/>
+    <col min="13" max="13" width="18.5" style="12" customWidth="1"/>
+    <col min="14" max="15" width="9.1640625" style="12"/>
+    <col min="16" max="16" width="13.5" style="12" customWidth="1"/>
+    <col min="17" max="17" width="37.1640625" style="12" customWidth="1"/>
+    <col min="18" max="18" width="48.6640625" style="12" customWidth="1"/>
+    <col min="19" max="19" width="24.6640625" style="12" customWidth="1"/>
+    <col min="20" max="16384" width="9.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" s="9" customFormat="1" ht="32">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -2223,7 +2280,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B2" s="13" t="s">
         <v>155</v>
       </c>
@@ -2249,7 +2306,7 @@
       </c>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B3" s="13" t="s">
         <v>156</v>
       </c>
@@ -2275,7 +2332,7 @@
       </c>
       <c r="S3" s="13"/>
     </row>
-    <row r="4" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:19" s="11" customFormat="1" ht="32">
       <c r="B4" s="13" t="s">
         <v>157</v>
       </c>
@@ -2303,7 +2360,7 @@
       </c>
       <c r="S4" s="13"/>
     </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:19" s="11" customFormat="1" ht="32">
       <c r="B5" s="13" t="s">
         <v>159</v>
       </c>
@@ -2329,7 +2386,7 @@
       </c>
       <c r="S5" s="13"/>
     </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B6" s="13" t="s">
         <v>160</v>
       </c>
@@ -2355,7 +2412,7 @@
       </c>
       <c r="S6" s="13"/>
     </row>
-    <row r="7" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:19" s="11" customFormat="1" ht="48">
       <c r="B7" s="13" t="s">
         <v>161</v>
       </c>
@@ -2383,7 +2440,7 @@
       </c>
       <c r="S7" s="13"/>
     </row>
-    <row r="8" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A8" s="13"/>
       <c r="B8" s="13" t="s">
         <v>163</v>
@@ -2412,7 +2469,7 @@
       <c r="R8" s="14"/>
       <c r="S8" s="13"/>
     </row>
-    <row r="9" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B9" s="13" t="s">
         <v>164</v>
       </c>
@@ -2437,7 +2494,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A10" s="12"/>
       <c r="B10" s="13" t="s">
         <v>165</v>
@@ -2465,7 +2522,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
     </row>
-    <row r="11" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B11" s="13" t="s">
         <v>166</v>
       </c>
@@ -2490,7 +2547,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B12" s="13" t="s">
         <v>167</v>
       </c>
@@ -2515,7 +2572,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A13" s="13"/>
       <c r="B13" s="13" t="s">
         <v>168</v>
@@ -2543,7 +2600,7 @@
       <c r="Q13" s="13"/>
       <c r="R13" s="14"/>
     </row>
-    <row r="14" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A14" s="13"/>
       <c r="B14" s="13" t="s">
         <v>169</v>
@@ -2571,7 +2628,7 @@
       <c r="Q14" s="13"/>
       <c r="R14" s="14"/>
     </row>
-    <row r="15" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B15" s="13" t="s">
         <v>170</v>
       </c>
@@ -2596,7 +2653,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A16" s="13"/>
       <c r="B16" s="13" t="s">
         <v>171</v>
@@ -2624,7 +2681,7 @@
       <c r="Q16" s="13"/>
       <c r="R16" s="14"/>
     </row>
-    <row r="17" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="B17" s="13" t="s">
         <v>172</v>
       </c>
@@ -2649,7 +2706,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A18" s="13"/>
       <c r="B18" s="13" t="s">
         <v>173</v>
@@ -2677,7 +2734,7 @@
       <c r="Q18" s="13"/>
       <c r="R18" s="14"/>
     </row>
-    <row r="19" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B19" s="13" t="s">
         <v>174</v>
       </c>
@@ -2702,7 +2759,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A20" s="13"/>
       <c r="B20" s="13" t="s">
         <v>175</v>
@@ -2730,7 +2787,7 @@
       <c r="Q20" s="13"/>
       <c r="R20" s="14"/>
     </row>
-    <row r="21" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B21" s="13" t="s">
         <v>176</v>
       </c>
@@ -2755,7 +2812,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B22" s="13" t="s">
         <v>177</v>
       </c>
@@ -2780,7 +2837,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A23" s="13"/>
       <c r="B23" s="13" t="s">
         <v>178</v>
@@ -2808,7 +2865,7 @@
       <c r="Q23" s="13"/>
       <c r="R23" s="14"/>
     </row>
-    <row r="24" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A24" s="13"/>
       <c r="B24" s="13" t="s">
         <v>179</v>
@@ -2836,7 +2893,7 @@
       <c r="Q24" s="13"/>
       <c r="R24" s="14"/>
     </row>
-    <row r="25" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A25" s="13"/>
       <c r="B25" s="13" t="s">
         <v>180</v>
@@ -2864,7 +2921,7 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="14"/>
     </row>
-    <row r="26" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A26" s="13"/>
       <c r="B26" s="13" t="s">
         <v>181</v>
@@ -2892,7 +2949,7 @@
       <c r="Q26" s="13"/>
       <c r="R26" s="14"/>
     </row>
-    <row r="27" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B27" s="13" t="s">
         <v>182</v>
       </c>
@@ -2917,7 +2974,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B28" s="13" t="s">
         <v>183</v>
       </c>
@@ -2942,7 +2999,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A29" s="13"/>
       <c r="B29" s="13" t="s">
         <v>184</v>
@@ -2970,7 +3027,7 @@
       <c r="Q29" s="13"/>
       <c r="R29" s="14"/>
     </row>
-    <row r="30" spans="1:18" s="11" customFormat="1" ht="203" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" s="11" customFormat="1" ht="208">
       <c r="B30" s="13" t="s">
         <v>5</v>
       </c>
@@ -3005,7 +3062,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B31" s="13" t="s">
         <v>188</v>
       </c>
@@ -3030,7 +3087,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" s="11" customFormat="1" ht="64">
       <c r="B32" s="13" t="s">
         <v>189</v>
       </c>
@@ -3059,7 +3116,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="11" customFormat="1" ht="101.5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" s="11" customFormat="1" ht="96">
       <c r="B33" s="13" t="s">
         <v>192</v>
       </c>
@@ -3088,7 +3145,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="B34" s="13" t="s">
         <v>195</v>
       </c>
@@ -3117,7 +3174,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A35" s="13"/>
       <c r="B35" s="13" t="s">
         <v>198</v>
@@ -3145,7 +3202,7 @@
       <c r="Q35" s="13"/>
       <c r="R35" s="14"/>
     </row>
-    <row r="36" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A36" s="13"/>
       <c r="B36" s="13" t="s">
         <v>199</v>
@@ -3173,7 +3230,7 @@
       <c r="Q36" s="13"/>
       <c r="R36" s="14"/>
     </row>
-    <row r="37" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A37" s="13"/>
       <c r="B37" s="13" t="s">
         <v>200</v>
@@ -3201,7 +3258,7 @@
       <c r="Q37" s="13"/>
       <c r="R37" s="14"/>
     </row>
-    <row r="38" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A38" s="13"/>
       <c r="B38" s="13" t="s">
         <v>201</v>
@@ -3229,7 +3286,7 @@
       <c r="Q38" s="13"/>
       <c r="R38" s="14"/>
     </row>
-    <row r="39" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A39" s="13"/>
       <c r="B39" s="13" t="s">
         <v>202</v>
@@ -3257,7 +3314,7 @@
       <c r="Q39" s="13"/>
       <c r="R39" s="14"/>
     </row>
-    <row r="40" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A40" s="13"/>
       <c r="B40" s="13" t="s">
         <v>203</v>
@@ -3285,7 +3342,7 @@
       <c r="Q40" s="13"/>
       <c r="R40" s="14"/>
     </row>
-    <row r="41" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A41" s="13"/>
       <c r="B41" s="13" t="s">
         <v>204</v>
@@ -3313,7 +3370,7 @@
       <c r="Q41" s="13"/>
       <c r="R41" s="14"/>
     </row>
-    <row r="42" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A42" s="13"/>
       <c r="B42" s="13" t="s">
         <v>205</v>
@@ -3341,7 +3398,7 @@
       <c r="Q42" s="13"/>
       <c r="R42" s="14"/>
     </row>
-    <row r="43" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A43" s="13"/>
       <c r="B43" s="13" t="s">
         <v>206</v>
@@ -3369,7 +3426,7 @@
       <c r="Q43" s="13"/>
       <c r="R43" s="14"/>
     </row>
-    <row r="44" spans="1:18" s="11" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:18" s="11" customFormat="1" ht="28">
       <c r="A44" s="13" t="s">
         <v>147</v>
       </c>
@@ -3401,7 +3458,7 @@
       <c r="Q44" s="13"/>
       <c r="R44" s="14"/>
     </row>
-    <row r="45" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A45" s="12"/>
       <c r="B45" s="13" t="s">
         <v>207</v>
@@ -3429,7 +3486,7 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
     </row>
-    <row r="46" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A46" s="13"/>
       <c r="B46" s="13" t="s">
         <v>208</v>
@@ -3457,7 +3514,7 @@
       <c r="Q46" s="12"/>
       <c r="R46" s="14"/>
     </row>
-    <row r="47" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A47" s="8"/>
       <c r="B47" s="13" t="s">
         <v>209</v>
@@ -3485,7 +3542,7 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
     </row>
-    <row r="48" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B48" s="13" t="s">
         <v>210</v>
       </c>
@@ -3511,7 +3568,7 @@
       </c>
       <c r="Q48" s="13"/>
     </row>
-    <row r="49" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B49" s="13" t="s">
         <v>211</v>
       </c>
@@ -3537,7 +3594,7 @@
       </c>
       <c r="Q49" s="13"/>
     </row>
-    <row r="50" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B50" s="13" t="s">
         <v>212</v>
       </c>
@@ -3562,7 +3619,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B51" s="13" t="s">
         <v>213</v>
       </c>
@@ -3587,7 +3644,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A52" s="13"/>
       <c r="B52" s="13" t="s">
         <v>139</v>
@@ -3615,7 +3672,7 @@
       <c r="Q52" s="13"/>
       <c r="R52" s="14"/>
     </row>
-    <row r="53" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A53" s="12"/>
       <c r="B53" s="13" t="s">
         <v>214</v>
@@ -3642,7 +3699,7 @@
       </c>
       <c r="R53" s="12"/>
     </row>
-    <row r="54" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="B54" s="13" t="s">
         <v>215</v>
       </c>
@@ -3667,7 +3724,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B55" s="13" t="s">
         <v>216</v>
       </c>
@@ -3693,7 +3750,7 @@
       </c>
       <c r="Q55" s="12"/>
     </row>
-    <row r="56" spans="1:18" s="11" customFormat="1" ht="54" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:18" s="11" customFormat="1" ht="56">
       <c r="A56" s="11" t="s">
         <v>508</v>
       </c>
@@ -3724,7 +3781,7 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="12"/>
     </row>
-    <row r="57" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" s="11" customFormat="1" ht="48">
       <c r="B57" s="13" t="s">
         <v>511</v>
       </c>
@@ -3756,7 +3813,7 @@
       </c>
       <c r="Q57" s="13"/>
     </row>
-    <row r="58" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B58" s="13" t="s">
         <v>217</v>
       </c>
@@ -3782,7 +3839,7 @@
       </c>
       <c r="Q58" s="13"/>
     </row>
-    <row r="59" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A59" s="13"/>
       <c r="B59" s="13" t="s">
         <v>218</v>
@@ -3809,7 +3866,7 @@
       </c>
       <c r="R59" s="14"/>
     </row>
-    <row r="60" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A60" s="12"/>
       <c r="B60" s="13" t="s">
         <v>219</v>
@@ -3836,7 +3893,7 @@
       </c>
       <c r="R60" s="12"/>
     </row>
-    <row r="61" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A61" s="12"/>
       <c r="B61" s="13" t="s">
         <v>220</v>
@@ -3863,7 +3920,7 @@
       </c>
       <c r="R61" s="12"/>
     </row>
-    <row r="62" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B62" s="13" t="s">
         <v>221</v>
       </c>
@@ -3888,7 +3945,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B63" s="13" t="s">
         <v>222</v>
       </c>
@@ -3913,7 +3970,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="19" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" s="19" customFormat="1" ht="32">
       <c r="B64" s="21" t="s">
         <v>223</v>
       </c>
@@ -3943,7 +4000,7 @@
       </c>
       <c r="Q64" s="23"/>
     </row>
-    <row r="65" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B65" s="13" t="s">
         <v>224</v>
       </c>
@@ -3968,7 +4025,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B66" s="13" t="s">
         <v>225</v>
       </c>
@@ -3994,7 +4051,7 @@
       </c>
       <c r="Q66" s="13"/>
     </row>
-    <row r="67" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A67" s="12"/>
       <c r="B67" s="13" t="s">
         <v>226</v>
@@ -4022,7 +4079,7 @@
       <c r="Q67" s="13"/>
       <c r="R67" s="12"/>
     </row>
-    <row r="68" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:19" s="19" customFormat="1" ht="16">
       <c r="A68" s="11"/>
       <c r="B68" s="13" t="s">
         <v>227</v>
@@ -4051,7 +4108,7 @@
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
     </row>
-    <row r="69" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A69" s="13"/>
       <c r="B69" s="13" t="s">
         <v>228</v>
@@ -4079,7 +4136,7 @@
       <c r="Q69" s="13"/>
       <c r="R69" s="14"/>
     </row>
-    <row r="70" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A70" s="13"/>
       <c r="B70" s="13" t="s">
         <v>229</v>
@@ -4107,7 +4164,7 @@
       <c r="Q70" s="13"/>
       <c r="R70" s="14"/>
     </row>
-    <row r="71" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A71" s="13"/>
       <c r="B71" s="13" t="s">
         <v>230</v>
@@ -4135,7 +4192,7 @@
       <c r="Q71" s="13"/>
       <c r="R71" s="14"/>
     </row>
-    <row r="72" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:19" s="11" customFormat="1" ht="48">
       <c r="A72" s="13"/>
       <c r="B72" s="13" t="s">
         <v>518</v>
@@ -4169,7 +4226,7 @@
       <c r="Q72" s="13"/>
       <c r="R72" s="14"/>
     </row>
-    <row r="73" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:19" s="11" customFormat="1" ht="48">
       <c r="A73" s="13"/>
       <c r="B73" s="13" t="s">
         <v>513</v>
@@ -4199,7 +4256,7 @@
       <c r="Q73" s="13"/>
       <c r="R73" s="14"/>
     </row>
-    <row r="74" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:19" s="11" customFormat="1" ht="48">
       <c r="A74" s="13"/>
       <c r="B74" s="13" t="s">
         <v>514</v>
@@ -4229,7 +4286,7 @@
       <c r="Q74" s="13"/>
       <c r="R74" s="14"/>
     </row>
-    <row r="75" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A75" s="13"/>
       <c r="B75" s="13" t="s">
         <v>231</v>
@@ -4256,7 +4313,7 @@
       </c>
       <c r="R75" s="14"/>
     </row>
-    <row r="76" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A76" s="13"/>
       <c r="B76" s="13" t="s">
         <v>232</v>
@@ -4283,7 +4340,7 @@
       </c>
       <c r="R76" s="14"/>
     </row>
-    <row r="77" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B77" s="13" t="s">
         <v>233</v>
       </c>
@@ -4308,7 +4365,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B78" s="13" t="s">
         <v>234</v>
       </c>
@@ -4334,7 +4391,7 @@
       </c>
       <c r="Q78" s="13"/>
     </row>
-    <row r="79" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B79" s="13" t="s">
         <v>235</v>
       </c>
@@ -4360,7 +4417,7 @@
       </c>
       <c r="Q79" s="13"/>
     </row>
-    <row r="80" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A80" s="13"/>
       <c r="B80" s="13" t="s">
         <v>236</v>
@@ -4387,7 +4444,7 @@
       </c>
       <c r="R80" s="14"/>
     </row>
-    <row r="81" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B81" s="13" t="s">
         <v>237</v>
       </c>
@@ -4414,7 +4471,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A82" s="13"/>
       <c r="B82" s="13" t="s">
         <v>239</v>
@@ -4442,7 +4499,7 @@
       <c r="Q82" s="13"/>
       <c r="R82" s="14"/>
     </row>
-    <row r="83" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A83" s="13"/>
       <c r="B83" s="13" t="s">
         <v>240</v>
@@ -4470,7 +4527,7 @@
       <c r="Q83" s="13"/>
       <c r="R83" s="14"/>
     </row>
-    <row r="84" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B84" s="13" t="s">
         <v>241</v>
       </c>
@@ -4498,7 +4555,7 @@
       </c>
       <c r="Q84" s="13"/>
     </row>
-    <row r="85" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="B85" s="13" t="s">
         <v>243</v>
       </c>
@@ -4529,7 +4586,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A86" s="13"/>
       <c r="B86" s="11" t="s">
         <v>425</v>
@@ -4556,7 +4613,7 @@
       </c>
       <c r="R86" s="14"/>
     </row>
-    <row r="87" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B87" s="13" t="s">
         <v>247</v>
       </c>
@@ -4581,7 +4638,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B88" s="13" t="s">
         <v>248</v>
       </c>
@@ -4608,7 +4665,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:18" s="11" customFormat="1" ht="48">
       <c r="A89" s="13"/>
       <c r="B89" s="13" t="s">
         <v>250</v>
@@ -4637,7 +4694,7 @@
       </c>
       <c r="R89" s="14"/>
     </row>
-    <row r="90" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B90" s="13" t="s">
         <v>252</v>
       </c>
@@ -4662,7 +4719,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B91" s="13" t="s">
         <v>253</v>
       </c>
@@ -4688,7 +4745,7 @@
       </c>
       <c r="Q91" s="13"/>
     </row>
-    <row r="92" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B92" s="13" t="s">
         <v>254</v>
       </c>
@@ -4714,7 +4771,7 @@
       </c>
       <c r="Q92" s="13"/>
     </row>
-    <row r="93" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B93" s="13" t="s">
         <v>255</v>
       </c>
@@ -4740,7 +4797,7 @@
       </c>
       <c r="Q93" s="13"/>
     </row>
-    <row r="94" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A94" s="13"/>
       <c r="B94" s="13" t="s">
         <v>256</v>
@@ -4769,7 +4826,7 @@
       </c>
       <c r="R94" s="14"/>
     </row>
-    <row r="95" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B95" s="13" t="s">
         <v>258</v>
       </c>
@@ -4794,7 +4851,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B96" s="13" t="s">
         <v>259</v>
       </c>
@@ -4819,7 +4876,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B97" s="13" t="s">
         <v>260</v>
       </c>
@@ -4844,7 +4901,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B98" s="13" t="s">
         <v>261</v>
       </c>
@@ -4869,7 +4926,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:19" s="11" customFormat="1" ht="32">
       <c r="B99" s="13" t="s">
         <v>262</v>
       </c>
@@ -4894,7 +4951,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A100" s="13"/>
       <c r="B100" s="13" t="s">
         <v>263</v>
@@ -4922,63 +4979,56 @@
       <c r="Q100" s="13"/>
       <c r="R100" s="14"/>
     </row>
-    <row r="101" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B101" s="13" t="s">
+    <row r="101" spans="1:19" s="24" customFormat="1" ht="68">
+      <c r="B101" s="24" t="s">
         <v>264</v>
       </c>
-      <c r="C101" s="13"/>
-      <c r="D101" s="13"/>
-      <c r="E101" s="13"/>
-      <c r="F101" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" s="13"/>
-      <c r="H101" s="13"/>
-      <c r="I101" s="13"/>
-      <c r="J101" s="14"/>
-      <c r="K101" s="13"/>
-      <c r="L101" s="13"/>
-      <c r="M101" s="13"/>
-      <c r="N101" s="13">
-        <v>1</v>
-      </c>
-      <c r="O101" s="13"/>
-      <c r="P101" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q101" s="13"/>
-    </row>
-    <row r="102" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="13"/>
-      <c r="B102" s="13" t="s">
-        <v>265</v>
-      </c>
-      <c r="C102" s="13"/>
-      <c r="D102" s="13"/>
-      <c r="E102" s="13"/>
-      <c r="F102" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="G102" s="13"/>
-      <c r="H102" s="13"/>
-      <c r="I102" s="13"/>
-      <c r="J102" s="14"/>
-      <c r="K102" s="13"/>
-      <c r="L102" s="13"/>
-      <c r="M102" s="13"/>
-      <c r="N102" s="13">
-        <v>1</v>
-      </c>
-      <c r="O102" s="13"/>
-      <c r="P102" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="R102" s="14"/>
-    </row>
-    <row r="103" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C101" s="24" t="s">
+        <v>530</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="F101" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="N101" s="24">
+        <v>1</v>
+      </c>
+      <c r="O101" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="P101" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" s="24" customFormat="1" ht="68">
+      <c r="B102" s="24" t="s">
+        <v>532</v>
+      </c>
+      <c r="C102" s="24" t="s">
+        <v>533</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>534</v>
+      </c>
+      <c r="F102" s="24" t="s">
+        <v>531</v>
+      </c>
+      <c r="N102" s="24">
+        <v>1</v>
+      </c>
+      <c r="O102" s="24" t="s">
+        <v>535</v>
+      </c>
+      <c r="P102" s="24" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="103" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A103" s="13"/>
       <c r="B103" s="13" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C103" s="13"/>
       <c r="D103" s="13"/>
@@ -5002,10 +5052,10 @@
       </c>
       <c r="R103" s="14"/>
     </row>
-    <row r="104" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A104" s="13"/>
       <c r="B104" s="13" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C104" s="13"/>
       <c r="D104" s="13"/>
@@ -5029,9 +5079,10 @@
       </c>
       <c r="R104" s="14"/>
     </row>
-    <row r="105" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A105" s="13"/>
       <c r="B105" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C105" s="13"/>
       <c r="D105" s="13"/>
@@ -5053,10 +5104,11 @@
       <c r="P105" s="13" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="11" t="s">
-        <v>466</v>
+      <c r="R105" s="14"/>
+    </row>
+    <row r="106" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B106" s="13" t="s">
+        <v>268</v>
       </c>
       <c r="C106" s="13"/>
       <c r="D106" s="13"/>
@@ -5079,9 +5131,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B107" s="13" t="s">
-        <v>271</v>
+    <row r="107" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B107" s="11" t="s">
+        <v>466</v>
       </c>
       <c r="C107" s="13"/>
       <c r="D107" s="13"/>
@@ -5104,9 +5156,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B108" s="11" t="s">
-        <v>467</v>
+    <row r="108" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B108" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="C108" s="13"/>
       <c r="D108" s="13"/>
@@ -5129,9 +5181,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B109" s="11" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C109" s="13"/>
       <c r="D109" s="13"/>
@@ -5154,48 +5206,47 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A110" s="12"/>
+    <row r="110" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B110" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="C110" s="13"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="13"/>
+      <c r="F110" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" s="13"/>
+      <c r="H110" s="13"/>
+      <c r="I110" s="13"/>
+      <c r="J110" s="14"/>
+      <c r="K110" s="13"/>
+      <c r="L110" s="13"/>
+      <c r="M110" s="13"/>
+      <c r="N110" s="13">
+        <v>1</v>
+      </c>
+      <c r="O110" s="13"/>
+      <c r="P110" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="111" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="A111" s="12"/>
+      <c r="B111" s="11" t="s">
         <v>295</v>
       </c>
-      <c r="C110" s="11" t="s">
+      <c r="C111" s="11" t="s">
         <v>296</v>
       </c>
-      <c r="D110" s="11" t="s">
+      <c r="D111" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="E110" s="11" t="s">
+      <c r="E111" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="F110" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P110" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q110" s="12"/>
-      <c r="R110" s="12"/>
-      <c r="S110" s="12"/>
-    </row>
-    <row r="111" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B111" s="11" t="s">
-        <v>496</v>
-      </c>
-      <c r="C111" s="11" t="s">
-        <v>498</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>497</v>
-      </c>
-      <c r="E111" s="11" t="s">
-        <v>58</v>
-      </c>
       <c r="F111" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="O111" s="11" t="s">
-        <v>274</v>
       </c>
       <c r="P111" s="11" t="s">
         <v>154</v>
@@ -5204,22 +5255,24 @@
       <c r="R111" s="12"/>
       <c r="S111" s="12"/>
     </row>
-    <row r="112" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="12"/>
+    <row r="112" spans="1:19" s="11" customFormat="1" ht="32">
       <c r="B112" s="11" t="s">
-        <v>341</v>
+        <v>496</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>70</v>
+        <v>497</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>58</v>
       </c>
       <c r="F112" s="11" t="s">
         <v>5</v>
+      </c>
+      <c r="O112" s="11" t="s">
+        <v>274</v>
       </c>
       <c r="P112" s="11" t="s">
         <v>154</v>
@@ -5228,13 +5281,19 @@
       <c r="R112" s="12"/>
       <c r="S112" s="12"/>
     </row>
-    <row r="113" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A113" s="12"/>
       <c r="B113" s="11" t="s">
-        <v>299</v>
+        <v>341</v>
+      </c>
+      <c r="C113" s="11" t="s">
+        <v>499</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>300</v>
+        <v>70</v>
+      </c>
+      <c r="E113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="F113" s="11" t="s">
         <v>5</v>
@@ -5246,90 +5305,77 @@
       <c r="R113" s="12"/>
       <c r="S113" s="12"/>
     </row>
-    <row r="114" spans="1:19" s="11" customFormat="1" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="B114" s="12" t="s">
+    <row r="114" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="A114" s="12"/>
+      <c r="B114" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>300</v>
+      </c>
+      <c r="F114" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P114" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q114" s="12"/>
+      <c r="R114" s="12"/>
+      <c r="S114" s="12"/>
+    </row>
+    <row r="115" spans="1:19" s="11" customFormat="1" ht="80">
+      <c r="B115" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C115" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="D115" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="E114" s="12" t="s">
+      <c r="E115" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F114" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G114" s="12"/>
-      <c r="H114" s="12" t="s">
+      <c r="F115" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" s="12"/>
+      <c r="H115" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I114" s="12"/>
-      <c r="J114" s="12" t="s">
+      <c r="I115" s="12"/>
+      <c r="J115" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="12"/>
-      <c r="N114" s="12"/>
-      <c r="O114" s="12"/>
-      <c r="P114" s="12"/>
-      <c r="S114" s="13"/>
-    </row>
-    <row r="115" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B115" s="11" t="s">
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="12"/>
+      <c r="N115" s="12"/>
+      <c r="O115" s="12"/>
+      <c r="P115" s="12"/>
+      <c r="S115" s="13"/>
+    </row>
+    <row r="116" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B116" s="11" t="s">
         <v>301</v>
       </c>
-      <c r="F115" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P115" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S115" s="13"/>
-    </row>
-    <row r="116" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B116" s="12" t="s">
+      <c r="F116" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P116" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S116" s="13"/>
+    </row>
+    <row r="117" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="B117" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="D117" s="12" t="s">
         <v>83</v>
-      </c>
-      <c r="E116" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F116" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G116" s="12"/>
-      <c r="H116" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I116" s="12"/>
-      <c r="J116" s="12"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="12"/>
-      <c r="N116" s="12"/>
-      <c r="O116" s="12"/>
-      <c r="P116" s="12"/>
-      <c r="S116" s="13"/>
-    </row>
-    <row r="117" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A117" s="13"/>
-      <c r="B117" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D117" s="12" t="s">
-        <v>75</v>
       </c>
       <c r="E117" s="12" t="s">
         <v>61</v>
@@ -5339,7 +5385,7 @@
       </c>
       <c r="G117" s="12"/>
       <c r="H117" s="12" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="I117" s="12"/>
       <c r="J117" s="12"/>
@@ -5349,1021 +5395,1041 @@
       <c r="N117" s="12"/>
       <c r="O117" s="12"/>
       <c r="P117" s="12"/>
-      <c r="Q117" s="13"/>
-      <c r="R117" s="14"/>
       <c r="S117" s="13"/>
     </row>
-    <row r="118" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="12"/>
-      <c r="B118" s="11" t="s">
+    <row r="118" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="A118" s="13"/>
+      <c r="B118" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="E118" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F118" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G118" s="12"/>
+      <c r="H118" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="I118" s="12"/>
+      <c r="J118" s="12"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="12"/>
+      <c r="N118" s="12"/>
+      <c r="O118" s="12"/>
+      <c r="P118" s="12"/>
+      <c r="Q118" s="13"/>
+      <c r="R118" s="14"/>
+      <c r="S118" s="13"/>
+    </row>
+    <row r="119" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A119" s="12"/>
+      <c r="B119" s="11" t="s">
         <v>302</v>
       </c>
-      <c r="F118" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P118" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q118" s="12"/>
-      <c r="R118" s="12"/>
-      <c r="S118" s="13"/>
-    </row>
-    <row r="119" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A119" s="13"/>
-      <c r="B119" s="12" t="s">
+      <c r="F119" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P119" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q119" s="12"/>
+      <c r="R119" s="12"/>
+      <c r="S119" s="13"/>
+    </row>
+    <row r="120" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="A120" s="13"/>
+      <c r="B120" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C120" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="D120" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="E119" s="12" t="s">
+      <c r="E120" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F119" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G119" s="12"/>
-      <c r="H119" s="12" t="s">
+      <c r="F120" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G120" s="12"/>
+      <c r="H120" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="I119" s="12"/>
-      <c r="J119" s="12"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="12"/>
-      <c r="N119" s="12"/>
-      <c r="O119" s="12"/>
-      <c r="P119" s="12"/>
-      <c r="Q119" s="13"/>
-      <c r="R119" s="14"/>
-      <c r="S119" s="13"/>
-    </row>
-    <row r="120" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B120" s="11" t="s">
+      <c r="I120" s="12"/>
+      <c r="J120" s="12"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="12"/>
+      <c r="N120" s="12"/>
+      <c r="O120" s="12"/>
+      <c r="P120" s="12"/>
+      <c r="Q120" s="13"/>
+      <c r="R120" s="14"/>
+      <c r="S120" s="13"/>
+    </row>
+    <row r="121" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B121" s="11" t="s">
         <v>303</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P120" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S120" s="13"/>
-    </row>
-    <row r="121" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="12"/>
-      <c r="B121" s="11" t="s">
+      <c r="F121" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P121" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S121" s="13"/>
+    </row>
+    <row r="122" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A122" s="12"/>
+      <c r="B122" s="11" t="s">
         <v>304</v>
       </c>
-      <c r="F121" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P121" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q121" s="12"/>
-      <c r="R121" s="12"/>
-      <c r="S121" s="13"/>
-    </row>
-    <row r="122" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B122" s="11" t="s">
+      <c r="F122" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P122" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q122" s="12"/>
+      <c r="R122" s="12"/>
+      <c r="S122" s="13"/>
+    </row>
+    <row r="123" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B123" s="11" t="s">
         <v>305</v>
       </c>
-      <c r="F122" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P122" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S122" s="13"/>
-    </row>
-    <row r="123" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="12"/>
-      <c r="B123" s="11" t="s">
+      <c r="F123" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P123" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S123" s="13"/>
+    </row>
+    <row r="124" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A124" s="12"/>
+      <c r="B124" s="11" t="s">
         <v>306</v>
       </c>
-      <c r="F123" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P123" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q123" s="12"/>
-      <c r="R123" s="12"/>
-      <c r="S123" s="13"/>
-    </row>
-    <row r="124" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B124" s="11" t="s">
+      <c r="F124" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P124" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q124" s="12"/>
+      <c r="R124" s="12"/>
+      <c r="S124" s="13"/>
+    </row>
+    <row r="125" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B125" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="F124" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P124" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S124" s="13"/>
-    </row>
-    <row r="125" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="12"/>
-      <c r="B125" s="11" t="s">
+      <c r="F125" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P125" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S125" s="13"/>
+    </row>
+    <row r="126" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A126" s="12"/>
+      <c r="B126" s="11" t="s">
         <v>308</v>
       </c>
-      <c r="F125" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P125" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q125" s="12"/>
-      <c r="R125" s="12"/>
-      <c r="S125" s="13"/>
-    </row>
-    <row r="126" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B126" s="11" t="s">
+      <c r="F126" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P126" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q126" s="12"/>
+      <c r="R126" s="12"/>
+      <c r="S126" s="13"/>
+    </row>
+    <row r="127" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B127" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F126" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P126" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S126" s="13"/>
-    </row>
-    <row r="127" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B127" s="11" t="s">
+      <c r="F127" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P127" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S127" s="13"/>
+    </row>
+    <row r="128" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B128" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="F127" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P127" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S127" s="13"/>
-    </row>
-    <row r="128" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B128" s="11" t="s">
+      <c r="F128" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P128" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S128" s="13"/>
+    </row>
+    <row r="129" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B129" s="11" t="s">
         <v>311</v>
       </c>
-      <c r="F128" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P128" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S128" s="13"/>
-    </row>
-    <row r="129" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B129" s="11" t="s">
+      <c r="F129" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P129" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S129" s="13"/>
+    </row>
+    <row r="130" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B130" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="F129" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P129" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S129" s="13"/>
-    </row>
-    <row r="130" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B130" s="11" t="s">
+      <c r="F130" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P130" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S130" s="13"/>
+    </row>
+    <row r="131" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B131" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F130" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P130" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S130" s="13"/>
-    </row>
-    <row r="131" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="13"/>
-      <c r="B131" s="11" t="s">
+      <c r="F131" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P131" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S131" s="13"/>
+    </row>
+    <row r="132" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A132" s="13"/>
+      <c r="B132" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="F131" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P131" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q131" s="13"/>
-      <c r="R131" s="14"/>
-      <c r="S131" s="13"/>
-    </row>
-    <row r="132" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B132" s="11" t="s">
+      <c r="F132" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P132" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q132" s="13"/>
+      <c r="R132" s="14"/>
+      <c r="S132" s="13"/>
+    </row>
+    <row r="133" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B133" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="F132" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P132" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S132" s="13"/>
-    </row>
-    <row r="133" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B133" s="11" t="s">
+      <c r="F133" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P133" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S133" s="13"/>
+    </row>
+    <row r="134" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B134" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P133" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S133" s="13"/>
-    </row>
-    <row r="134" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B134" s="11" t="s">
+      <c r="F134" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P134" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S134" s="13"/>
+    </row>
+    <row r="135" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B135" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P134" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S134" s="13"/>
-    </row>
-    <row r="135" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B135" s="11" t="s">
+      <c r="F135" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P135" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S135" s="13"/>
+    </row>
+    <row r="136" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B136" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="F135" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P135" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S135" s="13"/>
-    </row>
-    <row r="136" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B136" s="11" t="s">
+      <c r="F136" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P136" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S136" s="13"/>
+    </row>
+    <row r="137" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B137" s="11" t="s">
         <v>319</v>
       </c>
-      <c r="F136" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P136" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S136" s="13"/>
-    </row>
-    <row r="137" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="11" t="s">
+      <c r="F137" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P137" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S137" s="13"/>
+    </row>
+    <row r="138" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B138" s="11" t="s">
         <v>320</v>
       </c>
-      <c r="F137" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P137" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S137" s="13"/>
-    </row>
-    <row r="138" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="13"/>
-      <c r="B138" s="11" t="s">
+      <c r="F138" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P138" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S138" s="13"/>
+    </row>
+    <row r="139" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A139" s="13"/>
+      <c r="B139" s="11" t="s">
         <v>321</v>
       </c>
-      <c r="F138" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P138" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q138" s="13"/>
-      <c r="R138" s="14"/>
-      <c r="S138" s="13"/>
-    </row>
-    <row r="139" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B139" s="11" t="s">
+      <c r="F139" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P139" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q139" s="13"/>
+      <c r="R139" s="14"/>
+      <c r="S139" s="13"/>
+    </row>
+    <row r="140" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B140" s="11" t="s">
         <v>322</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P139" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S139" s="13"/>
-    </row>
-    <row r="140" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B140" s="11" t="s">
+      <c r="F140" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P140" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S140" s="13"/>
+    </row>
+    <row r="141" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B141" s="11" t="s">
         <v>323</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P140" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S140" s="13"/>
-    </row>
-    <row r="141" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B141" s="11" t="s">
+      <c r="F141" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P141" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S141" s="13"/>
+    </row>
+    <row r="142" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B142" s="11" t="s">
         <v>324</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P141" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S141" s="13"/>
-    </row>
-    <row r="142" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B142" s="11" t="s">
+      <c r="F142" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P142" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S142" s="13"/>
+    </row>
+    <row r="143" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B143" s="11" t="s">
         <v>325</v>
       </c>
-      <c r="F142" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P142" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S142" s="13"/>
-    </row>
-    <row r="143" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B143" s="11" t="s">
+      <c r="F143" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P143" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S143" s="13"/>
+    </row>
+    <row r="144" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B144" s="11" t="s">
         <v>326</v>
       </c>
-      <c r="F143" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P143" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S143" s="13"/>
-    </row>
-    <row r="144" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B144" s="11" t="s">
+      <c r="F144" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P144" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S144" s="13"/>
+    </row>
+    <row r="145" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B145" s="11" t="s">
         <v>327</v>
       </c>
-      <c r="F144" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P144" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S144" s="13"/>
-    </row>
-    <row r="145" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B145" s="11" t="s">
+      <c r="F145" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S145" s="13"/>
+    </row>
+    <row r="146" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B146" s="11" t="s">
         <v>328</v>
       </c>
-      <c r="F145" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S145" s="13"/>
-    </row>
-    <row r="146" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B146" s="11" t="s">
+      <c r="F146" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P146" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S146" s="13"/>
+    </row>
+    <row r="147" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B147" s="11" t="s">
         <v>329</v>
       </c>
-      <c r="F146" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P146" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S146" s="13"/>
-    </row>
-    <row r="147" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B147" s="11" t="s">
+      <c r="F147" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P147" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S147" s="13"/>
+    </row>
+    <row r="148" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B148" s="11" t="s">
         <v>330</v>
       </c>
-      <c r="F147" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P147" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S147" s="13"/>
-    </row>
-    <row r="148" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="12" t="s">
+      <c r="F148" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P148" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S148" s="13"/>
+    </row>
+    <row r="149" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B149" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C148" s="12" t="s">
+      <c r="C149" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D148" s="12" t="s">
+      <c r="D149" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E148" s="12" t="s">
+      <c r="E149" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="F148" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G148" s="12"/>
-      <c r="H148" s="12"/>
-      <c r="I148" s="12"/>
-      <c r="J148" s="12"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="12"/>
-      <c r="N148" s="12"/>
-      <c r="O148" s="12"/>
-      <c r="P148" s="12"/>
-      <c r="S148" s="13"/>
-    </row>
-    <row r="149" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="13"/>
-      <c r="B149" s="11" t="s">
+      <c r="F149" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G149" s="12"/>
+      <c r="H149" s="12"/>
+      <c r="I149" s="12"/>
+      <c r="J149" s="12"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="12"/>
+      <c r="N149" s="12"/>
+      <c r="O149" s="12"/>
+      <c r="P149" s="12"/>
+      <c r="S149" s="13"/>
+    </row>
+    <row r="150" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A150" s="13"/>
+      <c r="B150" s="11" t="s">
         <v>331</v>
       </c>
-      <c r="F149" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P149" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q149" s="13"/>
-      <c r="R149" s="14"/>
-      <c r="S149" s="13"/>
-    </row>
-    <row r="150" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B150" s="11" t="s">
+      <c r="F150" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P150" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q150" s="13"/>
+      <c r="R150" s="14"/>
+      <c r="S150" s="13"/>
+    </row>
+    <row r="151" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B151" s="11" t="s">
         <v>332</v>
       </c>
-      <c r="F150" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P150" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S150" s="13"/>
-    </row>
-    <row r="151" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B151" s="12" t="s">
+      <c r="F151" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P151" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S151" s="13"/>
+    </row>
+    <row r="152" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="B152" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C151" s="12" t="s">
+      <c r="C152" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D151" s="12" t="s">
+      <c r="D152" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="E151" s="12" t="s">
+      <c r="E152" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F151" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G151" s="12"/>
-      <c r="H151" s="12"/>
-      <c r="I151" s="12"/>
-      <c r="J151" s="12"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="12"/>
-      <c r="N151" s="12"/>
-      <c r="O151" s="12"/>
-      <c r="P151" s="12"/>
-      <c r="S151" s="13"/>
-    </row>
-    <row r="152" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B152" s="11" t="s">
+      <c r="F152" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G152" s="12"/>
+      <c r="H152" s="12"/>
+      <c r="I152" s="12"/>
+      <c r="J152" s="12"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="12"/>
+      <c r="N152" s="12"/>
+      <c r="O152" s="12"/>
+      <c r="P152" s="12"/>
+      <c r="S152" s="13"/>
+    </row>
+    <row r="153" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B153" s="11" t="s">
         <v>333</v>
       </c>
-      <c r="F152" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P152" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S152" s="13"/>
-    </row>
-    <row r="153" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B153" s="16" t="s">
+      <c r="F153" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P153" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S153" s="13"/>
+    </row>
+    <row r="154" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B154" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="C153" s="16" t="s">
+      <c r="C154" s="16" t="s">
         <v>276</v>
       </c>
-      <c r="D153" s="11" t="s">
+      <c r="D154" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E153" s="11" t="s">
+      <c r="E154" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F153" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G153" s="15" t="s">
+      <c r="F154" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G154" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="O153" s="11" t="s">
+      <c r="O154" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P153" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S153" s="13"/>
-    </row>
-    <row r="154" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="12"/>
-      <c r="B154" s="11" t="s">
+      <c r="P154" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S154" s="13"/>
+    </row>
+    <row r="155" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A155" s="12"/>
+      <c r="B155" s="11" t="s">
         <v>334</v>
       </c>
-      <c r="F154" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I154" s="11" t="s">
+      <c r="F155" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I155" s="11" t="s">
         <v>335</v>
       </c>
-      <c r="P154" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q154" s="12"/>
-      <c r="R154" s="12"/>
-      <c r="S154" s="13"/>
-    </row>
-    <row r="155" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B155" s="11" t="s">
+      <c r="P155" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q155" s="12"/>
+      <c r="R155" s="12"/>
+      <c r="S155" s="13"/>
+    </row>
+    <row r="156" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B156" s="11" t="s">
         <v>336</v>
       </c>
-      <c r="F155" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P155" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S155" s="13"/>
-    </row>
-    <row r="156" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B156" s="16" t="s">
+      <c r="F156" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P156" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S156" s="13"/>
+    </row>
+    <row r="157" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B157" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="C156" s="16" t="s">
+      <c r="C157" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="D156" s="11" t="s">
+      <c r="D157" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E156" s="11" t="s">
+      <c r="E157" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F156" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G156" s="11" t="s">
+      <c r="F157" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G157" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="O156" s="11" t="s">
+      <c r="O157" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P156" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S156" s="13"/>
-    </row>
-    <row r="157" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A157" s="12"/>
-      <c r="B157" s="11" t="s">
+      <c r="P157" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S157" s="13"/>
+    </row>
+    <row r="158" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="A158" s="12"/>
+      <c r="B158" s="11" t="s">
         <v>337</v>
       </c>
-      <c r="F157" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P157" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q157" s="12"/>
-      <c r="R157" s="12"/>
-      <c r="S157" s="13"/>
-    </row>
-    <row r="158" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B158" s="11" t="s">
+      <c r="F158" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P158" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q158" s="12"/>
+      <c r="R158" s="12"/>
+      <c r="S158" s="13"/>
+    </row>
+    <row r="159" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B159" s="11" t="s">
         <v>338</v>
       </c>
-      <c r="F158" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P158" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S158" s="13"/>
-    </row>
-    <row r="159" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B159" s="11" t="s">
+      <c r="F159" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P159" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S159" s="13"/>
+    </row>
+    <row r="160" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B160" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C159" s="17" t="s">
+      <c r="C160" s="17" t="s">
         <v>340</v>
       </c>
-      <c r="D159" s="11" t="s">
+      <c r="D160" s="11" t="s">
         <v>341</v>
       </c>
-      <c r="E159" s="11" t="s">
+      <c r="E160" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F159" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P159" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S159" s="13"/>
-    </row>
-    <row r="160" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B160" s="11" t="s">
+      <c r="F160" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P160" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S160" s="13"/>
+    </row>
+    <row r="161" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B161" s="11" t="s">
         <v>342</v>
       </c>
-      <c r="F160" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P160" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S160" s="13"/>
-    </row>
-    <row r="161" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B161" s="11" t="s">
+      <c r="F161" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P161" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S161" s="13"/>
+    </row>
+    <row r="162" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B162" s="11" t="s">
         <v>343</v>
       </c>
-      <c r="F161" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P161" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S161" s="13"/>
-    </row>
-    <row r="162" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B162" s="11" t="s">
+      <c r="F162" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P162" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S162" s="13"/>
+    </row>
+    <row r="163" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B163" s="11" t="s">
         <v>344</v>
       </c>
-      <c r="F162" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P162" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S162" s="13"/>
-    </row>
-    <row r="163" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B163" s="11" t="s">
+      <c r="F163" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P163" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S163" s="13"/>
+    </row>
+    <row r="164" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B164" s="11" t="s">
         <v>345</v>
       </c>
-      <c r="F163" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P163" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S163" s="13"/>
-    </row>
-    <row r="164" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="B164" s="12" t="s">
+      <c r="F164" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P164" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S164" s="13"/>
+    </row>
+    <row r="165" spans="1:19" s="11" customFormat="1" ht="64">
+      <c r="B165" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="C164" s="12" t="s">
+      <c r="C165" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D164" s="12" t="s">
+      <c r="D165" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="E164" s="12" t="s">
+      <c r="E165" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F164" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G164" s="12"/>
-      <c r="H164" s="12" t="s">
+      <c r="F165" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G165" s="12"/>
+      <c r="H165" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="I164" s="12"/>
-      <c r="J164" s="12"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="12"/>
-      <c r="N164" s="12"/>
-      <c r="O164" s="12"/>
-      <c r="P164" s="12"/>
-      <c r="S164" s="13"/>
-    </row>
-    <row r="165" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B165" s="11" t="s">
+      <c r="I165" s="12"/>
+      <c r="J165" s="12"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="12"/>
+      <c r="N165" s="12"/>
+      <c r="O165" s="12"/>
+      <c r="P165" s="12"/>
+      <c r="S165" s="13"/>
+    </row>
+    <row r="166" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B166" s="11" t="s">
         <v>346</v>
       </c>
-      <c r="F165" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P165" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S165" s="13"/>
-    </row>
-    <row r="166" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B166" s="11" t="s">
+      <c r="F166" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P166" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S166" s="13"/>
+    </row>
+    <row r="167" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B167" s="11" t="s">
         <v>347</v>
       </c>
-      <c r="F166" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P166" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S166" s="13"/>
-    </row>
-    <row r="167" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B167" s="11" t="s">
+      <c r="F167" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P167" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S167" s="13"/>
+    </row>
+    <row r="168" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B168" s="11" t="s">
         <v>348</v>
       </c>
-      <c r="F167" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P167" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S167" s="13"/>
-    </row>
-    <row r="168" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B168" s="11" t="s">
+      <c r="F168" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P168" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S168" s="13"/>
+    </row>
+    <row r="169" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B169" s="11" t="s">
         <v>349</v>
       </c>
-      <c r="F168" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P168" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S168" s="13"/>
-    </row>
-    <row r="169" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="12"/>
-      <c r="B169" s="11" t="s">
+      <c r="F169" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P169" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S169" s="13"/>
+    </row>
+    <row r="170" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A170" s="12"/>
+      <c r="B170" s="11" t="s">
         <v>350</v>
       </c>
-      <c r="F169" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P169" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q169" s="12"/>
-      <c r="R169" s="12"/>
-      <c r="S169" s="13"/>
-    </row>
-    <row r="170" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B170" s="11" t="s">
+      <c r="F170" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P170" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q170" s="12"/>
+      <c r="R170" s="12"/>
+      <c r="S170" s="13"/>
+    </row>
+    <row r="171" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B171" s="11" t="s">
         <v>351</v>
       </c>
-      <c r="F170" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P170" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S170" s="13"/>
-    </row>
-    <row r="171" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B171" s="11" t="s">
+      <c r="F171" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P171" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S171" s="13"/>
+    </row>
+    <row r="172" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B172" s="11" t="s">
         <v>352</v>
       </c>
-      <c r="F171" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P171" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S171" s="13"/>
-    </row>
-    <row r="172" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B172" s="11" t="s">
+      <c r="F172" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P172" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S172" s="13"/>
+    </row>
+    <row r="173" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B173" s="11" t="s">
         <v>353</v>
       </c>
-      <c r="F172" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P172" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S172" s="13"/>
-    </row>
-    <row r="173" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="B173" s="11" t="s">
+      <c r="F173" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P173" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S173" s="13"/>
+    </row>
+    <row r="174" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="B174" s="11" t="s">
         <v>354</v>
       </c>
-      <c r="C173" s="11" t="s">
+      <c r="C174" s="11" t="s">
         <v>507</v>
       </c>
-      <c r="D173" s="11" t="s">
+      <c r="D174" s="11" t="s">
         <v>355</v>
       </c>
-      <c r="E173" s="11" t="s">
+      <c r="E174" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F173" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P173" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S173" s="13"/>
-    </row>
-    <row r="174" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B174" s="13" t="s">
+      <c r="F174" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P174" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S174" s="13"/>
+    </row>
+    <row r="175" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B175" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="F174" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P174" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q174" s="13"/>
-      <c r="S174" s="13"/>
-    </row>
-    <row r="175" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A175" s="13"/>
-      <c r="B175" s="11" t="s">
+      <c r="F175" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P175" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q175" s="13"/>
+      <c r="S175" s="13"/>
+    </row>
+    <row r="176" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A176" s="13"/>
+      <c r="B176" s="11" t="s">
         <v>356</v>
       </c>
-      <c r="F175" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P175" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q175" s="13"/>
-      <c r="R175" s="14"/>
-      <c r="S175" s="13"/>
-    </row>
-    <row r="176" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B176" s="12" t="s">
+      <c r="F176" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P176" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q176" s="13"/>
+      <c r="R176" s="14"/>
+      <c r="S176" s="13"/>
+    </row>
+    <row r="177" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="B177" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="C176" s="12" t="s">
+      <c r="C177" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="D176" s="12" t="s">
+      <c r="D177" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="E176" s="12" t="s">
+      <c r="E177" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F176" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G176" s="12"/>
-      <c r="H176" s="12"/>
-      <c r="I176" s="12"/>
-      <c r="J176" s="12"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="12"/>
-      <c r="N176" s="12"/>
-      <c r="O176" s="12"/>
-      <c r="P176" s="12"/>
-      <c r="S176" s="13"/>
-    </row>
-    <row r="177" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B177" s="11" t="s">
+      <c r="F177" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G177" s="12"/>
+      <c r="H177" s="12"/>
+      <c r="I177" s="12"/>
+      <c r="J177" s="12"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="12"/>
+      <c r="N177" s="12"/>
+      <c r="O177" s="12"/>
+      <c r="P177" s="12"/>
+      <c r="S177" s="13"/>
+    </row>
+    <row r="178" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B178" s="11" t="s">
         <v>357</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P177" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="S177" s="13"/>
-    </row>
-    <row r="178" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B178" s="11" t="s">
+      <c r="F178" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P178" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="S178" s="13"/>
+    </row>
+    <row r="179" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B179" s="11" t="s">
         <v>358</v>
       </c>
-      <c r="F178" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P178" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" s="11" customFormat="1" ht="58" x14ac:dyDescent="0.35">
-      <c r="B179" s="12" t="s">
+      <c r="F179" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P179" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:19" s="11" customFormat="1" ht="64">
+      <c r="B180" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C179" s="12" t="s">
+      <c r="C180" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D179" s="12" t="s">
+      <c r="D180" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="E179" s="12" t="s">
+      <c r="E180" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F179" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G179" s="18" t="s">
+      <c r="F180" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G180" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="H179" s="12"/>
-      <c r="I179" s="12"/>
-      <c r="J179" s="12"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="12"/>
-      <c r="N179" s="12"/>
-      <c r="O179" s="12"/>
-      <c r="P179" s="12"/>
-    </row>
-    <row r="180" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B180" s="11" t="s">
+      <c r="H180" s="12"/>
+      <c r="I180" s="12"/>
+      <c r="J180" s="12"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="12"/>
+      <c r="N180" s="12"/>
+      <c r="O180" s="12"/>
+      <c r="P180" s="12"/>
+    </row>
+    <row r="181" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B181" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="F180" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P180" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="11" t="s">
+      <c r="F181" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P181" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B182" s="11" t="s">
         <v>360</v>
       </c>
-      <c r="F181" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P181" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A182" s="12"/>
-      <c r="B182" s="11" t="s">
+      <c r="F182" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P182" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="183" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A183" s="12"/>
+      <c r="B183" s="11" t="s">
         <v>361</v>
       </c>
-      <c r="F182" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P182" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q182" s="12"/>
-      <c r="R182" s="12"/>
-    </row>
-    <row r="183" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B183" s="16" t="s">
+      <c r="F183" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P183" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q183" s="12"/>
+      <c r="R183" s="12"/>
+    </row>
+    <row r="184" spans="1:19" s="26" customFormat="1" ht="48">
+      <c r="A184" s="25"/>
+      <c r="B184" s="26" t="s">
+        <v>537</v>
+      </c>
+      <c r="C184" s="27" t="s">
+        <v>538</v>
+      </c>
+      <c r="D184" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="J184" s="22" t="s">
+        <v>539</v>
+      </c>
+      <c r="N184" s="26" t="s">
+        <v>540</v>
+      </c>
+      <c r="O184" s="26" t="s">
+        <v>535</v>
+      </c>
+      <c r="P184" s="26" t="s">
+        <v>536</v>
+      </c>
+      <c r="Q184" s="25"/>
+      <c r="R184" s="25"/>
+    </row>
+    <row r="185" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B185" s="16" t="s">
         <v>279</v>
       </c>
-      <c r="C183" s="16" t="s">
+      <c r="C185" s="16" t="s">
         <v>280</v>
-      </c>
-      <c r="D183" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E183" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F183" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G183" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="O183" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="P183" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B184" s="11" t="s">
-        <v>362</v>
-      </c>
-      <c r="F184" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P184" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B185" s="16" t="s">
-        <v>281</v>
-      </c>
-      <c r="C185" s="16" t="s">
-        <v>282</v>
       </c>
       <c r="D185" s="11" t="s">
         <v>277</v>
@@ -6384,229 +6450,232 @@
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A186" s="13"/>
+    <row r="186" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="B186" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="F186" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P186" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="187" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B187" s="16" t="s">
+        <v>281</v>
+      </c>
+      <c r="C187" s="16" t="s">
+        <v>282</v>
+      </c>
+      <c r="D187" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E187" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F187" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G187" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O187" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="P187" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="188" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A188" s="13"/>
+      <c r="B188" s="11" t="s">
         <v>363</v>
       </c>
-      <c r="F186" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P186" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q186" s="13"/>
-      <c r="R186" s="14"/>
-    </row>
-    <row r="187" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A187" s="13"/>
-      <c r="B187" s="11" t="s">
+      <c r="F188" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P188" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q188" s="13"/>
+      <c r="R188" s="14"/>
+    </row>
+    <row r="189" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A189" s="13"/>
+      <c r="B189" s="11" t="s">
         <v>364</v>
       </c>
-      <c r="F187" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P187" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q187" s="13"/>
-      <c r="R187" s="14"/>
-    </row>
-    <row r="188" spans="1:19" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B188" s="16" t="s">
+      <c r="F189" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P189" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q189" s="13"/>
+      <c r="R189" s="14"/>
+    </row>
+    <row r="190" spans="1:19" s="11" customFormat="1" ht="48">
+      <c r="B190" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="C188" s="16" t="s">
+      <c r="C190" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="D188" s="11" t="s">
+      <c r="D190" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E188" s="11" t="s">
+      <c r="E190" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F188" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G188" s="11" t="s">
+      <c r="F190" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G190" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="O188" s="11" t="s">
+      <c r="O190" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P188" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B189" s="16" t="s">
+      <c r="P190" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="191" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B191" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="C189" s="16" t="s">
+      <c r="C191" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="D189" s="11" t="s">
+      <c r="D191" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E189" s="11" t="s">
+      <c r="E191" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F189" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G189" s="15" t="s">
+      <c r="F191" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G191" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="O189" s="11" t="s">
+      <c r="O191" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P189" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A190" s="13"/>
-      <c r="B190" s="11" t="s">
+      <c r="P191" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="192" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="A192" s="13"/>
+      <c r="B192" s="11" t="s">
         <v>365</v>
       </c>
-      <c r="F190" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P190" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q190" s="13"/>
-      <c r="R190" s="14"/>
-    </row>
-    <row r="191" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B191" s="11" t="s">
+      <c r="F192" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P192" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q192" s="13"/>
+      <c r="R192" s="14"/>
+    </row>
+    <row r="193" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B193" s="11" t="s">
         <v>366</v>
       </c>
-      <c r="F191" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P191" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B192" s="11" t="s">
+      <c r="F193" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P193" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B194" s="11" t="s">
         <v>367</v>
       </c>
-      <c r="F192" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P192" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="193" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A193" s="13"/>
-      <c r="B193" s="16" t="s">
+      <c r="F194" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P194" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="195" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A195" s="13"/>
+      <c r="B195" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="C193" s="16" t="s">
+      <c r="C195" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="D193" s="11" t="s">
+      <c r="D195" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E193" s="11" t="s">
+      <c r="E195" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F193" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G193" s="11" t="s">
+      <c r="F195" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G195" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="O193" s="11" t="s">
+      <c r="O195" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P193" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q193" s="13"/>
-      <c r="R193" s="14"/>
-    </row>
-    <row r="194" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B194" s="16" t="s">
+      <c r="P195" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q195" s="13"/>
+      <c r="R195" s="14"/>
+    </row>
+    <row r="196" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="B196" s="16" t="s">
         <v>493</v>
       </c>
-      <c r="C194" s="16" t="s">
+      <c r="C196" s="16" t="s">
         <v>492</v>
       </c>
-      <c r="D194" s="11" t="s">
+      <c r="D196" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E194" s="11" t="s">
+      <c r="E196" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F194" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G194" s="11" t="s">
+      <c r="F196" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G196" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="O194" s="11" t="s">
+      <c r="O196" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P194" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="195" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B195" s="11" t="s">
+      <c r="P196" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="197" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B197" s="11" t="s">
         <v>368</v>
       </c>
-      <c r="F195" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P195" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="196" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A196" s="13"/>
-      <c r="B196" s="11" t="s">
-        <v>369</v>
-      </c>
-      <c r="F196" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P196" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q196" s="13"/>
-      <c r="R196" s="14"/>
-    </row>
-    <row r="197" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A197" s="13"/>
-      <c r="B197" s="11" t="s">
-        <v>370</v>
-      </c>
       <c r="F197" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="I197" s="11" t="s">
-        <v>371</v>
-      </c>
       <c r="P197" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Q197" s="13"/>
-      <c r="R197" s="14"/>
-    </row>
-    <row r="198" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="198" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A198" s="13"/>
       <c r="B198" s="11" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F198" s="11" t="s">
         <v>5</v>
-      </c>
-      <c r="I198" s="11" t="s">
-        <v>373</v>
       </c>
       <c r="P198" s="11" t="s">
         <v>154</v>
@@ -6614,28 +6683,16 @@
       <c r="Q198" s="13"/>
       <c r="R198" s="14"/>
     </row>
-    <row r="199" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A199" s="13"/>
-      <c r="B199" s="16" t="s">
-        <v>285</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="D199" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E199" s="11" t="s">
-        <v>58</v>
+      <c r="B199" s="11" t="s">
+        <v>370</v>
       </c>
       <c r="F199" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G199" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="O199" s="11" t="s">
-        <v>274</v>
+      <c r="I199" s="11" t="s">
+        <v>371</v>
       </c>
       <c r="P199" s="11" t="s">
         <v>154</v>
@@ -6643,160 +6700,162 @@
       <c r="Q199" s="13"/>
       <c r="R199" s="14"/>
     </row>
-    <row r="200" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A200" s="13"/>
       <c r="B200" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="F200" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I200" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="P200" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q200" s="13"/>
+      <c r="R200" s="14"/>
+    </row>
+    <row r="201" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="A201" s="13"/>
+      <c r="B201" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="C201" s="16" t="s">
+        <v>286</v>
+      </c>
+      <c r="D201" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E201" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F201" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G201" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O201" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="P201" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q201" s="13"/>
+      <c r="R201" s="14"/>
+    </row>
+    <row r="202" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B202" s="11" t="s">
         <v>374</v>
       </c>
-      <c r="F200" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P200" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="201" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B201" s="11" t="s">
+      <c r="F202" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P202" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B203" s="11" t="s">
         <v>375</v>
       </c>
-      <c r="F201" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P201" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="202" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A202" s="13"/>
-      <c r="B202" s="11" t="s">
+      <c r="F203" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P203" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="204" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A204" s="13"/>
+      <c r="B204" s="11" t="s">
         <v>376</v>
       </c>
-      <c r="F202" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P202" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q202" s="13"/>
-      <c r="R202" s="14"/>
-    </row>
-    <row r="203" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A203" s="13"/>
-      <c r="B203" s="11" t="s">
+      <c r="F204" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P204" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q204" s="13"/>
+      <c r="R204" s="14"/>
+    </row>
+    <row r="205" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A205" s="13"/>
+      <c r="B205" s="11" t="s">
         <v>377</v>
       </c>
-      <c r="F203" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P203" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q203" s="13"/>
-      <c r="R203" s="14"/>
-    </row>
-    <row r="204" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A204" s="12"/>
-      <c r="B204" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E204" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F204" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P204" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q204" s="12"/>
-      <c r="R204" s="12"/>
-    </row>
-    <row r="205" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A205" s="13"/>
-      <c r="B205" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="C205" s="12" t="s">
-        <v>494</v>
-      </c>
-      <c r="D205" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E205" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F205" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G205" s="12"/>
-      <c r="H205" s="12"/>
-      <c r="I205" s="12"/>
-      <c r="J205" s="12"/>
-      <c r="K205" s="12"/>
-      <c r="L205" s="12"/>
-      <c r="M205" s="12"/>
-      <c r="N205" s="12"/>
-      <c r="O205" s="12"/>
-      <c r="P205" s="12"/>
+      <c r="F205" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P205" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="Q205" s="13"/>
       <c r="R205" s="14"/>
     </row>
-    <row r="206" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A206" s="13"/>
-      <c r="B206" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="C206" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="D206" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="E206" s="12" t="s">
+    <row r="206" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A206" s="12"/>
+      <c r="B206" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="E206" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F206" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G206" s="12"/>
-      <c r="H206" s="12"/>
-      <c r="I206" s="12"/>
-      <c r="J206" s="12"/>
-      <c r="K206" s="12"/>
-      <c r="L206" s="12"/>
-      <c r="M206" s="12"/>
-      <c r="N206" s="12"/>
-      <c r="O206" s="12"/>
-      <c r="P206" s="12"/>
-      <c r="Q206" s="13"/>
-      <c r="R206" s="14"/>
-    </row>
-    <row r="207" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F206" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P206" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q206" s="12"/>
+      <c r="R206" s="12"/>
+    </row>
+    <row r="207" spans="1:18" s="11" customFormat="1" ht="48">
       <c r="A207" s="13"/>
-      <c r="B207" s="11" t="s">
-        <v>378</v>
-      </c>
-      <c r="F207" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P207" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="B207" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C207" s="12" t="s">
+        <v>494</v>
+      </c>
+      <c r="D207" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="E207" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F207" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G207" s="12"/>
+      <c r="H207" s="12"/>
+      <c r="I207" s="12"/>
+      <c r="J207" s="12"/>
+      <c r="K207" s="12"/>
+      <c r="L207" s="12"/>
+      <c r="M207" s="12"/>
+      <c r="N207" s="12"/>
+      <c r="O207" s="12"/>
+      <c r="P207" s="12"/>
       <c r="Q207" s="13"/>
       <c r="R207" s="14"/>
     </row>
-    <row r="208" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="A208" s="13"/>
       <c r="B208" s="12" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="C208" s="12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D208" s="12" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E208" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="F208" s="12" t="s">
         <v>5</v>
@@ -6814,89 +6873,107 @@
       <c r="Q208" s="13"/>
       <c r="R208" s="14"/>
     </row>
-    <row r="209" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A209" s="13"/>
       <c r="B209" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="F209" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P209" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q209" s="13"/>
+      <c r="R209" s="14"/>
+    </row>
+    <row r="210" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="A210" s="13"/>
+      <c r="B210" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="C210" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D210" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="E210" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F210" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G210" s="12"/>
+      <c r="H210" s="12"/>
+      <c r="I210" s="12"/>
+      <c r="J210" s="12"/>
+      <c r="K210" s="12"/>
+      <c r="L210" s="12"/>
+      <c r="M210" s="12"/>
+      <c r="N210" s="12"/>
+      <c r="O210" s="12"/>
+      <c r="P210" s="12"/>
+      <c r="Q210" s="13"/>
+      <c r="R210" s="14"/>
+    </row>
+    <row r="211" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A211" s="13"/>
+      <c r="B211" s="11" t="s">
         <v>379</v>
       </c>
-      <c r="F209" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P209" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R209" s="14"/>
-    </row>
-    <row r="210" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A210" s="12"/>
-      <c r="B210" s="11" t="s">
+      <c r="F211" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P211" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R211" s="14"/>
+    </row>
+    <row r="212" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A212" s="12"/>
+      <c r="B212" s="11" t="s">
         <v>380</v>
       </c>
-      <c r="F210" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P210" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R210" s="12"/>
-    </row>
-    <row r="211" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A211" s="12"/>
-      <c r="B211" s="11" t="s">
+      <c r="F212" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P212" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R212" s="12"/>
+    </row>
+    <row r="213" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A213" s="12"/>
+      <c r="B213" s="11" t="s">
         <v>381</v>
       </c>
-      <c r="F211" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P211" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q211" s="13"/>
-      <c r="R211" s="12"/>
-    </row>
-    <row r="212" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A212" s="13"/>
-      <c r="B212" s="11" t="s">
+      <c r="F213" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P213" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q213" s="13"/>
+      <c r="R213" s="12"/>
+    </row>
+    <row r="214" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A214" s="13"/>
+      <c r="B214" s="11" t="s">
         <v>382</v>
       </c>
-      <c r="F212" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P212" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R212" s="14"/>
-    </row>
-    <row r="213" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A213" s="13"/>
-      <c r="B213" s="11" t="s">
-        <v>383</v>
-      </c>
-      <c r="F213" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P213" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q213" s="13"/>
-      <c r="R213" s="14"/>
-    </row>
-    <row r="214" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B214" s="11" t="s">
-        <v>384</v>
-      </c>
       <c r="F214" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P214" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Q214" s="13"/>
-    </row>
-    <row r="215" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R214" s="14"/>
+    </row>
+    <row r="215" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A215" s="13"/>
       <c r="B215" s="11" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="F215" s="11" t="s">
         <v>5</v>
@@ -6904,12 +6981,12 @@
       <c r="P215" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="Q215" s="13"/>
       <c r="R215" s="14"/>
     </row>
-    <row r="216" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A216" s="13"/>
+    <row r="216" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B216" s="11" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="F216" s="11" t="s">
         <v>5</v>
@@ -6917,339 +6994,321 @@
       <c r="P216" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="R216" s="14"/>
-    </row>
-    <row r="217" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q216" s="13"/>
+    </row>
+    <row r="217" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A217" s="13"/>
       <c r="B217" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="F217" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P217" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R217" s="14"/>
+    </row>
+    <row r="218" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A218" s="13"/>
+      <c r="B218" s="11" t="s">
+        <v>386</v>
+      </c>
+      <c r="F218" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P218" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R218" s="14"/>
+    </row>
+    <row r="219" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A219" s="13"/>
+      <c r="B219" s="11" t="s">
         <v>387</v>
       </c>
-      <c r="F217" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P217" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R217" s="14"/>
-    </row>
-    <row r="218" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B218" s="11" t="s">
+      <c r="F219" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P219" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R219" s="14"/>
+    </row>
+    <row r="220" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B220" s="11" t="s">
         <v>388</v>
       </c>
-      <c r="F218" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P218" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q218" s="13"/>
-    </row>
-    <row r="219" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B219" s="11" t="s">
+      <c r="F220" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P220" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q220" s="13"/>
+    </row>
+    <row r="221" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B221" s="11" t="s">
         <v>389</v>
       </c>
-      <c r="F219" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P219" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="220" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A220" s="13"/>
-      <c r="B220" s="12" t="s">
+      <c r="F221" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P221" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="222" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A222" s="13"/>
+      <c r="B222" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="C220" s="12"/>
-      <c r="D220" s="12"/>
-      <c r="E220" s="12"/>
-      <c r="F220" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G220" s="12"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="12"/>
-      <c r="J220" s="12"/>
-      <c r="K220" s="12"/>
-      <c r="L220" s="12"/>
-      <c r="M220" s="12"/>
-      <c r="N220" s="12"/>
-      <c r="O220" s="12"/>
-      <c r="P220" s="12"/>
-      <c r="R220" s="14"/>
-    </row>
-    <row r="221" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B221" s="16" t="s">
+      <c r="C222" s="12"/>
+      <c r="D222" s="12"/>
+      <c r="E222" s="12"/>
+      <c r="F222" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G222" s="12"/>
+      <c r="H222" s="12"/>
+      <c r="I222" s="12"/>
+      <c r="J222" s="12"/>
+      <c r="K222" s="12"/>
+      <c r="L222" s="12"/>
+      <c r="M222" s="12"/>
+      <c r="N222" s="12"/>
+      <c r="O222" s="12"/>
+      <c r="P222" s="12"/>
+      <c r="R222" s="14"/>
+    </row>
+    <row r="223" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B223" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="C221" s="16" t="s">
+      <c r="C223" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="D221" s="11" t="s">
+      <c r="D223" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E221" s="11" t="s">
+      <c r="E223" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F221" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G221" s="15" t="s">
+      <c r="F223" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G223" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="O221" s="11" t="s">
+      <c r="O223" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P221" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B222" s="11" t="s">
+      <c r="P223" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B224" s="11" t="s">
         <v>390</v>
       </c>
-      <c r="F222" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P222" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="223" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B223" s="11" t="s">
+      <c r="F224" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P224" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B225" s="11" t="s">
         <v>391</v>
       </c>
-      <c r="F223" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P223" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B224" s="11" t="s">
+      <c r="F225" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P225" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B226" s="11" t="s">
         <v>392</v>
       </c>
-      <c r="F224" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P224" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q224" s="13"/>
-    </row>
-    <row r="225" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B225" s="11" t="s">
+      <c r="F226" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P226" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q226" s="13"/>
+    </row>
+    <row r="227" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B227" s="11" t="s">
         <v>393</v>
       </c>
-      <c r="F225" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P225" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q225" s="12"/>
-    </row>
-    <row r="226" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B226" s="12" t="s">
+      <c r="F227" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P227" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q227" s="12"/>
+    </row>
+    <row r="228" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="B228" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C226" s="12" t="s">
+      <c r="C228" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D226" s="12" t="s">
+      <c r="D228" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="E226" s="12" t="s">
+      <c r="E228" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F226" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G226" s="18"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="12"/>
-      <c r="J226" s="12"/>
-      <c r="K226" s="12"/>
-      <c r="L226" s="12"/>
-      <c r="M226" s="12"/>
-      <c r="N226" s="12"/>
-      <c r="O226" s="12"/>
-      <c r="P226" s="12"/>
-    </row>
-    <row r="227" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A227" s="13"/>
-      <c r="B227" s="11" t="s">
+      <c r="F228" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G228" s="18"/>
+      <c r="H228" s="12"/>
+      <c r="I228" s="12"/>
+      <c r="J228" s="12"/>
+      <c r="K228" s="12"/>
+      <c r="L228" s="12"/>
+      <c r="M228" s="12"/>
+      <c r="N228" s="12"/>
+      <c r="O228" s="12"/>
+      <c r="P228" s="12"/>
+    </row>
+    <row r="229" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A229" s="13"/>
+      <c r="B229" s="11" t="s">
         <v>394</v>
       </c>
-      <c r="F227" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I227" s="11" t="s">
+      <c r="F229" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I229" s="11" t="s">
         <v>395</v>
       </c>
-      <c r="P227" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R227" s="14"/>
-    </row>
-    <row r="228" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B228" s="11" t="s">
+      <c r="P229" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R229" s="14"/>
+    </row>
+    <row r="230" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B230" s="11" t="s">
         <v>396</v>
       </c>
-      <c r="F228" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P228" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="229" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A229" s="12"/>
-      <c r="B229" s="11" t="s">
+      <c r="F230" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P230" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="231" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A231" s="12"/>
+      <c r="B231" s="11" t="s">
         <v>397</v>
       </c>
-      <c r="F229" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P229" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q229" s="13"/>
-      <c r="R229" s="12"/>
-    </row>
-    <row r="230" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A230" s="13"/>
-      <c r="B230" s="11" t="s">
+      <c r="F231" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P231" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q231" s="13"/>
+      <c r="R231" s="12"/>
+    </row>
+    <row r="232" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A232" s="13"/>
+      <c r="B232" s="11" t="s">
         <v>398</v>
       </c>
-      <c r="F230" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P230" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R230" s="14"/>
-    </row>
-    <row r="231" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A231" s="13"/>
-      <c r="B231" s="11" t="s">
+      <c r="F232" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P232" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R232" s="14"/>
+    </row>
+    <row r="233" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A233" s="13"/>
+      <c r="B233" s="11" t="s">
         <v>399</v>
       </c>
-      <c r="F231" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P231" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q231" s="13"/>
-      <c r="R231" s="14"/>
-    </row>
-    <row r="232" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B232" s="11" t="s">
+      <c r="F233" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P233" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q233" s="13"/>
+      <c r="R233" s="14"/>
+    </row>
+    <row r="234" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B234" s="11" t="s">
         <v>400</v>
       </c>
-      <c r="F232" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P232" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q232" s="13"/>
-    </row>
-    <row r="233" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B233" s="11" t="s">
+      <c r="F234" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P234" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q234" s="13"/>
+    </row>
+    <row r="235" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B235" s="11" t="s">
         <v>401</v>
       </c>
-      <c r="F233" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P233" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q233" s="13"/>
-    </row>
-    <row r="234" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A234" s="13"/>
-      <c r="B234" s="11" t="s">
+      <c r="F235" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P235" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q235" s="13"/>
+    </row>
+    <row r="236" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A236" s="13"/>
+      <c r="B236" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="F234" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P234" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R234" s="14"/>
-    </row>
-    <row r="235" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A235" s="13"/>
-      <c r="B235" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="C235" s="12" t="s">
-        <v>520</v>
-      </c>
-      <c r="D235" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="E235" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F235" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G235" s="12"/>
-      <c r="H235" s="12" t="s">
-        <v>521</v>
-      </c>
-      <c r="I235" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="J235" s="12"/>
-      <c r="K235" s="12"/>
-      <c r="L235" s="12"/>
-      <c r="M235" s="12"/>
-      <c r="N235" s="12"/>
-      <c r="O235" s="12"/>
-      <c r="P235" s="12"/>
-      <c r="R235" s="14"/>
-    </row>
-    <row r="236" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B236" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C236" s="12"/>
-      <c r="D236" s="12"/>
-      <c r="E236" s="12"/>
-      <c r="F236" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G236" s="12"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="12"/>
-      <c r="J236" s="12"/>
-      <c r="K236" s="12"/>
-      <c r="L236" s="12"/>
-      <c r="M236" s="12"/>
-      <c r="N236" s="12"/>
-      <c r="O236" s="12"/>
-      <c r="P236" s="12"/>
-    </row>
-    <row r="237" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F236" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P236" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R236" s="14"/>
+    </row>
+    <row r="237" spans="1:18" s="11" customFormat="1" ht="48">
       <c r="A237" s="13"/>
       <c r="B237" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="C237" s="12"/>
-      <c r="D237" s="12"/>
-      <c r="E237" s="12"/>
+        <v>69</v>
+      </c>
+      <c r="C237" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="D237" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="E237" s="12" t="s">
+        <v>58</v>
+      </c>
       <c r="F237" s="12" t="s">
         <v>5</v>
       </c>
       <c r="G237" s="12"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="12"/>
+      <c r="H237" s="12" t="s">
+        <v>521</v>
+      </c>
+      <c r="I237" s="12" t="s">
+        <v>73</v>
+      </c>
       <c r="J237" s="12"/>
       <c r="K237" s="12"/>
       <c r="L237" s="12"/>
@@ -7259,19 +7318,13 @@
       <c r="P237" s="12"/>
       <c r="R237" s="14"/>
     </row>
-    <row r="238" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="B238" s="12" t="s">
-        <v>59</v>
-      </c>
-      <c r="C238" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D238" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="E238" s="12" t="s">
-        <v>61</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="C238" s="12"/>
+      <c r="D238" s="12"/>
+      <c r="E238" s="12"/>
       <c r="F238" s="12" t="s">
         <v>5</v>
       </c>
@@ -7286,151 +7339,173 @@
       <c r="O238" s="12"/>
       <c r="P238" s="12"/>
     </row>
-    <row r="239" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B239" s="11" t="s">
+    <row r="239" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A239" s="13"/>
+      <c r="B239" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C239" s="12"/>
+      <c r="D239" s="12"/>
+      <c r="E239" s="12"/>
+      <c r="F239" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G239" s="12"/>
+      <c r="H239" s="12"/>
+      <c r="I239" s="12"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="12"/>
+      <c r="L239" s="12"/>
+      <c r="M239" s="12"/>
+      <c r="N239" s="12"/>
+      <c r="O239" s="12"/>
+      <c r="P239" s="12"/>
+      <c r="R239" s="14"/>
+    </row>
+    <row r="240" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="B240" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C240" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D240" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="E240" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F240" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G240" s="12"/>
+      <c r="H240" s="12"/>
+      <c r="I240" s="12"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="12"/>
+      <c r="L240" s="12"/>
+      <c r="M240" s="12"/>
+      <c r="N240" s="12"/>
+      <c r="O240" s="12"/>
+      <c r="P240" s="12"/>
+    </row>
+    <row r="241" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B241" s="11" t="s">
         <v>403</v>
       </c>
-      <c r="F239" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P239" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="240" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B240" s="11" t="s">
+      <c r="F241" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P241" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B242" s="11" t="s">
         <v>404</v>
       </c>
-      <c r="F240" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I240" s="11" t="s">
+      <c r="F242" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I242" s="11" t="s">
         <v>405</v>
       </c>
-      <c r="P240" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="241" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B241" s="11" t="s">
+      <c r="P242" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B243" s="11" t="s">
         <v>406</v>
       </c>
-      <c r="F241" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P241" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q241" s="12"/>
-    </row>
-    <row r="242" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B242" s="11" t="s">
+      <c r="F243" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P243" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q243" s="12"/>
+    </row>
+    <row r="244" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B244" s="11" t="s">
         <v>407</v>
       </c>
-      <c r="F242" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P242" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q242" s="12"/>
-    </row>
-    <row r="243" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B243" s="11" t="s">
+      <c r="F244" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P244" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q244" s="12"/>
+    </row>
+    <row r="245" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B245" s="11" t="s">
         <v>408</v>
       </c>
-      <c r="F243" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P243" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q243" s="12"/>
-    </row>
-    <row r="244" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A244" s="12"/>
-      <c r="B244" s="12" t="s">
+      <c r="F245" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P245" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q245" s="12"/>
+    </row>
+    <row r="246" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A246" s="12"/>
+      <c r="B246" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C244" s="12"/>
-      <c r="D244" s="12"/>
-      <c r="E244" s="12"/>
-      <c r="F244" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G244" s="12"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="12"/>
-      <c r="J244" s="12"/>
-      <c r="K244" s="12"/>
-      <c r="L244" s="12"/>
-      <c r="M244" s="12"/>
-      <c r="N244" s="12"/>
-      <c r="O244" s="12"/>
-      <c r="P244" s="12"/>
-      <c r="Q244" s="12"/>
-      <c r="R244" s="12"/>
-    </row>
-    <row r="245" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A245" s="12"/>
-      <c r="B245" s="16" t="s">
+      <c r="C246" s="12"/>
+      <c r="D246" s="12"/>
+      <c r="E246" s="12"/>
+      <c r="F246" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G246" s="12"/>
+      <c r="H246" s="12"/>
+      <c r="I246" s="12"/>
+      <c r="J246" s="12"/>
+      <c r="K246" s="12"/>
+      <c r="L246" s="12"/>
+      <c r="M246" s="12"/>
+      <c r="N246" s="12"/>
+      <c r="O246" s="12"/>
+      <c r="P246" s="12"/>
+      <c r="Q246" s="12"/>
+      <c r="R246" s="12"/>
+    </row>
+    <row r="247" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A247" s="12"/>
+      <c r="B247" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="C245" s="16" t="s">
+      <c r="C247" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="D245" s="11" t="s">
+      <c r="D247" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E245" s="11" t="s">
+      <c r="E247" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F245" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G245" s="15" t="s">
+      <c r="F247" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G247" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="O245" s="11" t="s">
+      <c r="O247" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P245" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R245" s="12"/>
-    </row>
-    <row r="246" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A246" s="13"/>
-      <c r="B246" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="F246" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P246" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q246" s="13"/>
-      <c r="R246" s="14"/>
-    </row>
-    <row r="247" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A247" s="13"/>
-      <c r="B247" s="11" t="s">
-        <v>410</v>
-      </c>
-      <c r="F247" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="P247" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Q247" s="13"/>
-      <c r="R247" s="14"/>
-    </row>
-    <row r="248" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R247" s="12"/>
+    </row>
+    <row r="248" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A248" s="13"/>
       <c r="B248" s="11" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="F248" s="11" t="s">
         <v>5</v>
@@ -7441,10 +7516,10 @@
       <c r="Q248" s="13"/>
       <c r="R248" s="14"/>
     </row>
-    <row r="249" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A249" s="13"/>
       <c r="B249" s="11" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="F249" s="11" t="s">
         <v>5</v>
@@ -7455,16 +7530,10 @@
       <c r="Q249" s="13"/>
       <c r="R249" s="14"/>
     </row>
-    <row r="250" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A250" s="13"/>
       <c r="B250" s="11" t="s">
-        <v>413</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>414</v>
-      </c>
-      <c r="D250" s="11" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="F250" s="11" t="s">
         <v>5</v>
@@ -7475,42 +7544,30 @@
       <c r="Q250" s="13"/>
       <c r="R250" s="14"/>
     </row>
-    <row r="251" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A251" s="13"/>
-      <c r="B251" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="C251" s="12" t="s">
-        <v>525</v>
-      </c>
-      <c r="D251" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="E251" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="F251" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G251" s="12"/>
-      <c r="H251" s="12"/>
-      <c r="I251" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="J251" s="12"/>
-      <c r="K251" s="12"/>
-      <c r="L251" s="12"/>
-      <c r="M251" s="12"/>
-      <c r="N251" s="12"/>
-      <c r="O251" s="12"/>
-      <c r="P251" s="12"/>
+      <c r="B251" s="11" t="s">
+        <v>412</v>
+      </c>
+      <c r="F251" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P251" s="11" t="s">
+        <v>154</v>
+      </c>
       <c r="Q251" s="13"/>
       <c r="R251" s="14"/>
     </row>
-    <row r="252" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="A252" s="13"/>
       <c r="B252" s="11" t="s">
-        <v>416</v>
+        <v>413</v>
+      </c>
+      <c r="C252" s="11" t="s">
+        <v>414</v>
+      </c>
+      <c r="D252" s="11" t="s">
+        <v>415</v>
       </c>
       <c r="F252" s="11" t="s">
         <v>5</v>
@@ -7521,39 +7578,42 @@
       <c r="Q252" s="13"/>
       <c r="R252" s="14"/>
     </row>
-    <row r="253" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:18" s="11" customFormat="1" ht="48">
       <c r="A253" s="13"/>
-      <c r="B253" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="C253" s="16" t="s">
-        <v>478</v>
-      </c>
-      <c r="D253" s="11" t="s">
-        <v>277</v>
-      </c>
-      <c r="E253" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="F253" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G253" s="11" t="s">
-        <v>472</v>
-      </c>
-      <c r="O253" s="11" t="s">
-        <v>274</v>
-      </c>
-      <c r="P253" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="B253" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="C253" s="12" t="s">
+        <v>525</v>
+      </c>
+      <c r="D253" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="E253" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="F253" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G253" s="12"/>
+      <c r="H253" s="12"/>
+      <c r="I253" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="J253" s="12"/>
+      <c r="K253" s="12"/>
+      <c r="L253" s="12"/>
+      <c r="M253" s="12"/>
+      <c r="N253" s="12"/>
+      <c r="O253" s="12"/>
+      <c r="P253" s="12"/>
       <c r="Q253" s="13"/>
       <c r="R253" s="14"/>
     </row>
-    <row r="254" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="A254" s="13"/>
       <c r="B254" s="11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F254" s="11" t="s">
         <v>5</v>
@@ -7561,15 +7621,16 @@
       <c r="P254" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="Q254" s="12"/>
+      <c r="Q254" s="13"/>
       <c r="R254" s="14"/>
     </row>
-    <row r="255" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="A255" s="13"/>
       <c r="B255" s="16" t="s">
-        <v>291</v>
+        <v>238</v>
       </c>
       <c r="C255" s="16" t="s">
-        <v>292</v>
+        <v>478</v>
       </c>
       <c r="D255" s="11" t="s">
         <v>277</v>
@@ -7580,8 +7641,8 @@
       <c r="F255" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G255" s="15" t="s">
-        <v>278</v>
+      <c r="G255" s="11" t="s">
+        <v>472</v>
       </c>
       <c r="O255" s="11" t="s">
         <v>274</v>
@@ -7590,614 +7651,628 @@
         <v>154</v>
       </c>
       <c r="Q255" s="13"/>
-    </row>
-    <row r="256" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R255" s="14"/>
+    </row>
+    <row r="256" spans="1:18" s="11" customFormat="1" ht="32">
       <c r="A256" s="13"/>
-      <c r="B256" s="12" t="s">
+      <c r="B256" s="11" t="s">
+        <v>417</v>
+      </c>
+      <c r="F256" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P256" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q256" s="12"/>
+      <c r="R256" s="14"/>
+    </row>
+    <row r="257" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B257" s="16" t="s">
+        <v>291</v>
+      </c>
+      <c r="C257" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="D257" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="E257" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F257" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G257" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="O257" s="11" t="s">
+        <v>274</v>
+      </c>
+      <c r="P257" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q257" s="13"/>
+    </row>
+    <row r="258" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A258" s="13"/>
+      <c r="B258" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C256" s="12"/>
-      <c r="D256" s="12"/>
-      <c r="E256" s="12"/>
-      <c r="F256" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G256" s="12"/>
-      <c r="H256" s="12"/>
-      <c r="I256" s="12"/>
-      <c r="J256" s="12"/>
-      <c r="K256" s="12"/>
-      <c r="L256" s="12"/>
-      <c r="M256" s="12"/>
-      <c r="N256" s="12"/>
-      <c r="O256" s="12"/>
-      <c r="P256" s="12"/>
-      <c r="R256" s="14"/>
-    </row>
-    <row r="257" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A257" s="12"/>
-      <c r="B257" s="11" t="s">
+      <c r="C258" s="12"/>
+      <c r="D258" s="12"/>
+      <c r="E258" s="12"/>
+      <c r="F258" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G258" s="12"/>
+      <c r="H258" s="12"/>
+      <c r="I258" s="12"/>
+      <c r="J258" s="12"/>
+      <c r="K258" s="12"/>
+      <c r="L258" s="12"/>
+      <c r="M258" s="12"/>
+      <c r="N258" s="12"/>
+      <c r="O258" s="12"/>
+      <c r="P258" s="12"/>
+      <c r="R258" s="14"/>
+    </row>
+    <row r="259" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A259" s="12"/>
+      <c r="B259" s="11" t="s">
         <v>418</v>
       </c>
-      <c r="F257" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P257" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R257" s="12"/>
-    </row>
-    <row r="258" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B258" s="11" t="s">
+      <c r="F259" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P259" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R259" s="12"/>
+    </row>
+    <row r="260" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B260" s="11" t="s">
         <v>419</v>
       </c>
-      <c r="F258" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P258" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="259" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A259" s="13"/>
-      <c r="B259" s="11" t="s">
+      <c r="F260" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P260" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="261" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A261" s="13"/>
+      <c r="B261" s="11" t="s">
         <v>420</v>
       </c>
-      <c r="F259" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P259" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R259" s="14"/>
-    </row>
-    <row r="260" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A260" s="13"/>
-      <c r="B260" s="11" t="s">
+      <c r="F261" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P261" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R261" s="14"/>
+    </row>
+    <row r="262" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A262" s="13"/>
+      <c r="B262" s="11" t="s">
         <v>421</v>
       </c>
-      <c r="F260" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P260" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q260" s="12"/>
-      <c r="R260" s="14"/>
-    </row>
-    <row r="261" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B261" s="11" t="s">
+      <c r="F262" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P262" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q262" s="12"/>
+      <c r="R262" s="14"/>
+    </row>
+    <row r="263" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B263" s="11" t="s">
         <v>422</v>
       </c>
-      <c r="F261" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P261" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q261" s="13"/>
-    </row>
-    <row r="262" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A262" s="12"/>
-      <c r="B262" s="11" t="s">
+      <c r="F263" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P263" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q263" s="13"/>
+    </row>
+    <row r="264" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A264" s="12"/>
+      <c r="B264" s="11" t="s">
         <v>423</v>
       </c>
-      <c r="F262" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P262" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q262" s="13"/>
-      <c r="R262" s="12"/>
-    </row>
-    <row r="263" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B263" s="11" t="s">
+      <c r="F264" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P264" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q264" s="13"/>
+      <c r="R264" s="12"/>
+    </row>
+    <row r="265" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B265" s="11" t="s">
         <v>424</v>
       </c>
-      <c r="F263" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P263" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A264" s="13"/>
-      <c r="B264" s="13" t="s">
+      <c r="F265" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P265" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A266" s="13"/>
+      <c r="B266" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F264" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P264" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R264" s="14"/>
-    </row>
-    <row r="265" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B265" s="16" t="s">
+      <c r="F266" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P266" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R266" s="14"/>
+    </row>
+    <row r="267" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B267" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="C265" s="16" t="s">
+      <c r="C267" s="16" t="s">
         <v>477</v>
       </c>
-      <c r="D265" s="11" t="s">
+      <c r="D267" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E265" s="11" t="s">
+      <c r="E267" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F265" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G265" s="11" t="s">
+      <c r="F267" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G267" s="11" t="s">
         <v>472</v>
       </c>
-      <c r="O265" s="11" t="s">
+      <c r="O267" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P265" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q265" s="13"/>
-    </row>
-    <row r="266" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B266" s="11" t="s">
+      <c r="P267" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q267" s="13"/>
+    </row>
+    <row r="268" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B268" s="11" t="s">
         <v>426</v>
       </c>
-      <c r="F266" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P266" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="267" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B267" s="11" t="s">
+      <c r="F268" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P268" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B269" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="F267" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P267" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="268" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A268" s="13"/>
-      <c r="B268" s="11" t="s">
+      <c r="F269" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P269" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="270" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="A270" s="13"/>
+      <c r="B270" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="F268" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P268" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R268" s="14"/>
-    </row>
-    <row r="269" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B269" s="11" t="s">
+      <c r="F270" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P270" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R270" s="14"/>
+    </row>
+    <row r="271" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B271" s="11" t="s">
         <v>429</v>
       </c>
-      <c r="F269" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P269" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="270" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B270" s="11" t="s">
+      <c r="F271" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P271" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B272" s="11" t="s">
         <v>430</v>
       </c>
-      <c r="F270" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P270" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q270" s="13"/>
-    </row>
-    <row r="271" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B271" s="11" t="s">
+      <c r="F272" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P272" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q272" s="13"/>
+    </row>
+    <row r="273" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B273" s="11" t="s">
         <v>431</v>
       </c>
-      <c r="F271" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P271" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B272" s="11" t="s">
+      <c r="F273" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P273" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B274" s="11" t="s">
         <v>432</v>
       </c>
-      <c r="F272" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P272" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B273" s="11" t="s">
+      <c r="F274" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P274" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B275" s="11" t="s">
         <v>433</v>
       </c>
-      <c r="F273" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P273" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A274" s="13"/>
-      <c r="B274" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="F274" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P274" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q274" s="13"/>
-      <c r="R274" s="14"/>
-    </row>
-    <row r="275" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A275" s="13"/>
-      <c r="B275" s="11" t="s">
-        <v>435</v>
-      </c>
       <c r="F275" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P275" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="R275" s="14"/>
-    </row>
-    <row r="276" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="276" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A276" s="13"/>
       <c r="B276" s="11" t="s">
+        <v>434</v>
+      </c>
+      <c r="F276" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P276" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q276" s="13"/>
+      <c r="R276" s="14"/>
+    </row>
+    <row r="277" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="A277" s="13"/>
+      <c r="B277" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="F277" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P277" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R277" s="14"/>
+    </row>
+    <row r="278" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="A278" s="13"/>
+      <c r="B278" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="F276" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P276" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R276" s="14"/>
-    </row>
-    <row r="277" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B277" s="11" t="s">
+      <c r="F278" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P278" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R278" s="14"/>
+    </row>
+    <row r="279" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B279" s="11" t="s">
         <v>437</v>
       </c>
-      <c r="F277" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P277" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q277" s="13"/>
-    </row>
-    <row r="278" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B278" s="11" t="s">
+      <c r="F279" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P279" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q279" s="13"/>
+    </row>
+    <row r="280" spans="1:19" s="11" customFormat="1" ht="32">
+      <c r="B280" s="11" t="s">
         <v>438</v>
       </c>
-      <c r="F278" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P278" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q278" s="13"/>
-    </row>
-    <row r="279" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B279" s="11" t="s">
+      <c r="F280" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P280" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q280" s="13"/>
+    </row>
+    <row r="281" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B281" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="F279" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P279" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q279" s="13"/>
-    </row>
-    <row r="280" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A280" s="13"/>
-      <c r="B280" s="11" t="s">
-        <v>440</v>
-      </c>
-      <c r="F280" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P280" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R280" s="14"/>
-    </row>
-    <row r="281" spans="1:19" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A281" s="13"/>
-      <c r="B281" s="11" t="s">
-        <v>441</v>
-      </c>
       <c r="F281" s="11" t="s">
         <v>5</v>
       </c>
       <c r="P281" s="11" t="s">
         <v>154</v>
       </c>
-      <c r="R281" s="14"/>
-    </row>
-    <row r="282" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q281" s="13"/>
+    </row>
+    <row r="282" spans="1:19" s="11" customFormat="1" ht="16">
       <c r="A282" s="13"/>
       <c r="B282" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="F282" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P282" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R282" s="14"/>
+    </row>
+    <row r="283" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A283" s="13"/>
+      <c r="B283" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="F283" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P283" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R283" s="14"/>
+    </row>
+    <row r="284" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A284" s="13"/>
+      <c r="B284" s="11" t="s">
         <v>442</v>
       </c>
-      <c r="F282" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P282" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R282" s="14"/>
-    </row>
-    <row r="283" spans="1:19" s="19" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A283" s="11"/>
-      <c r="B283" s="11" t="s">
+      <c r="F284" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P284" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R284" s="14"/>
+    </row>
+    <row r="285" spans="1:19" s="19" customFormat="1" ht="16">
+      <c r="A285" s="11"/>
+      <c r="B285" s="11" t="s">
         <v>443</v>
       </c>
-      <c r="C283" s="11"/>
-      <c r="D283" s="11"/>
-      <c r="E283" s="11"/>
-      <c r="F283" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G283" s="11"/>
-      <c r="H283" s="11"/>
-      <c r="I283" s="11"/>
-      <c r="J283" s="11"/>
-      <c r="K283" s="11"/>
-      <c r="L283" s="11"/>
-      <c r="M283" s="11"/>
-      <c r="N283" s="11"/>
-      <c r="O283" s="11"/>
-      <c r="P283" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q283" s="13"/>
-      <c r="R283" s="11"/>
-      <c r="S283" s="11"/>
-    </row>
-    <row r="284" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B284" s="11" t="s">
+      <c r="C285" s="11"/>
+      <c r="D285" s="11"/>
+      <c r="E285" s="11"/>
+      <c r="F285" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G285" s="11"/>
+      <c r="H285" s="11"/>
+      <c r="I285" s="11"/>
+      <c r="J285" s="11"/>
+      <c r="K285" s="11"/>
+      <c r="L285" s="11"/>
+      <c r="M285" s="11"/>
+      <c r="N285" s="11"/>
+      <c r="O285" s="11"/>
+      <c r="P285" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q285" s="13"/>
+      <c r="R285" s="11"/>
+      <c r="S285" s="11"/>
+    </row>
+    <row r="286" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B286" s="11" t="s">
         <v>444</v>
       </c>
-      <c r="F284" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P284" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="285" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B285" s="11" t="s">
+      <c r="F286" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P286" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="B287" s="11" t="s">
         <v>445</v>
       </c>
-      <c r="F285" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P285" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="286" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A286" s="13"/>
-      <c r="B286" s="11" t="s">
+      <c r="F287" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P287" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="288" spans="1:19" s="11" customFormat="1" ht="16">
+      <c r="A288" s="13"/>
+      <c r="B288" s="11" t="s">
         <v>446</v>
       </c>
-      <c r="F286" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P286" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R286" s="14"/>
-    </row>
-    <row r="287" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B287" s="11" t="s">
+      <c r="F288" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P288" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R288" s="14"/>
+    </row>
+    <row r="289" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B289" s="11" t="s">
         <v>447</v>
       </c>
-      <c r="F287" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P287" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="288" spans="1:19" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B288" s="11" t="s">
+      <c r="F289" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P289" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B290" s="11" t="s">
         <v>448</v>
       </c>
-      <c r="F288" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P288" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="289" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B289" s="11" t="s">
+      <c r="F290" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P290" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B291" s="11" t="s">
         <v>449</v>
       </c>
-      <c r="F289" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P289" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B290" s="11" t="s">
+      <c r="F291" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P291" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B292" s="11" t="s">
         <v>450</v>
       </c>
-      <c r="F290" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P290" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q290" s="13"/>
-    </row>
-    <row r="291" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B291" s="11" t="s">
+      <c r="F292" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P292" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q292" s="13"/>
+    </row>
+    <row r="293" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B293" s="11" t="s">
         <v>451</v>
       </c>
-      <c r="F291" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P291" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q291" s="13"/>
-    </row>
-    <row r="292" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B292" s="11" t="s">
+      <c r="F293" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P293" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q293" s="13"/>
+    </row>
+    <row r="294" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B294" s="11" t="s">
         <v>506</v>
       </c>
-      <c r="F292" s="11" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="293" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B293" s="11" t="s">
+      <c r="F294" s="11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B295" s="11" t="s">
         <v>452</v>
       </c>
-      <c r="F293" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P293" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="294" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A294" s="13"/>
-      <c r="B294" s="11" t="s">
+      <c r="F295" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P295" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="296" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A296" s="13"/>
+      <c r="B296" s="11" t="s">
         <v>453</v>
       </c>
-      <c r="F294" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P294" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q294" s="13"/>
-      <c r="R294" s="14"/>
-    </row>
-    <row r="295" spans="1:18" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B295" s="16" t="s">
+      <c r="F296" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P296" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q296" s="13"/>
+      <c r="R296" s="14"/>
+    </row>
+    <row r="297" spans="1:18" s="11" customFormat="1" ht="32">
+      <c r="B297" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C295" s="16" t="s">
+      <c r="C297" s="16" t="s">
         <v>294</v>
       </c>
-      <c r="D295" s="11" t="s">
+      <c r="D297" s="11" t="s">
         <v>277</v>
       </c>
-      <c r="E295" s="11" t="s">
+      <c r="E297" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F295" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G295" s="15" t="s">
+      <c r="F297" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G297" s="15" t="s">
         <v>278</v>
       </c>
-      <c r="O295" s="11" t="s">
+      <c r="O297" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="P295" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="296" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B296" s="11" t="s">
+      <c r="P297" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="298" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="B298" s="11" t="s">
         <v>454</v>
       </c>
-      <c r="F296" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P296" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q296" s="13"/>
-    </row>
-    <row r="297" spans="1:18" s="11" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="B297" s="12" t="s">
+      <c r="F298" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P298" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q298" s="13"/>
+    </row>
+    <row r="299" spans="1:18" s="11" customFormat="1" ht="48">
+      <c r="B299" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="C297" s="12" t="s">
+      <c r="C299" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="D297" s="12" t="s">
+      <c r="D299" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="E297" s="12" t="s">
+      <c r="E299" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="F297" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G297" s="12"/>
-      <c r="H297" s="12"/>
-      <c r="I297" s="12"/>
-      <c r="J297" s="12"/>
-      <c r="K297" s="12"/>
-      <c r="L297" s="12"/>
-      <c r="M297" s="12"/>
-      <c r="N297" s="12"/>
-      <c r="O297" s="12"/>
-      <c r="P297" s="12"/>
-      <c r="Q297" s="13"/>
-    </row>
-    <row r="298" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A298" s="13"/>
-      <c r="B298" s="11" t="s">
-        <v>455</v>
-      </c>
-      <c r="F298" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P298" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q298" s="13"/>
-      <c r="R298" s="14"/>
-    </row>
-    <row r="299" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A299" s="13"/>
-      <c r="B299" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="F299" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P299" s="11" t="s">
-        <v>154</v>
-      </c>
+      <c r="F299" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G299" s="12"/>
+      <c r="H299" s="12"/>
+      <c r="I299" s="12"/>
+      <c r="J299" s="12"/>
+      <c r="K299" s="12"/>
+      <c r="L299" s="12"/>
+      <c r="M299" s="12"/>
+      <c r="N299" s="12"/>
+      <c r="O299" s="12"/>
+      <c r="P299" s="12"/>
       <c r="Q299" s="13"/>
-      <c r="R299" s="14"/>
-    </row>
-    <row r="300" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="300" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A300" s="13"/>
       <c r="B300" s="11" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="F300" s="11" t="s">
         <v>5</v>
@@ -8208,10 +8283,10 @@
       <c r="Q300" s="13"/>
       <c r="R300" s="14"/>
     </row>
-    <row r="301" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A301" s="13"/>
       <c r="B301" s="11" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="F301" s="11" t="s">
         <v>5</v>
@@ -8219,12 +8294,13 @@
       <c r="P301" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="Q301" s="13"/>
       <c r="R301" s="14"/>
     </row>
-    <row r="302" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A302" s="13"/>
       <c r="B302" s="11" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="F302" s="11" t="s">
         <v>5</v>
@@ -8232,273 +8308,277 @@
       <c r="P302" s="11" t="s">
         <v>154</v>
       </c>
+      <c r="Q302" s="13"/>
       <c r="R302" s="14"/>
     </row>
-    <row r="303" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:18" s="11" customFormat="1" ht="16">
       <c r="A303" s="13"/>
       <c r="B303" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="F303" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P303" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R303" s="14"/>
+    </row>
+    <row r="304" spans="1:18" s="11" customFormat="1" ht="16">
+      <c r="A304" s="13"/>
+      <c r="B304" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="F304" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P304" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R304" s="14"/>
+    </row>
+    <row r="305" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="A305" s="13"/>
+      <c r="B305" s="11" t="s">
         <v>460</v>
       </c>
-      <c r="F303" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P303" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R303" s="14"/>
-    </row>
-    <row r="304" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B304" s="11" t="s">
+      <c r="F305" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P305" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R305" s="14"/>
+    </row>
+    <row r="306" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B306" s="11" t="s">
         <v>461</v>
       </c>
-      <c r="F304" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P304" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q304" s="12"/>
-    </row>
-    <row r="305" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B305" s="11" t="s">
+      <c r="F306" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P306" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q306" s="12"/>
+    </row>
+    <row r="307" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B307" s="11" t="s">
         <v>462</v>
       </c>
-      <c r="F305" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P305" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="306" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B306" s="11" t="s">
+      <c r="F307" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P307" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B308" s="11" t="s">
         <v>463</v>
       </c>
-      <c r="F306" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P306" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="307" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A307" s="12" t="s">
+      <c r="F308" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P308" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="309" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="A309" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="B307" s="11" t="s">
+      <c r="B309" s="11" t="s">
         <v>464</v>
       </c>
-      <c r="F307" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P307" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="R307" s="12"/>
-    </row>
-    <row r="308" spans="1:20" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A308" s="12"/>
-      <c r="B308" s="11" t="s">
+      <c r="F309" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P309" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="R309" s="12"/>
+    </row>
+    <row r="310" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="A310" s="12"/>
+      <c r="B310" s="11" t="s">
         <v>522</v>
       </c>
-      <c r="C308" s="11" t="s">
+      <c r="C310" s="11" t="s">
         <v>523</v>
       </c>
-      <c r="D308" s="11" t="s">
+      <c r="D310" s="11" t="s">
         <v>524</v>
       </c>
-      <c r="E308" s="11" t="s">
+      <c r="E310" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="F308" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="R308" s="12"/>
-    </row>
-    <row r="309" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B309" s="17" t="s">
+      <c r="F310" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="R310" s="12"/>
+    </row>
+    <row r="311" spans="1:20" s="17" customFormat="1" ht="16">
+      <c r="B311" s="17" t="s">
         <v>526</v>
       </c>
-      <c r="D309" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="H309" s="17" t="s">
+      <c r="D311" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="H311" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L309" s="15"/>
-      <c r="P309" s="17">
-        <v>1</v>
-      </c>
-      <c r="R309" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="T309" s="15"/>
-    </row>
-    <row r="310" spans="1:20" s="17" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B310" s="17" t="s">
+      <c r="L311" s="15"/>
+      <c r="P311" s="17">
+        <v>1</v>
+      </c>
+      <c r="R311" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T311" s="15"/>
+    </row>
+    <row r="312" spans="1:20" s="17" customFormat="1" ht="16">
+      <c r="B312" s="17" t="s">
         <v>528</v>
       </c>
-      <c r="D310" s="17" t="s">
+      <c r="D312" s="17" t="s">
         <v>527</v>
       </c>
-      <c r="H310" s="17" t="s">
+      <c r="H312" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="L310" s="15"/>
-      <c r="P310" s="17">
-        <v>1</v>
-      </c>
-      <c r="R310" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="T310" s="15"/>
-    </row>
-    <row r="311" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B311" s="11" t="s">
+      <c r="L312" s="15"/>
+      <c r="P312" s="17">
+        <v>1</v>
+      </c>
+      <c r="R312" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="T312" s="15"/>
+    </row>
+    <row r="313" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B313" s="11" t="s">
         <v>465</v>
       </c>
-      <c r="F311" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P311" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B312" s="13" t="s">
+      <c r="F313" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P313" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B314" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F312" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P312" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="313" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B313" s="13" t="s">
+      <c r="F314" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P314" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B315" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F313" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P313" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="314" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B314" s="13" t="s">
+      <c r="F315" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P315" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="316" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B316" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F314" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="I314" s="11" t="s">
+      <c r="F316" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="I316" s="11" t="s">
         <v>383</v>
       </c>
-      <c r="P314" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="315" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B315" s="11" t="s">
+      <c r="P316" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="317" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B317" s="11" t="s">
         <v>469</v>
       </c>
-      <c r="F315" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P315" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="316" spans="1:20" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B316" s="11" t="s">
+      <c r="F317" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P317" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" s="11" customFormat="1" ht="32">
+      <c r="B318" s="11" t="s">
         <v>470</v>
       </c>
-      <c r="F316" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P316" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="317" spans="1:20" s="11" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="B317" s="11" t="s">
+      <c r="F318" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P318" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" s="11" customFormat="1" ht="16">
+      <c r="B319" s="11" t="s">
         <v>471</v>
       </c>
-      <c r="F317" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="P317" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q317" s="13"/>
-    </row>
-    <row r="318" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B318" s="14"/>
-      <c r="P318" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="319" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B319" s="14"/>
-      <c r="F319" s="12"/>
-      <c r="G319" s="12"/>
-      <c r="H319" s="14"/>
-      <c r="I319" s="12"/>
-      <c r="J319" s="12"/>
-      <c r="K319" s="12"/>
-      <c r="L319" s="12">
-        <v>1</v>
-      </c>
-      <c r="M319" s="12"/>
-      <c r="N319" s="12"/>
-      <c r="O319" s="12"/>
-      <c r="P319" s="12"/>
-    </row>
-    <row r="320" spans="1:20" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F319" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="P319" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q319" s="13"/>
+    </row>
+    <row r="320" spans="1:20" s="11" customFormat="1" ht="16">
       <c r="B320" s="14"/>
       <c r="P320" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="321" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="321" spans="2:17" s="11" customFormat="1">
       <c r="B321" s="14"/>
-      <c r="P321" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="322" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="F321" s="12"/>
+      <c r="G321" s="12"/>
+      <c r="H321" s="14"/>
+      <c r="I321" s="12"/>
+      <c r="J321" s="12"/>
+      <c r="K321" s="12"/>
+      <c r="L321" s="12">
+        <v>1</v>
+      </c>
+      <c r="M321" s="12"/>
+      <c r="N321" s="12"/>
+      <c r="O321" s="12"/>
+      <c r="P321" s="12"/>
+    </row>
+    <row r="322" spans="2:17" s="11" customFormat="1" ht="16">
       <c r="B322" s="14"/>
       <c r="P322" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="323" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="323" spans="2:17" s="11" customFormat="1" ht="16">
       <c r="B323" s="14"/>
-      <c r="D323" s="12"/>
-      <c r="E323" s="12"/>
-      <c r="F323" s="12"/>
-      <c r="G323" s="12"/>
-      <c r="H323" s="12"/>
-      <c r="I323" s="12"/>
-      <c r="J323" s="12"/>
-      <c r="K323" s="12"/>
-      <c r="L323" s="12"/>
-      <c r="M323" s="12"/>
-      <c r="N323" s="12"/>
-      <c r="O323" s="12"/>
-      <c r="P323" s="12"/>
-    </row>
-    <row r="324" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P323" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="324" spans="2:17" s="11" customFormat="1" ht="16">
       <c r="B324" s="14"/>
       <c r="P324" s="11" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="325" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="2:17" s="11" customFormat="1">
       <c r="B325" s="14"/>
-      <c r="C325" s="12"/>
       <c r="D325" s="12"/>
       <c r="E325" s="12"/>
       <c r="F325" s="12"/>
@@ -8513,97 +8593,84 @@
       <c r="O325" s="12"/>
       <c r="P325" s="12"/>
     </row>
-    <row r="326" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="2:17" s="11" customFormat="1" ht="16">
       <c r="B326" s="14"/>
-      <c r="C326" s="12"/>
-      <c r="D326" s="12"/>
-      <c r="E326" s="12"/>
-      <c r="F326" s="12"/>
-      <c r="G326" s="12"/>
-      <c r="H326" s="12"/>
-      <c r="I326" s="12"/>
-      <c r="J326" s="12"/>
-      <c r="K326" s="12"/>
-      <c r="L326" s="12"/>
-      <c r="M326" s="12"/>
-      <c r="N326" s="12"/>
-      <c r="O326" s="12"/>
-      <c r="P326" s="12"/>
-    </row>
-    <row r="327" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="P326" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="327" spans="2:17" s="11" customFormat="1">
       <c r="B327" s="14"/>
-      <c r="Q327" s="12"/>
-    </row>
-    <row r="328" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C327" s="12"/>
+      <c r="D327" s="12"/>
+      <c r="E327" s="12"/>
+      <c r="F327" s="12"/>
+      <c r="G327" s="12"/>
+      <c r="H327" s="12"/>
+      <c r="I327" s="12"/>
+      <c r="J327" s="12"/>
+      <c r="K327" s="12"/>
+      <c r="L327" s="12"/>
+      <c r="M327" s="12"/>
+      <c r="N327" s="12"/>
+      <c r="O327" s="12"/>
+      <c r="P327" s="12"/>
+    </row>
+    <row r="328" spans="2:17" s="11" customFormat="1">
       <c r="B328" s="14"/>
-    </row>
-    <row r="329" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="C328" s="12"/>
+      <c r="D328" s="12"/>
+      <c r="E328" s="12"/>
+      <c r="F328" s="12"/>
+      <c r="G328" s="12"/>
+      <c r="H328" s="12"/>
+      <c r="I328" s="12"/>
+      <c r="J328" s="12"/>
+      <c r="K328" s="12"/>
+      <c r="L328" s="12"/>
+      <c r="M328" s="12"/>
+      <c r="N328" s="12"/>
+      <c r="O328" s="12"/>
+      <c r="P328" s="12"/>
+    </row>
+    <row r="329" spans="2:17" s="11" customFormat="1">
       <c r="B329" s="14"/>
-    </row>
-    <row r="330" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q329" s="12"/>
+    </row>
+    <row r="330" spans="2:17" s="11" customFormat="1">
       <c r="B330" s="14"/>
     </row>
-    <row r="331" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="2:17" s="11" customFormat="1">
       <c r="B331" s="14"/>
     </row>
-    <row r="332" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="2:17" s="11" customFormat="1">
       <c r="B332" s="14"/>
     </row>
-    <row r="333" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="2:17" s="11" customFormat="1">
       <c r="B333" s="14"/>
     </row>
-    <row r="334" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="2:17" s="11" customFormat="1">
       <c r="B334" s="14"/>
     </row>
-    <row r="335" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="2:17" s="11" customFormat="1">
       <c r="B335" s="14"/>
     </row>
-    <row r="336" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A336" s="14"/>
+    <row r="336" spans="2:17" s="11" customFormat="1">
       <c r="B336" s="14"/>
-      <c r="R336" s="12"/>
-    </row>
-    <row r="337" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="337" spans="1:18" s="11" customFormat="1">
       <c r="B337" s="14"/>
-      <c r="Q337" s="12"/>
-    </row>
-    <row r="338" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="338" spans="1:18" s="11" customFormat="1">
+      <c r="A338" s="14"/>
       <c r="B338" s="14"/>
-      <c r="C338" s="12"/>
-      <c r="D338" s="12"/>
-      <c r="E338" s="12"/>
-      <c r="F338" s="12"/>
-      <c r="G338" s="12"/>
-      <c r="H338" s="12"/>
-      <c r="I338" s="12"/>
-      <c r="J338" s="12"/>
-      <c r="K338" s="12"/>
-      <c r="L338" s="12"/>
-      <c r="M338" s="12"/>
-      <c r="N338" s="12"/>
-      <c r="O338" s="12"/>
-      <c r="P338" s="12"/>
-    </row>
-    <row r="339" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="R338" s="12"/>
+    </row>
+    <row r="339" spans="1:18" s="11" customFormat="1">
       <c r="B339" s="14"/>
-      <c r="C339" s="12"/>
-      <c r="D339" s="12"/>
-      <c r="E339" s="12"/>
-      <c r="F339" s="12"/>
-      <c r="G339" s="12"/>
-      <c r="H339" s="12"/>
-      <c r="I339" s="12"/>
-      <c r="J339" s="12"/>
-      <c r="K339" s="12"/>
-      <c r="L339" s="12"/>
-      <c r="M339" s="12"/>
-      <c r="N339" s="12"/>
-      <c r="O339" s="12"/>
-      <c r="P339" s="12"/>
       <c r="Q339" s="12"/>
     </row>
-    <row r="340" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A340" s="12"/>
+    <row r="340" spans="1:18" s="11" customFormat="1">
       <c r="B340" s="14"/>
       <c r="C340" s="12"/>
       <c r="D340" s="12"/>
@@ -8619,10 +8686,8 @@
       <c r="N340" s="12"/>
       <c r="O340" s="12"/>
       <c r="P340" s="12"/>
-      <c r="Q340" s="12"/>
-      <c r="R340" s="12"/>
-    </row>
-    <row r="341" spans="1:18" s="11" customFormat="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="341" spans="1:18" s="11" customFormat="1">
       <c r="B341" s="14"/>
       <c r="C341" s="12"/>
       <c r="D341" s="12"/>
@@ -8640,17 +8705,55 @@
       <c r="P341" s="12"/>
       <c r="Q341" s="12"/>
     </row>
-    <row r="342" spans="1:18" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:18" s="11" customFormat="1">
+      <c r="A342" s="12"/>
       <c r="B342" s="14"/>
+      <c r="C342" s="12"/>
+      <c r="D342" s="12"/>
+      <c r="E342" s="12"/>
+      <c r="F342" s="12"/>
+      <c r="G342" s="12"/>
+      <c r="H342" s="12"/>
+      <c r="I342" s="12"/>
+      <c r="J342" s="12"/>
+      <c r="K342" s="12"/>
+      <c r="L342" s="12"/>
+      <c r="M342" s="12"/>
+      <c r="N342" s="12"/>
+      <c r="O342" s="12"/>
+      <c r="P342" s="12"/>
+      <c r="Q342" s="12"/>
+      <c r="R342" s="12"/>
+    </row>
+    <row r="343" spans="1:18" s="11" customFormat="1">
+      <c r="B343" s="14"/>
+      <c r="C343" s="12"/>
+      <c r="D343" s="12"/>
+      <c r="E343" s="12"/>
+      <c r="F343" s="12"/>
+      <c r="G343" s="12"/>
+      <c r="H343" s="12"/>
+      <c r="I343" s="12"/>
+      <c r="J343" s="12"/>
+      <c r="K343" s="12"/>
+      <c r="L343" s="12"/>
+      <c r="M343" s="12"/>
+      <c r="N343" s="12"/>
+      <c r="O343" s="12"/>
+      <c r="P343" s="12"/>
+      <c r="Q343" s="12"/>
+    </row>
+    <row r="344" spans="1:18">
+      <c r="B344" s="14"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2824">
-    <sortCondition ref="F2:F2824"/>
-    <sortCondition descending="1" ref="N2:N2824"/>
-    <sortCondition ref="B2:B2824"/>
+  <sortState ref="A2:S2826">
+    <sortCondition ref="F2:F2826"/>
+    <sortCondition descending="1" ref="N2:N2826"/>
+    <sortCondition ref="B2:B2826"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="G179" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G180" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -8665,16 +8768,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1796875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.453125" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1796875" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1796875" style="4"/>
+    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.1640625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -8688,7 +8791,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8699,7 +8802,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8710,7 +8813,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8724,7 +8827,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -8735,7 +8838,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -8749,7 +8852,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -8760,7 +8863,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -8771,7 +8874,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -8782,7 +8885,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -8793,7 +8896,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -8804,7 +8907,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -8815,7 +8918,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -8826,7 +8929,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="58" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -8837,7 +8940,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="29" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" ht="16">
       <c r="A15" s="5" t="s">
         <v>150</v>
       </c>
@@ -8848,7 +8951,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" ht="16">
       <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
@@ -8859,7 +8962,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" ht="16">
       <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
@@ -8870,7 +8973,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" ht="16">
       <c r="A18" s="5" t="s">
         <v>153</v>
       </c>
@@ -8881,7 +8984,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="29" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" ht="32">
       <c r="A19" s="5" t="s">
         <v>495</v>
       </c>
@@ -8906,22 +9009,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.81640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.36328125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.453125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.36328125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.81640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.453125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.36328125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.36328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1796875" style="1"/>
+    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -8959,7 +9062,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="48">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -8973,7 +9076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="48">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -8987,7 +9090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="48">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -9004,7 +9107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="58" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="48">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -9015,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="48">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9029,7 +9132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="48">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -9046,7 +9149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="16">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -9060,7 +9163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="48">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9077,7 +9180,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="40.5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="42">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -9104,7 +9207,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9119,12 +9222,12 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.36328125" customWidth="1"/>
+    <col min="11" max="11" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="7" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" s="7" customFormat="1">
       <c r="A1" s="7" t="s">
         <v>29</v>
       </c>
@@ -9159,7 +9262,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11">
       <c r="A2">
         <v>1</v>
       </c>
@@ -9170,7 +9273,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11">
       <c r="A3">
         <v>2</v>
       </c>
@@ -9187,7 +9290,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>3</v>
       </c>
@@ -9204,7 +9307,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>4</v>
       </c>
@@ -9221,7 +9324,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>5</v>
       </c>
@@ -9238,7 +9341,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>6</v>
       </c>
@@ -9255,7 +9358,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>7</v>
       </c>
@@ -9272,7 +9375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>8</v>
       </c>
@@ -9289,7 +9392,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>9</v>
       </c>
@@ -9306,7 +9409,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>10</v>
       </c>
@@ -9323,7 +9426,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>11</v>
       </c>
@@ -9349,7 +9452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>12</v>
       </c>
@@ -9375,7 +9478,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>13</v>
       </c>
@@ -9401,7 +9504,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>14</v>
       </c>
@@ -9427,7 +9530,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>15</v>
       </c>
@@ -9453,7 +9556,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>16</v>
       </c>
@@ -9479,7 +9582,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9505,7 +9608,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9531,7 +9634,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9557,7 +9660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9583,7 +9686,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9609,7 +9712,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9635,7 +9738,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9661,7 +9764,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>24</v>
       </c>
@@ -9687,7 +9790,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>25</v>
       </c>
@@ -9713,7 +9816,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>26</v>
       </c>
@@ -9739,7 +9842,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9765,7 +9868,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9791,7 +9894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>29</v>
       </c>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10115"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rober\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFD9AC8-738B-B24B-9C32-D61222DBBF66}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D820EBB-CB33-47D4-9135-42957D436E06}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="10690" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="4" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1386" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="544">
   <si>
     <t>ID</t>
   </si>
@@ -496,9 +496,6 @@
     <t>Proposed</t>
   </si>
   <si>
-    <t>Adherence to treatment</t>
-  </si>
-  <si>
     <t>Age restriction on tobacco sales</t>
   </si>
   <si>
@@ -1652,6 +1649,18 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>Treatment adherability</t>
+  </si>
+  <si>
+    <t>An attribute of treatment that is the extent to which people receiving the treatment adhere to it.</t>
+  </si>
+  <si>
+    <t>Treatment attribute</t>
+  </si>
+  <si>
+    <t>Process attribute</t>
   </si>
 </sst>
 </file>
@@ -2193,34 +2202,34 @@
   <dimension ref="A1:T344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B94" sqref="B94"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="11" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="11" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="11" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="11" customWidth="1"/>
     <col min="6" max="6" width="16" style="11" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="11" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="11" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="11" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="11" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="11"/>
-    <col min="13" max="13" width="18.5" style="11" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" style="11"/>
-    <col min="16" max="16" width="13.5" style="11" customWidth="1"/>
-    <col min="17" max="17" width="37.1640625" style="11" customWidth="1"/>
-    <col min="18" max="18" width="48.6640625" style="11" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" style="11" customWidth="1"/>
-    <col min="20" max="16384" width="9.1640625" style="11"/>
+    <col min="7" max="7" width="35.42578125" style="11" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="11" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" style="11" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="11"/>
+    <col min="13" max="13" width="18.42578125" style="11" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="11"/>
+    <col min="16" max="16" width="13.42578125" style="11" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" style="11" customWidth="1"/>
+    <col min="18" max="18" width="48.7109375" style="11" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="11" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="8" customFormat="1" ht="32">
+    <row r="1" spans="1:19" s="8" customFormat="1" ht="30">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2273,16 +2282,22 @@
         <v>153</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" s="10" customFormat="1" ht="16">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B2" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
+        <v>540</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>541</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>542</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>543</v>
+      </c>
       <c r="F2" s="12" t="s">
         <v>5</v>
       </c>
@@ -2302,9 +2317,9 @@
       </c>
       <c r="S2" s="11"/>
     </row>
-    <row r="3" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="3" spans="1:19" s="10" customFormat="1">
       <c r="B3" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C3" s="12"/>
       <c r="D3" s="12"/>
@@ -2328,12 +2343,12 @@
       </c>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="4" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B4" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>157</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
@@ -2356,9 +2371,9 @@
       </c>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="5" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B5" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C5" s="12"/>
       <c r="D5" s="12"/>
@@ -2382,9 +2397,9 @@
       </c>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="6" spans="1:19" s="10" customFormat="1">
       <c r="B6" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" s="12"/>
       <c r="D6" s="12"/>
@@ -2408,12 +2423,12 @@
       </c>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="7" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B7" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>161</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>162</v>
       </c>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
@@ -2436,10 +2451,10 @@
       </c>
       <c r="S7" s="12"/>
     </row>
-    <row r="8" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="8" spans="1:19" s="10" customFormat="1">
       <c r="A8" s="12"/>
       <c r="B8" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="12"/>
@@ -2465,9 +2480,9 @@
       <c r="R8" s="13"/>
       <c r="S8" s="12"/>
     </row>
-    <row r="9" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="9" spans="1:19" s="10" customFormat="1">
       <c r="B9" s="12" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="12"/>
@@ -2490,10 +2505,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="10" spans="1:19" s="10" customFormat="1">
       <c r="A10" s="11"/>
       <c r="B10" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="12"/>
@@ -2518,9 +2533,9 @@
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
     </row>
-    <row r="11" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="11" spans="1:19" s="10" customFormat="1">
       <c r="B11" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="12"/>
@@ -2543,9 +2558,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="12" spans="1:19" s="10" customFormat="1">
       <c r="B12" s="12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="12"/>
@@ -2568,10 +2583,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="13" spans="1:19" s="10" customFormat="1">
       <c r="A13" s="12"/>
       <c r="B13" s="12" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C13" s="12"/>
       <c r="D13" s="12"/>
@@ -2596,10 +2611,10 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="13"/>
     </row>
-    <row r="14" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="14" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A14" s="12"/>
       <c r="B14" s="12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
@@ -2624,9 +2639,9 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="13"/>
     </row>
-    <row r="15" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="15" spans="1:19" s="10" customFormat="1">
       <c r="B15" s="12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C15" s="12"/>
       <c r="D15" s="12"/>
@@ -2649,10 +2664,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="16" spans="1:19" s="10" customFormat="1">
       <c r="A16" s="12"/>
       <c r="B16" s="12" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
@@ -2677,9 +2692,9 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="13"/>
     </row>
-    <row r="17" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="17" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B17" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="12"/>
@@ -2702,10 +2717,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="18" spans="1:18" s="10" customFormat="1">
       <c r="A18" s="12"/>
       <c r="B18" s="12" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C18" s="12"/>
       <c r="D18" s="12"/>
@@ -2730,9 +2745,9 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="13"/>
     </row>
-    <row r="19" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="19" spans="1:18" s="10" customFormat="1">
       <c r="B19" s="12" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="12"/>
@@ -2755,10 +2770,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="20" spans="1:18" s="10" customFormat="1">
       <c r="A20" s="12"/>
       <c r="B20" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
@@ -2783,9 +2798,9 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="13"/>
     </row>
-    <row r="21" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="21" spans="1:18" s="10" customFormat="1">
       <c r="B21" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -2808,9 +2823,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="22" spans="1:18" s="10" customFormat="1">
       <c r="B22" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -2833,10 +2848,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="23" spans="1:18" s="10" customFormat="1">
       <c r="A23" s="12"/>
       <c r="B23" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -2861,10 +2876,10 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="13"/>
     </row>
-    <row r="24" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="24" spans="1:18" s="10" customFormat="1">
       <c r="A24" s="12"/>
       <c r="B24" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
@@ -2889,10 +2904,10 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="13"/>
     </row>
-    <row r="25" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="25" spans="1:18" s="10" customFormat="1">
       <c r="A25" s="12"/>
       <c r="B25" s="12" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C25" s="12"/>
       <c r="D25" s="12"/>
@@ -2917,10 +2932,10 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="26" spans="1:18" s="10" customFormat="1">
       <c r="A26" s="12"/>
       <c r="B26" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="12"/>
@@ -2945,9 +2960,9 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="13"/>
     </row>
-    <row r="27" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="27" spans="1:18" s="10" customFormat="1">
       <c r="B27" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C27" s="12"/>
       <c r="D27" s="12"/>
@@ -2970,9 +2985,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="28" spans="1:18" s="10" customFormat="1">
       <c r="B28" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C28" s="12"/>
       <c r="D28" s="12"/>
@@ -2995,10 +3010,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="29" spans="1:18" s="10" customFormat="1">
       <c r="A29" s="12"/>
       <c r="B29" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C29" s="12"/>
       <c r="D29" s="12"/>
@@ -3023,12 +3038,12 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="13"/>
     </row>
-    <row r="30" spans="1:18" s="10" customFormat="1" ht="208">
+    <row r="30" spans="1:18" s="10" customFormat="1" ht="240">
       <c r="B30" s="12" t="s">
         <v>5</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D30" s="12" t="s">
         <v>58</v>
@@ -3040,10 +3055,10 @@
         <v>5</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="H30" s="12" t="s">
         <v>186</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>187</v>
       </c>
       <c r="I30" s="12"/>
       <c r="J30" s="13"/>
@@ -3058,9 +3073,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="31" spans="1:18" s="10" customFormat="1">
       <c r="B31" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C31" s="12"/>
       <c r="D31" s="12"/>
@@ -3083,9 +3098,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="10" customFormat="1" ht="64">
+    <row r="32" spans="1:18" s="10" customFormat="1" ht="60">
       <c r="B32" s="12" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C32" s="12"/>
       <c r="D32" s="12"/>
@@ -3094,10 +3109,10 @@
         <v>5</v>
       </c>
       <c r="G32" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="H32" s="12" t="s">
         <v>190</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>191</v>
       </c>
       <c r="I32" s="12"/>
       <c r="J32" s="13"/>
@@ -3112,9 +3127,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="10" customFormat="1" ht="96">
+    <row r="33" spans="1:18" s="10" customFormat="1" ht="120">
       <c r="B33" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C33" s="12"/>
       <c r="D33" s="12"/>
@@ -3123,10 +3138,10 @@
         <v>5</v>
       </c>
       <c r="G33" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="H33" s="12" t="s">
         <v>193</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>194</v>
       </c>
       <c r="I33" s="12"/>
       <c r="J33" s="13"/>
@@ -3141,12 +3156,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="34" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B34" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>195</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>196</v>
       </c>
       <c r="D34" s="12"/>
       <c r="E34" s="12"/>
@@ -3155,7 +3170,7 @@
       </c>
       <c r="G34" s="12"/>
       <c r="H34" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="I34" s="12"/>
       <c r="J34" s="13"/>
@@ -3170,10 +3185,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="35" spans="1:18" s="10" customFormat="1">
       <c r="A35" s="12"/>
       <c r="B35" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C35" s="12"/>
       <c r="D35" s="12"/>
@@ -3198,10 +3213,10 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="13"/>
     </row>
-    <row r="36" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="36" spans="1:18" s="10" customFormat="1">
       <c r="A36" s="12"/>
       <c r="B36" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C36" s="12"/>
       <c r="D36" s="12"/>
@@ -3226,10 +3241,10 @@
       <c r="Q36" s="12"/>
       <c r="R36" s="13"/>
     </row>
-    <row r="37" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="37" spans="1:18" s="10" customFormat="1">
       <c r="A37" s="12"/>
       <c r="B37" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C37" s="12"/>
       <c r="D37" s="12"/>
@@ -3254,10 +3269,10 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="13"/>
     </row>
-    <row r="38" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="38" spans="1:18" s="10" customFormat="1">
       <c r="A38" s="12"/>
       <c r="B38" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="12"/>
       <c r="D38" s="12"/>
@@ -3282,10 +3297,10 @@
       <c r="Q38" s="12"/>
       <c r="R38" s="13"/>
     </row>
-    <row r="39" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="39" spans="1:18" s="10" customFormat="1">
       <c r="A39" s="12"/>
       <c r="B39" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C39" s="12"/>
       <c r="D39" s="12"/>
@@ -3310,10 +3325,10 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="13"/>
     </row>
-    <row r="40" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="40" spans="1:18" s="10" customFormat="1">
       <c r="A40" s="12"/>
       <c r="B40" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="12"/>
       <c r="D40" s="12"/>
@@ -3338,10 +3353,10 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="13"/>
     </row>
-    <row r="41" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="41" spans="1:18" s="10" customFormat="1">
       <c r="A41" s="12"/>
       <c r="B41" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C41" s="12"/>
       <c r="D41" s="12"/>
@@ -3366,10 +3381,10 @@
       <c r="Q41" s="12"/>
       <c r="R41" s="13"/>
     </row>
-    <row r="42" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="42" spans="1:18" s="10" customFormat="1">
       <c r="A42" s="12"/>
       <c r="B42" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C42" s="12"/>
       <c r="D42" s="12"/>
@@ -3394,10 +3409,10 @@
       <c r="Q42" s="12"/>
       <c r="R42" s="13"/>
     </row>
-    <row r="43" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="43" spans="1:18" s="10" customFormat="1">
       <c r="A43" s="12"/>
       <c r="B43" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C43" s="12"/>
       <c r="D43" s="12"/>
@@ -3422,7 +3437,7 @@
       <c r="Q43" s="12"/>
       <c r="R43" s="13"/>
     </row>
-    <row r="44" spans="1:18" s="10" customFormat="1" ht="30">
+    <row r="44" spans="1:18" s="10" customFormat="1" ht="42.75">
       <c r="A44" s="12" t="s">
         <v>147</v>
       </c>
@@ -3454,10 +3469,10 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="13"/>
     </row>
-    <row r="45" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="45" spans="1:18" s="10" customFormat="1">
       <c r="A45" s="11"/>
       <c r="B45" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C45" s="12"/>
       <c r="D45" s="12"/>
@@ -3482,10 +3497,10 @@
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="46" spans="1:18" s="10" customFormat="1">
       <c r="A46" s="12"/>
       <c r="B46" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" s="12"/>
       <c r="D46" s="12"/>
@@ -3510,10 +3525,10 @@
       <c r="Q46" s="11"/>
       <c r="R46" s="13"/>
     </row>
-    <row r="47" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="47" spans="1:18" s="10" customFormat="1">
       <c r="A47" s="26"/>
       <c r="B47" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C47" s="12"/>
       <c r="D47" s="12"/>
@@ -3538,9 +3553,9 @@
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="48" spans="1:18" s="10" customFormat="1">
       <c r="B48" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C48" s="12"/>
       <c r="D48" s="12"/>
@@ -3564,9 +3579,9 @@
       </c>
       <c r="Q48" s="12"/>
     </row>
-    <row r="49" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="49" spans="1:18" s="10" customFormat="1">
       <c r="B49" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C49" s="12"/>
       <c r="D49" s="12"/>
@@ -3590,9 +3605,9 @@
       </c>
       <c r="Q49" s="12"/>
     </row>
-    <row r="50" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="50" spans="1:18" s="10" customFormat="1">
       <c r="B50" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C50" s="12"/>
       <c r="D50" s="12"/>
@@ -3615,9 +3630,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="51" spans="1:18" s="10" customFormat="1">
       <c r="B51" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C51" s="12"/>
       <c r="D51" s="12"/>
@@ -3640,7 +3655,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="52" spans="1:18" s="10" customFormat="1">
       <c r="A52" s="12"/>
       <c r="B52" s="12" t="s">
         <v>139</v>
@@ -3668,10 +3683,10 @@
       <c r="Q52" s="12"/>
       <c r="R52" s="13"/>
     </row>
-    <row r="53" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="53" spans="1:18" s="10" customFormat="1">
       <c r="A53" s="11"/>
       <c r="B53" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C53" s="12"/>
       <c r="D53" s="12"/>
@@ -3695,9 +3710,9 @@
       </c>
       <c r="R53" s="11"/>
     </row>
-    <row r="54" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="54" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B54" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C54" s="12"/>
       <c r="D54" s="12"/>
@@ -3720,9 +3735,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="55" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="55" spans="1:18" s="10" customFormat="1">
       <c r="B55" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C55" s="12"/>
       <c r="D55" s="12"/>
@@ -3746,18 +3761,18 @@
       </c>
       <c r="Q55" s="11"/>
     </row>
-    <row r="56" spans="1:18" s="10" customFormat="1" ht="60">
+    <row r="56" spans="1:18" s="10" customFormat="1" ht="71.25">
       <c r="A56" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="B56" s="12" t="s">
+        <v>355</v>
+      </c>
+      <c r="C56" s="25" t="s">
         <v>508</v>
       </c>
-      <c r="B56" s="12" t="s">
-        <v>356</v>
-      </c>
-      <c r="C56" s="25" t="s">
+      <c r="D56" s="12" t="s">
         <v>509</v>
-      </c>
-      <c r="D56" s="12" t="s">
-        <v>510</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>61</v>
@@ -3777,15 +3792,15 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="11"/>
     </row>
-    <row r="57" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="57" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="B57" s="12" t="s">
+        <v>510</v>
+      </c>
+      <c r="C57" s="12" t="s">
         <v>511</v>
       </c>
-      <c r="C57" s="12" t="s">
-        <v>512</v>
-      </c>
       <c r="D57" s="12" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>61</v>
@@ -3809,9 +3824,9 @@
       </c>
       <c r="Q57" s="12"/>
     </row>
-    <row r="58" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="58" spans="1:18" s="10" customFormat="1">
       <c r="B58" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C58" s="12"/>
       <c r="D58" s="12"/>
@@ -3835,10 +3850,10 @@
       </c>
       <c r="Q58" s="12"/>
     </row>
-    <row r="59" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="59" spans="1:18" s="10" customFormat="1">
       <c r="A59" s="12"/>
       <c r="B59" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -3862,10 +3877,10 @@
       </c>
       <c r="R59" s="13"/>
     </row>
-    <row r="60" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="60" spans="1:18" s="10" customFormat="1">
       <c r="A60" s="11"/>
       <c r="B60" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C60" s="12"/>
       <c r="D60" s="12"/>
@@ -3889,10 +3904,10 @@
       </c>
       <c r="R60" s="11"/>
     </row>
-    <row r="61" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="61" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A61" s="11"/>
       <c r="B61" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C61" s="12"/>
       <c r="D61" s="12"/>
@@ -3916,9 +3931,9 @@
       </c>
       <c r="R61" s="11"/>
     </row>
-    <row r="62" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="62" spans="1:18" s="10" customFormat="1">
       <c r="B62" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C62" s="12"/>
       <c r="D62" s="12"/>
@@ -3941,9 +3956,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="63" spans="1:18" s="10" customFormat="1">
       <c r="B63" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C63" s="12"/>
       <c r="D63" s="12"/>
@@ -3966,12 +3981,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="18" customFormat="1" ht="32">
+    <row r="64" spans="1:18" s="18" customFormat="1" ht="45">
       <c r="B64" s="19" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C64" s="19" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D64" s="19" t="s">
         <v>140</v>
@@ -3996,9 +4011,9 @@
       </c>
       <c r="Q64" s="21"/>
     </row>
-    <row r="65" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="65" spans="1:19" s="10" customFormat="1">
       <c r="B65" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C65" s="12"/>
       <c r="D65" s="12"/>
@@ -4021,9 +4036,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="66" spans="1:19" s="10" customFormat="1">
       <c r="B66" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C66" s="12"/>
       <c r="D66" s="12"/>
@@ -4047,10 +4062,10 @@
       </c>
       <c r="Q66" s="12"/>
     </row>
-    <row r="67" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="67" spans="1:19" s="10" customFormat="1">
       <c r="A67" s="11"/>
       <c r="B67" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C67" s="12"/>
       <c r="D67" s="12"/>
@@ -4075,10 +4090,10 @@
       <c r="Q67" s="12"/>
       <c r="R67" s="11"/>
     </row>
-    <row r="68" spans="1:19" s="18" customFormat="1" ht="16">
+    <row r="68" spans="1:19" s="18" customFormat="1">
       <c r="A68" s="10"/>
       <c r="B68" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C68" s="12"/>
       <c r="D68" s="12"/>
@@ -4104,10 +4119,10 @@
       <c r="R68" s="10"/>
       <c r="S68" s="10"/>
     </row>
-    <row r="69" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="69" spans="1:19" s="10" customFormat="1">
       <c r="A69" s="12"/>
       <c r="B69" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C69" s="12"/>
       <c r="D69" s="12"/>
@@ -4132,10 +4147,10 @@
       <c r="Q69" s="12"/>
       <c r="R69" s="13"/>
     </row>
-    <row r="70" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="70" spans="1:19" s="10" customFormat="1">
       <c r="A70" s="12"/>
       <c r="B70" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -4160,10 +4175,10 @@
       <c r="Q70" s="12"/>
       <c r="R70" s="13"/>
     </row>
-    <row r="71" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="71" spans="1:19" s="10" customFormat="1">
       <c r="A71" s="12"/>
       <c r="B71" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C71" s="12"/>
       <c r="D71" s="12"/>
@@ -4188,16 +4203,16 @@
       <c r="Q71" s="12"/>
       <c r="R71" s="13"/>
     </row>
-    <row r="72" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="72" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="A72" s="12"/>
       <c r="B72" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="C72" s="12" t="s">
         <v>518</v>
       </c>
-      <c r="C72" s="12" t="s">
-        <v>519</v>
-      </c>
       <c r="D72" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>61</v>
@@ -4222,16 +4237,16 @@
       <c r="Q72" s="12"/>
       <c r="R72" s="13"/>
     </row>
-    <row r="73" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="73" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="A73" s="12"/>
       <c r="B73" s="12" t="s">
+        <v>512</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>515</v>
+      </c>
+      <c r="D73" s="12" t="s">
         <v>513</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>516</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>514</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>61</v>
@@ -4252,16 +4267,16 @@
       <c r="Q73" s="12"/>
       <c r="R73" s="13"/>
     </row>
-    <row r="74" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="74" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="A74" s="12"/>
       <c r="B74" s="12" t="s">
+        <v>513</v>
+      </c>
+      <c r="C74" s="12" t="s">
         <v>514</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>515</v>
-      </c>
       <c r="D74" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E74" s="12" t="s">
         <v>61</v>
@@ -4282,10 +4297,10 @@
       <c r="Q74" s="12"/>
       <c r="R74" s="13"/>
     </row>
-    <row r="75" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="75" spans="1:19" s="10" customFormat="1">
       <c r="A75" s="12"/>
       <c r="B75" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>
@@ -4309,10 +4324,10 @@
       </c>
       <c r="R75" s="13"/>
     </row>
-    <row r="76" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="76" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A76" s="12"/>
       <c r="B76" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C76" s="12"/>
       <c r="D76" s="12"/>
@@ -4336,9 +4351,9 @@
       </c>
       <c r="R76" s="13"/>
     </row>
-    <row r="77" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="77" spans="1:19" s="10" customFormat="1">
       <c r="B77" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C77" s="12"/>
       <c r="D77" s="12"/>
@@ -4361,9 +4376,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="78" spans="1:19" s="10" customFormat="1">
       <c r="B78" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C78" s="12"/>
       <c r="D78" s="12"/>
@@ -4387,9 +4402,9 @@
       </c>
       <c r="Q78" s="12"/>
     </row>
-    <row r="79" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="79" spans="1:19" s="10" customFormat="1">
       <c r="B79" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C79" s="12"/>
       <c r="D79" s="12"/>
@@ -4413,10 +4428,10 @@
       </c>
       <c r="Q79" s="12"/>
     </row>
-    <row r="80" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="80" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A80" s="12"/>
       <c r="B80" s="12" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C80" s="12"/>
       <c r="D80" s="12"/>
@@ -4440,9 +4455,9 @@
       </c>
       <c r="R80" s="13"/>
     </row>
-    <row r="81" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="81" spans="1:18" s="10" customFormat="1">
       <c r="B81" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C81" s="12"/>
       <c r="D81" s="12"/>
@@ -4453,7 +4468,7 @@
       <c r="G81" s="12"/>
       <c r="H81" s="12"/>
       <c r="I81" s="12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="J81" s="13"/>
       <c r="K81" s="12"/>
@@ -4467,10 +4482,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="82" spans="1:18" s="10" customFormat="1">
       <c r="A82" s="12"/>
       <c r="B82" s="12" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -4495,10 +4510,10 @@
       <c r="Q82" s="12"/>
       <c r="R82" s="13"/>
     </row>
-    <row r="83" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="83" spans="1:18" s="10" customFormat="1">
       <c r="A83" s="12"/>
       <c r="B83" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C83" s="12"/>
       <c r="D83" s="12"/>
@@ -4523,9 +4538,9 @@
       <c r="Q83" s="12"/>
       <c r="R83" s="13"/>
     </row>
-    <row r="84" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="84" spans="1:18" s="10" customFormat="1">
       <c r="B84" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C84" s="12"/>
       <c r="D84" s="12"/>
@@ -4536,7 +4551,7 @@
       <c r="G84" s="12"/>
       <c r="H84" s="12"/>
       <c r="I84" s="12" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="J84" s="13"/>
       <c r="K84" s="12"/>
@@ -4551,18 +4566,18 @@
       </c>
       <c r="Q84" s="12"/>
     </row>
-    <row r="85" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="85" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B85" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C85" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="D85" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E85" s="12" t="s">
         <v>244</v>
-      </c>
-      <c r="D85" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>245</v>
       </c>
       <c r="F85" s="12" t="s">
         <v>5</v>
@@ -4582,10 +4597,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="86" spans="1:18" s="10" customFormat="1">
       <c r="A86" s="12"/>
       <c r="B86" s="10" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C86" s="12"/>
       <c r="D86" s="12"/>
@@ -4609,9 +4624,9 @@
       </c>
       <c r="R86" s="13"/>
     </row>
-    <row r="87" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="87" spans="1:18" s="10" customFormat="1">
       <c r="B87" s="12" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C87" s="12"/>
       <c r="D87" s="12"/>
@@ -4634,9 +4649,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="88" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="88" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B88" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C88" s="12"/>
       <c r="D88" s="12"/>
@@ -4647,7 +4662,7 @@
       <c r="G88" s="12"/>
       <c r="H88" s="12"/>
       <c r="I88" s="12" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="J88" s="13"/>
       <c r="K88" s="12"/>
@@ -4661,10 +4676,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="89" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="89" spans="1:18" s="10" customFormat="1" ht="60">
       <c r="A89" s="12"/>
       <c r="B89" s="12" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C89" s="12"/>
       <c r="D89" s="12"/>
@@ -4675,7 +4690,7 @@
       <c r="G89" s="12"/>
       <c r="H89" s="12"/>
       <c r="I89" s="12" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="J89" s="13"/>
       <c r="K89" s="12"/>
@@ -4690,9 +4705,9 @@
       </c>
       <c r="R89" s="13"/>
     </row>
-    <row r="90" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="90" spans="1:18" s="10" customFormat="1">
       <c r="B90" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C90" s="12"/>
       <c r="D90" s="12"/>
@@ -4715,9 +4730,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="91" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B91" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C91" s="12"/>
       <c r="D91" s="12"/>
@@ -4741,9 +4756,9 @@
       </c>
       <c r="Q91" s="12"/>
     </row>
-    <row r="92" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="92" spans="1:18" s="10" customFormat="1">
       <c r="B92" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C92" s="12"/>
       <c r="D92" s="12"/>
@@ -4767,9 +4782,9 @@
       </c>
       <c r="Q92" s="12"/>
     </row>
-    <row r="93" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="93" spans="1:18" s="10" customFormat="1">
       <c r="B93" s="12" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C93" s="12"/>
       <c r="D93" s="12"/>
@@ -4793,10 +4808,10 @@
       </c>
       <c r="Q93" s="12"/>
     </row>
-    <row r="94" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="94" spans="1:18" s="10" customFormat="1">
       <c r="A94" s="12"/>
       <c r="B94" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C94" s="12"/>
       <c r="D94" s="12"/>
@@ -4807,7 +4822,7 @@
       <c r="G94" s="12"/>
       <c r="H94" s="12"/>
       <c r="I94" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="J94" s="13"/>
       <c r="K94" s="12"/>
@@ -4822,9 +4837,9 @@
       </c>
       <c r="R94" s="13"/>
     </row>
-    <row r="95" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="95" spans="1:18" s="10" customFormat="1">
       <c r="B95" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C95" s="12"/>
       <c r="D95" s="12"/>
@@ -4847,9 +4862,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="96" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="96" spans="1:18" s="10" customFormat="1">
       <c r="B96" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C96" s="12"/>
       <c r="D96" s="12"/>
@@ -4872,9 +4887,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="97" spans="1:19" s="10" customFormat="1">
       <c r="B97" s="12" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C97" s="12"/>
       <c r="D97" s="12"/>
@@ -4897,9 +4912,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="98" spans="1:19" s="10" customFormat="1">
       <c r="B98" s="12" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C98" s="12"/>
       <c r="D98" s="12"/>
@@ -4922,9 +4937,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="99" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B99" s="12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C99" s="12"/>
       <c r="D99" s="12"/>
@@ -4947,10 +4962,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="100" spans="1:19" s="10" customFormat="1">
       <c r="A100" s="12"/>
       <c r="B100" s="12" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C100" s="12"/>
       <c r="D100" s="12"/>
@@ -4975,56 +4990,56 @@
       <c r="Q100" s="12"/>
       <c r="R100" s="13"/>
     </row>
-    <row r="101" spans="1:19" s="20" customFormat="1" ht="64">
+    <row r="101" spans="1:19" s="20" customFormat="1" ht="60">
       <c r="B101" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C101" s="20" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="D101" s="20" t="s">
         <v>83</v>
       </c>
       <c r="F101" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="N101" s="20">
+        <v>1</v>
+      </c>
+      <c r="O101" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="P101" s="20" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="102" spans="1:19" s="20" customFormat="1" ht="60">
+      <c r="B102" s="20" t="s">
         <v>531</v>
       </c>
-      <c r="N101" s="20">
-        <v>1</v>
-      </c>
-      <c r="O101" s="20" t="s">
+      <c r="C102" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="D102" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="F102" s="20" t="s">
+        <v>530</v>
+      </c>
+      <c r="N102" s="20">
+        <v>1</v>
+      </c>
+      <c r="O102" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="P102" s="20" t="s">
         <v>535</v>
       </c>
-      <c r="P101" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="102" spans="1:19" s="20" customFormat="1" ht="64">
-      <c r="B102" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="C102" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="D102" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="F102" s="20" t="s">
-        <v>531</v>
-      </c>
-      <c r="N102" s="20">
-        <v>1</v>
-      </c>
-      <c r="O102" s="20" t="s">
-        <v>535</v>
-      </c>
-      <c r="P102" s="20" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="103" spans="1:19" s="10" customFormat="1" ht="16">
+    </row>
+    <row r="103" spans="1:19" s="10" customFormat="1">
       <c r="A103" s="12"/>
       <c r="B103" s="12" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C103" s="12"/>
       <c r="D103" s="12"/>
@@ -5048,10 +5063,10 @@
       </c>
       <c r="R103" s="13"/>
     </row>
-    <row r="104" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="104" spans="1:19" s="10" customFormat="1">
       <c r="A104" s="12"/>
       <c r="B104" s="12" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C104" s="12"/>
       <c r="D104" s="12"/>
@@ -5075,10 +5090,10 @@
       </c>
       <c r="R104" s="13"/>
     </row>
-    <row r="105" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="105" spans="1:19" s="10" customFormat="1">
       <c r="A105" s="12"/>
       <c r="B105" s="12" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C105" s="12"/>
       <c r="D105" s="12"/>
@@ -5102,9 +5117,9 @@
       </c>
       <c r="R105" s="13"/>
     </row>
-    <row r="106" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="106" spans="1:19" s="10" customFormat="1">
       <c r="B106" s="12" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C106" s="12"/>
       <c r="D106" s="12"/>
@@ -5127,9 +5142,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="107" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="107" spans="1:19" s="10" customFormat="1">
       <c r="B107" s="10" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C107" s="12"/>
       <c r="D107" s="12"/>
@@ -5152,9 +5167,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="108" spans="1:19" s="10" customFormat="1">
       <c r="B108" s="12" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C108" s="12"/>
       <c r="D108" s="12"/>
@@ -5177,9 +5192,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="109" spans="1:19" s="10" customFormat="1">
       <c r="B109" s="10" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C109" s="12"/>
       <c r="D109" s="12"/>
@@ -5202,9 +5217,9 @@
         <v>154</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="110" spans="1:19" s="10" customFormat="1">
       <c r="B110" s="10" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C110" s="12"/>
       <c r="D110" s="12"/>
@@ -5227,19 +5242,19 @@
         <v>154</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="111" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A111" s="11"/>
       <c r="B111" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="C111" s="10" t="s">
         <v>295</v>
       </c>
-      <c r="C111" s="10" t="s">
+      <c r="D111" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D111" s="10" t="s">
+      <c r="E111" s="10" t="s">
         <v>297</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>298</v>
       </c>
       <c r="F111" s="10" t="s">
         <v>5</v>
@@ -5251,15 +5266,15 @@
       <c r="R111" s="11"/>
       <c r="S111" s="11"/>
     </row>
-    <row r="112" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="112" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B112" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="D112" s="10" t="s">
         <v>496</v>
-      </c>
-      <c r="C112" s="10" t="s">
-        <v>498</v>
-      </c>
-      <c r="D112" s="10" t="s">
-        <v>497</v>
       </c>
       <c r="E112" s="10" t="s">
         <v>58</v>
@@ -5268,7 +5283,7 @@
         <v>5</v>
       </c>
       <c r="O112" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P112" s="10" t="s">
         <v>154</v>
@@ -5277,13 +5292,13 @@
       <c r="R112" s="11"/>
       <c r="S112" s="11"/>
     </row>
-    <row r="113" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="113" spans="1:19" s="10" customFormat="1">
       <c r="A113" s="11"/>
       <c r="B113" s="10" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D113" s="10" t="s">
         <v>70</v>
@@ -5301,13 +5316,13 @@
       <c r="R113" s="11"/>
       <c r="S113" s="11"/>
     </row>
-    <row r="114" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="114" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A114" s="11"/>
       <c r="B114" s="10" t="s">
+        <v>298</v>
+      </c>
+      <c r="D114" s="10" t="s">
         <v>299</v>
-      </c>
-      <c r="D114" s="10" t="s">
-        <v>300</v>
       </c>
       <c r="F114" s="10" t="s">
         <v>5</v>
@@ -5319,7 +5334,7 @@
       <c r="R114" s="11"/>
       <c r="S114" s="11"/>
     </row>
-    <row r="115" spans="1:19" s="10" customFormat="1" ht="80">
+    <row r="115" spans="1:19" s="10" customFormat="1" ht="90">
       <c r="B115" s="11" t="s">
         <v>79</v>
       </c>
@@ -5351,9 +5366,9 @@
       <c r="P115" s="11"/>
       <c r="S115" s="12"/>
     </row>
-    <row r="116" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="116" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B116" s="10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F116" s="10" t="s">
         <v>5</v>
@@ -5363,7 +5378,7 @@
       </c>
       <c r="S116" s="12"/>
     </row>
-    <row r="117" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="117" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B117" s="11" t="s">
         <v>75</v>
       </c>
@@ -5393,7 +5408,7 @@
       <c r="P117" s="11"/>
       <c r="S117" s="12"/>
     </row>
-    <row r="118" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="118" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="A118" s="12"/>
       <c r="B118" s="11" t="s">
         <v>91</v>
@@ -5426,10 +5441,10 @@
       <c r="R118" s="13"/>
       <c r="S118" s="12"/>
     </row>
-    <row r="119" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="119" spans="1:19" s="10" customFormat="1">
       <c r="A119" s="11"/>
       <c r="B119" s="10" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F119" s="10" t="s">
         <v>5</v>
@@ -5441,7 +5456,7 @@
       <c r="R119" s="11"/>
       <c r="S119" s="12"/>
     </row>
-    <row r="120" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="120" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="A120" s="12"/>
       <c r="B120" s="11" t="s">
         <v>80</v>
@@ -5474,9 +5489,9 @@
       <c r="R120" s="13"/>
       <c r="S120" s="12"/>
     </row>
-    <row r="121" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="121" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B121" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F121" s="10" t="s">
         <v>5</v>
@@ -5486,10 +5501,10 @@
       </c>
       <c r="S121" s="12"/>
     </row>
-    <row r="122" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="122" spans="1:19" s="10" customFormat="1">
       <c r="A122" s="11"/>
       <c r="B122" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F122" s="10" t="s">
         <v>5</v>
@@ -5501,9 +5516,9 @@
       <c r="R122" s="11"/>
       <c r="S122" s="12"/>
     </row>
-    <row r="123" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="123" spans="1:19" s="10" customFormat="1">
       <c r="B123" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F123" s="10" t="s">
         <v>5</v>
@@ -5513,10 +5528,10 @@
       </c>
       <c r="S123" s="12"/>
     </row>
-    <row r="124" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="124" spans="1:19" s="10" customFormat="1">
       <c r="A124" s="11"/>
       <c r="B124" s="10" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F124" s="10" t="s">
         <v>5</v>
@@ -5528,9 +5543,9 @@
       <c r="R124" s="11"/>
       <c r="S124" s="12"/>
     </row>
-    <row r="125" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="125" spans="1:19" s="10" customFormat="1">
       <c r="B125" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F125" s="10" t="s">
         <v>5</v>
@@ -5540,10 +5555,10 @@
       </c>
       <c r="S125" s="12"/>
     </row>
-    <row r="126" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="126" spans="1:19" s="10" customFormat="1">
       <c r="A126" s="11"/>
       <c r="B126" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>5</v>
@@ -5555,58 +5570,58 @@
       <c r="R126" s="11"/>
       <c r="S126" s="12"/>
     </row>
-    <row r="127" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="127" spans="1:19" s="10" customFormat="1">
       <c r="B127" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="F127" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P127" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S127" s="12"/>
+    </row>
+    <row r="128" spans="1:19" s="10" customFormat="1">
+      <c r="B128" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F127" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P127" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S127" s="12"/>
-    </row>
-    <row r="128" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B128" s="10" t="s">
+      <c r="F128" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P128" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S128" s="12"/>
+    </row>
+    <row r="129" spans="1:19" s="10" customFormat="1" ht="30">
+      <c r="B129" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="F128" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P128" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S128" s="12"/>
-    </row>
-    <row r="129" spans="1:19" s="10" customFormat="1" ht="32">
-      <c r="B129" s="10" t="s">
+      <c r="F129" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P129" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S129" s="12"/>
+    </row>
+    <row r="130" spans="1:19" s="10" customFormat="1">
+      <c r="B130" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="F129" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P129" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S129" s="12"/>
-    </row>
-    <row r="130" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B130" s="10" t="s">
+      <c r="F130" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P130" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S130" s="12"/>
+    </row>
+    <row r="131" spans="1:19" s="10" customFormat="1">
+      <c r="B131" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="F130" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P130" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S130" s="12"/>
-    </row>
-    <row r="131" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B131" s="10" t="s">
-        <v>313</v>
-      </c>
       <c r="F131" s="10" t="s">
         <v>5</v>
       </c>
@@ -5615,10 +5630,10 @@
       </c>
       <c r="S131" s="12"/>
     </row>
-    <row r="132" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="132" spans="1:19" s="10" customFormat="1">
       <c r="A132" s="12"/>
       <c r="B132" s="10" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F132" s="10" t="s">
         <v>5</v>
@@ -5630,70 +5645,70 @@
       <c r="R132" s="13"/>
       <c r="S132" s="12"/>
     </row>
-    <row r="133" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="133" spans="1:19" s="10" customFormat="1">
       <c r="B133" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="F133" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P133" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S133" s="12"/>
+    </row>
+    <row r="134" spans="1:19" s="10" customFormat="1">
+      <c r="B134" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="F133" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P133" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S133" s="12"/>
-    </row>
-    <row r="134" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B134" s="10" t="s">
+      <c r="F134" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P134" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S134" s="12"/>
+    </row>
+    <row r="135" spans="1:19" s="10" customFormat="1">
+      <c r="B135" s="10" t="s">
         <v>316</v>
       </c>
-      <c r="F134" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P134" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S134" s="12"/>
-    </row>
-    <row r="135" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B135" s="10" t="s">
+      <c r="F135" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P135" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S135" s="12"/>
+    </row>
+    <row r="136" spans="1:19" s="10" customFormat="1">
+      <c r="B136" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="F135" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P135" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S135" s="12"/>
-    </row>
-    <row r="136" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B136" s="10" t="s">
+      <c r="F136" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P136" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S136" s="12"/>
+    </row>
+    <row r="137" spans="1:19" s="10" customFormat="1">
+      <c r="B137" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="F136" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P136" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S136" s="12"/>
-    </row>
-    <row r="137" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B137" s="10" t="s">
+      <c r="F137" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P137" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S137" s="12"/>
+    </row>
+    <row r="138" spans="1:19" s="10" customFormat="1">
+      <c r="B138" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="F137" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P137" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S137" s="12"/>
-    </row>
-    <row r="138" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B138" s="10" t="s">
-        <v>320</v>
-      </c>
       <c r="F138" s="10" t="s">
         <v>5</v>
       </c>
@@ -5702,10 +5717,10 @@
       </c>
       <c r="S138" s="12"/>
     </row>
-    <row r="139" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="139" spans="1:19" s="10" customFormat="1">
       <c r="A139" s="12"/>
       <c r="B139" s="10" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F139" s="10" t="s">
         <v>5</v>
@@ -5717,106 +5732,106 @@
       <c r="R139" s="13"/>
       <c r="S139" s="12"/>
     </row>
-    <row r="140" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="140" spans="1:19" s="10" customFormat="1">
       <c r="B140" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P140" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S140" s="12"/>
+    </row>
+    <row r="141" spans="1:19" s="10" customFormat="1">
+      <c r="B141" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="F140" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P140" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S140" s="12"/>
-    </row>
-    <row r="141" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B141" s="10" t="s">
+      <c r="F141" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P141" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S141" s="12"/>
+    </row>
+    <row r="142" spans="1:19" s="10" customFormat="1">
+      <c r="B142" s="10" t="s">
         <v>323</v>
       </c>
-      <c r="F141" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P141" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S141" s="12"/>
-    </row>
-    <row r="142" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B142" s="10" t="s">
+      <c r="F142" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P142" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S142" s="12"/>
+    </row>
+    <row r="143" spans="1:19" s="10" customFormat="1">
+      <c r="B143" s="10" t="s">
         <v>324</v>
       </c>
-      <c r="F142" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P142" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S142" s="12"/>
-    </row>
-    <row r="143" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B143" s="10" t="s">
+      <c r="F143" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P143" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S143" s="12"/>
+    </row>
+    <row r="144" spans="1:19" s="10" customFormat="1">
+      <c r="B144" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="F143" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P143" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S143" s="12"/>
-    </row>
-    <row r="144" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B144" s="10" t="s">
+      <c r="F144" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P144" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S144" s="12"/>
+    </row>
+    <row r="145" spans="1:19" s="10" customFormat="1">
+      <c r="B145" s="10" t="s">
         <v>326</v>
       </c>
-      <c r="F144" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P144" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S144" s="12"/>
-    </row>
-    <row r="145" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B145" s="10" t="s">
+      <c r="F145" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P145" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S145" s="12"/>
+    </row>
+    <row r="146" spans="1:19" s="10" customFormat="1">
+      <c r="B146" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="F145" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P145" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S145" s="12"/>
-    </row>
-    <row r="146" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B146" s="10" t="s">
+      <c r="F146" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P146" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S146" s="12"/>
+    </row>
+    <row r="147" spans="1:19" s="10" customFormat="1">
+      <c r="B147" s="10" t="s">
         <v>328</v>
       </c>
-      <c r="F146" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P146" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S146" s="12"/>
-    </row>
-    <row r="147" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B147" s="10" t="s">
+      <c r="F147" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P147" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S147" s="12"/>
+    </row>
+    <row r="148" spans="1:19" s="10" customFormat="1">
+      <c r="B148" s="10" t="s">
         <v>329</v>
       </c>
-      <c r="F147" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P147" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S147" s="12"/>
-    </row>
-    <row r="148" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B148" s="10" t="s">
-        <v>330</v>
-      </c>
       <c r="F148" s="10" t="s">
         <v>5</v>
       </c>
@@ -5825,7 +5840,7 @@
       </c>
       <c r="S148" s="12"/>
     </row>
-    <row r="149" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="149" spans="1:19" s="10" customFormat="1">
       <c r="B149" s="11" t="s">
         <v>66</v>
       </c>
@@ -5853,10 +5868,10 @@
       <c r="P149" s="11"/>
       <c r="S149" s="12"/>
     </row>
-    <row r="150" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="150" spans="1:19" s="10" customFormat="1">
       <c r="A150" s="12"/>
       <c r="B150" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="F150" s="10" t="s">
         <v>5</v>
@@ -5868,9 +5883,9 @@
       <c r="R150" s="13"/>
       <c r="S150" s="12"/>
     </row>
-    <row r="151" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="151" spans="1:19" s="10" customFormat="1">
       <c r="B151" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F151" s="10" t="s">
         <v>5</v>
@@ -5880,7 +5895,7 @@
       </c>
       <c r="S151" s="12"/>
     </row>
-    <row r="152" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="152" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B152" s="11" t="s">
         <v>130</v>
       </c>
@@ -5908,9 +5923,9 @@
       <c r="P152" s="11"/>
       <c r="S152" s="12"/>
     </row>
-    <row r="153" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="153" spans="1:19" s="10" customFormat="1">
       <c r="B153" s="10" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F153" s="10" t="s">
         <v>5</v>
@@ -5920,15 +5935,15 @@
       </c>
       <c r="S153" s="12"/>
     </row>
-    <row r="154" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="154" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B154" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="C154" s="15" t="s">
         <v>275</v>
       </c>
-      <c r="C154" s="15" t="s">
+      <c r="D154" s="10" t="s">
         <v>276</v>
-      </c>
-      <c r="D154" s="10" t="s">
-        <v>277</v>
       </c>
       <c r="E154" s="10" t="s">
         <v>58</v>
@@ -5937,26 +5952,26 @@
         <v>5</v>
       </c>
       <c r="G154" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O154" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P154" s="10" t="s">
         <v>154</v>
       </c>
       <c r="S154" s="12"/>
     </row>
-    <row r="155" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="155" spans="1:19" s="10" customFormat="1">
       <c r="A155" s="11"/>
       <c r="B155" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="F155" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I155" s="10" t="s">
         <v>334</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I155" s="10" t="s">
-        <v>335</v>
       </c>
       <c r="P155" s="10" t="s">
         <v>154</v>
@@ -5965,9 +5980,9 @@
       <c r="R155" s="11"/>
       <c r="S155" s="12"/>
     </row>
-    <row r="156" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="156" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B156" s="10" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F156" s="10" t="s">
         <v>5</v>
@@ -5977,15 +5992,15 @@
       </c>
       <c r="S156" s="12"/>
     </row>
-    <row r="157" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="157" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B157" s="15" t="s">
+        <v>473</v>
+      </c>
+      <c r="C157" s="15" t="s">
         <v>474</v>
       </c>
-      <c r="C157" s="15" t="s">
-        <v>475</v>
-      </c>
       <c r="D157" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E157" s="10" t="s">
         <v>58</v>
@@ -5994,20 +6009,20 @@
         <v>5</v>
       </c>
       <c r="G157" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O157" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P157" s="10" t="s">
         <v>154</v>
       </c>
       <c r="S157" s="12"/>
     </row>
-    <row r="158" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="158" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A158" s="11"/>
       <c r="B158" s="10" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F158" s="10" t="s">
         <v>5</v>
@@ -6019,27 +6034,27 @@
       <c r="R158" s="11"/>
       <c r="S158" s="12"/>
     </row>
-    <row r="159" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="159" spans="1:19" s="10" customFormat="1">
       <c r="B159" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P159" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S159" s="12"/>
+    </row>
+    <row r="160" spans="1:19" s="10" customFormat="1" ht="45">
+      <c r="B160" s="10" t="s">
         <v>338</v>
       </c>
-      <c r="F159" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P159" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S159" s="12"/>
-    </row>
-    <row r="160" spans="1:19" s="10" customFormat="1" ht="32">
-      <c r="B160" s="10" t="s">
+      <c r="C160" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="C160" s="16" t="s">
+      <c r="D160" s="10" t="s">
         <v>340</v>
-      </c>
-      <c r="D160" s="10" t="s">
-        <v>341</v>
       </c>
       <c r="E160" s="10" t="s">
         <v>58</v>
@@ -6052,46 +6067,46 @@
       </c>
       <c r="S160" s="12"/>
     </row>
-    <row r="161" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="161" spans="1:19" s="10" customFormat="1">
       <c r="B161" s="10" t="s">
+        <v>341</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P161" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S161" s="12"/>
+    </row>
+    <row r="162" spans="1:19" s="10" customFormat="1">
+      <c r="B162" s="10" t="s">
         <v>342</v>
       </c>
-      <c r="F161" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P161" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S161" s="12"/>
-    </row>
-    <row r="162" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B162" s="10" t="s">
+      <c r="F162" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P162" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S162" s="12"/>
+    </row>
+    <row r="163" spans="1:19" s="10" customFormat="1" ht="30">
+      <c r="B163" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="F162" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P162" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S162" s="12"/>
-    </row>
-    <row r="163" spans="1:19" s="10" customFormat="1" ht="32">
-      <c r="B163" s="10" t="s">
+      <c r="F163" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P163" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S163" s="12"/>
+    </row>
+    <row r="164" spans="1:19" s="10" customFormat="1">
+      <c r="B164" s="10" t="s">
         <v>344</v>
       </c>
-      <c r="F163" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P163" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S163" s="12"/>
-    </row>
-    <row r="164" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B164" s="10" t="s">
-        <v>345</v>
-      </c>
       <c r="F164" s="10" t="s">
         <v>5</v>
       </c>
@@ -6100,7 +6115,7 @@
       </c>
       <c r="S164" s="12"/>
     </row>
-    <row r="165" spans="1:19" s="10" customFormat="1" ht="64">
+    <row r="165" spans="1:19" s="10" customFormat="1" ht="60">
       <c r="B165" s="11" t="s">
         <v>62</v>
       </c>
@@ -6130,46 +6145,46 @@
       <c r="P165" s="11"/>
       <c r="S165" s="12"/>
     </row>
-    <row r="166" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="166" spans="1:19" s="10" customFormat="1">
       <c r="B166" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P166" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S166" s="12"/>
+    </row>
+    <row r="167" spans="1:19" s="10" customFormat="1" ht="30">
+      <c r="B167" s="10" t="s">
         <v>346</v>
       </c>
-      <c r="F166" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P166" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S166" s="12"/>
-    </row>
-    <row r="167" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B167" s="10" t="s">
+      <c r="F167" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P167" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S167" s="12"/>
+    </row>
+    <row r="168" spans="1:19" s="10" customFormat="1" ht="30">
+      <c r="B168" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="F167" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P167" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S167" s="12"/>
-    </row>
-    <row r="168" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B168" s="10" t="s">
+      <c r="F168" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P168" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S168" s="12"/>
+    </row>
+    <row r="169" spans="1:19" s="10" customFormat="1">
+      <c r="B169" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="F168" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P168" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S168" s="12"/>
-    </row>
-    <row r="169" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B169" s="10" t="s">
-        <v>349</v>
-      </c>
       <c r="F169" s="10" t="s">
         <v>5</v>
       </c>
@@ -6178,10 +6193,10 @@
       </c>
       <c r="S169" s="12"/>
     </row>
-    <row r="170" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="170" spans="1:19" s="10" customFormat="1">
       <c r="A170" s="11"/>
       <c r="B170" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F170" s="10" t="s">
         <v>5</v>
@@ -6193,51 +6208,51 @@
       <c r="R170" s="11"/>
       <c r="S170" s="12"/>
     </row>
-    <row r="171" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="171" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B171" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P171" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S171" s="12"/>
+    </row>
+    <row r="172" spans="1:19" s="10" customFormat="1">
+      <c r="B172" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="F171" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P171" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S171" s="12"/>
-    </row>
-    <row r="172" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B172" s="10" t="s">
+      <c r="F172" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P172" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S172" s="12"/>
+    </row>
+    <row r="173" spans="1:19" s="10" customFormat="1">
+      <c r="B173" s="10" t="s">
         <v>352</v>
       </c>
-      <c r="F172" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P172" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S172" s="12"/>
-    </row>
-    <row r="173" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B173" s="10" t="s">
+      <c r="F173" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P173" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S173" s="12"/>
+    </row>
+    <row r="174" spans="1:19" s="10" customFormat="1" ht="60">
+      <c r="B174" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="F173" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P173" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S173" s="12"/>
-    </row>
-    <row r="174" spans="1:19" s="10" customFormat="1" ht="48">
-      <c r="B174" s="10" t="s">
+      <c r="C174" s="10" t="s">
+        <v>506</v>
+      </c>
+      <c r="D174" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="C174" s="10" t="s">
-        <v>507</v>
-      </c>
-      <c r="D174" s="10" t="s">
-        <v>355</v>
       </c>
       <c r="E174" s="10" t="s">
         <v>58</v>
@@ -6250,9 +6265,9 @@
       </c>
       <c r="S174" s="12"/>
     </row>
-    <row r="175" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="175" spans="1:19" s="10" customFormat="1">
       <c r="B175" s="12" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="F175" s="10" t="s">
         <v>5</v>
@@ -6263,10 +6278,10 @@
       <c r="Q175" s="12"/>
       <c r="S175" s="12"/>
     </row>
-    <row r="176" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="176" spans="1:19" s="10" customFormat="1">
       <c r="A176" s="12"/>
       <c r="B176" s="10" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F176" s="10" t="s">
         <v>5</v>
@@ -6278,7 +6293,7 @@
       <c r="R176" s="13"/>
       <c r="S176" s="12"/>
     </row>
-    <row r="177" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="177" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B177" s="11" t="s">
         <v>78</v>
       </c>
@@ -6306,22 +6321,22 @@
       <c r="P177" s="11"/>
       <c r="S177" s="12"/>
     </row>
-    <row r="178" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="178" spans="1:19" s="10" customFormat="1">
       <c r="B178" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P178" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="S178" s="12"/>
+    </row>
+    <row r="179" spans="1:19" s="10" customFormat="1">
+      <c r="B179" s="10" t="s">
         <v>357</v>
       </c>
-      <c r="F178" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P178" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="S178" s="12"/>
-    </row>
-    <row r="179" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B179" s="10" t="s">
-        <v>358</v>
-      </c>
       <c r="F179" s="10" t="s">
         <v>5</v>
       </c>
@@ -6329,7 +6344,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="180" spans="1:19" s="10" customFormat="1" ht="64">
+    <row r="180" spans="1:19" s="10" customFormat="1" ht="75">
       <c r="B180" s="11" t="s">
         <v>131</v>
       </c>
@@ -6358,21 +6373,21 @@
       <c r="O180" s="11"/>
       <c r="P180" s="11"/>
     </row>
-    <row r="181" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="181" spans="1:19" s="10" customFormat="1">
       <c r="B181" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P181" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="182" spans="1:19" s="10" customFormat="1">
+      <c r="B182" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F181" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P181" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B182" s="10" t="s">
-        <v>360</v>
-      </c>
       <c r="F182" s="10" t="s">
         <v>5</v>
       </c>
@@ -6380,10 +6395,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="183" spans="1:19" s="10" customFormat="1">
       <c r="A183" s="11"/>
       <c r="B183" s="10" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F183" s="10" t="s">
         <v>5</v>
@@ -6394,41 +6409,41 @@
       <c r="Q183" s="11"/>
       <c r="R183" s="11"/>
     </row>
-    <row r="184" spans="1:19" s="23" customFormat="1" ht="48">
+    <row r="184" spans="1:19" s="23" customFormat="1" ht="60">
       <c r="A184" s="22"/>
       <c r="B184" s="23" t="s">
+        <v>536</v>
+      </c>
+      <c r="C184" s="24" t="s">
         <v>537</v>
       </c>
-      <c r="C184" s="24" t="s">
+      <c r="D184" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="J184" s="20" t="s">
         <v>538</v>
       </c>
-      <c r="D184" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="J184" s="20" t="s">
+      <c r="N184" s="23" t="s">
         <v>539</v>
       </c>
-      <c r="N184" s="23" t="s">
-        <v>540</v>
-      </c>
       <c r="O184" s="23" t="s">
+        <v>534</v>
+      </c>
+      <c r="P184" s="23" t="s">
         <v>535</v>
-      </c>
-      <c r="P184" s="23" t="s">
-        <v>536</v>
       </c>
       <c r="Q184" s="22"/>
       <c r="R184" s="22"/>
     </row>
-    <row r="185" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="185" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B185" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="C185" s="15" t="s">
         <v>279</v>
       </c>
-      <c r="C185" s="15" t="s">
-        <v>280</v>
-      </c>
       <c r="D185" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E185" s="10" t="s">
         <v>58</v>
@@ -6437,18 +6452,18 @@
         <v>5</v>
       </c>
       <c r="G185" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O185" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P185" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="186" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="186" spans="1:19" s="10" customFormat="1">
       <c r="B186" s="10" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F186" s="10" t="s">
         <v>5</v>
@@ -6457,15 +6472,15 @@
         <v>154</v>
       </c>
     </row>
-    <row r="187" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="187" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B187" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C187" s="15" t="s">
         <v>281</v>
       </c>
-      <c r="C187" s="15" t="s">
-        <v>282</v>
-      </c>
       <c r="D187" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E187" s="10" t="s">
         <v>58</v>
@@ -6474,19 +6489,19 @@
         <v>5</v>
       </c>
       <c r="G187" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O187" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P187" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="188" spans="1:19" s="10" customFormat="1">
       <c r="A188" s="12"/>
       <c r="B188" s="10" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F188" s="10" t="s">
         <v>5</v>
@@ -6497,10 +6512,10 @@
       <c r="Q188" s="12"/>
       <c r="R188" s="13"/>
     </row>
-    <row r="189" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="189" spans="1:19" s="10" customFormat="1">
       <c r="A189" s="12"/>
       <c r="B189" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F189" s="10" t="s">
         <v>5</v>
@@ -6511,15 +6526,15 @@
       <c r="Q189" s="12"/>
       <c r="R189" s="13"/>
     </row>
-    <row r="190" spans="1:19" s="10" customFormat="1" ht="48">
+    <row r="190" spans="1:19" s="10" customFormat="1" ht="45">
       <c r="B190" s="15" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C190" s="15" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D190" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E190" s="10" t="s">
         <v>58</v>
@@ -6528,24 +6543,24 @@
         <v>5</v>
       </c>
       <c r="G190" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O190" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P190" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="191" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="191" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="B191" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="C191" s="15" t="s">
         <v>283</v>
       </c>
-      <c r="C191" s="15" t="s">
-        <v>284</v>
-      </c>
       <c r="D191" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E191" s="10" t="s">
         <v>58</v>
@@ -6554,19 +6569,19 @@
         <v>5</v>
       </c>
       <c r="G191" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O191" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P191" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="192" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="192" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A192" s="12"/>
       <c r="B192" s="10" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="F192" s="10" t="s">
         <v>5</v>
@@ -6577,21 +6592,21 @@
       <c r="Q192" s="12"/>
       <c r="R192" s="13"/>
     </row>
-    <row r="193" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="193" spans="1:18" s="10" customFormat="1">
       <c r="B193" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P193" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="194" spans="1:18" s="10" customFormat="1">
+      <c r="B194" s="10" t="s">
         <v>366</v>
       </c>
-      <c r="F193" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P193" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="194" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B194" s="10" t="s">
-        <v>367</v>
-      </c>
       <c r="F194" s="10" t="s">
         <v>5</v>
       </c>
@@ -6599,16 +6614,16 @@
         <v>154</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="195" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A195" s="12"/>
       <c r="B195" s="15" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C195" s="15" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E195" s="10" t="s">
         <v>58</v>
@@ -6617,10 +6632,10 @@
         <v>5</v>
       </c>
       <c r="G195" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O195" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P195" s="10" t="s">
         <v>154</v>
@@ -6628,15 +6643,15 @@
       <c r="Q195" s="12"/>
       <c r="R195" s="13"/>
     </row>
-    <row r="196" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="196" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="B196" s="15" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C196" s="15" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E196" s="10" t="s">
         <v>58</v>
@@ -6645,18 +6660,18 @@
         <v>5</v>
       </c>
       <c r="G196" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O196" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P196" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="197" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="197" spans="1:18" s="10" customFormat="1">
       <c r="B197" s="10" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="F197" s="10" t="s">
         <v>5</v>
@@ -6665,10 +6680,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="198" spans="1:18" s="10" customFormat="1">
       <c r="A198" s="12"/>
       <c r="B198" s="10" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="F198" s="10" t="s">
         <v>5</v>
@@ -6679,16 +6694,16 @@
       <c r="Q198" s="12"/>
       <c r="R198" s="13"/>
     </row>
-    <row r="199" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="199" spans="1:18" s="10" customFormat="1">
       <c r="A199" s="12"/>
       <c r="B199" s="10" t="s">
+        <v>369</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I199" s="10" t="s">
         <v>370</v>
-      </c>
-      <c r="F199" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I199" s="10" t="s">
-        <v>371</v>
       </c>
       <c r="P199" s="10" t="s">
         <v>154</v>
@@ -6696,16 +6711,16 @@
       <c r="Q199" s="12"/>
       <c r="R199" s="13"/>
     </row>
-    <row r="200" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="200" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A200" s="12"/>
       <c r="B200" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I200" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="F200" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I200" s="10" t="s">
-        <v>373</v>
       </c>
       <c r="P200" s="10" t="s">
         <v>154</v>
@@ -6713,16 +6728,16 @@
       <c r="Q200" s="12"/>
       <c r="R200" s="13"/>
     </row>
-    <row r="201" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="201" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A201" s="12"/>
       <c r="B201" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C201" s="15" t="s">
         <v>285</v>
       </c>
-      <c r="C201" s="15" t="s">
-        <v>286</v>
-      </c>
       <c r="D201" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E201" s="10" t="s">
         <v>58</v>
@@ -6731,10 +6746,10 @@
         <v>5</v>
       </c>
       <c r="G201" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O201" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P201" s="10" t="s">
         <v>154</v>
@@ -6742,21 +6757,21 @@
       <c r="Q201" s="12"/>
       <c r="R201" s="13"/>
     </row>
-    <row r="202" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="202" spans="1:18" s="10" customFormat="1">
       <c r="B202" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P202" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="203" spans="1:18" s="10" customFormat="1">
+      <c r="B203" s="10" t="s">
         <v>374</v>
       </c>
-      <c r="F202" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P202" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="203" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B203" s="10" t="s">
-        <v>375</v>
-      </c>
       <c r="F203" s="10" t="s">
         <v>5</v>
       </c>
@@ -6764,10 +6779,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="204" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="204" spans="1:18" s="10" customFormat="1">
       <c r="A204" s="12"/>
       <c r="B204" s="10" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="F204" s="10" t="s">
         <v>5</v>
@@ -6778,10 +6793,10 @@
       <c r="Q204" s="12"/>
       <c r="R204" s="13"/>
     </row>
-    <row r="205" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="205" spans="1:18" s="10" customFormat="1">
       <c r="A205" s="12"/>
       <c r="B205" s="10" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="F205" s="10" t="s">
         <v>5</v>
@@ -6792,10 +6807,10 @@
       <c r="Q205" s="12"/>
       <c r="R205" s="13"/>
     </row>
-    <row r="206" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="206" spans="1:18" s="10" customFormat="1">
       <c r="A206" s="11"/>
       <c r="B206" s="10" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E206" s="10" t="s">
         <v>58</v>
@@ -6809,13 +6824,13 @@
       <c r="Q206" s="11"/>
       <c r="R206" s="11"/>
     </row>
-    <row r="207" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="207" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A207" s="12"/>
       <c r="B207" s="11" t="s">
         <v>60</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D207" s="11" t="s">
         <v>137</v>
@@ -6839,7 +6854,7 @@
       <c r="Q207" s="12"/>
       <c r="R207" s="13"/>
     </row>
-    <row r="208" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="208" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A208" s="12"/>
       <c r="B208" s="11" t="s">
         <v>67</v>
@@ -6869,10 +6884,10 @@
       <c r="Q208" s="12"/>
       <c r="R208" s="13"/>
     </row>
-    <row r="209" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="209" spans="1:18" s="10" customFormat="1">
       <c r="A209" s="12"/>
       <c r="B209" s="10" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F209" s="10" t="s">
         <v>5</v>
@@ -6883,7 +6898,7 @@
       <c r="Q209" s="12"/>
       <c r="R209" s="13"/>
     </row>
-    <row r="210" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="210" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A210" s="12"/>
       <c r="B210" s="11" t="s">
         <v>143</v>
@@ -6913,10 +6928,10 @@
       <c r="Q210" s="12"/>
       <c r="R210" s="13"/>
     </row>
-    <row r="211" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="211" spans="1:18" s="10" customFormat="1">
       <c r="A211" s="12"/>
       <c r="B211" s="10" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F211" s="10" t="s">
         <v>5</v>
@@ -6926,10 +6941,10 @@
       </c>
       <c r="R211" s="13"/>
     </row>
-    <row r="212" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="212" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A212" s="11"/>
       <c r="B212" s="10" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F212" s="10" t="s">
         <v>5</v>
@@ -6939,10 +6954,10 @@
       </c>
       <c r="R212" s="11"/>
     </row>
-    <row r="213" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="213" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A213" s="11"/>
       <c r="B213" s="10" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F213" s="10" t="s">
         <v>5</v>
@@ -6953,10 +6968,10 @@
       <c r="Q213" s="12"/>
       <c r="R213" s="11"/>
     </row>
-    <row r="214" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="214" spans="1:18" s="10" customFormat="1">
       <c r="A214" s="12"/>
       <c r="B214" s="10" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F214" s="10" t="s">
         <v>5</v>
@@ -6966,10 +6981,10 @@
       </c>
       <c r="R214" s="13"/>
     </row>
-    <row r="215" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="215" spans="1:18" s="10" customFormat="1">
       <c r="A215" s="12"/>
       <c r="B215" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F215" s="10" t="s">
         <v>5</v>
@@ -6980,9 +6995,9 @@
       <c r="Q215" s="12"/>
       <c r="R215" s="13"/>
     </row>
-    <row r="216" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="216" spans="1:18" s="10" customFormat="1">
       <c r="B216" s="10" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="F216" s="10" t="s">
         <v>5</v>
@@ -6992,10 +7007,10 @@
       </c>
       <c r="Q216" s="12"/>
     </row>
-    <row r="217" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="217" spans="1:18" s="10" customFormat="1">
       <c r="A217" s="12"/>
       <c r="B217" s="10" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="F217" s="10" t="s">
         <v>5</v>
@@ -7005,10 +7020,10 @@
       </c>
       <c r="R217" s="13"/>
     </row>
-    <row r="218" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="218" spans="1:18" s="10" customFormat="1">
       <c r="A218" s="12"/>
       <c r="B218" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="F218" s="10" t="s">
         <v>5</v>
@@ -7018,35 +7033,35 @@
       </c>
       <c r="R218" s="13"/>
     </row>
-    <row r="219" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="219" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A219" s="12"/>
       <c r="B219" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F219" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P219" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R219" s="13"/>
+    </row>
+    <row r="220" spans="1:18" s="10" customFormat="1">
+      <c r="B220" s="10" t="s">
         <v>387</v>
       </c>
-      <c r="F219" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P219" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R219" s="13"/>
-    </row>
-    <row r="220" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B220" s="10" t="s">
+      <c r="F220" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P220" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q220" s="12"/>
+    </row>
+    <row r="221" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B221" s="10" t="s">
         <v>388</v>
       </c>
-      <c r="F220" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P220" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q220" s="12"/>
-    </row>
-    <row r="221" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B221" s="10" t="s">
-        <v>389</v>
-      </c>
       <c r="F221" s="10" t="s">
         <v>5</v>
       </c>
@@ -7054,7 +7069,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="222" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="222" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A222" s="12"/>
       <c r="B222" s="11" t="s">
         <v>77</v>
@@ -7077,15 +7092,15 @@
       <c r="P222" s="11"/>
       <c r="R222" s="13"/>
     </row>
-    <row r="223" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="223" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B223" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C223" s="15" t="s">
         <v>287</v>
       </c>
-      <c r="C223" s="15" t="s">
-        <v>288</v>
-      </c>
       <c r="D223" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E223" s="10" t="s">
         <v>58</v>
@@ -7094,53 +7109,53 @@
         <v>5</v>
       </c>
       <c r="G223" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O223" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P223" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="224" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="224" spans="1:18" s="10" customFormat="1">
       <c r="B224" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="F224" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P224" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="225" spans="1:18" s="10" customFormat="1">
+      <c r="B225" s="10" t="s">
         <v>390</v>
       </c>
-      <c r="F224" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P224" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="225" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B225" s="10" t="s">
+      <c r="F225" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P225" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="226" spans="1:18" s="10" customFormat="1">
+      <c r="B226" s="10" t="s">
         <v>391</v>
       </c>
-      <c r="F225" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P225" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="226" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B226" s="10" t="s">
+      <c r="F226" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P226" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q226" s="12"/>
+    </row>
+    <row r="227" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B227" s="10" t="s">
         <v>392</v>
       </c>
-      <c r="F226" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P226" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q226" s="12"/>
-    </row>
-    <row r="227" spans="1:18" s="10" customFormat="1" ht="32">
-      <c r="B227" s="10" t="s">
-        <v>393</v>
-      </c>
       <c r="F227" s="10" t="s">
         <v>5</v>
       </c>
@@ -7149,7 +7164,7 @@
       </c>
       <c r="Q227" s="11"/>
     </row>
-    <row r="228" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="228" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="B228" s="11" t="s">
         <v>138</v>
       </c>
@@ -7176,26 +7191,26 @@
       <c r="O228" s="11"/>
       <c r="P228" s="11"/>
     </row>
-    <row r="229" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="229" spans="1:18" s="10" customFormat="1">
       <c r="A229" s="12"/>
       <c r="B229" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="F229" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I229" s="10" t="s">
         <v>394</v>
       </c>
-      <c r="F229" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I229" s="10" t="s">
+      <c r="P229" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R229" s="13"/>
+    </row>
+    <row r="230" spans="1:18" s="10" customFormat="1">
+      <c r="B230" s="10" t="s">
         <v>395</v>
       </c>
-      <c r="P229" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R229" s="13"/>
-    </row>
-    <row r="230" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B230" s="10" t="s">
-        <v>396</v>
-      </c>
       <c r="F230" s="10" t="s">
         <v>5</v>
       </c>
@@ -7203,10 +7218,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="231" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="231" spans="1:18" s="10" customFormat="1">
       <c r="A231" s="11"/>
       <c r="B231" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F231" s="10" t="s">
         <v>5</v>
@@ -7217,10 +7232,10 @@
       <c r="Q231" s="12"/>
       <c r="R231" s="11"/>
     </row>
-    <row r="232" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="232" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A232" s="12"/>
       <c r="B232" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="F232" s="10" t="s">
         <v>5</v>
@@ -7230,10 +7245,10 @@
       </c>
       <c r="R232" s="13"/>
     </row>
-    <row r="233" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="233" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A233" s="12"/>
       <c r="B233" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="F233" s="10" t="s">
         <v>5</v>
@@ -7244,22 +7259,22 @@
       <c r="Q233" s="12"/>
       <c r="R233" s="13"/>
     </row>
-    <row r="234" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="234" spans="1:18" s="10" customFormat="1">
       <c r="B234" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="F234" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P234" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q234" s="12"/>
+    </row>
+    <row r="235" spans="1:18" s="10" customFormat="1">
+      <c r="B235" s="10" t="s">
         <v>400</v>
       </c>
-      <c r="F234" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P234" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q234" s="12"/>
-    </row>
-    <row r="235" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B235" s="10" t="s">
-        <v>401</v>
-      </c>
       <c r="F235" s="10" t="s">
         <v>5</v>
       </c>
@@ -7268,10 +7283,10 @@
       </c>
       <c r="Q235" s="12"/>
     </row>
-    <row r="236" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="236" spans="1:18" s="10" customFormat="1">
       <c r="A236" s="12"/>
       <c r="B236" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="F236" s="10" t="s">
         <v>5</v>
@@ -7281,13 +7296,13 @@
       </c>
       <c r="R236" s="13"/>
     </row>
-    <row r="237" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="237" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A237" s="12"/>
       <c r="B237" s="11" t="s">
         <v>69</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="D237" s="11" t="s">
         <v>70</v>
@@ -7300,7 +7315,7 @@
       </c>
       <c r="G237" s="11"/>
       <c r="H237" s="11" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I237" s="11" t="s">
         <v>73</v>
@@ -7314,7 +7329,7 @@
       <c r="P237" s="11"/>
       <c r="R237" s="13"/>
     </row>
-    <row r="238" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="238" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B238" s="11" t="s">
         <v>63</v>
       </c>
@@ -7335,7 +7350,7 @@
       <c r="O238" s="11"/>
       <c r="P238" s="11"/>
     </row>
-    <row r="239" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="239" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A239" s="12"/>
       <c r="B239" s="11" t="s">
         <v>64</v>
@@ -7358,7 +7373,7 @@
       <c r="P239" s="11"/>
       <c r="R239" s="13"/>
     </row>
-    <row r="240" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="240" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="B240" s="11" t="s">
         <v>59</v>
       </c>
@@ -7385,59 +7400,59 @@
       <c r="O240" s="11"/>
       <c r="P240" s="11"/>
     </row>
-    <row r="241" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="241" spans="1:18" s="10" customFormat="1">
       <c r="B241" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="F241" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P241" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="242" spans="1:18" s="10" customFormat="1">
+      <c r="B242" s="10" t="s">
         <v>403</v>
       </c>
-      <c r="F241" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P241" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="242" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B242" s="10" t="s">
+      <c r="F242" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I242" s="10" t="s">
         <v>404</v>
       </c>
-      <c r="F242" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="I242" s="10" t="s">
+      <c r="P242" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="243" spans="1:18" s="10" customFormat="1">
+      <c r="B243" s="10" t="s">
         <v>405</v>
       </c>
-      <c r="P242" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="243" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B243" s="10" t="s">
+      <c r="F243" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P243" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q243" s="11"/>
+    </row>
+    <row r="244" spans="1:18" s="10" customFormat="1">
+      <c r="B244" s="10" t="s">
         <v>406</v>
       </c>
-      <c r="F243" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P243" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q243" s="11"/>
-    </row>
-    <row r="244" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B244" s="10" t="s">
+      <c r="F244" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P244" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q244" s="11"/>
+    </row>
+    <row r="245" spans="1:18" s="10" customFormat="1">
+      <c r="B245" s="10" t="s">
         <v>407</v>
       </c>
-      <c r="F244" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P244" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q244" s="11"/>
-    </row>
-    <row r="245" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B245" s="10" t="s">
-        <v>408</v>
-      </c>
       <c r="F245" s="10" t="s">
         <v>5</v>
       </c>
@@ -7446,7 +7461,7 @@
       </c>
       <c r="Q245" s="11"/>
     </row>
-    <row r="246" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="246" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A246" s="11"/>
       <c r="B246" s="11" t="s">
         <v>65</v>
@@ -7470,16 +7485,16 @@
       <c r="Q246" s="11"/>
       <c r="R246" s="11"/>
     </row>
-    <row r="247" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="247" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A247" s="11"/>
       <c r="B247" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C247" s="15" t="s">
         <v>289</v>
       </c>
-      <c r="C247" s="15" t="s">
-        <v>290</v>
-      </c>
       <c r="D247" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E247" s="10" t="s">
         <v>58</v>
@@ -7488,20 +7503,20 @@
         <v>5</v>
       </c>
       <c r="G247" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O247" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P247" s="10" t="s">
         <v>154</v>
       </c>
       <c r="R247" s="11"/>
     </row>
-    <row r="248" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="248" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A248" s="12"/>
       <c r="B248" s="10" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F248" s="10" t="s">
         <v>5</v>
@@ -7512,10 +7527,10 @@
       <c r="Q248" s="12"/>
       <c r="R248" s="13"/>
     </row>
-    <row r="249" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="249" spans="1:18" s="10" customFormat="1">
       <c r="A249" s="12"/>
       <c r="B249" s="10" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F249" s="10" t="s">
         <v>5</v>
@@ -7526,10 +7541,10 @@
       <c r="Q249" s="12"/>
       <c r="R249" s="13"/>
     </row>
-    <row r="250" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="250" spans="1:18" s="10" customFormat="1">
       <c r="A250" s="12"/>
       <c r="B250" s="10" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F250" s="10" t="s">
         <v>5</v>
@@ -7540,10 +7555,10 @@
       <c r="Q250" s="12"/>
       <c r="R250" s="13"/>
     </row>
-    <row r="251" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="251" spans="1:18" s="10" customFormat="1">
       <c r="A251" s="12"/>
       <c r="B251" s="10" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F251" s="10" t="s">
         <v>5</v>
@@ -7554,16 +7569,16 @@
       <c r="Q251" s="12"/>
       <c r="R251" s="13"/>
     </row>
-    <row r="252" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="252" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A252" s="12"/>
       <c r="B252" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C252" s="10" t="s">
         <v>413</v>
       </c>
-      <c r="C252" s="10" t="s">
+      <c r="D252" s="10" t="s">
         <v>414</v>
-      </c>
-      <c r="D252" s="10" t="s">
-        <v>415</v>
       </c>
       <c r="F252" s="10" t="s">
         <v>5</v>
@@ -7574,13 +7589,13 @@
       <c r="Q252" s="12"/>
       <c r="R252" s="13"/>
     </row>
-    <row r="253" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="253" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A253" s="12"/>
       <c r="B253" s="11" t="s">
         <v>83</v>
       </c>
       <c r="C253" s="11" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D253" s="11" t="s">
         <v>140</v>
@@ -7606,10 +7621,10 @@
       <c r="Q253" s="12"/>
       <c r="R253" s="13"/>
     </row>
-    <row r="254" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="254" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A254" s="12"/>
       <c r="B254" s="10" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="F254" s="10" t="s">
         <v>5</v>
@@ -7620,16 +7635,16 @@
       <c r="Q254" s="12"/>
       <c r="R254" s="13"/>
     </row>
-    <row r="255" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="255" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="A255" s="12"/>
       <c r="B255" s="15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C255" s="15" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D255" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E255" s="10" t="s">
         <v>58</v>
@@ -7638,10 +7653,10 @@
         <v>5</v>
       </c>
       <c r="G255" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O255" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P255" s="10" t="s">
         <v>154</v>
@@ -7649,10 +7664,10 @@
       <c r="Q255" s="12"/>
       <c r="R255" s="13"/>
     </row>
-    <row r="256" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="256" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A256" s="12"/>
       <c r="B256" s="10" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F256" s="10" t="s">
         <v>5</v>
@@ -7663,15 +7678,15 @@
       <c r="Q256" s="11"/>
       <c r="R256" s="13"/>
     </row>
-    <row r="257" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="257" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B257" s="15" t="s">
+        <v>290</v>
+      </c>
+      <c r="C257" s="15" t="s">
         <v>291</v>
       </c>
-      <c r="C257" s="15" t="s">
-        <v>292</v>
-      </c>
       <c r="D257" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E257" s="10" t="s">
         <v>58</v>
@@ -7680,17 +7695,17 @@
         <v>5</v>
       </c>
       <c r="G257" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O257" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P257" s="10" t="s">
         <v>154</v>
       </c>
       <c r="Q257" s="12"/>
     </row>
-    <row r="258" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="258" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A258" s="12"/>
       <c r="B258" s="11" t="s">
         <v>76</v>
@@ -7713,23 +7728,23 @@
       <c r="P258" s="11"/>
       <c r="R258" s="13"/>
     </row>
-    <row r="259" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="259" spans="1:18" s="10" customFormat="1">
       <c r="A259" s="11"/>
       <c r="B259" s="10" t="s">
+        <v>417</v>
+      </c>
+      <c r="F259" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P259" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R259" s="11"/>
+    </row>
+    <row r="260" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B260" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="F259" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P259" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R259" s="11"/>
-    </row>
-    <row r="260" spans="1:18" s="10" customFormat="1" ht="32">
-      <c r="B260" s="10" t="s">
-        <v>419</v>
-      </c>
       <c r="F260" s="10" t="s">
         <v>5</v>
       </c>
@@ -7737,10 +7752,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="261" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="261" spans="1:18" s="10" customFormat="1">
       <c r="A261" s="12"/>
       <c r="B261" s="10" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F261" s="10" t="s">
         <v>5</v>
@@ -7750,10 +7765,10 @@
       </c>
       <c r="R261" s="13"/>
     </row>
-    <row r="262" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="262" spans="1:18" s="10" customFormat="1">
       <c r="A262" s="12"/>
       <c r="B262" s="10" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F262" s="10" t="s">
         <v>5</v>
@@ -7764,9 +7779,9 @@
       <c r="Q262" s="11"/>
       <c r="R262" s="13"/>
     </row>
-    <row r="263" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="263" spans="1:18" s="10" customFormat="1">
       <c r="B263" s="10" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F263" s="10" t="s">
         <v>5</v>
@@ -7776,10 +7791,10 @@
       </c>
       <c r="Q263" s="12"/>
     </row>
-    <row r="264" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="264" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A264" s="11"/>
       <c r="B264" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F264" s="10" t="s">
         <v>5</v>
@@ -7790,9 +7805,9 @@
       <c r="Q264" s="12"/>
       <c r="R264" s="11"/>
     </row>
-    <row r="265" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="265" spans="1:18" s="10" customFormat="1">
       <c r="B265" s="10" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="F265" s="10" t="s">
         <v>5</v>
@@ -7801,10 +7816,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="266" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="266" spans="1:18" s="10" customFormat="1">
       <c r="A266" s="12"/>
       <c r="B266" s="12" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F266" s="10" t="s">
         <v>5</v>
@@ -7814,15 +7829,15 @@
       </c>
       <c r="R266" s="13"/>
     </row>
-    <row r="267" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="267" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="B267" s="15" t="s">
+        <v>475</v>
+      </c>
+      <c r="C267" s="15" t="s">
         <v>476</v>
       </c>
-      <c r="C267" s="15" t="s">
-        <v>477</v>
-      </c>
       <c r="D267" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E267" s="10" t="s">
         <v>58</v>
@@ -7831,31 +7846,31 @@
         <v>5</v>
       </c>
       <c r="G267" s="10" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="O267" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P267" s="10" t="s">
         <v>154</v>
       </c>
       <c r="Q267" s="12"/>
     </row>
-    <row r="268" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="268" spans="1:18" s="10" customFormat="1">
       <c r="B268" s="10" t="s">
+        <v>425</v>
+      </c>
+      <c r="F268" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P268" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="269" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B269" s="10" t="s">
         <v>426</v>
       </c>
-      <c r="F268" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P268" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" s="10" customFormat="1" ht="32">
-      <c r="B269" s="10" t="s">
-        <v>427</v>
-      </c>
       <c r="F269" s="10" t="s">
         <v>5</v>
       </c>
@@ -7863,68 +7878,68 @@
         <v>154</v>
       </c>
     </row>
-    <row r="270" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="270" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="A270" s="12"/>
       <c r="B270" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F270" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P270" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R270" s="13"/>
+    </row>
+    <row r="271" spans="1:18" s="10" customFormat="1">
+      <c r="B271" s="10" t="s">
         <v>428</v>
       </c>
-      <c r="F270" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P270" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R270" s="13"/>
-    </row>
-    <row r="271" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B271" s="10" t="s">
+      <c r="F271" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P271" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="272" spans="1:18" s="10" customFormat="1">
+      <c r="B272" s="10" t="s">
         <v>429</v>
       </c>
-      <c r="F271" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P271" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B272" s="10" t="s">
+      <c r="F272" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P272" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q272" s="12"/>
+    </row>
+    <row r="273" spans="1:19" s="10" customFormat="1">
+      <c r="B273" s="10" t="s">
         <v>430</v>
       </c>
-      <c r="F272" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P272" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q272" s="12"/>
-    </row>
-    <row r="273" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B273" s="10" t="s">
+      <c r="F273" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P273" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="274" spans="1:19" s="10" customFormat="1">
+      <c r="B274" s="10" t="s">
         <v>431</v>
       </c>
-      <c r="F273" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P273" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B274" s="10" t="s">
+      <c r="F274" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P274" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="275" spans="1:19" s="10" customFormat="1">
+      <c r="B275" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="F274" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P274" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B275" s="10" t="s">
-        <v>433</v>
-      </c>
       <c r="F275" s="10" t="s">
         <v>5</v>
       </c>
@@ -7932,10 +7947,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="276" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="276" spans="1:19" s="10" customFormat="1">
       <c r="A276" s="12"/>
       <c r="B276" s="10" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F276" s="10" t="s">
         <v>5</v>
@@ -7946,10 +7961,10 @@
       <c r="Q276" s="12"/>
       <c r="R276" s="13"/>
     </row>
-    <row r="277" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="277" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A277" s="12"/>
       <c r="B277" s="10" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F277" s="10" t="s">
         <v>5</v>
@@ -7959,47 +7974,47 @@
       </c>
       <c r="R277" s="13"/>
     </row>
-    <row r="278" spans="1:19" s="10" customFormat="1" ht="32">
+    <row r="278" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A278" s="12"/>
       <c r="B278" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="F278" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P278" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R278" s="13"/>
+    </row>
+    <row r="279" spans="1:19" s="10" customFormat="1">
+      <c r="B279" s="10" t="s">
         <v>436</v>
       </c>
-      <c r="F278" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P278" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R278" s="13"/>
-    </row>
-    <row r="279" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B279" s="10" t="s">
+      <c r="F279" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P279" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q279" s="12"/>
+    </row>
+    <row r="280" spans="1:19" s="10" customFormat="1" ht="30">
+      <c r="B280" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="F279" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P279" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q279" s="12"/>
-    </row>
-    <row r="280" spans="1:19" s="10" customFormat="1" ht="32">
-      <c r="B280" s="10" t="s">
+      <c r="F280" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P280" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q280" s="12"/>
+    </row>
+    <row r="281" spans="1:19" s="10" customFormat="1">
+      <c r="B281" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="F280" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P280" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q280" s="12"/>
-    </row>
-    <row r="281" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B281" s="10" t="s">
-        <v>439</v>
-      </c>
       <c r="F281" s="10" t="s">
         <v>5</v>
       </c>
@@ -8008,10 +8023,10 @@
       </c>
       <c r="Q281" s="12"/>
     </row>
-    <row r="282" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="282" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A282" s="12"/>
       <c r="B282" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F282" s="10" t="s">
         <v>5</v>
@@ -8021,10 +8036,10 @@
       </c>
       <c r="R282" s="13"/>
     </row>
-    <row r="283" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="283" spans="1:19" s="10" customFormat="1" ht="30">
       <c r="A283" s="12"/>
       <c r="B283" s="10" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F283" s="10" t="s">
         <v>5</v>
@@ -8034,10 +8049,10 @@
       </c>
       <c r="R283" s="13"/>
     </row>
-    <row r="284" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="284" spans="1:19" s="10" customFormat="1">
       <c r="A284" s="12"/>
       <c r="B284" s="10" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F284" s="10" t="s">
         <v>5</v>
@@ -8047,10 +8062,10 @@
       </c>
       <c r="R284" s="13"/>
     </row>
-    <row r="285" spans="1:19" s="18" customFormat="1" ht="16">
+    <row r="285" spans="1:19" s="18" customFormat="1" ht="30">
       <c r="A285" s="10"/>
       <c r="B285" s="10" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C285" s="10"/>
       <c r="D285" s="10"/>
@@ -8074,21 +8089,21 @@
       <c r="R285" s="10"/>
       <c r="S285" s="10"/>
     </row>
-    <row r="286" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="286" spans="1:19" s="10" customFormat="1">
       <c r="B286" s="10" t="s">
+        <v>443</v>
+      </c>
+      <c r="F286" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P286" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="287" spans="1:19" s="10" customFormat="1">
+      <c r="B287" s="10" t="s">
         <v>444</v>
       </c>
-      <c r="F286" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P286" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="287" spans="1:19" s="10" customFormat="1" ht="16">
-      <c r="B287" s="10" t="s">
-        <v>445</v>
-      </c>
       <c r="F287" s="10" t="s">
         <v>5</v>
       </c>
@@ -8096,88 +8111,88 @@
         <v>154</v>
       </c>
     </row>
-    <row r="288" spans="1:19" s="10" customFormat="1" ht="16">
+    <row r="288" spans="1:19" s="10" customFormat="1">
       <c r="A288" s="12"/>
       <c r="B288" s="10" t="s">
+        <v>445</v>
+      </c>
+      <c r="F288" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P288" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R288" s="13"/>
+    </row>
+    <row r="289" spans="1:18" s="10" customFormat="1">
+      <c r="B289" s="10" t="s">
         <v>446</v>
       </c>
-      <c r="F288" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P288" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R288" s="13"/>
-    </row>
-    <row r="289" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B289" s="10" t="s">
+      <c r="F289" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P289" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="290" spans="1:18" s="10" customFormat="1">
+      <c r="B290" s="10" t="s">
         <v>447</v>
       </c>
-      <c r="F289" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P289" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="290" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B290" s="10" t="s">
+      <c r="F290" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P290" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="291" spans="1:18" s="10" customFormat="1">
+      <c r="B291" s="10" t="s">
         <v>448</v>
       </c>
-      <c r="F290" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P290" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="291" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B291" s="10" t="s">
+      <c r="F291" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P291" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="292" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B292" s="10" t="s">
         <v>449</v>
       </c>
-      <c r="F291" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P291" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="292" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B292" s="10" t="s">
+      <c r="F292" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P292" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q292" s="12"/>
+    </row>
+    <row r="293" spans="1:18" s="10" customFormat="1">
+      <c r="B293" s="10" t="s">
         <v>450</v>
       </c>
-      <c r="F292" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P292" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q292" s="12"/>
-    </row>
-    <row r="293" spans="1:18" s="10" customFormat="1" ht="16">
-      <c r="B293" s="10" t="s">
+      <c r="F293" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P293" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q293" s="12"/>
+    </row>
+    <row r="294" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B294" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="F294" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="295" spans="1:18" s="10" customFormat="1" ht="30">
+      <c r="B295" s="10" t="s">
         <v>451</v>
       </c>
-      <c r="F293" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P293" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q293" s="12"/>
-    </row>
-    <row r="294" spans="1:18" s="10" customFormat="1" ht="32">
-      <c r="B294" s="10" t="s">
-        <v>506</v>
-      </c>
-      <c r="F294" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="295" spans="1:18" s="10" customFormat="1" ht="32">
-      <c r="B295" s="10" t="s">
-        <v>452</v>
-      </c>
       <c r="F295" s="10" t="s">
         <v>5</v>
       </c>
@@ -8185,10 +8200,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="296" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="296" spans="1:18" s="10" customFormat="1">
       <c r="A296" s="12"/>
       <c r="B296" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F296" s="10" t="s">
         <v>5</v>
@@ -8199,15 +8214,15 @@
       <c r="Q296" s="12"/>
       <c r="R296" s="13"/>
     </row>
-    <row r="297" spans="1:18" s="10" customFormat="1" ht="32">
+    <row r="297" spans="1:18" s="10" customFormat="1" ht="30">
       <c r="B297" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="C297" s="15" t="s">
         <v>293</v>
       </c>
-      <c r="C297" s="15" t="s">
-        <v>294</v>
-      </c>
       <c r="D297" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E297" s="10" t="s">
         <v>58</v>
@@ -8216,18 +8231,18 @@
         <v>5</v>
       </c>
       <c r="G297" s="14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O297" s="10" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="P297" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="298" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="298" spans="1:18" s="10" customFormat="1">
       <c r="B298" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F298" s="10" t="s">
         <v>5</v>
@@ -8237,7 +8252,7 @@
       </c>
       <c r="Q298" s="12"/>
     </row>
-    <row r="299" spans="1:18" s="10" customFormat="1" ht="48">
+    <row r="299" spans="1:18" s="10" customFormat="1" ht="45">
       <c r="B299" s="11" t="s">
         <v>70</v>
       </c>
@@ -8265,10 +8280,10 @@
       <c r="P299" s="11"/>
       <c r="Q299" s="12"/>
     </row>
-    <row r="300" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="300" spans="1:18" s="10" customFormat="1">
       <c r="A300" s="12"/>
       <c r="B300" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F300" s="10" t="s">
         <v>5</v>
@@ -8279,10 +8294,10 @@
       <c r="Q300" s="12"/>
       <c r="R300" s="13"/>
     </row>
-    <row r="301" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="301" spans="1:18" s="10" customFormat="1">
       <c r="A301" s="12"/>
       <c r="B301" s="10" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F301" s="10" t="s">
         <v>5</v>
@@ -8293,10 +8308,10 @@
       <c r="Q301" s="12"/>
       <c r="R301" s="13"/>
     </row>
-    <row r="302" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="302" spans="1:18" s="10" customFormat="1">
       <c r="A302" s="12"/>
       <c r="B302" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F302" s="10" t="s">
         <v>5</v>
@@ -8307,10 +8322,10 @@
       <c r="Q302" s="12"/>
       <c r="R302" s="13"/>
     </row>
-    <row r="303" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="303" spans="1:18" s="10" customFormat="1">
       <c r="A303" s="12"/>
       <c r="B303" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F303" s="10" t="s">
         <v>5</v>
@@ -8320,10 +8335,10 @@
       </c>
       <c r="R303" s="13"/>
     </row>
-    <row r="304" spans="1:18" s="10" customFormat="1" ht="16">
+    <row r="304" spans="1:18" s="10" customFormat="1">
       <c r="A304" s="12"/>
       <c r="B304" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F304" s="10" t="s">
         <v>5</v>
@@ -8333,46 +8348,46 @@
       </c>
       <c r="R304" s="13"/>
     </row>
-    <row r="305" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="305" spans="1:20" s="10" customFormat="1">
       <c r="A305" s="12"/>
       <c r="B305" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F305" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P305" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R305" s="13"/>
+    </row>
+    <row r="306" spans="1:20" s="10" customFormat="1" ht="30">
+      <c r="B306" s="10" t="s">
         <v>460</v>
       </c>
-      <c r="F305" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P305" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R305" s="13"/>
-    </row>
-    <row r="306" spans="1:20" s="10" customFormat="1" ht="16">
-      <c r="B306" s="10" t="s">
+      <c r="F306" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P306" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q306" s="11"/>
+    </row>
+    <row r="307" spans="1:20" s="10" customFormat="1">
+      <c r="B307" s="10" t="s">
         <v>461</v>
       </c>
-      <c r="F306" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P306" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q306" s="11"/>
-    </row>
-    <row r="307" spans="1:20" s="10" customFormat="1" ht="16">
-      <c r="B307" s="10" t="s">
+      <c r="F307" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P307" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="308" spans="1:20" s="10" customFormat="1">
+      <c r="B308" s="10" t="s">
         <v>462</v>
       </c>
-      <c r="F307" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P307" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="308" spans="1:20" s="10" customFormat="1" ht="16">
-      <c r="B308" s="10" t="s">
-        <v>463</v>
-      </c>
       <c r="F308" s="10" t="s">
         <v>5</v>
       </c>
@@ -8380,12 +8395,12 @@
         <v>154</v>
       </c>
     </row>
-    <row r="309" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="309" spans="1:20" s="10" customFormat="1">
       <c r="A309" s="11" t="s">
         <v>71</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F309" s="10" t="s">
         <v>5</v>
@@ -8395,16 +8410,16 @@
       </c>
       <c r="R309" s="11"/>
     </row>
-    <row r="310" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="310" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="A310" s="11"/>
       <c r="B310" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C310" s="10" t="s">
         <v>522</v>
       </c>
-      <c r="C310" s="10" t="s">
+      <c r="D310" s="10" t="s">
         <v>523</v>
-      </c>
-      <c r="D310" s="10" t="s">
-        <v>524</v>
       </c>
       <c r="E310" s="10" t="s">
         <v>58</v>
@@ -8414,9 +8429,9 @@
       </c>
       <c r="R310" s="11"/>
     </row>
-    <row r="311" spans="1:20" s="16" customFormat="1" ht="16">
+    <row r="311" spans="1:20" s="16" customFormat="1">
       <c r="B311" s="16" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D311" s="16" t="s">
         <v>5</v>
@@ -8433,12 +8448,12 @@
       </c>
       <c r="T311" s="14"/>
     </row>
-    <row r="312" spans="1:20" s="16" customFormat="1" ht="16">
+    <row r="312" spans="1:20" s="16" customFormat="1">
       <c r="B312" s="16" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="D312" s="16" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="H312" s="16" t="s">
         <v>6</v>
@@ -8452,9 +8467,9 @@
       </c>
       <c r="T312" s="14"/>
     </row>
-    <row r="313" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="313" spans="1:20" s="10" customFormat="1">
       <c r="B313" s="10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F313" s="10" t="s">
         <v>5</v>
@@ -8463,21 +8478,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="314" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="314" spans="1:20" s="10" customFormat="1" ht="30">
       <c r="B314" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="F314" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P314" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" s="10" customFormat="1">
+      <c r="B315" s="12" t="s">
         <v>269</v>
       </c>
-      <c r="F314" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P314" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="315" spans="1:20" s="10" customFormat="1" ht="16">
-      <c r="B315" s="12" t="s">
-        <v>270</v>
-      </c>
       <c r="F315" s="10" t="s">
         <v>5</v>
       </c>
@@ -8485,46 +8500,46 @@
         <v>154</v>
       </c>
     </row>
-    <row r="316" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="316" spans="1:20" s="10" customFormat="1">
       <c r="B316" s="12" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="F316" s="10" t="s">
         <v>5</v>
       </c>
       <c r="I316" s="10" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="P316" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="317" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="317" spans="1:20" s="10" customFormat="1">
       <c r="B317" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="F317" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P317" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" s="10" customFormat="1" ht="30">
+      <c r="B318" s="10" t="s">
         <v>469</v>
       </c>
-      <c r="F317" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P317" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="318" spans="1:20" s="10" customFormat="1" ht="32">
-      <c r="B318" s="10" t="s">
+      <c r="F318" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P318" s="10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="319" spans="1:20" s="10" customFormat="1" ht="30">
+      <c r="B319" s="10" t="s">
         <v>470</v>
       </c>
-      <c r="F318" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P318" s="10" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="319" spans="1:20" s="10" customFormat="1" ht="16">
-      <c r="B319" s="10" t="s">
-        <v>471</v>
-      </c>
       <c r="F319" s="10" t="s">
         <v>5</v>
       </c>
@@ -8533,7 +8548,7 @@
       </c>
       <c r="Q319" s="12"/>
     </row>
-    <row r="320" spans="1:20" s="10" customFormat="1" ht="16">
+    <row r="320" spans="1:20" s="10" customFormat="1">
       <c r="B320" s="13"/>
       <c r="P320" s="10" t="s">
         <v>154</v>
@@ -8555,19 +8570,19 @@
       <c r="O321" s="11"/>
       <c r="P321" s="11"/>
     </row>
-    <row r="322" spans="2:17" s="10" customFormat="1" ht="16">
+    <row r="322" spans="2:17" s="10" customFormat="1">
       <c r="B322" s="13"/>
       <c r="P322" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="323" spans="2:17" s="10" customFormat="1" ht="16">
+    <row r="323" spans="2:17" s="10" customFormat="1">
       <c r="B323" s="13"/>
       <c r="P323" s="10" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="324" spans="2:17" s="10" customFormat="1" ht="16">
+    <row r="324" spans="2:17" s="10" customFormat="1">
       <c r="B324" s="13"/>
       <c r="P324" s="10" t="s">
         <v>154</v>
@@ -8589,7 +8604,7 @@
       <c r="O325" s="11"/>
       <c r="P325" s="11"/>
     </row>
-    <row r="326" spans="2:17" s="10" customFormat="1" ht="16">
+    <row r="326" spans="2:17" s="10" customFormat="1">
       <c r="B326" s="13"/>
       <c r="P326" s="10" t="s">
         <v>154</v>
@@ -8743,7 +8758,7 @@
       <c r="B344" s="13"/>
     </row>
   </sheetData>
-  <sortState ref="A2:S2826">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:S2826">
     <sortCondition ref="F2:F2826"/>
     <sortCondition descending="1" ref="N2:N2826"/>
     <sortCondition ref="B2:B2826"/>
@@ -8764,16 +8779,16 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="6" customFormat="1" ht="16">
+    <row r="1" spans="1:4" s="6" customFormat="1">
       <c r="A1" s="5" t="s">
         <v>104</v>
       </c>
@@ -8787,7 +8802,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="2" spans="1:4" s="5" customFormat="1" ht="48">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="45">
       <c r="A2" s="5" t="s">
         <v>0</v>
       </c>
@@ -8795,10 +8810,10 @@
         <v>107</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" s="5" customFormat="1" ht="32">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -8809,7 +8824,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:4" s="5" customFormat="1" ht="64">
+    <row r="4" spans="1:4" s="5" customFormat="1" ht="75">
       <c r="A4" s="5" t="s">
         <v>2</v>
       </c>
@@ -8817,13 +8832,13 @@
         <v>111</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="5" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A5" s="5" t="s">
         <v>56</v>
       </c>
@@ -8834,7 +8849,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="6" spans="1:4" s="5" customFormat="1" ht="45">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -8848,7 +8863,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="7" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -8859,7 +8874,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="8" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="8" spans="1:4" s="5" customFormat="1" ht="45">
       <c r="A8" s="5" t="s">
         <v>88</v>
       </c>
@@ -8867,10 +8882,10 @@
         <v>119</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" s="5" customFormat="1" ht="16">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="5" customFormat="1">
       <c r="A9" s="5" t="s">
         <v>87</v>
       </c>
@@ -8881,7 +8896,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="10" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A10" s="5" t="s">
         <v>72</v>
       </c>
@@ -8892,7 +8907,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="11" spans="1:4" s="5" customFormat="1" ht="32">
+    <row r="11" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A11" s="5" t="s">
         <v>89</v>
       </c>
@@ -8900,10 +8915,10 @@
         <v>124</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" s="5" customFormat="1" ht="16">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="5" customFormat="1">
       <c r="A12" s="5" t="s">
         <v>86</v>
       </c>
@@ -8911,10 +8926,10 @@
         <v>125</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" s="5" customFormat="1" ht="32">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="5" customFormat="1" ht="30">
       <c r="A13" s="5" t="s">
         <v>41</v>
       </c>
@@ -8925,7 +8940,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="5" customFormat="1" ht="48">
+    <row r="14" spans="1:4" s="5" customFormat="1" ht="60">
       <c r="A14" s="5" t="s">
         <v>99</v>
       </c>
@@ -8936,59 +8951,59 @@
         <v>129</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="16">
+    <row r="15" spans="1:4" ht="30">
       <c r="A15" s="5" t="s">
         <v>150</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="16">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="5" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>484</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>485</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="16">
+    </row>
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="5" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="5" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>487</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>488</v>
       </c>
-      <c r="C18" s="4" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="32">
+    </row>
+    <row r="19" spans="1:3" ht="30">
       <c r="A19" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>503</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>504</v>
       </c>
     </row>
   </sheetData>
@@ -9005,22 +9020,22 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="6" customFormat="1" ht="16">
+    <row r="1" spans="1:12" s="6" customFormat="1" ht="30">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -9058,7 +9073,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="48">
+    <row r="2" spans="1:12" ht="45">
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
@@ -9066,13 +9081,13 @@
         <v>100</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="48">
+    <row r="3" spans="1:12" ht="60">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -9086,7 +9101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="48">
+    <row r="4" spans="1:12" ht="45">
       <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
@@ -9103,7 +9118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="48">
+    <row r="5" spans="1:12" ht="60">
       <c r="B5" s="1" t="s">
         <v>17</v>
       </c>
@@ -9114,7 +9129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="48">
+    <row r="6" spans="1:12" ht="45">
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
@@ -9128,7 +9143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="48">
+    <row r="7" spans="1:12" ht="45">
       <c r="B7" s="1" t="s">
         <v>21</v>
       </c>
@@ -9145,7 +9160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16">
+    <row r="8" spans="1:12">
       <c r="B8" s="1" t="s">
         <v>23</v>
       </c>
@@ -9159,7 +9174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="48">
+    <row r="9" spans="1:12" ht="45">
       <c r="B9" s="1" t="s">
         <v>25</v>
       </c>
@@ -9176,7 +9191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="42">
+    <row r="10" spans="1:12" ht="51">
       <c r="B10" s="1" t="s">
         <v>27</v>
       </c>
@@ -9203,7 +9218,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9218,9 +9233,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="7" customFormat="1">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3200" yWindow="-12680" windowWidth="18480" windowHeight="10480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="16800" yWindow="-11680" windowWidth="18480" windowHeight="10480" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" state="visible" r:id="rId1"/>
@@ -529,11 +529,11 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T344"/>
+  <dimension ref="A1:T345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A225" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D230" sqref="D230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -556,8 +556,8 @@
     <col width="37.1640625" customWidth="1" style="9" min="17" max="17"/>
     <col width="48.6640625" customWidth="1" style="9" min="18" max="18"/>
     <col width="24.6640625" customWidth="1" style="9" min="19" max="19"/>
-    <col width="9.1640625" customWidth="1" style="9" min="20" max="20"/>
-    <col width="9.1640625" customWidth="1" style="9" min="21" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="9" min="20" max="21"/>
+    <col width="9.1640625" customWidth="1" style="9" min="22" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="7">
@@ -1591,7 +1591,7 @@
     <row r="30" ht="240" customFormat="1" customHeight="1" s="13">
       <c r="A30" t="inlineStr">
         <is>
-          <t>ADDICTO:0000453</t>
+          <t>BCIO:037000</t>
         </is>
       </c>
       <c r="B30" s="10" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="D30" s="10" t="inlineStr">
         <is>
-          <t>Process</t>
+          <t>process</t>
         </is>
       </c>
       <c r="E30" s="10" t="inlineStr">
@@ -2142,16 +2142,32 @@
       <c r="Q44" s="10" t="n"/>
       <c r="R44" s="11" t="n"/>
     </row>
-    <row r="45" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A45" s="9" t="n"/>
+    <row r="45" ht="42.75" customFormat="1" customHeight="1" s="13">
+      <c r="A45" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000524</t>
+        </is>
+      </c>
       <c r="B45" s="10" t="inlineStr">
         <is>
-          <t>Legislative change</t>
-        </is>
-      </c>
-      <c r="C45" s="10" t="n"/>
-      <c r="D45" s="10" t="n"/>
-      <c r="E45" s="10" t="n"/>
+          <t>Law</t>
+        </is>
+      </c>
+      <c r="C45" s="22" t="inlineStr">
+        <is>
+          <t>A rule recognised by the legal system of a country or community</t>
+        </is>
+      </c>
+      <c r="D45" s="10" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
+      <c r="E45" s="10" t="inlineStr">
+        <is>
+          <t>role</t>
+        </is>
+      </c>
       <c r="F45" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2164,23 +2180,17 @@
       <c r="K45" s="10" t="n"/>
       <c r="L45" s="10" t="n"/>
       <c r="M45" s="10" t="n"/>
-      <c r="N45" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="N45" s="10" t="n"/>
       <c r="O45" s="10" t="n"/>
-      <c r="P45" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q45" s="9" t="n"/>
-      <c r="R45" s="9" t="n"/>
+      <c r="P45" s="10" t="n"/>
+      <c r="Q45" s="10" t="n"/>
+      <c r="R45" s="11" t="n"/>
     </row>
     <row r="46" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A46" s="10" t="n"/>
+      <c r="A46" s="9" t="n"/>
       <c r="B46" s="10" t="inlineStr">
         <is>
-          <t>Limitation of access</t>
+          <t>Legislative change</t>
         </is>
       </c>
       <c r="C46" s="10" t="n"/>
@@ -2208,13 +2218,13 @@
         </is>
       </c>
       <c r="Q46" s="9" t="n"/>
-      <c r="R46" s="11" t="n"/>
+      <c r="R46" s="9" t="n"/>
     </row>
     <row r="47" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A47" s="23" t="n"/>
+      <c r="A47" s="10" t="n"/>
       <c r="B47" s="10" t="inlineStr">
         <is>
-          <t>Local policy</t>
+          <t>Limitation of access</t>
         </is>
       </c>
       <c r="C47" s="10" t="n"/>
@@ -2242,12 +2252,13 @@
         </is>
       </c>
       <c r="Q47" s="9" t="n"/>
-      <c r="R47" s="9" t="n"/>
+      <c r="R47" s="11" t="n"/>
     </row>
     <row r="48" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A48" s="23" t="n"/>
       <c r="B48" s="10" t="inlineStr">
         <is>
-          <t>Local Stop Smoking Service</t>
+          <t>Local policy</t>
         </is>
       </c>
       <c r="C48" s="10" t="n"/>
@@ -2274,12 +2285,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q48" s="10" t="n"/>
+      <c r="Q48" s="9" t="n"/>
+      <c r="R48" s="9" t="n"/>
     </row>
     <row r="49" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B49" s="10" t="inlineStr">
         <is>
-          <t>Media</t>
+          <t>Local Stop Smoking Service</t>
         </is>
       </c>
       <c r="C49" s="10" t="n"/>
@@ -2311,7 +2323,7 @@
     <row r="50" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B50" s="10" t="inlineStr">
         <is>
-          <t>Minimum pack size</t>
+          <t>Media</t>
         </is>
       </c>
       <c r="C50" s="10" t="n"/>
@@ -2338,11 +2350,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q50" s="10" t="n"/>
     </row>
     <row r="51" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B51" s="10" t="inlineStr">
         <is>
-          <t>Monetary incentive</t>
+          <t>Minimum pack size</t>
         </is>
       </c>
       <c r="C51" s="10" t="n"/>
@@ -2371,10 +2384,9 @@
       </c>
     </row>
     <row r="52" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A52" s="10" t="n"/>
       <c r="B52" s="10" t="inlineStr">
         <is>
-          <t>National policy</t>
+          <t>Monetary incentive</t>
         </is>
       </c>
       <c r="C52" s="10" t="n"/>
@@ -2401,14 +2413,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q52" s="10" t="n"/>
-      <c r="R52" s="11" t="n"/>
     </row>
     <row r="53" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A53" s="9" t="n"/>
+      <c r="A53" s="10" t="n"/>
       <c r="B53" s="10" t="inlineStr">
         <is>
-          <t>National regulation</t>
+          <t>National policy</t>
         </is>
       </c>
       <c r="C53" s="10" t="n"/>
@@ -2435,12 +2445,14 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R53" s="9" t="n"/>
-    </row>
-    <row r="54" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="Q53" s="10" t="n"/>
+      <c r="R53" s="11" t="n"/>
+    </row>
+    <row r="54" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A54" s="9" t="n"/>
       <c r="B54" s="10" t="inlineStr">
         <is>
-          <t>National tobacco and nicotine policy environment</t>
+          <t>National regulation</t>
         </is>
       </c>
       <c r="C54" s="10" t="n"/>
@@ -2467,11 +2479,12 @@
           <t>Proposed</t>
         </is>
       </c>
-    </row>
-    <row r="55" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="R54" s="9" t="n"/>
+    </row>
+    <row r="55" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B55" s="10" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>National tobacco and nicotine policy environment</t>
         </is>
       </c>
       <c r="C55" s="10" t="n"/>
@@ -2498,34 +2511,16 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q55" s="9" t="n"/>
-    </row>
-    <row r="56" ht="71.25" customFormat="1" customHeight="1" s="13">
-      <c r="A56" s="13" t="inlineStr">
-        <is>
-          <t>OBI:0000984</t>
-        </is>
-      </c>
+    </row>
+    <row r="56" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B56" s="10" t="inlineStr">
         <is>
-          <t>Dose</t>
-        </is>
-      </c>
-      <c r="C56" s="22" t="inlineStr">
-        <is>
-          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
-        </is>
-      </c>
-      <c r="D56" s="10" t="inlineStr">
-        <is>
-          <t>Measurement datum</t>
-        </is>
-      </c>
-      <c r="E56" s="10" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>NICE Guidance</t>
+        </is>
+      </c>
+      <c r="C56" s="10" t="n"/>
+      <c r="D56" s="10" t="n"/>
+      <c r="E56" s="10" t="n"/>
       <c r="F56" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2538,30 +2533,36 @@
       <c r="K56" s="10" t="n"/>
       <c r="L56" s="10" t="n"/>
       <c r="M56" s="10" t="n"/>
-      <c r="N56" s="10" t="n"/>
+      <c r="N56" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="O56" s="10" t="n"/>
-      <c r="P56" s="10" t="n"/>
+      <c r="P56" s="10" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="Q56" s="9" t="n"/>
     </row>
-    <row r="57" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000455</t>
+    <row r="57" ht="71.25" customFormat="1" customHeight="1" s="13">
+      <c r="A57" s="13" t="inlineStr">
+        <is>
+          <t>OBI:0000984</t>
         </is>
       </c>
       <c r="B57" s="10" t="inlineStr">
         <is>
-          <t>Nicotine dose</t>
-        </is>
-      </c>
-      <c r="C57" s="10" t="inlineStr">
-        <is>
-          <t>Dose in which the thing administered is nicotine.</t>
+          <t>Dose</t>
+        </is>
+      </c>
+      <c r="C57" s="22" t="inlineStr">
+        <is>
+          <t>A measurement datum that measures the quantity of something that may be administered to an organism or that an organism may be exposed to. Quantities of nutrients, drugs, vaccines and toxins are referred to as doses.</t>
         </is>
       </c>
       <c r="D57" s="10" t="inlineStr">
         <is>
-          <t>Dose</t>
+          <t>Measurement datum</t>
         </is>
       </c>
       <c r="E57" s="10" t="inlineStr">
@@ -2581,26 +2582,37 @@
       <c r="K57" s="10" t="n"/>
       <c r="L57" s="10" t="n"/>
       <c r="M57" s="10" t="n"/>
-      <c r="N57" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="N57" s="10" t="n"/>
       <c r="O57" s="10" t="n"/>
-      <c r="P57" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q57" s="10" t="n"/>
-    </row>
-    <row r="58" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="P57" s="10" t="n"/>
+      <c r="Q57" s="9" t="n"/>
+    </row>
+    <row r="58" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000455</t>
+        </is>
+      </c>
       <c r="B58" s="10" t="inlineStr">
         <is>
-          <t>Nicotine harm reduction</t>
-        </is>
-      </c>
-      <c r="C58" s="10" t="n"/>
-      <c r="D58" s="10" t="n"/>
-      <c r="E58" s="10" t="n"/>
+          <t>Nicotine dose</t>
+        </is>
+      </c>
+      <c r="C58" s="10" t="inlineStr">
+        <is>
+          <t>Dose in which the thing administered is nicotine.</t>
+        </is>
+      </c>
+      <c r="D58" s="10" t="inlineStr">
+        <is>
+          <t>dose</t>
+        </is>
+      </c>
+      <c r="E58" s="10" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F58" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -2625,10 +2637,9 @@
       <c r="Q58" s="10" t="n"/>
     </row>
     <row r="59" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A59" s="10" t="n"/>
       <c r="B59" s="10" t="inlineStr">
         <is>
-          <t>Non-adherent to treatment</t>
+          <t>Nicotine harm reduction</t>
         </is>
       </c>
       <c r="C59" s="10" t="n"/>
@@ -2655,13 +2666,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R59" s="11" t="n"/>
+      <c r="Q59" s="10" t="n"/>
     </row>
     <row r="60" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A60" s="9" t="n"/>
+      <c r="A60" s="10" t="n"/>
       <c r="B60" s="10" t="inlineStr">
         <is>
-          <t>Pharmacological</t>
+          <t>Non-adherent to treatment</t>
         </is>
       </c>
       <c r="C60" s="10" t="n"/>
@@ -2688,13 +2699,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R60" s="9" t="n"/>
-    </row>
-    <row r="61" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="R60" s="11" t="n"/>
+    </row>
+    <row r="61" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A61" s="9" t="n"/>
       <c r="B61" s="10" t="inlineStr">
         <is>
-          <t>Pharmacological support for cessation</t>
+          <t>Pharmacological</t>
         </is>
       </c>
       <c r="C61" s="10" t="n"/>
@@ -2723,10 +2734,11 @@
       </c>
       <c r="R61" s="9" t="n"/>
     </row>
-    <row r="62" ht="16" customFormat="1" customHeight="1" s="13">
+    <row r="62" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A62" s="9" t="n"/>
       <c r="B62" s="10" t="inlineStr">
         <is>
-          <t>Pharmocotherapy</t>
+          <t>Pharmacological support for cessation</t>
         </is>
       </c>
       <c r="C62" s="10" t="n"/>
@@ -2753,11 +2765,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R62" s="9" t="n"/>
     </row>
     <row r="63" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B63" s="10" t="inlineStr">
         <is>
-          <t>Plain packaging legislation</t>
+          <t>Pharmocotherapy</t>
         </is>
       </c>
       <c r="C63" s="10" t="n"/>
@@ -2785,86 +2798,86 @@
         </is>
       </c>
     </row>
-    <row r="64" ht="45" customFormat="1" customHeight="1" s="15">
-      <c r="A64" t="inlineStr">
+    <row r="64" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B64" s="10" t="inlineStr">
+        <is>
+          <t>Plain packaging legislation</t>
+        </is>
+      </c>
+      <c r="C64" s="10" t="n"/>
+      <c r="D64" s="10" t="n"/>
+      <c r="E64" s="10" t="n"/>
+      <c r="F64" s="10" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G64" s="10" t="n"/>
+      <c r="H64" s="10" t="n"/>
+      <c r="I64" s="10" t="n"/>
+      <c r="J64" s="11" t="n"/>
+      <c r="K64" s="10" t="n"/>
+      <c r="L64" s="10" t="n"/>
+      <c r="M64" s="10" t="n"/>
+      <c r="N64" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+      <c r="P64" s="10" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="65" ht="45" customFormat="1" customHeight="1" s="15">
+      <c r="A65" t="inlineStr">
         <is>
           <t>ADDICTO:0000456</t>
         </is>
       </c>
-      <c r="B64" s="16" t="inlineStr">
+      <c r="B65" s="16" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="C64" s="16" t="inlineStr">
+      <c r="C65" s="16" t="inlineStr">
         <is>
           <t>An action specification that an organisation produces that includes rules and regulations concerning activities of agents under the organisation's jurisdiction.</t>
         </is>
       </c>
-      <c r="D64" s="16" t="inlineStr">
-        <is>
-          <t>Action specification [IAO:0000007]</t>
-        </is>
-      </c>
-      <c r="E64" s="16" t="n"/>
-      <c r="F64" s="16" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G64" s="16" t="n"/>
-      <c r="H64" s="16" t="n"/>
-      <c r="I64" s="16" t="n"/>
-      <c r="J64" s="17" t="n"/>
-      <c r="K64" s="16" t="n"/>
-      <c r="L64" s="16" t="n"/>
-      <c r="M64" s="16" t="n"/>
-      <c r="N64" s="16" t="n">
-        <v>1</v>
-      </c>
-      <c r="O64" s="16" t="n"/>
-      <c r="P64" s="16" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q64" s="18" t="n"/>
-    </row>
-    <row r="65" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B65" s="10" t="inlineStr">
-        <is>
-          <t>Policy aim</t>
-        </is>
-      </c>
-      <c r="C65" s="10" t="n"/>
-      <c r="D65" s="10" t="n"/>
-      <c r="E65" s="10" t="n"/>
-      <c r="F65" s="10" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G65" s="10" t="n"/>
-      <c r="H65" s="10" t="n"/>
-      <c r="I65" s="10" t="n"/>
-      <c r="J65" s="11" t="n"/>
-      <c r="K65" s="10" t="n"/>
-      <c r="L65" s="10" t="n"/>
-      <c r="M65" s="10" t="n"/>
-      <c r="N65" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O65" s="10" t="n"/>
-      <c r="P65" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="D65" s="16" t="inlineStr">
+        <is>
+          <t>action specification</t>
+        </is>
+      </c>
+      <c r="E65" s="16" t="n"/>
+      <c r="F65" s="16" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G65" s="16" t="n"/>
+      <c r="H65" s="16" t="n"/>
+      <c r="I65" s="16" t="n"/>
+      <c r="J65" s="17" t="n"/>
+      <c r="K65" s="16" t="n"/>
+      <c r="L65" s="16" t="n"/>
+      <c r="M65" s="16" t="n"/>
+      <c r="N65" s="16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" s="16" t="n"/>
+      <c r="P65" s="16" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q65" s="18" t="n"/>
     </row>
     <row r="66" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B66" s="10" t="inlineStr">
         <is>
-          <t>Policy context</t>
+          <t>Policy aim</t>
         </is>
       </c>
       <c r="C66" s="10" t="n"/>
@@ -2891,13 +2904,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q66" s="10" t="n"/>
     </row>
     <row r="67" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A67" s="9" t="n"/>
       <c r="B67" s="10" t="inlineStr">
         <is>
-          <t>Policy debate</t>
+          <t>Policy context</t>
         </is>
       </c>
       <c r="C67" s="10" t="n"/>
@@ -2925,13 +2936,12 @@
         </is>
       </c>
       <c r="Q67" s="10" t="n"/>
-      <c r="R67" s="9" t="n"/>
-    </row>
-    <row r="68" ht="16" customFormat="1" customHeight="1" s="15">
-      <c r="A68" s="13" t="n"/>
+    </row>
+    <row r="68" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A68" s="9" t="n"/>
       <c r="B68" s="10" t="inlineStr">
         <is>
-          <t>Policy guideline</t>
+          <t>Policy debate</t>
         </is>
       </c>
       <c r="C68" s="10" t="n"/>
@@ -2959,14 +2969,13 @@
         </is>
       </c>
       <c r="Q68" s="10" t="n"/>
-      <c r="R68" s="13" t="n"/>
-      <c r="S68" s="13" t="n"/>
-    </row>
-    <row r="69" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A69" s="10" t="n"/>
+      <c r="R68" s="9" t="n"/>
+    </row>
+    <row r="69" ht="16" customFormat="1" customHeight="1" s="15">
+      <c r="A69" s="13" t="n"/>
       <c r="B69" s="10" t="inlineStr">
         <is>
-          <t>Political influence</t>
+          <t>Policy guideline</t>
         </is>
       </c>
       <c r="C69" s="10" t="n"/>
@@ -2994,13 +3003,14 @@
         </is>
       </c>
       <c r="Q69" s="10" t="n"/>
-      <c r="R69" s="11" t="n"/>
+      <c r="R69" s="13" t="n"/>
+      <c r="S69" s="13" t="n"/>
     </row>
     <row r="70" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A70" s="10" t="n"/>
       <c r="B70" s="10" t="inlineStr">
         <is>
-          <t>Post-treatement</t>
+          <t>Political influence</t>
         </is>
       </c>
       <c r="C70" s="10" t="n"/>
@@ -3034,7 +3044,7 @@
       <c r="A71" s="10" t="n"/>
       <c r="B71" s="10" t="inlineStr">
         <is>
-          <t>Prevention</t>
+          <t>Post-treatement</t>
         </is>
       </c>
       <c r="C71" s="10" t="n"/>
@@ -3064,32 +3074,16 @@
       <c r="Q71" s="10" t="n"/>
       <c r="R71" s="11" t="n"/>
     </row>
-    <row r="72" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A72" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000457</t>
-        </is>
-      </c>
+    <row r="72" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A72" s="10" t="n"/>
       <c r="B72" s="10" t="inlineStr">
         <is>
-          <t>Prior product authorisation law</t>
-        </is>
-      </c>
-      <c r="C72" s="10" t="inlineStr">
-        <is>
-          <t>A law that creates a requirement on product manufacturers to pre-notify a relevant authority of the product characteristics and receive approval before marketing a product.</t>
-        </is>
-      </c>
-      <c r="D72" s="10" t="inlineStr">
-        <is>
-          <t>Law</t>
-        </is>
-      </c>
-      <c r="E72" s="10" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>Prevention</t>
+        </is>
+      </c>
+      <c r="C72" s="10" t="n"/>
+      <c r="D72" s="10" t="n"/>
+      <c r="E72" s="10" t="n"/>
       <c r="F72" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3117,22 +3111,22 @@
     <row r="73" ht="45" customFormat="1" customHeight="1" s="13">
       <c r="A73" s="10" t="inlineStr">
         <is>
-          <t>ADDICTO:0000458</t>
+          <t>ADDICTO:0000457</t>
         </is>
       </c>
       <c r="B73" s="10" t="inlineStr">
         <is>
-          <t>Naloxone pharmacy access law</t>
+          <t>Prior product authorisation law</t>
         </is>
       </c>
       <c r="C73" s="10" t="inlineStr">
         <is>
-          <t>A pharmacy access law in which the product being distributed is naloxone.</t>
+          <t>A law that creates a requirement on product manufacturers to pre-notify a relevant authority of the product characteristics and receive approval before marketing a product.</t>
         </is>
       </c>
       <c r="D73" s="10" t="inlineStr">
         <is>
-          <t>Pharmacy access law</t>
+          <t>Law</t>
         </is>
       </c>
       <c r="E73" s="10" t="inlineStr">
@@ -3152,31 +3146,37 @@
       <c r="K73" s="10" t="n"/>
       <c r="L73" s="10" t="n"/>
       <c r="M73" s="10" t="n"/>
-      <c r="N73" s="10" t="n"/>
+      <c r="N73" s="10" t="n">
+        <v>1</v>
+      </c>
       <c r="O73" s="10" t="n"/>
-      <c r="P73" s="10" t="n"/>
+      <c r="P73" s="10" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="Q73" s="10" t="n"/>
       <c r="R73" s="11" t="n"/>
     </row>
     <row r="74" ht="45" customFormat="1" customHeight="1" s="13">
       <c r="A74" s="10" t="inlineStr">
         <is>
-          <t>ADDICTO:0000459</t>
+          <t>ADDICTO:0000458</t>
         </is>
       </c>
       <c r="B74" s="10" t="inlineStr">
         <is>
+          <t>Naloxone pharmacy access law</t>
+        </is>
+      </c>
+      <c r="C74" s="10" t="inlineStr">
+        <is>
+          <t>A pharmacy access law in which the product being distributed is naloxone.</t>
+        </is>
+      </c>
+      <c r="D74" s="10" t="inlineStr">
+        <is>
           <t>Pharmacy access law</t>
-        </is>
-      </c>
-      <c r="C74" s="10" t="inlineStr">
-        <is>
-          <t>A law that aims to facilitate distribution of a product through retail pharmacy channels.</t>
-        </is>
-      </c>
-      <c r="D74" s="10" t="inlineStr">
-        <is>
-          <t>Law</t>
         </is>
       </c>
       <c r="E74" s="10" t="inlineStr">
@@ -3202,16 +3202,32 @@
       <c r="Q74" s="10" t="n"/>
       <c r="R74" s="11" t="n"/>
     </row>
-    <row r="75" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A75" s="10" t="n"/>
+    <row r="75" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A75" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000459</t>
+        </is>
+      </c>
       <c r="B75" s="10" t="inlineStr">
         <is>
-          <t>Private restrictions on smoking</t>
-        </is>
-      </c>
-      <c r="C75" s="10" t="n"/>
-      <c r="D75" s="10" t="n"/>
-      <c r="E75" s="10" t="n"/>
+          <t>Pharmacy access law</t>
+        </is>
+      </c>
+      <c r="C75" s="10" t="inlineStr">
+        <is>
+          <t>A law that aims to facilitate distribution of a product through retail pharmacy channels.</t>
+        </is>
+      </c>
+      <c r="D75" s="10" t="inlineStr">
+        <is>
+          <t>Law</t>
+        </is>
+      </c>
+      <c r="E75" s="10" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F75" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3224,22 +3240,17 @@
       <c r="K75" s="10" t="n"/>
       <c r="L75" s="10" t="n"/>
       <c r="M75" s="10" t="n"/>
-      <c r="N75" s="10" t="n">
-        <v>1</v>
-      </c>
+      <c r="N75" s="10" t="n"/>
       <c r="O75" s="10" t="n"/>
-      <c r="P75" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="P75" s="10" t="n"/>
+      <c r="Q75" s="10" t="n"/>
       <c r="R75" s="11" t="n"/>
     </row>
-    <row r="76" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="76" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A76" s="10" t="n"/>
       <c r="B76" s="10" t="inlineStr">
         <is>
-          <t>Proactive tobacco cessation outreach</t>
+          <t>Private restrictions on smoking</t>
         </is>
       </c>
       <c r="C76" s="10" t="n"/>
@@ -3268,10 +3279,11 @@
       </c>
       <c r="R76" s="11" t="n"/>
     </row>
-    <row r="77" ht="16" customFormat="1" customHeight="1" s="13">
+    <row r="77" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A77" s="10" t="n"/>
       <c r="B77" s="10" t="inlineStr">
         <is>
-          <t>Prohibition</t>
+          <t>Proactive tobacco cessation outreach</t>
         </is>
       </c>
       <c r="C77" s="10" t="n"/>
@@ -3298,11 +3310,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R77" s="11" t="n"/>
     </row>
     <row r="78" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B78" s="10" t="inlineStr">
         <is>
-          <t>Prohibition-based policy</t>
+          <t>Prohibition</t>
         </is>
       </c>
       <c r="C78" s="10" t="n"/>
@@ -3329,12 +3342,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q78" s="10" t="n"/>
     </row>
     <row r="79" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B79" s="10" t="inlineStr">
         <is>
-          <t>Public healthcare system</t>
+          <t>Prohibition-based policy</t>
         </is>
       </c>
       <c r="C79" s="10" t="n"/>
@@ -3363,11 +3375,10 @@
       </c>
       <c r="Q79" s="10" t="n"/>
     </row>
-    <row r="80" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A80" s="10" t="n"/>
+    <row r="80" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B80" s="10" t="inlineStr">
         <is>
-          <t>Publicly funded health insurance plan</t>
+          <t>Public healthcare system</t>
         </is>
       </c>
       <c r="C80" s="10" t="n"/>
@@ -3394,12 +3405,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R80" s="11" t="n"/>
-    </row>
-    <row r="81" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="Q80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A81" s="10" t="n"/>
       <c r="B81" s="10" t="inlineStr">
         <is>
-          <t>Regulatory policy</t>
+          <t>Publicly funded health insurance plan</t>
         </is>
       </c>
       <c r="C81" s="10" t="n"/>
@@ -3412,11 +3424,7 @@
       </c>
       <c r="G81" s="10" t="n"/>
       <c r="H81" s="10" t="n"/>
-      <c r="I81" s="10" t="inlineStr">
-        <is>
-          <t>Regulation</t>
-        </is>
-      </c>
+      <c r="I81" s="10" t="n"/>
       <c r="J81" s="11" t="n"/>
       <c r="K81" s="10" t="n"/>
       <c r="L81" s="10" t="n"/>
@@ -3430,12 +3438,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R81" s="11" t="n"/>
     </row>
     <row r="82" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A82" s="10" t="n"/>
       <c r="B82" s="10" t="inlineStr">
         <is>
-          <t>Relapse prevention</t>
+          <t>Regulatory policy</t>
         </is>
       </c>
       <c r="C82" s="10" t="n"/>
@@ -3448,7 +3456,11 @@
       </c>
       <c r="G82" s="10" t="n"/>
       <c r="H82" s="10" t="n"/>
-      <c r="I82" s="10" t="n"/>
+      <c r="I82" s="10" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
       <c r="J82" s="11" t="n"/>
       <c r="K82" s="10" t="n"/>
       <c r="L82" s="10" t="n"/>
@@ -3462,14 +3474,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q82" s="10" t="n"/>
-      <c r="R82" s="11" t="n"/>
     </row>
     <row r="83" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A83" s="10" t="n"/>
       <c r="B83" s="10" t="inlineStr">
         <is>
-          <t>Retention in treatment</t>
+          <t>Relapse prevention</t>
         </is>
       </c>
       <c r="C83" s="10" t="n"/>
@@ -3500,9 +3510,10 @@
       <c r="R83" s="11" t="n"/>
     </row>
     <row r="84" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A84" s="10" t="n"/>
       <c r="B84" s="10" t="inlineStr">
         <is>
-          <t>Return on investment</t>
+          <t>Retention in treatment</t>
         </is>
       </c>
       <c r="C84" s="10" t="n"/>
@@ -3515,11 +3526,7 @@
       </c>
       <c r="G84" s="10" t="n"/>
       <c r="H84" s="10" t="n"/>
-      <c r="I84" s="10" t="inlineStr">
-        <is>
-          <t>ROI</t>
-        </is>
-      </c>
+      <c r="I84" s="10" t="n"/>
       <c r="J84" s="11" t="n"/>
       <c r="K84" s="10" t="n"/>
       <c r="L84" s="10" t="n"/>
@@ -3534,33 +3541,17 @@
         </is>
       </c>
       <c r="Q84" s="10" t="n"/>
-    </row>
-    <row r="85" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000460</t>
-        </is>
-      </c>
+      <c r="R84" s="11" t="n"/>
+    </row>
+    <row r="85" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B85" s="10" t="inlineStr">
         <is>
-          <t>Scalable intervention</t>
-        </is>
-      </c>
-      <c r="C85" s="10" t="inlineStr">
-        <is>
-          <t>An intervention that it is practicable and affordable to implement so that it reaches the intended target population</t>
-        </is>
-      </c>
-      <c r="D85" s="10" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="E85" s="10" t="inlineStr">
-        <is>
-          <t>Independent continuant</t>
-        </is>
-      </c>
+          <t>Return on investment</t>
+        </is>
+      </c>
+      <c r="C85" s="10" t="n"/>
+      <c r="D85" s="10" t="n"/>
+      <c r="E85" s="10" t="n"/>
       <c r="F85" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3568,7 +3559,11 @@
       </c>
       <c r="G85" s="10" t="n"/>
       <c r="H85" s="10" t="n"/>
-      <c r="I85" s="10" t="n"/>
+      <c r="I85" s="10" t="inlineStr">
+        <is>
+          <t>ROI</t>
+        </is>
+      </c>
       <c r="J85" s="11" t="n"/>
       <c r="K85" s="10" t="n"/>
       <c r="L85" s="10" t="n"/>
@@ -3582,17 +3577,34 @@
           <t>Proposed</t>
         </is>
       </c>
-    </row>
-    <row r="86" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A86" s="10" t="n"/>
-      <c r="B86" s="13" t="inlineStr">
-        <is>
-          <t>Service impact</t>
-        </is>
-      </c>
-      <c r="C86" s="10" t="n"/>
-      <c r="D86" s="10" t="n"/>
-      <c r="E86" s="10" t="n"/>
+      <c r="Q85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000460</t>
+        </is>
+      </c>
+      <c r="B86" s="10" t="inlineStr">
+        <is>
+          <t>Scalable intervention</t>
+        </is>
+      </c>
+      <c r="C86" s="10" t="inlineStr">
+        <is>
+          <t>An intervention that it is practicable and affordable to implement so that it reaches the intended target population</t>
+        </is>
+      </c>
+      <c r="D86" s="10" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="E86" s="10" t="inlineStr">
+        <is>
+          <t>Independent continuant</t>
+        </is>
+      </c>
       <c r="F86" s="10" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -3614,12 +3626,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R86" s="11" t="n"/>
     </row>
     <row r="87" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B87" s="10" t="inlineStr">
-        <is>
-          <t>Smokefree home</t>
+      <c r="A87" s="10" t="n"/>
+      <c r="B87" s="13" t="inlineStr">
+        <is>
+          <t>Service impact</t>
         </is>
       </c>
       <c r="C87" s="10" t="n"/>
@@ -3646,11 +3658,12 @@
           <t>Proposed</t>
         </is>
       </c>
-    </row>
-    <row r="88" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="R87" s="11" t="n"/>
+    </row>
+    <row r="88" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B88" s="10" t="inlineStr">
         <is>
-          <t>Smoking ban in indoor public areas</t>
+          <t>Smokefree home</t>
         </is>
       </c>
       <c r="C88" s="10" t="n"/>
@@ -3663,11 +3676,7 @@
       </c>
       <c r="G88" s="10" t="n"/>
       <c r="H88" s="10" t="n"/>
-      <c r="I88" s="10" t="inlineStr">
-        <is>
-          <t>Smoking ban</t>
-        </is>
-      </c>
+      <c r="I88" s="10" t="n"/>
       <c r="J88" s="11" t="n"/>
       <c r="K88" s="10" t="n"/>
       <c r="L88" s="10" t="n"/>
@@ -3682,11 +3691,10 @@
         </is>
       </c>
     </row>
-    <row r="89" ht="60" customFormat="1" customHeight="1" s="13">
-      <c r="A89" s="10" t="n"/>
+    <row r="89" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B89" s="10" t="inlineStr">
         <is>
-          <t>Smoking cessation service</t>
+          <t>Smoking ban in indoor public areas</t>
         </is>
       </c>
       <c r="C89" s="10" t="n"/>
@@ -3701,7 +3709,7 @@
       <c r="H89" s="10" t="n"/>
       <c r="I89" s="10" t="inlineStr">
         <is>
-          <t>Stop-smoking service;SSS;Stop-smoking-treatment service</t>
+          <t>Smoking ban</t>
         </is>
       </c>
       <c r="J89" s="11" t="n"/>
@@ -3717,12 +3725,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R89" s="11" t="n"/>
-    </row>
-    <row r="90" ht="16" customFormat="1" customHeight="1" s="13">
+    </row>
+    <row r="90" ht="60" customFormat="1" customHeight="1" s="13">
+      <c r="A90" s="10" t="n"/>
       <c r="B90" s="10" t="inlineStr">
         <is>
-          <t>Smoking cessation treatment</t>
+          <t>Smoking cessation service</t>
         </is>
       </c>
       <c r="C90" s="10" t="n"/>
@@ -3735,7 +3743,11 @@
       </c>
       <c r="G90" s="10" t="n"/>
       <c r="H90" s="10" t="n"/>
-      <c r="I90" s="10" t="n"/>
+      <c r="I90" s="10" t="inlineStr">
+        <is>
+          <t>Stop-smoking service;SSS;Stop-smoking-treatment service</t>
+        </is>
+      </c>
       <c r="J90" s="11" t="n"/>
       <c r="K90" s="10" t="n"/>
       <c r="L90" s="10" t="n"/>
@@ -3749,11 +3761,12 @@
           <t>Proposed</t>
         </is>
       </c>
-    </row>
-    <row r="91" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="R90" s="11" t="n"/>
+    </row>
+    <row r="91" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B91" s="10" t="inlineStr">
         <is>
-          <t>Standardized packaging legislation</t>
+          <t>Smoking cessation treatment</t>
         </is>
       </c>
       <c r="C91" s="10" t="n"/>
@@ -3780,12 +3793,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q91" s="10" t="n"/>
-    </row>
-    <row r="92" ht="16" customFormat="1" customHeight="1" s="13">
+    </row>
+    <row r="92" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B92" s="10" t="inlineStr">
         <is>
-          <t>Start of treatment</t>
+          <t>Standardized packaging legislation</t>
         </is>
       </c>
       <c r="C92" s="10" t="n"/>
@@ -3817,7 +3829,7 @@
     <row r="93" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B93" s="10" t="inlineStr">
         <is>
-          <t>State excise tax on tobacco</t>
+          <t>Start of treatment</t>
         </is>
       </c>
       <c r="C93" s="10" t="n"/>
@@ -3847,10 +3859,9 @@
       <c r="Q93" s="10" t="n"/>
     </row>
     <row r="94" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A94" s="10" t="n"/>
       <c r="B94" s="10" t="inlineStr">
         <is>
-          <t>Stop-smoking service</t>
+          <t>State excise tax on tobacco</t>
         </is>
       </c>
       <c r="C94" s="10" t="n"/>
@@ -3863,11 +3874,7 @@
       </c>
       <c r="G94" s="10" t="n"/>
       <c r="H94" s="10" t="n"/>
-      <c r="I94" s="10" t="inlineStr">
-        <is>
-          <t>Stop smoking service</t>
-        </is>
-      </c>
+      <c r="I94" s="10" t="n"/>
       <c r="J94" s="11" t="n"/>
       <c r="K94" s="10" t="n"/>
       <c r="L94" s="10" t="n"/>
@@ -3881,12 +3888,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R94" s="11" t="n"/>
+      <c r="Q94" s="10" t="n"/>
     </row>
     <row r="95" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A95" s="10" t="n"/>
       <c r="B95" s="10" t="inlineStr">
         <is>
-          <t>Tax policy</t>
+          <t>Stop-smoking service</t>
         </is>
       </c>
       <c r="C95" s="10" t="n"/>
@@ -3899,7 +3907,11 @@
       </c>
       <c r="G95" s="10" t="n"/>
       <c r="H95" s="10" t="n"/>
-      <c r="I95" s="10" t="n"/>
+      <c r="I95" s="10" t="inlineStr">
+        <is>
+          <t>Stop smoking service</t>
+        </is>
+      </c>
       <c r="J95" s="11" t="n"/>
       <c r="K95" s="10" t="n"/>
       <c r="L95" s="10" t="n"/>
@@ -3913,11 +3925,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R95" s="11" t="n"/>
     </row>
     <row r="96" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B96" s="10" t="inlineStr">
         <is>
-          <t>Tax policy recommendation</t>
+          <t>Tax policy</t>
         </is>
       </c>
       <c r="C96" s="10" t="n"/>
@@ -3948,7 +3961,7 @@
     <row r="97" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B97" s="10" t="inlineStr">
         <is>
-          <t>Text message</t>
+          <t>Tax policy recommendation</t>
         </is>
       </c>
       <c r="C97" s="10" t="n"/>
@@ -3979,7 +3992,7 @@
     <row r="98" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B98" s="10" t="inlineStr">
         <is>
-          <t>Text-message intervention</t>
+          <t>Text message</t>
         </is>
       </c>
       <c r="C98" s="10" t="n"/>
@@ -4007,10 +4020,10 @@
         </is>
       </c>
     </row>
-    <row r="99" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="99" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B99" s="10" t="inlineStr">
         <is>
-          <t>Theoretically based text-message intervention</t>
+          <t>Text-message intervention</t>
         </is>
       </c>
       <c r="C99" s="10" t="n"/>
@@ -4038,11 +4051,10 @@
         </is>
       </c>
     </row>
-    <row r="100" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A100" s="10" t="n"/>
+    <row r="100" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B100" s="10" t="inlineStr">
         <is>
-          <t>Tobacco and nicotine regulation</t>
+          <t>Theoretically based text-message intervention</t>
         </is>
       </c>
       <c r="C100" s="10" t="n"/>
@@ -4069,127 +4081,126 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q100" s="10" t="n"/>
-      <c r="R100" s="11" t="n"/>
-    </row>
-    <row r="101" ht="60" customFormat="1" customHeight="1" s="17">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000461</t>
-        </is>
-      </c>
-      <c r="B101" s="17" t="inlineStr">
-        <is>
-          <t>Tobacco control policy</t>
-        </is>
-      </c>
-      <c r="C101" s="17" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing harm from tobacco use.</t>
-        </is>
-      </c>
-      <c r="D101" s="17" t="inlineStr">
-        <is>
-          <t>Government policy</t>
-        </is>
-      </c>
-      <c r="F101" s="17" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant aggregate</t>
-        </is>
-      </c>
-      <c r="N101" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O101" s="17" t="inlineStr">
-        <is>
-          <t>All</t>
-        </is>
-      </c>
-      <c r="P101" s="17" t="inlineStr">
-        <is>
-          <t>Discussed</t>
-        </is>
-      </c>
+    </row>
+    <row r="101" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A101" s="10" t="n"/>
+      <c r="B101" s="10" t="inlineStr">
+        <is>
+          <t>Tobacco and nicotine regulation</t>
+        </is>
+      </c>
+      <c r="C101" s="10" t="n"/>
+      <c r="D101" s="10" t="n"/>
+      <c r="E101" s="10" t="n"/>
+      <c r="F101" s="10" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G101" s="10" t="n"/>
+      <c r="H101" s="10" t="n"/>
+      <c r="I101" s="10" t="n"/>
+      <c r="J101" s="11" t="n"/>
+      <c r="K101" s="10" t="n"/>
+      <c r="L101" s="10" t="n"/>
+      <c r="M101" s="10" t="n"/>
+      <c r="N101" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+      <c r="P101" s="10" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q101" s="10" t="n"/>
+      <c r="R101" s="11" t="n"/>
     </row>
     <row r="102" ht="60" customFormat="1" customHeight="1" s="17">
       <c r="A102" t="inlineStr">
         <is>
+          <t>ADDICTO:0000461</t>
+        </is>
+      </c>
+      <c r="B102" s="17" t="inlineStr">
+        <is>
+          <t>Tobacco control policy</t>
+        </is>
+      </c>
+      <c r="C102" s="17" t="inlineStr">
+        <is>
+          <t>A government policy aimed at reducing harm from tobacco use.</t>
+        </is>
+      </c>
+      <c r="D102" s="17" t="inlineStr">
+        <is>
+          <t>Government policy</t>
+        </is>
+      </c>
+      <c r="F102" s="17" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant aggregate</t>
+        </is>
+      </c>
+      <c r="N102" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O102" s="17" t="inlineStr">
+        <is>
+          <t>All</t>
+        </is>
+      </c>
+      <c r="P102" s="17" t="inlineStr">
+        <is>
+          <t>Discussed</t>
+        </is>
+      </c>
+    </row>
+    <row r="103" ht="60" customFormat="1" customHeight="1" s="17">
+      <c r="A103" t="inlineStr">
+        <is>
           <t>ADDICTO:0000462</t>
         </is>
       </c>
-      <c r="B102" s="17" t="inlineStr">
+      <c r="B103" s="17" t="inlineStr">
         <is>
           <t>Tobacco control</t>
         </is>
       </c>
-      <c r="C102" s="17" t="inlineStr">
+      <c r="C103" s="17" t="inlineStr">
         <is>
           <t>An aggregate of tobacco control policies.</t>
         </is>
       </c>
-      <c r="D102" s="17" t="inlineStr">
+      <c r="D103" s="17" t="inlineStr">
         <is>
           <t>Policy aggregate</t>
         </is>
       </c>
-      <c r="F102" s="17" t="inlineStr">
+      <c r="F103" s="17" t="inlineStr">
         <is>
           <t>Generically dependent continuant aggregate</t>
         </is>
       </c>
-      <c r="N102" s="17" t="n">
-        <v>1</v>
-      </c>
-      <c r="O102" s="17" t="inlineStr">
+      <c r="N103" s="17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O103" s="17" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="P102" s="17" t="inlineStr">
+      <c r="P103" s="17" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-    </row>
-    <row r="103" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A103" s="10" t="n"/>
-      <c r="B103" s="10" t="inlineStr">
-        <is>
-          <t>Tobacco excise tax</t>
-        </is>
-      </c>
-      <c r="C103" s="10" t="n"/>
-      <c r="D103" s="10" t="n"/>
-      <c r="E103" s="10" t="n"/>
-      <c r="F103" s="10" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G103" s="10" t="n"/>
-      <c r="H103" s="10" t="n"/>
-      <c r="I103" s="10" t="n"/>
-      <c r="J103" s="11" t="n"/>
-      <c r="K103" s="10" t="n"/>
-      <c r="L103" s="10" t="n"/>
-      <c r="M103" s="10" t="n"/>
-      <c r="N103" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="O103" s="10" t="n"/>
-      <c r="P103" s="10" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R103" s="11" t="n"/>
     </row>
     <row r="104" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A104" s="10" t="n"/>
       <c r="B104" s="10" t="inlineStr">
         <is>
-          <t>Tobacco harm reduction</t>
+          <t>Tobacco excise tax</t>
         </is>
       </c>
       <c r="C104" s="10" t="n"/>
@@ -4222,7 +4233,7 @@
       <c r="A105" s="10" t="n"/>
       <c r="B105" s="10" t="inlineStr">
         <is>
-          <t>Tobacco Products Directive</t>
+          <t>Tobacco harm reduction</t>
         </is>
       </c>
       <c r="C105" s="10" t="n"/>
@@ -4252,9 +4263,10 @@
       <c r="R105" s="11" t="n"/>
     </row>
     <row r="106" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A106" s="10" t="n"/>
       <c r="B106" s="10" t="inlineStr">
         <is>
-          <t>Tobacco tax</t>
+          <t>Tobacco Products Directive</t>
         </is>
       </c>
       <c r="C106" s="10" t="n"/>
@@ -4281,11 +4293,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R106" s="11" t="n"/>
     </row>
     <row r="107" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B107" s="13" t="inlineStr">
-        <is>
-          <t>US State Medicaid programme</t>
+      <c r="B107" s="10" t="inlineStr">
+        <is>
+          <t>Tobacco tax</t>
         </is>
       </c>
       <c r="C107" s="10" t="n"/>
@@ -4314,9 +4327,9 @@
       </c>
     </row>
     <row r="108" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B108" s="10" t="inlineStr">
-        <is>
-          <t>Usual care</t>
+      <c r="B108" s="13" t="inlineStr">
+        <is>
+          <t>US State Medicaid programme</t>
         </is>
       </c>
       <c r="C108" s="10" t="n"/>
@@ -4345,9 +4358,9 @@
       </c>
     </row>
     <row r="109" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B109" s="13" t="inlineStr">
-        <is>
-          <t>Virtual health counselor</t>
+      <c r="B109" s="10" t="inlineStr">
+        <is>
+          <t>Usual care</t>
         </is>
       </c>
       <c r="C109" s="10" t="n"/>
@@ -4378,7 +4391,7 @@
     <row r="110" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B110" s="13" t="inlineStr">
         <is>
-          <t>Voucher-based incentive system</t>
+          <t>Virtual health counselor</t>
         </is>
       </c>
       <c r="C110" s="10" t="n"/>
@@ -4406,80 +4419,66 @@
         </is>
       </c>
     </row>
-    <row r="111" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A111" s="9" t="inlineStr">
+    <row r="111" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B111" s="13" t="inlineStr">
+        <is>
+          <t>Voucher-based incentive system</t>
+        </is>
+      </c>
+      <c r="C111" s="10" t="n"/>
+      <c r="D111" s="10" t="n"/>
+      <c r="E111" s="10" t="n"/>
+      <c r="F111" s="10" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G111" s="10" t="n"/>
+      <c r="H111" s="10" t="n"/>
+      <c r="I111" s="10" t="n"/>
+      <c r="J111" s="11" t="n"/>
+      <c r="K111" s="10" t="n"/>
+      <c r="L111" s="10" t="n"/>
+      <c r="M111" s="10" t="n"/>
+      <c r="N111" s="10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+      <c r="P111" s="10" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="112" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A112" s="9" t="inlineStr">
         <is>
           <t>ADDICTO:0000463</t>
         </is>
       </c>
-      <c r="B111" s="13" t="inlineStr">
+      <c r="B112" s="13" t="inlineStr">
         <is>
           <t>5-day buprenorphine-managed withdrawal protocol</t>
         </is>
       </c>
-      <c r="C111" s="13" t="inlineStr">
+      <c r="C112" s="13" t="inlineStr">
         <is>
           <t>An opiate withdrawal protocol scheduled to last for 5 days and use buprenorphine to reduce the severity of opiate withdrawal symptoms.</t>
         </is>
       </c>
-      <c r="D111" s="13" t="inlineStr">
+      <c r="D112" s="13" t="inlineStr">
         <is>
           <t>Opiate withdrawal protocol</t>
         </is>
       </c>
-      <c r="E111" s="13" t="inlineStr">
+      <c r="E112" s="13" t="inlineStr">
         <is>
           <t>Planned process</t>
         </is>
       </c>
-      <c r="F111" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P111" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q111" s="9" t="n"/>
-      <c r="R111" s="9" t="n"/>
-      <c r="S111" s="9" t="n"/>
-    </row>
-    <row r="112" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000464</t>
-        </is>
-      </c>
-      <c r="B112" s="13" t="inlineStr">
-        <is>
-          <t>Accessibility of primary healthcare physician advice</t>
-        </is>
-      </c>
-      <c r="C112" s="13" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
-        </is>
-      </c>
-      <c r="D112" s="13" t="inlineStr">
-        <is>
-          <t>Accessibility of a service</t>
-        </is>
-      </c>
-      <c r="E112" s="13" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
       <c r="F112" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="O112" s="13" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="P112" s="13" t="inlineStr">
@@ -4491,25 +4490,25 @@
       <c r="R112" s="9" t="n"/>
       <c r="S112" s="9" t="n"/>
     </row>
-    <row r="113" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A113" s="9" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000465</t>
+    <row r="113" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000464</t>
         </is>
       </c>
       <c r="B113" s="13" t="inlineStr">
         <is>
-          <t>Addiction treatment</t>
+          <t>Accessibility of primary healthcare physician advice</t>
         </is>
       </c>
       <c r="C113" s="13" t="inlineStr">
         <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
         </is>
       </c>
       <c r="D113" s="13" t="inlineStr">
         <is>
-          <t>Treatment</t>
+          <t>Accessibility of a service</t>
         </is>
       </c>
       <c r="E113" s="13" t="inlineStr">
@@ -4520,6 +4519,11 @@
       <c r="F113" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
+        </is>
+      </c>
+      <c r="O113" s="13" t="inlineStr">
+        <is>
+          <t>RW</t>
         </is>
       </c>
       <c r="P113" s="13" t="inlineStr">
@@ -4531,16 +4535,30 @@
       <c r="R113" s="9" t="n"/>
       <c r="S113" s="9" t="n"/>
     </row>
-    <row r="114" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A114" s="9" t="n"/>
+    <row r="114" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A114" s="9" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000465</t>
+        </is>
+      </c>
       <c r="B114" s="13" t="inlineStr">
         <is>
-          <t>Adherence to opioid agonist therapy</t>
+          <t>Addiction treatment</t>
+        </is>
+      </c>
+      <c r="C114" s="13" t="inlineStr">
+        <is>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
         </is>
       </c>
       <c r="D114" s="13" t="inlineStr">
         <is>
-          <t>Adherence to medication regimen</t>
+          <t>Treatment</t>
+        </is>
+      </c>
+      <c r="E114" s="13" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F114" s="13" t="inlineStr">
@@ -4557,141 +4575,120 @@
       <c r="R114" s="9" t="n"/>
       <c r="S114" s="9" t="n"/>
     </row>
-    <row r="115" ht="90" customFormat="1" customHeight="1" s="13">
-      <c r="A115" t="inlineStr">
+    <row r="115" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A115" s="9" t="n"/>
+      <c r="B115" s="13" t="inlineStr">
+        <is>
+          <t>Adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="D115" s="13" t="inlineStr">
+        <is>
+          <t>Adherence to medication regimen</t>
+        </is>
+      </c>
+      <c r="F115" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P115" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q115" s="9" t="n"/>
+      <c r="R115" s="9" t="n"/>
+      <c r="S115" s="9" t="n"/>
+    </row>
+    <row r="116" ht="90" customFormat="1" customHeight="1" s="13">
+      <c r="A116" t="inlineStr">
         <is>
           <t>ADDICTO:0000466</t>
         </is>
       </c>
-      <c r="B115" s="9" t="inlineStr">
+      <c r="B116" s="9" t="inlineStr">
         <is>
           <t>Advertising ban</t>
         </is>
       </c>
-      <c r="C115" s="9" t="inlineStr">
+      <c r="C116" s="9" t="inlineStr">
         <is>
           <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
         </is>
       </c>
-      <c r="D115" s="9" t="inlineStr">
-        <is>
-          <t>Behaviour change intervention [BCIO:xxxx]</t>
-        </is>
-      </c>
-      <c r="E115" s="9" t="inlineStr">
+      <c r="D116" s="9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E116" s="9" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F115" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G115" s="9" t="n"/>
-      <c r="H115" s="9" t="inlineStr">
+      <c r="F116" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G116" s="9" t="n"/>
+      <c r="H116" s="9" t="inlineStr">
         <is>
           <t>No appropriate definition found. Definition based on usage.</t>
         </is>
       </c>
-      <c r="I115" s="9" t="n"/>
-      <c r="J115" s="9" t="inlineStr">
+      <c r="I116" s="9" t="n"/>
+      <c r="J116" s="9" t="inlineStr">
         <is>
           <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
         </is>
       </c>
-      <c r="K115" s="9" t="n"/>
-      <c r="L115" s="9" t="n"/>
-      <c r="M115" s="9" t="n"/>
-      <c r="N115" s="9" t="n"/>
-      <c r="O115" s="9" t="n"/>
-      <c r="P115" s="9" t="n"/>
-      <c r="S115" s="10" t="n"/>
-    </row>
-    <row r="116" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B116" s="13" t="inlineStr">
+      <c r="K116" s="9" t="n"/>
+      <c r="L116" s="9" t="n"/>
+      <c r="M116" s="9" t="n"/>
+      <c r="N116" s="9" t="n"/>
+      <c r="O116" s="9" t="n"/>
+      <c r="P116" s="9" t="n"/>
+      <c r="S116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B117" s="13" t="inlineStr">
         <is>
           <t>Alcohol consumption recommendation</t>
         </is>
       </c>
-      <c r="F116" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P116" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S116" s="10" t="n"/>
-    </row>
-    <row r="117" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A117" t="inlineStr">
+      <c r="F117" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P117" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A118" t="inlineStr">
         <is>
           <t>ADDICTO:0000467</t>
         </is>
       </c>
-      <c r="B117" s="9" t="inlineStr">
+      <c r="B118" s="9" t="inlineStr">
         <is>
           <t>Alcohol control policy</t>
         </is>
       </c>
-      <c r="C117" s="9" t="inlineStr">
+      <c r="C118" s="9" t="inlineStr">
         <is>
           <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
         </is>
       </c>
-      <c r="D117" s="9" t="inlineStr">
+      <c r="D118" s="9" t="inlineStr">
         <is>
           <t>Government policy</t>
-        </is>
-      </c>
-      <c r="E117" s="9" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F117" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G117" s="9" t="n"/>
-      <c r="H117" s="9" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
-        </is>
-      </c>
-      <c r="I117" s="9" t="n"/>
-      <c r="J117" s="9" t="n"/>
-      <c r="K117" s="9" t="n"/>
-      <c r="L117" s="9" t="n"/>
-      <c r="M117" s="9" t="n"/>
-      <c r="N117" s="9" t="n"/>
-      <c r="O117" s="9" t="n"/>
-      <c r="P117" s="9" t="n"/>
-      <c r="S117" s="10" t="n"/>
-    </row>
-    <row r="118" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A118" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000468</t>
-        </is>
-      </c>
-      <c r="B118" s="9" t="inlineStr">
-        <is>
-          <t>Alcohol harm reduction policy</t>
-        </is>
-      </c>
-      <c r="C118" s="9" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
-        </is>
-      </c>
-      <c r="D118" s="9" t="inlineStr">
-        <is>
-          <t>Alcohol control policy</t>
         </is>
       </c>
       <c r="E118" s="9" t="inlineStr">
@@ -4707,7 +4704,7 @@
       <c r="G118" s="9" t="n"/>
       <c r="H118" s="9" t="inlineStr">
         <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
+          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
         </is>
       </c>
       <c r="I118" s="9" t="n"/>
@@ -4718,203 +4715,230 @@
       <c r="N118" s="9" t="n"/>
       <c r="O118" s="9" t="n"/>
       <c r="P118" s="9" t="n"/>
-      <c r="Q118" s="10" t="n"/>
-      <c r="R118" s="11" t="n"/>
       <c r="S118" s="10" t="n"/>
     </row>
-    <row r="119" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A119" s="9" t="n"/>
-      <c r="B119" s="13" t="inlineStr">
+    <row r="119" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A119" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000468</t>
+        </is>
+      </c>
+      <c r="B119" s="9" t="inlineStr">
+        <is>
+          <t>Alcohol harm reduction policy</t>
+        </is>
+      </c>
+      <c r="C119" s="9" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+        </is>
+      </c>
+      <c r="D119" s="9" t="inlineStr">
+        <is>
+          <t>Alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E119" s="9" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F119" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G119" s="9" t="n"/>
+      <c r="H119" s="9" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
+      <c r="I119" s="9" t="n"/>
+      <c r="J119" s="9" t="n"/>
+      <c r="K119" s="9" t="n"/>
+      <c r="L119" s="9" t="n"/>
+      <c r="M119" s="9" t="n"/>
+      <c r="N119" s="9" t="n"/>
+      <c r="O119" s="9" t="n"/>
+      <c r="P119" s="9" t="n"/>
+      <c r="Q119" s="10" t="n"/>
+      <c r="R119" s="11" t="n"/>
+      <c r="S119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A120" s="9" t="n"/>
+      <c r="B120" s="13" t="inlineStr">
         <is>
           <t>Alcohol policy</t>
         </is>
       </c>
-      <c r="F119" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P119" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q119" s="9" t="n"/>
-      <c r="R119" s="9" t="n"/>
-      <c r="S119" s="10" t="n"/>
-    </row>
-    <row r="120" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A120" s="10" t="inlineStr">
+      <c r="F120" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P120" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q120" s="9" t="n"/>
+      <c r="R120" s="9" t="n"/>
+      <c r="S120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A121" s="10" t="inlineStr">
         <is>
           <t>ADDICTO:0000469</t>
         </is>
       </c>
-      <c r="B120" s="9" t="inlineStr">
+      <c r="B121" s="9" t="inlineStr">
         <is>
           <t>Alcohol reduction policy</t>
         </is>
       </c>
-      <c r="C120" s="9" t="inlineStr">
+      <c r="C121" s="9" t="inlineStr">
         <is>
           <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
         </is>
       </c>
-      <c r="D120" s="9" t="inlineStr">
+      <c r="D121" s="9" t="inlineStr">
         <is>
           <t>Alcohol control policy</t>
         </is>
       </c>
-      <c r="E120" s="9" t="inlineStr">
+      <c r="E121" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F120" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G120" s="9" t="n"/>
-      <c r="H120" s="9" t="inlineStr">
+      <c r="F121" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G121" s="9" t="n"/>
+      <c r="H121" s="9" t="inlineStr">
         <is>
           <t>No appropriate definition found. Definition based on usage.</t>
         </is>
       </c>
-      <c r="I120" s="9" t="n"/>
-      <c r="J120" s="9" t="n"/>
-      <c r="K120" s="9" t="n"/>
-      <c r="L120" s="9" t="n"/>
-      <c r="M120" s="9" t="n"/>
-      <c r="N120" s="9" t="n"/>
-      <c r="O120" s="9" t="n"/>
-      <c r="P120" s="9" t="n"/>
-      <c r="Q120" s="10" t="n"/>
-      <c r="R120" s="11" t="n"/>
-      <c r="S120" s="10" t="n"/>
-    </row>
-    <row r="121" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B121" s="13" t="inlineStr">
+      <c r="I121" s="9" t="n"/>
+      <c r="J121" s="9" t="n"/>
+      <c r="K121" s="9" t="n"/>
+      <c r="L121" s="9" t="n"/>
+      <c r="M121" s="9" t="n"/>
+      <c r="N121" s="9" t="n"/>
+      <c r="O121" s="9" t="n"/>
+      <c r="P121" s="9" t="n"/>
+      <c r="Q121" s="10" t="n"/>
+      <c r="R121" s="11" t="n"/>
+      <c r="S121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B122" s="13" t="inlineStr">
         <is>
           <t>Alcohol screening and brief advice delivery</t>
         </is>
       </c>
-      <c r="F121" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P121" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S121" s="10" t="n"/>
-    </row>
-    <row r="122" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A122" s="9" t="n"/>
-      <c r="B122" s="13" t="inlineStr">
+      <c r="F122" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P122" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A123" s="9" t="n"/>
+      <c r="B123" s="13" t="inlineStr">
         <is>
           <t>Alcohol serving size reduction</t>
         </is>
       </c>
-      <c r="F122" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P122" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q122" s="9" t="n"/>
-      <c r="R122" s="9" t="n"/>
-      <c r="S122" s="10" t="n"/>
-    </row>
-    <row r="123" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B123" s="13" t="inlineStr">
+      <c r="F123" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P123" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q123" s="9" t="n"/>
+      <c r="R123" s="9" t="n"/>
+      <c r="S123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B124" s="13" t="inlineStr">
         <is>
           <t>Alcohol tax</t>
         </is>
       </c>
-      <c r="F123" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P123" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S123" s="10" t="n"/>
-    </row>
-    <row r="124" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A124" s="9" t="n"/>
-      <c r="B124" s="13" t="inlineStr">
+      <c r="F124" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P124" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S124" s="10" t="n"/>
+    </row>
+    <row r="125" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A125" s="9" t="n"/>
+      <c r="B125" s="13" t="inlineStr">
         <is>
           <t>Alcohol Use Disorder treatment</t>
         </is>
       </c>
-      <c r="F124" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P124" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q124" s="9" t="n"/>
-      <c r="R124" s="9" t="n"/>
-      <c r="S124" s="10" t="n"/>
-    </row>
-    <row r="125" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B125" s="13" t="inlineStr">
+      <c r="F125" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P125" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q125" s="9" t="n"/>
+      <c r="R125" s="9" t="n"/>
+      <c r="S125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B126" s="13" t="inlineStr">
         <is>
           <t>Alcohol use prevention</t>
         </is>
       </c>
-      <c r="F125" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P125" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S125" s="10" t="n"/>
-    </row>
-    <row r="126" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A126" s="9" t="n"/>
-      <c r="B126" s="13" t="inlineStr">
+      <c r="F126" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P126" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S126" s="10" t="n"/>
+    </row>
+    <row r="127" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A127" s="9" t="n"/>
+      <c r="B127" s="13" t="inlineStr">
         <is>
           <t>Anti-tobacco advocacy</t>
         </is>
       </c>
-      <c r="F126" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P126" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q126" s="9" t="n"/>
-      <c r="R126" s="9" t="n"/>
-      <c r="S126" s="10" t="n"/>
-    </row>
-    <row r="127" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B127" s="13" t="inlineStr">
-        <is>
-          <t>At-home cessation support</t>
-        </is>
-      </c>
       <c r="F127" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -4925,48 +4949,50 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q127" s="9" t="n"/>
+      <c r="R127" s="9" t="n"/>
       <c r="S127" s="10" t="n"/>
     </row>
     <row r="128" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B128" s="13" t="inlineStr">
         <is>
+          <t>At-home cessation support</t>
+        </is>
+      </c>
+      <c r="F128" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P128" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S128" s="10" t="n"/>
+    </row>
+    <row r="129" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B129" s="13" t="inlineStr">
+        <is>
           <t>Australian Temperament Project</t>
         </is>
       </c>
-      <c r="F128" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P128" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S128" s="10" t="n"/>
-    </row>
-    <row r="129" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B129" s="13" t="inlineStr">
+      <c r="F129" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P129" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B130" s="13" t="inlineStr">
         <is>
           <t>Barrier to Substance Use Disorder treatment access</t>
-        </is>
-      </c>
-      <c r="F129" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P129" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S129" s="10" t="n"/>
-    </row>
-    <row r="130" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B130" s="13" t="inlineStr">
-        <is>
-          <t>Behaviour Change Technique</t>
         </is>
       </c>
       <c r="F130" s="13" t="inlineStr">
@@ -4984,48 +5010,46 @@
     <row r="131" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B131" s="13" t="inlineStr">
         <is>
+          <t>Behaviour Change Technique</t>
+        </is>
+      </c>
+      <c r="F131" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P131" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S131" s="10" t="n"/>
+    </row>
+    <row r="132" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B132" s="13" t="inlineStr">
+        <is>
           <t>Behavioural substitute</t>
         </is>
       </c>
-      <c r="F131" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P131" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S131" s="10" t="n"/>
-    </row>
-    <row r="132" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A132" s="10" t="n"/>
-      <c r="B132" s="13" t="inlineStr">
+      <c r="F132" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P132" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A133" s="10" t="n"/>
+      <c r="B133" s="13" t="inlineStr">
         <is>
           <t>Behavioural substitution</t>
         </is>
       </c>
-      <c r="F132" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P132" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q132" s="10" t="n"/>
-      <c r="R132" s="11" t="n"/>
-      <c r="S132" s="10" t="n"/>
-    </row>
-    <row r="133" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B133" s="13" t="inlineStr">
-        <is>
-          <t>Behavioural support</t>
-        </is>
-      </c>
       <c r="F133" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -5036,12 +5060,14 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q133" s="10" t="n"/>
+      <c r="R133" s="11" t="n"/>
       <c r="S133" s="10" t="n"/>
     </row>
     <row r="134" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B134" s="13" t="inlineStr">
         <is>
-          <t>Brief advice provision</t>
+          <t>Behavioural support</t>
         </is>
       </c>
       <c r="F134" s="13" t="inlineStr">
@@ -5059,7 +5085,7 @@
     <row r="135" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B135" s="13" t="inlineStr">
         <is>
-          <t>Brief intervention</t>
+          <t>Brief advice provision</t>
         </is>
       </c>
       <c r="F135" s="13" t="inlineStr">
@@ -5077,7 +5103,7 @@
     <row r="136" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B136" s="13" t="inlineStr">
         <is>
-          <t>Buprenorphine induction</t>
+          <t>Brief intervention</t>
         </is>
       </c>
       <c r="F136" s="13" t="inlineStr">
@@ -5095,7 +5121,7 @@
     <row r="137" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B137" s="13" t="inlineStr">
         <is>
-          <t>Buprenorphine prescribing</t>
+          <t>Buprenorphine induction</t>
         </is>
       </c>
       <c r="F137" s="13" t="inlineStr">
@@ -5113,48 +5139,46 @@
     <row r="138" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B138" s="13" t="inlineStr">
         <is>
+          <t>Buprenorphine prescribing</t>
+        </is>
+      </c>
+      <c r="F138" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P138" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B139" s="13" t="inlineStr">
+        <is>
           <t>Buprenorphine prescription</t>
         </is>
       </c>
-      <c r="F138" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P138" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S138" s="10" t="n"/>
-    </row>
-    <row r="139" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A139" s="10" t="n"/>
-      <c r="B139" s="13" t="inlineStr">
+      <c r="F139" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P139" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A140" s="10" t="n"/>
+      <c r="B140" s="13" t="inlineStr">
         <is>
           <t>Cancer prevention</t>
         </is>
       </c>
-      <c r="F139" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P139" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q139" s="10" t="n"/>
-      <c r="R139" s="11" t="n"/>
-      <c r="S139" s="10" t="n"/>
-    </row>
-    <row r="140" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B140" s="13" t="inlineStr">
-        <is>
-          <t>Cannabis legalisation</t>
-        </is>
-      </c>
       <c r="F140" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -5165,12 +5189,14 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q140" s="10" t="n"/>
+      <c r="R140" s="11" t="n"/>
       <c r="S140" s="10" t="n"/>
     </row>
     <row r="141" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B141" s="13" t="inlineStr">
         <is>
-          <t>Cannabis regulation</t>
+          <t>Cannabis legalisation</t>
         </is>
       </c>
       <c r="F141" s="13" t="inlineStr">
@@ -5188,7 +5214,7 @@
     <row r="142" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B142" s="13" t="inlineStr">
         <is>
-          <t>Care provider</t>
+          <t>Cannabis regulation</t>
         </is>
       </c>
       <c r="F142" s="13" t="inlineStr">
@@ -5206,7 +5232,7 @@
     <row r="143" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B143" s="13" t="inlineStr">
         <is>
-          <t>Censorship</t>
+          <t>Care provider</t>
         </is>
       </c>
       <c r="F143" s="13" t="inlineStr">
@@ -5224,7 +5250,7 @@
     <row r="144" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B144" s="13" t="inlineStr">
         <is>
-          <t>Change plan</t>
+          <t>Censorship</t>
         </is>
       </c>
       <c r="F144" s="13" t="inlineStr">
@@ -5242,7 +5268,7 @@
     <row r="145" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B145" s="13" t="inlineStr">
         <is>
-          <t>Clean preparation area</t>
+          <t>Change plan</t>
         </is>
       </c>
       <c r="F145" s="13" t="inlineStr">
@@ -5260,7 +5286,7 @@
     <row r="146" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B146" s="13" t="inlineStr">
         <is>
-          <t>Clinic visit</t>
+          <t>Clean preparation area</t>
         </is>
       </c>
       <c r="F146" s="13" t="inlineStr">
@@ -5278,7 +5304,7 @@
     <row r="147" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B147" s="13" t="inlineStr">
         <is>
-          <t>Clinical effect</t>
+          <t>Clinic visit</t>
         </is>
       </c>
       <c r="F147" s="13" t="inlineStr">
@@ -5296,385 +5322,385 @@
     <row r="148" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B148" s="13" t="inlineStr">
         <is>
+          <t>Clinical effect</t>
+        </is>
+      </c>
+      <c r="F148" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P148" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B149" s="13" t="inlineStr">
+        <is>
           <t>Clinical effectiveness</t>
         </is>
       </c>
-      <c r="F148" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P148" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S148" s="10" t="n"/>
-    </row>
-    <row r="149" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A149" t="inlineStr">
+      <c r="F149" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P149" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A150" t="inlineStr">
         <is>
           <t>ADDICTO:0000470</t>
         </is>
       </c>
-      <c r="B149" s="9" t="inlineStr">
+      <c r="B150" s="9" t="inlineStr">
         <is>
           <t>Clinical provider</t>
         </is>
       </c>
-      <c r="C149" s="9" t="inlineStr">
+      <c r="C150" s="9" t="inlineStr">
         <is>
           <t>An organisation that provides a clinical service.</t>
         </is>
       </c>
-      <c r="D149" s="9" t="inlineStr">
+      <c r="D150" s="9" t="inlineStr">
         <is>
           <t>Organisation</t>
         </is>
       </c>
-      <c r="E149" s="9" t="inlineStr">
+      <c r="E150" s="9" t="inlineStr">
         <is>
           <t>Material entity</t>
         </is>
       </c>
-      <c r="F149" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G149" s="9" t="n"/>
-      <c r="H149" s="9" t="n"/>
-      <c r="I149" s="9" t="n"/>
-      <c r="J149" s="9" t="n"/>
-      <c r="K149" s="9" t="n"/>
-      <c r="L149" s="9" t="n"/>
-      <c r="M149" s="9" t="n"/>
-      <c r="N149" s="9" t="n"/>
-      <c r="O149" s="9" t="n"/>
-      <c r="P149" s="9" t="n"/>
-      <c r="S149" s="10" t="n"/>
-    </row>
-    <row r="150" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A150" s="10" t="n"/>
-      <c r="B150" s="13" t="inlineStr">
+      <c r="F150" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G150" s="9" t="n"/>
+      <c r="H150" s="9" t="n"/>
+      <c r="I150" s="9" t="n"/>
+      <c r="J150" s="9" t="n"/>
+      <c r="K150" s="9" t="n"/>
+      <c r="L150" s="9" t="n"/>
+      <c r="M150" s="9" t="n"/>
+      <c r="N150" s="9" t="n"/>
+      <c r="O150" s="9" t="n"/>
+      <c r="P150" s="9" t="n"/>
+      <c r="S150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A151" s="10" t="n"/>
+      <c r="B151" s="13" t="inlineStr">
         <is>
           <t>Clinical significance</t>
         </is>
       </c>
-      <c r="F150" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P150" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q150" s="10" t="n"/>
-      <c r="R150" s="11" t="n"/>
-      <c r="S150" s="10" t="n"/>
-    </row>
-    <row r="151" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B151" s="13" t="inlineStr">
+      <c r="F151" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P151" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q151" s="10" t="n"/>
+      <c r="R151" s="11" t="n"/>
+      <c r="S151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B152" s="13" t="inlineStr">
         <is>
           <t>Clinically meaningful effect size</t>
         </is>
       </c>
-      <c r="F151" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P151" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S151" s="10" t="n"/>
-    </row>
-    <row r="152" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A152" t="inlineStr">
+      <c r="F152" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P152" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A153" t="inlineStr">
         <is>
           <t>ADDICTO:0000471</t>
         </is>
       </c>
-      <c r="B152" s="9" t="inlineStr">
+      <c r="B153" s="9" t="inlineStr">
         <is>
           <t>Codeine scheduling</t>
         </is>
       </c>
-      <c r="C152" s="9" t="inlineStr">
+      <c r="C153" s="9" t="inlineStr">
         <is>
           <t>Drug scheduling in which the drug concerned is codeine.</t>
         </is>
       </c>
-      <c r="D152" s="9" t="inlineStr">
+      <c r="D153" s="9" t="inlineStr">
         <is>
           <t>Drug scheduling</t>
         </is>
       </c>
-      <c r="E152" s="9" t="inlineStr">
+      <c r="E153" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F152" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G152" s="9" t="n"/>
-      <c r="H152" s="9" t="n"/>
-      <c r="I152" s="9" t="n"/>
-      <c r="J152" s="9" t="n"/>
-      <c r="K152" s="9" t="n"/>
-      <c r="L152" s="9" t="n"/>
-      <c r="M152" s="9" t="n"/>
-      <c r="N152" s="9" t="n"/>
-      <c r="O152" s="9" t="n"/>
-      <c r="P152" s="9" t="n"/>
-      <c r="S152" s="10" t="n"/>
-    </row>
-    <row r="153" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B153" s="13" t="inlineStr">
+      <c r="F153" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G153" s="9" t="n"/>
+      <c r="H153" s="9" t="n"/>
+      <c r="I153" s="9" t="n"/>
+      <c r="J153" s="9" t="n"/>
+      <c r="K153" s="9" t="n"/>
+      <c r="L153" s="9" t="n"/>
+      <c r="M153" s="9" t="n"/>
+      <c r="N153" s="9" t="n"/>
+      <c r="O153" s="9" t="n"/>
+      <c r="P153" s="9" t="n"/>
+      <c r="S153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B154" s="13" t="inlineStr">
         <is>
           <t>Coerced addiction treatment</t>
         </is>
       </c>
-      <c r="F153" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P153" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S153" s="10" t="n"/>
-    </row>
-    <row r="154" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A154" t="inlineStr">
+      <c r="F154" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P154" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S154" s="10" t="n"/>
+    </row>
+    <row r="155" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A155" t="inlineStr">
         <is>
           <t>ADDICTO:0000472</t>
         </is>
       </c>
-      <c r="B154" s="12" t="inlineStr">
+      <c r="B155" s="12" t="inlineStr">
         <is>
           <t>Coercion</t>
         </is>
       </c>
-      <c r="C154" s="12" t="inlineStr">
+      <c r="C155" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of an undesired outcome or denial of a desired one.</t>
         </is>
       </c>
-      <c r="D154" s="13" t="inlineStr">
+      <c r="D155" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E154" s="13" t="inlineStr">
+      <c r="E155" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F154" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G154" s="12" t="inlineStr">
+      <c r="F155" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G155" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O154" s="13" t="inlineStr">
+      <c r="O155" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P154" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S154" s="10" t="n"/>
-    </row>
-    <row r="155" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A155" s="9" t="n"/>
-      <c r="B155" s="13" t="inlineStr">
+      <c r="P155" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A156" s="9" t="n"/>
+      <c r="B156" s="13" t="inlineStr">
         <is>
           <t>Cognitive Behavioural Therapy</t>
         </is>
       </c>
-      <c r="F155" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I155" s="13" t="inlineStr">
+      <c r="F156" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I156" s="13" t="inlineStr">
         <is>
           <t>CBT</t>
         </is>
       </c>
-      <c r="P155" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q155" s="9" t="n"/>
-      <c r="R155" s="9" t="n"/>
-      <c r="S155" s="10" t="n"/>
-    </row>
-    <row r="156" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="B156" s="13" t="inlineStr">
+      <c r="P156" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q156" s="9" t="n"/>
+      <c r="R156" s="9" t="n"/>
+      <c r="S156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="B157" s="13" t="inlineStr">
         <is>
           <t>Combined pharmacological and behavioural substance use treatment</t>
         </is>
       </c>
-      <c r="F156" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P156" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S156" s="10" t="n"/>
-    </row>
-    <row r="157" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A157" t="inlineStr">
+      <c r="F157" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P157" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S157" s="10" t="n"/>
+    </row>
+    <row r="158" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A158" t="inlineStr">
         <is>
           <t>ADDICTO:0000473</t>
         </is>
       </c>
-      <c r="B157" s="12" t="inlineStr">
+      <c r="B158" s="12" t="inlineStr">
         <is>
           <t>Communications and marketing</t>
         </is>
       </c>
-      <c r="C157" s="12" t="inlineStr">
+      <c r="C158" s="12" t="inlineStr">
         <is>
           <t>An intevention function involving mass media campaigns, digital marketing campaigns, and correspondence.</t>
         </is>
       </c>
-      <c r="D157" s="13" t="inlineStr">
+      <c r="D158" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E157" s="13" t="inlineStr">
+      <c r="E158" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F157" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G157" s="13" t="inlineStr">
+      <c r="F158" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G158" s="13" t="inlineStr">
         <is>
           <t>behaviourchangewheel.com</t>
         </is>
       </c>
-      <c r="O157" s="13" t="inlineStr">
+      <c r="O158" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P157" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S157" s="10" t="n"/>
-    </row>
-    <row r="158" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A158" s="9" t="n"/>
-      <c r="B158" s="13" t="inlineStr">
+      <c r="P158" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S158" s="10" t="n"/>
+    </row>
+    <row r="159" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A159" s="9" t="n"/>
+      <c r="B159" s="13" t="inlineStr">
         <is>
           <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
-      <c r="F158" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P158" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q158" s="9" t="n"/>
-      <c r="R158" s="9" t="n"/>
-      <c r="S158" s="10" t="n"/>
-    </row>
-    <row r="159" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B159" s="13" t="inlineStr">
+      <c r="F159" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P159" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q159" s="9" t="n"/>
+      <c r="R159" s="9" t="n"/>
+      <c r="S159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B160" s="13" t="inlineStr">
         <is>
           <t>Complex intervention</t>
         </is>
       </c>
-      <c r="F159" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P159" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S159" s="10" t="n"/>
-    </row>
-    <row r="160" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A160" t="inlineStr">
+      <c r="F160" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P160" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A161" t="inlineStr">
         <is>
           <t>ADDICTO:0000474</t>
         </is>
       </c>
-      <c r="B160" s="13" t="inlineStr">
+      <c r="B161" s="13" t="inlineStr">
         <is>
           <t>Compulsory addiction treatment</t>
         </is>
       </c>
-      <c r="C160" s="13" t="inlineStr">
+      <c r="C161" s="13" t="inlineStr">
         <is>
           <t>Treatment of addiction that either a drug user or a person with a drug problem is compelled to undergo by a legal authority in the jurisdiction in which they reside.</t>
         </is>
       </c>
-      <c r="D160" s="13" t="inlineStr">
+      <c r="D161" s="13" t="inlineStr">
         <is>
           <t>Addiction treatment</t>
         </is>
       </c>
-      <c r="E160" s="13" t="inlineStr">
+      <c r="E161" s="13" t="inlineStr">
         <is>
           <t>Process</t>
-        </is>
-      </c>
-      <c r="F160" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P160" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S160" s="10" t="n"/>
-    </row>
-    <row r="161" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B161" s="13" t="inlineStr">
-        <is>
-          <t>Consumption-reducing effect</t>
         </is>
       </c>
       <c r="F161" s="13" t="inlineStr">
@@ -5692,126 +5718,126 @@
     <row r="162" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B162" s="13" t="inlineStr">
         <is>
+          <t>Consumption-reducing effect</t>
+        </is>
+      </c>
+      <c r="F162" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P162" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B163" s="13" t="inlineStr">
+        <is>
           <t>Contingency management</t>
         </is>
       </c>
-      <c r="F162" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P162" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S162" s="10" t="n"/>
-    </row>
-    <row r="163" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B163" s="13" t="inlineStr">
+      <c r="F163" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P163" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B164" s="13" t="inlineStr">
         <is>
           <t>Contingency management intervention</t>
         </is>
       </c>
-      <c r="F163" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P163" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S163" s="10" t="n"/>
-    </row>
-    <row r="164" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B164" s="13" t="inlineStr">
+      <c r="F164" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P164" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B165" s="13" t="inlineStr">
         <is>
           <t>Correctional school</t>
         </is>
       </c>
-      <c r="F164" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P164" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S164" s="10" t="n"/>
-    </row>
-    <row r="165" ht="60" customFormat="1" customHeight="1" s="13">
-      <c r="A165" t="inlineStr">
+      <c r="F165" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P165" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="60" customFormat="1" customHeight="1" s="13">
+      <c r="A166" t="inlineStr">
         <is>
           <t>ADDICTO:0000475</t>
         </is>
       </c>
-      <c r="B165" s="9" t="inlineStr">
+      <c r="B166" s="9" t="inlineStr">
         <is>
           <t>Cost per quality-adjusted life-year gained</t>
         </is>
       </c>
-      <c r="C165" s="9" t="inlineStr">
+      <c r="C166" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">A data item that is about an intervention and is the estimated financial cost of delivering that intervention to a population in a setting in order to gain one QALY in the population. </t>
         </is>
       </c>
-      <c r="D165" s="9" t="inlineStr">
-        <is>
-          <t>Data item [IAO:</t>
-        </is>
-      </c>
-      <c r="E165" s="9" t="inlineStr">
+      <c r="D166" s="9" t="inlineStr">
+        <is>
+          <t>data item</t>
+        </is>
+      </c>
+      <c r="E166" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F165" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G165" s="9" t="n"/>
-      <c r="H165" s="9" t="inlineStr">
+      <c r="F166" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G166" s="9" t="n"/>
+      <c r="H166" s="9" t="inlineStr">
         <is>
           <t>No ontological definition found. Definition based on definition of ICER https://en.wikipedia.org/wiki/Incremental_cost-effectiveness_ratio</t>
         </is>
       </c>
-      <c r="I165" s="9" t="n"/>
-      <c r="J165" s="9" t="n"/>
-      <c r="K165" s="9" t="n"/>
-      <c r="L165" s="9" t="n"/>
-      <c r="M165" s="9" t="n"/>
-      <c r="N165" s="9" t="n"/>
-      <c r="O165" s="9" t="n"/>
-      <c r="P165" s="9" t="n"/>
-      <c r="S165" s="10" t="n"/>
-    </row>
-    <row r="166" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B166" s="13" t="inlineStr">
+      <c r="I166" s="9" t="n"/>
+      <c r="J166" s="9" t="n"/>
+      <c r="K166" s="9" t="n"/>
+      <c r="L166" s="9" t="n"/>
+      <c r="M166" s="9" t="n"/>
+      <c r="N166" s="9" t="n"/>
+      <c r="O166" s="9" t="n"/>
+      <c r="P166" s="9" t="n"/>
+      <c r="S166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B167" s="13" t="inlineStr">
         <is>
           <t>Cost-effective strategy</t>
-        </is>
-      </c>
-      <c r="F166" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P166" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S166" s="10" t="n"/>
-    </row>
-    <row r="167" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B167" s="13" t="inlineStr">
-        <is>
-          <t>Cost-effectiveness acceptability curve</t>
         </is>
       </c>
       <c r="F167" s="13" t="inlineStr">
@@ -5829,82 +5855,82 @@
     <row r="168" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B168" s="13" t="inlineStr">
         <is>
+          <t>Cost-effectiveness acceptability curve</t>
+        </is>
+      </c>
+      <c r="F168" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P168" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B169" s="13" t="inlineStr">
+        <is>
           <t>Cost-effectiveness at population-level</t>
         </is>
       </c>
-      <c r="F168" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P168" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S168" s="10" t="n"/>
-    </row>
-    <row r="169" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B169" s="13" t="inlineStr">
+      <c r="F169" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P169" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B170" s="13" t="inlineStr">
         <is>
           <t>Counseling</t>
         </is>
       </c>
-      <c r="F169" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P169" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S169" s="10" t="n"/>
-    </row>
-    <row r="170" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A170" s="9" t="n"/>
-      <c r="B170" s="13" t="inlineStr">
+      <c r="F170" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P170" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A171" s="9" t="n"/>
+      <c r="B171" s="13" t="inlineStr">
         <is>
           <t>Court-mandated treatment</t>
         </is>
       </c>
-      <c r="F170" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P170" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q170" s="9" t="n"/>
-      <c r="R170" s="9" t="n"/>
-      <c r="S170" s="10" t="n"/>
-    </row>
-    <row r="171" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B171" s="13" t="inlineStr">
+      <c r="F171" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P171" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q171" s="9" t="n"/>
+      <c r="R171" s="9" t="n"/>
+      <c r="S171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B172" s="13" t="inlineStr">
         <is>
           <t>Coverage of needle and syringe provision</t>
-        </is>
-      </c>
-      <c r="F171" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P171" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S171" s="10" t="n"/>
-    </row>
-    <row r="172" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B172" s="13" t="inlineStr">
-        <is>
-          <t>Criminal justice system</t>
         </is>
       </c>
       <c r="F172" s="13" t="inlineStr">
@@ -5922,461 +5948,459 @@
     <row r="173" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B173" s="13" t="inlineStr">
         <is>
+          <t>Criminal justice system</t>
+        </is>
+      </c>
+      <c r="F173" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P173" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S173" s="10" t="n"/>
+    </row>
+    <row r="174" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B174" s="13" t="inlineStr">
+        <is>
           <t>Daily buprenorphine dose</t>
         </is>
       </c>
-      <c r="F173" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P173" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S173" s="10" t="n"/>
-    </row>
-    <row r="174" ht="60" customFormat="1" customHeight="1" s="13">
-      <c r="A174" t="inlineStr">
+      <c r="F174" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P174" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="60" customFormat="1" customHeight="1" s="13">
+      <c r="A175" t="inlineStr">
         <is>
           <t>ADDICTO:0000476</t>
         </is>
       </c>
-      <c r="B174" s="13" t="inlineStr">
+      <c r="B175" s="13" t="inlineStr">
         <is>
           <t>Deep brain stimulation</t>
         </is>
       </c>
-      <c r="C174" s="13" t="inlineStr">
+      <c r="C175" s="13" t="inlineStr">
         <is>
           <t xml:space="preserve">A physical treatment for brain disorders that involves implanting an electrode in a specific part of the brain and passing a current through it with the aim of stimulating electrical activity in the part of the brain concerned. </t>
         </is>
       </c>
-      <c r="D174" s="13" t="inlineStr">
+      <c r="D175" s="13" t="inlineStr">
         <is>
           <t>Physical treatment</t>
         </is>
       </c>
-      <c r="E174" s="13" t="inlineStr">
+      <c r="E175" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F174" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P174" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="S174" s="10" t="n"/>
-    </row>
-    <row r="175" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B175" s="10" t="inlineStr">
+      <c r="F175" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P175" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B176" s="10" t="inlineStr">
         <is>
           <t>Denormalisation</t>
         </is>
       </c>
-      <c r="F175" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P175" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q175" s="10" t="n"/>
-      <c r="S175" s="10" t="n"/>
-    </row>
-    <row r="176" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A176" s="10" t="inlineStr">
+      <c r="F176" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P176" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q176" s="10" t="n"/>
+      <c r="S176" s="10" t="n"/>
+    </row>
+    <row r="177" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A177" s="10" t="inlineStr">
         <is>
           <t>OBI:0000984</t>
         </is>
       </c>
-      <c r="B176" s="13" t="inlineStr">
+      <c r="B177" s="13" t="inlineStr">
         <is>
           <t>Dose</t>
         </is>
       </c>
-      <c r="F176" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P176" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q176" s="10" t="n"/>
-      <c r="R176" s="11" t="n"/>
-      <c r="S176" s="10" t="n"/>
-    </row>
-    <row r="177" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A177" t="inlineStr">
+      <c r="F177" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P177" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q177" s="10" t="n"/>
+      <c r="R177" s="11" t="n"/>
+      <c r="S177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A178" t="inlineStr">
         <is>
           <t>ADDICTO:0000477</t>
         </is>
       </c>
-      <c r="B177" s="9" t="inlineStr">
+      <c r="B178" s="9" t="inlineStr">
         <is>
           <t>Drink driving legislation</t>
         </is>
       </c>
-      <c r="C177" s="9" t="inlineStr">
+      <c r="C178" s="9" t="inlineStr">
         <is>
           <t>A public policy that involves legislation to reduce the incidence of vehicle driving with alcohol in the body.</t>
         </is>
       </c>
-      <c r="D177" s="9" t="inlineStr">
+      <c r="D178" s="9" t="inlineStr">
         <is>
           <t>Public policy</t>
         </is>
       </c>
-      <c r="E177" s="9" t="inlineStr">
+      <c r="E178" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F177" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G177" s="9" t="n"/>
-      <c r="H177" s="9" t="n"/>
-      <c r="I177" s="9" t="n"/>
-      <c r="J177" s="9" t="n"/>
-      <c r="K177" s="9" t="n"/>
-      <c r="L177" s="9" t="n"/>
-      <c r="M177" s="9" t="n"/>
-      <c r="N177" s="9" t="n"/>
-      <c r="O177" s="9" t="n"/>
-      <c r="P177" s="9" t="n"/>
-      <c r="S177" s="10" t="n"/>
-    </row>
-    <row r="178" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B178" s="13" t="inlineStr">
-        <is>
-          <t>Drug law reform</t>
-        </is>
-      </c>
-      <c r="F178" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P178" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="F178" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G178" s="9" t="n"/>
+      <c r="H178" s="9" t="n"/>
+      <c r="I178" s="9" t="n"/>
+      <c r="J178" s="9" t="n"/>
+      <c r="K178" s="9" t="n"/>
+      <c r="L178" s="9" t="n"/>
+      <c r="M178" s="9" t="n"/>
+      <c r="N178" s="9" t="n"/>
+      <c r="O178" s="9" t="n"/>
+      <c r="P178" s="9" t="n"/>
       <c r="S178" s="10" t="n"/>
     </row>
     <row r="179" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B179" s="13" t="inlineStr">
         <is>
+          <t>Drug law reform</t>
+        </is>
+      </c>
+      <c r="F179" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P179" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="S179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B180" s="13" t="inlineStr">
+        <is>
           <t>Drug prohibition</t>
         </is>
       </c>
-      <c r="F179" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P179" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="180" ht="75" customFormat="1" customHeight="1" s="13">
-      <c r="A180" t="inlineStr">
+      <c r="F180" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P180" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="181" ht="75" customFormat="1" customHeight="1" s="13">
+      <c r="A181" t="inlineStr">
         <is>
           <t>ADDICTO:0000478</t>
         </is>
       </c>
-      <c r="B180" s="9" t="inlineStr">
+      <c r="B181" s="9" t="inlineStr">
         <is>
           <t>Drug scheduling</t>
         </is>
       </c>
-      <c r="C180" s="9" t="inlineStr">
+      <c r="C181" s="9" t="inlineStr">
         <is>
           <t>A national drug policy that classifies drugs into classes, called 'schedules' according to their (1) potential for abuse, (2) safety, (3) addictive potential and (4) whether or not they have legitimate medical applications. Each schedule has rules regarding restrictions on use and penalties for misuse.</t>
         </is>
       </c>
-      <c r="D180" s="9" t="inlineStr">
+      <c r="D181" s="9" t="inlineStr">
         <is>
           <t>National drug policy</t>
         </is>
       </c>
-      <c r="E180" s="9" t="inlineStr">
+      <c r="E181" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F180" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G180" s="14" t="inlineStr">
+      <c r="F181" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G181" s="14" t="inlineStr">
         <is>
           <t>https://www.healthychildren.org/English/ages-stages/teen/substance-abuse/Pages/Controlled-Substances-Not-Just-Street-Drugs.aspx</t>
         </is>
       </c>
-      <c r="H180" s="9" t="n"/>
-      <c r="I180" s="9" t="n"/>
-      <c r="J180" s="9" t="n"/>
-      <c r="K180" s="9" t="n"/>
-      <c r="L180" s="9" t="n"/>
-      <c r="M180" s="9" t="n"/>
-      <c r="N180" s="9" t="n"/>
-      <c r="O180" s="9" t="n"/>
-      <c r="P180" s="9" t="n"/>
-    </row>
-    <row r="181" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B181" s="13" t="inlineStr">
-        <is>
-          <t>Drug testing</t>
-        </is>
-      </c>
-      <c r="F181" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P181" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="H181" s="9" t="n"/>
+      <c r="I181" s="9" t="n"/>
+      <c r="J181" s="9" t="n"/>
+      <c r="K181" s="9" t="n"/>
+      <c r="L181" s="9" t="n"/>
+      <c r="M181" s="9" t="n"/>
+      <c r="N181" s="9" t="n"/>
+      <c r="O181" s="9" t="n"/>
+      <c r="P181" s="9" t="n"/>
     </row>
     <row r="182" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B182" s="13" t="inlineStr">
         <is>
+          <t>Drug testing</t>
+        </is>
+      </c>
+      <c r="F182" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P182" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="183" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B183" s="13" t="inlineStr">
+        <is>
           <t>Drug treatment programme</t>
         </is>
       </c>
-      <c r="F182" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P182" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="183" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A183" s="9" t="n"/>
-      <c r="B183" s="13" t="inlineStr">
+      <c r="F183" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P183" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="184" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A184" s="9" t="n"/>
+      <c r="B184" s="13" t="inlineStr">
         <is>
           <t>Drug use detection</t>
         </is>
       </c>
-      <c r="F183" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P183" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q183" s="9" t="n"/>
-      <c r="R183" s="9" t="n"/>
-    </row>
-    <row r="184" ht="60" customFormat="1" customHeight="1" s="20">
-      <c r="A184" s="19" t="inlineStr">
+      <c r="F184" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P184" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q184" s="9" t="n"/>
+      <c r="R184" s="9" t="n"/>
+    </row>
+    <row r="185" ht="60" customFormat="1" customHeight="1" s="20">
+      <c r="A185" s="19" t="inlineStr">
         <is>
           <t>ADDICTO:0000479</t>
         </is>
       </c>
-      <c r="B184" s="20" t="inlineStr">
+      <c r="B185" s="20" t="inlineStr">
         <is>
           <t xml:space="preserve">E-cigarette policy </t>
         </is>
       </c>
-      <c r="C184" s="21" t="inlineStr">
+      <c r="C185" s="21" t="inlineStr">
         <is>
           <t>A policy that regulates e-cigarettes or their use.</t>
         </is>
       </c>
-      <c r="D184" s="20" t="inlineStr">
+      <c r="D185" s="20" t="inlineStr">
         <is>
           <t>Policy</t>
         </is>
       </c>
-      <c r="J184" s="17" t="inlineStr">
+      <c r="J185" s="17" t="inlineStr">
         <is>
           <t>Includes manufacture, marketing, and sales. Includes public policy and policy of other organisations.</t>
         </is>
       </c>
-      <c r="N184" s="20" t="inlineStr">
+      <c r="N185" s="20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O184" s="20" t="inlineStr">
+      <c r="O185" s="20" t="inlineStr">
         <is>
           <t>All</t>
         </is>
       </c>
-      <c r="P184" s="20" t="inlineStr">
+      <c r="P185" s="20" t="inlineStr">
         <is>
           <t>Discussed</t>
         </is>
       </c>
-      <c r="Q184" s="19" t="n"/>
-      <c r="R184" s="19" t="n"/>
-    </row>
-    <row r="185" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A185" t="inlineStr">
+      <c r="Q185" s="19" t="n"/>
+      <c r="R185" s="19" t="n"/>
+    </row>
+    <row r="186" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A186" t="inlineStr">
         <is>
           <t>ADDICTO:0000480</t>
         </is>
       </c>
-      <c r="B185" s="12" t="inlineStr">
+      <c r="B186" s="12" t="inlineStr">
         <is>
           <t>Education</t>
         </is>
       </c>
-      <c r="C185" s="12" t="inlineStr">
+      <c r="C186" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves increasing knowledge and understanding by informing, explaining, showing and providing feedback.</t>
         </is>
       </c>
-      <c r="D185" s="13" t="inlineStr">
+      <c r="D186" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E185" s="13" t="inlineStr">
+      <c r="E186" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F185" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G185" s="12" t="inlineStr">
+      <c r="F186" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G186" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O185" s="13" t="inlineStr">
+      <c r="O186" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P185" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="186" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B186" s="13" t="inlineStr">
+      <c r="P186" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="187" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B187" s="13" t="inlineStr">
         <is>
           <t>Emergency medical services</t>
         </is>
       </c>
-      <c r="F186" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P186" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="187" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A187" t="inlineStr">
+      <c r="F187" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P187" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="188" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A188" t="inlineStr">
         <is>
           <t>ADDICTO:0000481</t>
         </is>
       </c>
-      <c r="B187" s="12" t="inlineStr">
+      <c r="B188" s="12" t="inlineStr">
         <is>
           <t>Enablement</t>
         </is>
       </c>
-      <c r="C187" s="12" t="inlineStr">
+      <c r="C188" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves providing support to improve ability to change in a variety of ways not covered by other intervention types.</t>
         </is>
       </c>
-      <c r="D187" s="13" t="inlineStr">
+      <c r="D188" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E187" s="13" t="inlineStr">
+      <c r="E188" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F187" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G187" s="12" t="inlineStr">
+      <c r="F188" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G188" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O187" s="13" t="inlineStr">
+      <c r="O188" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P187" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="188" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A188" s="10" t="n"/>
-      <c r="B188" s="13" t="inlineStr">
-        <is>
-          <t>End of treatment</t>
-        </is>
-      </c>
-      <c r="F188" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
       <c r="P188" s="13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q188" s="10" t="n"/>
-      <c r="R188" s="11" t="n"/>
     </row>
     <row r="189" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A189" s="10" t="n"/>
       <c r="B189" s="13" t="inlineStr">
         <is>
-          <t>Engagement with text messages</t>
+          <t>End of treatment</t>
         </is>
       </c>
       <c r="F189" s="13" t="inlineStr">
@@ -6392,126 +6416,127 @@
       <c r="Q189" s="10" t="n"/>
       <c r="R189" s="11" t="n"/>
     </row>
-    <row r="190" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A190" t="inlineStr">
+    <row r="190" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A190" s="10" t="n"/>
+      <c r="B190" s="13" t="inlineStr">
+        <is>
+          <t>Engagement with text messages</t>
+        </is>
+      </c>
+      <c r="F190" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P190" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q190" s="10" t="n"/>
+      <c r="R190" s="11" t="n"/>
+    </row>
+    <row r="191" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A191" t="inlineStr">
         <is>
           <t>ADDICTO:0000482</t>
         </is>
       </c>
-      <c r="B190" s="12" t="inlineStr">
+      <c r="B191" s="12" t="inlineStr">
         <is>
           <t>Environmental and social planning</t>
         </is>
       </c>
-      <c r="C190" s="12" t="inlineStr">
+      <c r="C191" s="12" t="inlineStr">
         <is>
           <t>A policy involving architecture, urban and rural planning, object and location design, and planning for housing, social care, employment, equality, benefits, security and education.</t>
         </is>
       </c>
-      <c r="D190" s="13" t="inlineStr">
+      <c r="D191" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E190" s="13" t="inlineStr">
+      <c r="E191" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F190" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G190" s="13" t="inlineStr">
+      <c r="F191" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G191" s="13" t="inlineStr">
         <is>
           <t>behaviourchangewheel.com</t>
         </is>
       </c>
-      <c r="O190" s="13" t="inlineStr">
+      <c r="O191" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P190" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="191" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A191" t="inlineStr">
+      <c r="P191" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="192" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A192" t="inlineStr">
         <is>
           <t>ADDICTO:0000483</t>
         </is>
       </c>
-      <c r="B191" s="12" t="inlineStr">
+      <c r="B192" s="12" t="inlineStr">
         <is>
           <t>Environmental restructuring</t>
         </is>
       </c>
-      <c r="C191" s="12" t="inlineStr">
+      <c r="C192" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves constraining or promoting behaviour by shaping the physical or social environment.</t>
         </is>
       </c>
-      <c r="D191" s="13" t="inlineStr">
+      <c r="D192" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E191" s="13" t="inlineStr">
+      <c r="E192" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F191" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G191" s="12" t="inlineStr">
+      <c r="F192" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G192" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O191" s="13" t="inlineStr">
+      <c r="O192" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P191" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="192" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A192" s="10" t="n"/>
-      <c r="B192" s="13" t="inlineStr">
+      <c r="P192" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="193" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A193" s="10" t="n"/>
+      <c r="B193" s="13" t="inlineStr">
         <is>
           <t>Evidence-based behaviour change techniques</t>
         </is>
       </c>
-      <c r="F192" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P192" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q192" s="10" t="n"/>
-      <c r="R192" s="11" t="n"/>
-    </row>
-    <row r="193" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B193" s="13" t="inlineStr">
-        <is>
-          <t>Experimental medicine</t>
-        </is>
-      </c>
       <c r="F193" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -6522,144 +6547,145 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q193" s="10" t="n"/>
+      <c r="R193" s="11" t="n"/>
     </row>
     <row r="194" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B194" s="13" t="inlineStr">
         <is>
+          <t>Experimental medicine</t>
+        </is>
+      </c>
+      <c r="F194" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P194" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="195" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B195" s="13" t="inlineStr">
+        <is>
           <t>First time addiction treatment</t>
         </is>
       </c>
-      <c r="F194" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P194" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="195" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A195" s="10" t="inlineStr">
+      <c r="F195" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P195" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="196" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A196" s="10" t="inlineStr">
         <is>
           <t>ADDICTO:0000484</t>
         </is>
       </c>
-      <c r="B195" s="12" t="inlineStr">
+      <c r="B196" s="12" t="inlineStr">
         <is>
           <t>Fiscal measures</t>
         </is>
       </c>
-      <c r="C195" s="12" t="inlineStr">
+      <c r="C196" s="12" t="inlineStr">
         <is>
           <t>An intervention function involving use of taxation, tax relief and financial incentives.</t>
         </is>
       </c>
-      <c r="D195" s="13" t="inlineStr">
+      <c r="D196" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E195" s="13" t="inlineStr">
+      <c r="E196" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F195" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G195" s="13" t="inlineStr">
+      <c r="F196" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G196" s="13" t="inlineStr">
         <is>
           <t>behaviourchangewheel.com</t>
         </is>
       </c>
-      <c r="O195" s="13" t="inlineStr">
+      <c r="O196" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P195" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q195" s="10" t="n"/>
-      <c r="R195" s="11" t="n"/>
-    </row>
-    <row r="196" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A196" t="inlineStr">
+      <c r="P196" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q196" s="10" t="n"/>
+      <c r="R196" s="11" t="n"/>
+    </row>
+    <row r="197" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A197" t="inlineStr">
         <is>
           <t>ADDICTO:0000485</t>
         </is>
       </c>
-      <c r="B196" s="12" t="inlineStr">
+      <c r="B197" s="12" t="inlineStr">
         <is>
           <t>Guideline production</t>
         </is>
       </c>
-      <c r="C196" s="12" t="inlineStr">
+      <c r="C197" s="12" t="inlineStr">
         <is>
           <t>An intervention function involving the development and dissemination of documents that make evidence-based recommendations for action in response to defined situations.</t>
         </is>
       </c>
-      <c r="D196" s="13" t="inlineStr">
+      <c r="D197" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E196" s="13" t="inlineStr">
+      <c r="E197" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F196" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G196" s="13" t="inlineStr">
+      <c r="F197" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G197" s="13" t="inlineStr">
         <is>
           <t>behaviourchangewheel.com</t>
         </is>
       </c>
-      <c r="O196" s="13" t="inlineStr">
+      <c r="O197" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P196" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="197" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B197" s="13" t="inlineStr">
+      <c r="P197" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="198" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B198" s="13" t="inlineStr">
         <is>
           <t>Health Canada Intense regimen</t>
         </is>
       </c>
-      <c r="F197" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P197" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="198" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A198" s="10" t="n"/>
-      <c r="B198" s="13" t="inlineStr">
-        <is>
-          <t>Healthcare</t>
-        </is>
-      </c>
       <c r="F198" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -6670,24 +6696,17 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q198" s="10" t="n"/>
-      <c r="R198" s="11" t="n"/>
     </row>
     <row r="199" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A199" s="10" t="n"/>
       <c r="B199" s="13" t="inlineStr">
         <is>
-          <t>Hepatitis C treatment</t>
+          <t>Healthcare</t>
         </is>
       </c>
       <c r="F199" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I199" s="13" t="inlineStr">
-        <is>
-          <t>HCV treatment</t>
         </is>
       </c>
       <c r="P199" s="13" t="inlineStr">
@@ -6698,11 +6717,11 @@
       <c r="Q199" s="10" t="n"/>
       <c r="R199" s="11" t="n"/>
     </row>
-    <row r="200" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="200" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A200" s="10" t="n"/>
       <c r="B200" s="13" t="inlineStr">
         <is>
-          <t>High-coverage needle and syringe provision</t>
+          <t>Hepatitis C treatment</t>
         </is>
       </c>
       <c r="F200" s="13" t="inlineStr">
@@ -6712,7 +6731,7 @@
       </c>
       <c r="I200" s="13" t="inlineStr">
         <is>
-          <t>HCNSP</t>
+          <t>HCV treatment</t>
         </is>
       </c>
       <c r="P200" s="13" t="inlineStr">
@@ -6723,30 +6742,11 @@
       <c r="Q200" s="10" t="n"/>
       <c r="R200" s="11" t="n"/>
     </row>
-    <row r="201" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A201" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000486</t>
-        </is>
-      </c>
-      <c r="B201" s="12" t="inlineStr">
-        <is>
-          <t>Incentivisation</t>
-        </is>
-      </c>
-      <c r="C201" s="12" t="inlineStr">
-        <is>
-          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of a desired outcome or avoidance of an undesired one.</t>
-        </is>
-      </c>
-      <c r="D201" s="13" t="inlineStr">
-        <is>
-          <t>Intervention function</t>
-        </is>
-      </c>
-      <c r="E201" s="13" t="inlineStr">
-        <is>
-          <t>Process</t>
+    <row r="201" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A201" s="10" t="n"/>
+      <c r="B201" s="13" t="inlineStr">
+        <is>
+          <t>High-coverage needle and syringe provision</t>
         </is>
       </c>
       <c r="F201" s="13" t="inlineStr">
@@ -6754,14 +6754,9 @@
           <t>Intervention</t>
         </is>
       </c>
-      <c r="G201" s="12" t="inlineStr">
-        <is>
-          <t>www.behaviourchange.com</t>
-        </is>
-      </c>
-      <c r="O201" s="13" t="inlineStr">
-        <is>
-          <t>RW</t>
+      <c r="I201" s="13" t="inlineStr">
+        <is>
+          <t>HCNSP</t>
         </is>
       </c>
       <c r="P201" s="13" t="inlineStr">
@@ -6772,10 +6767,30 @@
       <c r="Q201" s="10" t="n"/>
       <c r="R201" s="11" t="n"/>
     </row>
-    <row r="202" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B202" s="13" t="inlineStr">
-        <is>
-          <t>Induction into treatment</t>
+    <row r="202" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A202" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000486</t>
+        </is>
+      </c>
+      <c r="B202" s="12" t="inlineStr">
+        <is>
+          <t>Incentivisation</t>
+        </is>
+      </c>
+      <c r="C202" s="12" t="inlineStr">
+        <is>
+          <t>An intervention function that involves changing the attractiveness of a behaviour by creating the expectation of a desired outcome or avoidance of an undesired one.</t>
+        </is>
+      </c>
+      <c r="D202" s="13" t="inlineStr">
+        <is>
+          <t>Intervention function</t>
+        </is>
+      </c>
+      <c r="E202" s="13" t="inlineStr">
+        <is>
+          <t>Process</t>
         </is>
       </c>
       <c r="F202" s="13" t="inlineStr">
@@ -6783,36 +6798,47 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="G202" s="12" t="inlineStr">
+        <is>
+          <t>www.behaviourchange.com</t>
+        </is>
+      </c>
+      <c r="O202" s="13" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="P202" s="13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q202" s="10" t="n"/>
+      <c r="R202" s="11" t="n"/>
     </row>
     <row r="203" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B203" s="13" t="inlineStr">
         <is>
+          <t>Induction into treatment</t>
+        </is>
+      </c>
+      <c r="F203" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P203" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="204" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B204" s="13" t="inlineStr">
+        <is>
           <t>Infusion</t>
         </is>
       </c>
-      <c r="F203" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P203" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="204" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A204" s="10" t="n"/>
-      <c r="B204" s="13" t="inlineStr">
-        <is>
-          <t>Inpatient opioid detoxification</t>
-        </is>
-      </c>
       <c r="F204" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -6823,14 +6849,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q204" s="10" t="n"/>
-      <c r="R204" s="11" t="n"/>
     </row>
     <row r="205" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A205" s="10" t="n"/>
       <c r="B205" s="13" t="inlineStr">
         <is>
-          <t>Interactive text messaging</t>
+          <t>Inpatient opioid detoxification</t>
         </is>
       </c>
       <c r="F205" s="13" t="inlineStr">
@@ -6847,98 +6871,74 @@
       <c r="R205" s="11" t="n"/>
     </row>
     <row r="206" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A206" s="9" t="n"/>
+      <c r="A206" s="10" t="n"/>
       <c r="B206" s="13" t="inlineStr">
         <is>
+          <t>Interactive text messaging</t>
+        </is>
+      </c>
+      <c r="F206" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P206" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q206" s="10" t="n"/>
+      <c r="R206" s="11" t="n"/>
+    </row>
+    <row r="207" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A207" s="9" t="n"/>
+      <c r="B207" s="13" t="inlineStr">
+        <is>
           <t>Intervention content</t>
         </is>
       </c>
-      <c r="E206" s="13" t="inlineStr">
+      <c r="E207" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F206" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P206" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q206" s="9" t="n"/>
-      <c r="R206" s="9" t="n"/>
-    </row>
-    <row r="207" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A207" s="10" t="inlineStr">
+      <c r="F207" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P207" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q207" s="9" t="n"/>
+      <c r="R207" s="9" t="n"/>
+    </row>
+    <row r="208" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A208" s="10" t="inlineStr">
         <is>
           <t>ADDICTO:0000487</t>
         </is>
       </c>
-      <c r="B207" s="9" t="inlineStr">
+      <c r="B208" s="9" t="inlineStr">
         <is>
           <t>Intervention scale-up strategy</t>
         </is>
       </c>
-      <c r="C207" s="9" t="inlineStr">
+      <c r="C208" s="9" t="inlineStr">
         <is>
           <t>A plan specification for delivering an intervention that has been developed on a part of a population to the full population.</t>
         </is>
       </c>
-      <c r="D207" s="9" t="inlineStr">
-        <is>
-          <t>Plan specification [IAO:</t>
-        </is>
-      </c>
-      <c r="E207" s="9" t="inlineStr">
+      <c r="D208" s="9" t="inlineStr">
+        <is>
+          <t>plan specification</t>
+        </is>
+      </c>
+      <c r="E208" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F207" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G207" s="9" t="n"/>
-      <c r="H207" s="9" t="n"/>
-      <c r="I207" s="9" t="n"/>
-      <c r="J207" s="9" t="n"/>
-      <c r="K207" s="9" t="n"/>
-      <c r="L207" s="9" t="n"/>
-      <c r="M207" s="9" t="n"/>
-      <c r="N207" s="9" t="n"/>
-      <c r="O207" s="9" t="n"/>
-      <c r="P207" s="9" t="n"/>
-      <c r="Q207" s="10" t="n"/>
-      <c r="R207" s="11" t="n"/>
-    </row>
-    <row r="208" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A208" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000454</t>
-        </is>
-      </c>
-      <c r="B208" s="9" t="inlineStr">
-        <is>
-          <t>Intubation</t>
-        </is>
-      </c>
-      <c r="C208" s="9" t="inlineStr">
-        <is>
-          <t>Agent delivery of a tube into an external or internal orifice of the body for the purpose of adding or removing fluids or air.</t>
-        </is>
-      </c>
-      <c r="D208" s="9" t="inlineStr">
-        <is>
-          <t>Agent delivery</t>
-        </is>
-      </c>
-      <c r="E208" s="9" t="inlineStr">
-        <is>
-          <t>Process</t>
         </is>
       </c>
       <c r="F208" s="9" t="inlineStr">
@@ -6959,96 +6959,121 @@
       <c r="Q208" s="10" t="n"/>
       <c r="R208" s="11" t="n"/>
     </row>
-    <row r="209" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A209" s="10" t="n"/>
-      <c r="B209" s="13" t="inlineStr">
-        <is>
-          <t>Juvenille correctional system</t>
-        </is>
-      </c>
-      <c r="F209" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P209" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+    <row r="209" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A209" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000454</t>
+        </is>
+      </c>
+      <c r="B209" s="9" t="inlineStr">
+        <is>
+          <t>Intubation</t>
+        </is>
+      </c>
+      <c r="C209" s="9" t="inlineStr">
+        <is>
+          <t>Agent delivery of a tube into an external or internal orifice of the body for the purpose of adding or removing fluids or air.</t>
+        </is>
+      </c>
+      <c r="D209" s="9" t="inlineStr">
+        <is>
+          <t>Agent delivery</t>
+        </is>
+      </c>
+      <c r="E209" s="9" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="F209" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G209" s="9" t="n"/>
+      <c r="H209" s="9" t="n"/>
+      <c r="I209" s="9" t="n"/>
+      <c r="J209" s="9" t="n"/>
+      <c r="K209" s="9" t="n"/>
+      <c r="L209" s="9" t="n"/>
+      <c r="M209" s="9" t="n"/>
+      <c r="N209" s="9" t="n"/>
+      <c r="O209" s="9" t="n"/>
+      <c r="P209" s="9" t="n"/>
       <c r="Q209" s="10" t="n"/>
       <c r="R209" s="11" t="n"/>
     </row>
-    <row r="210" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A210" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000488</t>
-        </is>
-      </c>
-      <c r="B210" s="9" t="inlineStr">
-        <is>
-          <t>Legislation</t>
-        </is>
-      </c>
-      <c r="C210" s="9" t="inlineStr">
-        <is>
-          <t>A directive information entity that is produced by government and enables, prohibits or bans activities, or establishes rights or responsibilities.</t>
-        </is>
-      </c>
-      <c r="D210" s="9" t="inlineStr">
-        <is>
-          <t>Directive information entity [IAO:0000033]</t>
-        </is>
-      </c>
-      <c r="E210" s="9" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F210" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G210" s="9" t="n"/>
-      <c r="H210" s="9" t="n"/>
-      <c r="I210" s="9" t="n"/>
-      <c r="J210" s="9" t="n"/>
-      <c r="K210" s="9" t="n"/>
-      <c r="L210" s="9" t="n"/>
-      <c r="M210" s="9" t="n"/>
-      <c r="N210" s="9" t="n"/>
-      <c r="O210" s="9" t="n"/>
-      <c r="P210" s="9" t="n"/>
+    <row r="210" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A210" s="10" t="n"/>
+      <c r="B210" s="13" t="inlineStr">
+        <is>
+          <t>Juvenille correctional system</t>
+        </is>
+      </c>
+      <c r="F210" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P210" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="Q210" s="10" t="n"/>
       <c r="R210" s="11" t="n"/>
     </row>
-    <row r="211" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A211" s="10" t="n"/>
-      <c r="B211" s="13" t="inlineStr">
+    <row r="211" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A211" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000488</t>
+        </is>
+      </c>
+      <c r="B211" s="9" t="inlineStr">
+        <is>
+          <t>Legislation</t>
+        </is>
+      </c>
+      <c r="C211" s="9" t="inlineStr">
+        <is>
+          <t>A directive information entity that is produced by government and enables, prohibits or bans activities, or establishes rights or responsibilities.</t>
+        </is>
+      </c>
+      <c r="D211" s="9" t="inlineStr">
+        <is>
+          <t>directive information entity</t>
+        </is>
+      </c>
+      <c r="E211" s="9" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F211" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G211" s="9" t="n"/>
+      <c r="H211" s="9" t="n"/>
+      <c r="I211" s="9" t="n"/>
+      <c r="J211" s="9" t="n"/>
+      <c r="K211" s="9" t="n"/>
+      <c r="L211" s="9" t="n"/>
+      <c r="M211" s="9" t="n"/>
+      <c r="N211" s="9" t="n"/>
+      <c r="O211" s="9" t="n"/>
+      <c r="P211" s="9" t="n"/>
+      <c r="Q211" s="10" t="n"/>
+      <c r="R211" s="11" t="n"/>
+    </row>
+    <row r="212" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A212" s="10" t="n"/>
+      <c r="B212" s="13" t="inlineStr">
         <is>
           <t>Length of hospital stay</t>
         </is>
       </c>
-      <c r="F211" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P211" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R211" s="11" t="n"/>
-    </row>
-    <row r="212" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A212" s="9" t="n"/>
-      <c r="B212" s="13" t="inlineStr">
-        <is>
-          <t>Long-term opioid agonist therapy</t>
-        </is>
-      </c>
       <c r="F212" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -7059,35 +7084,34 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R212" s="9" t="n"/>
+      <c r="R212" s="11" t="n"/>
     </row>
     <row r="213" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A213" s="9" t="n"/>
       <c r="B213" s="13" t="inlineStr">
         <is>
+          <t>Long-term opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="F213" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P213" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R213" s="9" t="n"/>
+    </row>
+    <row r="214" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A214" s="9" t="n"/>
+      <c r="B214" s="13" t="inlineStr">
+        <is>
           <t>Low-threshold overdose prevention site</t>
         </is>
       </c>
-      <c r="F213" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P213" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q213" s="10" t="n"/>
-      <c r="R213" s="9" t="n"/>
-    </row>
-    <row r="214" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A214" s="10" t="n"/>
-      <c r="B214" s="13" t="inlineStr">
-        <is>
-          <t>Marijuana policy</t>
-        </is>
-      </c>
       <c r="F214" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -7098,53 +7122,54 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R214" s="11" t="n"/>
+      <c r="Q214" s="10" t="n"/>
+      <c r="R214" s="9" t="n"/>
     </row>
     <row r="215" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A215" s="10" t="n"/>
       <c r="B215" s="13" t="inlineStr">
         <is>
+          <t>Marijuana policy</t>
+        </is>
+      </c>
+      <c r="F215" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P215" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R215" s="11" t="n"/>
+    </row>
+    <row r="216" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A216" s="10" t="n"/>
+      <c r="B216" s="13" t="inlineStr">
+        <is>
           <t>Medicaid</t>
         </is>
       </c>
-      <c r="F215" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P215" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q215" s="10" t="n"/>
-      <c r="R215" s="11" t="n"/>
-    </row>
-    <row r="216" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B216" s="13" t="inlineStr">
+      <c r="F216" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P216" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q216" s="10" t="n"/>
+      <c r="R216" s="11" t="n"/>
+    </row>
+    <row r="217" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B217" s="13" t="inlineStr">
         <is>
           <t>Medical cannabis legalization</t>
         </is>
       </c>
-      <c r="F216" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P216" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q216" s="10" t="n"/>
-    </row>
-    <row r="217" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A217" s="10" t="n"/>
-      <c r="B217" s="13" t="inlineStr">
-        <is>
-          <t>Medication adherence</t>
-        </is>
-      </c>
       <c r="F217" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -7155,13 +7180,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R217" s="11" t="n"/>
+      <c r="Q217" s="10" t="n"/>
     </row>
     <row r="218" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A218" s="10" t="n"/>
       <c r="B218" s="13" t="inlineStr">
         <is>
-          <t>Medication dose</t>
+          <t>Medication adherence</t>
         </is>
       </c>
       <c r="F218" s="13" t="inlineStr">
@@ -7176,143 +7201,145 @@
       </c>
       <c r="R218" s="11" t="n"/>
     </row>
-    <row r="219" ht="30" customFormat="1" customHeight="1" s="13">
+    <row r="219" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A219" s="10" t="n"/>
       <c r="B219" s="13" t="inlineStr">
         <is>
+          <t>Medication dose</t>
+        </is>
+      </c>
+      <c r="F219" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P219" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R219" s="11" t="n"/>
+    </row>
+    <row r="220" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A220" s="10" t="n"/>
+      <c r="B220" s="13" t="inlineStr">
+        <is>
           <t>Medication-assisted substance use disorder treatment</t>
         </is>
       </c>
-      <c r="F219" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P219" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R219" s="11" t="n"/>
-    </row>
-    <row r="220" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B220" s="13" t="inlineStr">
+      <c r="F220" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P220" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R220" s="11" t="n"/>
+    </row>
+    <row r="221" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B221" s="13" t="inlineStr">
         <is>
           <t>Methadone dose</t>
         </is>
       </c>
-      <c r="F220" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P220" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q220" s="10" t="n"/>
-    </row>
-    <row r="221" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B221" s="13" t="inlineStr">
+      <c r="F221" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P221" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q221" s="10" t="n"/>
+    </row>
+    <row r="222" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B222" s="13" t="inlineStr">
         <is>
           <t>Methamphetamine use prevention</t>
         </is>
       </c>
-      <c r="F221" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P221" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="222" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A222" s="10" t="n"/>
-      <c r="B222" s="9" t="inlineStr">
+      <c r="F222" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P222" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="223" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A223" s="10" t="n"/>
+      <c r="B223" s="9" t="inlineStr">
         <is>
           <t>Minimum purchasing age legislation</t>
         </is>
       </c>
-      <c r="C222" s="9" t="n"/>
-      <c r="D222" s="9" t="n"/>
-      <c r="E222" s="9" t="n"/>
-      <c r="F222" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G222" s="9" t="n"/>
-      <c r="H222" s="9" t="n"/>
-      <c r="I222" s="9" t="n"/>
-      <c r="J222" s="9" t="n"/>
-      <c r="K222" s="9" t="n"/>
-      <c r="L222" s="9" t="n"/>
-      <c r="M222" s="9" t="n"/>
-      <c r="N222" s="9" t="n"/>
-      <c r="O222" s="9" t="n"/>
-      <c r="P222" s="9" t="n"/>
-      <c r="R222" s="11" t="n"/>
-    </row>
-    <row r="223" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A223" t="inlineStr">
+      <c r="C223" s="9" t="n"/>
+      <c r="D223" s="9" t="n"/>
+      <c r="E223" s="9" t="n"/>
+      <c r="F223" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G223" s="9" t="n"/>
+      <c r="H223" s="9" t="n"/>
+      <c r="I223" s="9" t="n"/>
+      <c r="J223" s="9" t="n"/>
+      <c r="K223" s="9" t="n"/>
+      <c r="L223" s="9" t="n"/>
+      <c r="M223" s="9" t="n"/>
+      <c r="N223" s="9" t="n"/>
+      <c r="O223" s="9" t="n"/>
+      <c r="P223" s="9" t="n"/>
+      <c r="R223" s="11" t="n"/>
+    </row>
+    <row r="224" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A224" t="inlineStr">
         <is>
           <t>ADDICTO:0000489</t>
         </is>
       </c>
-      <c r="B223" s="12" t="inlineStr">
+      <c r="B224" s="12" t="inlineStr">
         <is>
           <t>Modelling</t>
         </is>
       </c>
-      <c r="C223" s="12" t="inlineStr">
+      <c r="C224" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves showing examples of the behaviour for people to imitate.</t>
         </is>
       </c>
-      <c r="D223" s="13" t="inlineStr">
+      <c r="D224" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E223" s="13" t="inlineStr">
+      <c r="E224" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F223" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G223" s="12" t="inlineStr">
+      <c r="F224" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G224" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O223" s="13" t="inlineStr">
+      <c r="O224" s="13" t="inlineStr">
         <is>
           <t>RW</t>
-        </is>
-      </c>
-      <c r="P223" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="224" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B224" s="13" t="inlineStr">
-        <is>
-          <t>Naloxone administration</t>
-        </is>
-      </c>
-      <c r="F224" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
         </is>
       </c>
       <c r="P224" s="13" t="inlineStr">
@@ -7324,7 +7351,7 @@
     <row r="225" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B225" s="13" t="inlineStr">
         <is>
-          <t>Naloxone treatment</t>
+          <t>Naloxone administration</t>
         </is>
       </c>
       <c r="F225" s="13" t="inlineStr">
@@ -7341,149 +7368,146 @@
     <row r="226" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B226" s="13" t="inlineStr">
         <is>
+          <t>Naloxone treatment</t>
+        </is>
+      </c>
+      <c r="F226" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P226" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="227" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B227" s="13" t="inlineStr">
+        <is>
           <t>Naltrexone efficacy</t>
         </is>
       </c>
-      <c r="F226" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P226" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q226" s="10" t="n"/>
-    </row>
-    <row r="227" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B227" s="13" t="inlineStr">
+      <c r="F227" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P227" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B228" s="13" t="inlineStr">
         <is>
           <t>National Cancer Institute Smokefree.gov website</t>
         </is>
       </c>
-      <c r="F227" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P227" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q227" s="9" t="n"/>
-    </row>
-    <row r="228" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A228" t="inlineStr">
+      <c r="F228" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P228" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q228" s="9" t="n"/>
+    </row>
+    <row r="229" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A229" t="inlineStr">
         <is>
           <t>ADDICTO:0000490</t>
         </is>
       </c>
-      <c r="B228" s="9" t="inlineStr">
+      <c r="B229" s="9" t="inlineStr">
         <is>
           <t>National drug policy</t>
         </is>
       </c>
-      <c r="C228" s="9" t="inlineStr">
+      <c r="C229" s="9" t="inlineStr">
         <is>
           <t>A national policy that concerns the manufacture, marketing, distribution, use and harms from psychoactive drugs.</t>
         </is>
       </c>
-      <c r="D228" s="9" t="inlineStr">
-        <is>
-          <t>National policy</t>
-        </is>
-      </c>
-      <c r="E228" s="9" t="inlineStr">
+      <c r="D229" s="9" t="inlineStr">
+        <is>
+          <t>Government policy</t>
+        </is>
+      </c>
+      <c r="E229" s="9" t="inlineStr">
         <is>
           <t>Generically dependent continuant</t>
         </is>
       </c>
-      <c r="F228" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G228" s="14" t="n"/>
-      <c r="H228" s="9" t="n"/>
-      <c r="I228" s="9" t="n"/>
-      <c r="J228" s="9" t="n"/>
-      <c r="K228" s="9" t="n"/>
-      <c r="L228" s="9" t="n"/>
-      <c r="M228" s="9" t="n"/>
-      <c r="N228" s="9" t="n"/>
-      <c r="O228" s="9" t="n"/>
-      <c r="P228" s="9" t="n"/>
-    </row>
-    <row r="229" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A229" s="10" t="n"/>
-      <c r="B229" s="13" t="inlineStr">
+      <c r="F229" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G229" s="14" t="n"/>
+      <c r="H229" s="9" t="n"/>
+      <c r="I229" s="9" t="n"/>
+      <c r="J229" s="9" t="n"/>
+      <c r="K229" s="9" t="n"/>
+      <c r="L229" s="9" t="n"/>
+      <c r="M229" s="9" t="n"/>
+      <c r="N229" s="9" t="n"/>
+      <c r="O229" s="9" t="n"/>
+      <c r="P229" s="9" t="n"/>
+    </row>
+    <row r="230" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A230" s="10" t="n"/>
+      <c r="B230" s="13" t="inlineStr">
         <is>
           <t>Needle and syringe provision</t>
         </is>
       </c>
-      <c r="F229" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I229" s="13" t="inlineStr">
+      <c r="F230" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I230" s="13" t="inlineStr">
         <is>
           <t>NSP</t>
         </is>
       </c>
-      <c r="P229" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R229" s="11" t="n"/>
-    </row>
-    <row r="230" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B230" s="13" t="inlineStr">
+      <c r="P230" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B231" s="13" t="inlineStr">
         <is>
           <t>Neonatal care</t>
         </is>
       </c>
-      <c r="F230" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P230" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="231" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A231" s="9" t="n"/>
-      <c r="B231" s="13" t="inlineStr">
+      <c r="F231" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P231" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="232" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A232" s="9" t="n"/>
+      <c r="B232" s="13" t="inlineStr">
         <is>
           <t>Nicotine pre-loading</t>
         </is>
       </c>
-      <c r="F231" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P231" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q231" s="10" t="n"/>
-      <c r="R231" s="9" t="n"/>
-    </row>
-    <row r="232" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A232" s="10" t="n"/>
-      <c r="B232" s="13" t="inlineStr">
-        <is>
-          <t>Non-contingent cocaine administration</t>
-        </is>
-      </c>
       <c r="F232" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -7494,34 +7518,35 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R232" s="11" t="n"/>
+      <c r="Q232" s="10" t="n"/>
+      <c r="R232" s="9" t="n"/>
     </row>
     <row r="233" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A233" s="10" t="n"/>
       <c r="B233" s="13" t="inlineStr">
         <is>
+          <t>Non-contingent cocaine administration</t>
+        </is>
+      </c>
+      <c r="F233" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P233" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R233" s="11" t="n"/>
+    </row>
+    <row r="234" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A234" s="10" t="n"/>
+      <c r="B234" s="13" t="inlineStr">
+        <is>
           <t>Number of intakes into treatment</t>
         </is>
       </c>
-      <c r="F233" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P233" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q233" s="10" t="n"/>
-      <c r="R233" s="11" t="n"/>
-    </row>
-    <row r="234" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B234" s="13" t="inlineStr">
-        <is>
-          <t>Number of years on treatment</t>
-        </is>
-      </c>
       <c r="F234" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -7533,112 +7558,105 @@
         </is>
       </c>
       <c r="Q234" s="10" t="n"/>
+      <c r="R234" s="11" t="n"/>
     </row>
     <row r="235" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B235" s="13" t="inlineStr">
         <is>
+          <t>Number of years on treatment</t>
+        </is>
+      </c>
+      <c r="F235" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P235" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B236" s="13" t="inlineStr">
+        <is>
           <t>Obstetric practice</t>
         </is>
       </c>
-      <c r="F235" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P235" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q235" s="10" t="n"/>
-    </row>
-    <row r="236" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A236" s="10" t="n"/>
-      <c r="B236" s="13" t="inlineStr">
+      <c r="F236" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P236" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q236" s="10" t="n"/>
+    </row>
+    <row r="237" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A237" s="10" t="n"/>
+      <c r="B237" s="13" t="inlineStr">
         <is>
           <t>On-line program</t>
         </is>
       </c>
-      <c r="F236" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P236" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R236" s="11" t="n"/>
-    </row>
-    <row r="237" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A237" s="10" t="inlineStr">
+      <c r="F237" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P237" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R237" s="11" t="n"/>
+    </row>
+    <row r="238" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A238" s="10" t="inlineStr">
         <is>
           <t>ADDICTO:0000491</t>
         </is>
       </c>
-      <c r="B237" s="9" t="inlineStr">
+      <c r="B238" s="9" t="inlineStr">
         <is>
           <t>Opioid agonist treatment</t>
         </is>
       </c>
-      <c r="C237" s="9" t="inlineStr">
+      <c r="C238" s="9" t="inlineStr">
         <is>
           <t>A treatment that involves providing a safer opioid agonist to a person with opioid addiction in order to reduce their psychological need for  the opioid to which they are addicted.</t>
         </is>
       </c>
-      <c r="D237" s="9" t="inlineStr">
+      <c r="D238" s="9" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="E237" s="9" t="inlineStr">
+      <c r="E238" s="9" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F237" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G237" s="9" t="n"/>
-      <c r="H237" s="9" t="inlineStr">
+      <c r="F238" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G238" s="9" t="n"/>
+      <c r="H238" s="9" t="inlineStr">
         <is>
           <t xml:space="preserve">No ontological definition found. </t>
         </is>
       </c>
-      <c r="I237" s="9" t="inlineStr">
+      <c r="I238" s="9" t="inlineStr">
         <is>
           <t>Opioid agonist therapy</t>
         </is>
       </c>
-      <c r="J237" s="9" t="n"/>
-      <c r="K237" s="9" t="n"/>
-      <c r="L237" s="9" t="n"/>
-      <c r="M237" s="9" t="n"/>
-      <c r="N237" s="9" t="n"/>
-      <c r="O237" s="9" t="n"/>
-      <c r="P237" s="9" t="n"/>
-      <c r="R237" s="11" t="n"/>
-    </row>
-    <row r="238" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B238" s="9" t="inlineStr">
-        <is>
-          <t>Opioid agonist treatment capacity</t>
-        </is>
-      </c>
-      <c r="C238" s="9" t="n"/>
-      <c r="D238" s="9" t="n"/>
-      <c r="E238" s="9" t="n"/>
-      <c r="F238" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G238" s="9" t="n"/>
-      <c r="H238" s="9" t="n"/>
-      <c r="I238" s="9" t="n"/>
       <c r="J238" s="9" t="n"/>
       <c r="K238" s="9" t="n"/>
       <c r="L238" s="9" t="n"/>
@@ -7646,12 +7664,12 @@
       <c r="N238" s="9" t="n"/>
       <c r="O238" s="9" t="n"/>
       <c r="P238" s="9" t="n"/>
+      <c r="R238" s="11" t="n"/>
     </row>
     <row r="239" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A239" s="10" t="n"/>
       <c r="B239" s="9" t="inlineStr">
         <is>
-          <t>Opioid agonist treatment coverage</t>
+          <t>Opioid agonist treatment capacity</t>
         </is>
       </c>
       <c r="C239" s="9" t="n"/>
@@ -7672,34 +7690,17 @@
       <c r="N239" s="9" t="n"/>
       <c r="O239" s="9" t="n"/>
       <c r="P239" s="9" t="n"/>
-      <c r="R239" s="11" t="n"/>
-    </row>
-    <row r="240" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000492</t>
-        </is>
-      </c>
+    </row>
+    <row r="240" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A240" s="10" t="n"/>
       <c r="B240" s="9" t="inlineStr">
         <is>
-          <t>Opioid agonist treatment scale-up strategy</t>
-        </is>
-      </c>
-      <c r="C240" s="9" t="inlineStr">
-        <is>
-          <t>An intervention scale-up strategy for delivering a opioid agonist treatment programme to a population.</t>
-        </is>
-      </c>
-      <c r="D240" s="9" t="inlineStr">
-        <is>
-          <t>Intervention scale-up strategy</t>
-        </is>
-      </c>
-      <c r="E240" s="9" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>Opioid agonist treatment coverage</t>
+        </is>
+      </c>
+      <c r="C240" s="9" t="n"/>
+      <c r="D240" s="9" t="n"/>
+      <c r="E240" s="9" t="n"/>
       <c r="F240" s="9" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -7715,38 +7716,59 @@
       <c r="N240" s="9" t="n"/>
       <c r="O240" s="9" t="n"/>
       <c r="P240" s="9" t="n"/>
-    </row>
-    <row r="241" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B241" s="13" t="inlineStr">
-        <is>
-          <t>Opioid maintenance programme</t>
-        </is>
-      </c>
-      <c r="F241" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P241" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="R240" s="11" t="n"/>
+    </row>
+    <row r="241" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000492</t>
+        </is>
+      </c>
+      <c r="B241" s="9" t="inlineStr">
+        <is>
+          <t>Opioid agonist treatment scale-up strategy</t>
+        </is>
+      </c>
+      <c r="C241" s="9" t="inlineStr">
+        <is>
+          <t>An intervention scale-up strategy for delivering a opioid agonist treatment programme to a population.</t>
+        </is>
+      </c>
+      <c r="D241" s="9" t="inlineStr">
+        <is>
+          <t>Intervention scale-up strategy</t>
+        </is>
+      </c>
+      <c r="E241" s="9" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F241" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G241" s="9" t="n"/>
+      <c r="H241" s="9" t="n"/>
+      <c r="I241" s="9" t="n"/>
+      <c r="J241" s="9" t="n"/>
+      <c r="K241" s="9" t="n"/>
+      <c r="L241" s="9" t="n"/>
+      <c r="M241" s="9" t="n"/>
+      <c r="N241" s="9" t="n"/>
+      <c r="O241" s="9" t="n"/>
+      <c r="P241" s="9" t="n"/>
     </row>
     <row r="242" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B242" s="13" t="inlineStr">
         <is>
-          <t>Opioid substitution therapy</t>
+          <t>Opioid maintenance programme</t>
         </is>
       </c>
       <c r="F242" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I242" s="13" t="inlineStr">
-        <is>
-          <t>OST</t>
         </is>
       </c>
       <c r="P242" s="13" t="inlineStr">
@@ -7758,7 +7780,7 @@
     <row r="243" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B243" s="13" t="inlineStr">
         <is>
-          <t>Opioid treatment</t>
+          <t>Opioid substitution therapy</t>
         </is>
       </c>
       <c r="F243" s="13" t="inlineStr">
@@ -7766,17 +7788,21 @@
           <t>Intervention</t>
         </is>
       </c>
+      <c r="I243" s="13" t="inlineStr">
+        <is>
+          <t>OST</t>
+        </is>
+      </c>
       <c r="P243" s="13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q243" s="9" t="n"/>
     </row>
     <row r="244" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B244" s="13" t="inlineStr">
         <is>
-          <t>Opioid treatment admission</t>
+          <t>Opioid treatment</t>
         </is>
       </c>
       <c r="F244" s="13" t="inlineStr">
@@ -7794,122 +7820,120 @@
     <row r="245" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B245" s="13" t="inlineStr">
         <is>
+          <t>Opioid treatment admission</t>
+        </is>
+      </c>
+      <c r="F245" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P245" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q245" s="9" t="n"/>
+    </row>
+    <row r="246" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B246" s="13" t="inlineStr">
+        <is>
           <t>Opioid treatment programme</t>
         </is>
       </c>
-      <c r="F245" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P245" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q245" s="9" t="n"/>
-    </row>
-    <row r="246" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A246" s="9" t="n"/>
-      <c r="B246" s="9" t="inlineStr">
+      <c r="F246" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P246" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q246" s="9" t="n"/>
+    </row>
+    <row r="247" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A247" s="9" t="n"/>
+      <c r="B247" s="9" t="inlineStr">
         <is>
           <t>Period of alcohol control measure implementation</t>
         </is>
       </c>
-      <c r="C246" s="9" t="n"/>
-      <c r="D246" s="9" t="n"/>
-      <c r="E246" s="9" t="n"/>
-      <c r="F246" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G246" s="9" t="n"/>
-      <c r="H246" s="9" t="n"/>
-      <c r="I246" s="9" t="n"/>
-      <c r="J246" s="9" t="n"/>
-      <c r="K246" s="9" t="n"/>
-      <c r="L246" s="9" t="n"/>
-      <c r="M246" s="9" t="n"/>
-      <c r="N246" s="9" t="n"/>
-      <c r="O246" s="9" t="n"/>
-      <c r="P246" s="9" t="n"/>
-      <c r="Q246" s="9" t="n"/>
-      <c r="R246" s="9" t="n"/>
-    </row>
-    <row r="247" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A247" s="9" t="inlineStr">
+      <c r="C247" s="9" t="n"/>
+      <c r="D247" s="9" t="n"/>
+      <c r="E247" s="9" t="n"/>
+      <c r="F247" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G247" s="9" t="n"/>
+      <c r="H247" s="9" t="n"/>
+      <c r="I247" s="9" t="n"/>
+      <c r="J247" s="9" t="n"/>
+      <c r="K247" s="9" t="n"/>
+      <c r="L247" s="9" t="n"/>
+      <c r="M247" s="9" t="n"/>
+      <c r="N247" s="9" t="n"/>
+      <c r="O247" s="9" t="n"/>
+      <c r="P247" s="9" t="n"/>
+      <c r="Q247" s="9" t="n"/>
+      <c r="R247" s="9" t="n"/>
+    </row>
+    <row r="248" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A248" s="9" t="inlineStr">
         <is>
           <t>ADDICTO:0000493</t>
         </is>
       </c>
-      <c r="B247" s="12" t="inlineStr">
+      <c r="B248" s="12" t="inlineStr">
         <is>
           <t>Persuasion</t>
         </is>
       </c>
-      <c r="C247" s="12" t="inlineStr">
+      <c r="C248" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves using words and images to change the way people feel about a behaviour to make it more or less attractive.</t>
         </is>
       </c>
-      <c r="D247" s="13" t="inlineStr">
+      <c r="D248" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E247" s="13" t="inlineStr">
+      <c r="E248" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F247" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G247" s="12" t="inlineStr">
+      <c r="F248" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G248" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O247" s="13" t="inlineStr">
+      <c r="O248" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P247" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R247" s="9" t="n"/>
-    </row>
-    <row r="248" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A248" s="10" t="n"/>
-      <c r="B248" s="13" t="inlineStr">
-        <is>
-          <t>Post-injection bleeding management</t>
-        </is>
-      </c>
-      <c r="F248" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
       <c r="P248" s="13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q248" s="10" t="n"/>
-      <c r="R248" s="11" t="n"/>
-    </row>
-    <row r="249" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="R248" s="9" t="n"/>
+    </row>
+    <row r="249" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A249" s="10" t="n"/>
       <c r="B249" s="13" t="inlineStr">
         <is>
-          <t>Post-intervention</t>
+          <t>Post-injection bleeding management</t>
         </is>
       </c>
       <c r="F249" s="13" t="inlineStr">
@@ -7929,7 +7953,7 @@
       <c r="A250" s="10" t="n"/>
       <c r="B250" s="13" t="inlineStr">
         <is>
-          <t>Preclinical efficacy</t>
+          <t>Post-intervention</t>
         </is>
       </c>
       <c r="F250" s="13" t="inlineStr">
@@ -7949,7 +7973,7 @@
       <c r="A251" s="10" t="n"/>
       <c r="B251" s="13" t="inlineStr">
         <is>
-          <t>Progression prevention</t>
+          <t>Preclinical efficacy</t>
         </is>
       </c>
       <c r="F251" s="13" t="inlineStr">
@@ -7965,25 +7989,11 @@
       <c r="Q251" s="10" t="n"/>
       <c r="R251" s="11" t="n"/>
     </row>
-    <row r="252" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A252" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000494</t>
-        </is>
-      </c>
+    <row r="252" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A252" s="10" t="n"/>
       <c r="B252" s="13" t="inlineStr">
         <is>
-          <t>Public health</t>
-        </is>
-      </c>
-      <c r="C252" s="13" t="inlineStr">
-        <is>
-          <t>A branch of clinical policy and practice dealing with population health, including hygiene, epidemiology, and disease prevention</t>
-        </is>
-      </c>
-      <c r="D252" s="13" t="inlineStr">
-        <is>
-          <t>Branch of clinical policy and practice</t>
+          <t>Progression prevention</t>
         </is>
       </c>
       <c r="F252" s="13" t="inlineStr">
@@ -7999,113 +8009,98 @@
       <c r="Q252" s="10" t="n"/>
       <c r="R252" s="11" t="n"/>
     </row>
-    <row r="253" ht="45" customFormat="1" customHeight="1" s="13">
+    <row r="253" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A253" s="10" t="inlineStr">
         <is>
-          <t>ADDICTO:0000495</t>
-        </is>
-      </c>
-      <c r="B253" s="9" t="inlineStr">
-        <is>
-          <t>Government policy</t>
-        </is>
-      </c>
-      <c r="C253" s="9" t="inlineStr">
-        <is>
-          <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the government's jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D253" s="9" t="inlineStr">
-        <is>
-          <t>Action specification [IAO:0000007]</t>
-        </is>
-      </c>
-      <c r="E253" s="9" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
-      <c r="F253" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G253" s="9" t="n"/>
-      <c r="H253" s="9" t="n"/>
-      <c r="I253" s="9" t="inlineStr">
-        <is>
-          <t>Public policy</t>
-        </is>
-      </c>
-      <c r="J253" s="9" t="n"/>
-      <c r="K253" s="9" t="n"/>
-      <c r="L253" s="9" t="n"/>
-      <c r="M253" s="9" t="n"/>
-      <c r="N253" s="9" t="n"/>
-      <c r="O253" s="9" t="n"/>
-      <c r="P253" s="9" t="n"/>
+          <t>ADDICTO:0000494</t>
+        </is>
+      </c>
+      <c r="B253" s="13" t="inlineStr">
+        <is>
+          <t>Public health</t>
+        </is>
+      </c>
+      <c r="C253" s="13" t="inlineStr">
+        <is>
+          <t>A branch of clinical policy and practice dealing with population health, including hygiene, epidemiology, and disease prevention</t>
+        </is>
+      </c>
+      <c r="D253" s="13" t="inlineStr">
+        <is>
+          <t>Branch of clinical policy and practice</t>
+        </is>
+      </c>
+      <c r="F253" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P253" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="Q253" s="10" t="n"/>
       <c r="R253" s="11" t="n"/>
     </row>
-    <row r="254" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A254" s="10" t="n"/>
-      <c r="B254" s="13" t="inlineStr">
-        <is>
-          <t>Regional NHS Substance Misuse Service</t>
-        </is>
-      </c>
-      <c r="F254" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P254" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+    <row r="254" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A254" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000495</t>
+        </is>
+      </c>
+      <c r="B254" s="9" t="inlineStr">
+        <is>
+          <t>Government policy</t>
+        </is>
+      </c>
+      <c r="C254" s="9" t="inlineStr">
+        <is>
+          <t>An action specification that a government produces that includes rules and regulations concerning activities of agents under the government's jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D254" s="9" t="inlineStr">
+        <is>
+          <t>action specification</t>
+        </is>
+      </c>
+      <c r="E254" s="9" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
+      <c r="F254" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G254" s="9" t="n"/>
+      <c r="H254" s="9" t="n"/>
+      <c r="I254" s="9" t="inlineStr">
+        <is>
+          <t>Public policy</t>
+        </is>
+      </c>
+      <c r="J254" s="9" t="n"/>
+      <c r="K254" s="9" t="n"/>
+      <c r="L254" s="9" t="n"/>
+      <c r="M254" s="9" t="n"/>
+      <c r="N254" s="9" t="n"/>
+      <c r="O254" s="9" t="n"/>
+      <c r="P254" s="9" t="n"/>
       <c r="Q254" s="10" t="n"/>
       <c r="R254" s="11" t="n"/>
     </row>
-    <row r="255" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A255" s="10" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000496</t>
-        </is>
-      </c>
-      <c r="B255" s="12" t="inlineStr">
-        <is>
-          <t>Regulation</t>
-        </is>
-      </c>
-      <c r="C255" s="12" t="inlineStr">
-        <is>
-          <t>An intevention function involving development and implementation of rules regarding behaviour that instruct the behaviour and possibly provide rewards and punishments for conforming.</t>
-        </is>
-      </c>
-      <c r="D255" s="13" t="inlineStr">
-        <is>
-          <t>Intervention function</t>
-        </is>
-      </c>
-      <c r="E255" s="13" t="inlineStr">
-        <is>
-          <t>Process</t>
+    <row r="255" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A255" s="10" t="n"/>
+      <c r="B255" s="13" t="inlineStr">
+        <is>
+          <t>Regional NHS Substance Misuse Service</t>
         </is>
       </c>
       <c r="F255" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G255" s="13" t="inlineStr">
-        <is>
-          <t>behaviourchangewheel.com</t>
-        </is>
-      </c>
-      <c r="O255" s="13" t="inlineStr">
-        <is>
-          <t>RW</t>
         </is>
       </c>
       <c r="P255" s="13" t="inlineStr">
@@ -8116,144 +8111,175 @@
       <c r="Q255" s="10" t="n"/>
       <c r="R255" s="11" t="n"/>
     </row>
-    <row r="256" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A256" s="10" t="n"/>
-      <c r="B256" s="13" t="inlineStr">
+    <row r="256" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A256" s="10" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000496</t>
+        </is>
+      </c>
+      <c r="B256" s="12" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
+      <c r="C256" s="12" t="inlineStr">
+        <is>
+          <t>An intevention function involving development and implementation of rules regarding behaviour that instruct the behaviour and possibly provide rewards and punishments for conforming.</t>
+        </is>
+      </c>
+      <c r="D256" s="13" t="inlineStr">
+        <is>
+          <t>Intervention function</t>
+        </is>
+      </c>
+      <c r="E256" s="13" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
+      <c r="F256" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G256" s="13" t="inlineStr">
+        <is>
+          <t>behaviourchangewheel.com</t>
+        </is>
+      </c>
+      <c r="O256" s="13" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="P256" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q256" s="10" t="n"/>
+      <c r="R256" s="11" t="n"/>
+    </row>
+    <row r="257" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A257" s="10" t="n"/>
+      <c r="B257" s="13" t="inlineStr">
         <is>
           <t>Repetitive transcranial magnetic stimulation (rTMS)</t>
         </is>
       </c>
-      <c r="F256" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P256" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q256" s="9" t="n"/>
-      <c r="R256" s="11" t="n"/>
-    </row>
-    <row r="257" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A257" t="inlineStr">
+      <c r="F257" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P257" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q257" s="9" t="n"/>
+      <c r="R257" s="11" t="n"/>
+    </row>
+    <row r="258" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A258" t="inlineStr">
         <is>
           <t>ADDICTO:0000497</t>
         </is>
       </c>
-      <c r="B257" s="12" t="inlineStr">
+      <c r="B258" s="12" t="inlineStr">
         <is>
           <t>Restriction</t>
         </is>
       </c>
-      <c r="C257" s="12" t="inlineStr">
+      <c r="C258" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves constraining performance of a behaviour by setting rules.</t>
         </is>
       </c>
-      <c r="D257" s="13" t="inlineStr">
+      <c r="D258" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E257" s="13" t="inlineStr">
+      <c r="E258" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F257" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G257" s="12" t="inlineStr">
+      <c r="F258" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G258" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O257" s="13" t="inlineStr">
+      <c r="O258" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P257" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q257" s="10" t="n"/>
-    </row>
-    <row r="258" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A258" s="10" t="n"/>
-      <c r="B258" s="9" t="inlineStr">
+      <c r="P258" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q258" s="10" t="n"/>
+    </row>
+    <row r="259" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A259" s="10" t="n"/>
+      <c r="B259" s="9" t="inlineStr">
         <is>
           <t>Restriction on product availability</t>
         </is>
       </c>
-      <c r="C258" s="9" t="n"/>
-      <c r="D258" s="9" t="n"/>
-      <c r="E258" s="9" t="n"/>
-      <c r="F258" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G258" s="9" t="n"/>
-      <c r="H258" s="9" t="n"/>
-      <c r="I258" s="9" t="n"/>
-      <c r="J258" s="9" t="n"/>
-      <c r="K258" s="9" t="n"/>
-      <c r="L258" s="9" t="n"/>
-      <c r="M258" s="9" t="n"/>
-      <c r="N258" s="9" t="n"/>
-      <c r="O258" s="9" t="n"/>
-      <c r="P258" s="9" t="n"/>
-      <c r="R258" s="11" t="n"/>
-    </row>
-    <row r="259" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A259" s="9" t="n"/>
-      <c r="B259" s="13" t="inlineStr">
+      <c r="C259" s="9" t="n"/>
+      <c r="D259" s="9" t="n"/>
+      <c r="E259" s="9" t="n"/>
+      <c r="F259" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G259" s="9" t="n"/>
+      <c r="H259" s="9" t="n"/>
+      <c r="I259" s="9" t="n"/>
+      <c r="J259" s="9" t="n"/>
+      <c r="K259" s="9" t="n"/>
+      <c r="L259" s="9" t="n"/>
+      <c r="M259" s="9" t="n"/>
+      <c r="N259" s="9" t="n"/>
+      <c r="O259" s="9" t="n"/>
+      <c r="P259" s="9" t="n"/>
+      <c r="R259" s="11" t="n"/>
+    </row>
+    <row r="260" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A260" s="9" t="n"/>
+      <c r="B260" s="13" t="inlineStr">
         <is>
           <t>Resuscitation</t>
         </is>
       </c>
-      <c r="F259" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P259" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R259" s="9" t="n"/>
-    </row>
-    <row r="260" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B260" s="13" t="inlineStr">
+      <c r="F260" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P260" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R260" s="9" t="n"/>
+    </row>
+    <row r="261" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B261" s="13" t="inlineStr">
         <is>
           <t>Risk of dropout from opioid use disorder treatment</t>
         </is>
       </c>
-      <c r="F260" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P260" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="261" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A261" s="10" t="n"/>
-      <c r="B261" s="13" t="inlineStr">
-        <is>
-          <t>Safer injecting counselling</t>
-        </is>
-      </c>
       <c r="F261" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -8264,209 +8290,209 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R261" s="11" t="n"/>
     </row>
     <row r="262" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A262" s="10" t="n"/>
       <c r="B262" s="13" t="inlineStr">
         <is>
+          <t>Safer injecting counselling</t>
+        </is>
+      </c>
+      <c r="F262" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P262" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R262" s="11" t="n"/>
+    </row>
+    <row r="263" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A263" s="10" t="n"/>
+      <c r="B263" s="13" t="inlineStr">
+        <is>
           <t>Save injecting site</t>
         </is>
       </c>
-      <c r="F262" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P262" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q262" s="9" t="n"/>
-      <c r="R262" s="11" t="n"/>
-    </row>
-    <row r="263" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B263" s="13" t="inlineStr">
+      <c r="F263" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P263" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q263" s="9" t="n"/>
+      <c r="R263" s="11" t="n"/>
+    </row>
+    <row r="264" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B264" s="13" t="inlineStr">
         <is>
           <t>Scale-up of intervention</t>
         </is>
       </c>
-      <c r="F263" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P263" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q263" s="10" t="n"/>
-    </row>
-    <row r="264" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A264" s="9" t="n"/>
-      <c r="B264" s="13" t="inlineStr">
+      <c r="F264" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P264" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q264" s="10" t="n"/>
+    </row>
+    <row r="265" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A265" s="9" t="n"/>
+      <c r="B265" s="13" t="inlineStr">
         <is>
           <t>Screening and brief advice delivery rate</t>
         </is>
       </c>
-      <c r="F264" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P264" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q264" s="10" t="n"/>
-      <c r="R264" s="9" t="n"/>
-    </row>
-    <row r="265" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B265" s="13" t="inlineStr">
+      <c r="F265" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P265" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q265" s="10" t="n"/>
+      <c r="R265" s="9" t="n"/>
+    </row>
+    <row r="266" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B266" s="13" t="inlineStr">
         <is>
           <t>Screening for alcohol use</t>
         </is>
       </c>
-      <c r="F265" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P265" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="266" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A266" s="10" t="n"/>
-      <c r="B266" s="10" t="inlineStr">
+      <c r="F266" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P266" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="267" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A267" s="10" t="n"/>
+      <c r="B267" s="10" t="inlineStr">
         <is>
           <t>Self-help intervention</t>
         </is>
       </c>
-      <c r="F266" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P266" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R266" s="11" t="n"/>
-    </row>
-    <row r="267" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A267" t="inlineStr">
+      <c r="F267" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P267" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R267" s="11" t="n"/>
+    </row>
+    <row r="268" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A268" t="inlineStr">
         <is>
           <t>ADDICTO:0000498</t>
         </is>
       </c>
-      <c r="B267" s="12" t="inlineStr">
+      <c r="B268" s="12" t="inlineStr">
         <is>
           <t>Service provision</t>
         </is>
       </c>
-      <c r="C267" s="12" t="inlineStr">
+      <c r="C268" s="12" t="inlineStr">
         <is>
           <t>An intevention function involving provision of services, materials and/or social resource and aids, whether they be structured or ad hoc, financed or unpaid.</t>
         </is>
       </c>
-      <c r="D267" s="13" t="inlineStr">
+      <c r="D268" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E267" s="13" t="inlineStr">
+      <c r="E268" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F267" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G267" s="13" t="inlineStr">
+      <c r="F268" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G268" s="13" t="inlineStr">
         <is>
           <t>behaviourchangewheel.com</t>
         </is>
       </c>
-      <c r="O267" s="13" t="inlineStr">
+      <c r="O268" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P267" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q267" s="10" t="n"/>
-    </row>
-    <row r="268" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B268" s="13" t="inlineStr">
+      <c r="P268" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q268" s="10" t="n"/>
+    </row>
+    <row r="269" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B269" s="13" t="inlineStr">
         <is>
           <t>Sham stimulation</t>
         </is>
       </c>
-      <c r="F268" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P268" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="269" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B269" s="13" t="inlineStr">
+      <c r="F269" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P269" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="270" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B270" s="13" t="inlineStr">
         <is>
           <t>Short-term inpatient detoxification programme</t>
         </is>
       </c>
-      <c r="F269" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P269" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="270" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A270" s="10" t="n"/>
-      <c r="B270" s="13" t="inlineStr">
+      <c r="F270" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P270" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="271" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A271" s="10" t="n"/>
+      <c r="B271" s="13" t="inlineStr">
         <is>
           <t>Single methadone maintenance treatment programme</t>
         </is>
       </c>
-      <c r="F270" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P270" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R270" s="11" t="n"/>
-    </row>
-    <row r="271" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B271" s="13" t="inlineStr">
-        <is>
-          <t>Six-month treatment outcome</t>
-        </is>
-      </c>
       <c r="F271" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -8477,11 +8503,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R271" s="11" t="n"/>
     </row>
     <row r="272" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B272" s="13" t="inlineStr">
         <is>
-          <t>Small effect</t>
+          <t>Six-month treatment outcome</t>
         </is>
       </c>
       <c r="F272" s="13" t="inlineStr">
@@ -8494,12 +8521,11 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q272" s="10" t="n"/>
     </row>
     <row r="273" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B273" s="13" t="inlineStr">
         <is>
-          <t>Specialist stop smoking support</t>
+          <t>Small effect</t>
         </is>
       </c>
       <c r="F273" s="13" t="inlineStr">
@@ -8512,11 +8538,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q273" s="10" t="n"/>
     </row>
     <row r="274" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B274" s="13" t="inlineStr">
         <is>
-          <t>Staff supervision of injecting</t>
+          <t>Specialist stop smoking support</t>
         </is>
       </c>
       <c r="F274" s="13" t="inlineStr">
@@ -8533,27 +8560,26 @@
     <row r="275" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B275" s="13" t="inlineStr">
         <is>
+          <t>Staff supervision of injecting</t>
+        </is>
+      </c>
+      <c r="F275" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P275" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="276" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B276" s="13" t="inlineStr">
+        <is>
           <t>Standard of care</t>
         </is>
       </c>
-      <c r="F275" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P275" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="276" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A276" s="10" t="n"/>
-      <c r="B276" s="13" t="inlineStr">
-        <is>
-          <t>State telephone quitline</t>
-        </is>
-      </c>
       <c r="F276" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -8564,14 +8590,12 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="Q276" s="10" t="n"/>
-      <c r="R276" s="11" t="n"/>
-    </row>
-    <row r="277" ht="30" customFormat="1" customHeight="1" s="13">
+    </row>
+    <row r="277" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A277" s="10" t="n"/>
       <c r="B277" s="13" t="inlineStr">
         <is>
-          <t>State-certified addiction treatment centre</t>
+          <t>State telephone quitline</t>
         </is>
       </c>
       <c r="F277" s="13" t="inlineStr">
@@ -8584,88 +8608,89 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q277" s="10" t="n"/>
       <c r="R277" s="11" t="n"/>
     </row>
     <row r="278" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A278" s="10" t="n"/>
       <c r="B278" s="13" t="inlineStr">
         <is>
+          <t>State-certified addiction treatment centre</t>
+        </is>
+      </c>
+      <c r="F278" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P278" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R278" s="11" t="n"/>
+    </row>
+    <row r="279" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A279" s="10" t="n"/>
+      <c r="B279" s="13" t="inlineStr">
+        <is>
           <t>State-wide medical cannabis legalization</t>
         </is>
       </c>
-      <c r="F278" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P278" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R278" s="11" t="n"/>
-    </row>
-    <row r="279" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B279" s="13" t="inlineStr">
+      <c r="F279" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P279" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R279" s="11" t="n"/>
+    </row>
+    <row r="280" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B280" s="13" t="inlineStr">
         <is>
           <t>Substance abuse diagnosis</t>
         </is>
       </c>
-      <c r="F279" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P279" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q279" s="10" t="n"/>
-    </row>
-    <row r="280" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B280" s="13" t="inlineStr">
+      <c r="F280" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P280" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q280" s="10" t="n"/>
+    </row>
+    <row r="281" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B281" s="13" t="inlineStr">
         <is>
           <t>Substance abuse treatment programme</t>
         </is>
       </c>
-      <c r="F280" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P280" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q280" s="10" t="n"/>
-    </row>
-    <row r="281" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B281" s="13" t="inlineStr">
+      <c r="F281" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P281" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q281" s="10" t="n"/>
+    </row>
+    <row r="282" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B282" s="13" t="inlineStr">
         <is>
           <t>Substance use consumption site</t>
         </is>
       </c>
-      <c r="F281" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P281" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q281" s="10" t="n"/>
-    </row>
-    <row r="282" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A282" s="10" t="n"/>
-      <c r="B282" s="13" t="inlineStr">
-        <is>
-          <t>Substance use prevention programme</t>
-        </is>
-      </c>
       <c r="F282" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -8676,13 +8701,13 @@
           <t>Proposed</t>
         </is>
       </c>
-      <c r="R282" s="11" t="n"/>
+      <c r="Q282" s="10" t="n"/>
     </row>
     <row r="283" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A283" s="10" t="n"/>
       <c r="B283" s="13" t="inlineStr">
         <is>
-          <t>Substance use treatment programme</t>
+          <t>Substance use prevention programme</t>
         </is>
       </c>
       <c r="F283" s="13" t="inlineStr">
@@ -8697,117 +8722,118 @@
       </c>
       <c r="R283" s="11" t="n"/>
     </row>
-    <row r="284" ht="16" customFormat="1" customHeight="1" s="13">
+    <row r="284" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="A284" s="10" t="n"/>
       <c r="B284" s="13" t="inlineStr">
         <is>
+          <t>Substance use treatment programme</t>
+        </is>
+      </c>
+      <c r="F284" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P284" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R284" s="11" t="n"/>
+    </row>
+    <row r="285" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A285" s="10" t="n"/>
+      <c r="B285" s="13" t="inlineStr">
+        <is>
           <t>Supervised consumption site</t>
         </is>
       </c>
-      <c r="F284" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P284" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R284" s="11" t="n"/>
-    </row>
-    <row r="285" ht="30" customFormat="1" customHeight="1" s="15">
-      <c r="A285" s="13" t="n"/>
-      <c r="B285" s="13" t="inlineStr">
+      <c r="F285" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P285" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R285" s="11" t="n"/>
+    </row>
+    <row r="286" ht="30" customFormat="1" customHeight="1" s="15">
+      <c r="A286" s="13" t="n"/>
+      <c r="B286" s="13" t="inlineStr">
         <is>
           <t>Supervised drug-injecting practices</t>
         </is>
       </c>
-      <c r="C285" s="13" t="n"/>
-      <c r="D285" s="13" t="n"/>
-      <c r="E285" s="13" t="n"/>
-      <c r="F285" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G285" s="13" t="n"/>
-      <c r="H285" s="13" t="n"/>
-      <c r="I285" s="13" t="n"/>
-      <c r="J285" s="13" t="n"/>
-      <c r="K285" s="13" t="n"/>
-      <c r="L285" s="13" t="n"/>
-      <c r="M285" s="13" t="n"/>
-      <c r="N285" s="13" t="n"/>
-      <c r="O285" s="13" t="n"/>
-      <c r="P285" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q285" s="10" t="n"/>
-      <c r="R285" s="13" t="n"/>
-      <c r="S285" s="13" t="n"/>
-    </row>
-    <row r="286" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B286" s="13" t="inlineStr">
-        <is>
-          <t>Supportive care</t>
-        </is>
-      </c>
+      <c r="C286" s="13" t="n"/>
+      <c r="D286" s="13" t="n"/>
+      <c r="E286" s="13" t="n"/>
       <c r="F286" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
+      <c r="G286" s="13" t="n"/>
+      <c r="H286" s="13" t="n"/>
+      <c r="I286" s="13" t="n"/>
+      <c r="J286" s="13" t="n"/>
+      <c r="K286" s="13" t="n"/>
+      <c r="L286" s="13" t="n"/>
+      <c r="M286" s="13" t="n"/>
+      <c r="N286" s="13" t="n"/>
+      <c r="O286" s="13" t="n"/>
       <c r="P286" s="13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q286" s="10" t="n"/>
+      <c r="R286" s="13" t="n"/>
+      <c r="S286" s="13" t="n"/>
     </row>
     <row r="287" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B287" s="13" t="inlineStr">
         <is>
+          <t>Supportive care</t>
+        </is>
+      </c>
+      <c r="F287" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P287" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="288" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B288" s="13" t="inlineStr">
+        <is>
           <t>Syringe-service program (SSP)</t>
         </is>
       </c>
-      <c r="F287" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P287" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="288" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A288" s="10" t="n"/>
-      <c r="B288" s="13" t="inlineStr">
+      <c r="F288" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P288" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="289" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A289" s="10" t="n"/>
+      <c r="B289" s="13" t="inlineStr">
         <is>
           <t>Tailored intervention</t>
         </is>
       </c>
-      <c r="F288" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P288" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R288" s="11" t="n"/>
-    </row>
-    <row r="289" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B289" s="13" t="inlineStr">
-        <is>
-          <t>Targeted service</t>
-        </is>
-      </c>
       <c r="F289" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -8818,11 +8844,12 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="R289" s="11" t="n"/>
     </row>
     <row r="290" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B290" s="13" t="inlineStr">
         <is>
-          <t>Telephone counselling</t>
+          <t>Targeted service</t>
         </is>
       </c>
       <c r="F290" s="13" t="inlineStr">
@@ -8839,238 +8866,235 @@
     <row r="291" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B291" s="13" t="inlineStr">
         <is>
+          <t>Telephone counselling</t>
+        </is>
+      </c>
+      <c r="F291" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P291" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="292" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B292" s="13" t="inlineStr">
+        <is>
           <t>Therapeutic interventions</t>
         </is>
       </c>
-      <c r="F291" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P291" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="292" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B292" s="13" t="inlineStr">
+      <c r="F292" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P292" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="293" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B293" s="13" t="inlineStr">
         <is>
           <t>Therapist-delivered brief intervention</t>
         </is>
       </c>
-      <c r="F292" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P292" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q292" s="10" t="n"/>
-    </row>
-    <row r="293" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B293" s="13" t="inlineStr">
+      <c r="F293" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P293" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q293" s="10" t="n"/>
+    </row>
+    <row r="294" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B294" s="13" t="inlineStr">
         <is>
           <t>Therapy</t>
         </is>
       </c>
-      <c r="F293" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P293" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q293" s="10" t="n"/>
-    </row>
-    <row r="294" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B294" s="13" t="inlineStr">
-        <is>
-          <t>Time period when intervention was delivered</t>
-        </is>
-      </c>
       <c r="F294" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
+      <c r="P294" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q294" s="10" t="n"/>
     </row>
     <row r="295" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B295" s="13" t="inlineStr">
         <is>
+          <t>Time period when intervention was delivered</t>
+        </is>
+      </c>
+      <c r="F295" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+    </row>
+    <row r="296" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B296" s="13" t="inlineStr">
+        <is>
           <t>Time since end of substance use treatment</t>
         </is>
       </c>
-      <c r="F295" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P295" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="296" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A296" s="10" t="n"/>
-      <c r="B296" s="13" t="inlineStr">
+      <c r="F296" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P296" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="297" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A297" s="10" t="n"/>
+      <c r="B297" s="13" t="inlineStr">
         <is>
           <t>Time to dropout from treatment</t>
         </is>
       </c>
-      <c r="F296" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P296" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q296" s="10" t="n"/>
-      <c r="R296" s="11" t="n"/>
-    </row>
-    <row r="297" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A297" t="inlineStr">
+      <c r="F297" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P297" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q297" s="10" t="n"/>
+      <c r="R297" s="11" t="n"/>
+    </row>
+    <row r="298" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A298" t="inlineStr">
         <is>
           <t>ADDICTO:0000499</t>
         </is>
       </c>
-      <c r="B297" s="12" t="inlineStr">
+      <c r="B298" s="12" t="inlineStr">
         <is>
           <t>Training</t>
         </is>
       </c>
-      <c r="C297" s="12" t="inlineStr">
+      <c r="C298" s="12" t="inlineStr">
         <is>
           <t>An intervention function that involves  increasing the skills needed for a behaviour by repeated practice and feedback.</t>
         </is>
       </c>
-      <c r="D297" s="13" t="inlineStr">
+      <c r="D298" s="13" t="inlineStr">
         <is>
           <t>Intervention function</t>
         </is>
       </c>
-      <c r="E297" s="13" t="inlineStr">
+      <c r="E298" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F297" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G297" s="12" t="inlineStr">
+      <c r="F298" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G298" s="12" t="inlineStr">
         <is>
           <t>www.behaviourchange.com</t>
         </is>
       </c>
-      <c r="O297" s="13" t="inlineStr">
+      <c r="O298" s="13" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="P297" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="298" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B298" s="13" t="inlineStr">
+      <c r="P298" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="299" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B299" s="13" t="inlineStr">
         <is>
           <t>Treated and released</t>
         </is>
       </c>
-      <c r="F298" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P298" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q298" s="10" t="n"/>
-    </row>
-    <row r="299" ht="45" customFormat="1" customHeight="1" s="13">
-      <c r="A299" t="inlineStr">
+      <c r="F299" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P299" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="Q299" s="10" t="n"/>
+    </row>
+    <row r="300" ht="45" customFormat="1" customHeight="1" s="13">
+      <c r="A300" t="inlineStr">
         <is>
           <t>ADDICTO:0000500</t>
         </is>
       </c>
-      <c r="B299" s="9" t="inlineStr">
+      <c r="B300" s="9" t="inlineStr">
         <is>
           <t>Treatment</t>
         </is>
       </c>
-      <c r="C299" s="9" t="inlineStr">
+      <c r="C300" s="9" t="inlineStr">
         <is>
           <t>A planned process whose completion is hypothesized by a health care provider to eliminate, prevent, or alleviate the signs and symptoms of a disorder or pathological process.</t>
         </is>
       </c>
-      <c r="D299" s="9" t="inlineStr">
-        <is>
-          <t>Planned process [OBI:</t>
-        </is>
-      </c>
-      <c r="E299" s="9" t="inlineStr">
+      <c r="D300" s="9" t="inlineStr">
+        <is>
+          <t>planned process</t>
+        </is>
+      </c>
+      <c r="E300" s="9" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F299" s="9" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="G299" s="9" t="n"/>
-      <c r="H299" s="9" t="n"/>
-      <c r="I299" s="9" t="n"/>
-      <c r="J299" s="9" t="n"/>
-      <c r="K299" s="9" t="n"/>
-      <c r="L299" s="9" t="n"/>
-      <c r="M299" s="9" t="n"/>
-      <c r="N299" s="9" t="n"/>
-      <c r="O299" s="9" t="n"/>
-      <c r="P299" s="9" t="n"/>
-      <c r="Q299" s="10" t="n"/>
-    </row>
-    <row r="300" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A300" s="10" t="n"/>
-      <c r="B300" s="13" t="inlineStr">
-        <is>
-          <t>Treatment adherence</t>
-        </is>
-      </c>
-      <c r="F300" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P300" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="F300" s="9" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="G300" s="9" t="n"/>
+      <c r="H300" s="9" t="n"/>
+      <c r="I300" s="9" t="n"/>
+      <c r="J300" s="9" t="n"/>
+      <c r="K300" s="9" t="n"/>
+      <c r="L300" s="9" t="n"/>
+      <c r="M300" s="9" t="n"/>
+      <c r="N300" s="9" t="n"/>
+      <c r="O300" s="9" t="n"/>
+      <c r="P300" s="9" t="n"/>
       <c r="Q300" s="10" t="n"/>
-      <c r="R300" s="11" t="n"/>
     </row>
     <row r="301" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A301" s="10" t="n"/>
       <c r="B301" s="13" t="inlineStr">
         <is>
-          <t>Treatment administration</t>
+          <t>Treatment adherence</t>
         </is>
       </c>
       <c r="F301" s="13" t="inlineStr">
@@ -9090,7 +9114,7 @@
       <c r="A302" s="10" t="n"/>
       <c r="B302" s="13" t="inlineStr">
         <is>
-          <t>Treatment compliance</t>
+          <t>Treatment administration</t>
         </is>
       </c>
       <c r="F302" s="13" t="inlineStr">
@@ -9110,7 +9134,7 @@
       <c r="A303" s="10" t="n"/>
       <c r="B303" s="13" t="inlineStr">
         <is>
-          <t>Treatment component</t>
+          <t>Treatment compliance</t>
         </is>
       </c>
       <c r="F303" s="13" t="inlineStr">
@@ -9123,13 +9147,14 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q303" s="10" t="n"/>
       <c r="R303" s="11" t="n"/>
     </row>
     <row r="304" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="A304" s="10" t="n"/>
       <c r="B304" s="13" t="inlineStr">
         <is>
-          <t>Treatment engagement</t>
+          <t>Treatment component</t>
         </is>
       </c>
       <c r="F304" s="13" t="inlineStr">
@@ -9148,45 +9173,46 @@
       <c r="A305" s="10" t="n"/>
       <c r="B305" s="13" t="inlineStr">
         <is>
+          <t>Treatment engagement</t>
+        </is>
+      </c>
+      <c r="F305" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P305" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R305" s="11" t="n"/>
+    </row>
+    <row r="306" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A306" s="10" t="n"/>
+      <c r="B306" s="13" t="inlineStr">
+        <is>
           <t>Treatment intake</t>
         </is>
       </c>
-      <c r="F305" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P305" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R305" s="11" t="n"/>
-    </row>
-    <row r="306" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B306" s="13" t="inlineStr">
+      <c r="F306" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P306" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R306" s="11" t="n"/>
+    </row>
+    <row r="307" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B307" s="13" t="inlineStr">
         <is>
           <t>Treatment of opioid dependence</t>
         </is>
       </c>
-      <c r="F306" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P306" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q306" s="9" t="n"/>
-    </row>
-    <row r="307" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B307" s="13" t="inlineStr">
-        <is>
-          <t>Treatment programme entry</t>
-        </is>
-      </c>
       <c r="F307" s="13" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -9197,116 +9223,107 @@
           <t>Proposed</t>
         </is>
       </c>
+      <c r="Q307" s="9" t="n"/>
     </row>
     <row r="308" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B308" s="13" t="inlineStr">
         <is>
+          <t>Treatment programme entry</t>
+        </is>
+      </c>
+      <c r="F308" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P308" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="309" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B309" s="13" t="inlineStr">
+        <is>
           <t>Treatment retention</t>
         </is>
       </c>
-      <c r="F308" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P308" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="309" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="A309" s="9" t="inlineStr">
+      <c r="F309" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P309" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="310" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="A310" s="9" t="inlineStr">
         <is>
           <t>OGMS:0000090</t>
         </is>
       </c>
-      <c r="B309" s="13" t="inlineStr">
+      <c r="B310" s="13" t="inlineStr">
         <is>
           <t>Treatment satisfaction</t>
         </is>
       </c>
-      <c r="F309" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P309" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="R309" s="9" t="n"/>
-    </row>
-    <row r="310" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="A310" s="9" t="inlineStr">
+      <c r="F310" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P310" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="R310" s="9" t="n"/>
+    </row>
+    <row r="311" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="A311" s="9" t="inlineStr">
         <is>
           <t>ADDICTO:0000501</t>
         </is>
       </c>
-      <c r="B310" s="13" t="inlineStr">
+      <c r="B311" s="13" t="inlineStr">
         <is>
           <t>Treatment success</t>
         </is>
       </c>
-      <c r="C310" s="13" t="inlineStr">
+      <c r="C311" s="13" t="inlineStr">
         <is>
           <t>A treatment outcome in which the aims of the treatment have been achieved.</t>
         </is>
       </c>
-      <c r="D310" s="13" t="inlineStr">
+      <c r="D311" s="13" t="inlineStr">
         <is>
           <t>Treatment outcome</t>
         </is>
       </c>
-      <c r="E310" s="13" t="inlineStr">
+      <c r="E311" s="13" t="inlineStr">
         <is>
           <t>Process</t>
         </is>
       </c>
-      <c r="F310" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="R310" s="9" t="n"/>
-    </row>
-    <row r="311" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B311" s="13" t="inlineStr">
-        <is>
-          <t>TV advertising</t>
-        </is>
-      </c>
-      <c r="D311" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="H311" s="13" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
-      <c r="L311" s="12" t="n"/>
-      <c r="P311" s="13" t="n">
-        <v>1</v>
-      </c>
-      <c r="R311" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="T311" s="12" t="n"/>
+      <c r="F311" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="R311" s="9" t="n"/>
     </row>
     <row r="312" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B312" s="13" t="inlineStr">
         <is>
-          <t>Radio advertising</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="D312" s="13" t="inlineStr">
         <is>
-          <t>Advertising</t>
+          <t>Intervention</t>
         </is>
       </c>
       <c r="H312" s="13" t="inlineStr">
@@ -9328,41 +9345,51 @@
     <row r="313" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B313" s="13" t="inlineStr">
         <is>
+          <t>Radio advertising</t>
+        </is>
+      </c>
+      <c r="D313" s="13" t="inlineStr">
+        <is>
+          <t>Advertising</t>
+        </is>
+      </c>
+      <c r="H313" s="13" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
+      <c r="L313" s="12" t="n"/>
+      <c r="P313" s="13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R313" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+      <c r="T313" s="12" t="n"/>
+    </row>
+    <row r="314" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B314" s="13" t="inlineStr">
+        <is>
           <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
-      <c r="F313" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P313" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="314" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B314" s="10" t="inlineStr">
+      <c r="F314" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P314" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="315" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B315" s="10" t="inlineStr">
         <is>
           <t>Unintended intervention outcome</t>
-        </is>
-      </c>
-      <c r="F314" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P314" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="315" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B315" s="10" t="inlineStr">
-        <is>
-          <t>US governmental regulation</t>
         </is>
       </c>
       <c r="F315" s="13" t="inlineStr">
@@ -9379,46 +9406,46 @@
     <row r="316" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B316" s="10" t="inlineStr">
         <is>
+          <t>US governmental regulation</t>
+        </is>
+      </c>
+      <c r="F316" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P316" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="317" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B317" s="10" t="inlineStr">
+        <is>
           <t>Vaping ban</t>
         </is>
       </c>
-      <c r="F316" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="I316" s="13" t="inlineStr">
+      <c r="F317" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="I317" s="13" t="inlineStr">
         <is>
           <t>Medicaid</t>
         </is>
       </c>
-      <c r="P316" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="317" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B317" s="13" t="inlineStr">
+      <c r="P317" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="318" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="B318" s="13" t="inlineStr">
         <is>
           <t>Weekly urine drug test</t>
-        </is>
-      </c>
-      <c r="F317" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P317" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="318" ht="30" customFormat="1" customHeight="1" s="13">
-      <c r="B318" s="13" t="inlineStr">
-        <is>
-          <t>Weekly urine drug test result for opioids</t>
         </is>
       </c>
       <c r="F318" s="13" t="inlineStr">
@@ -9435,52 +9462,61 @@
     <row r="319" ht="30" customFormat="1" customHeight="1" s="13">
       <c r="B319" s="13" t="inlineStr">
         <is>
+          <t>Weekly urine drug test result for opioids</t>
+        </is>
+      </c>
+      <c r="F319" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
+      <c r="P319" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="320" ht="30" customFormat="1" customHeight="1" s="13">
+      <c r="B320" s="13" t="inlineStr">
+        <is>
           <t>Women's Mental Health Programme</t>
         </is>
       </c>
-      <c r="F319" s="13" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
-      <c r="P319" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-      <c r="Q319" s="10" t="n"/>
-    </row>
-    <row r="320" ht="16" customFormat="1" customHeight="1" s="13">
-      <c r="B320" s="11" t="n"/>
+      <c r="F320" s="13" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="P320" s="13" t="inlineStr">
         <is>
           <t>Proposed</t>
         </is>
       </c>
-    </row>
-    <row r="321" customFormat="1" s="13">
+      <c r="Q320" s="10" t="n"/>
+    </row>
+    <row r="321" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B321" s="11" t="n"/>
-      <c r="F321" s="9" t="n"/>
-      <c r="G321" s="9" t="n"/>
-      <c r="H321" s="11" t="n"/>
-      <c r="I321" s="9" t="n"/>
-      <c r="J321" s="9" t="n"/>
-      <c r="K321" s="9" t="n"/>
-      <c r="L321" s="9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M321" s="9" t="n"/>
-      <c r="N321" s="9" t="n"/>
-      <c r="O321" s="9" t="n"/>
-      <c r="P321" s="9" t="n"/>
-    </row>
-    <row r="322" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="P321" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="322" customFormat="1" s="13">
       <c r="B322" s="11" t="n"/>
-      <c r="P322" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="F322" s="9" t="n"/>
+      <c r="G322" s="9" t="n"/>
+      <c r="H322" s="11" t="n"/>
+      <c r="I322" s="9" t="n"/>
+      <c r="J322" s="9" t="n"/>
+      <c r="K322" s="9" t="n"/>
+      <c r="L322" s="9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" s="9" t="n"/>
+      <c r="N322" s="9" t="n"/>
+      <c r="O322" s="9" t="n"/>
+      <c r="P322" s="9" t="n"/>
     </row>
     <row r="323" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B323" s="11" t="n"/>
@@ -9498,46 +9534,37 @@
         </is>
       </c>
     </row>
-    <row r="325" customFormat="1" s="13">
+    <row r="325" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B325" s="11" t="n"/>
-      <c r="D325" s="9" t="n"/>
-      <c r="E325" s="9" t="n"/>
-      <c r="F325" s="9" t="n"/>
-      <c r="G325" s="9" t="n"/>
-      <c r="H325" s="9" t="n"/>
-      <c r="I325" s="9" t="n"/>
-      <c r="J325" s="9" t="n"/>
-      <c r="K325" s="9" t="n"/>
-      <c r="L325" s="9" t="n"/>
-      <c r="M325" s="9" t="n"/>
-      <c r="N325" s="9" t="n"/>
-      <c r="O325" s="9" t="n"/>
-      <c r="P325" s="9" t="n"/>
-    </row>
-    <row r="326" ht="16" customFormat="1" customHeight="1" s="13">
+      <c r="P325" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
+    </row>
+    <row r="326" customFormat="1" s="13">
       <c r="B326" s="11" t="n"/>
-      <c r="P326" s="13" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
-    </row>
-    <row r="327" customFormat="1" s="13">
+      <c r="D326" s="9" t="n"/>
+      <c r="E326" s="9" t="n"/>
+      <c r="F326" s="9" t="n"/>
+      <c r="G326" s="9" t="n"/>
+      <c r="H326" s="9" t="n"/>
+      <c r="I326" s="9" t="n"/>
+      <c r="J326" s="9" t="n"/>
+      <c r="K326" s="9" t="n"/>
+      <c r="L326" s="9" t="n"/>
+      <c r="M326" s="9" t="n"/>
+      <c r="N326" s="9" t="n"/>
+      <c r="O326" s="9" t="n"/>
+      <c r="P326" s="9" t="n"/>
+    </row>
+    <row r="327" ht="16" customFormat="1" customHeight="1" s="13">
       <c r="B327" s="11" t="n"/>
-      <c r="C327" s="9" t="n"/>
-      <c r="D327" s="9" t="n"/>
-      <c r="E327" s="9" t="n"/>
-      <c r="F327" s="9" t="n"/>
-      <c r="G327" s="9" t="n"/>
-      <c r="H327" s="9" t="n"/>
-      <c r="I327" s="9" t="n"/>
-      <c r="J327" s="9" t="n"/>
-      <c r="K327" s="9" t="n"/>
-      <c r="L327" s="9" t="n"/>
-      <c r="M327" s="9" t="n"/>
-      <c r="N327" s="9" t="n"/>
-      <c r="O327" s="9" t="n"/>
-      <c r="P327" s="9" t="n"/>
+      <c r="P327" s="13" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
     </row>
     <row r="328" customFormat="1" s="13">
       <c r="B328" s="11" t="n"/>
@@ -9558,10 +9585,24 @@
     </row>
     <row r="329" customFormat="1" s="13">
       <c r="B329" s="11" t="n"/>
-      <c r="Q329" s="9" t="n"/>
+      <c r="C329" s="9" t="n"/>
+      <c r="D329" s="9" t="n"/>
+      <c r="E329" s="9" t="n"/>
+      <c r="F329" s="9" t="n"/>
+      <c r="G329" s="9" t="n"/>
+      <c r="H329" s="9" t="n"/>
+      <c r="I329" s="9" t="n"/>
+      <c r="J329" s="9" t="n"/>
+      <c r="K329" s="9" t="n"/>
+      <c r="L329" s="9" t="n"/>
+      <c r="M329" s="9" t="n"/>
+      <c r="N329" s="9" t="n"/>
+      <c r="O329" s="9" t="n"/>
+      <c r="P329" s="9" t="n"/>
     </row>
     <row r="330" customFormat="1" s="13">
       <c r="B330" s="11" t="n"/>
+      <c r="Q330" s="9" t="n"/>
     </row>
     <row r="331" customFormat="1" s="13">
       <c r="B331" s="11" t="n"/>
@@ -9585,30 +9626,16 @@
       <c r="B337" s="11" t="n"/>
     </row>
     <row r="338" customFormat="1" s="13">
-      <c r="A338" s="11" t="n"/>
       <c r="B338" s="11" t="n"/>
-      <c r="R338" s="9" t="n"/>
     </row>
     <row r="339" customFormat="1" s="13">
+      <c r="A339" s="11" t="n"/>
       <c r="B339" s="11" t="n"/>
-      <c r="Q339" s="9" t="n"/>
+      <c r="R339" s="9" t="n"/>
     </row>
     <row r="340" customFormat="1" s="13">
       <c r="B340" s="11" t="n"/>
-      <c r="C340" s="9" t="n"/>
-      <c r="D340" s="9" t="n"/>
-      <c r="E340" s="9" t="n"/>
-      <c r="F340" s="9" t="n"/>
-      <c r="G340" s="9" t="n"/>
-      <c r="H340" s="9" t="n"/>
-      <c r="I340" s="9" t="n"/>
-      <c r="J340" s="9" t="n"/>
-      <c r="K340" s="9" t="n"/>
-      <c r="L340" s="9" t="n"/>
-      <c r="M340" s="9" t="n"/>
-      <c r="N340" s="9" t="n"/>
-      <c r="O340" s="9" t="n"/>
-      <c r="P340" s="9" t="n"/>
+      <c r="Q340" s="9" t="n"/>
     </row>
     <row r="341" customFormat="1" s="13">
       <c r="B341" s="11" t="n"/>
@@ -9626,10 +9653,8 @@
       <c r="N341" s="9" t="n"/>
       <c r="O341" s="9" t="n"/>
       <c r="P341" s="9" t="n"/>
-      <c r="Q341" s="9" t="n"/>
     </row>
     <row r="342" customFormat="1" s="13">
-      <c r="A342" s="9" t="n"/>
       <c r="B342" s="11" t="n"/>
       <c r="C342" s="9" t="n"/>
       <c r="D342" s="9" t="n"/>
@@ -9646,9 +9671,9 @@
       <c r="O342" s="9" t="n"/>
       <c r="P342" s="9" t="n"/>
       <c r="Q342" s="9" t="n"/>
-      <c r="R342" s="9" t="n"/>
     </row>
     <row r="343" customFormat="1" s="13">
+      <c r="A343" s="9" t="n"/>
       <c r="B343" s="11" t="n"/>
       <c r="C343" s="9" t="n"/>
       <c r="D343" s="9" t="n"/>
@@ -9665,13 +9690,32 @@
       <c r="O343" s="9" t="n"/>
       <c r="P343" s="9" t="n"/>
       <c r="Q343" s="9" t="n"/>
-    </row>
-    <row r="344">
+      <c r="R343" s="9" t="n"/>
+    </row>
+    <row r="344" customFormat="1" s="13">
       <c r="B344" s="11" t="n"/>
+      <c r="C344" s="9" t="n"/>
+      <c r="D344" s="9" t="n"/>
+      <c r="E344" s="9" t="n"/>
+      <c r="F344" s="9" t="n"/>
+      <c r="G344" s="9" t="n"/>
+      <c r="H344" s="9" t="n"/>
+      <c r="I344" s="9" t="n"/>
+      <c r="J344" s="9" t="n"/>
+      <c r="K344" s="9" t="n"/>
+      <c r="L344" s="9" t="n"/>
+      <c r="M344" s="9" t="n"/>
+      <c r="N344" s="9" t="n"/>
+      <c r="O344" s="9" t="n"/>
+      <c r="P344" s="9" t="n"/>
+      <c r="Q344" s="9" t="n"/>
+    </row>
+    <row r="345">
+      <c r="B345" s="11" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G180" r:id="rId1"/>
+    <hyperlink ref="G181" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -9696,8 +9740,8 @@
     <col width="50.5" customWidth="1" style="4" min="2" max="2"/>
     <col width="93" customWidth="1" style="4" min="3" max="3"/>
     <col width="45.1640625" customWidth="1" style="4" min="4" max="4"/>
-    <col width="9.1640625" customWidth="1" style="4" min="5" max="5"/>
-    <col width="9.1640625" customWidth="1" style="4" min="6" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="4" min="5" max="6"/>
+    <col width="9.1640625" customWidth="1" style="4" min="7" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customFormat="1" customHeight="1" s="5">
@@ -10068,8 +10112,8 @@
     <col width="25.5" customWidth="1" style="1" min="10" max="10"/>
     <col width="17.33203125" customWidth="1" style="1" min="11" max="11"/>
     <col width="18.33203125" customWidth="1" style="1" min="12" max="12"/>
-    <col width="9.1640625" customWidth="1" style="1" min="13" max="13"/>
-    <col width="9.1640625" customWidth="1" style="1" min="14" max="16384"/>
+    <col width="9.1640625" customWidth="1" style="1" min="13" max="14"/>
+    <col width="9.1640625" customWidth="1" style="1" min="15" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customFormat="1" customHeight="1" s="5">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharoncox/Documents/GitHub/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E92A85A3-0657-9647-AB94-F9FEC0B31761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2192A5B-1472-654C-B7AA-EA65766AE976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1460" yWindow="-15700" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="618">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="617">
   <si>
     <t>ID</t>
   </si>
@@ -1098,9 +1098,6 @@
   </si>
   <si>
     <t>plan specification</t>
-  </si>
-  <si>
-    <t>ADDICTO:0000454</t>
   </si>
   <si>
     <t>Juvenille correctional system</t>
@@ -2424,11 +2421,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X349"/>
+  <dimension ref="A1:X348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A242" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E232" sqref="E232"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A209" sqref="A209:XFD209"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -7208,86 +7205,67 @@
       <c r="Q208" s="10"/>
       <c r="R208" s="11"/>
     </row>
-    <row r="209" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A209" s="10" t="s">
+    <row r="209" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A209" s="10"/>
+      <c r="B209" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="B209" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="C209" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D209" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="E209" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F209" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G209" s="9"/>
-      <c r="H209" s="9"/>
-      <c r="I209" s="9"/>
-      <c r="J209" s="9"/>
-      <c r="K209" s="9"/>
-      <c r="L209" s="9"/>
-      <c r="M209" s="9"/>
-      <c r="N209" s="9"/>
-      <c r="O209" s="9"/>
-      <c r="P209" s="9"/>
+      <c r="F209" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P209" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="Q209" s="10"/>
       <c r="R209" s="11"/>
     </row>
-    <row r="210" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A210" s="10"/>
-      <c r="B210" s="13" t="s">
+    <row r="210" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A210" s="10" t="s">
         <v>359</v>
       </c>
-      <c r="F210" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P210" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B210" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C210" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D210" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E210" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G210" s="9"/>
+      <c r="H210" s="9"/>
+      <c r="I210" s="9"/>
+      <c r="J210" s="9"/>
+      <c r="K210" s="9"/>
+      <c r="L210" s="9"/>
+      <c r="M210" s="9"/>
+      <c r="N210" s="9"/>
+      <c r="O210" s="9"/>
+      <c r="P210" s="9"/>
       <c r="Q210" s="10"/>
       <c r="R210" s="11"/>
     </row>
-    <row r="211" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A211" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="B211" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="C211" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="D211" s="9" t="s">
+    <row r="211" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A211" s="10"/>
+      <c r="B211" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="E211" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F211" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G211" s="9"/>
-      <c r="H211" s="9"/>
-      <c r="I211" s="9"/>
-      <c r="J211" s="9"/>
-      <c r="K211" s="9"/>
-      <c r="L211" s="9"/>
-      <c r="M211" s="9"/>
-      <c r="N211" s="9"/>
-      <c r="O211" s="9"/>
-      <c r="P211" s="9"/>
-      <c r="Q211" s="10"/>
+      <c r="F211" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P211" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="R211" s="11"/>
     </row>
-    <row r="212" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A212" s="10"/>
+    <row r="212" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A212" s="9"/>
       <c r="B212" s="13" t="s">
         <v>364</v>
       </c>
@@ -7297,7 +7275,7 @@
       <c r="P212" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R212" s="11"/>
+      <c r="R212" s="9"/>
     </row>
     <row r="213" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A213" s="9"/>
@@ -7310,10 +7288,11 @@
       <c r="P213" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q213" s="10"/>
       <c r="R213" s="9"/>
     </row>
-    <row r="214" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A214" s="9"/>
+    <row r="214" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A214" s="10"/>
       <c r="B214" s="13" t="s">
         <v>366</v>
       </c>
@@ -7323,8 +7302,7 @@
       <c r="P214" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q214" s="10"/>
-      <c r="R214" s="9"/>
+      <c r="R214" s="11"/>
     </row>
     <row r="215" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A215" s="10"/>
@@ -7337,10 +7315,10 @@
       <c r="P215" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q215" s="10"/>
       <c r="R215" s="11"/>
     </row>
     <row r="216" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A216" s="10"/>
       <c r="B216" s="13" t="s">
         <v>368</v>
       </c>
@@ -7351,9 +7329,9 @@
         <v>24</v>
       </c>
       <c r="Q216" s="10"/>
-      <c r="R216" s="11"/>
     </row>
     <row r="217" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A217" s="10"/>
       <c r="B217" s="13" t="s">
         <v>369</v>
       </c>
@@ -7363,7 +7341,7 @@
       <c r="P217" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q217" s="10"/>
+      <c r="R217" s="11"/>
     </row>
     <row r="218" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A218" s="10"/>
@@ -7378,7 +7356,7 @@
       </c>
       <c r="R218" s="11"/>
     </row>
-    <row r="219" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="219" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A219" s="10"/>
       <c r="B219" s="13" t="s">
         <v>371</v>
@@ -7391,8 +7369,7 @@
       </c>
       <c r="R219" s="11"/>
     </row>
-    <row r="220" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A220" s="10"/>
+    <row r="220" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B220" s="13" t="s">
         <v>372</v>
       </c>
@@ -7402,9 +7379,9 @@
       <c r="P220" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R220" s="11"/>
-    </row>
-    <row r="221" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q220" s="10"/>
+    </row>
+    <row r="221" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B221" s="13" t="s">
         <v>373</v>
       </c>
@@ -7414,66 +7391,65 @@
       <c r="P221" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q221" s="10"/>
     </row>
     <row r="222" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B222" s="13" t="s">
+      <c r="A222" s="10"/>
+      <c r="B222" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="F222" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P222" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C222" s="9"/>
+      <c r="D222" s="9"/>
+      <c r="E222" s="9"/>
+      <c r="F222" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G222" s="9"/>
+      <c r="H222" s="9"/>
+      <c r="I222" s="9"/>
+      <c r="J222" s="9"/>
+      <c r="K222" s="9"/>
+      <c r="L222" s="9"/>
+      <c r="M222" s="9"/>
+      <c r="N222" s="9"/>
+      <c r="O222" s="9"/>
+      <c r="P222" s="9"/>
+      <c r="R222" s="11"/>
     </row>
     <row r="223" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A223" s="10"/>
-      <c r="B223" s="9" t="s">
+      <c r="A223" t="s">
         <v>375</v>
       </c>
-      <c r="C223" s="9"/>
-      <c r="D223" s="9"/>
-      <c r="E223" s="9"/>
-      <c r="F223" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G223" s="9"/>
-      <c r="H223" s="9"/>
-      <c r="I223" s="9"/>
-      <c r="J223" s="9"/>
-      <c r="K223" s="9"/>
-      <c r="L223" s="9"/>
-      <c r="M223" s="9"/>
-      <c r="N223" s="9"/>
-      <c r="O223" s="9"/>
-      <c r="P223" s="9"/>
-      <c r="R223" s="11"/>
-    </row>
-    <row r="224" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A224" t="s">
+      <c r="B223" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="B224" s="12" t="s">
+      <c r="C223" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="C224" s="12" t="s">
+      <c r="D223" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E223" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F223" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G223" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O223" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P223" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="224" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="B224" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="D224" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E224" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F224" s="13" t="s">
         <v>23</v>
-      </c>
-      <c r="G224" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="O224" s="13" t="s">
-        <v>195</v>
       </c>
       <c r="P224" s="13" t="s">
         <v>24</v>
@@ -7500,8 +7476,9 @@
       <c r="P226" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="227" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q226" s="10"/>
+    </row>
+    <row r="227" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B227" s="13" t="s">
         <v>381</v>
       </c>
@@ -7511,110 +7488,112 @@
       <c r="P227" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q227" s="10"/>
-    </row>
-    <row r="228" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B228" s="13" t="s">
+      <c r="Q227" s="9"/>
+    </row>
+    <row r="228" spans="1:22" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A228" t="s">
         <v>382</v>
       </c>
-      <c r="F228" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P228" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q228" s="9"/>
-    </row>
-    <row r="229" spans="1:22" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A229" t="s">
+      <c r="B228" s="9" t="s">
+        <v>307</v>
+      </c>
+      <c r="C228" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="B229" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="C229" s="9" t="s">
+      <c r="D228" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E228" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F228" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G228" s="14"/>
+      <c r="H228" s="9"/>
+      <c r="I228" s="9"/>
+      <c r="J228" s="9"/>
+      <c r="K228" s="9"/>
+      <c r="L228" s="9"/>
+      <c r="M228" s="9"/>
+      <c r="N228" s="9"/>
+      <c r="O228" s="9"/>
+      <c r="P228" s="9"/>
+    </row>
+    <row r="229" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A229" s="10"/>
+      <c r="B229" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="D229" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E229" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F229" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G229" s="14"/>
-      <c r="H229" s="9"/>
-      <c r="I229" s="9"/>
-      <c r="J229" s="9"/>
-      <c r="K229" s="9"/>
-      <c r="L229" s="9"/>
-      <c r="M229" s="9"/>
-      <c r="N229" s="9"/>
-      <c r="O229" s="9"/>
-      <c r="P229" s="9"/>
+      <c r="F229" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I229" s="13" t="s">
+        <v>385</v>
+      </c>
+      <c r="P229" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R229" s="11"/>
     </row>
     <row r="230" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A230" s="10"/>
       <c r="B230" s="13" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F230" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I230" s="13" t="s">
-        <v>386</v>
-      </c>
       <c r="P230" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R230" s="11"/>
-    </row>
-    <row r="231" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B231" s="13" t="s">
+    </row>
+    <row r="231" spans="1:22" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A231" t="s">
+        <v>598</v>
+      </c>
+      <c r="B231" s="24" t="s">
+        <v>600</v>
+      </c>
+      <c r="C231" s="24" t="s">
+        <v>602</v>
+      </c>
+      <c r="D231" s="24" t="s">
+        <v>616</v>
+      </c>
+      <c r="E231" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="F231" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I231" s="24" t="s">
+        <v>601</v>
+      </c>
+      <c r="N231" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="O231" s="25"/>
+      <c r="P231" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V231" s="25"/>
+    </row>
+    <row r="232" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A232" s="9"/>
+      <c r="B232" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="F231" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P231" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="232" spans="1:22" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A232" t="s">
-        <v>599</v>
-      </c>
-      <c r="B232" s="24" t="s">
-        <v>601</v>
-      </c>
-      <c r="C232" s="24" t="s">
-        <v>603</v>
-      </c>
-      <c r="D232" s="24" t="s">
-        <v>617</v>
-      </c>
-      <c r="E232" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="F232" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I232" s="24" t="s">
-        <v>602</v>
-      </c>
-      <c r="N232" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="O232" s="25"/>
-      <c r="P232" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V232" s="25"/>
-    </row>
-    <row r="233" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A233" s="9"/>
+      <c r="F232" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P232" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="9"/>
+    </row>
+    <row r="233" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A233" s="10"/>
       <c r="B233" s="13" t="s">
         <v>388</v>
       </c>
@@ -7624,8 +7603,7 @@
       <c r="P233" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q233" s="10"/>
-      <c r="R233" s="9"/>
+      <c r="R233" s="11"/>
     </row>
     <row r="234" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A234" s="10"/>
@@ -7638,10 +7616,10 @@
       <c r="P234" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q234" s="10"/>
       <c r="R234" s="11"/>
     </row>
-    <row r="235" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A235" s="10"/>
+    <row r="235" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B235" s="13" t="s">
         <v>390</v>
       </c>
@@ -7652,7 +7630,6 @@
         <v>24</v>
       </c>
       <c r="Q235" s="10"/>
-      <c r="R235" s="11"/>
     </row>
     <row r="236" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B236" s="13" t="s">
@@ -7667,6 +7644,7 @@
       <c r="Q236" s="10"/>
     </row>
     <row r="237" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A237" s="10"/>
       <c r="B237" s="13" t="s">
         <v>392</v>
       </c>
@@ -7676,47 +7654,56 @@
       <c r="P237" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q237" s="10"/>
-    </row>
-    <row r="238" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A238" s="10"/>
-      <c r="B238" s="13" t="s">
+      <c r="R237" s="11"/>
+    </row>
+    <row r="238" spans="1:22" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A238" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="F238" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P238" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B238" s="9" t="s">
+        <v>394</v>
+      </c>
+      <c r="C238" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="D238" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="E238" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G238" s="9"/>
+      <c r="H238" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="I238" s="9" t="s">
+        <v>397</v>
+      </c>
+      <c r="J238" s="9"/>
+      <c r="K238" s="9"/>
+      <c r="L238" s="9"/>
+      <c r="M238" s="9"/>
+      <c r="N238" s="9"/>
+      <c r="O238" s="9"/>
+      <c r="P238" s="9"/>
       <c r="R238" s="11"/>
     </row>
-    <row r="239" spans="1:22" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A239" s="10" t="s">
-        <v>394</v>
-      </c>
+    <row r="239" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B239" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="C239" s="9" t="s">
-        <v>396</v>
-      </c>
-      <c r="D239" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="E239" s="9" t="s">
-        <v>57</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C239" s="9"/>
+      <c r="D239" s="9"/>
+      <c r="E239" s="9"/>
       <c r="F239" s="9" t="s">
         <v>23</v>
       </c>
       <c r="G239" s="9"/>
-      <c r="H239" s="9" t="s">
-        <v>397</v>
-      </c>
-      <c r="I239" s="9" t="s">
-        <v>398</v>
-      </c>
+      <c r="H239" s="9"/>
+      <c r="I239" s="9"/>
       <c r="J239" s="9"/>
       <c r="K239" s="9"/>
       <c r="L239" s="9"/>
@@ -7724,9 +7711,9 @@
       <c r="N239" s="9"/>
       <c r="O239" s="9"/>
       <c r="P239" s="9"/>
-      <c r="R239" s="11"/>
     </row>
     <row r="240" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A240" s="10"/>
       <c r="B240" s="9" t="s">
         <v>399</v>
       </c>
@@ -7746,15 +7733,24 @@
       <c r="N240" s="9"/>
       <c r="O240" s="9"/>
       <c r="P240" s="9"/>
-    </row>
-    <row r="241" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A241" s="10"/>
+      <c r="R240" s="11"/>
+    </row>
+    <row r="241" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A241" t="s">
+        <v>400</v>
+      </c>
       <c r="B241" s="9" t="s">
-        <v>400</v>
-      </c>
-      <c r="C241" s="9"/>
-      <c r="D241" s="9"/>
-      <c r="E241" s="9"/>
+        <v>401</v>
+      </c>
+      <c r="C241" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D241" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E241" s="9" t="s">
+        <v>102</v>
+      </c>
       <c r="F241" s="9" t="s">
         <v>23</v>
       </c>
@@ -7768,37 +7764,17 @@
       <c r="N241" s="9"/>
       <c r="O241" s="9"/>
       <c r="P241" s="9"/>
-      <c r="R241" s="11"/>
-    </row>
-    <row r="242" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A242" t="s">
-        <v>401</v>
-      </c>
-      <c r="B242" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="C242" s="9" t="s">
+    </row>
+    <row r="242" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="B242" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="D242" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E242" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F242" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G242" s="9"/>
-      <c r="H242" s="9"/>
-      <c r="I242" s="9"/>
-      <c r="J242" s="9"/>
-      <c r="K242" s="9"/>
-      <c r="L242" s="9"/>
-      <c r="M242" s="9"/>
-      <c r="N242" s="9"/>
-      <c r="O242" s="9"/>
-      <c r="P242" s="9"/>
+      <c r="F242" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P242" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="243" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B243" s="13" t="s">
@@ -7807,23 +7783,24 @@
       <c r="F243" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="I243" s="13" t="s">
+        <v>405</v>
+      </c>
       <c r="P243" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="244" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B244" s="13" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F244" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I244" s="13" t="s">
-        <v>406</v>
-      </c>
       <c r="P244" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q244" s="9"/>
     </row>
     <row r="245" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B245" s="13" t="s">
@@ -7849,137 +7826,139 @@
       </c>
       <c r="Q246" s="9"/>
     </row>
-    <row r="247" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B247" s="13" t="s">
+    <row r="247" spans="1:24" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A247" t="s">
+        <v>610</v>
+      </c>
+      <c r="B247" s="24" t="s">
+        <v>609</v>
+      </c>
+      <c r="C247" s="24" t="s">
+        <v>608</v>
+      </c>
+      <c r="D247" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="E247" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="F247" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N247" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="O247" s="24" t="s">
+        <v>607</v>
+      </c>
+      <c r="P247" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W247" s="25"/>
+    </row>
+    <row r="248" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A248" s="9"/>
+      <c r="B248" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="F247" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P247" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q247" s="9"/>
-    </row>
-    <row r="248" spans="1:24" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A248" t="s">
+      <c r="C248" s="9"/>
+      <c r="D248" s="9"/>
+      <c r="E248" s="9"/>
+      <c r="F248" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G248" s="9"/>
+      <c r="H248" s="9"/>
+      <c r="I248" s="9"/>
+      <c r="J248" s="9"/>
+      <c r="K248" s="9"/>
+      <c r="L248" s="9"/>
+      <c r="M248" s="9"/>
+      <c r="N248" s="9"/>
+      <c r="O248" s="9"/>
+      <c r="P248" s="9"/>
+      <c r="Q248" s="9"/>
+      <c r="R248" s="9"/>
+    </row>
+    <row r="249" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A249" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>411</v>
+      </c>
+      <c r="C249" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="D249" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E249" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F249" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G249" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O249" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P249" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R249" s="9"/>
+    </row>
+    <row r="250" spans="1:24" s="24" customFormat="1" ht="45" customHeight="1">
+      <c r="A250" t="s">
+        <v>613</v>
+      </c>
+      <c r="B250" s="24" t="s">
+        <v>612</v>
+      </c>
+      <c r="C250" s="24" t="s">
+        <v>614</v>
+      </c>
+      <c r="D250" s="24" t="s">
+        <v>615</v>
+      </c>
+      <c r="E250" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="F250" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I250" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="B248" s="24" t="s">
-        <v>610</v>
-      </c>
-      <c r="C248" s="24" t="s">
-        <v>609</v>
-      </c>
-      <c r="D248" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="E248" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="F248" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N248" s="24" t="s">
+      <c r="N250" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="O248" s="24" t="s">
-        <v>608</v>
-      </c>
-      <c r="P248" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W248" s="25"/>
-    </row>
-    <row r="249" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A249" s="9"/>
-      <c r="B249" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C249" s="9"/>
-      <c r="D249" s="9"/>
-      <c r="E249" s="9"/>
-      <c r="F249" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G249" s="9"/>
-      <c r="H249" s="9"/>
-      <c r="I249" s="9"/>
-      <c r="J249" s="9"/>
-      <c r="K249" s="9"/>
-      <c r="L249" s="9"/>
-      <c r="M249" s="9"/>
-      <c r="N249" s="9"/>
-      <c r="O249" s="9"/>
-      <c r="P249" s="9"/>
-      <c r="Q249" s="9"/>
-      <c r="R249" s="9"/>
-    </row>
-    <row r="250" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A250" s="9" t="s">
-        <v>411</v>
-      </c>
-      <c r="B250" s="12" t="s">
-        <v>412</v>
-      </c>
-      <c r="C250" s="12" t="s">
+      <c r="O250" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="P250" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V250" s="25"/>
+      <c r="X250" s="25"/>
+    </row>
+    <row r="251" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A251" s="10"/>
+      <c r="B251" s="13" t="s">
         <v>413</v>
       </c>
-      <c r="D250" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E250" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F250" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G250" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="O250" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P250" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R250" s="9"/>
-    </row>
-    <row r="251" spans="1:24" s="24" customFormat="1" ht="45" customHeight="1">
-      <c r="A251" t="s">
-        <v>614</v>
-      </c>
-      <c r="B251" s="24" t="s">
-        <v>613</v>
-      </c>
-      <c r="C251" s="24" t="s">
-        <v>615</v>
-      </c>
-      <c r="D251" s="24" t="s">
-        <v>616</v>
-      </c>
-      <c r="E251" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="F251" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I251" s="24" t="s">
-        <v>612</v>
-      </c>
-      <c r="N251" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="O251" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="P251" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V251" s="25"/>
-      <c r="X251" s="25"/>
-    </row>
-    <row r="252" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="F251" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P251" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q251" s="10"/>
+      <c r="R251" s="11"/>
+    </row>
+    <row r="252" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A252" s="10"/>
       <c r="B252" s="13" t="s">
         <v>414</v>
@@ -8021,10 +8000,18 @@
       <c r="Q254" s="10"/>
       <c r="R254" s="11"/>
     </row>
-    <row r="255" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A255" s="10"/>
+    <row r="255" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A255" s="10" t="s">
+        <v>417</v>
+      </c>
       <c r="B255" s="13" t="s">
-        <v>417</v>
+        <v>418</v>
+      </c>
+      <c r="C255" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D255" s="13" t="s">
+        <v>420</v>
       </c>
       <c r="F255" s="13" t="s">
         <v>23</v>
@@ -8035,69 +8022,78 @@
       <c r="Q255" s="10"/>
       <c r="R255" s="11"/>
     </row>
-    <row r="256" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="256" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A256" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="B256" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="C256" s="13" t="s">
-        <v>420</v>
-      </c>
-      <c r="D256" s="13" t="s">
         <v>421</v>
       </c>
-      <c r="F256" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P256" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="B256" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C256" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D256" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E256" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F256" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G256" s="9"/>
+      <c r="H256" s="9"/>
+      <c r="I256" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J256" s="9"/>
+      <c r="K256" s="9"/>
+      <c r="L256" s="9"/>
+      <c r="M256" s="9"/>
+      <c r="N256" s="9"/>
+      <c r="O256" s="9"/>
+      <c r="P256" s="9"/>
       <c r="Q256" s="10"/>
       <c r="R256" s="11"/>
     </row>
-    <row r="257" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A257" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="B257" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C257" s="9" t="s">
+    <row r="257" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A257" s="10"/>
+      <c r="B257" s="13" t="s">
         <v>423</v>
       </c>
-      <c r="D257" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E257" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F257" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G257" s="9"/>
-      <c r="H257" s="9"/>
-      <c r="I257" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J257" s="9"/>
-      <c r="K257" s="9"/>
-      <c r="L257" s="9"/>
-      <c r="M257" s="9"/>
-      <c r="N257" s="9"/>
-      <c r="O257" s="9"/>
-      <c r="P257" s="9"/>
+      <c r="F257" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P257" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="Q257" s="10"/>
       <c r="R257" s="11"/>
     </row>
-    <row r="258" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A258" s="10"/>
-      <c r="B258" s="13" t="s">
+    <row r="258" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A258" s="10" t="s">
         <v>424</v>
       </c>
+      <c r="B258" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C258" s="12" t="s">
+        <v>425</v>
+      </c>
+      <c r="D258" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E258" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F258" s="13" t="s">
         <v>23</v>
+      </c>
+      <c r="G258" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="O258" s="13" t="s">
+        <v>195</v>
       </c>
       <c r="P258" s="13" t="s">
         <v>24</v>
@@ -8105,106 +8101,87 @@
       <c r="Q258" s="10"/>
       <c r="R258" s="11"/>
     </row>
-    <row r="259" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A259" s="10" t="s">
-        <v>425</v>
-      </c>
-      <c r="B259" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C259" s="12" t="s">
+    <row r="259" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A259" s="10"/>
+      <c r="B259" s="13" t="s">
         <v>426</v>
       </c>
-      <c r="D259" s="13" t="s">
+      <c r="F259" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P259" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q259" s="9"/>
+      <c r="R259" s="11"/>
+    </row>
+    <row r="260" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A260" t="s">
+        <v>427</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C260" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D260" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E259" s="13" t="s">
+      <c r="E260" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F259" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G259" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="O259" s="13" t="s">
+      <c r="F260" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G260" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O260" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="P259" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q259" s="10"/>
-      <c r="R259" s="11"/>
-    </row>
-    <row r="260" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A260" s="10"/>
-      <c r="B260" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="F260" s="13" t="s">
-        <v>23</v>
-      </c>
       <c r="P260" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q260" s="9"/>
-      <c r="R260" s="11"/>
+      <c r="Q260" s="10"/>
     </row>
     <row r="261" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A261" t="s">
-        <v>428</v>
-      </c>
-      <c r="B261" s="12" t="s">
-        <v>429</v>
-      </c>
-      <c r="C261" s="12" t="s">
+      <c r="A261" s="10"/>
+      <c r="B261" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="D261" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E261" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F261" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G261" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="O261" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P261" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q261" s="10"/>
-    </row>
-    <row r="262" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A262" s="10"/>
-      <c r="B262" s="9" t="s">
+      <c r="C261" s="9"/>
+      <c r="D261" s="9"/>
+      <c r="E261" s="9"/>
+      <c r="F261" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G261" s="9"/>
+      <c r="H261" s="9"/>
+      <c r="I261" s="9"/>
+      <c r="J261" s="9"/>
+      <c r="K261" s="9"/>
+      <c r="L261" s="9"/>
+      <c r="M261" s="9"/>
+      <c r="N261" s="9"/>
+      <c r="O261" s="9"/>
+      <c r="P261" s="9"/>
+      <c r="R261" s="11"/>
+    </row>
+    <row r="262" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A262" s="9"/>
+      <c r="B262" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="C262" s="9"/>
-      <c r="D262" s="9"/>
-      <c r="E262" s="9"/>
-      <c r="F262" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G262" s="9"/>
-      <c r="H262" s="9"/>
-      <c r="I262" s="9"/>
-      <c r="J262" s="9"/>
-      <c r="K262" s="9"/>
-      <c r="L262" s="9"/>
-      <c r="M262" s="9"/>
-      <c r="N262" s="9"/>
-      <c r="O262" s="9"/>
-      <c r="P262" s="9"/>
-      <c r="R262" s="11"/>
-    </row>
-    <row r="263" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A263" s="9"/>
+      <c r="F262" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P262" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R262" s="9"/>
+    </row>
+    <row r="263" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B263" s="13" t="s">
         <v>432</v>
       </c>
@@ -8214,9 +8191,9 @@
       <c r="P263" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R263" s="9"/>
-    </row>
-    <row r="264" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+    </row>
+    <row r="264" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A264" s="10"/>
       <c r="B264" s="13" t="s">
         <v>433</v>
       </c>
@@ -8226,6 +8203,7 @@
       <c r="P264" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="R264" s="11"/>
     </row>
     <row r="265" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A265" s="10"/>
@@ -8238,10 +8216,10 @@
       <c r="P265" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q265" s="9"/>
       <c r="R265" s="11"/>
     </row>
     <row r="266" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A266" s="10"/>
       <c r="B266" s="13" t="s">
         <v>435</v>
       </c>
@@ -8251,10 +8229,10 @@
       <c r="P266" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q266" s="9"/>
-      <c r="R266" s="11"/>
-    </row>
-    <row r="267" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q266" s="10"/>
+    </row>
+    <row r="267" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A267" s="9"/>
       <c r="B267" s="13" t="s">
         <v>436</v>
       </c>
@@ -8265,9 +8243,9 @@
         <v>24</v>
       </c>
       <c r="Q267" s="10"/>
-    </row>
-    <row r="268" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A268" s="9"/>
+      <c r="R267" s="9"/>
+    </row>
+    <row r="268" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B268" s="13" t="s">
         <v>437</v>
       </c>
@@ -8277,11 +8255,10 @@
       <c r="P268" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q268" s="10"/>
-      <c r="R268" s="9"/>
     </row>
     <row r="269" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B269" s="13" t="s">
+      <c r="A269" s="10"/>
+      <c r="B269" s="10" t="s">
         <v>438</v>
       </c>
       <c r="F269" s="13" t="s">
@@ -8290,51 +8267,50 @@
       <c r="P269" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="270" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A270" s="10"/>
-      <c r="B270" s="10" t="s">
+      <c r="R269" s="11"/>
+    </row>
+    <row r="270" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A270" t="s">
         <v>439</v>
       </c>
+      <c r="B270" s="12" t="s">
+        <v>440</v>
+      </c>
+      <c r="C270" s="12" t="s">
+        <v>441</v>
+      </c>
+      <c r="D270" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E270" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F270" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="G270" s="13" t="s">
+        <v>271</v>
+      </c>
+      <c r="O270" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="P270" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R270" s="11"/>
-    </row>
-    <row r="271" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A271" t="s">
-        <v>440</v>
-      </c>
-      <c r="B271" s="12" t="s">
-        <v>441</v>
-      </c>
-      <c r="C271" s="12" t="s">
+      <c r="Q270" s="10"/>
+    </row>
+    <row r="271" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="B271" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="D271" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E271" s="13" t="s">
-        <v>57</v>
-      </c>
       <c r="F271" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G271" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="O271" s="13" t="s">
-        <v>195</v>
-      </c>
       <c r="P271" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q271" s="10"/>
-    </row>
-    <row r="272" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    </row>
+    <row r="272" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B272" s="13" t="s">
         <v>443</v>
       </c>
@@ -8346,6 +8322,7 @@
       </c>
     </row>
     <row r="273" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A273" s="10"/>
       <c r="B273" s="13" t="s">
         <v>444</v>
       </c>
@@ -8355,9 +8332,9 @@
       <c r="P273" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="274" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A274" s="10"/>
+      <c r="R273" s="11"/>
+    </row>
+    <row r="274" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B274" s="13" t="s">
         <v>445</v>
       </c>
@@ -8367,7 +8344,6 @@
       <c r="P274" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R274" s="11"/>
     </row>
     <row r="275" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B275" s="13" t="s">
@@ -8379,51 +8355,51 @@
       <c r="P275" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="276" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B276" s="13" t="s">
+      <c r="Q275" s="10"/>
+    </row>
+    <row r="276" spans="1:23" s="24" customFormat="1" ht="16" customHeight="1">
+      <c r="A276" s="26" t="s">
+        <v>603</v>
+      </c>
+      <c r="B276" s="24" t="s">
+        <v>604</v>
+      </c>
+      <c r="C276" s="24" t="s">
+        <v>605</v>
+      </c>
+      <c r="D276" s="24" t="s">
+        <v>599</v>
+      </c>
+      <c r="E276" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="F276" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I276" s="24" t="s">
+        <v>606</v>
+      </c>
+      <c r="N276" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="O276" s="25" t="s">
+        <v>607</v>
+      </c>
+      <c r="P276" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W276" s="25"/>
+    </row>
+    <row r="277" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="B277" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="F276" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P276" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q276" s="10"/>
-    </row>
-    <row r="277" spans="1:23" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A277" s="26" t="s">
-        <v>604</v>
-      </c>
-      <c r="B277" s="24" t="s">
-        <v>605</v>
-      </c>
-      <c r="C277" s="24" t="s">
-        <v>606</v>
-      </c>
-      <c r="D277" s="24" t="s">
-        <v>600</v>
-      </c>
-      <c r="E277" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="F277" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I277" s="24" t="s">
-        <v>607</v>
-      </c>
-      <c r="N277" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="O277" s="25" t="s">
-        <v>608</v>
-      </c>
-      <c r="P277" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W277" s="25"/>
+      <c r="F277" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P277" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="278" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B278" s="13" t="s">
@@ -8448,6 +8424,7 @@
       </c>
     </row>
     <row r="280" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A280" s="10"/>
       <c r="B280" s="13" t="s">
         <v>450</v>
       </c>
@@ -8457,8 +8434,10 @@
       <c r="P280" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="281" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q280" s="10"/>
+      <c r="R280" s="11"/>
+    </row>
+    <row r="281" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A281" s="10"/>
       <c r="B281" s="13" t="s">
         <v>451</v>
@@ -8469,7 +8448,6 @@
       <c r="P281" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q281" s="10"/>
       <c r="R281" s="11"/>
     </row>
     <row r="282" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
@@ -8485,8 +8463,7 @@
       </c>
       <c r="R282" s="11"/>
     </row>
-    <row r="283" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A283" s="10"/>
+    <row r="283" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B283" s="13" t="s">
         <v>453</v>
       </c>
@@ -8496,9 +8473,9 @@
       <c r="P283" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R283" s="11"/>
-    </row>
-    <row r="284" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q283" s="10"/>
+    </row>
+    <row r="284" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B284" s="13" t="s">
         <v>454</v>
       </c>
@@ -8510,7 +8487,7 @@
       </c>
       <c r="Q284" s="10"/>
     </row>
-    <row r="285" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="285" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B285" s="13" t="s">
         <v>455</v>
       </c>
@@ -8522,7 +8499,8 @@
       </c>
       <c r="Q285" s="10"/>
     </row>
-    <row r="286" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="286" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A286" s="10"/>
       <c r="B286" s="13" t="s">
         <v>456</v>
       </c>
@@ -8532,7 +8510,7 @@
       <c r="P286" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q286" s="10"/>
+      <c r="R286" s="11"/>
     </row>
     <row r="287" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A287" s="10"/>
@@ -8547,7 +8525,7 @@
       </c>
       <c r="R287" s="11"/>
     </row>
-    <row r="288" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="288" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A288" s="10"/>
       <c r="B288" s="13" t="s">
         <v>458</v>
@@ -8560,45 +8538,43 @@
       </c>
       <c r="R288" s="11"/>
     </row>
-    <row r="289" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A289" s="10"/>
+    <row r="289" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A289" s="13"/>
       <c r="B289" s="13" t="s">
         <v>459</v>
       </c>
+      <c r="C289" s="13"/>
+      <c r="D289" s="13"/>
+      <c r="E289" s="13"/>
       <c r="F289" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="G289" s="13"/>
+      <c r="H289" s="13"/>
+      <c r="I289" s="13"/>
+      <c r="J289" s="13"/>
+      <c r="K289" s="13"/>
+      <c r="L289" s="13"/>
+      <c r="M289" s="13"/>
+      <c r="N289" s="13"/>
+      <c r="O289" s="13"/>
       <c r="P289" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R289" s="11"/>
-    </row>
-    <row r="290" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A290" s="13"/>
+      <c r="Q289" s="10"/>
+      <c r="R289" s="13"/>
+      <c r="S289" s="13"/>
+    </row>
+    <row r="290" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B290" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="C290" s="13"/>
-      <c r="D290" s="13"/>
-      <c r="E290" s="13"/>
       <c r="F290" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G290" s="13"/>
-      <c r="H290" s="13"/>
-      <c r="I290" s="13"/>
-      <c r="J290" s="13"/>
-      <c r="K290" s="13"/>
-      <c r="L290" s="13"/>
-      <c r="M290" s="13"/>
-      <c r="N290" s="13"/>
-      <c r="O290" s="13"/>
       <c r="P290" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q290" s="10"/>
-      <c r="R290" s="13"/>
-      <c r="S290" s="13"/>
     </row>
     <row r="291" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B291" s="13" t="s">
@@ -8612,6 +8588,7 @@
       </c>
     </row>
     <row r="292" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A292" s="10"/>
       <c r="B292" s="13" t="s">
         <v>462</v>
       </c>
@@ -8621,9 +8598,9 @@
       <c r="P292" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="R292" s="11"/>
     </row>
     <row r="293" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A293" s="10"/>
       <c r="B293" s="13" t="s">
         <v>463</v>
       </c>
@@ -8633,7 +8610,6 @@
       <c r="P293" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R293" s="11"/>
     </row>
     <row r="294" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B294" s="13" t="s">
@@ -8657,7 +8633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="296" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="296" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B296" s="13" t="s">
         <v>466</v>
       </c>
@@ -8667,8 +8643,9 @@
       <c r="P296" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="297" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="Q296" s="10"/>
+    </row>
+    <row r="297" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B297" s="13" t="s">
         <v>467</v>
       </c>
@@ -8680,17 +8657,13 @@
       </c>
       <c r="Q297" s="10"/>
     </row>
-    <row r="298" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="298" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B298" s="13" t="s">
         <v>468</v>
       </c>
       <c r="F298" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P298" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q298" s="10"/>
     </row>
     <row r="299" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B299" s="13" t="s">
@@ -8699,8 +8672,12 @@
       <c r="F299" s="13" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="300" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="P299" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="300" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A300" s="10"/>
       <c r="B300" s="13" t="s">
         <v>470</v>
       </c>
@@ -8710,92 +8687,94 @@
       <c r="P300" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="301" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A301" s="10"/>
-      <c r="B301" s="13" t="s">
+      <c r="Q300" s="10"/>
+      <c r="R300" s="11"/>
+    </row>
+    <row r="301" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A301" t="s">
         <v>471</v>
       </c>
+      <c r="B301" s="12" t="s">
+        <v>472</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>473</v>
+      </c>
+      <c r="D301" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E301" s="13" t="s">
+        <v>57</v>
+      </c>
       <c r="F301" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="G301" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O301" s="13" t="s">
+        <v>195</v>
+      </c>
       <c r="P301" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q301" s="10"/>
-      <c r="R301" s="11"/>
-    </row>
-    <row r="302" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A302" t="s">
-        <v>472</v>
-      </c>
-      <c r="B302" s="12" t="s">
-        <v>473</v>
-      </c>
-      <c r="C302" s="12" t="s">
+    </row>
+    <row r="302" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="B302" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="D302" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E302" s="13" t="s">
+      <c r="F302" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P302" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q302" s="10"/>
+    </row>
+    <row r="303" spans="1:19" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A303" t="s">
+        <v>475</v>
+      </c>
+      <c r="B303" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="C303" s="9" t="s">
+        <v>476</v>
+      </c>
+      <c r="D303" s="9" t="s">
+        <v>477</v>
+      </c>
+      <c r="E303" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F302" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G302" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="O302" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P302" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="303" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B303" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="F303" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P303" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="F303" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" s="9"/>
+      <c r="H303" s="9"/>
+      <c r="I303" s="9"/>
+      <c r="J303" s="9"/>
+      <c r="K303" s="9"/>
+      <c r="L303" s="9"/>
+      <c r="M303" s="9"/>
+      <c r="N303" s="9"/>
+      <c r="O303" s="9"/>
+      <c r="P303" s="9"/>
       <c r="Q303" s="10"/>
     </row>
-    <row r="304" spans="1:19" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A304" t="s">
-        <v>476</v>
-      </c>
-      <c r="B304" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="C304" s="9" t="s">
-        <v>477</v>
-      </c>
-      <c r="D304" s="9" t="s">
+    <row r="304" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A304" s="10"/>
+      <c r="B304" s="13" t="s">
         <v>478</v>
       </c>
-      <c r="E304" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="F304" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G304" s="9"/>
-      <c r="H304" s="9"/>
-      <c r="I304" s="9"/>
-      <c r="J304" s="9"/>
-      <c r="K304" s="9"/>
-      <c r="L304" s="9"/>
-      <c r="M304" s="9"/>
-      <c r="N304" s="9"/>
-      <c r="O304" s="9"/>
-      <c r="P304" s="9"/>
+      <c r="F304" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P304" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="Q304" s="10"/>
+      <c r="R304" s="11"/>
     </row>
     <row r="305" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="A305" s="10"/>
@@ -8836,7 +8815,6 @@
       <c r="P307" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q307" s="10"/>
       <c r="R307" s="11"/>
     </row>
     <row r="308" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
@@ -8865,8 +8843,7 @@
       </c>
       <c r="R309" s="11"/>
     </row>
-    <row r="310" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A310" s="10"/>
+    <row r="310" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B310" s="13" t="s">
         <v>484</v>
       </c>
@@ -8876,9 +8853,9 @@
       <c r="P310" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R310" s="11"/>
-    </row>
-    <row r="311" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="Q310" s="9"/>
+    </row>
+    <row r="311" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B311" s="13" t="s">
         <v>485</v>
       </c>
@@ -8888,7 +8865,6 @@
       <c r="P311" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q311" s="9"/>
     </row>
     <row r="312" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B312" s="13" t="s">
@@ -8902,8 +8878,11 @@
       </c>
     </row>
     <row r="313" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="A313" s="9" t="s">
+        <v>487</v>
+      </c>
       <c r="B313" s="13" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F313" s="13" t="s">
         <v>23</v>
@@ -8911,52 +8890,57 @@
       <c r="P313" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="314" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="R313" s="9"/>
+    </row>
+    <row r="314" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A314" s="9" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B314" s="13" t="s">
-        <v>489</v>
+        <v>490</v>
+      </c>
+      <c r="C314" s="13" t="s">
+        <v>491</v>
+      </c>
+      <c r="D314" s="13" t="s">
+        <v>492</v>
+      </c>
+      <c r="E314" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="F314" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="P314" s="13" t="s">
-        <v>24</v>
-      </c>
       <c r="R314" s="9"/>
     </row>
-    <row r="315" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A315" s="9" t="s">
-        <v>490</v>
-      </c>
+    <row r="315" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B315" s="13" t="s">
-        <v>491</v>
-      </c>
-      <c r="C315" s="13" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D315" s="13" t="s">
-        <v>493</v>
-      </c>
-      <c r="E315" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F315" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R315" s="9"/>
+        <v>23</v>
+      </c>
+      <c r="H315" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="L315" s="12"/>
+      <c r="P315" s="13">
+        <v>1</v>
+      </c>
+      <c r="R315" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T315" s="12"/>
     </row>
     <row r="316" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B316" s="13" t="s">
+        <v>495</v>
+      </c>
+      <c r="D316" s="13" t="s">
+        <v>496</v>
+      </c>
+      <c r="H316" s="13" t="s">
         <v>494</v>
-      </c>
-      <c r="D316" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H316" s="13" t="s">
-        <v>495</v>
       </c>
       <c r="L316" s="12"/>
       <c r="P316" s="13">
@@ -8969,25 +8953,17 @@
     </row>
     <row r="317" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B317" s="13" t="s">
-        <v>496</v>
-      </c>
-      <c r="D317" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="H317" s="13" t="s">
-        <v>495</v>
-      </c>
-      <c r="L317" s="12"/>
-      <c r="P317" s="13">
-        <v>1</v>
-      </c>
-      <c r="R317" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T317" s="12"/>
-    </row>
-    <row r="318" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B318" s="13" t="s">
+      <c r="F317" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P317" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="318" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B318" s="10" t="s">
         <v>498</v>
       </c>
       <c r="F318" s="13" t="s">
@@ -8997,7 +8973,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="319" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="319" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B319" s="10" t="s">
         <v>499</v>
       </c>
@@ -9015,25 +8991,25 @@
       <c r="F320" s="13" t="s">
         <v>23</v>
       </c>
+      <c r="I320" s="13" t="s">
+        <v>367</v>
+      </c>
       <c r="P320" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="321" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B321" s="10" t="s">
+      <c r="B321" s="13" t="s">
         <v>501</v>
       </c>
       <c r="F321" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="I321" s="13" t="s">
-        <v>368</v>
-      </c>
       <c r="P321" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="322" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="322" spans="2:17" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B322" s="13" t="s">
         <v>502</v>
       </c>
@@ -9054,40 +9030,35 @@
       <c r="P323" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="324" spans="2:17" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B324" s="13" t="s">
-        <v>504</v>
-      </c>
-      <c r="F324" s="13" t="s">
-        <v>23</v>
-      </c>
+      <c r="Q323" s="10"/>
+    </row>
+    <row r="324" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="B324" s="11"/>
       <c r="P324" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q324" s="10"/>
-    </row>
-    <row r="325" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+    </row>
+    <row r="325" spans="2:17" s="13" customFormat="1">
       <c r="B325" s="11"/>
-      <c r="P325" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="326" spans="2:17" s="13" customFormat="1">
+      <c r="F325" s="9"/>
+      <c r="G325" s="9"/>
+      <c r="H325" s="11"/>
+      <c r="I325" s="9"/>
+      <c r="J325" s="9"/>
+      <c r="K325" s="9"/>
+      <c r="L325" s="9">
+        <v>1</v>
+      </c>
+      <c r="M325" s="9"/>
+      <c r="N325" s="9"/>
+      <c r="O325" s="9"/>
+      <c r="P325" s="9"/>
+    </row>
+    <row r="326" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B326" s="11"/>
-      <c r="F326" s="9"/>
-      <c r="G326" s="9"/>
-      <c r="H326" s="11"/>
-      <c r="I326" s="9"/>
-      <c r="J326" s="9"/>
-      <c r="K326" s="9"/>
-      <c r="L326" s="9">
-        <v>1</v>
-      </c>
-      <c r="M326" s="9"/>
-      <c r="N326" s="9"/>
-      <c r="O326" s="9"/>
-      <c r="P326" s="9"/>
+      <c r="P326" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="327" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B327" s="11"/>
@@ -9101,33 +9072,44 @@
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="329" spans="2:17" s="13" customFormat="1">
       <c r="B329" s="11"/>
-      <c r="P329" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="330" spans="2:17" s="13" customFormat="1">
+      <c r="D329" s="9"/>
+      <c r="E329" s="9"/>
+      <c r="F329" s="9"/>
+      <c r="G329" s="9"/>
+      <c r="H329" s="9"/>
+      <c r="I329" s="9"/>
+      <c r="J329" s="9"/>
+      <c r="K329" s="9"/>
+      <c r="L329" s="9"/>
+      <c r="M329" s="9"/>
+      <c r="N329" s="9"/>
+      <c r="O329" s="9"/>
+      <c r="P329" s="9"/>
+    </row>
+    <row r="330" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
       <c r="B330" s="11"/>
-      <c r="D330" s="9"/>
-      <c r="E330" s="9"/>
-      <c r="F330" s="9"/>
-      <c r="G330" s="9"/>
-      <c r="H330" s="9"/>
-      <c r="I330" s="9"/>
-      <c r="J330" s="9"/>
-      <c r="K330" s="9"/>
-      <c r="L330" s="9"/>
-      <c r="M330" s="9"/>
-      <c r="N330" s="9"/>
-      <c r="O330" s="9"/>
-      <c r="P330" s="9"/>
-    </row>
-    <row r="331" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="P330" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="331" spans="2:17" s="13" customFormat="1">
       <c r="B331" s="11"/>
-      <c r="P331" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="C331" s="9"/>
+      <c r="D331" s="9"/>
+      <c r="E331" s="9"/>
+      <c r="F331" s="9"/>
+      <c r="G331" s="9"/>
+      <c r="H331" s="9"/>
+      <c r="I331" s="9"/>
+      <c r="J331" s="9"/>
+      <c r="K331" s="9"/>
+      <c r="L331" s="9"/>
+      <c r="M331" s="9"/>
+      <c r="N331" s="9"/>
+      <c r="O331" s="9"/>
+      <c r="P331" s="9"/>
     </row>
     <row r="332" spans="2:17" s="13" customFormat="1">
       <c r="B332" s="11"/>
@@ -9148,24 +9130,10 @@
     </row>
     <row r="333" spans="2:17" s="13" customFormat="1">
       <c r="B333" s="11"/>
-      <c r="C333" s="9"/>
-      <c r="D333" s="9"/>
-      <c r="E333" s="9"/>
-      <c r="F333" s="9"/>
-      <c r="G333" s="9"/>
-      <c r="H333" s="9"/>
-      <c r="I333" s="9"/>
-      <c r="J333" s="9"/>
-      <c r="K333" s="9"/>
-      <c r="L333" s="9"/>
-      <c r="M333" s="9"/>
-      <c r="N333" s="9"/>
-      <c r="O333" s="9"/>
-      <c r="P333" s="9"/>
+      <c r="Q333" s="9"/>
     </row>
     <row r="334" spans="2:17" s="13" customFormat="1">
       <c r="B334" s="11"/>
-      <c r="Q334" s="9"/>
     </row>
     <row r="335" spans="2:17" s="13" customFormat="1">
       <c r="B335" s="11"/>
@@ -9189,16 +9157,30 @@
       <c r="B341" s="11"/>
     </row>
     <row r="342" spans="1:18" s="13" customFormat="1">
+      <c r="A342" s="11"/>
       <c r="B342" s="11"/>
+      <c r="R342" s="9"/>
     </row>
     <row r="343" spans="1:18" s="13" customFormat="1">
-      <c r="A343" s="11"/>
       <c r="B343" s="11"/>
-      <c r="R343" s="9"/>
+      <c r="Q343" s="9"/>
     </row>
     <row r="344" spans="1:18" s="13" customFormat="1">
       <c r="B344" s="11"/>
-      <c r="Q344" s="9"/>
+      <c r="C344" s="9"/>
+      <c r="D344" s="9"/>
+      <c r="E344" s="9"/>
+      <c r="F344" s="9"/>
+      <c r="G344" s="9"/>
+      <c r="H344" s="9"/>
+      <c r="I344" s="9"/>
+      <c r="J344" s="9"/>
+      <c r="K344" s="9"/>
+      <c r="L344" s="9"/>
+      <c r="M344" s="9"/>
+      <c r="N344" s="9"/>
+      <c r="O344" s="9"/>
+      <c r="P344" s="9"/>
     </row>
     <row r="345" spans="1:18" s="13" customFormat="1">
       <c r="B345" s="11"/>
@@ -9216,8 +9198,10 @@
       <c r="N345" s="9"/>
       <c r="O345" s="9"/>
       <c r="P345" s="9"/>
+      <c r="Q345" s="9"/>
     </row>
     <row r="346" spans="1:18" s="13" customFormat="1">
+      <c r="A346" s="9"/>
       <c r="B346" s="11"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -9234,9 +9218,9 @@
       <c r="O346" s="9"/>
       <c r="P346" s="9"/>
       <c r="Q346" s="9"/>
+      <c r="R346" s="9"/>
     </row>
     <row r="347" spans="1:18" s="13" customFormat="1">
-      <c r="A347" s="9"/>
       <c r="B347" s="11"/>
       <c r="C347" s="9"/>
       <c r="D347" s="9"/>
@@ -9253,28 +9237,9 @@
       <c r="O347" s="9"/>
       <c r="P347" s="9"/>
       <c r="Q347" s="9"/>
-      <c r="R347" s="9"/>
-    </row>
-    <row r="348" spans="1:18" s="13" customFormat="1">
+    </row>
+    <row r="348" spans="1:18">
       <c r="B348" s="11"/>
-      <c r="C348" s="9"/>
-      <c r="D348" s="9"/>
-      <c r="E348" s="9"/>
-      <c r="F348" s="9"/>
-      <c r="G348" s="9"/>
-      <c r="H348" s="9"/>
-      <c r="I348" s="9"/>
-      <c r="J348" s="9"/>
-      <c r="K348" s="9"/>
-      <c r="L348" s="9"/>
-      <c r="M348" s="9"/>
-      <c r="N348" s="9"/>
-      <c r="O348" s="9"/>
-      <c r="P348" s="9"/>
-      <c r="Q348" s="9"/>
-    </row>
-    <row r="349" spans="1:18">
-      <c r="B349" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9305,16 +9270,16 @@
   <sheetData>
     <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
       <c r="A1" s="4" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>506</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="45" customHeight="1">
@@ -9322,10 +9287,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>507</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>508</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" customHeight="1">
@@ -9333,10 +9298,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>509</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>510</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="75" customHeight="1">
@@ -9344,13 +9309,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>511</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>512</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>513</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" customHeight="1">
@@ -9358,10 +9323,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>514</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>515</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="45" customHeight="1">
@@ -9369,13 +9334,13 @@
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>518</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" customHeight="1">
@@ -9383,10 +9348,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>520</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" customHeight="1">
@@ -9394,10 +9359,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>521</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>522</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" customHeight="1">
@@ -9405,10 +9370,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>524</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" customHeight="1">
@@ -9416,10 +9381,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
+        <v>525</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>526</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" customHeight="1">
@@ -9427,10 +9392,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
+        <v>527</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>528</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" customHeight="1">
@@ -9438,10 +9403,10 @@
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>530</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" customHeight="1">
@@ -9449,10 +9414,10 @@
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>532</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="60" customHeight="1">
@@ -9460,10 +9425,10 @@
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" customHeight="1">
@@ -9471,10 +9436,10 @@
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>536</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" customHeight="1">
@@ -9482,10 +9447,10 @@
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
+        <v>537</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>538</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="30" customHeight="1">
@@ -9493,10 +9458,10 @@
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>540</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16" customHeight="1">
@@ -9504,10 +9469,10 @@
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>542</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" customHeight="1">
@@ -9515,10 +9480,10 @@
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>544</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -9562,16 +9527,16 @@
         <v>2</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F1" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>547</v>
-      </c>
-      <c r="G1" s="5" t="s">
-        <v>548</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>7</v>
@@ -9586,18 +9551,18 @@
         <v>10</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="45" customHeight="1">
       <c r="B2" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>551</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>552</v>
       </c>
       <c r="L2" s="1">
         <v>1</v>
@@ -9605,13 +9570,13 @@
     </row>
     <row r="3" spans="1:12" ht="60" customHeight="1">
       <c r="B3" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>553</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>554</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>555</v>
       </c>
       <c r="L3" s="1">
         <v>1</v>
@@ -9619,16 +9584,16 @@
     </row>
     <row r="4" spans="1:12" ht="45" customHeight="1">
       <c r="B4" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>557</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="L4" s="1">
         <v>1</v>
@@ -9636,10 +9601,10 @@
     </row>
     <row r="5" spans="1:12" ht="60" customHeight="1">
       <c r="B5" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="L5" s="1">
         <v>1</v>
@@ -9647,13 +9612,13 @@
     </row>
     <row r="6" spans="1:12" ht="45" customHeight="1">
       <c r="B6" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>562</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="L6" s="1">
         <v>1</v>
@@ -9661,16 +9626,16 @@
     </row>
     <row r="7" spans="1:12" ht="45" customHeight="1">
       <c r="B7" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>563</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>566</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>564</v>
       </c>
       <c r="L7" s="1">
         <v>1</v>
@@ -9678,13 +9643,13 @@
     </row>
     <row r="8" spans="1:12" ht="16" customHeight="1">
       <c r="B8" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>568</v>
-      </c>
       <c r="E8" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L8" s="1">
         <v>1</v>
@@ -9692,13 +9657,13 @@
     </row>
     <row r="9" spans="1:12" ht="45" customHeight="1">
       <c r="B9" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>569</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>570</v>
-      </c>
       <c r="D9" s="1" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
@@ -9709,13 +9674,13 @@
     </row>
     <row r="10" spans="1:12" ht="51" customHeight="1">
       <c r="B10" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>571</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>572</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="L10" s="1">
         <v>1</v>
@@ -9756,37 +9721,37 @@
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">
       <c r="A1" s="6" t="s">
+        <v>572</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>574</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>575</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>576</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>577</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>578</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>579</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="6" t="s">
         <v>580</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="J1" s="6" t="s">
         <v>581</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="K1" s="6" t="s">
         <v>582</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -9794,7 +9759,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K2" t="s">
         <v>11</v>
@@ -9805,16 +9770,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C3" t="s">
         <v>585</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="K3" t="s">
         <v>586</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -9822,16 +9787,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>584</v>
+      </c>
+      <c r="C4" t="s">
         <v>585</v>
       </c>
-      <c r="C4" t="s">
-        <v>586</v>
-      </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="K4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -9839,16 +9804,16 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>584</v>
+      </c>
+      <c r="C5" t="s">
         <v>585</v>
       </c>
-      <c r="C5" t="s">
-        <v>586</v>
-      </c>
       <c r="D5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -9856,16 +9821,16 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>584</v>
+      </c>
+      <c r="C6" t="s">
         <v>585</v>
       </c>
-      <c r="C6" t="s">
-        <v>586</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -9873,16 +9838,16 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>584</v>
+      </c>
+      <c r="C7" t="s">
         <v>585</v>
       </c>
-      <c r="C7" t="s">
-        <v>586</v>
-      </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -9890,16 +9855,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>584</v>
+      </c>
+      <c r="C8" t="s">
         <v>585</v>
       </c>
-      <c r="C8" t="s">
-        <v>586</v>
-      </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -9907,16 +9872,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>584</v>
+      </c>
+      <c r="C9" t="s">
         <v>585</v>
       </c>
-      <c r="C9" t="s">
-        <v>586</v>
-      </c>
       <c r="D9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -9924,16 +9889,16 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>584</v>
+      </c>
+      <c r="C10" t="s">
         <v>585</v>
       </c>
-      <c r="C10" t="s">
-        <v>586</v>
-      </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="K10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -9941,16 +9906,16 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>584</v>
+      </c>
+      <c r="C11" t="s">
         <v>585</v>
       </c>
-      <c r="C11" t="s">
-        <v>586</v>
-      </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -9958,7 +9923,7 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -9970,13 +9935,13 @@
         <v>3</v>
       </c>
       <c r="I12" t="s">
+        <v>595</v>
+      </c>
+      <c r="J12" t="s">
         <v>596</v>
       </c>
-      <c r="J12" t="s">
-        <v>597</v>
-      </c>
       <c r="K12" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -9984,7 +9949,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -9996,13 +9961,13 @@
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J13" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K13" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -10010,7 +9975,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -10022,13 +9987,13 @@
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -10036,7 +10001,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -10048,13 +10013,13 @@
         <v>5</v>
       </c>
       <c r="I15" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J15" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -10062,7 +10027,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -10074,13 +10039,13 @@
         <v>5</v>
       </c>
       <c r="I16" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K16" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -10088,7 +10053,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -10100,13 +10065,13 @@
         <v>2</v>
       </c>
       <c r="I17" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J17" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K17" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -10114,7 +10079,7 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -10126,13 +10091,13 @@
         <v>6</v>
       </c>
       <c r="I18" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J18" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K18" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -10140,7 +10105,7 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -10152,13 +10117,13 @@
         <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J19" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K19" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -10166,7 +10131,7 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -10178,13 +10143,13 @@
         <v>9</v>
       </c>
       <c r="I20" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J20" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K20" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -10192,7 +10157,7 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -10204,13 +10169,13 @@
         <v>7</v>
       </c>
       <c r="I21" t="s">
+        <v>595</v>
+      </c>
+      <c r="J21" t="s">
         <v>596</v>
       </c>
-      <c r="J21" t="s">
-        <v>597</v>
-      </c>
       <c r="K21" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -10218,7 +10183,7 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D22">
         <v>1</v>
@@ -10230,13 +10195,13 @@
         <v>10</v>
       </c>
       <c r="I22" t="s">
+        <v>595</v>
+      </c>
+      <c r="J22" t="s">
         <v>596</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>597</v>
-      </c>
-      <c r="K22" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -10244,7 +10209,7 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -10256,13 +10221,13 @@
         <v>7</v>
       </c>
       <c r="I23" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J23" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K23" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -10270,7 +10235,7 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D24">
         <v>1</v>
@@ -10282,13 +10247,13 @@
         <v>2</v>
       </c>
       <c r="I24" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J24" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -10296,7 +10261,7 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -10308,13 +10273,13 @@
         <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J25" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K25" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -10322,7 +10287,7 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -10334,13 +10299,13 @@
         <v>6</v>
       </c>
       <c r="I26" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J26" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K26" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -10348,7 +10313,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -10360,13 +10325,13 @@
         <v>7</v>
       </c>
       <c r="I27" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J27" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K27" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -10374,7 +10339,7 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -10386,13 +10351,13 @@
         <v>9</v>
       </c>
       <c r="I28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J28" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K28" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -10400,7 +10365,7 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -10412,13 +10377,13 @@
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J29" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K29" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -10426,7 +10391,7 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -10438,13 +10403,13 @@
         <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J30" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="K30" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kirst\Documents\GitHub\addiction-ontology\inputs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2192A5B-1472-654C-B7AA-EA65766AE976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70DC0E33-F676-4B91-908E-C70BE8FC880D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1460" yWindow="-15700" windowWidth="25600" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Classes" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1478" uniqueCount="617">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="623">
   <si>
     <t>ID</t>
   </si>
@@ -1875,13 +1875,31 @@
   </si>
   <si>
     <t xml:space="preserve">Treatment </t>
+  </si>
+  <si>
+    <t>Intracranial self-stimulation</t>
+  </si>
+  <si>
+    <t>The performance of an instrumental act which subsequently triggers the delivery of electrical brain stimulation.</t>
+  </si>
+  <si>
+    <t>brain stimulant reward</t>
+  </si>
+  <si>
+    <t>KS</t>
+  </si>
+  <si>
+    <t>Advertising which is conducted whilst operating under the direct control of or connected to a computer system which uses the internet.</t>
+  </si>
+  <si>
+    <t>Online advertising</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1990,6 +2008,19 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF3399"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2012,7 +2043,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2088,6 +2119,18 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2421,35 +2464,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X348"/>
+  <dimension ref="A1:Z350"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A209" sqref="A209:XFD209"/>
+      <pane ySplit="1" topLeftCell="A220" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D239" sqref="D239"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="9" customWidth="1"/>
-    <col min="2" max="2" width="30.5" style="9" customWidth="1"/>
-    <col min="3" max="3" width="64.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="23.83203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="17.83203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="64.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" style="9" customWidth="1"/>
     <col min="6" max="6" width="16" style="9" customWidth="1"/>
-    <col min="7" max="7" width="35.5" style="9" customWidth="1"/>
-    <col min="8" max="8" width="48.33203125" style="9" customWidth="1"/>
-    <col min="9" max="9" width="23.5" style="9" customWidth="1"/>
-    <col min="10" max="10" width="29.6640625" style="9" customWidth="1"/>
-    <col min="11" max="11" width="44.1640625" style="9" customWidth="1"/>
-    <col min="12" max="12" width="9.1640625" style="9" customWidth="1"/>
-    <col min="13" max="13" width="18.5" style="9" customWidth="1"/>
-    <col min="14" max="15" width="9.1640625" style="9" customWidth="1"/>
-    <col min="16" max="16" width="13.5" style="9" customWidth="1"/>
-    <col min="17" max="17" width="37.1640625" style="9" customWidth="1"/>
-    <col min="18" max="18" width="48.6640625" style="9" customWidth="1"/>
-    <col min="19" max="19" width="24.6640625" style="9" customWidth="1"/>
-    <col min="20" max="22" width="9.1640625" style="9" customWidth="1"/>
-    <col min="23" max="16384" width="9.1640625" style="9"/>
+    <col min="7" max="7" width="35.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="48.28515625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="23.42578125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="29.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="44.140625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" style="9" customWidth="1"/>
+    <col min="14" max="15" width="9.140625" style="9" customWidth="1"/>
+    <col min="16" max="16" width="13.42578125" style="9" customWidth="1"/>
+    <col min="17" max="17" width="37.140625" style="9" customWidth="1"/>
+    <col min="18" max="18" width="48.7109375" style="9" customWidth="1"/>
+    <col min="19" max="19" width="24.7109375" style="9" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="9" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="7" customFormat="1" ht="30" customHeight="1">
@@ -2543,7 +2586,7 @@
       </c>
       <c r="S2" s="9"/>
     </row>
-    <row r="3" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="3" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
@@ -2623,7 +2666,7 @@
       </c>
       <c r="S5" s="10"/>
     </row>
-    <row r="6" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="6" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B6" s="10" t="s">
         <v>29</v>
       </c>
@@ -2677,7 +2720,7 @@
       </c>
       <c r="S7" s="10"/>
     </row>
-    <row r="8" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="8" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A8" s="10"/>
       <c r="B8" s="10" t="s">
         <v>32</v>
@@ -2706,7 +2749,7 @@
       <c r="R8" s="11"/>
       <c r="S8" s="10"/>
     </row>
-    <row r="9" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="9" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B9" s="10" t="s">
         <v>33</v>
       </c>
@@ -2731,7 +2774,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="10" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A10" s="9"/>
       <c r="B10" s="10" t="s">
         <v>34</v>
@@ -2759,7 +2802,7 @@
       <c r="Q10" s="9"/>
       <c r="R10" s="9"/>
     </row>
-    <row r="11" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="11" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B11" s="10" t="s">
         <v>35</v>
       </c>
@@ -2784,7 +2827,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="12" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B12" s="10" t="s">
         <v>36</v>
       </c>
@@ -2809,7 +2852,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="13" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A13" s="10"/>
       <c r="B13" s="10" t="s">
         <v>37</v>
@@ -2865,7 +2908,7 @@
       <c r="Q14" s="10"/>
       <c r="R14" s="11"/>
     </row>
-    <row r="15" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="15" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B15" s="10" t="s">
         <v>39</v>
       </c>
@@ -2890,7 +2933,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="16" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
         <v>40</v>
@@ -2943,7 +2986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="18" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A18" s="10"/>
       <c r="B18" s="10" t="s">
         <v>42</v>
@@ -2971,7 +3014,7 @@
       <c r="Q18" s="10"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="19" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B19" s="10" t="s">
         <v>43</v>
       </c>
@@ -2996,7 +3039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="20" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A20" s="10"/>
       <c r="B20" s="10" t="s">
         <v>44</v>
@@ -3024,7 +3067,7 @@
       <c r="Q20" s="10"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="21" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B21" s="10" t="s">
         <v>45</v>
       </c>
@@ -3049,7 +3092,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="22" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B22" s="10" t="s">
         <v>46</v>
       </c>
@@ -3074,7 +3117,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="23" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
         <v>47</v>
@@ -3102,7 +3145,7 @@
       <c r="Q23" s="10"/>
       <c r="R23" s="11"/>
     </row>
-    <row r="24" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="24" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
         <v>48</v>
@@ -3130,7 +3173,7 @@
       <c r="Q24" s="10"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="25" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
         <v>49</v>
@@ -3158,7 +3201,7 @@
       <c r="Q25" s="10"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="26" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
         <v>50</v>
@@ -3186,7 +3229,7 @@
       <c r="Q26" s="10"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="27" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B27" s="10" t="s">
         <v>51</v>
       </c>
@@ -3211,7 +3254,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="28" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B28" s="10" t="s">
         <v>52</v>
       </c>
@@ -3236,7 +3279,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="29" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
         <v>53</v>
@@ -3302,7 +3345,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="31" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B31" s="10" t="s">
         <v>60</v>
       </c>
@@ -3414,7 +3457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="35" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
         <v>70</v>
@@ -3442,7 +3485,7 @@
       <c r="Q35" s="10"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="36" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
         <v>71</v>
@@ -3470,7 +3513,7 @@
       <c r="Q36" s="10"/>
       <c r="R36" s="11"/>
     </row>
-    <row r="37" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="37" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
         <v>72</v>
@@ -3498,7 +3541,7 @@
       <c r="Q37" s="10"/>
       <c r="R37" s="11"/>
     </row>
-    <row r="38" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="38" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
         <v>73</v>
@@ -3526,7 +3569,7 @@
       <c r="Q38" s="10"/>
       <c r="R38" s="11"/>
     </row>
-    <row r="39" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="39" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
         <v>74</v>
@@ -3554,7 +3597,7 @@
       <c r="Q39" s="10"/>
       <c r="R39" s="11"/>
     </row>
-    <row r="40" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="40" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
         <v>75</v>
@@ -3582,7 +3625,7 @@
       <c r="Q40" s="10"/>
       <c r="R40" s="11"/>
     </row>
-    <row r="41" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="41" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
         <v>76</v>
@@ -3610,7 +3653,7 @@
       <c r="Q41" s="10"/>
       <c r="R41" s="11"/>
     </row>
-    <row r="42" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="42" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
         <v>77</v>
@@ -3638,7 +3681,7 @@
       <c r="Q42" s="10"/>
       <c r="R42" s="11"/>
     </row>
-    <row r="43" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="43" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
         <v>78</v>
@@ -3730,7 +3773,7 @@
       <c r="Q45" s="10"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="46" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A46" s="9"/>
       <c r="B46" s="10" t="s">
         <v>87</v>
@@ -3758,7 +3801,7 @@
       <c r="Q46" s="9"/>
       <c r="R46" s="9"/>
     </row>
-    <row r="47" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="47" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
         <v>88</v>
@@ -3786,7 +3829,7 @@
       <c r="Q47" s="9"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="48" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A48" s="23"/>
       <c r="B48" s="10" t="s">
         <v>89</v>
@@ -3814,7 +3857,7 @@
       <c r="Q48" s="9"/>
       <c r="R48" s="9"/>
     </row>
-    <row r="49" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="49" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B49" s="10" t="s">
         <v>90</v>
       </c>
@@ -3840,7 +3883,7 @@
       </c>
       <c r="Q49" s="10"/>
     </row>
-    <row r="50" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="50" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B50" s="10" t="s">
         <v>91</v>
       </c>
@@ -3866,7 +3909,7 @@
       </c>
       <c r="Q50" s="10"/>
     </row>
-    <row r="51" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="51" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B51" s="10" t="s">
         <v>92</v>
       </c>
@@ -3891,7 +3934,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="52" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B52" s="10" t="s">
         <v>93</v>
       </c>
@@ -3916,7 +3959,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="53" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
         <v>94</v>
@@ -3944,7 +3987,7 @@
       <c r="Q53" s="10"/>
       <c r="R53" s="11"/>
     </row>
-    <row r="54" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="54" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A54" s="9"/>
       <c r="B54" s="10" t="s">
         <v>95</v>
@@ -3996,7 +4039,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="56" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="56" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B56" s="10" t="s">
         <v>97</v>
       </c>
@@ -4088,7 +4131,7 @@
       </c>
       <c r="Q58" s="10"/>
     </row>
-    <row r="59" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="59" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B59" s="10" t="s">
         <v>107</v>
       </c>
@@ -4114,7 +4157,7 @@
       </c>
       <c r="Q59" s="10"/>
     </row>
-    <row r="60" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="60" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A60" s="10"/>
       <c r="B60" s="10" t="s">
         <v>108</v>
@@ -4141,7 +4184,7 @@
       </c>
       <c r="R60" s="11"/>
     </row>
-    <row r="61" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="61" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A61" s="9"/>
       <c r="B61" s="10" t="s">
         <v>109</v>
@@ -4195,7 +4238,7 @@
       </c>
       <c r="R62" s="9"/>
     </row>
-    <row r="63" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="63" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B63" s="10" t="s">
         <v>111</v>
       </c>
@@ -4220,7 +4263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="64" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B64" s="10" t="s">
         <v>112</v>
       </c>
@@ -4278,7 +4321,7 @@
       </c>
       <c r="Q65" s="18"/>
     </row>
-    <row r="66" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="66" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B66" s="10" t="s">
         <v>117</v>
       </c>
@@ -4303,7 +4346,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="67" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B67" s="10" t="s">
         <v>118</v>
       </c>
@@ -4329,7 +4372,7 @@
       </c>
       <c r="Q67" s="10"/>
     </row>
-    <row r="68" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="68" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A68" s="9"/>
       <c r="B68" s="10" t="s">
         <v>119</v>
@@ -4357,7 +4400,7 @@
       <c r="Q68" s="10"/>
       <c r="R68" s="9"/>
     </row>
-    <row r="69" spans="1:19" s="15" customFormat="1" ht="16" customHeight="1">
+    <row r="69" spans="1:19" s="15" customFormat="1" ht="15.95" customHeight="1">
       <c r="A69" s="13"/>
       <c r="B69" s="10" t="s">
         <v>120</v>
@@ -4386,7 +4429,7 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
     </row>
-    <row r="70" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="70" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A70" s="10"/>
       <c r="B70" s="10" t="s">
         <v>121</v>
@@ -4414,7 +4457,7 @@
       <c r="Q70" s="10"/>
       <c r="R70" s="11"/>
     </row>
-    <row r="71" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="71" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A71" s="10"/>
       <c r="B71" s="10" t="s">
         <v>122</v>
@@ -4442,7 +4485,7 @@
       <c r="Q71" s="10"/>
       <c r="R71" s="11"/>
     </row>
-    <row r="72" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="72" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A72" s="10"/>
       <c r="B72" s="10" t="s">
         <v>123</v>
@@ -4570,7 +4613,7 @@
       <c r="Q75" s="10"/>
       <c r="R75" s="11"/>
     </row>
-    <row r="76" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="76" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A76" s="10"/>
       <c r="B76" s="10" t="s">
         <v>133</v>
@@ -4624,7 +4667,7 @@
       </c>
       <c r="R77" s="11"/>
     </row>
-    <row r="78" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="78" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B78" s="10" t="s">
         <v>135</v>
       </c>
@@ -4649,7 +4692,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="79" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B79" s="10" t="s">
         <v>136</v>
       </c>
@@ -4675,7 +4718,7 @@
       </c>
       <c r="Q79" s="10"/>
     </row>
-    <row r="80" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="80" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B80" s="10" t="s">
         <v>137</v>
       </c>
@@ -4728,7 +4771,7 @@
       </c>
       <c r="R81" s="11"/>
     </row>
-    <row r="82" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="82" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B82" s="10" t="s">
         <v>139</v>
       </c>
@@ -4755,7 +4798,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="83" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A83" s="10"/>
       <c r="B83" s="10" t="s">
         <v>141</v>
@@ -4783,7 +4826,7 @@
       <c r="Q83" s="10"/>
       <c r="R83" s="11"/>
     </row>
-    <row r="84" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="84" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A84" s="10"/>
       <c r="B84" s="10" t="s">
         <v>142</v>
@@ -4811,7 +4854,7 @@
       <c r="Q84" s="10"/>
       <c r="R84" s="11"/>
     </row>
-    <row r="85" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="85" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B85" s="10" t="s">
         <v>143</v>
       </c>
@@ -4873,7 +4916,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="87" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="87" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A87" s="10"/>
       <c r="B87" s="13" t="s">
         <v>149</v>
@@ -4900,7 +4943,7 @@
       </c>
       <c r="R87" s="11"/>
     </row>
-    <row r="88" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="88" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B88" s="10" t="s">
         <v>150</v>
       </c>
@@ -4981,7 +5024,7 @@
       </c>
       <c r="R90" s="11"/>
     </row>
-    <row r="91" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="91" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B91" s="10" t="s">
         <v>155</v>
       </c>
@@ -5032,7 +5075,7 @@
       </c>
       <c r="Q92" s="10"/>
     </row>
-    <row r="93" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="93" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B93" s="10" t="s">
         <v>157</v>
       </c>
@@ -5058,7 +5101,7 @@
       </c>
       <c r="Q93" s="10"/>
     </row>
-    <row r="94" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="94" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B94" s="10" t="s">
         <v>158</v>
       </c>
@@ -5084,7 +5127,7 @@
       </c>
       <c r="Q94" s="10"/>
     </row>
-    <row r="95" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="95" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A95" s="10"/>
       <c r="B95" s="10" t="s">
         <v>159</v>
@@ -5113,7 +5156,7 @@
       </c>
       <c r="R95" s="11"/>
     </row>
-    <row r="96" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="96" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B96" s="10" t="s">
         <v>161</v>
       </c>
@@ -5138,7 +5181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="97" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="97" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B97" s="10" t="s">
         <v>162</v>
       </c>
@@ -5163,7 +5206,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="98" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="98" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B98" s="10" t="s">
         <v>163</v>
       </c>
@@ -5188,7 +5231,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="99" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="99" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B99" s="10" t="s">
         <v>164</v>
       </c>
@@ -5238,7 +5281,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="101" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A101" s="10"/>
       <c r="B101" s="10" t="s">
         <v>166</v>
@@ -5318,7 +5361,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="104" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="104" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A104" s="10"/>
       <c r="B104" s="10" t="s">
         <v>178</v>
@@ -5345,7 +5388,7 @@
       </c>
       <c r="R104" s="11"/>
     </row>
-    <row r="105" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="105" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A105" s="10"/>
       <c r="B105" s="10" t="s">
         <v>179</v>
@@ -5372,7 +5415,7 @@
       </c>
       <c r="R105" s="11"/>
     </row>
-    <row r="106" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="106" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
         <v>180</v>
@@ -5399,7 +5442,7 @@
       </c>
       <c r="R106" s="11"/>
     </row>
-    <row r="107" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="107" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B107" s="10" t="s">
         <v>181</v>
       </c>
@@ -5424,7 +5467,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="108" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="108" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B108" s="13" t="s">
         <v>182</v>
       </c>
@@ -5449,7 +5492,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="109" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="109" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B109" s="10" t="s">
         <v>183</v>
       </c>
@@ -5474,7 +5517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="110" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="110" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B110" s="13" t="s">
         <v>184</v>
       </c>
@@ -5499,7 +5542,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="111" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="111" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B111" s="13" t="s">
         <v>185</v>
       </c>
@@ -5579,7 +5622,7 @@
       <c r="R113" s="9"/>
       <c r="S113" s="9"/>
     </row>
-    <row r="114" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="114" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A114" s="9" t="s">
         <v>196</v>
       </c>
@@ -5738,7 +5781,7 @@
       <c r="R119" s="11"/>
       <c r="S119" s="10"/>
     </row>
-    <row r="120" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="120" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A120" s="9"/>
       <c r="B120" s="13" t="s">
         <v>216</v>
@@ -5800,7 +5843,7 @@
       </c>
       <c r="S122" s="10"/>
     </row>
-    <row r="123" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="123" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A123" s="9"/>
       <c r="B123" s="13" t="s">
         <v>221</v>
@@ -5815,7 +5858,7 @@
       <c r="R123" s="9"/>
       <c r="S123" s="10"/>
     </row>
-    <row r="124" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="124" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B124" s="13" t="s">
         <v>222</v>
       </c>
@@ -5827,7 +5870,7 @@
       </c>
       <c r="S124" s="10"/>
     </row>
-    <row r="125" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="125" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A125" s="9"/>
       <c r="B125" s="13" t="s">
         <v>223</v>
@@ -5842,7 +5885,7 @@
       <c r="R125" s="9"/>
       <c r="S125" s="10"/>
     </row>
-    <row r="126" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="126" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B126" s="13" t="s">
         <v>224</v>
       </c>
@@ -5854,7 +5897,7 @@
       </c>
       <c r="S126" s="10"/>
     </row>
-    <row r="127" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="127" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A127" s="9"/>
       <c r="B127" s="13" t="s">
         <v>225</v>
@@ -5869,7 +5912,7 @@
       <c r="R127" s="9"/>
       <c r="S127" s="10"/>
     </row>
-    <row r="128" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="128" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B128" s="13" t="s">
         <v>226</v>
       </c>
@@ -5881,7 +5924,7 @@
       </c>
       <c r="S128" s="10"/>
     </row>
-    <row r="129" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="129" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B129" s="13" t="s">
         <v>227</v>
       </c>
@@ -5905,7 +5948,7 @@
       </c>
       <c r="S130" s="10"/>
     </row>
-    <row r="131" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="131" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B131" s="13" t="s">
         <v>229</v>
       </c>
@@ -5917,7 +5960,7 @@
       </c>
       <c r="S131" s="10"/>
     </row>
-    <row r="132" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="132" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B132" s="13" t="s">
         <v>230</v>
       </c>
@@ -5929,7 +5972,7 @@
       </c>
       <c r="S132" s="10"/>
     </row>
-    <row r="133" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="133" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A133" s="10"/>
       <c r="B133" s="13" t="s">
         <v>231</v>
@@ -5944,7 +5987,7 @@
       <c r="R133" s="11"/>
       <c r="S133" s="10"/>
     </row>
-    <row r="134" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="134" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B134" s="13" t="s">
         <v>232</v>
       </c>
@@ -5956,7 +5999,7 @@
       </c>
       <c r="S134" s="10"/>
     </row>
-    <row r="135" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="135" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B135" s="13" t="s">
         <v>233</v>
       </c>
@@ -5968,7 +6011,7 @@
       </c>
       <c r="S135" s="10"/>
     </row>
-    <row r="136" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="136" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B136" s="13" t="s">
         <v>234</v>
       </c>
@@ -5980,7 +6023,7 @@
       </c>
       <c r="S136" s="10"/>
     </row>
-    <row r="137" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="137" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B137" s="13" t="s">
         <v>235</v>
       </c>
@@ -5992,7 +6035,7 @@
       </c>
       <c r="S137" s="10"/>
     </row>
-    <row r="138" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="138" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B138" s="13" t="s">
         <v>236</v>
       </c>
@@ -6004,7 +6047,7 @@
       </c>
       <c r="S138" s="10"/>
     </row>
-    <row r="139" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="139" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B139" s="13" t="s">
         <v>237</v>
       </c>
@@ -6016,7 +6059,7 @@
       </c>
       <c r="S139" s="10"/>
     </row>
-    <row r="140" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="140" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A140" s="10"/>
       <c r="B140" s="13" t="s">
         <v>238</v>
@@ -6031,7 +6074,7 @@
       <c r="R140" s="11"/>
       <c r="S140" s="10"/>
     </row>
-    <row r="141" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="141" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B141" s="13" t="s">
         <v>239</v>
       </c>
@@ -6043,7 +6086,7 @@
       </c>
       <c r="S141" s="10"/>
     </row>
-    <row r="142" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="142" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B142" s="13" t="s">
         <v>240</v>
       </c>
@@ -6055,7 +6098,7 @@
       </c>
       <c r="S142" s="10"/>
     </row>
-    <row r="143" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="143" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B143" s="13" t="s">
         <v>241</v>
       </c>
@@ -6067,7 +6110,7 @@
       </c>
       <c r="S143" s="10"/>
     </row>
-    <row r="144" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="144" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B144" s="13" t="s">
         <v>242</v>
       </c>
@@ -6079,7 +6122,7 @@
       </c>
       <c r="S144" s="10"/>
     </row>
-    <row r="145" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="145" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B145" s="13" t="s">
         <v>243</v>
       </c>
@@ -6091,7 +6134,7 @@
       </c>
       <c r="S145" s="10"/>
     </row>
-    <row r="146" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="146" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B146" s="13" t="s">
         <v>244</v>
       </c>
@@ -6103,7 +6146,7 @@
       </c>
       <c r="S146" s="10"/>
     </row>
-    <row r="147" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="147" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B147" s="13" t="s">
         <v>245</v>
       </c>
@@ -6115,7 +6158,7 @@
       </c>
       <c r="S147" s="10"/>
     </row>
-    <row r="148" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="148" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B148" s="13" t="s">
         <v>246</v>
       </c>
@@ -6127,7 +6170,7 @@
       </c>
       <c r="S148" s="10"/>
     </row>
-    <row r="149" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="149" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B149" s="13" t="s">
         <v>247</v>
       </c>
@@ -6139,7 +6182,7 @@
       </c>
       <c r="S149" s="10"/>
     </row>
-    <row r="150" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="150" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A150" t="s">
         <v>248</v>
       </c>
@@ -6170,7 +6213,7 @@
       <c r="P150" s="9"/>
       <c r="S150" s="10"/>
     </row>
-    <row r="151" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="151" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A151" s="10"/>
       <c r="B151" s="13" t="s">
         <v>253</v>
@@ -6185,7 +6228,7 @@
       <c r="R151" s="11"/>
       <c r="S151" s="10"/>
     </row>
-    <row r="152" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="152" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B152" s="13" t="s">
         <v>254</v>
       </c>
@@ -6228,7 +6271,7 @@
       <c r="P153" s="9"/>
       <c r="S153" s="10"/>
     </row>
-    <row r="154" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="154" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B154" s="13" t="s">
         <v>259</v>
       </c>
@@ -6270,7 +6313,7 @@
       </c>
       <c r="S155" s="10"/>
     </row>
-    <row r="156" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="156" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A156" s="9"/>
       <c r="B156" s="13" t="s">
         <v>265</v>
@@ -6345,7 +6388,7 @@
       <c r="R159" s="9"/>
       <c r="S159" s="10"/>
     </row>
-    <row r="160" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="160" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B160" s="13" t="s">
         <v>273</v>
       </c>
@@ -6381,7 +6424,7 @@
       </c>
       <c r="S161" s="10"/>
     </row>
-    <row r="162" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="162" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B162" s="13" t="s">
         <v>277</v>
       </c>
@@ -6393,7 +6436,7 @@
       </c>
       <c r="S162" s="10"/>
     </row>
-    <row r="163" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="163" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B163" s="13" t="s">
         <v>278</v>
       </c>
@@ -6417,7 +6460,7 @@
       </c>
       <c r="S164" s="10"/>
     </row>
-    <row r="165" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="165" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B165" s="13" t="s">
         <v>280</v>
       </c>
@@ -6462,7 +6505,7 @@
       <c r="P166" s="9"/>
       <c r="S166" s="10"/>
     </row>
-    <row r="167" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="167" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B167" s="13" t="s">
         <v>286</v>
       </c>
@@ -6498,7 +6541,7 @@
       </c>
       <c r="S169" s="10"/>
     </row>
-    <row r="170" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="170" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B170" s="13" t="s">
         <v>289</v>
       </c>
@@ -6510,7 +6553,7 @@
       </c>
       <c r="S170" s="10"/>
     </row>
-    <row r="171" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="171" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A171" s="9"/>
       <c r="B171" s="13" t="s">
         <v>290</v>
@@ -6537,7 +6580,7 @@
       </c>
       <c r="S172" s="10"/>
     </row>
-    <row r="173" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="173" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B173" s="13" t="s">
         <v>292</v>
       </c>
@@ -6549,7 +6592,7 @@
       </c>
       <c r="S173" s="10"/>
     </row>
-    <row r="174" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="174" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B174" s="13" t="s">
         <v>293</v>
       </c>
@@ -6585,7 +6628,7 @@
       </c>
       <c r="S175" s="10"/>
     </row>
-    <row r="176" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="176" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B176" s="10" t="s">
         <v>298</v>
       </c>
@@ -6598,7 +6641,7 @@
       <c r="Q176" s="10"/>
       <c r="S176" s="10"/>
     </row>
-    <row r="177" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="177" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A177" s="10" t="s">
         <v>98</v>
       </c>
@@ -6646,7 +6689,7 @@
       <c r="P178" s="9"/>
       <c r="S178" s="10"/>
     </row>
-    <row r="179" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="179" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B179" s="13" t="s">
         <v>303</v>
       </c>
@@ -6658,7 +6701,7 @@
       </c>
       <c r="S179" s="10"/>
     </row>
-    <row r="180" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="180" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B180" s="13" t="s">
         <v>304</v>
       </c>
@@ -6701,7 +6744,7 @@
       <c r="O181" s="9"/>
       <c r="P181" s="9"/>
     </row>
-    <row r="182" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="182" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B182" s="13" t="s">
         <v>309</v>
       </c>
@@ -6712,7 +6755,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="183" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="183" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B183" s="13" t="s">
         <v>310</v>
       </c>
@@ -6723,7 +6766,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="184" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="184" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A184" s="9"/>
       <c r="B184" s="13" t="s">
         <v>311</v>
@@ -6794,7 +6837,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="187" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="187" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B187" s="13" t="s">
         <v>320</v>
       </c>
@@ -6834,7 +6877,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="189" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="189" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A189" s="10"/>
       <c r="B189" s="13" t="s">
         <v>324</v>
@@ -6848,7 +6891,7 @@
       <c r="Q189" s="10"/>
       <c r="R189" s="11"/>
     </row>
-    <row r="190" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="190" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A190" s="10"/>
       <c r="B190" s="13" t="s">
         <v>325</v>
@@ -6934,7 +6977,7 @@
       <c r="Q193" s="10"/>
       <c r="R193" s="11"/>
     </row>
-    <row r="194" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="194" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B194" s="13" t="s">
         <v>333</v>
       </c>
@@ -6945,7 +6988,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="195" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="195" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B195" s="13" t="s">
         <v>334</v>
       </c>
@@ -7016,7 +7059,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="198" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="198" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B198" s="13" t="s">
         <v>341</v>
       </c>
@@ -7027,7 +7070,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="199" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="199" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A199" s="10"/>
       <c r="B199" s="13" t="s">
         <v>342</v>
@@ -7041,7 +7084,7 @@
       <c r="Q199" s="10"/>
       <c r="R199" s="11"/>
     </row>
-    <row r="200" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="200" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A200" s="10"/>
       <c r="B200" s="13" t="s">
         <v>343</v>
@@ -7106,7 +7149,7 @@
       <c r="Q202" s="10"/>
       <c r="R202" s="11"/>
     </row>
-    <row r="203" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="203" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B203" s="13" t="s">
         <v>350</v>
       </c>
@@ -7117,7 +7160,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="204" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="204" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B204" s="13" t="s">
         <v>351</v>
       </c>
@@ -7128,7 +7171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="205" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="205" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A205" s="10"/>
       <c r="B205" s="13" t="s">
         <v>352</v>
@@ -7142,7 +7185,7 @@
       <c r="Q205" s="10"/>
       <c r="R205" s="11"/>
     </row>
-    <row r="206" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="206" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A206" s="10"/>
       <c r="B206" s="13" t="s">
         <v>353</v>
@@ -7156,7 +7199,7 @@
       <c r="Q206" s="10"/>
       <c r="R206" s="11"/>
     </row>
-    <row r="207" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="207" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A207" s="9"/>
       <c r="B207" s="13" t="s">
         <v>61</v>
@@ -7205,148 +7248,152 @@
       <c r="Q208" s="10"/>
       <c r="R208" s="11"/>
     </row>
-    <row r="209" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A209" s="10"/>
-      <c r="B209" s="13" t="s">
+    <row r="209" spans="1:18" s="27" customFormat="1" ht="30">
+      <c r="B209" s="27" t="s">
+        <v>617</v>
+      </c>
+      <c r="C209" s="28" t="s">
+        <v>618</v>
+      </c>
+      <c r="I209" s="27" t="s">
+        <v>619</v>
+      </c>
+      <c r="O209" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="P209" s="27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="210" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A210" s="10"/>
+      <c r="B210" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="F209" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P209" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q209" s="10"/>
-      <c r="R209" s="11"/>
-    </row>
-    <row r="210" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A210" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B210" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="C210" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="D210" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="E210" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F210" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G210" s="9"/>
-      <c r="H210" s="9"/>
-      <c r="I210" s="9"/>
-      <c r="J210" s="9"/>
-      <c r="K210" s="9"/>
-      <c r="L210" s="9"/>
-      <c r="M210" s="9"/>
-      <c r="N210" s="9"/>
-      <c r="O210" s="9"/>
-      <c r="P210" s="9"/>
+      <c r="F210" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P210" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="Q210" s="10"/>
       <c r="R210" s="11"/>
     </row>
-    <row r="211" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A211" s="10"/>
-      <c r="B211" s="13" t="s">
+    <row r="211" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A211" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="B211" s="9" t="s">
+        <v>360</v>
+      </c>
+      <c r="C211" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="D211" s="9" t="s">
+        <v>362</v>
+      </c>
+      <c r="E211" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G211" s="9"/>
+      <c r="H211" s="9"/>
+      <c r="I211" s="9"/>
+      <c r="J211" s="9"/>
+      <c r="K211" s="9"/>
+      <c r="L211" s="9"/>
+      <c r="M211" s="9"/>
+      <c r="N211" s="9"/>
+      <c r="O211" s="9"/>
+      <c r="P211" s="9"/>
+      <c r="Q211" s="10"/>
+      <c r="R211" s="11"/>
+    </row>
+    <row r="212" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A212" s="10"/>
+      <c r="B212" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="F211" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P211" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R211" s="11"/>
-    </row>
-    <row r="212" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A212" s="9"/>
-      <c r="B212" s="13" t="s">
-        <v>364</v>
-      </c>
       <c r="F212" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P212" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R212" s="9"/>
+      <c r="R212" s="11"/>
     </row>
     <row r="213" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A213" s="9"/>
       <c r="B213" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="F213" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P213" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R213" s="9"/>
+    </row>
+    <row r="214" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A214" s="9"/>
+      <c r="B214" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="F213" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P213" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q213" s="10"/>
-      <c r="R213" s="9"/>
-    </row>
-    <row r="214" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A214" s="10"/>
-      <c r="B214" s="13" t="s">
-        <v>366</v>
-      </c>
       <c r="F214" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P214" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R214" s="11"/>
-    </row>
-    <row r="215" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q214" s="10"/>
+      <c r="R214" s="9"/>
+    </row>
+    <row r="215" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A215" s="10"/>
       <c r="B215" s="13" t="s">
+        <v>366</v>
+      </c>
+      <c r="F215" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P215" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R215" s="11"/>
+    </row>
+    <row r="216" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A216" s="10"/>
+      <c r="B216" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="F215" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P215" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q215" s="10"/>
-      <c r="R215" s="11"/>
-    </row>
-    <row r="216" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B216" s="13" t="s">
+      <c r="F216" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P216" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="11"/>
+    </row>
+    <row r="217" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B217" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="F216" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P216" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q216" s="10"/>
-    </row>
-    <row r="217" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A217" s="10"/>
-      <c r="B217" s="13" t="s">
-        <v>369</v>
-      </c>
       <c r="F217" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P217" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R217" s="11"/>
-    </row>
-    <row r="218" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q217" s="10"/>
+    </row>
+    <row r="218" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A218" s="10"/>
       <c r="B218" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="F218" s="13" t="s">
         <v>23</v>
@@ -7356,376 +7403,368 @@
       </c>
       <c r="R218" s="11"/>
     </row>
-    <row r="219" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+    <row r="219" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A219" s="10"/>
       <c r="B219" s="13" t="s">
+        <v>370</v>
+      </c>
+      <c r="F219" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P219" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R219" s="11"/>
+    </row>
+    <row r="220" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A220" s="10"/>
+      <c r="B220" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="F219" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P219" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R219" s="11"/>
-    </row>
-    <row r="220" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B220" s="13" t="s">
+      <c r="F220" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P220" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R220" s="11"/>
+    </row>
+    <row r="221" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B221" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="F220" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P220" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q220" s="10"/>
-    </row>
-    <row r="221" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B221" s="13" t="s">
+      <c r="F221" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P221" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q221" s="10"/>
+    </row>
+    <row r="222" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B222" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="F221" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P221" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="222" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A222" s="10"/>
-      <c r="B222" s="9" t="s">
+      <c r="F222" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P222" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="223" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A223" s="10"/>
+      <c r="B223" s="9" t="s">
         <v>374</v>
       </c>
-      <c r="C222" s="9"/>
-      <c r="D222" s="9"/>
-      <c r="E222" s="9"/>
-      <c r="F222" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G222" s="9"/>
-      <c r="H222" s="9"/>
-      <c r="I222" s="9"/>
-      <c r="J222" s="9"/>
-      <c r="K222" s="9"/>
-      <c r="L222" s="9"/>
-      <c r="M222" s="9"/>
-      <c r="N222" s="9"/>
-      <c r="O222" s="9"/>
-      <c r="P222" s="9"/>
-      <c r="R222" s="11"/>
-    </row>
-    <row r="223" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A223" t="s">
+      <c r="C223" s="9"/>
+      <c r="D223" s="9"/>
+      <c r="E223" s="9"/>
+      <c r="F223" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G223" s="9"/>
+      <c r="H223" s="9"/>
+      <c r="I223" s="9"/>
+      <c r="J223" s="9"/>
+      <c r="K223" s="9"/>
+      <c r="L223" s="9"/>
+      <c r="M223" s="9"/>
+      <c r="N223" s="9"/>
+      <c r="O223" s="9"/>
+      <c r="P223" s="9"/>
+      <c r="R223" s="11"/>
+    </row>
+    <row r="224" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A224" t="s">
         <v>375</v>
       </c>
-      <c r="B223" s="12" t="s">
+      <c r="B224" s="12" t="s">
         <v>376</v>
       </c>
-      <c r="C223" s="12" t="s">
+      <c r="C224" s="12" t="s">
         <v>377</v>
       </c>
-      <c r="D223" s="13" t="s">
+      <c r="D224" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E223" s="13" t="s">
+      <c r="E224" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F223" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G223" s="12" t="s">
+      <c r="F224" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G224" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="O223" s="13" t="s">
+      <c r="O224" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="P223" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="224" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B224" s="13" t="s">
+      <c r="P224" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="225" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B225" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="F224" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P224" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="225" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B225" s="13" t="s">
+      <c r="F225" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P225" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="226" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B226" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="F225" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P225" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="226" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B226" s="13" t="s">
+      <c r="F226" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P226" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="227" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B227" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="F226" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P226" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q226" s="10"/>
-    </row>
-    <row r="227" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B227" s="13" t="s">
+      <c r="F227" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P227" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q227" s="10"/>
+    </row>
+    <row r="228" spans="1:26" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B228" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="F227" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P227" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q227" s="9"/>
-    </row>
-    <row r="228" spans="1:22" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A228" t="s">
+      <c r="F228" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P228" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q228" s="9"/>
+    </row>
+    <row r="229" spans="1:26" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A229" t="s">
         <v>382</v>
       </c>
-      <c r="B228" s="9" t="s">
+      <c r="B229" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="C228" s="9" t="s">
+      <c r="C229" s="9" t="s">
         <v>383</v>
       </c>
-      <c r="D228" s="9" t="s">
+      <c r="D229" s="9" t="s">
         <v>170</v>
       </c>
-      <c r="E228" s="9" t="s">
+      <c r="E229" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F228" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G228" s="14"/>
-      <c r="H228" s="9"/>
-      <c r="I228" s="9"/>
-      <c r="J228" s="9"/>
-      <c r="K228" s="9"/>
-      <c r="L228" s="9"/>
-      <c r="M228" s="9"/>
-      <c r="N228" s="9"/>
-      <c r="O228" s="9"/>
-      <c r="P228" s="9"/>
-    </row>
-    <row r="229" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A229" s="10"/>
-      <c r="B229" s="13" t="s">
+      <c r="F229" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G229" s="14"/>
+      <c r="H229" s="9"/>
+      <c r="I229" s="9"/>
+      <c r="J229" s="9"/>
+      <c r="K229" s="9"/>
+      <c r="L229" s="9"/>
+      <c r="M229" s="9"/>
+      <c r="N229" s="9"/>
+      <c r="O229" s="9"/>
+      <c r="P229" s="9"/>
+    </row>
+    <row r="230" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A230" s="10"/>
+      <c r="B230" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="F229" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I229" s="13" t="s">
+      <c r="F230" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I230" s="13" t="s">
         <v>385</v>
       </c>
-      <c r="P229" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R229" s="11"/>
-    </row>
-    <row r="230" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B230" s="13" t="s">
+      <c r="P230" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R230" s="11"/>
+    </row>
+    <row r="231" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B231" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="F230" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P230" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="231" spans="1:22" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A231" t="s">
+      <c r="F231" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P231" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="232" spans="1:26" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A232" t="s">
         <v>598</v>
       </c>
-      <c r="B231" s="24" t="s">
+      <c r="B232" s="24" t="s">
         <v>600</v>
       </c>
-      <c r="C231" s="24" t="s">
+      <c r="C232" s="24" t="s">
         <v>602</v>
       </c>
-      <c r="D231" s="24" t="s">
+      <c r="D232" s="24" t="s">
         <v>616</v>
       </c>
-      <c r="E231" s="24" t="s">
+      <c r="E232" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F231" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I231" s="24" t="s">
+      <c r="F232" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I232" s="24" t="s">
         <v>601</v>
       </c>
-      <c r="N231" s="24" t="s">
+      <c r="N232" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="O231" s="25"/>
-      <c r="P231" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V231" s="25"/>
-    </row>
-    <row r="232" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A232" s="9"/>
-      <c r="B232" s="13" t="s">
+      <c r="O232" s="25"/>
+      <c r="P232" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V232" s="25"/>
+    </row>
+    <row r="233" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A233" s="9"/>
+      <c r="B233" s="13" t="s">
         <v>387</v>
       </c>
-      <c r="F232" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P232" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q232" s="10"/>
-      <c r="R232" s="9"/>
-    </row>
-    <row r="233" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A233" s="10"/>
-      <c r="B233" s="13" t="s">
-        <v>388</v>
-      </c>
       <c r="F233" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P233" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R233" s="11"/>
-    </row>
-    <row r="234" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="Q233" s="10"/>
+      <c r="R233" s="9"/>
+    </row>
+    <row r="234" spans="1:26" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A234" s="10"/>
       <c r="B234" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="F234" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P234" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R234" s="11"/>
+    </row>
+    <row r="235" spans="1:26" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A235" s="10"/>
+      <c r="B235" s="13" t="s">
         <v>389</v>
       </c>
-      <c r="F234" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P234" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q234" s="10"/>
-      <c r="R234" s="11"/>
-    </row>
-    <row r="235" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B235" s="13" t="s">
+      <c r="F235" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P235" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q235" s="10"/>
+      <c r="R235" s="11"/>
+    </row>
+    <row r="236" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B236" s="13" t="s">
         <v>390</v>
       </c>
-      <c r="F235" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P235" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q235" s="10"/>
-    </row>
-    <row r="236" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B236" s="13" t="s">
+      <c r="F236" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P236" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q236" s="10"/>
+    </row>
+    <row r="237" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B237" s="13" t="s">
         <v>391</v>
       </c>
-      <c r="F236" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P236" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q236" s="10"/>
-    </row>
-    <row r="237" spans="1:22" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A237" s="10"/>
-      <c r="B237" s="13" t="s">
+      <c r="F237" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P237" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q237" s="10"/>
+    </row>
+    <row r="238" spans="1:26" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A238" s="10"/>
+      <c r="B238" s="13" t="s">
         <v>392</v>
       </c>
-      <c r="F237" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P237" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R237" s="11"/>
-    </row>
-    <row r="238" spans="1:22" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A238" s="10" t="s">
+      <c r="F238" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P238" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R238" s="11"/>
+    </row>
+    <row r="239" spans="1:26" s="27" customFormat="1" ht="45">
+      <c r="B239" s="27" t="s">
+        <v>622</v>
+      </c>
+      <c r="C239" s="27" t="s">
+        <v>621</v>
+      </c>
+      <c r="D239" s="27" t="s">
+        <v>496</v>
+      </c>
+      <c r="N239" s="27" t="s">
+        <v>316</v>
+      </c>
+      <c r="O239" s="27" t="s">
+        <v>620</v>
+      </c>
+      <c r="P239" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q239" s="30"/>
+      <c r="Y239" s="30"/>
+      <c r="Z239" s="29"/>
+    </row>
+    <row r="240" spans="1:26" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A240" s="10" t="s">
         <v>393</v>
       </c>
-      <c r="B238" s="9" t="s">
+      <c r="B240" s="9" t="s">
         <v>394</v>
       </c>
-      <c r="C238" s="9" t="s">
+      <c r="C240" s="9" t="s">
         <v>395</v>
       </c>
-      <c r="D238" s="9" t="s">
+      <c r="D240" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="E238" s="9" t="s">
+      <c r="E240" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F238" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G238" s="9"/>
-      <c r="H238" s="9" t="s">
+      <c r="F240" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G240" s="9"/>
+      <c r="H240" s="9" t="s">
         <v>396</v>
       </c>
-      <c r="I238" s="9" t="s">
+      <c r="I240" s="9" t="s">
         <v>397</v>
       </c>
-      <c r="J238" s="9"/>
-      <c r="K238" s="9"/>
-      <c r="L238" s="9"/>
-      <c r="M238" s="9"/>
-      <c r="N238" s="9"/>
-      <c r="O238" s="9"/>
-      <c r="P238" s="9"/>
-      <c r="R238" s="11"/>
-    </row>
-    <row r="239" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B239" s="9" t="s">
-        <v>398</v>
-      </c>
-      <c r="C239" s="9"/>
-      <c r="D239" s="9"/>
-      <c r="E239" s="9"/>
-      <c r="F239" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G239" s="9"/>
-      <c r="H239" s="9"/>
-      <c r="I239" s="9"/>
-      <c r="J239" s="9"/>
-      <c r="K239" s="9"/>
-      <c r="L239" s="9"/>
-      <c r="M239" s="9"/>
-      <c r="N239" s="9"/>
-      <c r="O239" s="9"/>
-      <c r="P239" s="9"/>
-    </row>
-    <row r="240" spans="1:22" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A240" s="10"/>
-      <c r="B240" s="9" t="s">
-        <v>399</v>
-      </c>
-      <c r="C240" s="9"/>
-      <c r="D240" s="9"/>
-      <c r="E240" s="9"/>
-      <c r="F240" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G240" s="9"/>
-      <c r="H240" s="9"/>
-      <c r="I240" s="9"/>
       <c r="J240" s="9"/>
       <c r="K240" s="9"/>
       <c r="L240" s="9"/>
@@ -7735,22 +7774,13 @@
       <c r="P240" s="9"/>
       <c r="R240" s="11"/>
     </row>
-    <row r="241" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A241" t="s">
-        <v>400</v>
-      </c>
+    <row r="241" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B241" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="C241" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D241" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="E241" s="9" t="s">
-        <v>102</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="C241" s="9"/>
+      <c r="D241" s="9"/>
+      <c r="E241" s="9"/>
       <c r="F241" s="9" t="s">
         <v>23</v>
       </c>
@@ -7765,217 +7795,242 @@
       <c r="O241" s="9"/>
       <c r="P241" s="9"/>
     </row>
-    <row r="242" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B242" s="13" t="s">
+    <row r="242" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A242" s="10"/>
+      <c r="B242" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="C242" s="9"/>
+      <c r="D242" s="9"/>
+      <c r="E242" s="9"/>
+      <c r="F242" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G242" s="9"/>
+      <c r="H242" s="9"/>
+      <c r="I242" s="9"/>
+      <c r="J242" s="9"/>
+      <c r="K242" s="9"/>
+      <c r="L242" s="9"/>
+      <c r="M242" s="9"/>
+      <c r="N242" s="9"/>
+      <c r="O242" s="9"/>
+      <c r="P242" s="9"/>
+      <c r="R242" s="11"/>
+    </row>
+    <row r="243" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A243" t="s">
+        <v>400</v>
+      </c>
+      <c r="B243" s="9" t="s">
+        <v>401</v>
+      </c>
+      <c r="C243" s="9" t="s">
+        <v>402</v>
+      </c>
+      <c r="D243" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="E243" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F243" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G243" s="9"/>
+      <c r="H243" s="9"/>
+      <c r="I243" s="9"/>
+      <c r="J243" s="9"/>
+      <c r="K243" s="9"/>
+      <c r="L243" s="9"/>
+      <c r="M243" s="9"/>
+      <c r="N243" s="9"/>
+      <c r="O243" s="9"/>
+      <c r="P243" s="9"/>
+    </row>
+    <row r="244" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B244" s="13" t="s">
         <v>403</v>
       </c>
-      <c r="F242" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P242" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="243" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B243" s="13" t="s">
+      <c r="F244" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P244" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="245" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B245" s="13" t="s">
         <v>404</v>
       </c>
-      <c r="F243" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I243" s="13" t="s">
+      <c r="F245" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I245" s="13" t="s">
         <v>405</v>
       </c>
-      <c r="P243" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="244" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B244" s="13" t="s">
+      <c r="P245" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="246" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B246" s="13" t="s">
         <v>406</v>
       </c>
-      <c r="F244" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P244" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q244" s="9"/>
-    </row>
-    <row r="245" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B245" s="13" t="s">
+      <c r="F246" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P246" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q246" s="9"/>
+    </row>
+    <row r="247" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B247" s="13" t="s">
         <v>407</v>
       </c>
-      <c r="F245" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P245" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q245" s="9"/>
-    </row>
-    <row r="246" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B246" s="13" t="s">
+      <c r="F247" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P247" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q247" s="9"/>
+    </row>
+    <row r="248" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B248" s="13" t="s">
         <v>408</v>
       </c>
-      <c r="F246" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P246" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q246" s="9"/>
-    </row>
-    <row r="247" spans="1:24" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A247" t="s">
+      <c r="F248" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P248" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q248" s="9"/>
+    </row>
+    <row r="249" spans="1:24" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A249" t="s">
         <v>610</v>
       </c>
-      <c r="B247" s="24" t="s">
+      <c r="B249" s="24" t="s">
         <v>609</v>
       </c>
-      <c r="C247" s="24" t="s">
+      <c r="C249" s="24" t="s">
         <v>608</v>
       </c>
-      <c r="D247" s="24" t="s">
+      <c r="D249" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="E247" s="24" t="s">
+      <c r="E249" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F247" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="N247" s="24" t="s">
+      <c r="F249" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N249" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="O247" s="24" t="s">
+      <c r="O249" s="24" t="s">
         <v>607</v>
       </c>
-      <c r="P247" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W247" s="25"/>
-    </row>
-    <row r="248" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A248" s="9"/>
-      <c r="B248" s="9" t="s">
+      <c r="P249" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W249" s="25"/>
+    </row>
+    <row r="250" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A250" s="9"/>
+      <c r="B250" s="9" t="s">
         <v>409</v>
       </c>
-      <c r="C248" s="9"/>
-      <c r="D248" s="9"/>
-      <c r="E248" s="9"/>
-      <c r="F248" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G248" s="9"/>
-      <c r="H248" s="9"/>
-      <c r="I248" s="9"/>
-      <c r="J248" s="9"/>
-      <c r="K248" s="9"/>
-      <c r="L248" s="9"/>
-      <c r="M248" s="9"/>
-      <c r="N248" s="9"/>
-      <c r="O248" s="9"/>
-      <c r="P248" s="9"/>
-      <c r="Q248" s="9"/>
-      <c r="R248" s="9"/>
-    </row>
-    <row r="249" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A249" s="9" t="s">
+      <c r="C250" s="9"/>
+      <c r="D250" s="9"/>
+      <c r="E250" s="9"/>
+      <c r="F250" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G250" s="9"/>
+      <c r="H250" s="9"/>
+      <c r="I250" s="9"/>
+      <c r="J250" s="9"/>
+      <c r="K250" s="9"/>
+      <c r="L250" s="9"/>
+      <c r="M250" s="9"/>
+      <c r="N250" s="9"/>
+      <c r="O250" s="9"/>
+      <c r="P250" s="9"/>
+      <c r="Q250" s="9"/>
+      <c r="R250" s="9"/>
+    </row>
+    <row r="251" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A251" s="9" t="s">
         <v>410</v>
       </c>
-      <c r="B249" s="12" t="s">
+      <c r="B251" s="12" t="s">
         <v>411</v>
       </c>
-      <c r="C249" s="12" t="s">
+      <c r="C251" s="12" t="s">
         <v>412</v>
       </c>
-      <c r="D249" s="13" t="s">
+      <c r="D251" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E249" s="13" t="s">
+      <c r="E251" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F249" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G249" s="12" t="s">
+      <c r="F251" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G251" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="O249" s="13" t="s">
+      <c r="O251" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="P249" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R249" s="9"/>
-    </row>
-    <row r="250" spans="1:24" s="24" customFormat="1" ht="45" customHeight="1">
-      <c r="A250" t="s">
+      <c r="P251" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R251" s="9"/>
+    </row>
+    <row r="252" spans="1:24" s="24" customFormat="1" ht="45" customHeight="1">
+      <c r="A252" t="s">
         <v>613</v>
       </c>
-      <c r="B250" s="24" t="s">
+      <c r="B252" s="24" t="s">
         <v>612</v>
       </c>
-      <c r="C250" s="24" t="s">
+      <c r="C252" s="24" t="s">
         <v>614</v>
       </c>
-      <c r="D250" s="24" t="s">
+      <c r="D252" s="24" t="s">
         <v>615</v>
       </c>
-      <c r="E250" s="24" t="s">
+      <c r="E252" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="F250" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I250" s="24" t="s">
+      <c r="F252" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I252" s="24" t="s">
         <v>611</v>
       </c>
-      <c r="N250" s="24" t="s">
+      <c r="N252" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="O250" s="25" t="s">
+      <c r="O252" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="P250" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="V250" s="25"/>
-      <c r="X250" s="25"/>
-    </row>
-    <row r="251" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A251" s="10"/>
-      <c r="B251" s="13" t="s">
-        <v>413</v>
-      </c>
-      <c r="F251" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P251" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q251" s="10"/>
-      <c r="R251" s="11"/>
-    </row>
-    <row r="252" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A252" s="10"/>
-      <c r="B252" s="13" t="s">
-        <v>414</v>
-      </c>
-      <c r="F252" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P252" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q252" s="10"/>
-      <c r="R252" s="11"/>
-    </row>
-    <row r="253" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="P252" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="V252" s="25"/>
+      <c r="X252" s="25"/>
+    </row>
+    <row r="253" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A253" s="10"/>
       <c r="B253" s="13" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="F253" s="13" t="s">
         <v>23</v>
@@ -7986,10 +8041,10 @@
       <c r="Q253" s="10"/>
       <c r="R253" s="11"/>
     </row>
-    <row r="254" spans="1:24" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="254" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A254" s="10"/>
       <c r="B254" s="13" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="F254" s="13" t="s">
         <v>23</v>
@@ -8000,18 +8055,10 @@
       <c r="Q254" s="10"/>
       <c r="R254" s="11"/>
     </row>
-    <row r="255" spans="1:24" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A255" s="10" t="s">
-        <v>417</v>
-      </c>
+    <row r="255" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A255" s="10"/>
       <c r="B255" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="C255" s="13" t="s">
-        <v>419</v>
-      </c>
-      <c r="D255" s="13" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="F255" s="13" t="s">
         <v>23</v>
@@ -8022,44 +8069,32 @@
       <c r="Q255" s="10"/>
       <c r="R255" s="11"/>
     </row>
-    <row r="256" spans="1:24" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A256" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="B256" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="C256" s="9" t="s">
-        <v>422</v>
-      </c>
-      <c r="D256" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="E256" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="F256" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G256" s="9"/>
-      <c r="H256" s="9"/>
-      <c r="I256" s="9" t="s">
-        <v>302</v>
-      </c>
-      <c r="J256" s="9"/>
-      <c r="K256" s="9"/>
-      <c r="L256" s="9"/>
-      <c r="M256" s="9"/>
-      <c r="N256" s="9"/>
-      <c r="O256" s="9"/>
-      <c r="P256" s="9"/>
+    <row r="256" spans="1:24" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A256" s="10"/>
+      <c r="B256" s="13" t="s">
+        <v>416</v>
+      </c>
+      <c r="F256" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P256" s="13" t="s">
+        <v>24</v>
+      </c>
       <c r="Q256" s="10"/>
       <c r="R256" s="11"/>
     </row>
     <row r="257" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A257" s="10"/>
+      <c r="A257" s="10" t="s">
+        <v>417</v>
+      </c>
       <c r="B257" s="13" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+      <c r="C257" s="13" t="s">
+        <v>419</v>
+      </c>
+      <c r="D257" s="13" t="s">
+        <v>420</v>
       </c>
       <c r="F257" s="13" t="s">
         <v>23</v>
@@ -8072,39 +8107,42 @@
     </row>
     <row r="258" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
       <c r="A258" s="10" t="s">
-        <v>424</v>
-      </c>
-      <c r="B258" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="C258" s="12" t="s">
-        <v>425</v>
-      </c>
-      <c r="D258" s="13" t="s">
-        <v>263</v>
-      </c>
-      <c r="E258" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F258" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G258" s="13" t="s">
-        <v>271</v>
-      </c>
-      <c r="O258" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="P258" s="13" t="s">
-        <v>24</v>
-      </c>
+        <v>421</v>
+      </c>
+      <c r="B258" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C258" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="D258" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="E258" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F258" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G258" s="9"/>
+      <c r="H258" s="9"/>
+      <c r="I258" s="9" t="s">
+        <v>302</v>
+      </c>
+      <c r="J258" s="9"/>
+      <c r="K258" s="9"/>
+      <c r="L258" s="9"/>
+      <c r="M258" s="9"/>
+      <c r="N258" s="9"/>
+      <c r="O258" s="9"/>
+      <c r="P258" s="9"/>
       <c r="Q258" s="10"/>
       <c r="R258" s="11"/>
     </row>
     <row r="259" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A259" s="10"/>
       <c r="B259" s="13" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F259" s="13" t="s">
         <v>23</v>
@@ -8112,18 +8150,18 @@
       <c r="P259" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q259" s="9"/>
+      <c r="Q259" s="10"/>
       <c r="R259" s="11"/>
     </row>
-    <row r="260" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A260" t="s">
-        <v>427</v>
+    <row r="260" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A260" s="10" t="s">
+        <v>424</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>428</v>
+        <v>140</v>
       </c>
       <c r="C260" s="12" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D260" s="13" t="s">
         <v>263</v>
@@ -8134,8 +8172,8 @@
       <c r="F260" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G260" s="12" t="s">
-        <v>264</v>
+      <c r="G260" s="13" t="s">
+        <v>271</v>
       </c>
       <c r="O260" s="13" t="s">
         <v>195</v>
@@ -8144,656 +8182,673 @@
         <v>24</v>
       </c>
       <c r="Q260" s="10"/>
+      <c r="R260" s="11"/>
     </row>
     <row r="261" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A261" s="10"/>
-      <c r="B261" s="9" t="s">
+      <c r="B261" s="13" t="s">
+        <v>426</v>
+      </c>
+      <c r="F261" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P261" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q261" s="9"/>
+      <c r="R261" s="11"/>
+    </row>
+    <row r="262" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A262" t="s">
+        <v>427</v>
+      </c>
+      <c r="B262" s="12" t="s">
+        <v>428</v>
+      </c>
+      <c r="C262" s="12" t="s">
+        <v>429</v>
+      </c>
+      <c r="D262" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="E262" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F262" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G262" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="O262" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="P262" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q262" s="10"/>
+    </row>
+    <row r="263" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A263" s="10"/>
+      <c r="B263" s="9" t="s">
         <v>430</v>
       </c>
-      <c r="C261" s="9"/>
-      <c r="D261" s="9"/>
-      <c r="E261" s="9"/>
-      <c r="F261" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G261" s="9"/>
-      <c r="H261" s="9"/>
-      <c r="I261" s="9"/>
-      <c r="J261" s="9"/>
-      <c r="K261" s="9"/>
-      <c r="L261" s="9"/>
-      <c r="M261" s="9"/>
-      <c r="N261" s="9"/>
-      <c r="O261" s="9"/>
-      <c r="P261" s="9"/>
-      <c r="R261" s="11"/>
-    </row>
-    <row r="262" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A262" s="9"/>
-      <c r="B262" s="13" t="s">
+      <c r="C263" s="9"/>
+      <c r="D263" s="9"/>
+      <c r="E263" s="9"/>
+      <c r="F263" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G263" s="9"/>
+      <c r="H263" s="9"/>
+      <c r="I263" s="9"/>
+      <c r="J263" s="9"/>
+      <c r="K263" s="9"/>
+      <c r="L263" s="9"/>
+      <c r="M263" s="9"/>
+      <c r="N263" s="9"/>
+      <c r="O263" s="9"/>
+      <c r="P263" s="9"/>
+      <c r="R263" s="11"/>
+    </row>
+    <row r="264" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A264" s="9"/>
+      <c r="B264" s="13" t="s">
         <v>431</v>
       </c>
-      <c r="F262" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P262" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R262" s="9"/>
-    </row>
-    <row r="263" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B263" s="13" t="s">
+      <c r="F264" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P264" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R264" s="9"/>
+    </row>
+    <row r="265" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B265" s="13" t="s">
         <v>432</v>
       </c>
-      <c r="F263" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P263" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="264" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A264" s="10"/>
-      <c r="B264" s="13" t="s">
+      <c r="F265" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P265" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="266" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A266" s="10"/>
+      <c r="B266" s="13" t="s">
         <v>433</v>
       </c>
-      <c r="F264" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P264" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R264" s="11"/>
-    </row>
-    <row r="265" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A265" s="10"/>
-      <c r="B265" s="13" t="s">
+      <c r="F266" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P266" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R266" s="11"/>
+    </row>
+    <row r="267" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A267" s="10"/>
+      <c r="B267" s="13" t="s">
         <v>434</v>
       </c>
-      <c r="F265" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P265" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q265" s="9"/>
-      <c r="R265" s="11"/>
-    </row>
-    <row r="266" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B266" s="13" t="s">
+      <c r="F267" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P267" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q267" s="9"/>
+      <c r="R267" s="11"/>
+    </row>
+    <row r="268" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B268" s="13" t="s">
         <v>435</v>
       </c>
-      <c r="F266" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P266" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q266" s="10"/>
-    </row>
-    <row r="267" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A267" s="9"/>
-      <c r="B267" s="13" t="s">
+      <c r="F268" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P268" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q268" s="10"/>
+    </row>
+    <row r="269" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A269" s="9"/>
+      <c r="B269" s="13" t="s">
         <v>436</v>
       </c>
-      <c r="F267" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P267" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q267" s="10"/>
-      <c r="R267" s="9"/>
-    </row>
-    <row r="268" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B268" s="13" t="s">
+      <c r="F269" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P269" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q269" s="10"/>
+      <c r="R269" s="9"/>
+    </row>
+    <row r="270" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B270" s="13" t="s">
         <v>437</v>
       </c>
-      <c r="F268" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P268" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="269" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A269" s="10"/>
-      <c r="B269" s="10" t="s">
+      <c r="F270" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P270" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="271" spans="1:18" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A271" s="10"/>
+      <c r="B271" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="F269" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P269" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R269" s="11"/>
-    </row>
-    <row r="270" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A270" t="s">
+      <c r="F271" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P271" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R271" s="11"/>
+    </row>
+    <row r="272" spans="1:18" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A272" t="s">
         <v>439</v>
       </c>
-      <c r="B270" s="12" t="s">
+      <c r="B272" s="12" t="s">
         <v>440</v>
       </c>
-      <c r="C270" s="12" t="s">
+      <c r="C272" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D270" s="13" t="s">
+      <c r="D272" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E270" s="13" t="s">
+      <c r="E272" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F270" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G270" s="13" t="s">
+      <c r="F272" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G272" s="13" t="s">
         <v>271</v>
       </c>
-      <c r="O270" s="13" t="s">
+      <c r="O272" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="P270" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q270" s="10"/>
-    </row>
-    <row r="271" spans="1:18" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B271" s="13" t="s">
+      <c r="P272" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q272" s="10"/>
+    </row>
+    <row r="273" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B273" s="13" t="s">
         <v>442</v>
       </c>
-      <c r="F271" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P271" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="272" spans="1:18" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B272" s="13" t="s">
+      <c r="F273" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P273" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="274" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B274" s="13" t="s">
         <v>443</v>
       </c>
-      <c r="F272" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P272" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="273" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A273" s="10"/>
-      <c r="B273" s="13" t="s">
+      <c r="F274" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P274" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="275" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A275" s="10"/>
+      <c r="B275" s="13" t="s">
         <v>444</v>
       </c>
-      <c r="F273" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P273" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R273" s="11"/>
-    </row>
-    <row r="274" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B274" s="13" t="s">
+      <c r="F275" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P275" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R275" s="11"/>
+    </row>
+    <row r="276" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B276" s="13" t="s">
         <v>445</v>
       </c>
-      <c r="F274" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P274" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="275" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B275" s="13" t="s">
+      <c r="F276" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P276" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="277" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B277" s="13" t="s">
         <v>446</v>
       </c>
-      <c r="F275" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P275" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q275" s="10"/>
-    </row>
-    <row r="276" spans="1:23" s="24" customFormat="1" ht="16" customHeight="1">
-      <c r="A276" s="26" t="s">
+      <c r="F277" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P277" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q277" s="10"/>
+    </row>
+    <row r="278" spans="1:23" s="24" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A278" s="26" t="s">
         <v>603</v>
       </c>
-      <c r="B276" s="24" t="s">
+      <c r="B278" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="C276" s="24" t="s">
+      <c r="C278" s="24" t="s">
         <v>605</v>
       </c>
-      <c r="D276" s="24" t="s">
+      <c r="D278" s="24" t="s">
         <v>599</v>
       </c>
-      <c r="E276" s="24" t="s">
+      <c r="E278" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="F276" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="I276" s="24" t="s">
+      <c r="F278" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="I278" s="24" t="s">
         <v>606</v>
       </c>
-      <c r="N276" s="24" t="s">
+      <c r="N278" s="24" t="s">
         <v>316</v>
       </c>
-      <c r="O276" s="25" t="s">
+      <c r="O278" s="25" t="s">
         <v>607</v>
       </c>
-      <c r="P276" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="W276" s="25"/>
-    </row>
-    <row r="277" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B277" s="13" t="s">
+      <c r="P278" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="W278" s="25"/>
+    </row>
+    <row r="279" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B279" s="13" t="s">
         <v>447</v>
       </c>
-      <c r="F277" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P277" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="278" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B278" s="13" t="s">
+      <c r="F279" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P279" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="280" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B280" s="13" t="s">
         <v>448</v>
       </c>
-      <c r="F278" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P278" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="279" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B279" s="13" t="s">
+      <c r="F280" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P280" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="281" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B281" s="13" t="s">
         <v>449</v>
       </c>
-      <c r="F279" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P279" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="280" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A280" s="10"/>
-      <c r="B280" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F280" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P280" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q280" s="10"/>
-      <c r="R280" s="11"/>
-    </row>
-    <row r="281" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A281" s="10"/>
-      <c r="B281" s="13" t="s">
-        <v>451</v>
-      </c>
       <c r="F281" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P281" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R281" s="11"/>
-    </row>
-    <row r="282" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+    </row>
+    <row r="282" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A282" s="10"/>
       <c r="B282" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F282" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P282" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q282" s="10"/>
+      <c r="R282" s="11"/>
+    </row>
+    <row r="283" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A283" s="10"/>
+      <c r="B283" s="13" t="s">
+        <v>451</v>
+      </c>
+      <c r="F283" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P283" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R283" s="11"/>
+    </row>
+    <row r="284" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A284" s="10"/>
+      <c r="B284" s="13" t="s">
         <v>452</v>
       </c>
-      <c r="F282" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P282" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R282" s="11"/>
-    </row>
-    <row r="283" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B283" s="13" t="s">
+      <c r="F284" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P284" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R284" s="11"/>
+    </row>
+    <row r="285" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B285" s="13" t="s">
         <v>453</v>
       </c>
-      <c r="F283" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P283" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q283" s="10"/>
-    </row>
-    <row r="284" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B284" s="13" t="s">
+      <c r="F285" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P285" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q285" s="10"/>
+    </row>
+    <row r="286" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B286" s="13" t="s">
         <v>454</v>
       </c>
-      <c r="F284" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P284" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q284" s="10"/>
-    </row>
-    <row r="285" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B285" s="13" t="s">
+      <c r="F286" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P286" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q286" s="10"/>
+    </row>
+    <row r="287" spans="1:23" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B287" s="13" t="s">
         <v>455</v>
       </c>
-      <c r="F285" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P285" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q285" s="10"/>
-    </row>
-    <row r="286" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A286" s="10"/>
-      <c r="B286" s="13" t="s">
-        <v>456</v>
-      </c>
-      <c r="F286" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P286" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R286" s="11"/>
-    </row>
-    <row r="287" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A287" s="10"/>
-      <c r="B287" s="13" t="s">
-        <v>457</v>
-      </c>
       <c r="F287" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P287" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="R287" s="11"/>
-    </row>
-    <row r="288" spans="1:23" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="Q287" s="10"/>
+    </row>
+    <row r="288" spans="1:23" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="A288" s="10"/>
       <c r="B288" s="13" t="s">
+        <v>456</v>
+      </c>
+      <c r="F288" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P288" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R288" s="11"/>
+    </row>
+    <row r="289" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A289" s="10"/>
+      <c r="B289" s="13" t="s">
+        <v>457</v>
+      </c>
+      <c r="F289" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P289" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R289" s="11"/>
+    </row>
+    <row r="290" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A290" s="10"/>
+      <c r="B290" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="F288" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P288" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R288" s="11"/>
-    </row>
-    <row r="289" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1">
-      <c r="A289" s="13"/>
-      <c r="B289" s="13" t="s">
+      <c r="F290" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P290" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R290" s="11"/>
+    </row>
+    <row r="291" spans="1:19" s="15" customFormat="1" ht="30" customHeight="1">
+      <c r="A291" s="13"/>
+      <c r="B291" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="C289" s="13"/>
-      <c r="D289" s="13"/>
-      <c r="E289" s="13"/>
-      <c r="F289" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G289" s="13"/>
-      <c r="H289" s="13"/>
-      <c r="I289" s="13"/>
-      <c r="J289" s="13"/>
-      <c r="K289" s="13"/>
-      <c r="L289" s="13"/>
-      <c r="M289" s="13"/>
-      <c r="N289" s="13"/>
-      <c r="O289" s="13"/>
-      <c r="P289" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q289" s="10"/>
-      <c r="R289" s="13"/>
-      <c r="S289" s="13"/>
-    </row>
-    <row r="290" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B290" s="13" t="s">
+      <c r="C291" s="13"/>
+      <c r="D291" s="13"/>
+      <c r="E291" s="13"/>
+      <c r="F291" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G291" s="13"/>
+      <c r="H291" s="13"/>
+      <c r="I291" s="13"/>
+      <c r="J291" s="13"/>
+      <c r="K291" s="13"/>
+      <c r="L291" s="13"/>
+      <c r="M291" s="13"/>
+      <c r="N291" s="13"/>
+      <c r="O291" s="13"/>
+      <c r="P291" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q291" s="10"/>
+      <c r="R291" s="13"/>
+      <c r="S291" s="13"/>
+    </row>
+    <row r="292" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B292" s="13" t="s">
         <v>460</v>
       </c>
-      <c r="F290" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P290" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="291" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B291" s="13" t="s">
+      <c r="F292" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P292" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="293" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B293" s="13" t="s">
         <v>461</v>
       </c>
-      <c r="F291" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P291" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="292" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A292" s="10"/>
-      <c r="B292" s="13" t="s">
+      <c r="F293" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P293" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="294" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A294" s="10"/>
+      <c r="B294" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="F292" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P292" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R292" s="11"/>
-    </row>
-    <row r="293" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B293" s="13" t="s">
+      <c r="F294" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P294" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R294" s="11"/>
+    </row>
+    <row r="295" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B295" s="13" t="s">
         <v>463</v>
       </c>
-      <c r="F293" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P293" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="294" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B294" s="13" t="s">
+      <c r="F295" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P295" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="296" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B296" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="F294" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P294" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="295" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B295" s="13" t="s">
+      <c r="F296" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P296" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="297" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B297" s="13" t="s">
         <v>465</v>
       </c>
-      <c r="F295" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P295" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="296" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B296" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="F296" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P296" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q296" s="10"/>
-    </row>
-    <row r="297" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B297" s="13" t="s">
-        <v>467</v>
-      </c>
       <c r="F297" s="13" t="s">
         <v>23</v>
       </c>
       <c r="P297" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q297" s="10"/>
     </row>
     <row r="298" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
       <c r="B298" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F298" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P298" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q298" s="10"/>
+    </row>
+    <row r="299" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B299" s="13" t="s">
+        <v>467</v>
+      </c>
+      <c r="F299" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P299" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q299" s="10"/>
+    </row>
+    <row r="300" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B300" s="13" t="s">
         <v>468</v>
       </c>
-      <c r="F298" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="299" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B299" s="13" t="s">
+      <c r="F300" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="301" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B301" s="13" t="s">
         <v>469</v>
       </c>
-      <c r="F299" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P299" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="300" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A300" s="10"/>
-      <c r="B300" s="13" t="s">
+      <c r="F301" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P301" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="302" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A302" s="10"/>
+      <c r="B302" s="13" t="s">
         <v>470</v>
       </c>
-      <c r="F300" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P300" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q300" s="10"/>
-      <c r="R300" s="11"/>
-    </row>
-    <row r="301" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A301" t="s">
+      <c r="F302" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P302" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q302" s="10"/>
+      <c r="R302" s="11"/>
+    </row>
+    <row r="303" spans="1:19" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A303" t="s">
         <v>471</v>
       </c>
-      <c r="B301" s="12" t="s">
+      <c r="B303" s="12" t="s">
         <v>472</v>
       </c>
-      <c r="C301" s="12" t="s">
+      <c r="C303" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="D301" s="13" t="s">
+      <c r="D303" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="E301" s="13" t="s">
+      <c r="E303" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F301" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G301" s="12" t="s">
+      <c r="F303" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="G303" s="12" t="s">
         <v>264</v>
       </c>
-      <c r="O301" s="13" t="s">
+      <c r="O303" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="P301" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="302" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B302" s="13" t="s">
+      <c r="P303" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="304" spans="1:19" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B304" s="13" t="s">
         <v>474</v>
       </c>
-      <c r="F302" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P302" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q302" s="10"/>
-    </row>
-    <row r="303" spans="1:19" s="13" customFormat="1" ht="45" customHeight="1">
-      <c r="A303" t="s">
+      <c r="F304" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P304" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q304" s="10"/>
+    </row>
+    <row r="305" spans="1:20" s="13" customFormat="1" ht="45" customHeight="1">
+      <c r="A305" t="s">
         <v>475</v>
       </c>
-      <c r="B303" s="9" t="s">
+      <c r="B305" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="C303" s="9" t="s">
+      <c r="C305" s="9" t="s">
         <v>476</v>
       </c>
-      <c r="D303" s="9" t="s">
+      <c r="D305" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="E303" s="9" t="s">
+      <c r="E305" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F303" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G303" s="9"/>
-      <c r="H303" s="9"/>
-      <c r="I303" s="9"/>
-      <c r="J303" s="9"/>
-      <c r="K303" s="9"/>
-      <c r="L303" s="9"/>
-      <c r="M303" s="9"/>
-      <c r="N303" s="9"/>
-      <c r="O303" s="9"/>
-      <c r="P303" s="9"/>
-      <c r="Q303" s="10"/>
-    </row>
-    <row r="304" spans="1:19" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A304" s="10"/>
-      <c r="B304" s="13" t="s">
-        <v>478</v>
-      </c>
-      <c r="F304" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P304" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q304" s="10"/>
-      <c r="R304" s="11"/>
-    </row>
-    <row r="305" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A305" s="10"/>
-      <c r="B305" s="13" t="s">
-        <v>479</v>
-      </c>
-      <c r="F305" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P305" s="13" t="s">
-        <v>24</v>
-      </c>
+      <c r="F305" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" s="9"/>
+      <c r="H305" s="9"/>
+      <c r="I305" s="9"/>
+      <c r="J305" s="9"/>
+      <c r="K305" s="9"/>
+      <c r="L305" s="9"/>
+      <c r="M305" s="9"/>
+      <c r="N305" s="9"/>
+      <c r="O305" s="9"/>
+      <c r="P305" s="9"/>
       <c r="Q305" s="10"/>
-      <c r="R305" s="11"/>
-    </row>
-    <row r="306" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
+    </row>
+    <row r="306" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A306" s="10"/>
       <c r="B306" s="13" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F306" s="13" t="s">
         <v>23</v>
@@ -8804,10 +8859,10 @@
       <c r="Q306" s="10"/>
       <c r="R306" s="11"/>
     </row>
-    <row r="307" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="307" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A307" s="10"/>
       <c r="B307" s="13" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F307" s="13" t="s">
         <v>23</v>
@@ -8815,12 +8870,13 @@
       <c r="P307" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q307" s="10"/>
       <c r="R307" s="11"/>
     </row>
-    <row r="308" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="308" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A308" s="10"/>
       <c r="B308" s="13" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="F308" s="13" t="s">
         <v>23</v>
@@ -8828,267 +8884,272 @@
       <c r="P308" s="13" t="s">
         <v>24</v>
       </c>
+      <c r="Q308" s="10"/>
       <c r="R308" s="11"/>
     </row>
-    <row r="309" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="309" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="A309" s="10"/>
       <c r="B309" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F309" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P309" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R309" s="11"/>
+    </row>
+    <row r="310" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A310" s="10"/>
+      <c r="B310" s="13" t="s">
+        <v>482</v>
+      </c>
+      <c r="F310" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P310" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R310" s="11"/>
+    </row>
+    <row r="311" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A311" s="10"/>
+      <c r="B311" s="13" t="s">
         <v>483</v>
       </c>
-      <c r="F309" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P309" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R309" s="11"/>
-    </row>
-    <row r="310" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B310" s="13" t="s">
+      <c r="F311" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P311" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R311" s="11"/>
+    </row>
+    <row r="312" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B312" s="13" t="s">
         <v>484</v>
       </c>
-      <c r="F310" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P310" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q310" s="9"/>
-    </row>
-    <row r="311" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B311" s="13" t="s">
+      <c r="F312" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P312" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q312" s="9"/>
+    </row>
+    <row r="313" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B313" s="13" t="s">
         <v>485</v>
       </c>
-      <c r="F311" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P311" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="312" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B312" s="13" t="s">
+      <c r="F313" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P313" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="314" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B314" s="13" t="s">
         <v>486</v>
       </c>
-      <c r="F312" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P312" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="313" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="A313" s="9" t="s">
+      <c r="F314" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P314" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="315" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="A315" s="9" t="s">
         <v>487</v>
       </c>
-      <c r="B313" s="13" t="s">
+      <c r="B315" s="13" t="s">
         <v>488</v>
       </c>
-      <c r="F313" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P313" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="R313" s="9"/>
-    </row>
-    <row r="314" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="A314" s="9" t="s">
+      <c r="F315" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P315" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="R315" s="9"/>
+    </row>
+    <row r="316" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="A316" s="9" t="s">
         <v>489</v>
       </c>
-      <c r="B314" s="13" t="s">
+      <c r="B316" s="13" t="s">
         <v>490</v>
       </c>
-      <c r="C314" s="13" t="s">
+      <c r="C316" s="13" t="s">
         <v>491</v>
       </c>
-      <c r="D314" s="13" t="s">
+      <c r="D316" s="13" t="s">
         <v>492</v>
       </c>
-      <c r="E314" s="13" t="s">
+      <c r="E316" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="F314" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="R314" s="9"/>
-    </row>
-    <row r="315" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B315" s="13" t="s">
+      <c r="F316" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="R316" s="9"/>
+    </row>
+    <row r="317" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B317" s="13" t="s">
         <v>493</v>
       </c>
-      <c r="D315" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="H315" s="13" t="s">
+      <c r="D317" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H317" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="L315" s="12"/>
-      <c r="P315" s="13">
-        <v>1</v>
-      </c>
-      <c r="R315" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T315" s="12"/>
-    </row>
-    <row r="316" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B316" s="13" t="s">
+      <c r="L317" s="12"/>
+      <c r="P317" s="13">
+        <v>1</v>
+      </c>
+      <c r="R317" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T317" s="12"/>
+    </row>
+    <row r="318" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B318" s="13" t="s">
         <v>495</v>
       </c>
-      <c r="D316" s="13" t="s">
+      <c r="D318" s="13" t="s">
         <v>496</v>
       </c>
-      <c r="H316" s="13" t="s">
+      <c r="H318" s="13" t="s">
         <v>494</v>
       </c>
-      <c r="L316" s="12"/>
-      <c r="P316" s="13">
-        <v>1</v>
-      </c>
-      <c r="R316" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="T316" s="12"/>
-    </row>
-    <row r="317" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B317" s="13" t="s">
+      <c r="L318" s="12"/>
+      <c r="P318" s="13">
+        <v>1</v>
+      </c>
+      <c r="R318" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="T318" s="12"/>
+    </row>
+    <row r="319" spans="1:20" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B319" s="13" t="s">
         <v>497</v>
       </c>
-      <c r="F317" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P317" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="318" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B318" s="10" t="s">
+      <c r="F319" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P319" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="320" spans="1:20" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B320" s="10" t="s">
         <v>498</v>
       </c>
-      <c r="F318" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P318" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="319" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B319" s="10" t="s">
+      <c r="F320" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P320" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="321" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B321" s="10" t="s">
         <v>499</v>
       </c>
-      <c r="F319" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P319" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="320" spans="1:20" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B320" s="10" t="s">
+      <c r="F321" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P321" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="322" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B322" s="10" t="s">
         <v>500</v>
       </c>
-      <c r="F320" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="I320" s="13" t="s">
+      <c r="F322" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I322" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="P320" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="321" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B321" s="13" t="s">
+      <c r="P322" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="323" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
+      <c r="B323" s="13" t="s">
         <v>501</v>
       </c>
-      <c r="F321" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P321" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="322" spans="2:17" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B322" s="13" t="s">
+      <c r="F323" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P323" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="324" spans="2:17" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B324" s="13" t="s">
         <v>502</v>
       </c>
-      <c r="F322" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P322" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="323" spans="2:17" s="13" customFormat="1" ht="30" customHeight="1">
-      <c r="B323" s="13" t="s">
+      <c r="F324" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P324" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="325" spans="2:17" s="13" customFormat="1" ht="30" customHeight="1">
+      <c r="B325" s="13" t="s">
         <v>503</v>
       </c>
-      <c r="F323" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="P323" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q323" s="10"/>
-    </row>
-    <row r="324" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
-      <c r="B324" s="11"/>
-      <c r="P324" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="325" spans="2:17" s="13" customFormat="1">
-      <c r="B325" s="11"/>
-      <c r="F325" s="9"/>
-      <c r="G325" s="9"/>
-      <c r="H325" s="11"/>
-      <c r="I325" s="9"/>
-      <c r="J325" s="9"/>
-      <c r="K325" s="9"/>
-      <c r="L325" s="9">
-        <v>1</v>
-      </c>
-      <c r="M325" s="9"/>
-      <c r="N325" s="9"/>
-      <c r="O325" s="9"/>
-      <c r="P325" s="9"/>
-    </row>
-    <row r="326" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="F325" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="P325" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q325" s="10"/>
+    </row>
+    <row r="326" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B326" s="11"/>
       <c r="P326" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="327" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+    <row r="327" spans="2:17" s="13" customFormat="1">
       <c r="B327" s="11"/>
-      <c r="P327" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="328" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="F327" s="9"/>
+      <c r="G327" s="9"/>
+      <c r="H327" s="11"/>
+      <c r="I327" s="9"/>
+      <c r="J327" s="9"/>
+      <c r="K327" s="9"/>
+      <c r="L327" s="9">
+        <v>1</v>
+      </c>
+      <c r="M327" s="9"/>
+      <c r="N327" s="9"/>
+      <c r="O327" s="9"/>
+      <c r="P327" s="9"/>
+    </row>
+    <row r="328" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B328" s="11"/>
       <c r="P328" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="329" spans="2:17" s="13" customFormat="1">
+    <row r="329" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B329" s="11"/>
-      <c r="D329" s="9"/>
-      <c r="E329" s="9"/>
-      <c r="F329" s="9"/>
-      <c r="G329" s="9"/>
-      <c r="H329" s="9"/>
-      <c r="I329" s="9"/>
-      <c r="J329" s="9"/>
-      <c r="K329" s="9"/>
-      <c r="L329" s="9"/>
-      <c r="M329" s="9"/>
-      <c r="N329" s="9"/>
-      <c r="O329" s="9"/>
-      <c r="P329" s="9"/>
-    </row>
-    <row r="330" spans="2:17" s="13" customFormat="1" ht="16" customHeight="1">
+      <c r="P329" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="330" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B330" s="11"/>
       <c r="P330" s="13" t="s">
         <v>24</v>
@@ -9096,7 +9157,6 @@
     </row>
     <row r="331" spans="2:17" s="13" customFormat="1">
       <c r="B331" s="11"/>
-      <c r="C331" s="9"/>
       <c r="D331" s="9"/>
       <c r="E331" s="9"/>
       <c r="F331" s="9"/>
@@ -9111,32 +9171,49 @@
       <c r="O331" s="9"/>
       <c r="P331" s="9"/>
     </row>
-    <row r="332" spans="2:17" s="13" customFormat="1">
+    <row r="332" spans="2:17" s="13" customFormat="1" ht="15.95" customHeight="1">
       <c r="B332" s="11"/>
-      <c r="C332" s="9"/>
-      <c r="D332" s="9"/>
-      <c r="E332" s="9"/>
-      <c r="F332" s="9"/>
-      <c r="G332" s="9"/>
-      <c r="H332" s="9"/>
-      <c r="I332" s="9"/>
-      <c r="J332" s="9"/>
-      <c r="K332" s="9"/>
-      <c r="L332" s="9"/>
-      <c r="M332" s="9"/>
-      <c r="N332" s="9"/>
-      <c r="O332" s="9"/>
-      <c r="P332" s="9"/>
+      <c r="P332" s="13" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="333" spans="2:17" s="13" customFormat="1">
       <c r="B333" s="11"/>
-      <c r="Q333" s="9"/>
+      <c r="C333" s="9"/>
+      <c r="D333" s="9"/>
+      <c r="E333" s="9"/>
+      <c r="F333" s="9"/>
+      <c r="G333" s="9"/>
+      <c r="H333" s="9"/>
+      <c r="I333" s="9"/>
+      <c r="J333" s="9"/>
+      <c r="K333" s="9"/>
+      <c r="L333" s="9"/>
+      <c r="M333" s="9"/>
+      <c r="N333" s="9"/>
+      <c r="O333" s="9"/>
+      <c r="P333" s="9"/>
     </row>
     <row r="334" spans="2:17" s="13" customFormat="1">
       <c r="B334" s="11"/>
+      <c r="C334" s="9"/>
+      <c r="D334" s="9"/>
+      <c r="E334" s="9"/>
+      <c r="F334" s="9"/>
+      <c r="G334" s="9"/>
+      <c r="H334" s="9"/>
+      <c r="I334" s="9"/>
+      <c r="J334" s="9"/>
+      <c r="K334" s="9"/>
+      <c r="L334" s="9"/>
+      <c r="M334" s="9"/>
+      <c r="N334" s="9"/>
+      <c r="O334" s="9"/>
+      <c r="P334" s="9"/>
     </row>
     <row r="335" spans="2:17" s="13" customFormat="1">
       <c r="B335" s="11"/>
+      <c r="Q335" s="9"/>
     </row>
     <row r="336" spans="2:17" s="13" customFormat="1">
       <c r="B336" s="11"/>
@@ -9157,51 +9234,21 @@
       <c r="B341" s="11"/>
     </row>
     <row r="342" spans="1:18" s="13" customFormat="1">
-      <c r="A342" s="11"/>
       <c r="B342" s="11"/>
-      <c r="R342" s="9"/>
     </row>
     <row r="343" spans="1:18" s="13" customFormat="1">
       <c r="B343" s="11"/>
-      <c r="Q343" s="9"/>
     </row>
     <row r="344" spans="1:18" s="13" customFormat="1">
+      <c r="A344" s="11"/>
       <c r="B344" s="11"/>
-      <c r="C344" s="9"/>
-      <c r="D344" s="9"/>
-      <c r="E344" s="9"/>
-      <c r="F344" s="9"/>
-      <c r="G344" s="9"/>
-      <c r="H344" s="9"/>
-      <c r="I344" s="9"/>
-      <c r="J344" s="9"/>
-      <c r="K344" s="9"/>
-      <c r="L344" s="9"/>
-      <c r="M344" s="9"/>
-      <c r="N344" s="9"/>
-      <c r="O344" s="9"/>
-      <c r="P344" s="9"/>
+      <c r="R344" s="9"/>
     </row>
     <row r="345" spans="1:18" s="13" customFormat="1">
       <c r="B345" s="11"/>
-      <c r="C345" s="9"/>
-      <c r="D345" s="9"/>
-      <c r="E345" s="9"/>
-      <c r="F345" s="9"/>
-      <c r="G345" s="9"/>
-      <c r="H345" s="9"/>
-      <c r="I345" s="9"/>
-      <c r="J345" s="9"/>
-      <c r="K345" s="9"/>
-      <c r="L345" s="9"/>
-      <c r="M345" s="9"/>
-      <c r="N345" s="9"/>
-      <c r="O345" s="9"/>
-      <c r="P345" s="9"/>
       <c r="Q345" s="9"/>
     </row>
     <row r="346" spans="1:18" s="13" customFormat="1">
-      <c r="A346" s="9"/>
       <c r="B346" s="11"/>
       <c r="C346" s="9"/>
       <c r="D346" s="9"/>
@@ -9217,8 +9264,6 @@
       <c r="N346" s="9"/>
       <c r="O346" s="9"/>
       <c r="P346" s="9"/>
-      <c r="Q346" s="9"/>
-      <c r="R346" s="9"/>
     </row>
     <row r="347" spans="1:18" s="13" customFormat="1">
       <c r="B347" s="11"/>
@@ -9238,8 +9283,46 @@
       <c r="P347" s="9"/>
       <c r="Q347" s="9"/>
     </row>
-    <row r="348" spans="1:18">
+    <row r="348" spans="1:18" s="13" customFormat="1">
+      <c r="A348" s="9"/>
       <c r="B348" s="11"/>
+      <c r="C348" s="9"/>
+      <c r="D348" s="9"/>
+      <c r="E348" s="9"/>
+      <c r="F348" s="9"/>
+      <c r="G348" s="9"/>
+      <c r="H348" s="9"/>
+      <c r="I348" s="9"/>
+      <c r="J348" s="9"/>
+      <c r="K348" s="9"/>
+      <c r="L348" s="9"/>
+      <c r="M348" s="9"/>
+      <c r="N348" s="9"/>
+      <c r="O348" s="9"/>
+      <c r="P348" s="9"/>
+      <c r="Q348" s="9"/>
+      <c r="R348" s="9"/>
+    </row>
+    <row r="349" spans="1:18" s="13" customFormat="1">
+      <c r="B349" s="11"/>
+      <c r="C349" s="9"/>
+      <c r="D349" s="9"/>
+      <c r="E349" s="9"/>
+      <c r="F349" s="9"/>
+      <c r="G349" s="9"/>
+      <c r="H349" s="9"/>
+      <c r="I349" s="9"/>
+      <c r="J349" s="9"/>
+      <c r="K349" s="9"/>
+      <c r="L349" s="9"/>
+      <c r="M349" s="9"/>
+      <c r="N349" s="9"/>
+      <c r="O349" s="9"/>
+      <c r="P349" s="9"/>
+      <c r="Q349" s="9"/>
+    </row>
+    <row r="350" spans="1:18">
+      <c r="B350" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9258,17 +9341,17 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="50.5" style="4" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="50.42578125" style="4" customWidth="1"/>
     <col min="3" max="3" width="93" style="4" customWidth="1"/>
-    <col min="4" max="4" width="45.1640625" style="4" customWidth="1"/>
-    <col min="5" max="7" width="9.1640625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.1640625" style="4"/>
+    <col min="4" max="4" width="45.140625" style="4" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="16" customHeight="1">
+    <row r="1" spans="1:4" s="5" customFormat="1" ht="15.95" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>504</v>
       </c>
@@ -9365,7 +9448,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" customHeight="1">
+    <row r="9" spans="1:4" ht="15.95" customHeight="1">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -9398,7 +9481,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="16" customHeight="1">
+    <row r="12" spans="1:4" ht="15.95" customHeight="1">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -9442,7 +9525,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="16" customHeight="1">
+    <row r="16" spans="1:4" ht="15.95" customHeight="1">
       <c r="A16" s="4" t="s">
         <v>14</v>
       </c>
@@ -9464,7 +9547,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="16" customHeight="1">
+    <row r="18" spans="1:3" ht="15.95" customHeight="1">
       <c r="A18" s="4" t="s">
         <v>16</v>
       </c>
@@ -9500,20 +9583,20 @@
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="42.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="41.33203125" style="1" customWidth="1"/>
-    <col min="5" max="7" width="36.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="14.83203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.33203125" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.33203125" style="1" customWidth="1"/>
-    <col min="13" max="15" width="9.1640625" style="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.1640625" style="1"/>
+    <col min="1" max="1" width="14.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="41.28515625" style="1" customWidth="1"/>
+    <col min="5" max="7" width="36.42578125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="25.42578125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.28515625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.28515625" style="1" customWidth="1"/>
+    <col min="13" max="15" width="9.140625" style="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="5" customFormat="1" ht="30" customHeight="1">
@@ -9641,7 +9724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="16" customHeight="1">
+    <row r="8" spans="1:12" ht="15.95" customHeight="1">
       <c r="B8" s="1" t="s">
         <v>566</v>
       </c>
@@ -9699,7 +9782,7 @@
       <selection activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9714,9 +9797,9 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="11" max="11" width="43.33203125" customWidth="1"/>
+    <col min="11" max="11" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="6" customFormat="1">

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hastingj/Work/Onto/addiction-ontology/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE326EB-79F7-614A-8AAE-59DF16FAE144}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931D3828-2D17-BC48-8EEA-98AB236F6C35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1274" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1276" uniqueCount="533">
   <si>
     <t>ID</t>
   </si>
@@ -2104,9 +2104,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Y350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C148" sqref="C148"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A302" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q319" sqref="Q319"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15"/>
@@ -8520,8 +8520,8 @@
       <c r="J317" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q317" s="7">
-        <v>1</v>
+      <c r="Q317" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="S317" s="6"/>
     </row>
@@ -8538,8 +8538,8 @@
       <c r="J318" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="Q318" s="7">
-        <v>1</v>
+      <c r="Q318" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="S318" s="6"/>
     </row>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -592,7 +592,7 @@
       <c r="A3" s="2" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>Behaviour Change Technique</t>
+          <t>Alcohol Use Disorder treatment</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
@@ -616,7 +616,11 @@
         <v>0</v>
       </c>
       <c r="O3" s="2" t="inlineStr"/>
-      <c r="P3" s="2" t="inlineStr"/>
+      <c r="P3" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q3" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -629,7 +633,7 @@
       <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Cognitive Behavioural Therapy</t>
+          <t>Behaviour Change Technique</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -642,11 +646,7 @@
       </c>
       <c r="G4" s="2" t="inlineStr"/>
       <c r="H4" s="2" t="inlineStr"/>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>CBT</t>
-        </is>
-      </c>
+      <c r="I4" s="2" t="inlineStr"/>
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
@@ -657,11 +657,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P4" s="2" t="inlineStr"/>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -674,7 +670,7 @@
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+          <t>Cognitive Behavioural Therapy</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -687,7 +683,11 @@
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr"/>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>CBT</t>
+        </is>
+      </c>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
@@ -698,7 +698,11 @@
         <v>0</v>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr"/>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -711,7 +715,7 @@
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Health Canada Intense regimen</t>
+          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -748,7 +752,7 @@
       <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>Health Canada Intense regimen</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -766,7 +770,7 @@
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
       <c r="M7" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="2" t="n">
         <v>0</v>
@@ -785,33 +789,25 @@
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>TV advertising</t>
+          <t>NICE Guidance</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
+      <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="2" t="inlineStr"/>
-      <c r="F8" s="2" t="inlineStr"/>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="G8" s="2" t="inlineStr"/>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="H8" s="2" t="inlineStr"/>
       <c r="I8" s="2" t="inlineStr"/>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
       <c r="M8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="2" t="n">
         <v>0</v>
@@ -830,21 +826,29 @@
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>UK Psychoactive Substances Act</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr"/>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
+      <c r="F9" s="2" t="inlineStr"/>
       <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr"/>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr"/>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="n">
@@ -867,7 +871,7 @@
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>US State Medicaid programme</t>
+          <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
@@ -885,17 +889,13 @@
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
       <c r="M10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P10" s="2" t="inlineStr"/>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -908,7 +908,7 @@
       <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>US governmental regulation</t>
+          <t>US State Medicaid programme</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -926,13 +926,17 @@
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
       <c r="M11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr"/>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -942,31 +946,15 @@
       <c r="S11" s="2" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000464</t>
-        </is>
-      </c>
+      <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>accessibility of primary healthcare physician advice</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>accessibility of a service</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>US governmental regulation</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr"/>
+      <c r="D12" s="2" t="inlineStr"/>
+      <c r="E12" s="2" t="inlineStr"/>
       <c r="F12" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -985,11 +973,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P12" s="2" t="inlineStr"/>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1001,22 +985,22 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000465</t>
+          <t>ADDICTO:0000464</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>addiction treatment</t>
+          <t>accessibility of primary healthcare physician advice</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>accessibility of a service</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -1042,7 +1026,11 @@
         <v>0</v>
       </c>
       <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr"/>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1052,19 +1040,31 @@
       <c r="S13" s="2" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" s="2" t="inlineStr"/>
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000465</t>
+        </is>
+      </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>adherence to opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr"/>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
+        </is>
+      </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>adherence to medication regimen</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr"/>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -1093,49 +1093,29 @@
       <c r="S14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000466</t>
-        </is>
-      </c>
+      <c r="A15" s="2" t="inlineStr"/>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>advertising ban</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
-        </is>
-      </c>
+          <t>adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention </t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>adherence to medication regimen</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr"/>
       <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr"/>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H15" s="2" t="inlineStr"/>
       <c r="I15" s="2" t="inlineStr"/>
       <c r="J15" s="2" t="inlineStr"/>
-      <c r="K15" s="2" t="inlineStr">
-        <is>
-          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
-        </is>
-      </c>
+      <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
       <c r="M15" s="2" t="n">
         <v>0</v>
@@ -1144,11 +1124,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
-      <c r="P15" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P15" s="2" t="inlineStr"/>
       <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1158,34 +1134,62 @@
       <c r="S15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr"/>
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000466</t>
+        </is>
+      </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>age restriction on tobacco sales</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr"/>
-      <c r="D16" s="2" t="inlineStr"/>
-      <c r="E16" s="2" t="inlineStr"/>
+          <t>advertising ban</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr"/>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr"/>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
+        </is>
+      </c>
       <c r="L16" s="2" t="inlineStr"/>
       <c r="M16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr"/>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1198,7 +1202,7 @@
       <c r="A17" s="2" t="inlineStr"/>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>alcohol Use Disorder treatment</t>
+          <t>age restriction on tobacco sales</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr"/>
@@ -1216,7 +1220,7 @@
       <c r="K17" s="2" t="inlineStr"/>
       <c r="L17" s="2" t="inlineStr"/>
       <c r="M17" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="2" t="n">
         <v>0</v>

--- a/inputs/AddictO_Intervention_Defs.xlsx
+++ b/inputs/AddictO_Intervention_Defs.xlsx
@@ -572,11 +572,15 @@
       <c r="J2" s="2" t="inlineStr"/>
       <c r="K2" s="2" t="inlineStr"/>
       <c r="L2" s="2" t="inlineStr"/>
-      <c r="M2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>0</v>
+      <c r="M2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N2" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O2" s="2" t="inlineStr"/>
       <c r="P2" s="2" t="inlineStr"/>
@@ -609,11 +613,15 @@
       <c r="J3" s="2" t="inlineStr"/>
       <c r="K3" s="2" t="inlineStr"/>
       <c r="L3" s="2" t="inlineStr"/>
-      <c r="M3" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>0</v>
+      <c r="M3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N3" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O3" s="2" t="inlineStr"/>
       <c r="P3" s="2" t="inlineStr">
@@ -633,7 +641,7 @@
       <c r="A4" s="2" t="inlineStr"/>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>Behaviour Change Technique</t>
+          <t>Australian Temperament Project</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -650,14 +658,22 @@
       <c r="J4" s="2" t="inlineStr"/>
       <c r="K4" s="2" t="inlineStr"/>
       <c r="L4" s="2" t="inlineStr"/>
-      <c r="M4" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>0</v>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O4" s="2" t="inlineStr"/>
-      <c r="P4" s="2" t="inlineStr"/>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -670,7 +686,7 @@
       <c r="A5" s="2" t="inlineStr"/>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>Cognitive Behavioural Therapy</t>
+          <t>Behaviour Change Technique</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
@@ -683,26 +699,22 @@
       </c>
       <c r="G5" s="2" t="inlineStr"/>
       <c r="H5" s="2" t="inlineStr"/>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>CBT</t>
-        </is>
-      </c>
+      <c r="I5" s="2" t="inlineStr"/>
       <c r="J5" s="2" t="inlineStr"/>
       <c r="K5" s="2" t="inlineStr"/>
       <c r="L5" s="2" t="inlineStr"/>
-      <c r="M5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>0</v>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O5" s="2" t="inlineStr"/>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P5" s="2" t="inlineStr"/>
       <c r="Q5" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -715,7 +727,7 @@
       <c r="A6" s="2" t="inlineStr"/>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
+          <t>Cognitive Behavioural Therapy</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
@@ -728,18 +740,30 @@
       </c>
       <c r="G6" s="2" t="inlineStr"/>
       <c r="H6" s="2" t="inlineStr"/>
-      <c r="I6" s="2" t="inlineStr"/>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>CBT</t>
+        </is>
+      </c>
       <c r="J6" s="2" t="inlineStr"/>
       <c r="K6" s="2" t="inlineStr"/>
       <c r="L6" s="2" t="inlineStr"/>
-      <c r="M6" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" s="2" t="n">
-        <v>0</v>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O6" s="2" t="inlineStr"/>
-      <c r="P6" s="2" t="inlineStr"/>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -752,7 +776,7 @@
       <c r="A7" s="2" t="inlineStr"/>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>Health Canada Intense regimen</t>
+          <t>Community Reinforcement Approach for Seniors (CRA-S)</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -769,11 +793,15 @@
       <c r="J7" s="2" t="inlineStr"/>
       <c r="K7" s="2" t="inlineStr"/>
       <c r="L7" s="2" t="inlineStr"/>
-      <c r="M7" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" s="2" t="n">
-        <v>0</v>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O7" s="2" t="inlineStr"/>
       <c r="P7" s="2" t="inlineStr"/>
@@ -789,7 +817,7 @@
       <c r="A8" s="2" t="inlineStr"/>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>NICE Guidance</t>
+          <t>Health Canada Intense regimen</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
@@ -806,11 +834,15 @@
       <c r="J8" s="2" t="inlineStr"/>
       <c r="K8" s="2" t="inlineStr"/>
       <c r="L8" s="2" t="inlineStr"/>
-      <c r="M8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" s="2" t="n">
-        <v>0</v>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O8" s="2" t="inlineStr"/>
       <c r="P8" s="2" t="inlineStr"/>
@@ -826,36 +858,30 @@
       <c r="A9" s="2" t="inlineStr"/>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>TV advertising</t>
+          <t>NICE Guidance</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
+      <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="2" t="inlineStr"/>
-      <c r="F9" s="2" t="inlineStr"/>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="G9" s="2" t="inlineStr"/>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>Product</t>
-        </is>
-      </c>
+      <c r="H9" s="2" t="inlineStr"/>
       <c r="I9" s="2" t="inlineStr"/>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>Proposed</t>
-        </is>
-      </c>
+      <c r="J9" s="2" t="inlineStr"/>
       <c r="K9" s="2" t="inlineStr"/>
       <c r="L9" s="2" t="inlineStr"/>
       <c r="M9" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O9" s="2" t="inlineStr"/>
       <c r="P9" s="2" t="inlineStr"/>
@@ -871,28 +897,40 @@
       <c r="A10" s="2" t="inlineStr"/>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>UK Psychoactive Substances Act</t>
+          <t>TV advertising</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>Intervention</t>
+        </is>
+      </c>
       <c r="E10" s="2" t="inlineStr"/>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>Intervention</t>
-        </is>
-      </c>
+      <c r="F10" s="2" t="inlineStr"/>
       <c r="G10" s="2" t="inlineStr"/>
-      <c r="H10" s="2" t="inlineStr"/>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>Product</t>
+        </is>
+      </c>
       <c r="I10" s="2" t="inlineStr"/>
-      <c r="J10" s="2" t="inlineStr"/>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>Proposed</t>
+        </is>
+      </c>
       <c r="K10" s="2" t="inlineStr"/>
       <c r="L10" s="2" t="inlineStr"/>
-      <c r="M10" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" s="2" t="n">
-        <v>0</v>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O10" s="2" t="inlineStr"/>
       <c r="P10" s="2" t="inlineStr"/>
@@ -908,7 +946,7 @@
       <c r="A11" s="2" t="inlineStr"/>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>US State Medicaid programme</t>
+          <t>UK Psychoactive Substances Act</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
@@ -925,18 +963,18 @@
       <c r="J11" s="2" t="inlineStr"/>
       <c r="K11" s="2" t="inlineStr"/>
       <c r="L11" s="2" t="inlineStr"/>
-      <c r="M11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" s="2" t="n">
-        <v>0</v>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O11" s="2" t="inlineStr"/>
-      <c r="P11" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P11" s="2" t="inlineStr"/>
       <c r="Q11" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -949,7 +987,7 @@
       <c r="A12" s="2" t="inlineStr"/>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>US governmental regulation</t>
+          <t>US State Medicaid programme</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -967,13 +1005,19 @@
       <c r="K12" s="2" t="inlineStr"/>
       <c r="L12" s="2" t="inlineStr"/>
       <c r="M12" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O12" s="2" t="inlineStr"/>
-      <c r="P12" s="2" t="inlineStr"/>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -983,31 +1027,15 @@
       <c r="S12" s="2" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000464</t>
-        </is>
-      </c>
+      <c r="A13" s="2" t="inlineStr"/>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>accessibility of primary healthcare physician advice</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>accessibility of a service</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>US governmental regulation</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr"/>
+      <c r="D13" s="2" t="inlineStr"/>
+      <c r="E13" s="2" t="inlineStr"/>
       <c r="F13" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -1019,18 +1047,18 @@
       <c r="J13" s="2" t="inlineStr"/>
       <c r="K13" s="2" t="inlineStr"/>
       <c r="L13" s="2" t="inlineStr"/>
-      <c r="M13" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" s="2" t="n">
-        <v>0</v>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O13" s="2" t="inlineStr"/>
-      <c r="P13" s="2" t="inlineStr">
-        <is>
-          <t>RW</t>
-        </is>
-      </c>
+      <c r="P13" s="2" t="inlineStr"/>
       <c r="Q13" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1042,22 +1070,22 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000465</t>
+          <t>ADDICTO:0000464</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>addiction treatment</t>
+          <t>accessibility of primary healthcare physician advice</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>Treatment in which the disorder that is being treated is addiction.</t>
+          <t>An environmental disposition that is the extent to which an environment enables people in that environment to receiveadvice from a primary health care physician.</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>treatment</t>
+          <t>accessibility of a service</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1076,14 +1104,22 @@
       <c r="J14" s="2" t="inlineStr"/>
       <c r="K14" s="2" t="inlineStr"/>
       <c r="L14" s="2" t="inlineStr"/>
-      <c r="M14" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" s="2" t="n">
-        <v>0</v>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O14" s="2" t="inlineStr"/>
-      <c r="P14" s="2" t="inlineStr"/>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1093,19 +1129,31 @@
       <c r="S14" s="2" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" s="2" t="inlineStr"/>
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000465</t>
+        </is>
+      </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>adherence to opioid agonist therapy</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr"/>
+          <t>addiction treatment</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>Treatment in which the disorder that is being treated is addiction.</t>
+        </is>
+      </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>adherence to medication regimen</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr"/>
+          <t>treatment</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
@@ -1117,11 +1165,15 @@
       <c r="J15" s="2" t="inlineStr"/>
       <c r="K15" s="2" t="inlineStr"/>
       <c r="L15" s="2" t="inlineStr"/>
-      <c r="M15" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" s="2" t="n">
-        <v>0</v>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O15" s="2" t="inlineStr"/>
       <c r="P15" s="2" t="inlineStr"/>
@@ -1134,62 +1186,42 @@
       <c r="S15" s="2" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000466</t>
-        </is>
-      </c>
+      <c r="A16" s="2" t="inlineStr"/>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>advertising ban</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
-        </is>
-      </c>
+          <t>adherence to opioid agonist therapy</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t xml:space="preserve">Behaviour change intervention </t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>Process</t>
-        </is>
-      </c>
+          <t>adherence to medication regimen</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr"/>
       <c r="F16" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr"/>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H16" s="2" t="inlineStr"/>
       <c r="I16" s="2" t="inlineStr"/>
       <c r="J16" s="2" t="inlineStr"/>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
-        </is>
-      </c>
+      <c r="K16" s="2" t="inlineStr"/>
       <c r="L16" s="2" t="inlineStr"/>
-      <c r="M16" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="2" t="n">
-        <v>0</v>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O16" s="2" t="inlineStr"/>
-      <c r="P16" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P16" s="2" t="inlineStr"/>
       <c r="Q16" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1199,34 +1231,66 @@
       <c r="S16" s="2" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" s="2" t="inlineStr"/>
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000466</t>
+        </is>
+      </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>age restriction on tobacco sales</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
-      <c r="E17" s="2" t="inlineStr"/>
+          <t>advertising ban</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>A behaviour change intervention that involves prohibition of advertising or marketing of a product in a jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Behaviour change intervention </t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>Process</t>
+        </is>
+      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr"/>
-      <c r="H17" s="2" t="inlineStr"/>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I17" s="2" t="inlineStr"/>
       <c r="J17" s="2" t="inlineStr"/>
-      <c r="K17" s="2" t="inlineStr"/>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>This may involve a subset of the modalities of advertising such as TV. A total advertising ban would be one that banned all forms of advertising and marketing.</t>
+        </is>
+      </c>
       <c r="L17" s="2" t="inlineStr"/>
-      <c r="M17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" s="2" t="n">
-        <v>0</v>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O17" s="2" t="inlineStr"/>
-      <c r="P17" s="2" t="inlineStr"/>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1239,7 +1303,7 @@
       <c r="A18" s="2" t="inlineStr"/>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>alcohol consumption recommendation</t>
+          <t>age restriction on tobacco sales</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -1257,10 +1321,12 @@
       <c r="K18" s="2" t="inlineStr"/>
       <c r="L18" s="2" t="inlineStr"/>
       <c r="M18" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O18" s="2" t="inlineStr"/>
       <c r="P18" s="2" t="inlineStr"/>
@@ -1273,58 +1339,38 @@
       <c r="S18" s="2" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000467</t>
-        </is>
-      </c>
+      <c r="A19" s="2" t="inlineStr"/>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>government policy</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol consumption recommendation</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr"/>
+      <c r="D19" s="2" t="inlineStr"/>
+      <c r="E19" s="2" t="inlineStr"/>
       <c r="F19" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr"/>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
-        </is>
-      </c>
+      <c r="H19" s="2" t="inlineStr"/>
       <c r="I19" s="2" t="inlineStr"/>
       <c r="J19" s="2" t="inlineStr"/>
       <c r="K19" s="2" t="inlineStr"/>
       <c r="L19" s="2" t="inlineStr"/>
-      <c r="M19" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" s="2" t="n">
-        <v>0</v>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O19" s="2" t="inlineStr"/>
-      <c r="P19" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P19" s="2" t="inlineStr"/>
       <c r="Q19" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1336,22 +1382,22 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>ADDICTO:0000468</t>
+          <t>ADDICTO:0000467</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>alcohol harm reduction policy</t>
+          <t>alcohol control policy</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+          <t>A government policy aimed at reducing consumption of alcohol or harm from consumption of alcohol in a population under its jurisdiction.</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>alcohol control policy</t>
+          <t>government policy</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -1367,18 +1413,22 @@
       <c r="G20" s="2" t="inlineStr"/>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
+          <t>No appropriate definition found. Definition based on usage. A disjunctive class.</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr"/>
       <c r="J20" s="2" t="inlineStr"/>
       <c r="K20" s="2" t="inlineStr"/>
       <c r="L20" s="2" t="inlineStr"/>
-      <c r="M20" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="2" t="n">
-        <v>0</v>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O20" s="2" t="inlineStr"/>
       <c r="P20" s="2" t="inlineStr">
@@ -1395,34 +1445,62 @@
       <c r="S20" s="2" t="inlineStr"/>
     </row>
     <row r="21">
-      <c r="A21" s="2" t="inlineStr"/>
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000468</t>
+        </is>
+      </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>alcohol policy</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr"/>
-      <c r="D21" s="2" t="inlineStr"/>
-      <c r="E21" s="2" t="inlineStr"/>
+          <t>alcohol harm reduction policy</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the harm from consumption of alcohol in a population under its jurisdication without promoting complete abstinence from alcohol.</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr"/>
-      <c r="H21" s="2" t="inlineStr"/>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I21" s="2" t="inlineStr"/>
       <c r="J21" s="2" t="inlineStr"/>
       <c r="K21" s="2" t="inlineStr"/>
       <c r="L21" s="2" t="inlineStr"/>
-      <c r="M21" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" s="2" t="n">
-        <v>0</v>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O21" s="2" t="inlineStr"/>
-      <c r="P21" s="2" t="inlineStr"/>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1432,58 +1510,38 @@
       <c r="S21" s="2" t="inlineStr"/>
     </row>
     <row r="22">
-      <c r="A22" s="2" t="inlineStr">
-        <is>
-          <t>ADDICTO:0000469</t>
-        </is>
-      </c>
+      <c r="A22" s="2" t="inlineStr"/>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>alcohol reduction policy</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>alcohol control policy</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>Generically dependent continuant</t>
-        </is>
-      </c>
+          <t>alcohol policy</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr"/>
+      <c r="D22" s="2" t="inlineStr"/>
+      <c r="E22" s="2" t="inlineStr"/>
       <c r="F22" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr"/>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>No appropriate definition found. Definition based on usage.</t>
-        </is>
-      </c>
+      <c r="H22" s="2" t="inlineStr"/>
       <c r="I22" s="2" t="inlineStr"/>
       <c r="J22" s="2" t="inlineStr"/>
       <c r="K22" s="2" t="inlineStr"/>
       <c r="L22" s="2" t="inlineStr"/>
-      <c r="M22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" s="2" t="n">
-        <v>0</v>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O22" s="2" t="inlineStr"/>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>JH</t>
-        </is>
-      </c>
+      <c r="P22" s="2" t="inlineStr"/>
       <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1493,34 +1551,62 @@
       <c r="S22" s="2" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" s="2" t="inlineStr"/>
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>ADDICTO:0000469</t>
+        </is>
+      </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>alcohol screening and brief advice delivery</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr"/>
-      <c r="D23" s="2" t="inlineStr"/>
-      <c r="E23" s="2" t="inlineStr"/>
+          <t>alcohol reduction policy</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>An alcohol control policy aimed at reducing the consumption of alcohol in a population under its jurisdiction.</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>alcohol control policy</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>Generically dependent continuant</t>
+        </is>
+      </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
           <t>Intervention</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr"/>
-      <c r="H23" s="2" t="inlineStr"/>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>No appropriate definition found. Definition based on usage.</t>
+        </is>
+      </c>
       <c r="I23" s="2" t="inlineStr"/>
       <c r="J23" s="2" t="inlineStr"/>
       <c r="K23" s="2" t="inlineStr"/>
       <c r="L23" s="2" t="inlineStr"/>
-      <c r="M23" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" s="2" t="n">
-        <v>0</v>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O23" s="2" t="inlineStr"/>
-      <c r="P23" s="2" t="inlineStr"/>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>JH</t>
+        </is>
+      </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
           <t>Proposed</t>
@@ -1533,7 +1619,7 @@
       <c r="A24" s="2" t="inlineStr"/>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>alcohol serving size reduction</t>
+          <t>alcohol screening and brief advice delivery</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
@@ -1550,11 +1636,15 @@
       <c r="J24" s="2" t="inlineStr"/>
       <c r="K24" s="2" t="inlineStr"/>
       <c r="L24" s="2" t="inlineStr"/>
-      <c r="M24" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" s="2" t="n">
-        <v>0</v>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O24" s="2" t="inlineStr"/>
       <c r="P24" s="2" t="inlineStr"/>
@@ -1570,7 +1660,7 @@
       <c r="A25" s="2" t="inlineStr"/>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>alcohol tax</t>
+          <t>alcohol serving size reduction</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
@@ -1587,11 +1677,15 @@
       <c r="J25" s="2" t="inlineStr"/>
       <c r="K25" s="2" t="inlineStr"/>
       <c r="L25" s="2" t="inlineStr"/>
-      <c r="M25" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" s="2" t="n">
-        <v>0</v>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O25" s="2" t="inlineStr"/>
       <c r="P25" s="2" t="inlineStr"/>
@@ -1607,7 +1701,7 @@
       <c r="A26" s="2" t="inlineStr"/>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>alcohol use prevention</t>
+          <t>alcohol tax</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -1624,11 +1718,15 @@
       <c r="J26" s="2" t="inlineStr"/>
       <c r="K26" s="2" t="inlineStr"/>
       <c r="L26" s="2" t="inlineStr"/>
-      <c r="M26" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" s="2" t="n">
-        <v>0</v>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O26" s="2" t="inlineStr"/>
       <c r="P26" s="2" t="inlineStr"/>
@@ -1644,7 +1742,7 @@
       <c r="A27" s="2" t="inlineStr"/>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>anti-tobacco advocacy</t>
+          <t>alcohol use prevention</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
@@ -1661,11 +1759,15 @@
       <c r="J27" s="2" t="inlineStr"/>
       <c r="K27" s="2" t="inlineStr"/>
       <c r="L27" s="2" t="inlineStr"/>
-      <c r="M27" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" s="2" t="n">
-        <v>0</v>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O27" s="2" t="inlineStr"/>
       <c r="P27" s="2" t="inlineStr"/>
@@ -1681,14 +1783,10 @@
       <c r="A28" s="2" t="inlineStr"/>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>anti-tobacco mass media campaign</t>
-        </is>
-      </c>
-      <c r="C28" s="2" t="inlineStr">
-        <is>
-          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
-        </is>
-      </c>
+          <t>anti-tobacco advocacy</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="2" t="inlineStr"/>
       <c r="F28" s="2" t="inlineStr">
@@ -1702,11 +1800,15 @@
       <c r="J28" s="2" t="inlineStr"/>
       <c r="K28" s="2" t="inlineStr"/>
       <c r="L28" s="2" t="inlineStr"/>
-      <c r="M28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" s="2" t="n">
-        <v>0</v>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O28" s="2" t="inlineStr"/>
       <c r="P28" s="2" t="inlineStr"/>
@@ -1722,10 +1824,14 @@
       <c r="A29" s="2" t="inlineStr"/>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>at-home cessation support</t>
-        </is>
-      </c>
-      <c r="C29" s="2" t="inlineStr"/>
+          <t>anti-tobacco mass media campaign</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>A mass media campaign aimed at reducing tobacco use; may include TV, radio, and print advertising.</t>
+        </is>
+      </c>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="2" t="inlineStr"/>
       <c r="F29" s="2" t="inlineStr">
@@ -1740,10 +1846,12 @@
       <c r="K29" s="2" t="inlineStr"/>
       <c r="L29" s="2" t="inlineStr"/>
       <c r="M29" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O29" s="2" t="inlineStr"/>
       <c r="P29" s="2" t="inlineStr"/>
@@ -1759,7 +1867,7 @@
       <c r="A30" s="2" t="inlineStr"/>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>australian Temperament Project</t>
+          <t>at-home cessation support</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -1776,11 +1884,15 @@
       <c r="J30" s="2" t="inlineStr"/>
       <c r="K30" s="2" t="inlineStr"/>
       <c r="L30" s="2" t="inlineStr"/>
-      <c r="M30" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" s="2" t="n">
-        <v>0</v>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O30" s="2" t="inlineStr"/>
       <c r="P30" s="2" t="inlineStr"/>
@@ -1813,11 +1925,15 @@
       <c r="J31" s="2" t="inlineStr"/>
       <c r="K31" s="2" t="inlineStr"/>
       <c r="L31" s="2" t="inlineStr"/>
-      <c r="M31" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" s="2" t="n">
-        <v>0</v>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N31" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O31" s="2" t="inlineStr"/>
       <c r="P31" s="2" t="inlineStr"/>
@@ -1850,11 +1966,15 @@
       <c r="J32" s="2" t="inlineStr"/>
       <c r="K32" s="2" t="inlineStr"/>
       <c r="L32" s="2" t="inlineStr"/>
-      <c r="M32" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" s="2" t="n">
-        <v>0</v>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N32" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O32" s="2" t="inlineStr"/>
       <c r="P32" s="2" t="inlineStr"/>
@@ -1887,11 +2007,15 @@
       <c r="J33" s="2" t="inlineStr"/>
       <c r="K33" s="2" t="inlineStr"/>
       <c r="L33" s="2" t="inlineStr"/>
-      <c r="M33" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" s="2" t="n">
-        <v>0</v>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N33" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O33" s="2" t="inlineStr"/>
       <c r="P33" s="2" t="inlineStr"/>
@@ -1924,11 +2048,15 @@
       <c r="J34" s="2" t="inlineStr"/>
       <c r="K34" s="2" t="inlineStr"/>
       <c r="L34" s="2" t="inlineStr"/>
-      <c r="M34" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" s="2" t="n">
-        <v>0</v>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N34" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O34" s="2" t="inlineStr"/>
       <c r="P34" s="2" t="inlineStr"/>
@@ -1964,8 +2092,10 @@
       <c r="M35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N35" s="2" t="n">
-        <v>0</v>
+      <c r="N35" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O35" s="2" t="inlineStr"/>
       <c r="P35" s="2" t="inlineStr"/>
@@ -1998,11 +2128,15 @@
       <c r="J36" s="2" t="inlineStr"/>
       <c r="K36" s="2" t="inlineStr"/>
       <c r="L36" s="2" t="inlineStr"/>
-      <c r="M36" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" s="2" t="n">
-        <v>0</v>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N36" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O36" s="2" t="inlineStr"/>
       <c r="P36" s="2" t="inlineStr"/>
@@ -2035,11 +2169,15 @@
       <c r="J37" s="2" t="inlineStr"/>
       <c r="K37" s="2" t="inlineStr"/>
       <c r="L37" s="2" t="inlineStr"/>
-      <c r="M37" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" s="2" t="n">
-        <v>0</v>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N37" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O37" s="2" t="inlineStr"/>
       <c r="P37" s="2" t="inlineStr"/>
@@ -2072,11 +2210,15 @@
       <c r="J38" s="2" t="inlineStr"/>
       <c r="K38" s="2" t="inlineStr"/>
       <c r="L38" s="2" t="inlineStr"/>
-      <c r="M38" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" s="2" t="n">
-        <v>0</v>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N38" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O38" s="2" t="inlineStr"/>
       <c r="P38" s="2" t="inlineStr"/>
@@ -2109,11 +2251,15 @@
       <c r="J39" s="2" t="inlineStr"/>
       <c r="K39" s="2" t="inlineStr"/>
       <c r="L39" s="2" t="inlineStr"/>
-      <c r="M39" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" s="2" t="n">
-        <v>0</v>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N39" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O39" s="2" t="inlineStr"/>
       <c r="P39" s="2" t="inlineStr"/>
@@ -2146,11 +2292,15 @@
       <c r="J40" s="2" t="inlineStr"/>
       <c r="K40" s="2" t="inlineStr"/>
       <c r="L40" s="2" t="inlineStr"/>
-      <c r="M40" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" s="2" t="n">
-        <v>0</v>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N40" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O40" s="2" t="inlineStr"/>
       <c r="P40" s="2" t="inlineStr"/>
@@ -2183,11 +2333,15 @@
       <c r="J41" s="2" t="inlineStr"/>
       <c r="K41" s="2" t="inlineStr"/>
       <c r="L41" s="2" t="inlineStr"/>
-      <c r="M41" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" s="2" t="n">
-        <v>0</v>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N41" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O41" s="2" t="inlineStr"/>
       <c r="P41" s="2" t="inlineStr"/>
@@ -2220,11 +2374,15 @@
       <c r="J42" s="2" t="inlineStr"/>
       <c r="K42" s="2" t="inlineStr"/>
       <c r="L42" s="2" t="inlineStr"/>
-      <c r="M42" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" s="2" t="n">
-        <v>0</v>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O42" s="2" t="inlineStr"/>
       <c r="P42" s="2" t="inlineStr"/>
@@ -2257,11 +2415,15 @@
       <c r="J43" s="2" t="inlineStr"/>
       <c r="K43" s="2" t="inlineStr"/>
       <c r="L43" s="2" t="inlineStr"/>
-      <c r="M43" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" s="2" t="n">
-        <v>0</v>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N43" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O43" s="2" t="inlineStr"/>
       <c r="P43" s="2" t="inlineStr"/>
@@ -2294,11 +2456,15 @@
       <c r="J44" s="2" t="inlineStr"/>
       <c r="K44" s="2" t="inlineStr"/>
       <c r="L44" s="2" t="inlineStr"/>
-      <c r="M44" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" s="2" t="n">
-        <v>0</v>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N44" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O44" s="2" t="inlineStr"/>
       <c r="P44" s="2" t="inlineStr"/>
@@ -2331,11 +2497,15 @@
       <c r="J45" s="2" t="inlineStr"/>
       <c r="K45" s="2" t="inlineStr"/>
       <c r="L45" s="2" t="inlineStr"/>
-      <c r="M45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" s="2" t="n">
-        <v>0</v>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N45" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O45" s="2" t="inlineStr"/>
       <c r="P45" s="2" t="inlineStr"/>
@@ -2368,11 +2538,15 @@
       <c r="J46" s="2" t="inlineStr"/>
       <c r="K46" s="2" t="inlineStr"/>
       <c r="L46" s="2" t="inlineStr"/>
-      <c r="M46" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" s="2" t="n">
-        <v>0</v>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N46" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O46" s="2" t="inlineStr"/>
       <c r="P46" s="2" t="inlineStr"/>
@@ -2408,8 +2582,10 @@
       <c r="M47" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N47" s="2" t="n">
-        <v>0</v>
+      <c r="N47" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O47" s="2" t="inlineStr"/>
       <c r="P47" s="2" t="inlineStr"/>
@@ -2442,11 +2618,15 @@
       <c r="J48" s="2" t="inlineStr"/>
       <c r="K48" s="2" t="inlineStr"/>
       <c r="L48" s="2" t="inlineStr"/>
-      <c r="M48" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" s="2" t="n">
-        <v>0</v>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N48" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O48" s="2" t="inlineStr"/>
       <c r="P48" s="2" t="inlineStr"/>
@@ -2479,11 +2659,15 @@
       <c r="J49" s="2" t="inlineStr"/>
       <c r="K49" s="2" t="inlineStr"/>
       <c r="L49" s="2" t="inlineStr"/>
-      <c r="M49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" s="2" t="n">
-        <v>0</v>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N49" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O49" s="2" t="inlineStr"/>
       <c r="P49" s="2" t="inlineStr"/>
@@ -2516,11 +2700,15 @@
       <c r="J50" s="2" t="inlineStr"/>
       <c r="K50" s="2" t="inlineStr"/>
       <c r="L50" s="2" t="inlineStr"/>
-      <c r="M50" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" s="2" t="n">
-        <v>0</v>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N50" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O50" s="2" t="inlineStr"/>
       <c r="P50" s="2" t="inlineStr"/>
@@ -2553,11 +2741,15 @@
       <c r="J51" s="2" t="inlineStr"/>
       <c r="K51" s="2" t="inlineStr"/>
       <c r="L51" s="2" t="inlineStr"/>
-      <c r="M51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N51" s="2" t="n">
-        <v>0</v>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N51" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O51" s="2" t="inlineStr"/>
       <c r="P51" s="2" t="inlineStr"/>
@@ -2606,11 +2798,15 @@
       <c r="J52" s="2" t="inlineStr"/>
       <c r="K52" s="2" t="inlineStr"/>
       <c r="L52" s="2" t="inlineStr"/>
-      <c r="M52" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N52" s="2" t="n">
-        <v>0</v>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N52" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O52" s="2" t="inlineStr"/>
       <c r="P52" s="2" t="inlineStr">
@@ -2647,11 +2843,15 @@
       <c r="J53" s="2" t="inlineStr"/>
       <c r="K53" s="2" t="inlineStr"/>
       <c r="L53" s="2" t="inlineStr"/>
-      <c r="M53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N53" s="2" t="n">
-        <v>0</v>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N53" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O53" s="2" t="inlineStr"/>
       <c r="P53" s="2" t="inlineStr"/>
@@ -2684,11 +2884,15 @@
       <c r="J54" s="2" t="inlineStr"/>
       <c r="K54" s="2" t="inlineStr"/>
       <c r="L54" s="2" t="inlineStr"/>
-      <c r="M54" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N54" s="2" t="n">
-        <v>0</v>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N54" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O54" s="2" t="inlineStr"/>
       <c r="P54" s="2" t="inlineStr"/>
@@ -2737,11 +2941,15 @@
       <c r="J55" s="2" t="inlineStr"/>
       <c r="K55" s="2" t="inlineStr"/>
       <c r="L55" s="2" t="inlineStr"/>
-      <c r="M55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N55" s="2" t="n">
-        <v>0</v>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N55" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O55" s="2" t="inlineStr"/>
       <c r="P55" s="2" t="inlineStr">
@@ -2778,11 +2986,15 @@
       <c r="J56" s="2" t="inlineStr"/>
       <c r="K56" s="2" t="inlineStr"/>
       <c r="L56" s="2" t="inlineStr"/>
-      <c r="M56" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N56" s="2" t="n">
-        <v>0</v>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N56" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O56" s="2" t="inlineStr"/>
       <c r="P56" s="2" t="inlineStr"/>
@@ -2835,11 +3047,15 @@
       <c r="J57" s="2" t="inlineStr"/>
       <c r="K57" s="2" t="inlineStr"/>
       <c r="L57" s="2" t="inlineStr"/>
-      <c r="M57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N57" s="2" t="n">
-        <v>0</v>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N57" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O57" s="2" t="inlineStr"/>
       <c r="P57" s="2" t="inlineStr">
@@ -2876,11 +3092,15 @@
       <c r="J58" s="2" t="inlineStr"/>
       <c r="K58" s="2" t="inlineStr"/>
       <c r="L58" s="2" t="inlineStr"/>
-      <c r="M58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N58" s="2" t="n">
-        <v>0</v>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N58" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O58" s="2" t="inlineStr"/>
       <c r="P58" s="2" t="inlineStr"/>
@@ -2933,11 +3153,15 @@
       <c r="J59" s="2" t="inlineStr"/>
       <c r="K59" s="2" t="inlineStr"/>
       <c r="L59" s="2" t="inlineStr"/>
-      <c r="M59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N59" s="2" t="n">
-        <v>0</v>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N59" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O59" s="2" t="inlineStr"/>
       <c r="P59" s="2" t="inlineStr">
@@ -2974,11 +3198,15 @@
       <c r="J60" s="2" t="inlineStr"/>
       <c r="K60" s="2" t="inlineStr"/>
       <c r="L60" s="2" t="inlineStr"/>
-      <c r="M60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N60" s="2" t="n">
-        <v>0</v>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N60" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O60" s="2" t="inlineStr"/>
       <c r="P60" s="2" t="inlineStr"/>
@@ -3027,11 +3255,15 @@
       <c r="J61" s="2" t="inlineStr"/>
       <c r="K61" s="2" t="inlineStr"/>
       <c r="L61" s="2" t="inlineStr"/>
-      <c r="M61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N61" s="2" t="n">
-        <v>0</v>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N61" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O61" s="2" t="inlineStr"/>
       <c r="P61" s="2" t="inlineStr"/>
@@ -3064,11 +3296,15 @@
       <c r="J62" s="2" t="inlineStr"/>
       <c r="K62" s="2" t="inlineStr"/>
       <c r="L62" s="2" t="inlineStr"/>
-      <c r="M62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N62" s="2" t="n">
-        <v>0</v>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N62" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O62" s="2" t="inlineStr"/>
       <c r="P62" s="2" t="inlineStr"/>
@@ -3101,11 +3337,15 @@
       <c r="J63" s="2" t="inlineStr"/>
       <c r="K63" s="2" t="inlineStr"/>
       <c r="L63" s="2" t="inlineStr"/>
-      <c r="M63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N63" s="2" t="n">
-        <v>0</v>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N63" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O63" s="2" t="inlineStr"/>
       <c r="P63" s="2" t="inlineStr"/>
@@ -3138,11 +3378,15 @@
       <c r="J64" s="2" t="inlineStr"/>
       <c r="K64" s="2" t="inlineStr"/>
       <c r="L64" s="2" t="inlineStr"/>
-      <c r="M64" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N64" s="2" t="n">
-        <v>0</v>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N64" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O64" s="2" t="inlineStr"/>
       <c r="P64" s="2" t="inlineStr"/>
@@ -3175,11 +3419,15 @@
       <c r="J65" s="2" t="inlineStr"/>
       <c r="K65" s="2" t="inlineStr"/>
       <c r="L65" s="2" t="inlineStr"/>
-      <c r="M65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N65" s="2" t="n">
-        <v>0</v>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N65" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O65" s="2" t="inlineStr"/>
       <c r="P65" s="2" t="inlineStr"/>
@@ -3219,8 +3467,10 @@
       <c r="M66" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="N66" s="2" t="n">
-        <v>0</v>
+      <c r="N66" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="O66" s="2" t="inlineStr"/>
       <c r="P66" s="2" t="inlineStr"/>
@@ -3273,11 +3523,15 @@
       <c r="J67" s="2" t="inlineStr"/>
       <c r="K67" s="2" t="inlineStr"/>
       <c r="L67" s="2" t="inlineStr"/>
-      <c r="M67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N67" s="2" t="n">
-        <v>0</v>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N67" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
      